--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
@@ -10,12 +10,13 @@
     <sheet name="HORIZONTAL_TAIL" r:id="rId4" sheetId="2"/>
     <sheet name="VERTICAL_TAIL" r:id="rId5" sheetId="3"/>
     <sheet name="FUSELAGE" r:id="rId6" sheetId="4"/>
+    <sheet name="NACELLE" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="141">
   <si>
     <t>Description</t>
   </si>
@@ -34224,7 +34225,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.017440525689364335</v>
+        <v>-0.08758897794946623</v>
       </c>
     </row>
     <row r="19">
@@ -34481,6 +34482,707 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+    <col min="4" max="4" width="15.0" customWidth="true"/>
+    <col min="5" max="5" width="15.0" customWidth="true"/>
+    <col min="6" max="6" width="15.0" customWidth="true"/>
+    <col min="7" max="7" width="15.0" customWidth="true"/>
+    <col min="8" max="8" width="15.0" customWidth="true"/>
+    <col min="9" max="9" width="15.0" customWidth="true"/>
+    <col min="10" max="10" width="15.0" customWidth="true"/>
+    <col min="11" max="11" width="15.0" customWidth="true"/>
+    <col min="12" max="12" width="15.0" customWidth="true"/>
+    <col min="13" max="13" width="15.0" customWidth="true"/>
+    <col min="14" max="14" width="15.0" customWidth="true"/>
+    <col min="15" max="15" width="15.0" customWidth="true"/>
+    <col min="16" max="16" width="15.0" customWidth="true"/>
+    <col min="17" max="17" width="15.0" customWidth="true"/>
+    <col min="18" max="18" width="15.0" customWidth="true"/>
+    <col min="19" max="19" width="15.0" customWidth="true"/>
+    <col min="20" max="20" width="15.0" customWidth="true"/>
+    <col min="21" max="21" width="15.0" customWidth="true"/>
+    <col min="22" max="22" width="15.0" customWidth="true"/>
+    <col min="23" max="23" width="15.0" customWidth="true"/>
+    <col min="24" max="24" width="15.0" customWidth="true"/>
+    <col min="25" max="25" width="15.0" customWidth="true"/>
+    <col min="26" max="26" width="15.0" customWidth="true"/>
+    <col min="27" max="27" width="15.0" customWidth="true"/>
+    <col min="28" max="28" width="15.0" customWidth="true"/>
+    <col min="29" max="29" width="15.0" customWidth="true"/>
+    <col min="30" max="30" width="15.0" customWidth="true"/>
+    <col min="31" max="31" width="15.0" customWidth="true"/>
+    <col min="32" max="32" width="15.0" customWidth="true"/>
+    <col min="33" max="33" width="15.0" customWidth="true"/>
+    <col min="34" max="34" width="15.0" customWidth="true"/>
+    <col min="35" max="35" width="15.0" customWidth="true"/>
+    <col min="36" max="36" width="15.0" customWidth="true"/>
+    <col min="37" max="37" width="15.0" customWidth="true"/>
+    <col min="38" max="38" width="15.0" customWidth="true"/>
+    <col min="39" max="39" width="15.0" customWidth="true"/>
+    <col min="40" max="40" width="15.0" customWidth="true"/>
+    <col min="41" max="41" width="15.0" customWidth="true"/>
+    <col min="42" max="42" width="15.0" customWidth="true"/>
+    <col min="43" max="43" width="15.0" customWidth="true"/>
+    <col min="44" max="44" width="15.0" customWidth="true"/>
+    <col min="45" max="45" width="15.0" customWidth="true"/>
+    <col min="46" max="46" width="15.0" customWidth="true"/>
+    <col min="47" max="47" width="15.0" customWidth="true"/>
+    <col min="48" max="48" width="15.0" customWidth="true"/>
+    <col min="49" max="49" width="15.0" customWidth="true"/>
+    <col min="50" max="50" width="15.0" customWidth="true"/>
+    <col min="51" max="51" width="15.0" customWidth="true"/>
+    <col min="52" max="52" width="15.0" customWidth="true"/>
+    <col min="53" max="53" width="15.0" customWidth="true"/>
+    <col min="54" max="54" width="15.0" customWidth="true"/>
+    <col min="55" max="55" width="15.0" customWidth="true"/>
+    <col min="56" max="56" width="15.0" customWidth="true"/>
+    <col min="57" max="57" width="15.0" customWidth="true"/>
+    <col min="58" max="58" width="15.0" customWidth="true"/>
+    <col min="59" max="59" width="15.0" customWidth="true"/>
+    <col min="60" max="60" width="15.0" customWidth="true"/>
+    <col min="61" max="61" width="15.0" customWidth="true"/>
+    <col min="62" max="62" width="15.0" customWidth="true"/>
+    <col min="63" max="63" width="15.0" customWidth="true"/>
+    <col min="64" max="64" width="15.0" customWidth="true"/>
+    <col min="65" max="65" width="15.0" customWidth="true"/>
+    <col min="66" max="66" width="15.0" customWidth="true"/>
+    <col min="67" max="67" width="15.0" customWidth="true"/>
+    <col min="68" max="68" width="15.0" customWidth="true"/>
+    <col min="69" max="69" width="15.0" customWidth="true"/>
+    <col min="70" max="70" width="15.0" customWidth="true"/>
+    <col min="71" max="71" width="15.0" customWidth="true"/>
+    <col min="72" max="72" width="15.0" customWidth="true"/>
+    <col min="73" max="73" width="15.0" customWidth="true"/>
+    <col min="74" max="74" width="15.0" customWidth="true"/>
+    <col min="75" max="75" width="15.0" customWidth="true"/>
+    <col min="76" max="76" width="15.0" customWidth="true"/>
+    <col min="77" max="77" width="15.0" customWidth="true"/>
+    <col min="78" max="78" width="15.0" customWidth="true"/>
+    <col min="79" max="79" width="15.0" customWidth="true"/>
+    <col min="80" max="80" width="15.0" customWidth="true"/>
+    <col min="81" max="81" width="15.0" customWidth="true"/>
+    <col min="82" max="82" width="15.0" customWidth="true"/>
+    <col min="83" max="83" width="15.0" customWidth="true"/>
+    <col min="84" max="84" width="15.0" customWidth="true"/>
+    <col min="85" max="85" width="15.0" customWidth="true"/>
+    <col min="86" max="86" width="15.0" customWidth="true"/>
+    <col min="87" max="87" width="15.0" customWidth="true"/>
+    <col min="88" max="88" width="15.0" customWidth="true"/>
+    <col min="89" max="89" width="15.0" customWidth="true"/>
+    <col min="90" max="90" width="15.0" customWidth="true"/>
+    <col min="91" max="91" width="15.0" customWidth="true"/>
+    <col min="92" max="92" width="15.0" customWidth="true"/>
+    <col min="93" max="93" width="15.0" customWidth="true"/>
+    <col min="94" max="94" width="15.0" customWidth="true"/>
+    <col min="95" max="95" width="15.0" customWidth="true"/>
+    <col min="96" max="96" width="15.0" customWidth="true"/>
+    <col min="97" max="97" width="15.0" customWidth="true"/>
+    <col min="98" max="98" width="15.0" customWidth="true"/>
+    <col min="99" max="99" width="15.0" customWidth="true"/>
+    <col min="100" max="100" width="15.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0012525983542204674</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.604733885683139E-6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0013619260038912088</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0037786126373801324</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-7.999999999999998</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-6.999999999999998</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-5.999999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-4.999999999999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-3.999999999999999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-2.999999999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-1.9999999999999996</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.9999999999999998</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3.9999999999999996</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.999999999999999</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5.999999999999999</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6.999999999999999</v>
+      </c>
+      <c r="S10" t="n">
+        <v>7.999999999999999</v>
+      </c>
+      <c r="T10" t="n">
+        <v>8.999999999999998</v>
+      </c>
+      <c r="U10" t="n">
+        <v>9.999999999999998</v>
+      </c>
+      <c r="V10" t="n">
+        <v>10.999999999999998</v>
+      </c>
+      <c r="W10" t="n">
+        <v>11.999999999999998</v>
+      </c>
+      <c r="X10" t="n">
+        <v>12.999999999999998</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>13.999999999999998</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>14.999999999999998</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>15.999999999999998</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>16.999999999999996</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>17.999999999999996</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>18.999999999999996</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19.999999999999996</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>20.999999999999996</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>21.999999999999996</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>22.999999999999996</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>23.999999999999996</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>24.999999999999996</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.010808476575733635</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.00860849024658248</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.006696254072000693</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.005073488332942281</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.003741913310361255</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0027032492852116243</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0019592165384474</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0015115353510225917</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0013619260038912088</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0015121087780072616</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.00196380395432476</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0027187318137977135</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.0037786126373801324</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.005145166706026026</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.006820114300689405</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.008805175702324279</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.011102071191884659</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.013712521050324548</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.01663824555859797</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.01988096499765892</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.023442399648461423</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.02732426979195948</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.03152829570910709</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.03605619768085828</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.04090969598816706</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.046090510911987424</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.051600362733273376</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.057440971732978977</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.06361405819205819</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.07012134239146506</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.0769645446121535</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.08414538513507766</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.09166558424119146</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.09952686221144896</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.0022290592726745195</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.4254522230793374E-5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.0021805502282129328</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-7.999999999999998</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-6.999999999999998</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-5.999999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-4.999999999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-3.999999999999999</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-2.999999999999999</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-1.9999999999999996</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.9999999999999998</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3.9999999999999996</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.999999999999999</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5.999999999999999</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6.999999999999999</v>
+      </c>
+      <c r="S21" t="n">
+        <v>7.999999999999999</v>
+      </c>
+      <c r="T21" t="n">
+        <v>8.999999999999998</v>
+      </c>
+      <c r="U21" t="n">
+        <v>9.999999999999998</v>
+      </c>
+      <c r="V21" t="n">
+        <v>10.999999999999998</v>
+      </c>
+      <c r="W21" t="n">
+        <v>11.999999999999998</v>
+      </c>
+      <c r="X21" t="n">
+        <v>12.999999999999998</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>13.999999999999998</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>14.999999999999998</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>15.999999999999998</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>16.999999999999996</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>17.999999999999996</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>18.999999999999996</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>19.999999999999996</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>20.999999999999996</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>21.999999999999996</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>22.999999999999996</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>23.999999999999996</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>24.999999999999996</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.0024230954505208664</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.002398840928290073</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.0023745864060592797</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.0023503318838284863</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.002326077361597693</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.0023018228393668996</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.0022775683171361062</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0.002253313794905313</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-0.0022290592726745195</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.002204804750443726</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.0021805502282129328</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.0021562957059821394</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-0.002132041183751346</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-0.0021077866615205527</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-0.0020835321392897593</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-0.002059277617058966</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-0.0020350230948281726</v>
+      </c>
+      <c r="T22" t="n">
+        <v>-0.0020107685725973793</v>
+      </c>
+      <c r="U22" t="n">
+        <v>-0.001986514050366586</v>
+      </c>
+      <c r="V22" t="n">
+        <v>-0.0019622595281357925</v>
+      </c>
+      <c r="W22" t="n">
+        <v>-0.0019380050059049992</v>
+      </c>
+      <c r="X22" t="n">
+        <v>-0.0019137504836742058</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>-0.0018894959614434122</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>-0.0018652414392126189</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>-0.0018409869169818255</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>-0.0018167323947510321</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>-0.0017924778725202388</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>-0.0017682233502894454</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>-0.001743968828058652</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>-0.0017197143058278587</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>-0.0016954597835970653</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>-0.001671205261366272</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>-0.0016469507391354786</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>-0.0016226962169046853</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
     </row>

--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="144">
   <si>
     <t>Description</t>
   </si>
@@ -153,7 +153,7 @@
     <t>Oswald factor</t>
   </si>
   <si>
-    <t>CD_induced</t>
+    <t>CD_induced at Alpha = 3.999999999999999 deg</t>
   </si>
   <si>
     <t>CD_wave</t>
@@ -294,6 +294,9 @@
     <t>CL at Alpha = -3.4519720904331965 deg</t>
   </si>
   <si>
+    <t>CD_induced at Alpha = -3.4519720904331965 deg</t>
+  </si>
+  <si>
     <t>CD at alpha = -3.4519720904331965 deg</t>
   </si>
   <si>
@@ -366,6 +369,9 @@
     <t>CL at Alpha = 0.0 rad</t>
   </si>
   <si>
+    <t>CD_induced at Alpha = 0.0 deg</t>
+  </si>
+  <si>
     <t>CD at alpha = 0.0 deg</t>
   </si>
   <si>
@@ -430,6 +436,9 @@
   </si>
   <si>
     <t>CD0_total</t>
+  </si>
+  <si>
+    <t>CD_induced at Alpha = 1.9999999999999996 deg</t>
   </si>
   <si>
     <t>CD at alpha = 1.9999999999999996 deg</t>
@@ -18189,7 +18198,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -18211,7 +18220,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -20603,7 +20612,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -22020,7 +22029,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="139">
@@ -22030,12 +22039,12 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -22046,7 +22055,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
@@ -22062,12 +22071,12 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -22078,7 +22087,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -22089,7 +22098,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -22100,7 +22109,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -22116,12 +22125,12 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -22132,7 +22141,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
@@ -22143,7 +22152,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -22154,7 +22163,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -22165,7 +22174,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B155" t="s">
         <v>11</v>
@@ -22181,7 +22190,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="158">
@@ -22416,7 +22425,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="163">
@@ -22651,7 +22660,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="168">
@@ -22881,7 +22890,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -22892,7 +22901,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -22901,7 +22910,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -23167,7 +23176,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -29312,7 +29321,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -29334,7 +29343,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -31648,7 +31657,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -33026,7 +33035,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="139">
@@ -33036,12 +33045,12 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -33052,7 +33061,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
@@ -33068,12 +33077,12 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -33084,7 +33093,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -33095,7 +33104,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -33106,7 +33115,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -33122,12 +33131,12 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -33138,7 +33147,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
@@ -33149,7 +33158,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -33160,7 +33169,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -33171,7 +33180,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B155" t="s">
         <v>11</v>
@@ -33187,7 +33196,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="158">
@@ -33344,7 +33353,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="163">
@@ -33540,7 +33549,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="168">
@@ -33731,7 +33740,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -33742,7 +33751,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -33751,7 +33760,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -33892,7 +33901,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -33903,7 +33912,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -33914,7 +33923,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -33925,7 +33934,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -33936,7 +33945,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -33947,24 +33956,24 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007941461986390229</v>
+        <v>2.443118544007825E-4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>0.016001928619730682</v>
+        <v>0.008304778487741235</v>
       </c>
     </row>
     <row r="10">
@@ -34095,106 +34104,106 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>0.20476624450571243</v>
+        <v>0.010932302717555013</v>
       </c>
       <c r="D13" t="n">
-        <v>0.16751572380561017</v>
+        <v>0.010621960568106607</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1341474467956461</v>
+        <v>0.010267261115150854</v>
       </c>
       <c r="F13" t="n">
-        <v>0.10467056733475724</v>
+        <v>0.009887906442864716</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07909423928188042</v>
+        <v>0.009502874019694154</v>
       </c>
       <c r="H13" t="n">
-        <v>0.057427616495952585</v>
+        <v>0.009130480217160217</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03967985283591067</v>
+        <v>0.008788441941813427</v>
       </c>
       <c r="J13" t="n">
-        <v>0.025860102160691577</v>
+        <v>0.00849393614164114</v>
       </c>
       <c r="K13" t="n">
-        <v>0.015977518329232228</v>
+        <v>0.00826365697979501</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01004125520046955</v>
+        <v>0.008113870499409887</v>
       </c>
       <c r="M13" t="n">
         <v>0.008060466633340452</v>
       </c>
       <c r="N13" t="n">
-        <v>0.010044306486781856</v>
+        <v>0.008119008441674897</v>
       </c>
       <c r="O13" t="n">
-        <v>0.016001928619730682</v>
+        <v>0.008304778487741235</v>
       </c>
       <c r="P13" t="n">
-        <v>0.025942486891123842</v>
+        <v>0.008632822289865739</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.03987513515989826</v>
+        <v>0.009117988811257093</v>
       </c>
       <c r="R13" t="n">
-        <v>0.057809027284990856</v>
+        <v>0.009774967973975543</v>
       </c>
       <c r="S13" t="n">
-        <v>0.07975331712533855</v>
+        <v>0.010618325204923543</v>
       </c>
       <c r="T13" t="n">
-        <v>0.10571715853987827</v>
+        <v>0.011662533042100643</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1357097053875469</v>
+        <v>0.012921999847956119</v>
       </c>
       <c r="V13" t="n">
-        <v>0.16974011152728138</v>
+        <v>0.014411095693519947</v>
       </c>
       <c r="W13" t="n">
-        <v>0.20781753081801863</v>
+        <v>0.016144175492084446</v>
       </c>
       <c r="X13" t="n">
-        <v>0.24995111711869558</v>
+        <v>0.01813559947454835</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2961500242882491</v>
+        <v>0.02039975111013997</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.3464234061856163</v>
+        <v>0.022951052586137097</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.40078041666973385</v>
+        <v>0.025803977968441125</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.45923020959953853</v>
+        <v>0.02897306417149593</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.5217819388339678</v>
+        <v>0.03247291987113135</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.5884447582319583</v>
+        <v>0.03631823249752959</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.6592278216524468</v>
+        <v>0.040523773447740864</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.7341402829543703</v>
+        <v>0.04510440165809665</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.8131912959966657</v>
+        <v>0.050075065676578184</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.8963900146382703</v>
+        <v>0.055450804373789506</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.98374559273812</v>
+        <v>0.061246746428753614</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.0752671841551533</v>
+        <v>0.06747810872240306</v>
       </c>
     </row>
     <row r="14">
@@ -34219,7 +34228,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -34241,7 +34250,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -34617,7 +34626,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -34628,7 +34637,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -34639,7 +34648,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -34665,7 +34674,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0037786126373801324</v>
+        <v>0.0015659922832138085</v>
       </c>
     </row>
     <row r="8">
@@ -34796,106 +34805,106 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.010808476575733635</v>
+        <v>0.0020839871514023514</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00860849024658248</v>
+        <v>0.0019211729196612795</v>
       </c>
       <c r="E11" t="n">
-        <v>0.006696254072000693</v>
+        <v>0.0017774478792147185</v>
       </c>
       <c r="F11" t="n">
-        <v>0.005073488332942281</v>
+        <v>0.00165366483480247</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003741913310361255</v>
+        <v>0.0015506486802559102</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0027032492852116243</v>
+        <v>0.001469199169098389</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0019592165384474</v>
+        <v>0.0014100935765367553</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0015115353510225917</v>
+        <v>0.001374089244638857</v>
       </c>
       <c r="K11" t="n">
         <v>0.0013619260038912088</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0015121087780072616</v>
+        <v>0.0013743284656827952</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00196380395432476</v>
+        <v>0.0014120081815579533</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0027187318137977135</v>
+        <v>0.0014756656663171535</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0037786126373801324</v>
+        <v>0.0015659922832138085</v>
       </c>
       <c r="P11" t="n">
-        <v>0.005145166706026026</v>
+        <v>0.0016836719905933741</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.006820114300689405</v>
+        <v>0.0018293829503442669</v>
       </c>
       <c r="R11" t="n">
-        <v>0.008805175702324279</v>
+        <v>0.0020037989994755685</v>
       </c>
       <c r="S11" t="n">
-        <v>0.011102071191884659</v>
+        <v>0.0022075909870020735</v>
       </c>
       <c r="T11" t="n">
-        <v>0.013712521050324548</v>
+        <v>0.0024414279791016317</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01663824555859797</v>
+        <v>0.002705978336212394</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01988096499765892</v>
+        <v>0.003001910666358661</v>
       </c>
       <c r="W11" t="n">
-        <v>0.023442399648461423</v>
+        <v>0.003329894659534362</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02732426979195948</v>
+        <v>0.003690601808434141</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.03152829570910709</v>
+        <v>0.00408470602120573</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.03605619768085828</v>
+        <v>0.0045128841322060655</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.04090969598816706</v>
+        <v>0.00497581631698059</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.046090510911987424</v>
+        <v>0.005474186417853671</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.051600362733273376</v>
+        <v>0.00600868218662175</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.057440971732978977</v>
+        <v>0.006579995450883833</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.06361405819205819</v>
+        <v>0.00718882221053034</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.07012134239146506</v>
+        <v>0.007835862670845798</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.0769645446121535</v>
+        <v>0.008521821218567658</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.08414538513507766</v>
+        <v>0.00924740634708772</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.09166558424119146</v>
+        <v>0.010013330536788365</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.09952686221144896</v>
+        <v>0.010820310096278471</v>
       </c>
     </row>
     <row r="12">
@@ -34920,7 +34929,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>

--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
@@ -33962,7 +33962,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>2.443118544007825E-4</v>
+        <v>2.392363519779605E-4</v>
       </c>
     </row>
     <row r="9">
@@ -33973,7 +33973,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008304778487741235</v>
+        <v>0.008299702985318413</v>
       </c>
     </row>
     <row r="10">
@@ -34104,106 +34104,106 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>0.010932302717555013</v>
+        <v>0.011611553782326835</v>
       </c>
       <c r="D13" t="n">
-        <v>0.010621960568106607</v>
+        <v>0.011113534600052724</v>
       </c>
       <c r="E13" t="n">
-        <v>0.010267261115150854</v>
+        <v>0.01061010194363045</v>
       </c>
       <c r="F13" t="n">
-        <v>0.009887906442864716</v>
+        <v>0.01011604973715431</v>
       </c>
       <c r="G13" t="n">
-        <v>0.009502874019694154</v>
+        <v>0.009645627804407912</v>
       </c>
       <c r="H13" t="n">
-        <v>0.009130480217160217</v>
+        <v>0.009212589563939845</v>
       </c>
       <c r="I13" t="n">
-        <v>0.008788441941813427</v>
+        <v>0.008830238307337944</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00849393614164114</v>
+        <v>0.008511471881470296</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00826365697979501</v>
+        <v>0.008268825619160836</v>
       </c>
       <c r="L13" t="n">
-        <v>0.008113870499409887</v>
+        <v>0.008114513385972725</v>
       </c>
       <c r="M13" t="n">
         <v>0.008060466633340452</v>
       </c>
       <c r="N13" t="n">
-        <v>0.008119008441674897</v>
+        <v>0.008118371370091903</v>
       </c>
       <c r="O13" t="n">
-        <v>0.008304778487741235</v>
+        <v>0.008299702985318413</v>
       </c>
       <c r="P13" t="n">
-        <v>0.008632822289865739</v>
+        <v>0.008615758875482155</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.009117988811257093</v>
+        <v>0.009077688847507879</v>
       </c>
       <c r="R13" t="n">
-        <v>0.009774967973975543</v>
+        <v>0.009696523287316102</v>
       </c>
       <c r="S13" t="n">
-        <v>0.010618325204923543</v>
+        <v>0.010483199099757118</v>
       </c>
       <c r="T13" t="n">
-        <v>0.011662533042100643</v>
+        <v>0.011448583441152772</v>
       </c>
       <c r="U13" t="n">
-        <v>0.012921999847956119</v>
+        <v>0.012603495279612385</v>
       </c>
       <c r="V13" t="n">
-        <v>0.014411095693519947</v>
+        <v>0.013958724830939406</v>
       </c>
       <c r="W13" t="n">
-        <v>0.016144175492084446</v>
+        <v>0.015525050929277438</v>
       </c>
       <c r="X13" t="n">
-        <v>0.01813559947454835</v>
+        <v>0.017313256401660627</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.02039975111013997</v>
+        <v>0.019334141524347315</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.022951052586137097</v>
+        <v>0.021598535646250295</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.025803977968441125</v>
+        <v>0.02411730707096413</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.02897306417149593</v>
+        <v>0.026901371293870758</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.03247291987113135</v>
+        <v>0.029961697694625828</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.03631823249752959</v>
+        <v>0.03330931478804555</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.040523773447740864</v>
+        <v>0.036955314138086566</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.04510440165809665</v>
+        <v>0.040910853040303743</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.050075065676578184</v>
+        <v>0.045187156077952775</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.055450804373789506</v>
+        <v>0.04979551565584635</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.061246746428753614</v>
+        <v>0.054747291614248204</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.06747810872240306</v>
+        <v>0.06005391002257548</v>
       </c>
     </row>
     <row r="14">

--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
@@ -33962,7 +33962,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>2.392363519779605E-4</v>
+        <v>2.443118544007825E-4</v>
       </c>
     </row>
     <row r="9">
@@ -33973,7 +33973,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008299702985318413</v>
+        <v>0.008304778487741235</v>
       </c>
     </row>
     <row r="10">
@@ -34104,106 +34104,106 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>0.011611553782326835</v>
+        <v>0.010932302717555013</v>
       </c>
       <c r="D13" t="n">
-        <v>0.011113534600052724</v>
+        <v>0.010621960568106607</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01061010194363045</v>
+        <v>0.010267261115150854</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01011604973715431</v>
+        <v>0.009887906442864716</v>
       </c>
       <c r="G13" t="n">
-        <v>0.009645627804407912</v>
+        <v>0.009502874019694154</v>
       </c>
       <c r="H13" t="n">
-        <v>0.009212589563939845</v>
+        <v>0.009130480217160217</v>
       </c>
       <c r="I13" t="n">
-        <v>0.008830238307337944</v>
+        <v>0.008788441941813427</v>
       </c>
       <c r="J13" t="n">
-        <v>0.008511471881470296</v>
+        <v>0.00849393614164114</v>
       </c>
       <c r="K13" t="n">
-        <v>0.008268825619160836</v>
+        <v>0.00826365697979501</v>
       </c>
       <c r="L13" t="n">
-        <v>0.008114513385972725</v>
+        <v>0.008113870499409887</v>
       </c>
       <c r="M13" t="n">
         <v>0.008060466633340452</v>
       </c>
       <c r="N13" t="n">
-        <v>0.008118371370091903</v>
+        <v>0.008119008441674897</v>
       </c>
       <c r="O13" t="n">
-        <v>0.008299702985318413</v>
+        <v>0.008304778487741235</v>
       </c>
       <c r="P13" t="n">
-        <v>0.008615758875482155</v>
+        <v>0.008632822289865739</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.009077688847507879</v>
+        <v>0.009117988811257093</v>
       </c>
       <c r="R13" t="n">
-        <v>0.009696523287316102</v>
+        <v>0.009774967973975543</v>
       </c>
       <c r="S13" t="n">
-        <v>0.010483199099757118</v>
+        <v>0.010618325204923543</v>
       </c>
       <c r="T13" t="n">
-        <v>0.011448583441152772</v>
+        <v>0.011662533042100643</v>
       </c>
       <c r="U13" t="n">
-        <v>0.012603495279612385</v>
+        <v>0.012921999847956119</v>
       </c>
       <c r="V13" t="n">
-        <v>0.013958724830939406</v>
+        <v>0.014411095693519947</v>
       </c>
       <c r="W13" t="n">
-        <v>0.015525050929277438</v>
+        <v>0.016144175492084446</v>
       </c>
       <c r="X13" t="n">
-        <v>0.017313256401660627</v>
+        <v>0.01813559947454835</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.019334141524347315</v>
+        <v>0.02039975111013997</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.021598535646250295</v>
+        <v>0.022951052586137097</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.02411730707096413</v>
+        <v>0.025803977968441125</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.026901371293870758</v>
+        <v>0.02897306417149593</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.029961697694625828</v>
+        <v>0.03247291987113135</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.03330931478804555</v>
+        <v>0.03631823249752959</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.036955314138086566</v>
+        <v>0.040523773447740864</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.040910853040303743</v>
+        <v>0.04510440165809665</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.045187156077952775</v>
+        <v>0.050075065676578184</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.04979551565584635</v>
+        <v>0.055450804373789506</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.054747291614248204</v>
+        <v>0.061246746428753614</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.06005391002257548</v>
+        <v>0.06747810872240306</v>
       </c>
     </row>
     <row r="14">

--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
@@ -11,12 +11,14 @@
     <sheet name="VERTICAL_TAIL" r:id="rId5" sheetId="3"/>
     <sheet name="FUSELAGE" r:id="rId6" sheetId="4"/>
     <sheet name="NACELLE" r:id="rId7" sheetId="5"/>
+    <sheet name="DOWNWASH" r:id="rId8" sheetId="6"/>
+    <sheet name="TOTAL AIRCRAFT CURVES" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="163">
   <si>
     <t>Description</t>
   </si>
@@ -449,6 +451,63 @@
   <si>
     <t>CM at alpha = 1.9999999999999996 deg</t>
   </si>
+  <si>
+    <t>Alpha body</t>
+  </si>
+  <si>
+    <t>CONSTANT</t>
+  </si>
+  <si>
+    <t>Downwash gradient (SLINGERLAND)</t>
+  </si>
+  <si>
+    <t>Downwash angle (SLINGERLAND)</t>
+  </si>
+  <si>
+    <t>Downwash gradient (SLINGERLAND) at Alpha = 1.9999999999999996 deg</t>
+  </si>
+  <si>
+    <t>Downwash angle (SLINGERLAND) at Alpha = 1.9999999999999996 deg</t>
+  </si>
+  <si>
+    <t>NON LINEAR</t>
+  </si>
+  <si>
+    <t>Delta_elevator = 0.0 deg</t>
+  </si>
+  <si>
+    <t>CL total</t>
+  </si>
+  <si>
+    <t>CD total</t>
+  </si>
+  <si>
+    <t>Xcg = 15.0 %</t>
+  </si>
+  <si>
+    <t>CM total</t>
+  </si>
+  <si>
+    <t>Xcg = 25.0 %</t>
+  </si>
+  <si>
+    <t>Xcg = 33.0 %</t>
+  </si>
+  <si>
+    <t>Delta_elevator = -5.0 deg</t>
+  </si>
+  <si>
+    <t>Delta_elevator = -10.0 deg</t>
+  </si>
+  <si>
+    <t>Delta_elevator = -15.0 deg</t>
+  </si>
+  <si>
+    <t>Delta_elevator = -20.0 deg</t>
+  </si>
+  <si>
+    <t>Delta_elevator = -25.0 deg</t>
+  </si>
 </sst>
 </file>
 
@@ -35198,4 +35257,2578 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="45"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+    <col min="4" max="4" width="15.0" customWidth="true"/>
+    <col min="5" max="5" width="15.0" customWidth="true"/>
+    <col min="6" max="6" width="15.0" customWidth="true"/>
+    <col min="7" max="7" width="15.0" customWidth="true"/>
+    <col min="8" max="8" width="15.0" customWidth="true"/>
+    <col min="9" max="9" width="15.0" customWidth="true"/>
+    <col min="10" max="10" width="15.0" customWidth="true"/>
+    <col min="11" max="11" width="15.0" customWidth="true"/>
+    <col min="12" max="12" width="15.0" customWidth="true"/>
+    <col min="13" max="13" width="15.0" customWidth="true"/>
+    <col min="14" max="14" width="15.0" customWidth="true"/>
+    <col min="15" max="15" width="15.0" customWidth="true"/>
+    <col min="16" max="16" width="15.0" customWidth="true"/>
+    <col min="17" max="17" width="15.0" customWidth="true"/>
+    <col min="18" max="18" width="15.0" customWidth="true"/>
+    <col min="19" max="19" width="15.0" customWidth="true"/>
+    <col min="20" max="20" width="15.0" customWidth="true"/>
+    <col min="21" max="21" width="15.0" customWidth="true"/>
+    <col min="22" max="22" width="15.0" customWidth="true"/>
+    <col min="23" max="23" width="15.0" customWidth="true"/>
+    <col min="24" max="24" width="15.0" customWidth="true"/>
+    <col min="25" max="25" width="15.0" customWidth="true"/>
+    <col min="26" max="26" width="15.0" customWidth="true"/>
+    <col min="27" max="27" width="15.0" customWidth="true"/>
+    <col min="28" max="28" width="15.0" customWidth="true"/>
+    <col min="29" max="29" width="15.0" customWidth="true"/>
+    <col min="30" max="30" width="15.0" customWidth="true"/>
+    <col min="31" max="31" width="15.0" customWidth="true"/>
+    <col min="32" max="32" width="15.0" customWidth="true"/>
+    <col min="33" max="33" width="15.0" customWidth="true"/>
+    <col min="34" max="34" width="15.0" customWidth="true"/>
+    <col min="35" max="35" width="15.0" customWidth="true"/>
+    <col min="36" max="36" width="15.0" customWidth="true"/>
+    <col min="37" max="37" width="15.0" customWidth="true"/>
+    <col min="38" max="38" width="15.0" customWidth="true"/>
+    <col min="39" max="39" width="15.0" customWidth="true"/>
+    <col min="40" max="40" width="15.0" customWidth="true"/>
+    <col min="41" max="41" width="15.0" customWidth="true"/>
+    <col min="42" max="42" width="15.0" customWidth="true"/>
+    <col min="43" max="43" width="15.0" customWidth="true"/>
+    <col min="44" max="44" width="15.0" customWidth="true"/>
+    <col min="45" max="45" width="15.0" customWidth="true"/>
+    <col min="46" max="46" width="15.0" customWidth="true"/>
+    <col min="47" max="47" width="15.0" customWidth="true"/>
+    <col min="48" max="48" width="15.0" customWidth="true"/>
+    <col min="49" max="49" width="15.0" customWidth="true"/>
+    <col min="50" max="50" width="15.0" customWidth="true"/>
+    <col min="51" max="51" width="15.0" customWidth="true"/>
+    <col min="52" max="52" width="15.0" customWidth="true"/>
+    <col min="53" max="53" width="15.0" customWidth="true"/>
+    <col min="54" max="54" width="15.0" customWidth="true"/>
+    <col min="55" max="55" width="15.0" customWidth="true"/>
+    <col min="56" max="56" width="15.0" customWidth="true"/>
+    <col min="57" max="57" width="15.0" customWidth="true"/>
+    <col min="58" max="58" width="15.0" customWidth="true"/>
+    <col min="59" max="59" width="15.0" customWidth="true"/>
+    <col min="60" max="60" width="15.0" customWidth="true"/>
+    <col min="61" max="61" width="15.0" customWidth="true"/>
+    <col min="62" max="62" width="15.0" customWidth="true"/>
+    <col min="63" max="63" width="15.0" customWidth="true"/>
+    <col min="64" max="64" width="15.0" customWidth="true"/>
+    <col min="65" max="65" width="15.0" customWidth="true"/>
+    <col min="66" max="66" width="15.0" customWidth="true"/>
+    <col min="67" max="67" width="15.0" customWidth="true"/>
+    <col min="68" max="68" width="15.0" customWidth="true"/>
+    <col min="69" max="69" width="15.0" customWidth="true"/>
+    <col min="70" max="70" width="15.0" customWidth="true"/>
+    <col min="71" max="71" width="15.0" customWidth="true"/>
+    <col min="72" max="72" width="15.0" customWidth="true"/>
+    <col min="73" max="73" width="15.0" customWidth="true"/>
+    <col min="74" max="74" width="15.0" customWidth="true"/>
+    <col min="75" max="75" width="15.0" customWidth="true"/>
+    <col min="76" max="76" width="15.0" customWidth="true"/>
+    <col min="77" max="77" width="15.0" customWidth="true"/>
+    <col min="78" max="78" width="15.0" customWidth="true"/>
+    <col min="79" max="79" width="15.0" customWidth="true"/>
+    <col min="80" max="80" width="15.0" customWidth="true"/>
+    <col min="81" max="81" width="15.0" customWidth="true"/>
+    <col min="82" max="82" width="15.0" customWidth="true"/>
+    <col min="83" max="83" width="15.0" customWidth="true"/>
+    <col min="84" max="84" width="15.0" customWidth="true"/>
+    <col min="85" max="85" width="15.0" customWidth="true"/>
+    <col min="86" max="86" width="15.0" customWidth="true"/>
+    <col min="87" max="87" width="15.0" customWidth="true"/>
+    <col min="88" max="88" width="15.0" customWidth="true"/>
+    <col min="89" max="89" width="15.0" customWidth="true"/>
+    <col min="90" max="90" width="15.0" customWidth="true"/>
+    <col min="91" max="91" width="15.0" customWidth="true"/>
+    <col min="92" max="92" width="15.0" customWidth="true"/>
+    <col min="93" max="93" width="15.0" customWidth="true"/>
+    <col min="94" max="94" width="15.0" customWidth="true"/>
+    <col min="95" max="95" width="15.0" customWidth="true"/>
+    <col min="96" max="96" width="15.0" customWidth="true"/>
+    <col min="97" max="97" width="15.0" customWidth="true"/>
+    <col min="98" max="98" width="15.0" customWidth="true"/>
+    <col min="99" max="99" width="15.0" customWidth="true"/>
+    <col min="100" max="100" width="15.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-10.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-9.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-8.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-7.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-6.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-5.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-4.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-3.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-2.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2034872147987501</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.20348721479874998</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.20348721479874993</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.20348721479874998</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.20348721479875004</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.20348721479874995</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2034872147987499</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.20348721479874998</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.20348721479874995</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.20348721479874995</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.20348721479874998</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.20348721479875004</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.20348721479874998</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.20348721479874998</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.2034872147987502</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.20348721479874987</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.20348721479874976</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.20348721479874998</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.20348721479874965</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.20348721479874987</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.2034872147987501</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.2034872147987501</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.2034872147987501</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.20348721479874987</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.20348721479874987</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.20348721479874965</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.20348721479874987</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.20348721479875032</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.20348721479875032</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.20348721479874987</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.20348721479875032</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.20348721479874987</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.20348721479874943</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.20348721479875032</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.5030602490939753</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.2995730342952252</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.0960858194964753</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.8925986046977253</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.6891113898989754</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.48562417510022526</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.28213696030147545</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.07864974550272545</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.12483746929602452</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.32832468409477444</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5318118988935244</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.7352991136922744</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.9387863284910245</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.1422735432897744</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.3457607580885245</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.5492479728872748</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.7527351876860242</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.9562224024847743</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.159709617283524</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.3631968320822736</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2.566684046881024</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.770171261679774</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.973658476478524</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>3.177145691277274</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>3.380632906076024</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>3.5841201208747737</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>3.787607335673523</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3.9910945504722735</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>4.194581765271024</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>4.398068980069774</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>4.6015561948685235</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>4.805043409667275</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>5.008530624466023</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>5.212017839264774</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.20348721479874998</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9387863284910244</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1696757109927648</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.16967571099276474</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1696757109927648</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1696757109927648</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.16967571099276474</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.16967571099276474</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.17533265750184213</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.16967571099276468</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.16401876448368724</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.172681048129377</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.17881646619205493</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.18500655756187068</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.1911861979031233</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.1973901667692226</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.2035522096714273</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.20970707441327696</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.21578944056580696</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.22183297410347036</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.22777531411667384</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.23364802731457823</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.23939346451405275</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.2448750685328811</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.2488621366468866</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.24487722715901583</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.23250679914166295</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.2100276829245331</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.18151265427446717</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.1486244696624679</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.11315419011761207</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.0790097854138434</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.04715828036065073</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.021716511721821874</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.121243009804755</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.16532314213333876</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.5609521868611576</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.39127647586839276</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.22160076487562808</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.05192505388286314</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.11775065710990149</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.2874263681026663</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.457102079095431</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.6380916831063506</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.7964535010809604</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.966129212073725</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.1418155973397144</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.323762144457835</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.5118287124634557</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.7061345402640815</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.906609046001901</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.113238959606936</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.326023194828455</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.54481784073855</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.7696891430353956</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3.0003684689718977</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3.236985197664552</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.479155398000003</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3.7267353347303143</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>3.9768796712937764</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>4.216489789048346</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>4.441893269577102</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>4.636545154897412</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>4.804918578126037</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>4.933794094222348</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>5.031226958361261</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>5.091813665050035</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>5.125543519082562</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>5.048380641606391</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>4.883057499473052</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1911861979031233</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.5118287124634557</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+    <col min="4" max="4" width="15.0" customWidth="true"/>
+    <col min="5" max="5" width="15.0" customWidth="true"/>
+    <col min="6" max="6" width="15.0" customWidth="true"/>
+    <col min="7" max="7" width="15.0" customWidth="true"/>
+    <col min="8" max="8" width="15.0" customWidth="true"/>
+    <col min="9" max="9" width="15.0" customWidth="true"/>
+    <col min="10" max="10" width="15.0" customWidth="true"/>
+    <col min="11" max="11" width="15.0" customWidth="true"/>
+    <col min="12" max="12" width="15.0" customWidth="true"/>
+    <col min="13" max="13" width="15.0" customWidth="true"/>
+    <col min="14" max="14" width="15.0" customWidth="true"/>
+    <col min="15" max="15" width="15.0" customWidth="true"/>
+    <col min="16" max="16" width="15.0" customWidth="true"/>
+    <col min="17" max="17" width="15.0" customWidth="true"/>
+    <col min="18" max="18" width="15.0" customWidth="true"/>
+    <col min="19" max="19" width="15.0" customWidth="true"/>
+    <col min="20" max="20" width="15.0" customWidth="true"/>
+    <col min="21" max="21" width="15.0" customWidth="true"/>
+    <col min="22" max="22" width="15.0" customWidth="true"/>
+    <col min="23" max="23" width="15.0" customWidth="true"/>
+    <col min="24" max="24" width="15.0" customWidth="true"/>
+    <col min="25" max="25" width="15.0" customWidth="true"/>
+    <col min="26" max="26" width="15.0" customWidth="true"/>
+    <col min="27" max="27" width="15.0" customWidth="true"/>
+    <col min="28" max="28" width="15.0" customWidth="true"/>
+    <col min="29" max="29" width="15.0" customWidth="true"/>
+    <col min="30" max="30" width="15.0" customWidth="true"/>
+    <col min="31" max="31" width="15.0" customWidth="true"/>
+    <col min="32" max="32" width="15.0" customWidth="true"/>
+    <col min="33" max="33" width="15.0" customWidth="true"/>
+    <col min="34" max="34" width="15.0" customWidth="true"/>
+    <col min="35" max="35" width="15.0" customWidth="true"/>
+    <col min="36" max="36" width="15.0" customWidth="true"/>
+    <col min="37" max="37" width="15.0" customWidth="true"/>
+    <col min="38" max="38" width="15.0" customWidth="true"/>
+    <col min="39" max="39" width="15.0" customWidth="true"/>
+    <col min="40" max="40" width="15.0" customWidth="true"/>
+    <col min="41" max="41" width="15.0" customWidth="true"/>
+    <col min="42" max="42" width="15.0" customWidth="true"/>
+    <col min="43" max="43" width="15.0" customWidth="true"/>
+    <col min="44" max="44" width="15.0" customWidth="true"/>
+    <col min="45" max="45" width="15.0" customWidth="true"/>
+    <col min="46" max="46" width="15.0" customWidth="true"/>
+    <col min="47" max="47" width="15.0" customWidth="true"/>
+    <col min="48" max="48" width="15.0" customWidth="true"/>
+    <col min="49" max="49" width="15.0" customWidth="true"/>
+    <col min="50" max="50" width="15.0" customWidth="true"/>
+    <col min="51" max="51" width="15.0" customWidth="true"/>
+    <col min="52" max="52" width="15.0" customWidth="true"/>
+    <col min="53" max="53" width="15.0" customWidth="true"/>
+    <col min="54" max="54" width="15.0" customWidth="true"/>
+    <col min="55" max="55" width="15.0" customWidth="true"/>
+    <col min="56" max="56" width="15.0" customWidth="true"/>
+    <col min="57" max="57" width="15.0" customWidth="true"/>
+    <col min="58" max="58" width="15.0" customWidth="true"/>
+    <col min="59" max="59" width="15.0" customWidth="true"/>
+    <col min="60" max="60" width="15.0" customWidth="true"/>
+    <col min="61" max="61" width="15.0" customWidth="true"/>
+    <col min="62" max="62" width="15.0" customWidth="true"/>
+    <col min="63" max="63" width="15.0" customWidth="true"/>
+    <col min="64" max="64" width="15.0" customWidth="true"/>
+    <col min="65" max="65" width="15.0" customWidth="true"/>
+    <col min="66" max="66" width="15.0" customWidth="true"/>
+    <col min="67" max="67" width="15.0" customWidth="true"/>
+    <col min="68" max="68" width="15.0" customWidth="true"/>
+    <col min="69" max="69" width="15.0" customWidth="true"/>
+    <col min="70" max="70" width="15.0" customWidth="true"/>
+    <col min="71" max="71" width="15.0" customWidth="true"/>
+    <col min="72" max="72" width="15.0" customWidth="true"/>
+    <col min="73" max="73" width="15.0" customWidth="true"/>
+    <col min="74" max="74" width="15.0" customWidth="true"/>
+    <col min="75" max="75" width="15.0" customWidth="true"/>
+    <col min="76" max="76" width="15.0" customWidth="true"/>
+    <col min="77" max="77" width="15.0" customWidth="true"/>
+    <col min="78" max="78" width="15.0" customWidth="true"/>
+    <col min="79" max="79" width="15.0" customWidth="true"/>
+    <col min="80" max="80" width="15.0" customWidth="true"/>
+    <col min="81" max="81" width="15.0" customWidth="true"/>
+    <col min="82" max="82" width="15.0" customWidth="true"/>
+    <col min="83" max="83" width="15.0" customWidth="true"/>
+    <col min="84" max="84" width="15.0" customWidth="true"/>
+    <col min="85" max="85" width="15.0" customWidth="true"/>
+    <col min="86" max="86" width="15.0" customWidth="true"/>
+    <col min="87" max="87" width="15.0" customWidth="true"/>
+    <col min="88" max="88" width="15.0" customWidth="true"/>
+    <col min="89" max="89" width="15.0" customWidth="true"/>
+    <col min="90" max="90" width="15.0" customWidth="true"/>
+    <col min="91" max="91" width="15.0" customWidth="true"/>
+    <col min="92" max="92" width="15.0" customWidth="true"/>
+    <col min="93" max="93" width="15.0" customWidth="true"/>
+    <col min="94" max="94" width="15.0" customWidth="true"/>
+    <col min="95" max="95" width="15.0" customWidth="true"/>
+    <col min="96" max="96" width="15.0" customWidth="true"/>
+    <col min="97" max="97" width="15.0" customWidth="true"/>
+    <col min="98" max="98" width="15.0" customWidth="true"/>
+    <col min="99" max="99" width="15.0" customWidth="true"/>
+    <col min="100" max="100" width="15.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-10.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-9.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-8.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-7.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-6.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-5.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-4.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-3.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-2.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.322216669275818</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.22992814887654747</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.5186129879712886</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1.2962702307299294</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.1183960249368439</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20" t="n">
+        <v>2.322216669275818</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21" t="n">
+        <v>0.23000063035780402</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>-1.5184827400438208</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>-1.2961399828024616</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>-1.118265777009376</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30"/>
+      <c r="AI30"/>
+      <c r="AJ30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34" t="n">
+        <v>2.322216669275818</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AJ34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35" t="n">
+        <v>0.2302218896163766</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AJ35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38" t="n">
+        <v>-1.5180851411073404</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38"/>
+      <c r="AI38"/>
+      <c r="AJ38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41" t="n">
+        <v>-1.2957423838659812</v>
+      </c>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+      <c r="AE41"/>
+      <c r="AF41"/>
+      <c r="AG41"/>
+      <c r="AH41"/>
+      <c r="AI41"/>
+      <c r="AJ41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44" t="n">
+        <v>-1.1178681780728956</v>
+      </c>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44"/>
+      <c r="AG44"/>
+      <c r="AH44"/>
+      <c r="AI44"/>
+      <c r="AJ44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48" t="n">
+        <v>2.322216669275818</v>
+      </c>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
+      <c r="AF48"/>
+      <c r="AG48"/>
+      <c r="AH48"/>
+      <c r="AI48"/>
+      <c r="AJ48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49" t="n">
+        <v>0.23059192665226524</v>
+      </c>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+      <c r="AG49"/>
+      <c r="AH49"/>
+      <c r="AI49"/>
+      <c r="AJ49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52" t="n">
+        <v>-1.5174201911618475</v>
+      </c>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52"/>
+      <c r="AF52"/>
+      <c r="AG52"/>
+      <c r="AH52"/>
+      <c r="AI52"/>
+      <c r="AJ52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55" t="n">
+        <v>-1.2950774339204882</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55"/>
+      <c r="AF55"/>
+      <c r="AG55"/>
+      <c r="AH55"/>
+      <c r="AI55"/>
+      <c r="AJ55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58" t="n">
+        <v>-1.1172032281274027</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
+      <c r="AF58"/>
+      <c r="AG58"/>
+      <c r="AH58"/>
+      <c r="AI58"/>
+      <c r="AJ58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62" t="n">
+        <v>2.322216669275818</v>
+      </c>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+      <c r="AE62"/>
+      <c r="AF62"/>
+      <c r="AG62"/>
+      <c r="AH62"/>
+      <c r="AI62"/>
+      <c r="AJ62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>153</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63" t="n">
+        <v>0.23111074146546995</v>
+      </c>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63"/>
+      <c r="AG63"/>
+      <c r="AH63"/>
+      <c r="AI63"/>
+      <c r="AJ63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66" t="n">
+        <v>-1.5164878902073415</v>
+      </c>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+      <c r="AE66"/>
+      <c r="AF66"/>
+      <c r="AG66"/>
+      <c r="AH66"/>
+      <c r="AI66"/>
+      <c r="AJ66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69" t="n">
+        <v>-1.2941451329659823</v>
+      </c>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+      <c r="AE69"/>
+      <c r="AF69"/>
+      <c r="AG69"/>
+      <c r="AH69"/>
+      <c r="AI69"/>
+      <c r="AJ69"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>155</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72" t="n">
+        <v>-1.1162709271728968</v>
+      </c>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+      <c r="AE72"/>
+      <c r="AF72"/>
+      <c r="AG72"/>
+      <c r="AH72"/>
+      <c r="AI72"/>
+      <c r="AJ72"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76" t="n">
+        <v>2.322216669275818</v>
+      </c>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+      <c r="AE76"/>
+      <c r="AF76"/>
+      <c r="AG76"/>
+      <c r="AH76"/>
+      <c r="AI76"/>
+      <c r="AJ76"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77" t="n">
+        <v>0.2317783340559907</v>
+      </c>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+      <c r="AE77"/>
+      <c r="AF77"/>
+      <c r="AG77"/>
+      <c r="AH77"/>
+      <c r="AI77"/>
+      <c r="AJ77"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80" t="n">
+        <v>-1.515288238243823</v>
+      </c>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+      <c r="AE80"/>
+      <c r="AF80"/>
+      <c r="AG80"/>
+      <c r="AH80"/>
+      <c r="AI80"/>
+      <c r="AJ80"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83" t="n">
+        <v>-1.2929454810024639</v>
+      </c>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+      <c r="AE83"/>
+      <c r="AF83"/>
+      <c r="AG83"/>
+      <c r="AH83"/>
+      <c r="AI83"/>
+      <c r="AJ83"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>155</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86" t="n">
+        <v>-1.1150712752093783</v>
+      </c>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+      <c r="AE86"/>
+      <c r="AF86"/>
+      <c r="AG86"/>
+      <c r="AH86"/>
+      <c r="AI86"/>
+      <c r="AJ86"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="162">
   <si>
     <t>Description</t>
   </si>
@@ -455,7 +455,7 @@
     <t>Alpha body</t>
   </si>
   <si>
-    <t>CONSTANT</t>
+    <t>LINEAR</t>
   </si>
   <si>
     <t>Downwash gradient (SLINGERLAND)</t>
@@ -473,7 +473,7 @@
     <t>NON LINEAR</t>
   </si>
   <si>
-    <t>Delta_elevator = 0.0 deg</t>
+    <t>Delta elevator = -5.0 deg</t>
   </si>
   <si>
     <t>CL total</t>
@@ -494,19 +494,16 @@
     <t>Xcg = 33.0 %</t>
   </si>
   <si>
-    <t>Delta_elevator = -5.0 deg</t>
+    <t>Delta elevator = -10.0 deg</t>
   </si>
   <si>
-    <t>Delta_elevator = -10.0 deg</t>
+    <t>Delta elevator = -15.0 deg</t>
   </si>
   <si>
-    <t>Delta_elevator = -15.0 deg</t>
+    <t>Delta elevator = -20.0 deg</t>
   </si>
   <si>
-    <t>Delta_elevator = -20.0 deg</t>
-  </si>
-  <si>
-    <t>Delta_elevator = -25.0 deg</t>
+    <t>Delta elevator = -25.0 deg</t>
   </si>
 </sst>
 </file>
@@ -35265,7 +35262,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="45"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="55"/>
   <cols>
     <col min="2" max="2" width="8.0" customWidth="true"/>
     <col min="3" max="3" width="15.0" customWidth="true"/>
@@ -36244,12 +36241,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36261,41 +36258,107 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2.322216669275818</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-      <c r="AF6"/>
-      <c r="AG6"/>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6"/>
+        <v>0.4685229091804811</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5429039143043438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6172849194282064</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6916659245520691</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.7660469296759317</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8404279347997943</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.914808939923657</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9891899450475196</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.0635709501713824</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.1379519552952448</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.2123329604191075</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.2867139655429702</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.3610949706668327</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.4354759757906954</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.5098569809145581</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.5842379860384208</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.6586189911622835</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.7329999963214302</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.8074239217153396</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.882067227079549</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.9570559352869918</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.0323720183541454</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.1064043183390138</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2.175973286807249</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2.238360865151966</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2.2914375651286925</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2.3336624688553225</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2.364083228812185</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>2.382336067841999</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>2.3886457791498863</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>2.383825726303372</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2.3692778432323975</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>2.3469926342292897</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>2.3195491739487846</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -36305,41 +36368,107 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.22992814887654747</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7"/>
-      <c r="AE7"/>
-      <c r="AF7"/>
-      <c r="AG7"/>
-      <c r="AH7"/>
-      <c r="AI7"/>
-      <c r="AJ7"/>
+        <v>0.05806435410644642</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05493560114948662</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.05132099671934138</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.04843309008640148</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.046141850666126596</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.04446575911638643</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.04366220482087736</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.04359814751448912</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.04419746843138773</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.04546437942008097</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.04777807063566729</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.050799404118099876</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.05454667983238252</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.05911356924296501</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0646926564773277</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.07104500331267727</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.07818529175167947</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.08627651562523359</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.09536283548098973</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.10528464581404473</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.11605499295905827</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.1278908394353252</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.14072819431484254</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.15433969363716693</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.16867559429824858</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.18002263446449548</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.1878947840504887</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.19392510624897552</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.1995863634688972</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.2051643149108938</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.21095403051117656</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.21700022929262625</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.2233279702725228</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.23000063035780402</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -36359,41 +36488,107 @@
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.5186129879712886</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-      <c r="AF10"/>
-      <c r="AG10"/>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10"/>
+        <v>-0.22946540928036546</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.29222710535968216</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.35496361955817796</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.4176612379729645</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.4802350766064662</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.5423236463171819</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.5861777008531492</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.6296532874057035</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.6731427227664928</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.7166562038575787</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.7602021493884435</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.8037901027946074</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.8474265812797658</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-0.8911216208948527</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.9348849603646899</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0.9787233311805386</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-1.022643257632747</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-1.0666550044012768</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-1.1110337309559828</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-1.1568796690993541</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-1.2049967739853296</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-1.2566578314655705</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-1.323071193739472</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-1.4183779561921668</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-1.513686034833144</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-1.5797546389596737</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-1.6390179123291992</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-1.6885384688769984</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>-1.7244392351108542</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>-1.7414720098801315</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-1.7330419915230428</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-1.694415595794053</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>-1.6194614218387569</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>-1.5014333842462424</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -36413,41 +36608,107 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.2962702307299294</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13"/>
-      <c r="AD13"/>
-      <c r="AE13"/>
-      <c r="AF13"/>
-      <c r="AG13"/>
-      <c r="AH13"/>
-      <c r="AI13"/>
-      <c r="AJ13"/>
+        <v>-0.1841638011983956</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.23929192309422875</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.29438268590099115</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.3494447953796249</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.40439356040349694</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.4588699942013441</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.4951290152867856</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.5310271164356429</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.5669582956864687</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.6029352206799596</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.6389688533465316</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.6750699914674348</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.7112476321538057</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.7475138667483769</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.7838792448004313</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.8203538291377082</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.8569465924753112</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.8936684268765639</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.9307914526653138</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.9694024917416786</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-1.0102953383450817</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-1.054743050284723</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-1.1141147080234897</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-1.2028646404981198</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-1.2923657813633025</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-1.3536745509328607</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-1.4093974729429077</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-1.4566512263713531</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-1.4915487311201445</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-1.5088044010736155</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-1.5017297599830313</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-1.4654529160776502</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-1.3936556408862115</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-1.279357376537586</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -36467,41 +36728,107 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.1183960249368439</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-      <c r="AE16"/>
-      <c r="AF16"/>
-      <c r="AG16"/>
-      <c r="AH16"/>
-      <c r="AI16"/>
-      <c r="AJ16"/>
+        <v>-0.14792251473282014</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.19694377728186635</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.24591793897524222</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.29487164130495397</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.3437203474411223</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.3921070725086746</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.4222900668336955</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.45212617965959534</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.4820107540224507</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.5119584341378655</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.5419822165130032</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.5720939024056979</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0.602304472853039</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-0.6326276634311976</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-0.6630746723490258</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-0.6936582275034451</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-0.7243892603493639</v>
+      </c>
+      <c r="T16" t="n">
+        <v>-0.7552791648567952</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-0.7865976300327798</v>
+      </c>
+      <c r="V16" t="n">
+        <v>-0.8194207498555397</v>
+      </c>
+      <c r="W16" t="n">
+        <v>-0.8545341898328853</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-0.8932112253400466</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>-0.9469495194507057</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>-1.0304539879428842</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>-1.115309578587431</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>-1.1728104805114123</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>-1.225701121433876</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>-1.2711414323668389</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>-1.305236327927579</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>-1.3226703140284055</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>-1.3166799747510232</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>-1.2822827723045298</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>-1.213011016124177</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>-1.1016965703706636</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -36509,12 +36836,12 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36525,42 +36852,108 @@
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C20"/>
+      <c r="C20" t="n">
+        <v>0.43454677008405385</v>
+      </c>
       <c r="D20" t="n">
-        <v>2.322216669275818</v>
-      </c>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20"/>
-      <c r="AD20"/>
-      <c r="AE20"/>
-      <c r="AF20"/>
-      <c r="AG20"/>
-      <c r="AH20"/>
-      <c r="AI20"/>
-      <c r="AJ20"/>
+        <v>0.5099514849942843</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5853561999045146</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.6607609148147451</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.7361656297249755</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8115703446352058</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8869750595454363</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.9623797744556667</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.0377844893658972</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.1131892042761276</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.188593919186358</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.2639986340965883</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.3394033490068187</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.414808063917049</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.4902127788272796</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.5656174937375102</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.6410222086477406</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.716426923557971</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.7918316384682014</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.8672670240789502</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.9429328277641655</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.018950338036153</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2.093813096201168</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2.164411368094567</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2.2280620244006237</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>2.2826356211874734</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2.3265563999070684</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2.35880228739525</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>2.378904895871704</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>2.386949522939958</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>2.3835751515874124</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>2.36997445018532</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>2.3478937724887787</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>2.3196331576367464</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -36569,42 +36962,108 @@
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21"/>
+      <c r="C21" t="n">
+        <v>0.05828561336501901</v>
+      </c>
       <c r="D21" t="n">
-        <v>0.23000063035780402</v>
-      </c>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-      <c r="AB21"/>
-      <c r="AC21"/>
-      <c r="AD21"/>
-      <c r="AE21"/>
-      <c r="AF21"/>
-      <c r="AG21"/>
-      <c r="AH21"/>
-      <c r="AI21"/>
-      <c r="AJ21"/>
+        <v>0.05515686040805921</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.05154225597791397</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.04865434934497406</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04636310992469918</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.04468701837495902</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.04388346407944995</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.04381940677306172</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.04441872768996031</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.045685638678653565</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.04799932989423988</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.051020663376672465</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.054767939090955106</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.059334828501537595</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.06491391573590029</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.07126626257124986</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.07840655101025207</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.08649777488380618</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.09558409473956234</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.10550590507261731</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.11627625221763085</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.12811209869389778</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.14094945357341512</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.1545609528957395</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.16889685355682116</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.18024389372306807</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.1881160433090613</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.1941463655075481</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.19980762272746977</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.20538557416946637</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.21117528976974914</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.21722148855119883</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.22354922953109538</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.2302218896163766</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -36623,42 +37082,108 @@
       <c r="B24" t="s">
         <v>5</v>
       </c>
-      <c r="C24"/>
+      <c r="C24" t="n">
+        <v>-0.018225781684520936</v>
+      </c>
       <c r="D24" t="n">
-        <v>-1.5184827400438208</v>
-      </c>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24"/>
-      <c r="Z24"/>
-      <c r="AA24"/>
-      <c r="AB24"/>
-      <c r="AC24"/>
-      <c r="AD24"/>
-      <c r="AE24"/>
-      <c r="AF24"/>
-      <c r="AG24"/>
-      <c r="AH24"/>
-      <c r="AI24"/>
-      <c r="AJ24"/>
+        <v>-0.08734020217150623</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.15642944077767096</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.22547978360012627</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.2944063466412969</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.36284764075968134</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.4130544197033175</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.46288273066354063</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-0.5127248904319985</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.5625910959307534</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.6124897658692872</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.66243044368312</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-0.7124196465759473</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-0.7624674105987033</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-0.8125834744762094</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-0.8627745696997269</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-0.9130472205596042</v>
+      </c>
+      <c r="T24" t="n">
+        <v>-0.9634116915168436</v>
+      </c>
+      <c r="U24" t="n">
+        <v>-1.0138767968305396</v>
+      </c>
+      <c r="V24" t="n">
+        <v>-1.0646380611552468</v>
+      </c>
+      <c r="W24" t="n">
+        <v>-1.1169569437571782</v>
+      </c>
+      <c r="X24" t="n">
+        <v>-1.1729707717039026</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>-1.2445376179249348</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>-1.3462318166208016</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>-1.4493780407016692</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>-1.5247357744507368</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>-1.5945229546966344</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>-1.6553695065311043</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>-1.7027491857036754</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>-1.7305481383906598</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>-1.7310894283425728</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>-1.698340854811371</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>-1.624655918525443</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>-1.5015569537419333</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -36677,42 +37202,108 @@
       <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="C27"/>
+      <c r="C27" t="n">
+        <v>0.023678212487806216</v>
+      </c>
       <c r="D27" t="n">
-        <v>-1.2961399828024616</v>
-      </c>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
-      <c r="Y27"/>
-      <c r="Z27"/>
-      <c r="AA27"/>
-      <c r="AB27"/>
-      <c r="AC27"/>
-      <c r="AD27"/>
-      <c r="AE27"/>
-      <c r="AF27"/>
-      <c r="AG27"/>
-      <c r="AH27"/>
-      <c r="AI27"/>
-      <c r="AJ27"/>
+        <v>-0.037700262837058796</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.09904137907285337</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.1603538419805191</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.22155296043342323</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.2822797476603024</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.32478912217477596</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0.3669375767526653</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-0.4091191094325232</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.4513463878550461</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.49363037395065024</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.5359818655005857</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-0.5784098596159887</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-0.620926447639592</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-0.6635421791206786</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-0.7062671168869876</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-0.7491102336536226</v>
+      </c>
+      <c r="T27" t="n">
+        <v>-0.7920824212684768</v>
+      </c>
+      <c r="U27" t="n">
+        <v>-0.8351937468645843</v>
+      </c>
+      <c r="V27" t="n">
+        <v>-0.8786409040976311</v>
+      </c>
+      <c r="W27" t="n">
+        <v>-0.9236678188692131</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-0.9723981585548545</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>-1.036840254422737</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>-1.131874692798023</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>-1.229087671306962</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>-1.299535880818046</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>-1.3656131222051682</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>-1.4240103581671524</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>-1.4702017989099954</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>-1.4980501552051366</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>-1.4998022542741576</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>-1.469308514399676</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>-1.398760023746949</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>-1.2794725476644813</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -36731,42 +37322,108 @@
       <c r="B30" t="s">
         <v>5</v>
       </c>
-      <c r="C30"/>
+      <c r="C30" t="n">
+        <v>0.057201407825667516</v>
+      </c>
       <c r="D30" t="n">
-        <v>-1.118265777009376</v>
-      </c>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-      <c r="AA30"/>
-      <c r="AB30"/>
-      <c r="AC30"/>
-      <c r="AD30"/>
-      <c r="AE30"/>
-      <c r="AF30"/>
-      <c r="AG30"/>
-      <c r="AH30"/>
-      <c r="AI30"/>
-      <c r="AJ30"/>
+        <v>0.002011688630498887</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.0531309297089998</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.10825308868483408</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.1632702514671251</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.21782543318079997</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-0.2541768841519435</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-0.29018145362396597</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-0.3262344846329439</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.36235062139448126</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.39854286041574166</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.4348230029545591</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-0.4712020300480231</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-0.5076936772723044</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>-0.5443091428362552</v>
+      </c>
+      <c r="R30" t="n">
+        <v>-0.5810611546367974</v>
+      </c>
+      <c r="S30" t="n">
+        <v>-0.6179606441288388</v>
+      </c>
+      <c r="T30" t="n">
+        <v>-0.6550190050697848</v>
+      </c>
+      <c r="U30" t="n">
+        <v>-0.6922473068918215</v>
+      </c>
+      <c r="V30" t="n">
+        <v>-0.7298431784515405</v>
+      </c>
+      <c r="W30" t="n">
+        <v>-0.7690365189588428</v>
+      </c>
+      <c r="X30" t="n">
+        <v>-0.8119400680356175</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>-0.870682363620981</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>-0.9603889937398018</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>-1.0528553757911985</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>-1.1193759659118951</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>-1.1824852562119967</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>-1.2389230394759927</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>-1.2841638894750536</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>-1.3120517686567204</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>-1.3147725150194267</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>-1.2860826420703217</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>-1.2180433079241553</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>-1.1018050228025216</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -36774,12 +37431,12 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36790,42 +37447,108 @@
       <c r="B34" t="s">
         <v>5</v>
       </c>
-      <c r="C34"/>
-      <c r="D34"/>
+      <c r="C34" t="n">
+        <v>0.4006261705633482</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.4770491971684837</v>
+      </c>
       <c r="E34" t="n">
-        <v>2.322216669275818</v>
-      </c>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34"/>
-      <c r="AA34"/>
-      <c r="AB34"/>
-      <c r="AC34"/>
-      <c r="AD34"/>
-      <c r="AE34"/>
-      <c r="AF34"/>
-      <c r="AG34"/>
-      <c r="AH34"/>
-      <c r="AI34"/>
-      <c r="AJ34"/>
+        <v>0.553472223773619</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.6298952503787545</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.7063182769838898</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.7827413035890254</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.8591643301941608</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.9355873567992962</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.0120103834044316</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.088433410009567</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.1648564366147025</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.241279463219838</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.3177024898249734</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.3941255164301087</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.4705485430352443</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.5469715696403799</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.6233945962455152</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.6998176228506505</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.776240649455786</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.8526636760609216</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.929118738003143</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.0057962195475536</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>2.0813539963740277</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>2.152802844637772</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>2.217535630587618</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>2.2734543911009912</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>2.318970333683858</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>2.3530038364707875</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>2.3749844482249145</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>2.384850888337941</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>2.383051046830162</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>2.370541984350457</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>2.3487899321762478</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>2.3197702922135552</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -36834,42 +37557,108 @@
       <c r="B35" t="s">
         <v>5</v>
       </c>
-      <c r="C35"/>
-      <c r="D35"/>
+      <c r="C35" t="n">
+        <v>0.05865565040090765</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.05552689744394784</v>
+      </c>
       <c r="E35" t="n">
-        <v>0.2302218896163766</v>
-      </c>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-      <c r="AE35"/>
-      <c r="AF35"/>
-      <c r="AG35"/>
-      <c r="AH35"/>
-      <c r="AI35"/>
-      <c r="AJ35"/>
+        <v>0.0519122930138026</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.049024386380862706</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04673314696058782</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.04505705541084765</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.04425350111533859</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.04418944380895036</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.04478876472584895</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.046055675714542194</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.04836936693012851</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.0513907004125611</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.05513797612684374</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.05970486553742623</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.06528395277178893</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.07163629960713849</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.0787765880461407</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.08686781191969481</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.09595413177545095</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.10587594210850595</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.1166462892535195</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.12848213572978642</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.14131949060930377</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.15493098993162818</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.16926689059270983</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.1806139307589567</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.18848608034494993</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.19451640254343672</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.2001776597633584</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.20575561120535502</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.21154532680563778</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.2175915255870875</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.22391926656698402</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.23059192665226524</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -36888,42 +37677,108 @@
       <c r="B38" t="s">
         <v>5</v>
       </c>
-      <c r="C38"/>
-      <c r="D38"/>
+      <c r="C38" t="n">
+        <v>0.19293654101982927</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.11750289447387396</v>
+      </c>
       <c r="E38" t="n">
-        <v>-1.5180851411073404</v>
-      </c>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
-      <c r="X38"/>
-      <c r="Y38"/>
-      <c r="Z38"/>
-      <c r="AA38"/>
-      <c r="AB38"/>
-      <c r="AC38"/>
-      <c r="AD38"/>
-      <c r="AE38"/>
-      <c r="AF38"/>
-      <c r="AG38"/>
-      <c r="AH38"/>
-      <c r="AI38"/>
-      <c r="AJ38"/>
+        <v>0.04209442980873945</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.033275139072685755</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.10852092817282638</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-0.18328144835018073</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.2398074533527869</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-0.2959549903719799</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.35211637619940783</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.40830180775713254</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.46451970375463625</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.5207796076274389</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-0.577088036579236</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-0.633455026660962</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>-0.6898903165974379</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-0.746400637879925</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-0.8029925147987723</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-0.8596762118149817</v>
+      </c>
+      <c r="U38" t="n">
+        <v>-0.9164605431876477</v>
+      </c>
+      <c r="V38" t="n">
+        <v>-0.9733507037431088</v>
+      </c>
+      <c r="W38" t="n">
+        <v>-1.0305674004130554</v>
+      </c>
+      <c r="X38" t="n">
+        <v>-1.0906767402582809</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>-1.1665565881456397</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>-1.2735291160520243</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>-1.3833905942917406</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>-1.467095864180049</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>-1.5467819792054918</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>-1.6187217407475394</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>-1.6777555404712934</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>-1.716859920096513</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>-1.727172098545</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>-1.7011977898679187</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>-1.6295521692205657</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>-1.5017430049149514</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -36942,42 +37797,108 @@
       <c r="B41" t="s">
         <v>5</v>
       </c>
-      <c r="C41"/>
-      <c r="D41"/>
+      <c r="C41" t="n">
+        <v>0.23144847524008594</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.1638526050257414</v>
+      </c>
       <c r="E41" t="n">
-        <v>-1.2957423838659812</v>
-      </c>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
-      <c r="W41"/>
-      <c r="X41"/>
-      <c r="Y41"/>
-      <c r="Z41"/>
-      <c r="AA41"/>
-      <c r="AB41"/>
-      <c r="AC41"/>
-      <c r="AD41"/>
-      <c r="AE41"/>
-      <c r="AF41"/>
-      <c r="AG41"/>
-      <c r="AH41"/>
-      <c r="AI41"/>
-      <c r="AJ41"/>
+        <v>0.09629409390046761</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.028764236103322238</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.03865227723906134</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-0.10559645935541984</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-0.15432322875937288</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-0.2026890782267417</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.251088005796079</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.29953267910808135</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.3480340600931648</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.3966029465325796</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-0.445248335537462</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-0.4939823184505448</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-0.5428154448211107</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-0.5917577774768987</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-0.6408182891330134</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-0.6900078716373471</v>
+      </c>
+      <c r="U41" t="n">
+        <v>-0.7393365921229338</v>
+      </c>
+      <c r="V41" t="n">
+        <v>-0.788813881487296</v>
+      </c>
+      <c r="W41" t="n">
+        <v>-0.8386596845011924</v>
+      </c>
+      <c r="X41" t="n">
+        <v>-0.8914195389580926</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>-0.9601051346261558</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>-1.0603328445749252</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>-1.164152864278334</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>-1.2428140935560066</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>-1.3186307533363466</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>-1.3879424374760336</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>-1.4456001984422926</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>-1.484571800371192</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>-1.4959373349523095</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>-1.47210869603971</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>-1.4035666584733244</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>-1.2796448853798184</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -36996,42 +37917,108 @@
       <c r="B44" t="s">
         <v>5</v>
       </c>
-      <c r="C44"/>
-      <c r="D44"/>
+      <c r="C44" t="n">
+        <v>0.2622580226162907</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.20093237346723497</v>
+      </c>
       <c r="E44" t="n">
-        <v>-1.1178681780728956</v>
-      </c>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
-      <c r="T44"/>
-      <c r="U44"/>
-      <c r="V44"/>
-      <c r="W44"/>
-      <c r="X44"/>
-      <c r="Y44"/>
-      <c r="Z44"/>
-      <c r="AA44"/>
-      <c r="AB44"/>
-      <c r="AC44"/>
-      <c r="AD44"/>
-      <c r="AE44"/>
-      <c r="AF44"/>
-      <c r="AG44"/>
-      <c r="AH44"/>
-      <c r="AI44"/>
-      <c r="AJ44"/>
+        <v>0.1396538251738495</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.07839573624412799</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.017242643507950017</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-0.0434484681596119</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-0.08593584908464244</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-0.128076348510552</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.17026530947341695</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.21251737618884137</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.25484554516398866</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.29726161765669323</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-0.33977657470404404</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-0.38240415188221233</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-0.42515554740005024</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-0.4680434891544791</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-0.5110789086004076</v>
+      </c>
+      <c r="T44" t="n">
+        <v>-0.5542731994952407</v>
+      </c>
+      <c r="U44" t="n">
+        <v>-0.5976374312711644</v>
+      </c>
+      <c r="V44" t="n">
+        <v>-0.6411844236826478</v>
+      </c>
+      <c r="W44" t="n">
+        <v>-0.6851335117717041</v>
+      </c>
+      <c r="X44" t="n">
+        <v>-0.7320137779179436</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>-0.794943971810571</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>-0.8897758273932479</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>-0.9887626802676108</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>-1.0633886770567742</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>-1.136109772641032</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>-1.2033189948588308</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>-1.259875924819094</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>-1.298741304590937</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>-1.3109495240781588</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>-1.288837420977145</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>-1.222778249875533</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>-1.1019663897517142</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -37039,12 +38026,12 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="s">
+      <c r="A47" t="s">
         <v>5</v>
       </c>
     </row>
@@ -37055,42 +38042,108 @@
       <c r="B48" t="s">
         <v>5</v>
       </c>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
+      <c r="C48" t="n">
+        <v>0.3667567565924984</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.44419311998453676</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.521629483376575</v>
+      </c>
       <c r="F48" t="n">
-        <v>2.322216669275818</v>
-      </c>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
-      <c r="R48"/>
-      <c r="S48"/>
-      <c r="T48"/>
-      <c r="U48"/>
-      <c r="V48"/>
-      <c r="W48"/>
-      <c r="X48"/>
-      <c r="Y48"/>
-      <c r="Z48"/>
-      <c r="AA48"/>
-      <c r="AB48"/>
-      <c r="AC48"/>
-      <c r="AD48"/>
-      <c r="AE48"/>
-      <c r="AF48"/>
-      <c r="AG48"/>
-      <c r="AH48"/>
-      <c r="AI48"/>
-      <c r="AJ48"/>
+        <v>0.5990658467686134</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.6765022101606516</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.75393857355269</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.8313749369447283</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.9088113003367666</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.9862476637288049</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.0636840271208432</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.1411203905128815</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.2185567539049198</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.295993117296958</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.3734294806889964</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.450865844081035</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.5283022074730732</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.6057385708651115</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.6831749342571498</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.7606112976491881</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.8380476610412266</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.915484024433265</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.9929238693899014</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>2.069121062743019</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>2.1412743647444406</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>2.206908523755958</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>2.2640010526058396</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>2.310982228588809</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>2.3467350934660893</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>2.3705954534653824</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>2.382351879280835</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>2.382245706073106</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>2.370971033469328</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>2.349674725563103</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>2.3199564109144895</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -37099,42 +38152,108 @@
       <c r="B49" t="s">
         <v>5</v>
       </c>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
+      <c r="C49" t="n">
+        <v>0.05917446521411234</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.05604571225715253</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.052431107827007294</v>
+      </c>
       <c r="F49" t="n">
-        <v>0.23059192665226524</v>
-      </c>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49"/>
-      <c r="R49"/>
-      <c r="S49"/>
-      <c r="T49"/>
-      <c r="U49"/>
-      <c r="V49"/>
-      <c r="W49"/>
-      <c r="X49"/>
-      <c r="Y49"/>
-      <c r="Z49"/>
-      <c r="AA49"/>
-      <c r="AB49"/>
-      <c r="AC49"/>
-      <c r="AD49"/>
-      <c r="AE49"/>
-      <c r="AF49"/>
-      <c r="AG49"/>
-      <c r="AH49"/>
-      <c r="AI49"/>
-      <c r="AJ49"/>
+        <v>0.049543201194067396</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.04725196177379251</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.045575870224052344</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.04477231592854328</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.04470825862215505</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.04530757953905364</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.046574490527746884</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.0488881817433332</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.05190951522576579</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.05565679094004843</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.06022368035063092</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.06580276758499362</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.07215511442034318</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.07929540285934539</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.0873866267328995</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.09647294658865566</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.10639475692171065</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.1171651040667242</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.12900095054299113</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.14183830542250844</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0.1554498047448329</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0.16978570540591453</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0.1811327455721614</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.18900489515815463</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.19503521735664142</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0.20069647457656312</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0.20627442601855972</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0.2120641416188425</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0.2181103404002922</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0.22443808138018873</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0.23111074146546995</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -37153,42 +38272,108 @@
       <c r="B52" t="s">
         <v>5</v>
       </c>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
+      <c r="C52" t="n">
+        <v>0.40404857813713835</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.32232657777736673</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.24062975929841635</v>
+      </c>
       <c r="F52" t="n">
-        <v>-1.5174201911618475</v>
-      </c>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
-      <c r="T52"/>
-      <c r="U52"/>
-      <c r="V52"/>
-      <c r="W52"/>
-      <c r="X52"/>
-      <c r="Y52"/>
-      <c r="Z52"/>
-      <c r="AA52"/>
-      <c r="AB52"/>
-      <c r="AC52"/>
-      <c r="AD52"/>
-      <c r="AE52"/>
-      <c r="AF52"/>
-      <c r="AG52"/>
-      <c r="AH52"/>
-      <c r="AI52"/>
-      <c r="AJ52"/>
+        <v>0.1589718366031747</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.07743769368921805</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.0036111803019523436</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.06642553911837468</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.12886142995138383</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.19131116959262784</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.25378495496416875</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.31629120477548844</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.3788394624621073</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.4414362452277205</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.5040915891232625</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-0.5668152328735546</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-0.6296139079698582</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-0.6924941387025217</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-0.7554661895325469</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-0.8185388747190286</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-0.8817173890883059</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-0.9450236413672222</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-1.0098638968692621</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-1.0897117023062761</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>-1.2010557821046217</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>-1.3165108130538559</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>-1.4075000093630907</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>-1.496278763833535</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>-1.5788881835760282</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>-1.6495869324058252</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>-1.700419790611431</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>-1.7212421821022303</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>-1.7029279923356122</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>-1.634110534291988</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>-1.5019656805269426</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -37207,42 +38392,108 @@
       <c r="B55" t="s">
         <v>5</v>
       </c>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
+      <c r="C55" t="n">
+        <v>0.43917357096030984</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.36539068061083946</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.29164514935043984</v>
+      </c>
       <c r="F55" t="n">
-        <v>-1.2950774339204882</v>
-      </c>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-      <c r="O55"/>
-      <c r="P55"/>
-      <c r="Q55"/>
-      <c r="R55"/>
-      <c r="S55"/>
-      <c r="T55"/>
-      <c r="U55"/>
-      <c r="V55"/>
-      <c r="W55"/>
-      <c r="X55"/>
-      <c r="Y55"/>
-      <c r="Z55"/>
-      <c r="AA55"/>
-      <c r="AB55"/>
-      <c r="AC55"/>
-      <c r="AD55"/>
-      <c r="AE55"/>
-      <c r="AF55"/>
-      <c r="AG55"/>
-      <c r="AH55"/>
-      <c r="AI55"/>
-      <c r="AJ55"/>
+        <v>0.21792827141816873</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.14432473794065925</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.07119353568917502</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.016279746150096086</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-0.03827312345239858</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.09285907115686173</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.1474907646039899</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.20217916572419914</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.2569350722987398</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-0.3117674814387481</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-0.36668848448695657</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-0.4217086309926482</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-0.4768379837835627</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-0.532085515574803</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-0.5874621182142622</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-0.6429778588349747</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-0.6986421683344626</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-0.7544793968123471</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-0.8118939305848392</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-0.8844835421498931</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>-0.989012358616856</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>-1.0983357937236151</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>-1.1841635725885633</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>-1.268926348473895</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>-1.348735754604992</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>-1.4178704898527772</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>-1.468381571791821</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>-1.4900879525852453</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>-1.4737959935955163</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>-1.4080365442060612</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>-1.2798489491217164</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -37261,42 +38512,108 @@
       <c r="B58" t="s">
         <v>5</v>
       </c>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
+      <c r="C58" t="n">
+        <v>0.46727356521884655</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.39984196287761725</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.33245746139205834</v>
+      </c>
       <c r="F58" t="n">
-        <v>-1.1172032281274027</v>
-      </c>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
-      <c r="R58"/>
-      <c r="S58"/>
-      <c r="T58"/>
-      <c r="U58"/>
-      <c r="V58"/>
-      <c r="W58"/>
-      <c r="X58"/>
-      <c r="Y58"/>
-      <c r="Z58"/>
-      <c r="AA58"/>
-      <c r="AB58"/>
-      <c r="AC58"/>
-      <c r="AD58"/>
-      <c r="AE58"/>
-      <c r="AF58"/>
-      <c r="AG58"/>
-      <c r="AH58"/>
-      <c r="AI58"/>
-      <c r="AJ58"/>
+        <v>0.26509341927016306</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.1978343733418116</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.13103730848207606</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.08244397436487183</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.03419752174678875</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-0.01409739240824981</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-0.06245541231584785</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.11088953448316871</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.15941156016804686</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-0.20803247040757133</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-0.2567660007779131</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-0.30562334948792447</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-0.3546172444345274</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-0.4037586170726296</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-0.453058861159636</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-0.5025290461277331</v>
+      </c>
+      <c r="V58" t="n">
+        <v>-0.5521819917313899</v>
+      </c>
+      <c r="W58" t="n">
+        <v>-0.6020440011684487</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-0.6535179575573022</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-0.7203010140247886</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>-0.8193776198266449</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>-0.9237957782594246</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>-1.0054944231689433</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>-1.0870444161861843</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>-1.1646138114281654</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>-1.2324973358103413</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>-1.2827509967361341</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>-1.305164568971659</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>-1.2904903946034412</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>-1.2271773521373217</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>-1.1021555639975371</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -37304,12 +38621,12 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="s">
+      <c r="A61" t="s">
         <v>5</v>
       </c>
     </row>
@@ -37320,42 +38637,108 @@
       <c r="B62" t="s">
         <v>5</v>
       </c>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
+      <c r="C62" t="n">
+        <v>0.33293261889860726</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.4113779185130692</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.48982321812753105</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.5682685177419929</v>
+      </c>
       <c r="G62" t="n">
-        <v>2.322216669275818</v>
-      </c>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
-      <c r="R62"/>
-      <c r="S62"/>
-      <c r="T62"/>
-      <c r="U62"/>
-      <c r="V62"/>
-      <c r="W62"/>
-      <c r="X62"/>
-      <c r="Y62"/>
-      <c r="Z62"/>
-      <c r="AA62"/>
-      <c r="AB62"/>
-      <c r="AC62"/>
-      <c r="AD62"/>
-      <c r="AE62"/>
-      <c r="AF62"/>
-      <c r="AG62"/>
-      <c r="AH62"/>
-      <c r="AI62"/>
-      <c r="AJ62"/>
+        <v>0.6467138173564548</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.7251591169709167</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.8036044165853787</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.8820497161998405</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.9604950158143025</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.0389403154287644</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.1173856150432264</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.1958309146576882</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.27427621427215</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1.3527215138866118</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1.431166813501074</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.509612113115536</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1.5880574127299978</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.6665027123444596</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1.7449480119589218</v>
+      </c>
+      <c r="V62" t="n">
+        <v>1.8233933115733838</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.9018386111878456</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.980238954514239</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>2.057148889009676</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>2.1299258262830802</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>2.1963008637494013</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>2.254386844430703</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>2.3026783569561418</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>2.340051735562034</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>2.365765060091806</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>2.3794581559959784</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>2.381152594332244</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>2.3712516917653756</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>2.350540510567294</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>2.3201858586170205</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -37364,42 +38747,108 @@
       <c r="B63" t="s">
         <v>5</v>
       </c>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
+      <c r="C63" t="n">
+        <v>0.05984205780463308</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.05671330484767327</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.05309870041752803</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.050210793784588134</v>
+      </c>
       <c r="G63" t="n">
-        <v>0.23111074146546995</v>
-      </c>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-      <c r="O63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
-      <c r="R63"/>
-      <c r="S63"/>
-      <c r="T63"/>
-      <c r="U63"/>
-      <c r="V63"/>
-      <c r="W63"/>
-      <c r="X63"/>
-      <c r="Y63"/>
-      <c r="Z63"/>
-      <c r="AA63"/>
-      <c r="AB63"/>
-      <c r="AC63"/>
-      <c r="AD63"/>
-      <c r="AE63"/>
-      <c r="AF63"/>
-      <c r="AG63"/>
-      <c r="AH63"/>
-      <c r="AI63"/>
-      <c r="AJ63"/>
+        <v>0.04791955436431325</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.04624346281457309</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.045439908519064015</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.04537585121267579</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.04597517212957438</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.04724208311826762</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.04955577433385394</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.05257710781628653</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.05632438353056917</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.06089127294115166</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.06647036017551436</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.07282270701086394</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.07996299544986613</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.08805421932342025</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.0971405391791764</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.10706234951223138</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.11783269665724494</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.12966854313351187</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0.1425058980130292</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0.15611739733535362</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0.17045329799643527</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0.18180033816268215</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0.18967248774867537</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0.19570280994716216</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0.20136406716708385</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>0.20694201860908046</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>0.21273173420936323</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>0.21877793299081294</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>0.22510567397070946</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>0.2317783340559907</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -37418,42 +38867,108 @@
       <c r="B66" t="s">
         <v>5</v>
       </c>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
+      <c r="C66" t="n">
+        <v>0.6151470001990988</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.5271639541295727</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.43920608994086763</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.35128712153587194</v>
+      </c>
       <c r="G66" t="n">
-        <v>-1.5164878902073415</v>
-      </c>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
-      <c r="R66"/>
-      <c r="S66"/>
-      <c r="T66"/>
-      <c r="U66"/>
-      <c r="V66"/>
-      <c r="W66"/>
-      <c r="X66"/>
-      <c r="Y66"/>
-      <c r="Z66"/>
-      <c r="AA66"/>
-      <c r="AB66"/>
-      <c r="AC66"/>
-      <c r="AD66"/>
-      <c r="AE66"/>
-      <c r="AF66"/>
-      <c r="AG66"/>
-      <c r="AH66"/>
-      <c r="AI66"/>
-      <c r="AJ66"/>
+        <v>0.263491932912161</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.17618201321123594</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.10710660868505939</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.03840967214229585</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.030301113208702657</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.09903594428999796</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.16780323981107206</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.23661254320744532</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-0.30547037168281294</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.3743867612881092</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-0.44337145074815565</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-0.5124311715542135</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-0.5815724479966315</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-0.6508055445364112</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-0.7201392754326479</v>
+      </c>
+      <c r="V66" t="n">
+        <v>-0.7895788355116795</v>
+      </c>
+      <c r="W66" t="n">
+        <v>-0.8591461335003501</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-0.9299468492014968</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>-1.0142176347755136</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>-1.129431740108993</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>-1.2494843598530418</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>-1.3466385120719946</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>-1.4435486794159484</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>-1.5362143448384202</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>-1.6184118339909852</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>-1.6812628749921932</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-1.7132591255752745</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>-1.7034699910149391</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>-1.6382835901028379</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>-1.5021898871994959</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -37472,42 +38987,108 @@
       <c r="B69" t="s">
         <v>5</v>
       </c>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
+      <c r="C69" t="n">
+        <v>0.6468895792528813</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.5669465368158988</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.4870408534679871</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.407163823448204</v>
+      </c>
       <c r="G69" t="n">
-        <v>-1.2941451329659823</v>
-      </c>
-      <c r="H69"/>
-      <c r="I69"/>
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
-      <c r="O69"/>
-      <c r="P69"/>
-      <c r="Q69"/>
-      <c r="R69"/>
-      <c r="S69"/>
-      <c r="T69"/>
-      <c r="U69"/>
-      <c r="V69"/>
-      <c r="W69"/>
-      <c r="X69"/>
-      <c r="Y69"/>
-      <c r="Z69"/>
-      <c r="AA69"/>
-      <c r="AB69"/>
-      <c r="AC69"/>
-      <c r="AD69"/>
-      <c r="AE69"/>
-      <c r="AF69"/>
-      <c r="AG69"/>
-      <c r="AH69"/>
-      <c r="AI69"/>
-      <c r="AJ69"/>
+        <v>0.32740013788318256</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.24810878354418608</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.18703484191759512</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.12632182022758842</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.06557572043561316</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.004783874900972956</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-0.056064678306748245</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.11698073696880099</v>
+      </c>
+      <c r="O69" t="n">
+        <v>-0.17797329819632135</v>
+      </c>
+      <c r="P69" t="n">
+        <v>-0.23905445333204178</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>-0.30023475192524546</v>
+      </c>
+      <c r="R69" t="n">
+        <v>-0.3615242568036716</v>
+      </c>
+      <c r="S69" t="n">
+        <v>-0.4229319406824243</v>
+      </c>
+      <c r="T69" t="n">
+        <v>-0.48446869540939563</v>
+      </c>
+      <c r="U69" t="n">
+        <v>-0.5461445881176206</v>
+      </c>
+      <c r="V69" t="n">
+        <v>-0.6079690497046204</v>
+      </c>
+      <c r="W69" t="n">
+        <v>-0.669966430270017</v>
+      </c>
+      <c r="X69" t="n">
+        <v>-0.7332453744046401</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>-0.8101866919924652</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>-0.9185231704673631</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>-1.032370106523457</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>-1.1242634961149807</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>-1.2170266512195747</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>-1.30673025165779</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>-1.3871784307752952</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>-1.4495140285010684</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>-1.4822142072323756</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>-1.4743099264452384</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>-1.412123021516492</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>-1.2800502110240164</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -37526,307 +39107,108 @@
       <c r="B72" t="s">
         <v>5</v>
       </c>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
+      <c r="C72" t="n">
+        <v>0.6722836424959069</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.5987726029649592</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.5253086642896819</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.4518651849780688</v>
+      </c>
       <c r="G72" t="n">
-        <v>-1.1162709271728968</v>
-      </c>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
-      <c r="O72"/>
-      <c r="P72"/>
-      <c r="Q72"/>
-      <c r="R72"/>
-      <c r="S72"/>
-      <c r="T72"/>
-      <c r="U72"/>
-      <c r="V72"/>
-      <c r="W72"/>
-      <c r="X72"/>
-      <c r="Y72"/>
-      <c r="Z72"/>
-      <c r="AA72"/>
-      <c r="AB72"/>
-      <c r="AC72"/>
-      <c r="AD72"/>
-      <c r="AE72"/>
-      <c r="AF72"/>
-      <c r="AG72"/>
-      <c r="AH72"/>
-      <c r="AI72"/>
-      <c r="AJ72"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>152</v>
-      </c>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76" t="n">
-        <v>2.322216669275818</v>
-      </c>
-      <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
-      <c r="O76"/>
-      <c r="P76"/>
-      <c r="Q76"/>
-      <c r="R76"/>
-      <c r="S76"/>
-      <c r="T76"/>
-      <c r="U76"/>
-      <c r="V76"/>
-      <c r="W76"/>
-      <c r="X76"/>
-      <c r="Y76"/>
-      <c r="Z76"/>
-      <c r="AA76"/>
-      <c r="AB76"/>
-      <c r="AC76"/>
-      <c r="AD76"/>
-      <c r="AE76"/>
-      <c r="AF76"/>
-      <c r="AG76"/>
-      <c r="AH76"/>
-      <c r="AI76"/>
-      <c r="AJ76"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>153</v>
-      </c>
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77" t="n">
-        <v>0.2317783340559907</v>
-      </c>
-      <c r="I77"/>
-      <c r="J77"/>
-      <c r="K77"/>
-      <c r="L77"/>
-      <c r="M77"/>
-      <c r="N77"/>
-      <c r="O77"/>
-      <c r="P77"/>
-      <c r="Q77"/>
-      <c r="R77"/>
-      <c r="S77"/>
-      <c r="T77"/>
-      <c r="U77"/>
-      <c r="V77"/>
-      <c r="W77"/>
-      <c r="X77"/>
-      <c r="Y77"/>
-      <c r="Z77"/>
-      <c r="AA77"/>
-      <c r="AB77"/>
-      <c r="AC77"/>
-      <c r="AD77"/>
-      <c r="AE77"/>
-      <c r="AF77"/>
-      <c r="AG77"/>
-      <c r="AH77"/>
-      <c r="AI77"/>
-      <c r="AJ77"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>155</v>
-      </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80" t="n">
-        <v>-1.515288238243823</v>
-      </c>
-      <c r="I80"/>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80"/>
-      <c r="O80"/>
-      <c r="P80"/>
-      <c r="Q80"/>
-      <c r="R80"/>
-      <c r="S80"/>
-      <c r="T80"/>
-      <c r="U80"/>
-      <c r="V80"/>
-      <c r="W80"/>
-      <c r="X80"/>
-      <c r="Y80"/>
-      <c r="Z80"/>
-      <c r="AA80"/>
-      <c r="AB80"/>
-      <c r="AC80"/>
-      <c r="AD80"/>
-      <c r="AE80"/>
-      <c r="AF80"/>
-      <c r="AG80"/>
-      <c r="AH80"/>
-      <c r="AI80"/>
-      <c r="AJ80"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>155</v>
-      </c>
-      <c r="B83" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83" t="n">
-        <v>-1.2929454810024639</v>
-      </c>
-      <c r="I83"/>
-      <c r="J83"/>
-      <c r="K83"/>
-      <c r="L83"/>
-      <c r="M83"/>
-      <c r="N83"/>
-      <c r="O83"/>
-      <c r="P83"/>
-      <c r="Q83"/>
-      <c r="R83"/>
-      <c r="S83"/>
-      <c r="T83"/>
-      <c r="U83"/>
-      <c r="V83"/>
-      <c r="W83"/>
-      <c r="X83"/>
-      <c r="Y83"/>
-      <c r="Z83"/>
-      <c r="AA83"/>
-      <c r="AB83"/>
-      <c r="AC83"/>
-      <c r="AD83"/>
-      <c r="AE83"/>
-      <c r="AF83"/>
-      <c r="AG83"/>
-      <c r="AH83"/>
-      <c r="AI83"/>
-      <c r="AJ83"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>155</v>
-      </c>
-      <c r="B86" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86" t="n">
-        <v>-1.1150712752093783</v>
-      </c>
-      <c r="I86"/>
-      <c r="J86"/>
-      <c r="K86"/>
-      <c r="L86"/>
-      <c r="M86"/>
-      <c r="N86"/>
-      <c r="O86"/>
-      <c r="P86"/>
-      <c r="Q86"/>
-      <c r="R86"/>
-      <c r="S86"/>
-      <c r="T86"/>
-      <c r="U86"/>
-      <c r="V86"/>
-      <c r="W86"/>
-      <c r="X86"/>
-      <c r="Y86"/>
-      <c r="Z86"/>
-      <c r="AA86"/>
-      <c r="AB86"/>
-      <c r="AC86"/>
-      <c r="AD86"/>
-      <c r="AE86"/>
-      <c r="AF86"/>
-      <c r="AG86"/>
-      <c r="AH86"/>
-      <c r="AI86"/>
-      <c r="AJ86"/>
+        <v>0.3785267018599991</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.30565019981054525</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.2509774285036229</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.1966515386958217</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.14227718735106487</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.0878397302537487</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.033326170896709736</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.02127529197788659</v>
+      </c>
+      <c r="O72" t="n">
+        <v>-0.07597563940712918</v>
+      </c>
+      <c r="P72" t="n">
+        <v>-0.13078860696718905</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>-0.1857253928669186</v>
+      </c>
+      <c r="R72" t="n">
+        <v>-0.24079872500323946</v>
+      </c>
+      <c r="S72" t="n">
+        <v>-0.2960195348310599</v>
+      </c>
+      <c r="T72" t="n">
+        <v>-0.3513992161077847</v>
+      </c>
+      <c r="U72" t="n">
+        <v>-0.40694883826560013</v>
+      </c>
+      <c r="V72" t="n">
+        <v>-0.4626812210589752</v>
+      </c>
+      <c r="W72" t="n">
+        <v>-0.5186226676857519</v>
+      </c>
+      <c r="X72" t="n">
+        <v>-0.5758841945671562</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>-0.6469619377660282</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>-0.7497963147540609</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>-0.858678703859791</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>-0.9463634833493719</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>-1.0358090286624777</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>-1.1231429771132877</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>-1.2021917082027451</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>-1.2641149513081706</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>-1.2973782725580583</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>-1.29098187478948</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>-1.2311945666474173</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>-1.102338470083635</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
@@ -36258,106 +36258,106 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4685229091804811</v>
+        <v>0.5365651603586656</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5429039143043438</v>
+        <v>0.6089704002723525</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6172849194282064</v>
+        <v>0.6813756401860391</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6916659245520691</v>
+        <v>0.7537808800997259</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7660469296759317</v>
+        <v>0.8261861200134125</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8404279347997943</v>
+        <v>0.8985913599270994</v>
       </c>
       <c r="I6" t="n">
-        <v>0.914808939923657</v>
+        <v>0.9709965998407861</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9891899450475196</v>
+        <v>1.0434018397544729</v>
       </c>
       <c r="K6" t="n">
-        <v>1.0635709501713824</v>
+        <v>1.1158070796681596</v>
       </c>
       <c r="L6" t="n">
-        <v>1.1379519552952448</v>
+        <v>1.1882123195818461</v>
       </c>
       <c r="M6" t="n">
-        <v>1.2123329604191075</v>
+        <v>1.2606175594955331</v>
       </c>
       <c r="N6" t="n">
-        <v>1.2867139655429702</v>
+        <v>1.3330227994092199</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3610949706668327</v>
+        <v>1.4054280393229064</v>
       </c>
       <c r="P6" t="n">
-        <v>1.4354759757906954</v>
+        <v>1.4778332792365931</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5098569809145581</v>
+        <v>1.5502385191502799</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5842379860384208</v>
+        <v>1.6226566544603214</v>
       </c>
       <c r="S6" t="n">
-        <v>1.6586189911622835</v>
+        <v>1.69518862059669</v>
       </c>
       <c r="T6" t="n">
-        <v>1.7329999963214302</v>
+        <v>1.767937823826507</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8074239217153396</v>
+        <v>1.8409555661342103</v>
       </c>
       <c r="V6" t="n">
-        <v>1.882067227079549</v>
+        <v>1.9142407523961502</v>
       </c>
       <c r="W6" t="n">
-        <v>1.9570559352869918</v>
+        <v>1.9877398903805912</v>
       </c>
       <c r="X6" t="n">
-        <v>2.0323720183541454</v>
+        <v>2.0613021344596403</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.1064043183390138</v>
+        <v>2.133230206507228</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.175973286807249</v>
+        <v>2.200305135365232</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.238360865151966</v>
+        <v>2.259816137163298</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.2914375651286925</v>
+        <v>2.309687695853771</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.3336624688553225</v>
+        <v>2.3484795632116726</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.364083228812185</v>
+        <v>2.375386758834754</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.382336067841999</v>
+        <v>2.3902395701434553</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.3886457791498863</v>
+        <v>2.393503552380913</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.383825726303372</v>
+        <v>2.3862795286129765</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.3692778432323975</v>
+        <v>2.3703035897282017</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.3469926342292897</v>
+        <v>2.3479470944378322</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.3195491739487846</v>
+        <v>2.322216669275818</v>
       </c>
     </row>
     <row r="7">
@@ -36488,106 +36488,106 @@
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.22946540928036546</v>
+        <v>-0.6522037725207246</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.29222710535968216</v>
+        <v>-0.7027046774640676</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.35496361955817796</v>
+        <v>-0.7531804005265897</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4176612379729645</v>
+        <v>-0.8036172278054026</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4802350766064662</v>
+        <v>-0.8539302753029308</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5423236463171819</v>
+        <v>-0.9037580538776727</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5861777008531492</v>
+        <v>-0.9353513172776664</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.6296532874057035</v>
+        <v>-0.9665661126942471</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.6731427227664928</v>
+        <v>-0.9977947569190626</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.7166562038575787</v>
+        <v>-1.029047446874175</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.7602021493884435</v>
+        <v>-1.0603326012690664</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.8037901027946074</v>
+        <v>-1.0916597635392564</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.8474265812797658</v>
+        <v>-1.1230354508884413</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.8911216208948527</v>
+        <v>-1.154469699367555</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.9348849603646899</v>
+        <v>-1.1859722477014183</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.9787233311805386</v>
+        <v>-1.2176298509390036</v>
       </c>
       <c r="S10" t="n">
-        <v>-1.022643257632747</v>
+        <v>-1.2500753973833167</v>
       </c>
       <c r="T10" t="n">
-        <v>-1.0666550044012768</v>
+        <v>-1.2839608485132032</v>
       </c>
       <c r="U10" t="n">
-        <v>-1.1110337309559828</v>
+        <v>-1.3196133777292196</v>
       </c>
       <c r="V10" t="n">
-        <v>-1.1568796690993541</v>
+        <v>-1.3570313839680601</v>
       </c>
       <c r="W10" t="n">
-        <v>-1.2049967739853296</v>
+        <v>-1.39590482503582</v>
       </c>
       <c r="X10" t="n">
-        <v>-1.2566578314655705</v>
+        <v>-1.4366822747834596</v>
       </c>
       <c r="Y10" t="n">
-        <v>-1.323071193739472</v>
+        <v>-1.4900376587568007</v>
       </c>
       <c r="Z10" t="n">
-        <v>-1.4183779561921668</v>
+        <v>-1.5698674310345528</v>
       </c>
       <c r="AA10" t="n">
-        <v>-1.513686034833144</v>
+        <v>-1.6473246516669526</v>
       </c>
       <c r="AB10" t="n">
-        <v>-1.5797546389596737</v>
+        <v>-1.6935034593391067</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.6390179123291992</v>
+        <v>-1.731462712543487</v>
       </c>
       <c r="AD10" t="n">
-        <v>-1.6885384688769984</v>
+        <v>-1.7591795252975269</v>
       </c>
       <c r="AE10" t="n">
-        <v>-1.7244392351108542</v>
+        <v>-1.7739811095383105</v>
       </c>
       <c r="AF10" t="n">
-        <v>-1.7414720098801315</v>
+        <v>-1.7721133348916094</v>
       </c>
       <c r="AG10" t="n">
-        <v>-1.7330419915230428</v>
+        <v>-1.7487652558192566</v>
       </c>
       <c r="AH10" t="n">
-        <v>-1.694415595794053</v>
+        <v>-1.7012769295464243</v>
       </c>
       <c r="AI10" t="n">
-        <v>-1.6194614218387569</v>
+        <v>-1.6258803820365817</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-1.5014333842462424</v>
+        <v>-1.5184827400438208</v>
       </c>
     </row>
     <row r="11">
@@ -36608,106 +36608,106 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1841638011983956</v>
+        <v>-0.6000979393209362</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.23929192309422875</v>
+        <v>-0.6431628466018132</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.29438268590099115</v>
+        <v>-0.6861903947936197</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3494447953796249</v>
+        <v>-0.7291892896572973</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.40439356040349694</v>
+        <v>-0.7720748400662133</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.4588699942013441</v>
+        <v>-0.8144880592491044</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.4951290152867856</v>
+        <v>-0.8386838657195899</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.5310271164356429</v>
+        <v>-0.8625187522534912</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.5669582956864687</v>
+        <v>-0.886386716889361</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.6029352206799596</v>
+        <v>-0.910300427267896</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.6389688533465316</v>
+        <v>-0.9342708453195118</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.6750699914674348</v>
+        <v>-0.9583087688254589</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.7112476321538057</v>
+        <v>-0.9824231948968739</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.7475138667483769</v>
+        <v>-1.006626214876489</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.7838792448004313</v>
+        <v>-1.0309283783135874</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.8203538291377082</v>
+        <v>-1.0554184820539831</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.8569465924753112</v>
+        <v>-1.08072176928244</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.8936684268765639</v>
+        <v>-1.107480488237983</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.9307914526653138</v>
+        <v>-1.1360179349966633</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.9694024917416786</v>
+        <v>-1.1663368540787247</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.0102953383450817</v>
+        <v>-1.1981349938862123</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.054743050284723</v>
+        <v>-1.2318744819920626</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.1141147080234897</v>
+        <v>-1.278398584223997</v>
       </c>
       <c r="Z13" t="n">
-        <v>-1.2028646404981198</v>
+        <v>-1.351920930484708</v>
       </c>
       <c r="AA13" t="n">
-        <v>-1.2923657813633025</v>
+        <v>-1.4238588709959779</v>
       </c>
       <c r="AB13" t="n">
-        <v>-1.3536745509328607</v>
+        <v>-1.465598358239786</v>
       </c>
       <c r="AC13" t="n">
-        <v>-1.4093974729429077</v>
+        <v>-1.5003605637215602</v>
       </c>
       <c r="AD13" t="n">
-        <v>-1.4566512263713531</v>
+        <v>-1.5261619297896245</v>
       </c>
       <c r="AE13" t="n">
-        <v>-1.4915487311201445</v>
+        <v>-1.5403002553174554</v>
       </c>
       <c r="AF13" t="n">
-        <v>-1.5088044010736155</v>
+        <v>-1.5389599487619914</v>
       </c>
       <c r="AG13" t="n">
-        <v>-1.5017297599830313</v>
+        <v>-1.517207644048285</v>
       </c>
       <c r="AH13" t="n">
-        <v>-1.4654529160776502</v>
+        <v>-1.472211675180441</v>
       </c>
       <c r="AI13" t="n">
-        <v>-1.3936556408862115</v>
+        <v>-1.399979155063182</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-1.279357376537586</v>
+        <v>-1.2961399828024616</v>
       </c>
     </row>
     <row r="14">
@@ -36728,106 +36728,106 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.14792251473282014</v>
+        <v>-0.558413272761106</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.19694377728186635</v>
+        <v>-0.5955293819120101</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.24591793897524222</v>
+        <v>-0.6325983902072441</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.29487164130495397</v>
+        <v>-0.6696469391388138</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.3437203474411223</v>
+        <v>-0.7065904918768402</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.3921070725086746</v>
+        <v>-0.7430720635462505</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4222900668336955</v>
+        <v>-0.7613499044731293</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.45212617965959534</v>
+        <v>-0.7792808639008874</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.4820107540224507</v>
+        <v>-0.7972602848656006</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.5119584341378655</v>
+        <v>-0.8153028115828735</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.5419822165130032</v>
+        <v>-0.8334214405598692</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.5720939024056979</v>
+        <v>-0.8516279730544218</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.602304472853039</v>
+        <v>-0.8699333901036213</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.6326276634311976</v>
+        <v>-0.8883514272836378</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.6630746723490258</v>
+        <v>-0.9068932828033239</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.6936582275034451</v>
+        <v>-0.9256493869459681</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.7243892603493639</v>
+        <v>-0.9452388668017403</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.7552791648567952</v>
+        <v>-0.966296200017808</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.7865976300327798</v>
+        <v>-0.9891415808106198</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.8194207498555397</v>
+        <v>-1.0137812301672577</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.8545341898328853</v>
+        <v>-1.039919128966528</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.8932112253400466</v>
+        <v>-1.0680282477589464</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.9469495194507057</v>
+        <v>-1.1090873245977555</v>
       </c>
       <c r="Z16" t="n">
-        <v>-1.0304539879428842</v>
+        <v>-1.1775637300448338</v>
       </c>
       <c r="AA16" t="n">
-        <v>-1.115309578587431</v>
+        <v>-1.2450862464592003</v>
       </c>
       <c r="AB16" t="n">
-        <v>-1.1728104805114123</v>
+        <v>-1.2832742773603318</v>
       </c>
       <c r="AC16" t="n">
-        <v>-1.225701121433876</v>
+        <v>-1.315478844664021</v>
       </c>
       <c r="AD16" t="n">
-        <v>-1.2711414323668389</v>
+        <v>-1.3397478533833045</v>
       </c>
       <c r="AE16" t="n">
-        <v>-1.305236327927579</v>
+        <v>-1.3533555719407735</v>
       </c>
       <c r="AF16" t="n">
-        <v>-1.3226703140284055</v>
+        <v>-1.3524372398582982</v>
       </c>
       <c r="AG16" t="n">
-        <v>-1.3166799747510232</v>
+        <v>-1.3319615546315084</v>
       </c>
       <c r="AH16" t="n">
-        <v>-1.2822827723045298</v>
+        <v>-1.2889594716876562</v>
       </c>
       <c r="AI16" t="n">
-        <v>-1.213011016124177</v>
+        <v>-1.219258173484464</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-1.1016965703706636</v>
+        <v>-1.118265777009376</v>
       </c>
     </row>
     <row r="17">
@@ -36853,106 +36853,106 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.43454677008405385</v>
+        <v>0.569862554757982</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5099514849942843</v>
+        <v>0.6414833337095337</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5853561999045146</v>
+        <v>0.7131041126610854</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6607609148147451</v>
+        <v>0.7847248916126371</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7361656297249755</v>
+        <v>0.8563456705641888</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8115703446352058</v>
+        <v>0.9279664495157406</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8869750595454363</v>
+        <v>0.9995872284672923</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9623797744556667</v>
+        <v>1.071208007418844</v>
       </c>
       <c r="K20" t="n">
-        <v>1.0377844893658972</v>
+        <v>1.1428287863703956</v>
       </c>
       <c r="L20" t="n">
-        <v>1.1131892042761276</v>
+        <v>1.2144495653219474</v>
       </c>
       <c r="M20" t="n">
-        <v>1.188593919186358</v>
+        <v>1.2860703442734993</v>
       </c>
       <c r="N20" t="n">
-        <v>1.2639986340965883</v>
+        <v>1.357691123225051</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3394033490068187</v>
+        <v>1.4293119021766025</v>
       </c>
       <c r="P20" t="n">
-        <v>1.414808063917049</v>
+        <v>1.5009327315061363</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.4902127788272796</v>
+        <v>1.572584137243713</v>
       </c>
       <c r="R20" t="n">
-        <v>1.5656174937375102</v>
+        <v>1.6443637067218482</v>
       </c>
       <c r="S20" t="n">
-        <v>1.6410222086477406</v>
+        <v>1.7163455180260883</v>
       </c>
       <c r="T20" t="n">
-        <v>1.716426923557971</v>
+        <v>1.7885639651665712</v>
       </c>
       <c r="U20" t="n">
-        <v>1.7918316384682014</v>
+        <v>1.861013758078026</v>
       </c>
       <c r="V20" t="n">
-        <v>1.8672670240789502</v>
+        <v>1.9336499226197712</v>
       </c>
       <c r="W20" t="n">
-        <v>1.9429328277641655</v>
+        <v>2.006387800575717</v>
       </c>
       <c r="X20" t="n">
-        <v>2.018950338036153</v>
+        <v>2.0790580933662914</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.093813096201168</v>
+        <v>2.1499577829464243</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.164411368094567</v>
+        <v>2.2158748712716694</v>
       </c>
       <c r="AA20" t="n">
-        <v>2.2280620244006237</v>
+        <v>2.274118260618023</v>
       </c>
       <c r="AB20" t="n">
-        <v>2.2826356211874734</v>
+        <v>2.322644834116861</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.3265563999070684</v>
+        <v>2.360059455754909</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.35880228739525</v>
+        <v>2.385614970374302</v>
       </c>
       <c r="AE20" t="n">
-        <v>2.378904895871704</v>
+        <v>2.399212203672539</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.386949522939958</v>
+        <v>2.401399962202493</v>
       </c>
       <c r="AG20" t="n">
-        <v>2.3835751515874124</v>
+        <v>2.3933750333724264</v>
       </c>
       <c r="AH20" t="n">
-        <v>2.36997445018532</v>
+        <v>2.376982185445984</v>
       </c>
       <c r="AI20" t="n">
-        <v>2.3478937724887787</v>
+        <v>2.354714167542177</v>
       </c>
       <c r="AJ20" t="n">
-        <v>2.3196331576367464</v>
+        <v>2.3297117096353985</v>
       </c>
     </row>
     <row r="21">
@@ -37083,106 +37083,106 @@
         <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.018225781684520936</v>
+        <v>-0.8598087761677686</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.08734020217150623</v>
+        <v>-0.9054416370937731</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.15642944077767096</v>
+        <v>-0.9510493161389569</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.22547978360012627</v>
+        <v>-0.9966180994004313</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2944063466412969</v>
+        <v>-1.042063102880621</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.36284764075968134</v>
+        <v>-1.0870228374380246</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.4130544197033175</v>
+        <v>-1.11374805682068</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.46288273066354063</v>
+        <v>-1.140094808219922</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.5127248904319985</v>
+        <v>-1.1664554084273993</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.5625910959307534</v>
+        <v>-1.1928400543651732</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.6124897658692872</v>
+        <v>-1.219257164742726</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.66243044368312</v>
+        <v>-1.245716282995578</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.7124196465759473</v>
+        <v>-1.272223926327424</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.7624674105987033</v>
+        <v>-1.2987904434143585</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.8125834744762094</v>
+        <v>-1.3256150050437088</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.8627745696997269</v>
+        <v>-1.3533099297953846</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.9130472205596042</v>
+        <v>-1.38234144027306</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.9634116915168436</v>
+        <v>-1.4129332361032387</v>
       </c>
       <c r="U24" t="n">
-        <v>-1.0138767968305396</v>
+        <v>-1.4450613035626954</v>
       </c>
       <c r="V24" t="n">
-        <v>-1.0646380611552468</v>
+        <v>-1.4784517463476239</v>
       </c>
       <c r="W24" t="n">
-        <v>-1.1169569437571782</v>
+        <v>-1.5126011189069013</v>
       </c>
       <c r="X24" t="n">
-        <v>-1.1729707717039026</v>
+        <v>-1.547843483617551</v>
       </c>
       <c r="Y24" t="n">
-        <v>-1.2445376179249348</v>
+        <v>-1.5948171464347445</v>
       </c>
       <c r="Z24" t="n">
-        <v>-1.3462318166208016</v>
+        <v>-1.6674618337298237</v>
       </c>
       <c r="AA24" t="n">
-        <v>-1.4493780407016692</v>
+        <v>-1.73705276972893</v>
       </c>
       <c r="AB24" t="n">
-        <v>-1.5247357744507368</v>
+        <v>-1.7748851491763713</v>
       </c>
       <c r="AC24" t="n">
-        <v>-1.5945229546966344</v>
+        <v>-1.8042977785070926</v>
       </c>
       <c r="AD24" t="n">
-        <v>-1.6553695065311043</v>
+        <v>-1.823626611564288</v>
       </c>
       <c r="AE24" t="n">
-        <v>-1.7027491857036754</v>
+        <v>-1.8306365919940832</v>
       </c>
       <c r="AF24" t="n">
-        <v>-1.7305481383906598</v>
+        <v>-1.8220902130145766</v>
       </c>
       <c r="AG24" t="n">
-        <v>-1.7310894283425728</v>
+        <v>-1.793772044563208</v>
       </c>
       <c r="AH24" t="n">
-        <v>-1.698340854811371</v>
+        <v>-1.7436965512240379</v>
       </c>
       <c r="AI24" t="n">
-        <v>-1.624655918525443</v>
+        <v>-1.668849058202711</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-1.5015569537419333</v>
+        <v>-1.5659688833787746</v>
       </c>
     </row>
     <row r="25">
@@ -37203,106 +37203,106 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>0.023678212487806216</v>
+        <v>-0.8043732035280485</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.037700262837058796</v>
+        <v>-0.8426485128878006</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.09904137907285337</v>
+        <v>-0.8808864631584821</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.1603538419805191</v>
+        <v>-0.919095760101035</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.22155296043342323</v>
+        <v>-0.9571917125888258</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.2822797476603024</v>
+        <v>-0.9948153338505921</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.32478912217477596</v>
+        <v>-1.0142215423999525</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.3669375767526653</v>
+        <v>-1.033266831012729</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.4091191094325232</v>
+        <v>-1.0523451977274738</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.4513463878550461</v>
+        <v>-1.0714693101848838</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.49363037395065024</v>
+        <v>-1.0906501303153746</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.5359818655005857</v>
+        <v>-1.109898455900197</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.5784098596159887</v>
+        <v>-1.1292232840504872</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.620926447639592</v>
+        <v>-1.1486370136963384</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.6635421791206786</v>
+        <v>-1.1683365738465346</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.7062671168869876</v>
+        <v>-1.1889278556842113</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.7491102336536226</v>
+        <v>-1.2108721224292436</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.7920824212684768</v>
+        <v>-1.234390261694012</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.8351937468645843</v>
+        <v>-1.2594600416357573</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.8786409040976311</v>
+        <v>-1.285816299435926</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.9236678188692131</v>
+        <v>-1.3129664967377803</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.9723981585548545</v>
+        <v>-1.341260094935489</v>
       </c>
       <c r="Y27" t="n">
-        <v>-1.036840254422737</v>
+        <v>-1.3815053142580216</v>
       </c>
       <c r="Z27" t="n">
-        <v>-1.131874692798023</v>
+        <v>-1.4479583595893348</v>
       </c>
       <c r="AA27" t="n">
-        <v>-1.229087671306962</v>
+        <v>-1.5121567767124828</v>
       </c>
       <c r="AB27" t="n">
-        <v>-1.299535880818046</v>
+        <v>-1.545684334250742</v>
       </c>
       <c r="AC27" t="n">
-        <v>-1.3656131222051682</v>
+        <v>-1.5720376404308423</v>
       </c>
       <c r="AD27" t="n">
-        <v>-1.4240103581671524</v>
+        <v>-1.589586194902431</v>
       </c>
       <c r="AE27" t="n">
-        <v>-1.4702017989099954</v>
+        <v>-1.5960584744203197</v>
       </c>
       <c r="AF27" t="n">
-        <v>-1.4980501552051366</v>
+        <v>-1.588147185902801</v>
       </c>
       <c r="AG27" t="n">
-        <v>-1.4998022542741576</v>
+        <v>-1.561504882316291</v>
       </c>
       <c r="AH27" t="n">
-        <v>-1.469308514399676</v>
+        <v>-1.5139634372862762</v>
       </c>
       <c r="AI27" t="n">
-        <v>-1.398760023746949</v>
+        <v>-1.4422711239188764</v>
       </c>
       <c r="AJ27" t="n">
-        <v>-1.2794725476644813</v>
+        <v>-1.3428766221014576</v>
       </c>
     </row>
     <row r="28">
@@ -37323,106 +37323,106 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>0.057201407825667516</v>
+        <v>-0.7600247454162731</v>
       </c>
       <c r="D30" t="n">
-        <v>0.002011688630498887</v>
+        <v>-0.792414013523023</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.0531309297089998</v>
+        <v>-0.8247561807741028</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.10825308868483408</v>
+        <v>-0.8570778886615185</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.1632702514671251</v>
+        <v>-0.8892946003553908</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.21782543318079997</v>
+        <v>-0.9210493309806469</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.2541768841519435</v>
+        <v>-0.9346003308633718</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.29018145362396597</v>
+        <v>-0.9478044492469755</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.3262344846329439</v>
+        <v>-0.9610570291675347</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.36235062139448126</v>
+        <v>-0.9743727148406532</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.39854286041574166</v>
+        <v>-0.9877645027734948</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.4348230029545591</v>
+        <v>-1.0012441942238937</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.4712020300480231</v>
+        <v>-1.014822770228939</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.5076936772723044</v>
+        <v>-1.0285142699219234</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.5443091428362552</v>
+        <v>-1.0425138288887963</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.5810611546367974</v>
+        <v>-1.0574221963952743</v>
       </c>
       <c r="S30" t="n">
-        <v>-0.6179606441288388</v>
+        <v>-1.073696668154192</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.6550190050697848</v>
+        <v>-1.0915558821666318</v>
       </c>
       <c r="U30" t="n">
-        <v>-0.6922473068918215</v>
+        <v>-1.1109790320942086</v>
       </c>
       <c r="V30" t="n">
-        <v>-0.7298431784515405</v>
+        <v>-1.1317079419065696</v>
       </c>
       <c r="W30" t="n">
-        <v>-0.7690365189588428</v>
+        <v>-1.1532587990024863</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.8119400680356175</v>
+        <v>-1.1759933839898407</v>
       </c>
       <c r="Y30" t="n">
-        <v>-0.870682363620981</v>
+        <v>-1.2108558485166445</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.9603889937398018</v>
+        <v>-1.272355580276945</v>
       </c>
       <c r="AA30" t="n">
-        <v>-1.0528553757911985</v>
+        <v>-1.3322399822993274</v>
       </c>
       <c r="AB30" t="n">
-        <v>-1.1193759659118951</v>
+        <v>-1.3623236823102403</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1.1824852562119967</v>
+        <v>-1.3862295299698437</v>
       </c>
       <c r="AD30" t="n">
-        <v>-1.2389230394759927</v>
+        <v>-1.402353861572947</v>
       </c>
       <c r="AE30" t="n">
-        <v>-1.2841638894750536</v>
+        <v>-1.4083959803613106</v>
       </c>
       <c r="AF30" t="n">
-        <v>-1.3120517686567204</v>
+        <v>-1.400992764213382</v>
       </c>
       <c r="AG30" t="n">
-        <v>-1.3147725150194267</v>
+        <v>-1.3756911525187594</v>
       </c>
       <c r="AH30" t="n">
-        <v>-1.2860826420703217</v>
+        <v>-1.330176946136069</v>
       </c>
       <c r="AI30" t="n">
-        <v>-1.2180433079241553</v>
+        <v>-1.2610087764918112</v>
       </c>
       <c r="AJ30" t="n">
-        <v>-1.1018050228025216</v>
+        <v>-1.1644028130796058</v>
       </c>
     </row>
     <row r="31">
@@ -37448,106 +37448,106 @@
         <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4006261705633482</v>
+        <v>0.5973624260361201</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4770491971684837</v>
+        <v>0.6684562422581445</v>
       </c>
       <c r="E34" t="n">
-        <v>0.553472223773619</v>
+        <v>0.7395500584801686</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6298952503787545</v>
+        <v>0.8106438747021929</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7063182769838898</v>
+        <v>0.881737690924217</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7827413035890254</v>
+        <v>0.9528315071462413</v>
       </c>
       <c r="I34" t="n">
-        <v>0.8591643301941608</v>
+        <v>1.0239253233682657</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9355873567992962</v>
+        <v>1.0950191395902897</v>
       </c>
       <c r="K34" t="n">
-        <v>1.0120103834044316</v>
+        <v>1.166112955812314</v>
       </c>
       <c r="L34" t="n">
-        <v>1.088433410009567</v>
+        <v>1.2372067720343383</v>
       </c>
       <c r="M34" t="n">
-        <v>1.1648564366147025</v>
+        <v>1.3083005882563625</v>
       </c>
       <c r="N34" t="n">
-        <v>1.241279463219838</v>
+        <v>1.3793944044783868</v>
       </c>
       <c r="O34" t="n">
-        <v>1.3177024898249734</v>
+        <v>1.4504882412372113</v>
       </c>
       <c r="P34" t="n">
-        <v>1.3941255164301087</v>
+        <v>1.5216067542331937</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.4705485430352443</v>
+        <v>1.5928349271718794</v>
       </c>
       <c r="R34" t="n">
-        <v>1.5469715696403799</v>
+        <v>1.6642404067357166</v>
       </c>
       <c r="S34" t="n">
-        <v>1.6233945962455152</v>
+        <v>1.7358580701407693</v>
       </c>
       <c r="T34" t="n">
-        <v>1.6998176228506505</v>
+        <v>1.807690025136717</v>
       </c>
       <c r="U34" t="n">
-        <v>1.776240649455786</v>
+        <v>1.8797056100068554</v>
       </c>
       <c r="V34" t="n">
-        <v>1.8526636760609216</v>
+        <v>1.9518413935680952</v>
       </c>
       <c r="W34" t="n">
-        <v>1.929118738003143</v>
+        <v>2.0240011751709623</v>
       </c>
       <c r="X34" t="n">
-        <v>2.0057962195475536</v>
+        <v>2.0960110284115268</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.0813539963740277</v>
+        <v>2.1661702220293844</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.152802844637772</v>
+        <v>2.2312759593737805</v>
       </c>
       <c r="AA34" t="n">
-        <v>2.217535630587618</v>
+        <v>2.2886532587234267</v>
       </c>
       <c r="AB34" t="n">
-        <v>2.2734543911009912</v>
+        <v>2.3362820338214405</v>
       </c>
       <c r="AC34" t="n">
-        <v>2.318970333683858</v>
+        <v>2.3727970938753136</v>
       </c>
       <c r="AD34" t="n">
-        <v>2.3530038364707875</v>
+        <v>2.397488143556971</v>
       </c>
       <c r="AE34" t="n">
-        <v>2.3749844482249145</v>
+        <v>2.410299783002728</v>
       </c>
       <c r="AF34" t="n">
-        <v>2.384850888337941</v>
+        <v>2.4118315078132984</v>
       </c>
       <c r="AG34" t="n">
-        <v>2.383051046830162</v>
+        <v>2.403337709053809</v>
       </c>
       <c r="AH34" t="n">
-        <v>2.370541984350457</v>
+        <v>2.386727673253796</v>
       </c>
       <c r="AI34" t="n">
-        <v>2.3487899321762478</v>
+        <v>2.364565582407186</v>
       </c>
       <c r="AJ34" t="n">
-        <v>2.3197702922135552</v>
+        <v>2.340070513972311</v>
       </c>
     </row>
     <row r="35">
@@ -37678,106 +37678,106 @@
         <v>5</v>
       </c>
       <c r="C38" t="n">
-        <v>0.19293654101982927</v>
+        <v>-1.0315691211107287</v>
       </c>
       <c r="D38" t="n">
-        <v>0.11750289447387396</v>
+        <v>-1.0739318667771351</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04209442980873945</v>
+        <v>-1.116269430562721</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.033275139072685755</v>
+        <v>-1.1585680985645972</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.10852092817282638</v>
+        <v>-1.2007429867851889</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.18328144835018073</v>
+        <v>-1.2424326060829944</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.2398074533527869</v>
+        <v>-1.265887710206052</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.2959549903719799</v>
+        <v>-1.288964346345696</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.35211637619940783</v>
+        <v>-1.3120548312935747</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.40830180775713254</v>
+        <v>-1.3351693619717508</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.46451970375463625</v>
+        <v>-1.3583163570897057</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.5207796076274389</v>
+        <v>-1.3815053600829592</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.577088036579236</v>
+        <v>-1.4047430155981946</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.633455026660962</v>
+        <v>-1.4281923628826947</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.6898903165974379</v>
+        <v>-1.4523905147937382</v>
       </c>
       <c r="R38" t="n">
-        <v>-0.746400637879925</v>
+        <v>-1.4777639904776514</v>
       </c>
       <c r="S38" t="n">
-        <v>-0.8029925147987723</v>
+        <v>-1.5045357479687143</v>
       </c>
       <c r="T38" t="n">
-        <v>-0.8596762118149817</v>
+        <v>-1.532729131560721</v>
       </c>
       <c r="U38" t="n">
-        <v>-0.9164605431876477</v>
+        <v>-1.5621626814344238</v>
       </c>
       <c r="V38" t="n">
-        <v>-0.9733507037431088</v>
+        <v>-1.592447964426684</v>
       </c>
       <c r="W38" t="n">
-        <v>-1.0305674004130554</v>
+        <v>-1.6230099073637267</v>
       </c>
       <c r="X38" t="n">
-        <v>-1.0906767402582809</v>
+        <v>-1.6541538542366174</v>
       </c>
       <c r="Y38" t="n">
-        <v>-1.1665565881456397</v>
+        <v>-1.6965323018512517</v>
       </c>
       <c r="Z38" t="n">
-        <v>-1.2735291160520243</v>
+        <v>-1.7641420766663831</v>
       </c>
       <c r="AA38" t="n">
-        <v>-1.3833905942917406</v>
+        <v>-1.8283584122322551</v>
       </c>
       <c r="AB38" t="n">
-        <v>-1.467095864180049</v>
+        <v>-1.860619421853958</v>
       </c>
       <c r="AC38" t="n">
-        <v>-1.5467819792054918</v>
+        <v>-1.8844497397639137</v>
       </c>
       <c r="AD38" t="n">
-        <v>-1.6187217407475394</v>
+        <v>-1.8984140568394738</v>
       </c>
       <c r="AE38" t="n">
-        <v>-1.6777555404712934</v>
+        <v>-1.9005489629976138</v>
       </c>
       <c r="AF38" t="n">
-        <v>-1.716859920096513</v>
+        <v>-1.8879315069639644</v>
       </c>
       <c r="AG38" t="n">
-        <v>-1.727172098545</v>
+        <v>-1.8567037234201842</v>
       </c>
       <c r="AH38" t="n">
-        <v>-1.7011977898679187</v>
+        <v>-1.8052804509312446</v>
       </c>
       <c r="AI38" t="n">
-        <v>-1.6295521692205657</v>
+        <v>-1.731090297920384</v>
       </c>
       <c r="AJ38" t="n">
-        <v>-1.5017430049149514</v>
+        <v>-1.6313587747214295</v>
       </c>
     </row>
     <row r="39">
@@ -37798,106 +37798,106 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.23144847524008594</v>
+        <v>-0.9733835613431948</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1638526050257414</v>
+        <v>-1.0084414517163016</v>
       </c>
       <c r="E41" t="n">
-        <v>0.09629409390046761</v>
+        <v>-1.0434619830003378</v>
       </c>
       <c r="F41" t="n">
-        <v>0.028764236103322238</v>
+        <v>-1.0784538609562453</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.03865227723906134</v>
+        <v>-1.113332394457391</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.10559645935541984</v>
+        <v>-1.1477385967325118</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.15432322875937288</v>
+        <v>-1.1639273862952273</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.2026890782267417</v>
+        <v>-1.1797552559213582</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.251088005796079</v>
+        <v>-1.1956162036494575</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.29953267910808135</v>
+        <v>-1.2115228971202223</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.3480340600931648</v>
+        <v>-1.227486298264068</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.3966029465325796</v>
+        <v>-1.243517204862245</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.445248335537462</v>
+        <v>-1.259624739415197</v>
       </c>
       <c r="P41" t="n">
-        <v>-0.4939823184505448</v>
+        <v>-1.275971530891969</v>
       </c>
       <c r="Q41" t="n">
-        <v>-0.5428154448211107</v>
+        <v>-1.2930870046037475</v>
       </c>
       <c r="R41" t="n">
-        <v>-0.5917577774768987</v>
+        <v>-1.3113942463650914</v>
       </c>
       <c r="S41" t="n">
-        <v>-0.6408182891330134</v>
+        <v>-1.3311151749134296</v>
       </c>
       <c r="T41" t="n">
-        <v>-0.6900078716373471</v>
+        <v>-1.3522735511544797</v>
       </c>
       <c r="U41" t="n">
-        <v>-0.7393365921229338</v>
+        <v>-1.3746922343146035</v>
       </c>
       <c r="V41" t="n">
-        <v>-0.788813881487296</v>
+        <v>-1.397993370420154</v>
       </c>
       <c r="W41" t="n">
-        <v>-0.8386596845011924</v>
+        <v>-1.421613947735082</v>
       </c>
       <c r="X41" t="n">
-        <v>-0.8914195389580926</v>
+        <v>-1.4458751720500316</v>
       </c>
       <c r="Y41" t="n">
-        <v>-0.9601051346261558</v>
+        <v>-1.4815992257662325</v>
       </c>
       <c r="Z41" t="n">
-        <v>-1.0603328445749252</v>
+        <v>-1.543098493715683</v>
       </c>
       <c r="AA41" t="n">
-        <v>-1.164152864278334</v>
+        <v>-1.6020089194052676</v>
       </c>
       <c r="AB41" t="n">
-        <v>-1.2428140935560066</v>
+        <v>-1.6300548869578702</v>
       </c>
       <c r="AC41" t="n">
-        <v>-1.3186307533363466</v>
+        <v>-1.650915837875623</v>
       </c>
       <c r="AD41" t="n">
-        <v>-1.3879424374760336</v>
+        <v>-1.6631863228593502</v>
       </c>
       <c r="AE41" t="n">
-        <v>-1.4456001984422926</v>
+        <v>-1.6648620874908313</v>
       </c>
       <c r="AF41" t="n">
-        <v>-1.484571800371192</v>
+        <v>-1.6529453252911077</v>
       </c>
       <c r="AG41" t="n">
-        <v>-1.4959373349523095</v>
+        <v>-1.623440293605129</v>
       </c>
       <c r="AH41" t="n">
-        <v>-1.47210869603971</v>
+        <v>-1.5745727882127014</v>
       </c>
       <c r="AI41" t="n">
-        <v>-1.4035666584733244</v>
+        <v>-1.5035272221500495</v>
       </c>
       <c r="AJ41" t="n">
-        <v>-1.2796448853798184</v>
+        <v>-1.4072306330104214</v>
       </c>
     </row>
     <row r="42">
@@ -37918,106 +37918,106 @@
         <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2622580226162907</v>
+        <v>-0.9268351135291683</v>
       </c>
       <c r="D44" t="n">
-        <v>0.20093237346723497</v>
+        <v>-0.9560491196676351</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1396538251738495</v>
+        <v>-0.9852160249504318</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07839573624412799</v>
+        <v>-1.0143624708695644</v>
       </c>
       <c r="G44" t="n">
-        <v>0.017242643507950017</v>
+        <v>-1.0434039205951535</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.0434484681596119</v>
+        <v>-1.0719833892521264</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.08593584908464244</v>
+        <v>-1.0823591271665685</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.128076348510552</v>
+        <v>-1.092387983581889</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.17026530947341695</v>
+        <v>-1.102465301534165</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.21251737618884137</v>
+        <v>-1.1126057252390007</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.25484554516398866</v>
+        <v>-1.122822251203559</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.29726161765669323</v>
+        <v>-1.1331266806856748</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.33977657470404404</v>
+        <v>-1.1435301184687998</v>
       </c>
       <c r="P44" t="n">
-        <v>-0.38240415188221233</v>
+        <v>-1.1541948652993899</v>
       </c>
       <c r="Q44" t="n">
-        <v>-0.42515554740005024</v>
+        <v>-1.165644196451756</v>
       </c>
       <c r="R44" t="n">
-        <v>-0.4680434891544791</v>
+        <v>-1.178298451075045</v>
       </c>
       <c r="S44" t="n">
-        <v>-0.5110789086004076</v>
+        <v>-1.1923787164692032</v>
       </c>
       <c r="T44" t="n">
-        <v>-0.5542731994952407</v>
+        <v>-1.207909086829488</v>
       </c>
       <c r="U44" t="n">
-        <v>-0.5976374312711644</v>
+        <v>-1.224715876618748</v>
       </c>
       <c r="V44" t="n">
-        <v>-0.6411844236826478</v>
+        <v>-1.2424296952149314</v>
       </c>
       <c r="W44" t="n">
-        <v>-0.6851335117717041</v>
+        <v>-1.260497180032168</v>
       </c>
       <c r="X44" t="n">
-        <v>-0.7320137779179436</v>
+        <v>-1.2792522263007646</v>
       </c>
       <c r="Y44" t="n">
-        <v>-0.794943971810571</v>
+        <v>-1.3096527648982188</v>
       </c>
       <c r="Z44" t="n">
-        <v>-0.8897758273932479</v>
+        <v>-1.3662636273551247</v>
       </c>
       <c r="AA44" t="n">
-        <v>-0.9887626802676108</v>
+        <v>-1.4209293251436796</v>
       </c>
       <c r="AB44" t="n">
-        <v>-1.0633886770567742</v>
+        <v>-1.4456032590410022</v>
       </c>
       <c r="AC44" t="n">
-        <v>-1.136109772641032</v>
+        <v>-1.4640887163649923</v>
       </c>
       <c r="AD44" t="n">
-        <v>-1.2033189948588308</v>
+        <v>-1.475004135675253</v>
       </c>
       <c r="AE44" t="n">
-        <v>-1.259875924819094</v>
+        <v>-1.4763125870854077</v>
       </c>
       <c r="AF44" t="n">
-        <v>-1.298741304590937</v>
+        <v>-1.4649563799528242</v>
       </c>
       <c r="AG44" t="n">
-        <v>-1.3109495240781588</v>
+        <v>-1.4368295497530867</v>
       </c>
       <c r="AH44" t="n">
-        <v>-1.288837420977145</v>
+        <v>-1.3900066580378694</v>
       </c>
       <c r="AI44" t="n">
-        <v>-1.222778249875533</v>
+        <v>-1.3214767615337828</v>
       </c>
       <c r="AJ44" t="n">
-        <v>-1.1019663897517142</v>
+        <v>-1.2279281196416167</v>
       </c>
     </row>
     <row r="45">
@@ -38043,106 +38043,106 @@
         <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3667567565924984</v>
+        <v>0.6018851748598543</v>
       </c>
       <c r="D48" t="n">
-        <v>0.44419311998453676</v>
+        <v>0.6732182744675197</v>
       </c>
       <c r="E48" t="n">
-        <v>0.521629483376575</v>
+        <v>0.7445513740751849</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5990658467686134</v>
+        <v>0.8158844736828503</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6765022101606516</v>
+        <v>0.8872175732905156</v>
       </c>
       <c r="H48" t="n">
-        <v>0.75393857355269</v>
+        <v>0.958550672898181</v>
       </c>
       <c r="I48" t="n">
-        <v>0.8313749369447283</v>
+        <v>1.0298837725058463</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9088113003367666</v>
+        <v>1.1012168721135116</v>
       </c>
       <c r="K48" t="n">
-        <v>0.9862476637288049</v>
+        <v>1.1725499717211771</v>
       </c>
       <c r="L48" t="n">
-        <v>1.0636840271208432</v>
+        <v>1.2438830713288425</v>
       </c>
       <c r="M48" t="n">
-        <v>1.1411203905128815</v>
+        <v>1.315216170936508</v>
       </c>
       <c r="N48" t="n">
-        <v>1.2185567539049198</v>
+        <v>1.386549270544173</v>
       </c>
       <c r="O48" t="n">
-        <v>1.295993117296958</v>
+        <v>1.4578823701518384</v>
       </c>
       <c r="P48" t="n">
-        <v>1.3734294806889964</v>
+        <v>1.5292183892184417</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.450865844081035</v>
+        <v>1.6006164196022907</v>
       </c>
       <c r="R48" t="n">
-        <v>1.5283022074730732</v>
+        <v>1.6721667939020706</v>
       </c>
       <c r="S48" t="n">
-        <v>1.6057385708651115</v>
+        <v>1.7439258665131945</v>
       </c>
       <c r="T48" t="n">
-        <v>1.6831749342571498</v>
+        <v>1.8159135222871208</v>
       </c>
       <c r="U48" t="n">
-        <v>1.7606112976491881</v>
+        <v>1.888113176531352</v>
       </c>
       <c r="V48" t="n">
-        <v>1.8380476610412266</v>
+        <v>1.960471775009434</v>
       </c>
       <c r="W48" t="n">
-        <v>1.915484024433265</v>
+        <v>2.032899793940958</v>
       </c>
       <c r="X48" t="n">
-        <v>1.9929238693899014</v>
+        <v>2.105226283713487</v>
       </c>
       <c r="Y48" t="n">
-        <v>2.069121062743019</v>
+        <v>2.175749789780539</v>
       </c>
       <c r="Z48" t="n">
-        <v>2.1412743647444406</v>
+        <v>2.241263092127711</v>
       </c>
       <c r="AA48" t="n">
-        <v>2.206908523755958</v>
+        <v>2.299083085592492</v>
       </c>
       <c r="AB48" t="n">
-        <v>2.2640010526058396</v>
+        <v>2.3471778603992104</v>
       </c>
       <c r="AC48" t="n">
-        <v>2.310982228588809</v>
+        <v>2.3841667021589945</v>
       </c>
       <c r="AD48" t="n">
-        <v>2.3467350934660893</v>
+        <v>2.409320091869834</v>
       </c>
       <c r="AE48" t="n">
-        <v>2.3705954534653824</v>
+        <v>2.4225597059165405</v>
       </c>
       <c r="AF48" t="n">
-        <v>2.382351879280835</v>
+        <v>2.424458416070749</v>
       </c>
       <c r="AG48" t="n">
-        <v>2.382245706073106</v>
+        <v>2.4162402894909416</v>
       </c>
       <c r="AH48" t="n">
-        <v>2.370971033469328</v>
+        <v>2.3997805887224333</v>
       </c>
       <c r="AI48" t="n">
-        <v>2.349674725563103</v>
+        <v>2.37760577169736</v>
       </c>
       <c r="AJ48" t="n">
-        <v>2.3199564109144895</v>
+        <v>2.352893491734695</v>
       </c>
     </row>
     <row r="49">
@@ -38273,106 +38273,106 @@
         <v>5</v>
       </c>
       <c r="C52" t="n">
-        <v>0.40404857813713835</v>
+        <v>-1.0607769546117591</v>
       </c>
       <c r="D52" t="n">
-        <v>0.32232657777736673</v>
+        <v>-1.1046245951424662</v>
       </c>
       <c r="E52" t="n">
-        <v>0.24062975929841635</v>
+        <v>-1.1484470537923528</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1589718366031747</v>
+        <v>-1.19223061665853</v>
       </c>
       <c r="G52" t="n">
-        <v>0.07743769368921805</v>
+        <v>-1.2358903997434223</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.0036111803019523436</v>
+        <v>-1.2790649139055286</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.06642553911837468</v>
+        <v>-1.3040049128928866</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.12886142995138383</v>
+        <v>-1.3285664438968317</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.19131116959262784</v>
+        <v>-1.3531418237090116</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.25378495496416875</v>
+        <v>-1.3777412492514882</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.31629120477548844</v>
+        <v>-1.402373139233744</v>
       </c>
       <c r="N52" t="n">
-        <v>-0.3788394624621073</v>
+        <v>-1.4270470370912984</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.4414362452277205</v>
+        <v>-1.4517694600278477</v>
       </c>
       <c r="P52" t="n">
-        <v>-0.5040915891232625</v>
+        <v>-1.4765685610629227</v>
       </c>
       <c r="Q52" t="n">
-        <v>-0.5668152328735546</v>
+        <v>-1.5018207788352897</v>
       </c>
       <c r="R52" t="n">
-        <v>-0.6296139079698582</v>
+        <v>-1.5280934120126868</v>
       </c>
       <c r="S52" t="n">
-        <v>-0.6924941387025217</v>
+        <v>-1.5557426972238517</v>
       </c>
       <c r="T52" t="n">
-        <v>-0.7554661895325469</v>
+        <v>-1.5849022961883488</v>
       </c>
       <c r="U52" t="n">
-        <v>-0.8185388747190286</v>
+        <v>-1.6154781053440026</v>
       </c>
       <c r="V52" t="n">
-        <v>-0.8817173890883059</v>
+        <v>-1.6471460866160543</v>
       </c>
       <c r="W52" t="n">
-        <v>-0.9450236413672222</v>
+        <v>-1.6793726007504213</v>
       </c>
       <c r="X52" t="n">
-        <v>-1.0098638968692621</v>
+        <v>-1.712481464489162</v>
       </c>
       <c r="Y52" t="n">
-        <v>-1.0897117023062761</v>
+        <v>-1.7571206862204807</v>
       </c>
       <c r="Z52" t="n">
-        <v>-1.2010557821046217</v>
+        <v>-1.827259642816741</v>
       </c>
       <c r="AA52" t="n">
-        <v>-1.3165108130538559</v>
+        <v>-1.894223157073099</v>
       </c>
       <c r="AB52" t="n">
-        <v>-1.4075000093630907</v>
+        <v>-1.9293759703708784</v>
       </c>
       <c r="AC52" t="n">
-        <v>-1.496278763833535</v>
+        <v>-1.956146383850033</v>
       </c>
       <c r="AD52" t="n">
-        <v>-1.5788881835760282</v>
+        <v>-1.9729797941267533</v>
       </c>
       <c r="AE52" t="n">
-        <v>-1.6495869324058252</v>
+        <v>-1.9777705356881636</v>
       </c>
       <c r="AF52" t="n">
-        <v>-1.700419790611431</v>
+        <v>-1.9674304406613519</v>
       </c>
       <c r="AG52" t="n">
-        <v>-1.7212421821022303</v>
+        <v>-1.9379133659607404</v>
       </c>
       <c r="AH52" t="n">
-        <v>-1.7029279923356122</v>
+        <v>-1.887423011215371</v>
       </c>
       <c r="AI52" t="n">
-        <v>-1.634110534291988</v>
+        <v>-1.813153884743854</v>
       </c>
       <c r="AJ52" t="n">
-        <v>-1.5019656805269426</v>
+        <v>-1.712074435606713</v>
       </c>
     </row>
     <row r="53">
@@ -38393,106 +38393,106 @@
         <v>5</v>
       </c>
       <c r="C55" t="n">
-        <v>0.43917357096030984</v>
+        <v>-1.0021391199618517</v>
       </c>
       <c r="D55" t="n">
-        <v>0.36539068061083946</v>
+        <v>-1.0386579768606952</v>
       </c>
       <c r="E55" t="n">
-        <v>0.29164514935043984</v>
+        <v>-1.0751394746704679</v>
       </c>
       <c r="F55" t="n">
-        <v>0.21792827141816873</v>
+        <v>-1.1115923191521122</v>
       </c>
       <c r="G55" t="n">
-        <v>0.14432473794065925</v>
+        <v>-1.1479318191789947</v>
       </c>
       <c r="H55" t="n">
-        <v>0.07119353568917502</v>
+        <v>-1.183798987979852</v>
       </c>
       <c r="I55" t="n">
-        <v>0.016279746150096086</v>
+        <v>-1.201448744068304</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.03827312345239858</v>
+        <v>-1.2187375802201719</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.09285907115686173</v>
+        <v>-1.236059494474008</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.1474907646039899</v>
+        <v>-1.2534271544705093</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.20217916572419914</v>
+        <v>-1.270851522140092</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.2569350722987398</v>
+        <v>-1.2883433952640053</v>
       </c>
       <c r="O55" t="n">
-        <v>-0.3117674814387481</v>
+        <v>-1.3059117709533872</v>
       </c>
       <c r="P55" t="n">
-        <v>-0.36668848448695657</v>
+        <v>-1.3235865655736723</v>
       </c>
       <c r="Q55" t="n">
-        <v>-0.4217086309926482</v>
+        <v>-1.3417391194022579</v>
       </c>
       <c r="R55" t="n">
-        <v>-0.4768379837835627</v>
+        <v>-1.3609310291834913</v>
       </c>
       <c r="S55" t="n">
-        <v>-0.532085515574803</v>
+        <v>-1.3815153445313246</v>
       </c>
       <c r="T55" t="n">
-        <v>-0.5874621182142622</v>
+        <v>-1.4036243660670669</v>
       </c>
       <c r="U55" t="n">
-        <v>-0.6429778588349747</v>
+        <v>-1.427166901571732</v>
       </c>
       <c r="V55" t="n">
-        <v>-0.6986421683344626</v>
+        <v>-1.4518284544653903</v>
       </c>
       <c r="W55" t="n">
-        <v>-0.7544793968123471</v>
+        <v>-1.4770867792447768</v>
       </c>
       <c r="X55" t="n">
-        <v>-0.8118939305848392</v>
+        <v>-1.5032812567723806</v>
       </c>
       <c r="Y55" t="n">
-        <v>-0.8844835421498931</v>
+        <v>-1.5412296533603458</v>
       </c>
       <c r="Z55" t="n">
-        <v>-0.989012358616856</v>
+        <v>-1.6052173465906476</v>
       </c>
       <c r="AA55" t="n">
-        <v>-1.0983357937236151</v>
+        <v>-1.6668306815592049</v>
       </c>
       <c r="AB55" t="n">
-        <v>-1.1841635725885633</v>
+        <v>-1.6977218528170135</v>
       </c>
       <c r="AC55" t="n">
-        <v>-1.268926348473895</v>
+        <v>-1.7214755211333737</v>
       </c>
       <c r="AD55" t="n">
-        <v>-1.348735754604992</v>
+        <v>-1.7365688653153428</v>
       </c>
       <c r="AE55" t="n">
-        <v>-1.4178704898527772</v>
+        <v>-1.7408576678900003</v>
       </c>
       <c r="AF55" t="n">
-        <v>-1.468381571791821</v>
+        <v>-1.73118156816275</v>
       </c>
       <c r="AG55" t="n">
-        <v>-1.4900879525852453</v>
+        <v>-1.7033596781019713</v>
       </c>
       <c r="AH55" t="n">
-        <v>-1.4737959935955163</v>
+        <v>-1.6554100569499643</v>
       </c>
       <c r="AI55" t="n">
-        <v>-1.4080365442060612</v>
+        <v>-1.584286790044502</v>
       </c>
       <c r="AJ55" t="n">
-        <v>-1.2798489491217164</v>
+        <v>-1.4866639961194659</v>
       </c>
     </row>
     <row r="56">
@@ -38513,106 +38513,106 @@
         <v>5</v>
       </c>
       <c r="C58" t="n">
-        <v>0.46727356521884655</v>
+        <v>-0.9552288522419263</v>
       </c>
       <c r="D58" t="n">
-        <v>0.39984196287761725</v>
+        <v>-0.9858846822352789</v>
       </c>
       <c r="E58" t="n">
-        <v>0.33245746139205834</v>
+        <v>-1.0164934113729607</v>
       </c>
       <c r="F58" t="n">
-        <v>0.26509341927016306</v>
+        <v>-1.0470816811469787</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1978343733418116</v>
+        <v>-1.0775649547274533</v>
       </c>
       <c r="H58" t="n">
-        <v>0.13103730848207606</v>
+        <v>-1.1075862472393116</v>
       </c>
       <c r="I58" t="n">
-        <v>0.08244397436487183</v>
+        <v>-1.119403809008639</v>
       </c>
       <c r="J58" t="n">
-        <v>0.03419752174678875</v>
+        <v>-1.130874489278845</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.01409739240824981</v>
+        <v>-1.1423936310860063</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.06245541231584785</v>
+        <v>-1.1539758786457273</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.11088953448316871</v>
+        <v>-1.1656342284651713</v>
       </c>
       <c r="N58" t="n">
-        <v>-0.15941156016804686</v>
+        <v>-1.1773804818021723</v>
       </c>
       <c r="O58" t="n">
-        <v>-0.20803247040757133</v>
+        <v>-1.1892256196938198</v>
       </c>
       <c r="P58" t="n">
-        <v>-0.2567660007779131</v>
+        <v>-1.201200969182273</v>
       </c>
       <c r="Q58" t="n">
-        <v>-0.30562334948792447</v>
+        <v>-1.2136737918558334</v>
       </c>
       <c r="R58" t="n">
-        <v>-0.3546172444345274</v>
+        <v>-1.2272011229201363</v>
       </c>
       <c r="S58" t="n">
-        <v>-0.4037586170726296</v>
+        <v>-1.2421334623773048</v>
       </c>
       <c r="T58" t="n">
-        <v>-0.453058861159636</v>
+        <v>-1.258602021970043</v>
       </c>
       <c r="U58" t="n">
-        <v>-0.5025290461277331</v>
+        <v>-1.276517938553917</v>
       </c>
       <c r="V58" t="n">
-        <v>-0.5521819917313899</v>
+        <v>-1.2955743487448605</v>
       </c>
       <c r="W58" t="n">
-        <v>-0.6020440011684487</v>
+        <v>-1.3152581220402633</v>
       </c>
       <c r="X58" t="n">
-        <v>-0.6535179575573022</v>
+        <v>-1.3359210905989567</v>
       </c>
       <c r="Y58" t="n">
-        <v>-0.7203010140247886</v>
+        <v>-1.3685168270722396</v>
       </c>
       <c r="Z58" t="n">
-        <v>-0.8193776198266449</v>
+        <v>-1.4275835096097753</v>
       </c>
       <c r="AA58" t="n">
-        <v>-0.9237957782594246</v>
+        <v>-1.4849167011480915</v>
       </c>
       <c r="AB58" t="n">
-        <v>-1.0054944231689433</v>
+        <v>-1.5123985587739237</v>
       </c>
       <c r="AC58" t="n">
-        <v>-1.0870444161861843</v>
+        <v>-1.5337388309600486</v>
       </c>
       <c r="AD58" t="n">
-        <v>-1.1646138114281654</v>
+        <v>-1.5474401222662166</v>
       </c>
       <c r="AE58" t="n">
-        <v>-1.2324973358103413</v>
+        <v>-1.5513273736514714</v>
       </c>
       <c r="AF58" t="n">
-        <v>-1.2827509967361341</v>
+        <v>-1.5421824701638704</v>
       </c>
       <c r="AG58" t="n">
-        <v>-1.305164568971659</v>
+        <v>-1.515716727814959</v>
       </c>
       <c r="AH58" t="n">
-        <v>-1.2904903946034412</v>
+        <v>-1.4697996935376405</v>
       </c>
       <c r="AI58" t="n">
-        <v>-1.2271773521373217</v>
+        <v>-1.4011931142850216</v>
       </c>
       <c r="AJ58" t="n">
-        <v>-1.1021555639975371</v>
+        <v>-1.3063356445296703</v>
       </c>
     </row>
     <row r="59">
@@ -38638,106 +38638,106 @@
         <v>5</v>
       </c>
       <c r="C62" t="n">
-        <v>0.33293261889860726</v>
+        <v>0.608430732305578</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4113779185130692</v>
+        <v>0.6799788284204386</v>
       </c>
       <c r="E62" t="n">
-        <v>0.48982321812753105</v>
+        <v>0.7515269245352991</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5682685177419929</v>
+        <v>0.8230750206501598</v>
       </c>
       <c r="G62" t="n">
-        <v>0.6467138173564548</v>
+        <v>0.8946231167650203</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7251591169709167</v>
+        <v>0.966171212879881</v>
       </c>
       <c r="I62" t="n">
-        <v>0.8036044165853787</v>
+        <v>1.0377193089947416</v>
       </c>
       <c r="J62" t="n">
-        <v>0.8820497161998405</v>
+        <v>1.109267405109602</v>
       </c>
       <c r="K62" t="n">
-        <v>0.9604950158143025</v>
+        <v>1.1808155012244628</v>
       </c>
       <c r="L62" t="n">
-        <v>1.0389403154287644</v>
+        <v>1.2523635973393232</v>
       </c>
       <c r="M62" t="n">
-        <v>1.1173856150432264</v>
+        <v>1.3239116934541841</v>
       </c>
       <c r="N62" t="n">
-        <v>1.1958309146576882</v>
+        <v>1.3954597895690446</v>
       </c>
       <c r="O62" t="n">
-        <v>1.27427621427215</v>
+        <v>1.467007885683905</v>
       </c>
       <c r="P62" t="n">
-        <v>1.3527215138866118</v>
+        <v>1.5385559817987655</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.431166813501074</v>
+        <v>1.6101242394433142</v>
       </c>
       <c r="R62" t="n">
-        <v>1.509612113115536</v>
+        <v>1.6818065268884057</v>
       </c>
       <c r="S62" t="n">
-        <v>1.5880574127299978</v>
+        <v>1.7536832722325457</v>
       </c>
       <c r="T62" t="n">
-        <v>1.6665027123444596</v>
+        <v>1.825794568414413</v>
       </c>
       <c r="U62" t="n">
-        <v>1.7449480119589218</v>
+        <v>1.898140172889136</v>
       </c>
       <c r="V62" t="n">
-        <v>1.8233933115733838</v>
+        <v>1.9706795076282915</v>
       </c>
       <c r="W62" t="n">
-        <v>1.9018386111878456</v>
+        <v>2.043331659119905</v>
       </c>
       <c r="X62" t="n">
-        <v>1.980238954514239</v>
+        <v>2.11593042208038</v>
       </c>
       <c r="Y62" t="n">
-        <v>2.057148889009676</v>
+        <v>2.186775220352479</v>
       </c>
       <c r="Z62" t="n">
-        <v>2.1299258262830802</v>
+        <v>2.252655846371447</v>
       </c>
       <c r="AA62" t="n">
-        <v>2.1963008637494013</v>
+        <v>2.310882341484829</v>
       </c>
       <c r="AB62" t="n">
-        <v>2.254386844430703</v>
+        <v>2.3594120764874105</v>
       </c>
       <c r="AC62" t="n">
-        <v>2.3026783569561418</v>
+        <v>2.3968497516211835</v>
       </c>
       <c r="AD62" t="n">
-        <v>2.340051735562034</v>
+        <v>2.422447396575406</v>
       </c>
       <c r="AE62" t="n">
-        <v>2.365765060091806</v>
+        <v>2.4361043704865626</v>
       </c>
       <c r="AF62" t="n">
-        <v>2.3794581559959784</v>
+        <v>2.438367361938366</v>
       </c>
       <c r="AG62" t="n">
-        <v>2.381152594332244</v>
+        <v>2.430430388961779</v>
       </c>
       <c r="AH62" t="n">
-        <v>2.3712516917653756</v>
+        <v>2.414134799035005</v>
       </c>
       <c r="AI62" t="n">
-        <v>2.350540510567294</v>
+        <v>2.3919692690834724</v>
       </c>
       <c r="AJ62" t="n">
-        <v>2.3201858586170205</v>
+        <v>2.367069805479848</v>
       </c>
     </row>
     <row r="63">
@@ -38868,106 +38868,106 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6151470001990988</v>
+        <v>-1.1023860737899</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5271639541295727</v>
+        <v>-1.1475678947465549</v>
       </c>
       <c r="E66" t="n">
-        <v>0.43920608994086763</v>
+        <v>-1.192724533822389</v>
       </c>
       <c r="F66" t="n">
-        <v>0.35128712153587194</v>
+        <v>-1.2378422771145137</v>
       </c>
       <c r="G66" t="n">
-        <v>0.263491932912161</v>
+        <v>-1.2828362406253535</v>
       </c>
       <c r="H66" t="n">
-        <v>0.17618201321123594</v>
+        <v>-1.3273449352134072</v>
       </c>
       <c r="I66" t="n">
-        <v>0.10710660868505939</v>
+        <v>-1.3536191146267127</v>
       </c>
       <c r="J66" t="n">
-        <v>0.03840967214229585</v>
+        <v>-1.3795148260566052</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.030301113208702657</v>
+        <v>-1.4054243862947327</v>
       </c>
       <c r="L66" t="n">
-        <v>-0.09903594428999796</v>
+        <v>-1.4313579922631567</v>
       </c>
       <c r="M66" t="n">
-        <v>-0.16780323981107206</v>
+        <v>-1.45732406267136</v>
       </c>
       <c r="N66" t="n">
-        <v>-0.23661254320744532</v>
+        <v>-1.4833321409548619</v>
       </c>
       <c r="O66" t="n">
-        <v>-0.30547037168281294</v>
+        <v>-1.5093887443173586</v>
       </c>
       <c r="P66" t="n">
-        <v>-0.3743867612881092</v>
+        <v>-1.535503908809784</v>
       </c>
       <c r="Q66" t="n">
-        <v>-0.44337145074815565</v>
+        <v>-1.5618124873674994</v>
       </c>
       <c r="R66" t="n">
-        <v>-0.5124311715542135</v>
+        <v>-1.5889037195942308</v>
       </c>
       <c r="S66" t="n">
-        <v>-0.5815724479966315</v>
+        <v>-1.6172832336779754</v>
       </c>
       <c r="T66" t="n">
-        <v>-0.6508055445364112</v>
+        <v>-1.6472100944658523</v>
       </c>
       <c r="U66" t="n">
-        <v>-0.7201392754326479</v>
+        <v>-1.678691611082643</v>
       </c>
       <c r="V66" t="n">
-        <v>-0.7895788355116795</v>
+        <v>-1.711481167699935</v>
       </c>
       <c r="W66" t="n">
-        <v>-0.8591461335003501</v>
+        <v>-1.745098556869391</v>
       </c>
       <c r="X66" t="n">
-        <v>-0.9299468492014968</v>
+        <v>-1.77989703669821</v>
       </c>
       <c r="Y66" t="n">
-        <v>-1.0142176347755136</v>
+        <v>-1.826530066499133</v>
       </c>
       <c r="Z66" t="n">
-        <v>-1.129431740108993</v>
+        <v>-1.8989484836284563</v>
       </c>
       <c r="AA66" t="n">
-        <v>-1.2494843598530418</v>
+        <v>-1.9684345809246684</v>
       </c>
       <c r="AB66" t="n">
-        <v>-1.3466385120719946</v>
+        <v>-2.0062865793718125</v>
       </c>
       <c r="AC66" t="n">
-        <v>-1.4435486794159484</v>
+        <v>-2.0358422692719653</v>
       </c>
       <c r="AD66" t="n">
-        <v>-1.5362143448384202</v>
+        <v>-2.055432545962837</v>
       </c>
       <c r="AE66" t="n">
-        <v>-1.6184118339909852</v>
+        <v>-2.0628132522124636</v>
       </c>
       <c r="AF66" t="n">
-        <v>-1.6812628749921932</v>
+        <v>-2.054733737988241</v>
       </c>
       <c r="AG66" t="n">
-        <v>-1.7132591255752745</v>
+        <v>-2.0269613876042976</v>
       </c>
       <c r="AH66" t="n">
-        <v>-1.7034699910149391</v>
+        <v>-1.9774894376487713</v>
       </c>
       <c r="AI66" t="n">
-        <v>-1.6382835901028379</v>
+        <v>-1.9032779429587832</v>
       </c>
       <c r="AJ66" t="n">
-        <v>-1.5021898871994959</v>
+        <v>-1.8010369086727314</v>
       </c>
     </row>
     <row r="67">
@@ -38988,106 +38988,106 @@
         <v>5</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6468895792528813</v>
+        <v>-1.0430936833954205</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5669465368158988</v>
+        <v>-1.080925221069492</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4870408534679871</v>
+        <v>-1.1187193996544926</v>
       </c>
       <c r="F69" t="n">
-        <v>0.407163823448204</v>
+        <v>-1.1564849249113651</v>
       </c>
       <c r="G69" t="n">
-        <v>0.32740013788318256</v>
+        <v>-1.1941371057134753</v>
       </c>
       <c r="H69" t="n">
-        <v>0.24810878354418608</v>
+        <v>-1.2313169552895606</v>
       </c>
       <c r="I69" t="n">
-        <v>0.18703484191759512</v>
+        <v>-1.2502793921532405</v>
       </c>
       <c r="J69" t="n">
-        <v>0.12632182022758842</v>
+        <v>-1.2688809090803361</v>
       </c>
       <c r="K69" t="n">
-        <v>0.06557572043561316</v>
+        <v>-1.2875155041094006</v>
       </c>
       <c r="L69" t="n">
-        <v>0.004783874900972956</v>
+        <v>-1.30619584488113</v>
       </c>
       <c r="M69" t="n">
-        <v>-0.056064678306748245</v>
+        <v>-1.3249328933259403</v>
       </c>
       <c r="N69" t="n">
-        <v>-0.11698073696880099</v>
+        <v>-1.3437374472250818</v>
       </c>
       <c r="O69" t="n">
-        <v>-0.17797329819632135</v>
+        <v>-1.3626185036896914</v>
       </c>
       <c r="P69" t="n">
-        <v>-0.23905445333204178</v>
+        <v>-1.381588154062501</v>
       </c>
       <c r="Q69" t="n">
-        <v>-0.30023475192524546</v>
+        <v>-1.4007800459503652</v>
       </c>
       <c r="R69" t="n">
-        <v>-0.3615242568036716</v>
+        <v>-1.4207773634664016</v>
       </c>
       <c r="S69" t="n">
-        <v>-0.4229319406824243</v>
+        <v>-1.442080140413513</v>
       </c>
       <c r="T69" t="n">
-        <v>-0.48446869540939563</v>
+        <v>-1.4649440597318413</v>
       </c>
       <c r="U69" t="n">
-        <v>-0.5461445881176206</v>
+        <v>-1.489377707674594</v>
       </c>
       <c r="V69" t="n">
-        <v>-0.6079690497046204</v>
+        <v>-1.5151427622873852</v>
       </c>
       <c r="W69" t="n">
-        <v>-0.669966430270017</v>
+        <v>-1.5417695488458518</v>
       </c>
       <c r="X69" t="n">
-        <v>-0.7332453744046401</v>
+        <v>-1.5696264151447392</v>
       </c>
       <c r="Y69" t="n">
-        <v>-0.8101866919924652</v>
+        <v>-1.6095364905818044</v>
       </c>
       <c r="Z69" t="n">
-        <v>-0.9185231704673631</v>
+        <v>-1.6757669119779899</v>
       </c>
       <c r="AA69" t="n">
-        <v>-1.032370106523457</v>
+        <v>-1.7398621798215401</v>
       </c>
       <c r="AB69" t="n">
-        <v>-1.1242634961149807</v>
+        <v>-1.773409040209128</v>
       </c>
       <c r="AC69" t="n">
-        <v>-1.2170266512195747</v>
+        <v>-1.7999031016090878</v>
       </c>
       <c r="AD69" t="n">
-        <v>-1.30673025165779</v>
+        <v>-1.817708886680869</v>
       </c>
       <c r="AE69" t="n">
-        <v>-1.3871784307752952</v>
+        <v>-1.8245459179572978</v>
       </c>
       <c r="AF69" t="n">
-        <v>-1.4495140285010684</v>
+        <v>-1.8170939709028775</v>
       </c>
       <c r="AG69" t="n">
-        <v>-1.4822142072323756</v>
+        <v>-1.790988689798445</v>
       </c>
       <c r="AH69" t="n">
-        <v>-1.4743099264452384</v>
+        <v>-1.7440410623521079</v>
       </c>
       <c r="AI69" t="n">
-        <v>-1.412123021516492</v>
+        <v>-1.6729744985208193</v>
       </c>
       <c r="AJ69" t="n">
-        <v>-1.2800502110240164</v>
+        <v>-1.5742088378109693</v>
       </c>
     </row>
     <row r="70">
@@ -39108,106 +39108,106 @@
         <v>5</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6722836424959069</v>
+        <v>-0.9956597710798374</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5987726029649592</v>
+        <v>-1.027611082127842</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5253086642896819</v>
+        <v>-1.0595152923201763</v>
       </c>
       <c r="F72" t="n">
-        <v>0.4518651849780688</v>
+        <v>-1.0913990431488467</v>
       </c>
       <c r="G72" t="n">
-        <v>0.3785267018599991</v>
+        <v>-1.1231777977839734</v>
       </c>
       <c r="H72" t="n">
-        <v>0.30565019981054525</v>
+        <v>-1.1544945713504842</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2509774285036229</v>
+        <v>-1.1676076141744638</v>
       </c>
       <c r="J72" t="n">
-        <v>0.1966515386958217</v>
+        <v>-1.180373775499322</v>
       </c>
       <c r="K72" t="n">
-        <v>0.14227718735106487</v>
+        <v>-1.1931883983611362</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0878397302537487</v>
+        <v>-1.2060661269755095</v>
       </c>
       <c r="M72" t="n">
-        <v>0.033326170896709736</v>
+        <v>-1.2190199578496055</v>
       </c>
       <c r="N72" t="n">
-        <v>-0.02127529197788659</v>
+        <v>-1.232061692241259</v>
       </c>
       <c r="O72" t="n">
-        <v>-0.07597563940712918</v>
+        <v>-1.245202311187559</v>
       </c>
       <c r="P72" t="n">
-        <v>-0.13078860696718905</v>
+        <v>-1.2584555502646757</v>
       </c>
       <c r="Q72" t="n">
-        <v>-0.1857253928669186</v>
+        <v>-1.271954092816659</v>
       </c>
       <c r="R72" t="n">
-        <v>-0.24079872500323946</v>
+        <v>-1.28627627856414</v>
       </c>
       <c r="S72" t="n">
-        <v>-0.2960195348310599</v>
+        <v>-1.3019176658019451</v>
       </c>
       <c r="T72" t="n">
-        <v>-0.3513992161077847</v>
+        <v>-1.3191312319446338</v>
       </c>
       <c r="U72" t="n">
-        <v>-0.40694883826560013</v>
+        <v>-1.3379265849481565</v>
       </c>
       <c r="V72" t="n">
-        <v>-0.4626812210589752</v>
+        <v>-1.3580720379573472</v>
       </c>
       <c r="W72" t="n">
-        <v>-0.5186226676857519</v>
+        <v>-1.379106342427022</v>
       </c>
       <c r="X72" t="n">
-        <v>-0.5758841945671562</v>
+        <v>-1.4014099179019641</v>
       </c>
       <c r="Y72" t="n">
-        <v>-0.6469619377660282</v>
+        <v>-1.4359416298479428</v>
       </c>
       <c r="Z72" t="n">
-        <v>-0.7497963147540609</v>
+        <v>-1.4972216546576183</v>
       </c>
       <c r="AA72" t="n">
-        <v>-0.858678703859791</v>
+        <v>-1.5570042589390398</v>
       </c>
       <c r="AB72" t="n">
-        <v>-0.9463634833493719</v>
+        <v>-1.5871070088789825</v>
       </c>
       <c r="AC72" t="n">
-        <v>-1.0358090286624777</v>
+        <v>-1.6111517674787874</v>
       </c>
       <c r="AD72" t="n">
-        <v>-1.1231429771132877</v>
+        <v>-1.627529959255297</v>
       </c>
       <c r="AE72" t="n">
-        <v>-1.2021917082027451</v>
+        <v>-1.6339320505531674</v>
       </c>
       <c r="AF72" t="n">
-        <v>-1.2641149513081706</v>
+        <v>-1.6269821572345884</v>
       </c>
       <c r="AG72" t="n">
-        <v>-1.2973782725580583</v>
+        <v>-1.6022105315537651</v>
       </c>
       <c r="AH72" t="n">
-        <v>-1.29098187478948</v>
+        <v>-1.557282362114779</v>
       </c>
       <c r="AI72" t="n">
-        <v>-1.2311945666474173</v>
+        <v>-1.4887317429704505</v>
       </c>
       <c r="AJ72" t="n">
-        <v>-1.102338470083635</v>
+        <v>-1.3927463811215617</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
@@ -36258,106 +36258,106 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5365651603586656</v>
+        <v>0.4685493483143862</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6089704002723525</v>
+        <v>0.5428473841585919</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6813756401860391</v>
+        <v>0.6171454200027975</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7537808800997259</v>
+        <v>0.6914434558470032</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8261861200134125</v>
+        <v>0.7657414916912088</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8985913599270994</v>
+        <v>0.8400395275354144</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9709965998407861</v>
+        <v>0.9143375633796201</v>
       </c>
       <c r="J6" t="n">
-        <v>1.0434018397544729</v>
+        <v>0.9886355992238257</v>
       </c>
       <c r="K6" t="n">
-        <v>1.1158070796681596</v>
+        <v>1.0629336350680314</v>
       </c>
       <c r="L6" t="n">
-        <v>1.1882123195818461</v>
+        <v>1.137231670912237</v>
       </c>
       <c r="M6" t="n">
-        <v>1.2606175594955331</v>
+        <v>1.2115297067564428</v>
       </c>
       <c r="N6" t="n">
-        <v>1.3330227994092199</v>
+        <v>1.2858277426006484</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4054280393229064</v>
+        <v>1.360125778444854</v>
       </c>
       <c r="P6" t="n">
-        <v>1.4778332792365931</v>
+        <v>1.4344238142890595</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5502385191502799</v>
+        <v>1.5087218501332653</v>
       </c>
       <c r="R6" t="n">
-        <v>1.6226566544603214</v>
+        <v>1.5830198859774711</v>
       </c>
       <c r="S6" t="n">
-        <v>1.69518862059669</v>
+        <v>1.6573179218216767</v>
       </c>
       <c r="T6" t="n">
-        <v>1.767937823826507</v>
+        <v>1.7316160175582527</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8409555661342103</v>
+        <v>1.8059695711958836</v>
       </c>
       <c r="V6" t="n">
-        <v>1.9142407523961502</v>
+        <v>1.880555788594429</v>
       </c>
       <c r="W6" t="n">
-        <v>1.9877398903805912</v>
+        <v>1.9554894996834373</v>
       </c>
       <c r="X6" t="n">
-        <v>2.0613021344596403</v>
+        <v>2.0307439340028313</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.133230206507228</v>
+        <v>2.1047016416008977</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.200305135365232</v>
+        <v>2.1741792325004043</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.259816137163298</v>
+        <v>2.2364572570184187</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.309687695853771</v>
+        <v>2.2894072863012522</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.3484795632116726</v>
+        <v>2.331491912324421</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.375386758834754</v>
+        <v>2.3617647478927095</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.3902395701434553</v>
+        <v>2.3798704266401276</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.393503552380913</v>
+        <v>2.386044603029913</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.3862795286129765</v>
+        <v>2.381113952354558</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.3703035897282017</v>
+        <v>2.3664961707357963</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.3479470944378322</v>
+        <v>2.3441999751245812</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.322216669275818</v>
+        <v>2.3168251033011087</v>
       </c>
     </row>
     <row r="7">
@@ -36488,106 +36488,106 @@
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.6522037725207246</v>
+        <v>-0.22913350696062929</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7027046774640676</v>
+        <v>-0.2913803296109893</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7531804005265897</v>
+        <v>-0.35360197038052843</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.8036172278054026</v>
+        <v>-0.4157847153663583</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.8539302753029308</v>
+        <v>-0.47784368057090343</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.9037580538776727</v>
+        <v>-0.5394173768526624</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.9353513172776664</v>
+        <v>-0.5827565579596732</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.9665661126942471</v>
+        <v>-0.6257172710832709</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.9977947569190626</v>
+        <v>-0.6686918330151035</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.029047446874175</v>
+        <v>-0.7116904406772329</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.0603326012690664</v>
+        <v>-0.7547215127791411</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.0916597635392564</v>
+        <v>-0.7977945927563481</v>
       </c>
       <c r="O10" t="n">
-        <v>-1.1230354508884413</v>
+        <v>-0.8409161978125499</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.154469699367555</v>
+        <v>-0.8840963639986803</v>
       </c>
       <c r="Q10" t="n">
-        <v>-1.1859722477014183</v>
+        <v>-0.9273448300395607</v>
       </c>
       <c r="R10" t="n">
-        <v>-1.2176298509390036</v>
+        <v>-0.9706683274264529</v>
       </c>
       <c r="S10" t="n">
-        <v>-1.2500753973833167</v>
+        <v>-1.0140733804497046</v>
       </c>
       <c r="T10" t="n">
-        <v>-1.2839608485132032</v>
+        <v>-1.0575706252378834</v>
       </c>
       <c r="U10" t="n">
-        <v>-1.3196133777292196</v>
+        <v>-1.101512653443434</v>
       </c>
       <c r="V10" t="n">
-        <v>-1.3570313839680601</v>
+        <v>-1.147004327011349</v>
       </c>
       <c r="W10" t="n">
-        <v>-1.39590482503582</v>
+        <v>-1.1947801422649658</v>
       </c>
       <c r="X10" t="n">
-        <v>-1.4366822747834596</v>
+        <v>-1.2460586328206635</v>
       </c>
       <c r="Y10" t="n">
-        <v>-1.4900376587568007</v>
+        <v>-1.312009105237918</v>
       </c>
       <c r="Z10" t="n">
-        <v>-1.5698674310345528</v>
+        <v>-1.4067488158572634</v>
       </c>
       <c r="AA10" t="n">
-        <v>-1.6473246516669526</v>
+        <v>-1.5013770482389646</v>
       </c>
       <c r="AB10" t="n">
-        <v>-1.6935034593391067</v>
+        <v>-1.5666595858263772</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.731462712543487</v>
+        <v>-1.6250523531184031</v>
       </c>
       <c r="AD10" t="n">
-        <v>-1.7591795252975269</v>
+        <v>-1.6736549513871093</v>
       </c>
       <c r="AE10" t="n">
-        <v>-1.7739811095383105</v>
+        <v>-1.7086425010724207</v>
       </c>
       <c r="AF10" t="n">
-        <v>-1.7721133348916094</v>
+        <v>-1.724834201551132</v>
       </c>
       <c r="AG10" t="n">
-        <v>-1.7487652558192566</v>
+        <v>-1.7157178582843184</v>
       </c>
       <c r="AH10" t="n">
-        <v>-1.7012769295464243</v>
+        <v>-1.6766577007446077</v>
       </c>
       <c r="AI10" t="n">
-        <v>-1.6258803820365817</v>
+        <v>-1.6016353483910881</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-1.5184827400438208</v>
+        <v>-1.4840329427216785</v>
       </c>
     </row>
     <row r="11">
@@ -36608,106 +36608,106 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.6000979393209362</v>
+        <v>-0.18382925496526886</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.6431628466018132</v>
+        <v>-0.23845080036011113</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.6861903947936197</v>
+        <v>-0.29303498666588246</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7291892896572973</v>
+        <v>-0.34759051964352533</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.7720748400662133</v>
+        <v>-0.40203270816640646</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.8144880592491044</v>
+        <v>-0.4560025654632626</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.8386838657195899</v>
+        <v>-0.49175501004771327</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.8625187522534912</v>
+        <v>-0.5271465346955796</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.886386716889361</v>
+        <v>-0.5625711374454146</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.910300427267896</v>
+        <v>-0.5980414859379146</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.9342708453195118</v>
+        <v>-0.6335685421034954</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.9583087688254589</v>
+        <v>-0.6691631037234078</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.9824231948968739</v>
+        <v>-0.7048341679087878</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.006626214876489</v>
+        <v>-0.7405938260023681</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.0309283783135874</v>
+        <v>-0.7764526275534311</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.0554184820539831</v>
+        <v>-0.8124206353897175</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.08072176928244</v>
+        <v>-0.8485068222263294</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.107480488237983</v>
+        <v>-0.8847224455894883</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.1360179349966633</v>
+        <v>-0.9214158102047108</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.1663368540787247</v>
+        <v>-0.9596782935021855</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.1981349938862123</v>
+        <v>-1.0002353501850734</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.2318744819920626</v>
+        <v>-1.0443066600749473</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.278398584223997</v>
+        <v>-1.1032228871957472</v>
       </c>
       <c r="Z13" t="n">
-        <v>-1.351920930484708</v>
+        <v>-1.1914149055939014</v>
       </c>
       <c r="AA13" t="n">
-        <v>-1.4238588709959779</v>
+        <v>-1.280247155582478</v>
       </c>
       <c r="AB13" t="n">
-        <v>-1.465598358239786</v>
+        <v>-1.3407825256823087</v>
       </c>
       <c r="AC13" t="n">
-        <v>-1.5003605637215602</v>
+        <v>-1.3956489693852019</v>
       </c>
       <c r="AD13" t="n">
-        <v>-1.5261619297896245</v>
+        <v>-1.4419995569734116</v>
       </c>
       <c r="AE13" t="n">
-        <v>-1.5403002553174554</v>
+        <v>-1.4759985612018982</v>
       </c>
       <c r="AF13" t="n">
-        <v>-1.5389599487619914</v>
+        <v>-1.492426710356614</v>
       </c>
       <c r="AG13" t="n">
-        <v>-1.517207644048285</v>
+        <v>-1.4846768041391885</v>
       </c>
       <c r="AH13" t="n">
-        <v>-1.472211675180441</v>
+        <v>-1.4479731882778648</v>
       </c>
       <c r="AI13" t="n">
-        <v>-1.399979155063182</v>
+        <v>-1.3761088333490137</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-1.2961399828024616</v>
+        <v>-1.2622293420777901</v>
       </c>
     </row>
     <row r="14">
@@ -36728,106 +36728,106 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.558413272761106</v>
+        <v>-0.147585853368981</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.5955293819120101</v>
+        <v>-0.19610717695940877</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.6325983902072441</v>
+        <v>-0.24458139969416628</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6696469391388138</v>
+        <v>-0.2930351630652597</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.7065904918768402</v>
+        <v>-0.3413839302428096</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.7430720635462505</v>
+        <v>-0.38927071635174354</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.7613499044731293</v>
+        <v>-0.4189537717181461</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.7792808639008874</v>
+        <v>-0.44828994558542756</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.7972602848656006</v>
+        <v>-0.47767458098966464</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.8153028115828735</v>
+        <v>-0.507122322146461</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.8334214405598692</v>
+        <v>-0.5366461655629803</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.8516279730544218</v>
+        <v>-0.5662579124970565</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.8699333901036213</v>
+        <v>-0.5959685439857793</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.8883514272836378</v>
+        <v>-0.6257917956053196</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.9068932828033239</v>
+        <v>-0.6557388655645291</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.9256493869459681</v>
+        <v>-0.6858224817603304</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.9452388668017403</v>
+        <v>-0.7160535756476307</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.966296200017808</v>
+        <v>-0.7464439018707739</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.9891415808106198</v>
+        <v>-0.7773383356137334</v>
       </c>
       <c r="V16" t="n">
-        <v>-1.0137812301672577</v>
+        <v>-0.8098174666948565</v>
       </c>
       <c r="W16" t="n">
-        <v>-1.039919128966528</v>
+        <v>-0.8445995165211613</v>
       </c>
       <c r="X16" t="n">
-        <v>-1.0680282477589464</v>
+        <v>-0.8829050818783761</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.1090873245977555</v>
+        <v>-0.9361939127620126</v>
       </c>
       <c r="Z16" t="n">
-        <v>-1.1775637300448338</v>
+        <v>-1.0191477773832132</v>
       </c>
       <c r="AA16" t="n">
-        <v>-1.2450862464592003</v>
+        <v>-1.1033432414572903</v>
       </c>
       <c r="AB16" t="n">
-        <v>-1.2832742773603318</v>
+        <v>-1.1600808775670555</v>
       </c>
       <c r="AC16" t="n">
-        <v>-1.315478844664021</v>
+        <v>-1.2121262623986424</v>
       </c>
       <c r="AD16" t="n">
-        <v>-1.3397478533833045</v>
+        <v>-1.2566752414424551</v>
       </c>
       <c r="AE16" t="n">
-        <v>-1.3533555719407735</v>
+        <v>-1.2898834093054825</v>
       </c>
       <c r="AF16" t="n">
-        <v>-1.3524372398582982</v>
+        <v>-1.3065007174010015</v>
       </c>
       <c r="AG16" t="n">
-        <v>-1.3319615546315084</v>
+        <v>-1.299843960823086</v>
       </c>
       <c r="AH16" t="n">
-        <v>-1.2889594716876562</v>
+        <v>-1.2650255783044726</v>
       </c>
       <c r="AI16" t="n">
-        <v>-1.219258173484464</v>
+        <v>-1.195687621315356</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-1.118265777009376</v>
+        <v>-1.0847864615626817</v>
       </c>
     </row>
     <row r="17">
@@ -36853,106 +36853,106 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.569862554757982</v>
+        <v>0.43525195391506993</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6414833337095337</v>
+        <v>0.5103344507214107</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7131041126610854</v>
+        <v>0.5854169475277512</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7847248916126371</v>
+        <v>0.6604994443340919</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8563456705641888</v>
+        <v>0.7355819411404325</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9279664495157406</v>
+        <v>0.8106644379467732</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9995872284672923</v>
+        <v>0.885746934753114</v>
       </c>
       <c r="J20" t="n">
-        <v>1.071208007418844</v>
+        <v>0.9608294315594545</v>
       </c>
       <c r="K20" t="n">
-        <v>1.1428287863703956</v>
+        <v>1.0359119283657952</v>
       </c>
       <c r="L20" t="n">
-        <v>1.2144495653219474</v>
+        <v>1.1109944251721358</v>
       </c>
       <c r="M20" t="n">
-        <v>1.2860703442734993</v>
+        <v>1.1860769219784766</v>
       </c>
       <c r="N20" t="n">
-        <v>1.357691123225051</v>
+        <v>1.2611594187848172</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4293119021766025</v>
+        <v>1.3362419155911578</v>
       </c>
       <c r="P20" t="n">
-        <v>1.5009327315061363</v>
+        <v>1.4113244123974984</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.572584137243713</v>
+        <v>1.4864069092038392</v>
       </c>
       <c r="R20" t="n">
-        <v>1.6443637067218482</v>
+        <v>1.56148940601018</v>
       </c>
       <c r="S20" t="n">
-        <v>1.7163455180260883</v>
+        <v>1.6365719028165207</v>
       </c>
       <c r="T20" t="n">
-        <v>1.7885639651665712</v>
+        <v>1.7116543996228613</v>
       </c>
       <c r="U20" t="n">
-        <v>1.861013758078026</v>
+        <v>1.7867376037269689</v>
       </c>
       <c r="V20" t="n">
-        <v>1.9336499226197712</v>
+        <v>1.861908840056377</v>
       </c>
       <c r="W20" t="n">
-        <v>2.006387800575717</v>
+        <v>1.9373735262671827</v>
       </c>
       <c r="X20" t="n">
-        <v>2.0790580933662914</v>
+        <v>2.013196503661717</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.1499577829464243</v>
+        <v>2.0878277237145557</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.2158748712716694</v>
+        <v>2.1581269875386444</v>
       </c>
       <c r="AA20" t="n">
-        <v>2.274118260618023</v>
+        <v>2.2213938262051123</v>
       </c>
       <c r="AB20" t="n">
-        <v>2.322644834116861</v>
+        <v>2.275494581278217</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.360059455754909</v>
+        <v>2.318862404815306</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.385614970374302</v>
+        <v>2.3504972593668843</v>
       </c>
       <c r="AE20" t="n">
-        <v>2.399212203672539</v>
+        <v>2.369965917976562</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.401399962202493</v>
+        <v>2.3774019641810713</v>
       </c>
       <c r="AG20" t="n">
-        <v>2.3933750333724264</v>
+        <v>2.373505792010276</v>
       </c>
       <c r="AH20" t="n">
-        <v>2.376982185445984</v>
+        <v>2.359544605987165</v>
       </c>
       <c r="AI20" t="n">
-        <v>2.354714167542177</v>
+        <v>2.3373524211278403</v>
       </c>
       <c r="AJ20" t="n">
-        <v>2.3297117096353985</v>
+        <v>2.30933006294153</v>
       </c>
     </row>
     <row r="21">
@@ -37083,106 +37083,106 @@
         <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.8598087761677686</v>
+        <v>-0.020733305440624572</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.9054416370937731</v>
+        <v>-0.08784817210832285</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.9510493161389569</v>
+        <v>-0.15493785689520045</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.9966180994004313</v>
+        <v>-0.22198864589836886</v>
       </c>
       <c r="G24" t="n">
-        <v>-1.042063102880621</v>
+        <v>-0.2889156551202524</v>
       </c>
       <c r="H24" t="n">
-        <v>-1.0870228374380246</v>
+        <v>-0.35535739541934985</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.11374805682068</v>
+        <v>-0.40356462054369896</v>
       </c>
       <c r="J24" t="n">
-        <v>-1.140094808219922</v>
+        <v>-0.45139337768463506</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.1664554084273993</v>
+        <v>-0.49923598363380606</v>
       </c>
       <c r="L24" t="n">
-        <v>-1.1928400543651732</v>
+        <v>-0.5471026353132737</v>
       </c>
       <c r="M24" t="n">
-        <v>-1.219257164742726</v>
+        <v>-0.5950017514325203</v>
       </c>
       <c r="N24" t="n">
-        <v>-1.245716282995578</v>
+        <v>-0.6429428754270661</v>
       </c>
       <c r="O24" t="n">
-        <v>-1.272223926327424</v>
+        <v>-0.6909325245006062</v>
       </c>
       <c r="P24" t="n">
-        <v>-1.2987904434143585</v>
+        <v>-0.738980734704075</v>
       </c>
       <c r="Q24" t="n">
-        <v>-1.3256150050437088</v>
+        <v>-0.787097244762294</v>
       </c>
       <c r="R24" t="n">
-        <v>-1.3533099297953846</v>
+        <v>-0.8352887861665244</v>
       </c>
       <c r="S24" t="n">
-        <v>-1.38234144027306</v>
+        <v>-0.8835618832071145</v>
       </c>
       <c r="T24" t="n">
-        <v>-1.4129332361032387</v>
+        <v>-0.931926800345067</v>
       </c>
       <c r="U24" t="n">
-        <v>-1.4450613035626954</v>
+        <v>-0.9803967410402503</v>
       </c>
       <c r="V24" t="n">
-        <v>-1.4784517463476239</v>
+        <v>-1.0295188029179487</v>
       </c>
       <c r="W24" t="n">
-        <v>-1.5126011189069013</v>
+        <v>-1.0805896326971929</v>
       </c>
       <c r="X24" t="n">
-        <v>-1.547843483617551</v>
+        <v>-1.1353962691379382</v>
       </c>
       <c r="Y24" t="n">
-        <v>-1.5948171464347445</v>
+        <v>-1.2055262844952677</v>
       </c>
       <c r="Z24" t="n">
-        <v>-1.6674618337298237</v>
+        <v>-1.305364961357414</v>
       </c>
       <c r="AA24" t="n">
-        <v>-1.73705276972893</v>
+        <v>-1.4061293700843795</v>
       </c>
       <c r="AB24" t="n">
-        <v>-1.7748851491763713</v>
+        <v>-1.4785528414713276</v>
       </c>
       <c r="AC24" t="n">
-        <v>-1.8042977785070926</v>
+        <v>-1.5449086079210195</v>
       </c>
       <c r="AD24" t="n">
-        <v>-1.823626611564288</v>
+        <v>-1.6019633391614687</v>
       </c>
       <c r="AE24" t="n">
-        <v>-1.8306365919940832</v>
+        <v>-1.6454089846405688</v>
       </c>
       <c r="AF24" t="n">
-        <v>-1.8220902130145766</v>
+        <v>-1.6694313332952062</v>
       </c>
       <c r="AG24" t="n">
-        <v>-1.793772044563208</v>
+        <v>-1.6667345406985508</v>
       </c>
       <c r="AH24" t="n">
-        <v>-1.7436965512240379</v>
+        <v>-1.6317489469873807</v>
       </c>
       <c r="AI24" t="n">
-        <v>-1.668849058202711</v>
+        <v>-1.5573720428370468</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-1.5659688833787746</v>
+        <v>-1.4357516015137761</v>
       </c>
     </row>
     <row r="25">
@@ -37203,106 +37203,106 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.8043732035280485</v>
+        <v>0.02124120711480415</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.8426485128878006</v>
+        <v>-0.03816993620116277</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.8808864631584821</v>
+        <v>-0.0975437204280592</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.919095760101035</v>
+        <v>-0.15688885132682706</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.9571917125888258</v>
+        <v>-0.21612063777083304</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.9948153338505921</v>
+        <v>-0.2748800929888141</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.0142215423999525</v>
+        <v>-0.31542213549438963</v>
       </c>
       <c r="J27" t="n">
-        <v>-1.033266831012729</v>
+        <v>-0.355603258063381</v>
       </c>
       <c r="K27" t="n">
-        <v>-1.0523451977274738</v>
+        <v>-0.3958174587343408</v>
       </c>
       <c r="L27" t="n">
-        <v>-1.0714693101848838</v>
+        <v>-0.43607740514796567</v>
       </c>
       <c r="M27" t="n">
-        <v>-1.0906501303153746</v>
+        <v>-0.47639405923467154</v>
       </c>
       <c r="N27" t="n">
-        <v>-1.109898455900197</v>
+        <v>-0.5167782187757088</v>
       </c>
       <c r="O27" t="n">
-        <v>-1.1292232840504872</v>
+        <v>-0.5572388808822137</v>
       </c>
       <c r="P27" t="n">
-        <v>-1.1486370136963384</v>
+        <v>-0.5977881368969189</v>
       </c>
       <c r="Q27" t="n">
-        <v>-1.1683365738465346</v>
+        <v>-0.6384365363691074</v>
       </c>
       <c r="R27" t="n">
-        <v>-1.1889278556842113</v>
+        <v>-0.6791941421265182</v>
       </c>
       <c r="S27" t="n">
-        <v>-1.2108721224292436</v>
+        <v>-0.7200699268842548</v>
       </c>
       <c r="T27" t="n">
-        <v>-1.234390261694012</v>
+        <v>-0.7610747824902113</v>
       </c>
       <c r="U27" t="n">
-        <v>-1.2594600416357573</v>
+        <v>-0.8022230945484183</v>
       </c>
       <c r="V27" t="n">
-        <v>-1.285816299435926</v>
+        <v>-0.8440574642625904</v>
       </c>
       <c r="W27" t="n">
-        <v>-1.3129664967377803</v>
+        <v>-0.8878564379589258</v>
       </c>
       <c r="X27" t="n">
-        <v>-1.341260094935489</v>
+        <v>-0.9353990394263336</v>
       </c>
       <c r="Y27" t="n">
-        <v>-1.3815053142580216</v>
+        <v>-0.9984274582417312</v>
       </c>
       <c r="Z27" t="n">
-        <v>-1.4479583595893348</v>
+        <v>-1.0916362755902278</v>
       </c>
       <c r="AA27" t="n">
-        <v>-1.5121567767124828</v>
+        <v>-1.1865058205092234</v>
       </c>
       <c r="AB27" t="n">
-        <v>-1.545684334250742</v>
+        <v>-1.2540670518295625</v>
       </c>
       <c r="AC27" t="n">
-        <v>-1.5720376404308423</v>
+        <v>-1.3167681749387292</v>
       </c>
       <c r="AD27" t="n">
-        <v>-1.589586194902431</v>
+        <v>-1.3714346936003534</v>
       </c>
       <c r="AE27" t="n">
-        <v>-1.5960584744203197</v>
+        <v>-1.413755495636403</v>
       </c>
       <c r="AF27" t="n">
-        <v>-1.588147185902801</v>
+        <v>-1.4378881059855726</v>
       </c>
       <c r="AG27" t="n">
-        <v>-1.561504882316291</v>
+        <v>-1.436454302587849</v>
       </c>
       <c r="AH27" t="n">
-        <v>-1.5139634372862762</v>
+        <v>-1.4037595909955014</v>
       </c>
       <c r="AI27" t="n">
-        <v>-1.4422711239188764</v>
+        <v>-1.3325302831946466</v>
       </c>
       <c r="AJ27" t="n">
-        <v>-1.3428766221014576</v>
+        <v>-1.214697504905846</v>
       </c>
     </row>
     <row r="28">
@@ -37323,106 +37323,106 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.7600247454162731</v>
+        <v>0.05482081715914677</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.792414013523023</v>
+        <v>0.0015726525245650658</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.8247561807741028</v>
+        <v>-0.051628411254346696</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.8570778886615185</v>
+        <v>-0.10480901566959422</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.8892946003553908</v>
+        <v>-0.15788462389129831</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.9210493309806469</v>
+        <v>-0.2104982510443863</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.9346003308633718</v>
+        <v>-0.244908147454943</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.9478044492469755</v>
+        <v>-0.2789711623663786</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.9610570291675347</v>
+        <v>-0.31308263881476966</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.9743727148406532</v>
+        <v>-0.3472572210157202</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.9877645027734948</v>
+        <v>-0.3815079054763935</v>
       </c>
       <c r="N30" t="n">
-        <v>-1.0012441942238937</v>
+        <v>-0.41584649345462404</v>
       </c>
       <c r="O30" t="n">
-        <v>-1.014822770228939</v>
+        <v>-0.450283965987501</v>
       </c>
       <c r="P30" t="n">
-        <v>-1.0285142699219234</v>
+        <v>-0.4848340586511952</v>
       </c>
       <c r="Q30" t="n">
-        <v>-1.0425138288887963</v>
+        <v>-0.5195079696545591</v>
       </c>
       <c r="R30" t="n">
-        <v>-1.0574221963952743</v>
+        <v>-0.5543184268945145</v>
       </c>
       <c r="S30" t="n">
-        <v>-1.073696668154192</v>
+        <v>-0.5892763618259687</v>
       </c>
       <c r="T30" t="n">
-        <v>-1.0915558821666318</v>
+        <v>-0.6243931682063282</v>
       </c>
       <c r="U30" t="n">
-        <v>-1.1109790320942086</v>
+        <v>-0.6596841773549541</v>
       </c>
       <c r="V30" t="n">
-        <v>-1.1317079419065696</v>
+        <v>-0.6956883933383056</v>
       </c>
       <c r="W30" t="n">
-        <v>-1.1532587990024863</v>
+        <v>-0.7336698821683141</v>
       </c>
       <c r="X30" t="n">
-        <v>-1.1759933839898407</v>
+        <v>-0.7754012556570515</v>
       </c>
       <c r="Y30" t="n">
-        <v>-1.2108558485166445</v>
+        <v>-0.8327483972389035</v>
       </c>
       <c r="Z30" t="n">
-        <v>-1.272355580276945</v>
+        <v>-0.9206533269764805</v>
       </c>
       <c r="AA30" t="n">
-        <v>-1.3322399822993274</v>
+        <v>-1.0108069808491003</v>
       </c>
       <c r="AB30" t="n">
-        <v>-1.3623236823102403</v>
+        <v>-1.0744784201161524</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1.3862295299698437</v>
+        <v>-1.1342558285528992</v>
       </c>
       <c r="AD30" t="n">
-        <v>-1.402353861572947</v>
+        <v>-1.187011777151463</v>
       </c>
       <c r="AE30" t="n">
-        <v>-1.4083959803613106</v>
+        <v>-1.2284327044330723</v>
       </c>
       <c r="AF30" t="n">
-        <v>-1.400992764213382</v>
+        <v>-1.2526535241378673</v>
       </c>
       <c r="AG30" t="n">
-        <v>-1.3756911525187594</v>
+        <v>-1.2522301120992887</v>
       </c>
       <c r="AH30" t="n">
-        <v>-1.330176946136069</v>
+        <v>-1.2213681062019994</v>
       </c>
       <c r="AI30" t="n">
-        <v>-1.2610087764918112</v>
+        <v>-1.1526568754807278</v>
       </c>
       <c r="AJ30" t="n">
-        <v>-1.1644028130796058</v>
+        <v>-1.0378542276195035</v>
       </c>
     </row>
     <row r="31">
@@ -37448,106 +37448,106 @@
         <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5973624260361201</v>
+        <v>0.40775208263693175</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6684562422581445</v>
+        <v>0.4833615421727999</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7395500584801686</v>
+        <v>0.558971001708668</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8106438747021929</v>
+        <v>0.6345804612445363</v>
       </c>
       <c r="G34" t="n">
-        <v>0.881737690924217</v>
+        <v>0.7101899207804043</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9528315071462413</v>
+        <v>0.7857993803162725</v>
       </c>
       <c r="I34" t="n">
-        <v>1.0239253233682657</v>
+        <v>0.8614088398521407</v>
       </c>
       <c r="J34" t="n">
-        <v>1.0950191395902897</v>
+        <v>0.9370182993880087</v>
       </c>
       <c r="K34" t="n">
-        <v>1.166112955812314</v>
+        <v>1.012627758923877</v>
       </c>
       <c r="L34" t="n">
-        <v>1.2372067720343383</v>
+        <v>1.088237218459745</v>
       </c>
       <c r="M34" t="n">
-        <v>1.3083005882563625</v>
+        <v>1.1638466779956134</v>
       </c>
       <c r="N34" t="n">
-        <v>1.3793944044783868</v>
+        <v>1.2394561375314814</v>
       </c>
       <c r="O34" t="n">
-        <v>1.4504882412372113</v>
+        <v>1.3150655970673495</v>
       </c>
       <c r="P34" t="n">
-        <v>1.5216067542331937</v>
+        <v>1.3906750566032176</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.5928349271718794</v>
+        <v>1.466284516139086</v>
       </c>
       <c r="R34" t="n">
-        <v>1.6642404067357166</v>
+        <v>1.5418939756749543</v>
       </c>
       <c r="S34" t="n">
-        <v>1.7358580701407693</v>
+        <v>1.6175034352108224</v>
       </c>
       <c r="T34" t="n">
-        <v>1.807690025136717</v>
+        <v>1.6931128947466905</v>
       </c>
       <c r="U34" t="n">
-        <v>1.8797056100068554</v>
+        <v>1.7687223542825588</v>
       </c>
       <c r="V34" t="n">
-        <v>1.9518413935680952</v>
+        <v>1.844353937698859</v>
       </c>
       <c r="W34" t="n">
-        <v>2.0240011751709623</v>
+        <v>1.920199275032274</v>
       </c>
       <c r="X34" t="n">
-        <v>2.0960110284115268</v>
+        <v>1.9963953475505891</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.1661702220293844</v>
+        <v>2.0714476719012</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.2312759593737805</v>
+        <v>2.1422539608786524</v>
       </c>
       <c r="AA34" t="n">
-        <v>2.2886532587234267</v>
+        <v>2.206134003744465</v>
       </c>
       <c r="AB34" t="n">
-        <v>2.3362820338214405</v>
+        <v>2.2609567467620573</v>
       </c>
       <c r="AC34" t="n">
-        <v>2.3727970938753136</v>
+        <v>2.3051402931967244</v>
       </c>
       <c r="AD34" t="n">
-        <v>2.397488143556971</v>
+        <v>2.3376519033157086</v>
       </c>
       <c r="AE34" t="n">
-        <v>2.410299783002728</v>
+        <v>2.358007994388132</v>
       </c>
       <c r="AF34" t="n">
-        <v>2.4118315078132984</v>
+        <v>2.366274140685018</v>
       </c>
       <c r="AG34" t="n">
-        <v>2.403337709053809</v>
+        <v>2.3630650734793113</v>
       </c>
       <c r="AH34" t="n">
-        <v>2.386727673253796</v>
+        <v>2.349544681045862</v>
       </c>
       <c r="AI34" t="n">
-        <v>2.364565582407186</v>
+        <v>2.3274260086614103</v>
       </c>
       <c r="AJ34" t="n">
-        <v>2.340070513972311</v>
+        <v>2.2989712586046203</v>
       </c>
     </row>
     <row r="35">
@@ -37678,106 +37678,106 @@
         <v>5</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.0315691211107287</v>
+        <v>0.15235693939332196</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.0739318667771351</v>
+        <v>0.08197195746602526</v>
       </c>
       <c r="E38" t="n">
-        <v>-1.116269430562721</v>
+        <v>0.011612157419549796</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.1585680985645972</v>
+        <v>-0.0587087468432167</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.2007429867851889</v>
+        <v>-0.12890587132469822</v>
       </c>
       <c r="H38" t="n">
-        <v>-1.2424326060829944</v>
+        <v>-0.1986177268833938</v>
       </c>
       <c r="I38" t="n">
-        <v>-1.265887710206052</v>
+        <v>-0.2500950672673409</v>
       </c>
       <c r="J38" t="n">
-        <v>-1.288964346345696</v>
+        <v>-0.301193939667875</v>
       </c>
       <c r="K38" t="n">
-        <v>-1.3120548312935747</v>
+        <v>-0.352306660876644</v>
       </c>
       <c r="L38" t="n">
-        <v>-1.3351693619717508</v>
+        <v>-0.40344342781570985</v>
       </c>
       <c r="M38" t="n">
-        <v>-1.3583163570897057</v>
+        <v>-0.4546126591945546</v>
       </c>
       <c r="N38" t="n">
-        <v>-1.3815053600829592</v>
+        <v>-0.5058238984486985</v>
       </c>
       <c r="O38" t="n">
-        <v>-1.4047430155981946</v>
+        <v>-0.5570836627818367</v>
       </c>
       <c r="P38" t="n">
-        <v>-1.4281923628826947</v>
+        <v>-0.6084019882449038</v>
       </c>
       <c r="Q38" t="n">
-        <v>-1.4523905147937382</v>
+        <v>-0.6597886135627207</v>
       </c>
       <c r="R38" t="n">
-        <v>-1.4777639904776514</v>
+        <v>-0.7112502702265493</v>
       </c>
       <c r="S38" t="n">
-        <v>-1.5045357479687143</v>
+        <v>-0.7627934825267376</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.532729131560721</v>
+        <v>-0.814428514924288</v>
       </c>
       <c r="U38" t="n">
-        <v>-1.5621626814344238</v>
+        <v>-0.866164181678295</v>
       </c>
       <c r="V38" t="n">
-        <v>-1.592447964426684</v>
+        <v>-0.9181429693720804</v>
       </c>
       <c r="W38" t="n">
-        <v>-1.6230099073637267</v>
+        <v>-0.9715759643954287</v>
       </c>
       <c r="X38" t="n">
-        <v>-1.6541538542366174</v>
+        <v>-1.02869787664069</v>
       </c>
       <c r="Y38" t="n">
-        <v>-1.6965323018512517</v>
+        <v>-1.1014410931085854</v>
       </c>
       <c r="Z38" t="n">
-        <v>-1.7641420766663831</v>
+        <v>-1.204426160783799</v>
       </c>
       <c r="AA38" t="n">
-        <v>-1.8283584122322551</v>
+        <v>-1.3089958640736752</v>
       </c>
       <c r="AB38" t="n">
-        <v>-1.860619421853958</v>
+        <v>-1.3858996974714848</v>
       </c>
       <c r="AC38" t="n">
-        <v>-1.8844497397639137</v>
+        <v>-1.4573175067289597</v>
       </c>
       <c r="AD38" t="n">
-        <v>-1.8984140568394738</v>
+        <v>-1.519813024573962</v>
       </c>
       <c r="AE38" t="n">
-        <v>-1.9005489629976138</v>
+        <v>-1.5687657131050217</v>
       </c>
       <c r="AF38" t="n">
-        <v>-1.8879315069639644</v>
+        <v>-1.5979393235604846</v>
       </c>
       <c r="AG38" t="n">
-        <v>-1.8567037234201842</v>
+        <v>-1.5995064234658607</v>
       </c>
       <c r="AH38" t="n">
-        <v>-1.8052804509312446</v>
+        <v>-1.5672562145610844</v>
       </c>
       <c r="AI38" t="n">
-        <v>-1.731090297920384</v>
+        <v>-1.493335498775474</v>
       </c>
       <c r="AJ38" t="n">
-        <v>-1.6313587747214295</v>
+        <v>-1.3690318102801535</v>
       </c>
     </row>
     <row r="39">
@@ -37798,106 +37798,106 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.9733835613431948</v>
+        <v>0.19158146482093685</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.0084414517163016</v>
+        <v>0.12895290251832425</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.0434619830003378</v>
+        <v>0.06636169930478275</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.0784538609562453</v>
+        <v>0.0037991494193695408</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.113332394457391</v>
+        <v>-0.058650056011281704</v>
       </c>
       <c r="H41" t="n">
-        <v>-1.1477385967325118</v>
+        <v>-0.12062693021590815</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.1639273862952273</v>
+        <v>-0.16438639170812894</v>
       </c>
       <c r="J41" t="n">
-        <v>-1.1797552559213582</v>
+        <v>-0.20778493326376546</v>
       </c>
       <c r="K41" t="n">
-        <v>-1.1956162036494575</v>
+        <v>-0.25121655292137063</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.2115228971202223</v>
+        <v>-0.2946939183216408</v>
       </c>
       <c r="M41" t="n">
-        <v>-1.227486298264068</v>
+        <v>-0.33822799139499216</v>
       </c>
       <c r="N41" t="n">
-        <v>-1.243517204862245</v>
+        <v>-0.3818295699226748</v>
       </c>
       <c r="O41" t="n">
-        <v>-1.259624739415197</v>
+        <v>-0.4255076510158251</v>
       </c>
       <c r="P41" t="n">
-        <v>-1.275971530891969</v>
+        <v>-0.4692743260171756</v>
       </c>
       <c r="Q41" t="n">
-        <v>-1.2930870046037475</v>
+        <v>-0.5131401444760093</v>
       </c>
       <c r="R41" t="n">
-        <v>-1.3113942463650914</v>
+        <v>-0.5571151692200657</v>
       </c>
       <c r="S41" t="n">
-        <v>-1.3311151749134296</v>
+        <v>-0.601208372964448</v>
       </c>
       <c r="T41" t="n">
-        <v>-1.3522735511544797</v>
+        <v>-0.6454306475570494</v>
       </c>
       <c r="U41" t="n">
-        <v>-1.3746922343146035</v>
+        <v>-0.6897920601309039</v>
       </c>
       <c r="V41" t="n">
-        <v>-1.397993370420154</v>
+        <v>-0.7344371209524743</v>
       </c>
       <c r="W41" t="n">
-        <v>-1.421613947735082</v>
+        <v>-0.7805601947806529</v>
       </c>
       <c r="X41" t="n">
-        <v>-1.4458751720500316</v>
+        <v>-0.8303807625401984</v>
       </c>
       <c r="Y41" t="n">
-        <v>-1.4815992257662325</v>
+        <v>-0.8959802720363843</v>
       </c>
       <c r="Z41" t="n">
-        <v>-1.543098493715683</v>
+        <v>-0.992284777682612</v>
       </c>
       <c r="AA41" t="n">
-        <v>-1.6020089194052676</v>
+        <v>-1.0908982967445837</v>
       </c>
       <c r="AB41" t="n">
-        <v>-1.6300548869578702</v>
+        <v>-1.1628676912813356</v>
       </c>
       <c r="AC41" t="n">
-        <v>-1.650915837875623</v>
+        <v>-1.2305492849085278</v>
       </c>
       <c r="AD41" t="n">
-        <v>-1.6631863228593502</v>
+        <v>-1.2905689146179642</v>
       </c>
       <c r="AE41" t="n">
-        <v>-1.6648620874908313</v>
+        <v>-1.3383080164596994</v>
       </c>
       <c r="AF41" t="n">
-        <v>-1.6529453252911077</v>
+        <v>-1.3675088786004561</v>
       </c>
       <c r="AG41" t="n">
-        <v>-1.623440293605129</v>
+        <v>-1.3702702572082552</v>
       </c>
       <c r="AH41" t="n">
-        <v>-1.5745727882127014</v>
+        <v>-1.340266851063335</v>
       </c>
       <c r="AI41" t="n">
-        <v>-1.5035272221500495</v>
+        <v>-1.2694863803797167</v>
       </c>
       <c r="AJ41" t="n">
-        <v>-1.4072306330104214</v>
+        <v>-1.149013594105914</v>
       </c>
     </row>
     <row r="42">
@@ -37918,106 +37918,106 @@
         <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.9268351135291683</v>
+        <v>0.22296108516302826</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.9560491196676351</v>
+        <v>0.16653765856016317</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.9852160249504318</v>
+        <v>0.11016133281296858</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.0143624708695644</v>
+        <v>0.0538054664294379</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.0434039205951535</v>
+        <v>-0.0024454037605492474</v>
       </c>
       <c r="H44" t="n">
-        <v>-1.0719833892521264</v>
+        <v>-0.05823429288192039</v>
       </c>
       <c r="I44" t="n">
-        <v>-1.0823591271665685</v>
+        <v>-0.09581945126076011</v>
       </c>
       <c r="J44" t="n">
-        <v>-1.092387983581889</v>
+        <v>-0.13305772814047873</v>
       </c>
       <c r="K44" t="n">
-        <v>-1.102465301534165</v>
+        <v>-0.17034446655715296</v>
       </c>
       <c r="L44" t="n">
-        <v>-1.1126057252390007</v>
+        <v>-0.2076943107263866</v>
       </c>
       <c r="M44" t="n">
-        <v>-1.122822251203559</v>
+        <v>-0.24512025715534314</v>
       </c>
       <c r="N44" t="n">
-        <v>-1.1331266806856748</v>
+        <v>-0.28263410710185694</v>
       </c>
       <c r="O44" t="n">
-        <v>-1.1435301184687998</v>
+        <v>-0.320246841603017</v>
       </c>
       <c r="P44" t="n">
-        <v>-1.1541948652993899</v>
+        <v>-0.35797219623499454</v>
       </c>
       <c r="Q44" t="n">
-        <v>-1.165644196451756</v>
+        <v>-0.39582136920664157</v>
       </c>
       <c r="R44" t="n">
-        <v>-1.178298451075045</v>
+        <v>-0.4338070884148801</v>
       </c>
       <c r="S44" t="n">
-        <v>-1.1923787164692032</v>
+        <v>-0.4719402853146175</v>
       </c>
       <c r="T44" t="n">
-        <v>-1.207909086829488</v>
+        <v>-0.5102323536632598</v>
       </c>
       <c r="U44" t="n">
-        <v>-1.224715876618748</v>
+        <v>-0.5486943628929927</v>
       </c>
       <c r="V44" t="n">
-        <v>-1.2424296952149314</v>
+        <v>-0.5874724422167907</v>
       </c>
       <c r="W44" t="n">
-        <v>-1.260497180032168</v>
+        <v>-0.6277475790888336</v>
       </c>
       <c r="X44" t="n">
-        <v>-1.2792522263007646</v>
+        <v>-0.6717270712598065</v>
       </c>
       <c r="Y44" t="n">
-        <v>-1.3096527648982188</v>
+        <v>-0.7316116151786255</v>
       </c>
       <c r="Z44" t="n">
-        <v>-1.3662636273551247</v>
+        <v>-0.8225716712016642</v>
       </c>
       <c r="AA44" t="n">
-        <v>-1.4209293251436796</v>
+        <v>-0.9164202428813126</v>
       </c>
       <c r="AB44" t="n">
-        <v>-1.4456032590410022</v>
+        <v>-0.9844420863292183</v>
       </c>
       <c r="AC44" t="n">
-        <v>-1.4640887163649923</v>
+        <v>-1.049134707452184</v>
       </c>
       <c r="AD44" t="n">
-        <v>-1.475004135675253</v>
+        <v>-1.107173626653168</v>
       </c>
       <c r="AE44" t="n">
-        <v>-1.4763125870854077</v>
+        <v>-1.153941859143443</v>
       </c>
       <c r="AF44" t="n">
-        <v>-1.4649563799528242</v>
+        <v>-1.1831645226324352</v>
       </c>
       <c r="AG44" t="n">
-        <v>-1.4368295497530867</v>
+        <v>-1.1868813242021723</v>
       </c>
       <c r="AH44" t="n">
-        <v>-1.3900066580378694</v>
+        <v>-1.1586753602651376</v>
       </c>
       <c r="AI44" t="n">
-        <v>-1.3214767615337828</v>
+        <v>-1.090407085663112</v>
       </c>
       <c r="AJ44" t="n">
-        <v>-1.2279281196416167</v>
+        <v>-0.9729990211665245</v>
       </c>
     </row>
     <row r="45">
@@ -38043,106 +38043,106 @@
         <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6018851748598543</v>
+        <v>0.40322933381319764</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6732182744675197</v>
+        <v>0.4785995099634247</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7445513740751849</v>
+        <v>0.5539696861136516</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8158844736828503</v>
+        <v>0.6293398622638787</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8872175732905156</v>
+        <v>0.7047100384141057</v>
       </c>
       <c r="H48" t="n">
-        <v>0.958550672898181</v>
+        <v>0.7800802145643327</v>
       </c>
       <c r="I48" t="n">
-        <v>1.0298837725058463</v>
+        <v>0.8554503907145599</v>
       </c>
       <c r="J48" t="n">
-        <v>1.1012168721135116</v>
+        <v>0.9308205668647869</v>
       </c>
       <c r="K48" t="n">
-        <v>1.1725499717211771</v>
+        <v>1.0061907430150139</v>
       </c>
       <c r="L48" t="n">
-        <v>1.2438830713288425</v>
+        <v>1.0815609191652409</v>
       </c>
       <c r="M48" t="n">
-        <v>1.315216170936508</v>
+        <v>1.1569310953154681</v>
       </c>
       <c r="N48" t="n">
-        <v>1.386549270544173</v>
+        <v>1.2323012714656951</v>
       </c>
       <c r="O48" t="n">
-        <v>1.4578823701518384</v>
+        <v>1.307671447615922</v>
       </c>
       <c r="P48" t="n">
-        <v>1.5292183892184417</v>
+        <v>1.383041623766149</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.6006164196022907</v>
+        <v>1.4584117999163762</v>
       </c>
       <c r="R48" t="n">
-        <v>1.6721667939020706</v>
+        <v>1.5337819760666034</v>
       </c>
       <c r="S48" t="n">
-        <v>1.7439258665131945</v>
+        <v>1.6091521522168304</v>
       </c>
       <c r="T48" t="n">
-        <v>1.8159135222871208</v>
+        <v>1.6845223283670572</v>
       </c>
       <c r="U48" t="n">
-        <v>1.888113176531352</v>
+        <v>1.759892513464941</v>
       </c>
       <c r="V48" t="n">
-        <v>1.960471775009434</v>
+        <v>1.8353214348550053</v>
       </c>
       <c r="W48" t="n">
-        <v>2.032899793940958</v>
+        <v>1.9110212166074383</v>
       </c>
       <c r="X48" t="n">
-        <v>2.105226283713487</v>
+        <v>1.987082528182125</v>
       </c>
       <c r="Y48" t="n">
-        <v>2.175749789780539</v>
+        <v>2.061974129518935</v>
       </c>
       <c r="Z48" t="n">
-        <v>2.241263092127711</v>
+        <v>2.1325676105038465</v>
       </c>
       <c r="AA48" t="n">
-        <v>2.299083085592492</v>
+        <v>2.196167271288762</v>
       </c>
       <c r="AB48" t="n">
-        <v>2.3471778603992104</v>
+        <v>2.250637202826447</v>
       </c>
       <c r="AC48" t="n">
-        <v>2.3841667021589945</v>
+        <v>2.2944012868705017</v>
       </c>
       <c r="AD48" t="n">
-        <v>2.409320091869834</v>
+        <v>2.3264431959754144</v>
       </c>
       <c r="AE48" t="n">
-        <v>2.4225597059165405</v>
+        <v>2.3463063934965263</v>
       </c>
       <c r="AF48" t="n">
-        <v>2.424458416070749</v>
+        <v>2.3540941335900296</v>
       </c>
       <c r="AG48" t="n">
-        <v>2.4162402894909416</v>
+        <v>2.3504694612129935</v>
       </c>
       <c r="AH48" t="n">
-        <v>2.3997805887224333</v>
+        <v>2.3366552121233495</v>
       </c>
       <c r="AI48" t="n">
-        <v>2.37760577169736</v>
+        <v>2.314434012879882</v>
       </c>
       <c r="AJ48" t="n">
-        <v>2.352893491734695</v>
+        <v>2.286148280842234</v>
       </c>
     </row>
     <row r="49">
@@ -38273,106 +38273,106 @@
         <v>5</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.0607769546117591</v>
+        <v>0.18342937480336374</v>
       </c>
       <c r="D52" t="n">
-        <v>-1.1046245951424662</v>
+        <v>0.11452928774036808</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.1484470537923528</v>
+        <v>0.04565438255819332</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.19223061665853</v>
+        <v>-0.023181626840272473</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.2358903997434223</v>
+        <v>-0.09189385645745324</v>
       </c>
       <c r="H52" t="n">
-        <v>-1.2790649139055286</v>
+        <v>-0.1601208171518479</v>
       </c>
       <c r="I52" t="n">
-        <v>-1.3040049128928866</v>
+        <v>-0.2101132626714942</v>
       </c>
       <c r="J52" t="n">
-        <v>-1.3285664438968317</v>
+        <v>-0.2597272402077275</v>
       </c>
       <c r="K52" t="n">
-        <v>-1.3531418237090116</v>
+        <v>-0.3093550665521958</v>
       </c>
       <c r="L52" t="n">
-        <v>-1.3777412492514882</v>
+        <v>-0.35900693862696076</v>
       </c>
       <c r="M52" t="n">
-        <v>-1.402373139233744</v>
+        <v>-0.4086912751415047</v>
       </c>
       <c r="N52" t="n">
-        <v>-1.4270470370912984</v>
+        <v>-0.45841761953134763</v>
       </c>
       <c r="O52" t="n">
-        <v>-1.4517694600278477</v>
+        <v>-0.5081924890001851</v>
       </c>
       <c r="P52" t="n">
-        <v>-1.4765685610629227</v>
+        <v>-0.5580259195989513</v>
       </c>
       <c r="Q52" t="n">
-        <v>-1.5018207788352897</v>
+        <v>-0.6079276500524674</v>
       </c>
       <c r="R52" t="n">
-        <v>-1.5280934120126868</v>
+        <v>-0.657904411851995</v>
       </c>
       <c r="S52" t="n">
-        <v>-1.5557426972238517</v>
+        <v>-0.7079627292878827</v>
       </c>
       <c r="T52" t="n">
-        <v>-1.5849022961883488</v>
+        <v>-0.7581128668211324</v>
       </c>
       <c r="U52" t="n">
-        <v>-1.6154781053440026</v>
+        <v>-0.8083636942363366</v>
       </c>
       <c r="V52" t="n">
-        <v>-1.6471460866160543</v>
+        <v>-0.8590848442502648</v>
       </c>
       <c r="W52" t="n">
-        <v>-1.6793726007504213</v>
+        <v>-0.9116145808459875</v>
       </c>
       <c r="X52" t="n">
-        <v>-1.712481464489162</v>
+        <v>-0.9679002217698374</v>
       </c>
       <c r="Y52" t="n">
-        <v>-1.7571206862204807</v>
+        <v>-1.0396460569229822</v>
       </c>
       <c r="Z52" t="n">
-        <v>-1.827259642816741</v>
+        <v>-1.1413105251994575</v>
       </c>
       <c r="AA52" t="n">
-        <v>-1.894223157073099</v>
+        <v>-1.244140291924785</v>
       </c>
       <c r="AB52" t="n">
-        <v>-1.9293759703708784</v>
+        <v>-1.3188547215193318</v>
       </c>
       <c r="AC52" t="n">
-        <v>-1.956146383850033</v>
+        <v>-1.3876695186708075</v>
       </c>
       <c r="AD52" t="n">
-        <v>-1.9729797941267533</v>
+        <v>-1.4472502640518417</v>
       </c>
       <c r="AE52" t="n">
-        <v>-1.9777705356881636</v>
+        <v>-1.493144256714706</v>
       </c>
       <c r="AF52" t="n">
-        <v>-1.9674304406613519</v>
+        <v>-1.5193490738603037</v>
       </c>
       <c r="AG52" t="n">
-        <v>-1.9379133659607404</v>
+        <v>-1.5183370979855937</v>
       </c>
       <c r="AH52" t="n">
-        <v>-1.887423011215371</v>
+        <v>-1.4842633348108265</v>
       </c>
       <c r="AI52" t="n">
-        <v>-1.813153884743854</v>
+        <v>-1.4097063792545448</v>
       </c>
       <c r="AJ52" t="n">
-        <v>-1.712074435606713</v>
+        <v>-1.286451547485846</v>
       </c>
     </row>
     <row r="53">
@@ -38393,106 +38393,106 @@
         <v>5</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.0021391199618517</v>
+        <v>0.22220162534860521</v>
       </c>
       <c r="D55" t="n">
-        <v>-1.0386579768606952</v>
+        <v>0.16103402957172952</v>
       </c>
       <c r="E55" t="n">
-        <v>-1.0751394746704679</v>
+        <v>0.09990379288392459</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.1115923191521122</v>
+        <v>0.038802209524247955</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.1479318191789947</v>
+        <v>-0.02218602938066655</v>
       </c>
       <c r="H55" t="n">
-        <v>-1.183798987979852</v>
+        <v>-0.0827019370595562</v>
       </c>
       <c r="I55" t="n">
-        <v>-1.201448744068304</v>
+        <v>-0.1250004320260403</v>
       </c>
       <c r="J55" t="n">
-        <v>-1.2187375802201719</v>
+        <v>-0.16693800705594025</v>
       </c>
       <c r="K55" t="n">
-        <v>-1.236059494474008</v>
+        <v>-0.20890866018780874</v>
       </c>
       <c r="L55" t="n">
-        <v>-1.2534271544705093</v>
+        <v>-0.25092505906234214</v>
       </c>
       <c r="M55" t="n">
-        <v>-1.270851522140092</v>
+        <v>-0.2929981656099568</v>
       </c>
       <c r="N55" t="n">
-        <v>-1.2883433952640053</v>
+        <v>-0.3351387776119026</v>
       </c>
       <c r="O55" t="n">
-        <v>-1.3059117709533872</v>
+        <v>-0.3773558921793163</v>
       </c>
       <c r="P55" t="n">
-        <v>-1.3235865655736723</v>
+        <v>-0.41966160065493</v>
       </c>
       <c r="Q55" t="n">
-        <v>-1.3417391194022579</v>
+        <v>-0.4620664525880269</v>
       </c>
       <c r="R55" t="n">
-        <v>-1.3609310291834913</v>
+        <v>-0.5045805108063465</v>
       </c>
       <c r="S55" t="n">
-        <v>-1.3815153445313246</v>
+        <v>-0.5472127480249922</v>
       </c>
       <c r="T55" t="n">
-        <v>-1.4036243660670669</v>
+        <v>-0.589974056091857</v>
       </c>
       <c r="U55" t="n">
-        <v>-1.427166901571732</v>
+        <v>-0.6328745567707073</v>
       </c>
       <c r="V55" t="n">
-        <v>-1.4518284544653903</v>
+        <v>-0.6762822461150437</v>
       </c>
       <c r="W55" t="n">
-        <v>-1.4770867792447768</v>
+        <v>-0.7215166170736951</v>
       </c>
       <c r="X55" t="n">
-        <v>-1.5032812567723806</v>
+        <v>-0.7705143896061919</v>
       </c>
       <c r="Y55" t="n">
-        <v>-1.5412296533603458</v>
+        <v>-0.8351325900890079</v>
       </c>
       <c r="Z55" t="n">
-        <v>-1.6052173465906476</v>
+        <v>-0.9301377771357509</v>
       </c>
       <c r="AA55" t="n">
-        <v>-1.6668306815592049</v>
+        <v>-1.0270393978412644</v>
       </c>
       <c r="AB55" t="n">
-        <v>-1.6977218528170135</v>
+        <v>-1.0968546697227435</v>
       </c>
       <c r="AC55" t="n">
-        <v>-1.7214755211333737</v>
+        <v>-1.161975197482998</v>
       </c>
       <c r="AD55" t="n">
-        <v>-1.7365688653153428</v>
+        <v>-1.2191270248298733</v>
       </c>
       <c r="AE55" t="n">
-        <v>-1.7408576678900003</v>
+        <v>-1.2638567201585436</v>
       </c>
       <c r="AF55" t="n">
-        <v>-1.73118156816275</v>
+        <v>-1.290136629609774</v>
       </c>
       <c r="AG55" t="n">
-        <v>-1.7033596781019713</v>
+        <v>-1.2903604929546204</v>
       </c>
       <c r="AH55" t="n">
-        <v>-1.6554100569499643</v>
+        <v>-1.2585629182053282</v>
       </c>
       <c r="AI55" t="n">
-        <v>-1.584286790044502</v>
+        <v>-1.1871564604369405</v>
       </c>
       <c r="AJ55" t="n">
-        <v>-1.4866639961194659</v>
+        <v>-1.067715629087845</v>
       </c>
     </row>
     <row r="56">
@@ -38513,106 +38513,106 @@
         <v>5</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.9552288522419263</v>
+        <v>0.25321942578479806</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.9858846822352789</v>
+        <v>0.19823782303681842</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.0164934113729607</v>
+        <v>0.14330332114450917</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.0470816811469787</v>
+        <v>0.08838927861586388</v>
       </c>
       <c r="G58" t="n">
-        <v>-1.0775649547274533</v>
+        <v>0.03358023228076207</v>
       </c>
       <c r="H58" t="n">
-        <v>-1.1075862472393116</v>
+        <v>-0.020766832985723627</v>
       </c>
       <c r="I58" t="n">
-        <v>-1.119403809008639</v>
+        <v>-0.056910167509678006</v>
       </c>
       <c r="J58" t="n">
-        <v>-1.130874489278845</v>
+        <v>-0.09270662053451126</v>
       </c>
       <c r="K58" t="n">
-        <v>-1.1423936310860063</v>
+        <v>-0.1285515350963001</v>
       </c>
       <c r="L58" t="n">
-        <v>-1.1539758786457273</v>
+        <v>-0.16445955541064824</v>
       </c>
       <c r="M58" t="n">
-        <v>-1.1656342284651713</v>
+        <v>-0.20044367798471946</v>
       </c>
       <c r="N58" t="n">
-        <v>-1.1773804818021723</v>
+        <v>-0.2365157040763477</v>
       </c>
       <c r="O58" t="n">
-        <v>-1.1892256196938198</v>
+        <v>-0.2726866147226224</v>
       </c>
       <c r="P58" t="n">
-        <v>-1.201200969182273</v>
+        <v>-0.3089701454997144</v>
       </c>
       <c r="Q58" t="n">
-        <v>-1.2136737918558334</v>
+        <v>-0.34537749461647593</v>
       </c>
       <c r="R58" t="n">
-        <v>-1.2272011229201363</v>
+        <v>-0.3819213899698289</v>
       </c>
       <c r="S58" t="n">
-        <v>-1.2421334623773048</v>
+        <v>-0.4186127630146812</v>
       </c>
       <c r="T58" t="n">
-        <v>-1.258602021970043</v>
+        <v>-0.45546300750843816</v>
       </c>
       <c r="U58" t="n">
-        <v>-1.276517938553917</v>
+        <v>-0.49248324679820543</v>
       </c>
       <c r="V58" t="n">
-        <v>-1.2955743487448605</v>
+        <v>-0.5300401676068685</v>
       </c>
       <c r="W58" t="n">
-        <v>-1.3152581220402633</v>
+        <v>-0.5694382460558629</v>
       </c>
       <c r="X58" t="n">
-        <v>-1.3359210905989567</v>
+        <v>-0.6126057238752773</v>
       </c>
       <c r="Y58" t="n">
-        <v>-1.3685168270722396</v>
+        <v>-0.6715218166218303</v>
       </c>
       <c r="Z58" t="n">
-        <v>-1.4275835096097753</v>
+        <v>-0.7611995786847874</v>
       </c>
       <c r="AA58" t="n">
-        <v>-1.4849167011480915</v>
+        <v>-0.8533586825744495</v>
       </c>
       <c r="AB58" t="n">
-        <v>-1.5123985587739237</v>
+        <v>-0.919254628285475</v>
       </c>
       <c r="AC58" t="n">
-        <v>-1.5337388309600486</v>
+        <v>-0.9814197405327518</v>
       </c>
       <c r="AD58" t="n">
-        <v>-1.5474401222662166</v>
+        <v>-1.0366284334523004</v>
       </c>
       <c r="AE58" t="n">
-        <v>-1.5513273736514714</v>
+        <v>-1.080426690913616</v>
       </c>
       <c r="AF58" t="n">
-        <v>-1.5421824701638704</v>
+        <v>-1.1067666742093523</v>
       </c>
       <c r="AG58" t="n">
-        <v>-1.515716727814959</v>
+        <v>-1.107979208929843</v>
       </c>
       <c r="AH58" t="n">
-        <v>-1.4697996935376405</v>
+        <v>-1.078002584920932</v>
       </c>
       <c r="AI58" t="n">
-        <v>-1.4011931142850216</v>
+        <v>-1.0091165253828587</v>
       </c>
       <c r="AJ58" t="n">
-        <v>-1.3063356445296703</v>
+        <v>-0.8927268943694464</v>
       </c>
     </row>
     <row r="59">
@@ -38638,106 +38638,106 @@
         <v>5</v>
       </c>
       <c r="C62" t="n">
-        <v>0.608430732305578</v>
+        <v>0.396683776367474</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6799788284204386</v>
+        <v>0.4718389560105058</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7515269245352991</v>
+        <v>0.5469941356535375</v>
       </c>
       <c r="F62" t="n">
-        <v>0.8230750206501598</v>
+        <v>0.6221493152965694</v>
       </c>
       <c r="G62" t="n">
-        <v>0.8946231167650203</v>
+        <v>0.697304494939601</v>
       </c>
       <c r="H62" t="n">
-        <v>0.966171212879881</v>
+        <v>0.7724596745826329</v>
       </c>
       <c r="I62" t="n">
-        <v>1.0377193089947416</v>
+        <v>0.8476148542256647</v>
       </c>
       <c r="J62" t="n">
-        <v>1.109267405109602</v>
+        <v>0.9227700338686965</v>
       </c>
       <c r="K62" t="n">
-        <v>1.1808155012244628</v>
+        <v>0.9979252135117282</v>
       </c>
       <c r="L62" t="n">
-        <v>1.2523635973393232</v>
+        <v>1.0730803931547601</v>
       </c>
       <c r="M62" t="n">
-        <v>1.3239116934541841</v>
+        <v>1.148235572797792</v>
       </c>
       <c r="N62" t="n">
-        <v>1.3954597895690446</v>
+        <v>1.2233907524408236</v>
       </c>
       <c r="O62" t="n">
-        <v>1.467007885683905</v>
+        <v>1.2985459320838555</v>
       </c>
       <c r="P62" t="n">
-        <v>1.5385559817987655</v>
+        <v>1.3737011117268871</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.6101242394433142</v>
+        <v>1.448856291369919</v>
       </c>
       <c r="R62" t="n">
-        <v>1.6818065268884057</v>
+        <v>1.524011471012951</v>
       </c>
       <c r="S62" t="n">
-        <v>1.7536832722325457</v>
+        <v>1.5991666506559827</v>
       </c>
       <c r="T62" t="n">
-        <v>1.825794568414413</v>
+        <v>1.6743218302990146</v>
       </c>
       <c r="U62" t="n">
-        <v>1.898140172889136</v>
+        <v>1.7494797642034439</v>
       </c>
       <c r="V62" t="n">
-        <v>1.9706795076282915</v>
+        <v>1.8247522663206335</v>
       </c>
       <c r="W62" t="n">
-        <v>2.043331659119905</v>
+        <v>1.9003378507706106</v>
       </c>
       <c r="X62" t="n">
-        <v>2.11593042208038</v>
+        <v>1.976285252963975</v>
       </c>
       <c r="Y62" t="n">
-        <v>2.186775220352479</v>
+        <v>2.0510309906668724</v>
       </c>
       <c r="Z62" t="n">
-        <v>2.252655846371447</v>
+        <v>2.1214241034671164</v>
       </c>
       <c r="AA62" t="n">
-        <v>2.310882341484829</v>
+        <v>2.1847560330940037</v>
       </c>
       <c r="AB62" t="n">
-        <v>2.3594120764874105</v>
+        <v>2.238887703953261</v>
       </c>
       <c r="AC62" t="n">
-        <v>2.3968497516211835</v>
+        <v>2.2822495231270024</v>
       </c>
       <c r="AD62" t="n">
-        <v>2.422447396575406</v>
+        <v>2.313841380373798</v>
       </c>
       <c r="AE62" t="n">
-        <v>2.4361043704865626</v>
+        <v>2.3332326481286265</v>
       </c>
       <c r="AF62" t="n">
-        <v>2.438367361938366</v>
+        <v>2.3405621815028814</v>
       </c>
       <c r="AG62" t="n">
-        <v>2.430430388961779</v>
+        <v>2.336538318284391</v>
       </c>
       <c r="AH62" t="n">
-        <v>2.414134799035005</v>
+        <v>2.322438878937414</v>
       </c>
       <c r="AI62" t="n">
-        <v>2.3919692690834724</v>
+        <v>2.3001111666026155</v>
       </c>
       <c r="AJ62" t="n">
-        <v>2.367069805479848</v>
+        <v>2.2719719670970795</v>
       </c>
     </row>
     <row r="63">
@@ -38868,106 +38868,106 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>-1.1023860737899</v>
+        <v>0.2274377979085419</v>
       </c>
       <c r="D66" t="n">
-        <v>-1.1475678947465549</v>
+        <v>0.1598718912714936</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.192724533822389</v>
+        <v>0.09233116651526618</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.2378422771145137</v>
+        <v>0.024829337542748076</v>
       </c>
       <c r="G66" t="n">
-        <v>-1.2828362406253535</v>
+        <v>-0.042548711648485116</v>
       </c>
       <c r="H66" t="n">
-        <v>-1.3273449352134072</v>
+        <v>-0.10944149191693242</v>
       </c>
       <c r="I66" t="n">
-        <v>-1.3536191146267127</v>
+        <v>-0.15809975701063123</v>
       </c>
       <c r="J66" t="n">
-        <v>-1.3795148260566052</v>
+        <v>-0.20637955412091705</v>
       </c>
       <c r="K66" t="n">
-        <v>-1.4054243862947327</v>
+        <v>-0.25467320003943783</v>
       </c>
       <c r="L66" t="n">
-        <v>-1.4313579922631567</v>
+        <v>-0.30299089168825544</v>
       </c>
       <c r="M66" t="n">
-        <v>-1.45732406267136</v>
+        <v>-0.3513410477768519</v>
       </c>
       <c r="N66" t="n">
-        <v>-1.4833321409548619</v>
+        <v>-0.39973321174074733</v>
       </c>
       <c r="O66" t="n">
-        <v>-1.5093887443173586</v>
+        <v>-0.4481739007836373</v>
       </c>
       <c r="P66" t="n">
-        <v>-1.535503908809784</v>
+        <v>-0.49667315095645603</v>
       </c>
       <c r="Q66" t="n">
-        <v>-1.5618124873674994</v>
+        <v>-0.5452407009840248</v>
       </c>
       <c r="R66" t="n">
-        <v>-1.5889037195942308</v>
+        <v>-0.5938832823576048</v>
       </c>
       <c r="S66" t="n">
-        <v>-1.6172832336779754</v>
+        <v>-0.6426074193675452</v>
       </c>
       <c r="T66" t="n">
-        <v>-1.6472100944658523</v>
+        <v>-0.6914233764748474</v>
       </c>
       <c r="U66" t="n">
-        <v>-1.678691611082643</v>
+        <v>-0.7403570597588052</v>
       </c>
       <c r="V66" t="n">
-        <v>-1.711481167699935</v>
+        <v>-0.7901075357146605</v>
       </c>
       <c r="W66" t="n">
-        <v>-1.745098556869391</v>
+        <v>-0.8419286105389894</v>
       </c>
       <c r="X66" t="n">
-        <v>-1.77989703669821</v>
+        <v>-0.8975073764122876</v>
       </c>
       <c r="Y66" t="n">
-        <v>-1.826530066499133</v>
+        <v>-0.9683480414872663</v>
       </c>
       <c r="Z66" t="n">
-        <v>-1.8989484836284563</v>
+        <v>-1.0687691067268563</v>
       </c>
       <c r="AA66" t="n">
-        <v>-1.9684345809246684</v>
+        <v>-1.1699374433428429</v>
       </c>
       <c r="AB66" t="n">
-        <v>-2.0062865793718125</v>
+        <v>-1.2425527654592563</v>
       </c>
       <c r="AC66" t="n">
-        <v>-2.0358422692719653</v>
+        <v>-1.3088712712847936</v>
       </c>
       <c r="AD66" t="n">
-        <v>-2.055432545962837</v>
+        <v>-1.3656591788304868</v>
       </c>
       <c r="AE66" t="n">
-        <v>-2.0628132522124636</v>
+        <v>-1.4086245683043446</v>
       </c>
       <c r="AF66" t="n">
-        <v>-2.054733737988241</v>
+        <v>-1.4319859418803982</v>
       </c>
       <c r="AG66" t="n">
-        <v>-2.0269613876042976</v>
+        <v>-1.4284967508460844</v>
       </c>
       <c r="AH66" t="n">
-        <v>-1.9774894376487713</v>
+        <v>-1.3926532135295502</v>
       </c>
       <c r="AI66" t="n">
-        <v>-1.9032779429587832</v>
+        <v>-1.3174352812745553</v>
       </c>
       <c r="AJ66" t="n">
-        <v>-1.8010369086727314</v>
+        <v>-1.195089770492779</v>
       </c>
     </row>
     <row r="67">
@@ -38988,106 +38988,106 @@
         <v>5</v>
       </c>
       <c r="C69" t="n">
-        <v>-1.0430936833954205</v>
+        <v>0.26555549270921086</v>
       </c>
       <c r="D69" t="n">
-        <v>-1.080925221069492</v>
+        <v>0.20570057770756311</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.1187193996544926</v>
+        <v>0.14588302179498613</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.1564849249113651</v>
+        <v>0.08609411921053767</v>
       </c>
       <c r="G69" t="n">
-        <v>-1.1941371057134753</v>
+        <v>0.026418561080851055</v>
       </c>
       <c r="H69" t="n">
-        <v>-1.2313169552895606</v>
+        <v>-0.0327846658228107</v>
       </c>
       <c r="I69" t="n">
-        <v>-1.2502793921532405</v>
+        <v>-0.07377048001406683</v>
       </c>
       <c r="J69" t="n">
-        <v>-1.2688809090803361</v>
+        <v>-0.1143953742687388</v>
       </c>
       <c r="K69" t="n">
-        <v>-1.2875155041094006</v>
+        <v>-0.15505334662537934</v>
       </c>
       <c r="L69" t="n">
-        <v>-1.30619584488113</v>
+        <v>-0.19575706472468493</v>
       </c>
       <c r="M69" t="n">
-        <v>-1.3249328933259403</v>
+        <v>-0.23651749049707155</v>
       </c>
       <c r="N69" t="n">
-        <v>-1.3437374472250818</v>
+        <v>-0.27734542172378945</v>
       </c>
       <c r="O69" t="n">
-        <v>-1.3626185036896914</v>
+        <v>-0.31824985551597507</v>
       </c>
       <c r="P69" t="n">
-        <v>-1.381588154062501</v>
+        <v>-0.35924288321636105</v>
       </c>
       <c r="Q69" t="n">
-        <v>-1.4007800459503652</v>
+        <v>-0.4003350543742301</v>
       </c>
       <c r="R69" t="n">
-        <v>-1.4207773634664016</v>
+        <v>-0.4415364318173216</v>
       </c>
       <c r="S69" t="n">
-        <v>-1.442080140413513</v>
+        <v>-0.48285598826073944</v>
       </c>
       <c r="T69" t="n">
-        <v>-1.4649440597318413</v>
+        <v>-0.5243046155523763</v>
       </c>
       <c r="U69" t="n">
-        <v>-1.489377707674594</v>
+        <v>-0.5659091972193254</v>
       </c>
       <c r="V69" t="n">
-        <v>-1.5151427622873852</v>
+        <v>-0.6083618544328766</v>
       </c>
       <c r="W69" t="n">
-        <v>-1.5417695488458518</v>
+        <v>-0.65289898335038</v>
       </c>
       <c r="X69" t="n">
-        <v>-1.5696264151447392</v>
+        <v>-0.7012012717704572</v>
       </c>
       <c r="Y69" t="n">
-        <v>-1.6095364905818044</v>
+        <v>-0.7649288885384982</v>
       </c>
       <c r="Z69" t="n">
-        <v>-1.6757669119779899</v>
+        <v>-0.8587107093668229</v>
       </c>
       <c r="AA69" t="n">
-        <v>-1.7398621798215401</v>
+        <v>-0.9539776730787979</v>
       </c>
       <c r="AB69" t="n">
-        <v>-1.773409040209128</v>
+        <v>-1.0217276635499866</v>
       </c>
       <c r="AC69" t="n">
-        <v>-1.7999031016090878</v>
+        <v>-1.084392126471334</v>
       </c>
       <c r="AD69" t="n">
-        <v>-1.817708886680869</v>
+        <v>-1.1387961211686803</v>
       </c>
       <c r="AE69" t="n">
-        <v>-1.8245459179572978</v>
+        <v>-1.1806444062849721</v>
       </c>
       <c r="AF69" t="n">
-        <v>-1.8170939709028775</v>
+        <v>-1.2041266928385834</v>
       </c>
       <c r="AG69" t="n">
-        <v>-1.790988689798445</v>
+        <v>-1.201913260107971</v>
       </c>
       <c r="AH69" t="n">
-        <v>-1.7440410623521079</v>
+        <v>-1.168374430242646</v>
       </c>
       <c r="AI69" t="n">
-        <v>-1.6729744985208193</v>
+        <v>-1.0963176470846774</v>
       </c>
       <c r="AJ69" t="n">
-        <v>-1.5742088378109693</v>
+        <v>-0.9777714834692939</v>
       </c>
     </row>
     <row r="70">
@@ -39108,106 +39108,106 @@
         <v>5</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.9956597710798374</v>
+        <v>0.2960496485497457</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.027611082127842</v>
+        <v>0.24236352685641854</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.0595152923201763</v>
+        <v>0.18872450601876156</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.0913990431488467</v>
+        <v>0.13510594454476865</v>
       </c>
       <c r="G72" t="n">
-        <v>-1.1231777977839734</v>
+        <v>0.08159237926431928</v>
       </c>
       <c r="H72" t="n">
-        <v>-1.1544945713504842</v>
+        <v>0.028540795052485857</v>
       </c>
       <c r="I72" t="n">
-        <v>-1.1676076141744638</v>
+        <v>-0.006307058416816169</v>
       </c>
       <c r="J72" t="n">
-        <v>-1.180373775499322</v>
+        <v>-0.04080803038699707</v>
       </c>
       <c r="K72" t="n">
-        <v>-1.1931883983611362</v>
+        <v>-0.07535746389413354</v>
       </c>
       <c r="L72" t="n">
-        <v>-1.2060661269755095</v>
+        <v>-0.1099700031538295</v>
       </c>
       <c r="M72" t="n">
-        <v>-1.2190199578496055</v>
+        <v>-0.14465864467324827</v>
       </c>
       <c r="N72" t="n">
-        <v>-1.232061692241259</v>
+        <v>-0.1794351897102242</v>
       </c>
       <c r="O72" t="n">
-        <v>-1.245202311187559</v>
+        <v>-0.2143106193018465</v>
       </c>
       <c r="P72" t="n">
-        <v>-1.2584555502646757</v>
+        <v>-0.24929866902428624</v>
       </c>
       <c r="Q72" t="n">
-        <v>-1.271954092816659</v>
+        <v>-0.28441053708639563</v>
       </c>
       <c r="R72" t="n">
-        <v>-1.28627627856414</v>
+        <v>-0.31965895138509626</v>
       </c>
       <c r="S72" t="n">
-        <v>-1.3019176658019451</v>
+        <v>-0.35505484337529625</v>
       </c>
       <c r="T72" t="n">
-        <v>-1.3191312319446338</v>
+        <v>-0.3906096068144008</v>
       </c>
       <c r="U72" t="n">
-        <v>-1.3379265849481565</v>
+        <v>-0.4263509071877434</v>
       </c>
       <c r="V72" t="n">
-        <v>-1.3580720379573472</v>
+        <v>-0.46296530940745123</v>
       </c>
       <c r="W72" t="n">
-        <v>-1.379106342427022</v>
+        <v>-0.5016752815994939</v>
       </c>
       <c r="X72" t="n">
-        <v>-1.4014099179019641</v>
+        <v>-0.5441563880569946</v>
       </c>
       <c r="Y72" t="n">
-        <v>-1.4359416298479428</v>
+        <v>-0.6021935661794854</v>
       </c>
       <c r="Z72" t="n">
-        <v>-1.4972216546576183</v>
+        <v>-0.690663991478798</v>
       </c>
       <c r="AA72" t="n">
-        <v>-1.5570042589390398</v>
+        <v>-0.7812098568675636</v>
       </c>
       <c r="AB72" t="n">
-        <v>-1.5871070088789825</v>
+        <v>-0.8450675820225728</v>
       </c>
       <c r="AC72" t="n">
-        <v>-1.6111517674787874</v>
+        <v>-0.9048088106205683</v>
       </c>
       <c r="AD72" t="n">
-        <v>-1.627529959255297</v>
+        <v>-0.957305675039237</v>
       </c>
       <c r="AE72" t="n">
-        <v>-1.6339320505531674</v>
+        <v>-0.9982602766694764</v>
       </c>
       <c r="AF72" t="n">
-        <v>-1.6269821572345884</v>
+        <v>-1.0218392936051335</v>
       </c>
       <c r="AG72" t="n">
-        <v>-1.6022105315537651</v>
+        <v>-1.020646467517482</v>
       </c>
       <c r="AH72" t="n">
-        <v>-1.557282362114779</v>
+        <v>-0.9889514036131242</v>
       </c>
       <c r="AI72" t="n">
-        <v>-1.4887317429704505</v>
+        <v>-0.9194235397327769</v>
       </c>
       <c r="AJ72" t="n">
-        <v>-1.3927463811215617</v>
+        <v>-0.8039168538505073</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
@@ -13,12 +13,13 @@
     <sheet name="NACELLE" r:id="rId7" sheetId="5"/>
     <sheet name="DOWNWASH" r:id="rId8" sheetId="6"/>
     <sheet name="TOTAL AIRCRAFT CURVES" r:id="rId9" sheetId="7"/>
+    <sheet name="DIRECTIONAL STABILITY AND CONTR" r:id="rId10" sheetId="8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="181">
   <si>
     <t>Description</t>
   </si>
@@ -505,6 +506,63 @@
   <si>
     <t>Delta elevator = -25.0 deg</t>
   </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>CN_beta_vertical_tail</t>
+  </si>
+  <si>
+    <t>CN_beta_fuselage</t>
+  </si>
+  <si>
+    <t>CN_beta_wing</t>
+  </si>
+  <si>
+    <t>CN_beta_total</t>
+  </si>
+  <si>
+    <t>Delta_rudder</t>
+  </si>
+  <si>
+    <t>CN_delta_rudder</t>
+  </si>
+  <si>
+    <t>CN_vertical_tail</t>
+  </si>
+  <si>
+    <t>CN_fuselage</t>
+  </si>
+  <si>
+    <t>CN_wing</t>
+  </si>
+  <si>
+    <t>CN_total</t>
+  </si>
+  <si>
+    <t>CN at delta rudder = 5.0 deg</t>
+  </si>
+  <si>
+    <t>CN at delta rudder = 10.0 deg</t>
+  </si>
+  <si>
+    <t>CN at delta rudder = 15.0 deg</t>
+  </si>
+  <si>
+    <t>CN at delta rudder = 20.0 deg</t>
+  </si>
+  <si>
+    <t>CN at delta rudder = 25.0 deg</t>
+  </si>
+  <si>
+    <t>CN at delta rudder = 30.0 deg</t>
+  </si>
+  <si>
+    <t>Delta_rudder equilibrium</t>
+  </si>
+  <si>
+    <t>Beta equilibrium</t>
+  </si>
 </sst>
 </file>
 
@@ -29500,64 +29558,64 @@
         <v>0.011007597408821538</v>
       </c>
       <c r="D81" t="n">
-        <v>0.011015731698129591</v>
+        <v>0.011017022773986567</v>
       </c>
       <c r="E81" t="n">
-        <v>0.011154399378565964</v>
+        <v>0.011159261219854647</v>
       </c>
       <c r="F81" t="n">
-        <v>0.01150040639891804</v>
+        <v>0.011505661788542215</v>
       </c>
       <c r="G81" t="n">
-        <v>0.012059267315869154</v>
+        <v>0.012064981084259662</v>
       </c>
       <c r="H81" t="n">
-        <v>0.012839404966177014</v>
+        <v>0.01284222550221249</v>
       </c>
       <c r="I81" t="n">
-        <v>0.013828249500477124</v>
+        <v>0.013831003578775319</v>
       </c>
       <c r="J81" t="n">
-        <v>0.015028309416408729</v>
+        <v>0.015035902318708884</v>
       </c>
       <c r="K81" t="n">
-        <v>0.016452191835980186</v>
+        <v>0.01645505415151008</v>
       </c>
       <c r="L81" t="n">
-        <v>0.018082838489673413</v>
+        <v>0.018087444646450544</v>
       </c>
       <c r="M81" t="n">
-        <v>0.019283108181153544</v>
+        <v>0.019928420294453172</v>
       </c>
       <c r="N81" t="n">
-        <v>0.019283108181153544</v>
+        <v>0.021934310003395095</v>
       </c>
       <c r="O81" t="n">
-        <v>0.019283108181153544</v>
+        <v>0.02334187864464306</v>
       </c>
       <c r="P81" t="n">
-        <v>0.019283108181153544</v>
+        <v>0.023807684433231543</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.019283108181153544</v>
+        <v>0.023959588853304098</v>
       </c>
       <c r="R81" t="n">
-        <v>0.019283108181153544</v>
+        <v>0.023967444025072976</v>
       </c>
       <c r="S81" t="n">
-        <v>0.019283108181153544</v>
+        <v>0.023967444025072976</v>
       </c>
       <c r="T81" t="n">
-        <v>0.019283108181153544</v>
+        <v>0.023967444025072976</v>
       </c>
       <c r="U81" t="n">
-        <v>0.019283108181153544</v>
+        <v>0.023967444025072976</v>
       </c>
       <c r="V81" t="n">
-        <v>0.019283108181153544</v>
+        <v>0.023967444025072976</v>
       </c>
       <c r="W81" t="n">
-        <v>0.019283108181153544</v>
+        <v>0.023967444025072976</v>
       </c>
     </row>
     <row r="82">
@@ -31208,10 +31266,10 @@
         <v>27</v>
       </c>
       <c r="C104" t="n">
-        <v>0.013596208836594853</v>
+        <v>0.013596208836594851</v>
       </c>
       <c r="D104" t="n">
-        <v>0.013485145001809183</v>
+        <v>0.013485145001809182</v>
       </c>
       <c r="E104" t="n">
         <v>0.01363129212114177</v>
@@ -31229,22 +31287,22 @@
         <v>0.014227636109321259</v>
       </c>
       <c r="J104" t="n">
-        <v>0.014367643336882738</v>
+        <v>0.014367643336882736</v>
       </c>
       <c r="K104" t="n">
         <v>0.014502983912238665</v>
       </c>
       <c r="L104" t="n">
-        <v>0.014633484847251941</v>
+        <v>0.014633484847251937</v>
       </c>
       <c r="M104" t="n">
-        <v>0.014759012619513697</v>
+        <v>0.014759012619513696</v>
       </c>
       <c r="N104" t="n">
-        <v>0.01487944639096655</v>
+        <v>0.014879446390966547</v>
       </c>
       <c r="O104" t="n">
-        <v>0.014994662606401874</v>
+        <v>0.01499466260640187</v>
       </c>
       <c r="P104" t="n">
         <v>0.015104525348421946</v>
@@ -31253,7 +31311,7 @@
         <v>0.01520887973786745</v>
       </c>
       <c r="R104" t="n">
-        <v>0.015307546980940116</v>
+        <v>0.015307546980940112</v>
       </c>
       <c r="S104" t="n">
         <v>0.015400320314003568</v>
@@ -31268,7 +31326,7 @@
         <v>0.01564071834736842</v>
       </c>
       <c r="W104" t="n">
-        <v>0.015707175695623358</v>
+        <v>0.015707175695623354</v>
       </c>
       <c r="X104" t="n">
         <v>0.015766186354803202</v>
@@ -31316,22 +31374,22 @@
         <v>0.015334209225744175</v>
       </c>
       <c r="AM104" t="n">
-        <v>0.015155063453199223</v>
+        <v>0.015155063453199221</v>
       </c>
       <c r="AN104" t="n">
-        <v>0.014942341645077212</v>
+        <v>0.014942341645077208</v>
       </c>
       <c r="AO104" t="n">
         <v>0.01469151126797583</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.014397273598008442</v>
+        <v>0.014397273598008438</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.014053456217698204</v>
+        <v>0.0140534562176982</v>
       </c>
       <c r="AR104" t="n">
-        <v>0.013652960723107281</v>
+        <v>0.013652960723107278</v>
       </c>
       <c r="AS104" t="n">
         <v>0.013187910536543465</v>
@@ -31340,7 +31398,7 @@
         <v>0.012650427628130963</v>
       </c>
       <c r="AU104" t="n">
-        <v>0.012035418320593209</v>
+        <v>0.012035418320593207</v>
       </c>
       <c r="AV104" t="n">
         <v>0.011350497251769962</v>
@@ -31352,7 +31410,7 @@
         <v>0.010305469374006875</v>
       </c>
       <c r="AY104" t="n">
-        <v>0.014297771983940829</v>
+        <v>0.01429777198394083</v>
       </c>
       <c r="AZ104" t="n">
         <v>-0.0</v>
@@ -31369,7 +31427,7 @@
         <v>0.020006714915183643</v>
       </c>
       <c r="D105" t="n">
-        <v>0.01990417351442452</v>
+        <v>0.019904173514424518</v>
       </c>
       <c r="E105" t="n">
         <v>0.020067295743449426</v>
@@ -31393,16 +31451,16 @@
         <v>0.021045536352149757</v>
       </c>
       <c r="L105" t="n">
-        <v>0.0211944566066367</v>
+        <v>0.021194456606636696</v>
       </c>
       <c r="M105" t="n">
         <v>0.021337826107961387</v>
       </c>
       <c r="N105" t="n">
-        <v>0.02147547943541421</v>
+        <v>0.021475479435414207</v>
       </c>
       <c r="O105" t="n">
-        <v>0.021607251378763064</v>
+        <v>0.021607251378763057</v>
       </c>
       <c r="P105" t="n">
         <v>0.021732965384818656</v>
@@ -31474,22 +31532,22 @@
         <v>0.021980670130195352</v>
       </c>
       <c r="AM105" t="n">
-        <v>0.021772099574172723</v>
+        <v>0.02177209957417272</v>
       </c>
       <c r="AN105" t="n">
-        <v>0.021524394973272663</v>
+        <v>0.02152439497327266</v>
       </c>
       <c r="AO105" t="n">
         <v>0.02123220339717</v>
       </c>
       <c r="AP105" t="n">
-        <v>0.02089152638645335</v>
+        <v>0.020891526386453346</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.02049874784397706</v>
+        <v>0.020498747843977053</v>
       </c>
       <c r="AR105" t="n">
-        <v>0.020040647620210687</v>
+        <v>0.020040647620210683</v>
       </c>
       <c r="AS105" t="n">
         <v>0.019507680195600476</v>
@@ -31498,7 +31556,7 @@
         <v>0.018889764289871512</v>
       </c>
       <c r="AU105" t="n">
-        <v>0.018189943042616594</v>
+        <v>0.01818994304261659</v>
       </c>
       <c r="AV105" t="n">
         <v>0.017410289596258365</v>
@@ -31527,7 +31585,7 @@
         <v>514.7607122904751</v>
       </c>
       <c r="D106" t="n">
-        <v>507.67719862454067</v>
+        <v>507.67719862454055</v>
       </c>
       <c r="E106" t="n">
         <v>507.3561900303929</v>
@@ -31557,10 +31615,10 @@
         <v>501.3557818557251</v>
       </c>
       <c r="N106" t="n">
-        <v>499.7939948476843</v>
+        <v>499.7939948476842</v>
       </c>
       <c r="O106" t="n">
-        <v>498.03516115373554</v>
+        <v>498.0351611537353</v>
       </c>
       <c r="P106" t="n">
         <v>496.0791912065647</v>
@@ -31635,7 +31693,7 @@
         <v>385.13847154915425</v>
       </c>
       <c r="AN106" t="n">
-        <v>375.94966240648137</v>
+        <v>375.94966240648125</v>
       </c>
       <c r="AO106" t="n">
         <v>366.10440892759357</v>
@@ -31656,7 +31714,7 @@
         <v>304.62081466595737</v>
       </c>
       <c r="AU106" t="n">
-        <v>289.2729840696056</v>
+        <v>289.2729840696055</v>
       </c>
       <c r="AV106" t="n">
         <v>272.9859994406406</v>
@@ -31853,64 +31911,64 @@
         <v>0.0</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0019136111676075738</v>
+        <v>0.002870416751411371</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0038272223352151477</v>
+        <v>0.005740833502822742</v>
       </c>
       <c r="F116" t="n">
-        <v>0.005740833502822742</v>
+        <v>0.00861125025423415</v>
       </c>
       <c r="G116" t="n">
-        <v>0.007654444670430304</v>
+        <v>0.011481667005645485</v>
       </c>
       <c r="H116" t="n">
-        <v>0.00956805583803785</v>
+        <v>0.014352083757056858</v>
       </c>
       <c r="I116" t="n">
-        <v>0.011481667005645483</v>
+        <v>0.01722250050846829</v>
       </c>
       <c r="J116" t="n">
-        <v>0.01339527817325309</v>
+        <v>0.02009291725987952</v>
       </c>
       <c r="K116" t="n">
-        <v>0.015308889340860608</v>
+        <v>0.022963334011290967</v>
       </c>
       <c r="L116" t="n">
-        <v>0.0172225005084683</v>
+        <v>0.025833750762702244</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0191361116760757</v>
+        <v>0.02870416751411373</v>
       </c>
       <c r="N116" t="n">
-        <v>0.021049722843683352</v>
+        <v>0.031574584265524945</v>
       </c>
       <c r="O116" t="n">
-        <v>0.022963334011290956</v>
+        <v>0.03444500101693661</v>
       </c>
       <c r="P116" t="n">
-        <v>0.024876945178898418</v>
+        <v>0.0373154384315855</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.0267905563465062</v>
+        <v>0.04016271184696371</v>
       </c>
       <c r="R116" t="n">
-        <v>0.02870416751411371</v>
+        <v>0.042724622788853715</v>
       </c>
       <c r="S116" t="n">
-        <v>0.030617778681721216</v>
+        <v>0.0443380183967846</v>
       </c>
       <c r="T116" t="n">
-        <v>0.03253138984932872</v>
+        <v>0.046542466821819235</v>
       </c>
       <c r="U116" t="n">
-        <v>0.0344450010169366</v>
+        <v>0.04891055289607113</v>
       </c>
       <c r="V116" t="n">
-        <v>0.03635861218454397</v>
+        <v>0.05152569477968322</v>
       </c>
       <c r="W116" t="n">
-        <v>0.03826915531265557</v>
+        <v>0.053691714489573474</v>
       </c>
     </row>
     <row r="117">
@@ -39213,4 +39271,2879 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+    <col min="4" max="4" width="15.0" customWidth="true"/>
+    <col min="5" max="5" width="15.0" customWidth="true"/>
+    <col min="6" max="6" width="15.0" customWidth="true"/>
+    <col min="7" max="7" width="15.0" customWidth="true"/>
+    <col min="8" max="8" width="15.0" customWidth="true"/>
+    <col min="9" max="9" width="15.0" customWidth="true"/>
+    <col min="10" max="10" width="15.0" customWidth="true"/>
+    <col min="11" max="11" width="15.0" customWidth="true"/>
+    <col min="12" max="12" width="15.0" customWidth="true"/>
+    <col min="13" max="13" width="15.0" customWidth="true"/>
+    <col min="14" max="14" width="15.0" customWidth="true"/>
+    <col min="15" max="15" width="15.0" customWidth="true"/>
+    <col min="16" max="16" width="15.0" customWidth="true"/>
+    <col min="17" max="17" width="15.0" customWidth="true"/>
+    <col min="18" max="18" width="15.0" customWidth="true"/>
+    <col min="19" max="19" width="15.0" customWidth="true"/>
+    <col min="20" max="20" width="15.0" customWidth="true"/>
+    <col min="21" max="21" width="15.0" customWidth="true"/>
+    <col min="22" max="22" width="15.0" customWidth="true"/>
+    <col min="23" max="23" width="15.0" customWidth="true"/>
+    <col min="24" max="24" width="15.0" customWidth="true"/>
+    <col min="25" max="25" width="15.0" customWidth="true"/>
+    <col min="26" max="26" width="15.0" customWidth="true"/>
+    <col min="27" max="27" width="15.0" customWidth="true"/>
+    <col min="28" max="28" width="15.0" customWidth="true"/>
+    <col min="29" max="29" width="15.0" customWidth="true"/>
+    <col min="30" max="30" width="15.0" customWidth="true"/>
+    <col min="31" max="31" width="15.0" customWidth="true"/>
+    <col min="32" max="32" width="15.0" customWidth="true"/>
+    <col min="33" max="33" width="15.0" customWidth="true"/>
+    <col min="34" max="34" width="15.0" customWidth="true"/>
+    <col min="35" max="35" width="15.0" customWidth="true"/>
+    <col min="36" max="36" width="15.0" customWidth="true"/>
+    <col min="37" max="37" width="15.0" customWidth="true"/>
+    <col min="38" max="38" width="15.0" customWidth="true"/>
+    <col min="39" max="39" width="15.0" customWidth="true"/>
+    <col min="40" max="40" width="15.0" customWidth="true"/>
+    <col min="41" max="41" width="15.0" customWidth="true"/>
+    <col min="42" max="42" width="15.0" customWidth="true"/>
+    <col min="43" max="43" width="15.0" customWidth="true"/>
+    <col min="44" max="44" width="15.0" customWidth="true"/>
+    <col min="45" max="45" width="15.0" customWidth="true"/>
+    <col min="46" max="46" width="15.0" customWidth="true"/>
+    <col min="47" max="47" width="15.0" customWidth="true"/>
+    <col min="48" max="48" width="15.0" customWidth="true"/>
+    <col min="49" max="49" width="15.0" customWidth="true"/>
+    <col min="50" max="50" width="15.0" customWidth="true"/>
+    <col min="51" max="51" width="15.0" customWidth="true"/>
+    <col min="52" max="52" width="15.0" customWidth="true"/>
+    <col min="53" max="53" width="15.0" customWidth="true"/>
+    <col min="54" max="54" width="15.0" customWidth="true"/>
+    <col min="55" max="55" width="15.0" customWidth="true"/>
+    <col min="56" max="56" width="15.0" customWidth="true"/>
+    <col min="57" max="57" width="15.0" customWidth="true"/>
+    <col min="58" max="58" width="15.0" customWidth="true"/>
+    <col min="59" max="59" width="15.0" customWidth="true"/>
+    <col min="60" max="60" width="15.0" customWidth="true"/>
+    <col min="61" max="61" width="15.0" customWidth="true"/>
+    <col min="62" max="62" width="15.0" customWidth="true"/>
+    <col min="63" max="63" width="15.0" customWidth="true"/>
+    <col min="64" max="64" width="15.0" customWidth="true"/>
+    <col min="65" max="65" width="15.0" customWidth="true"/>
+    <col min="66" max="66" width="15.0" customWidth="true"/>
+    <col min="67" max="67" width="15.0" customWidth="true"/>
+    <col min="68" max="68" width="15.0" customWidth="true"/>
+    <col min="69" max="69" width="15.0" customWidth="true"/>
+    <col min="70" max="70" width="15.0" customWidth="true"/>
+    <col min="71" max="71" width="15.0" customWidth="true"/>
+    <col min="72" max="72" width="15.0" customWidth="true"/>
+    <col min="73" max="73" width="15.0" customWidth="true"/>
+    <col min="74" max="74" width="15.0" customWidth="true"/>
+    <col min="75" max="75" width="15.0" customWidth="true"/>
+    <col min="76" max="76" width="15.0" customWidth="true"/>
+    <col min="77" max="77" width="15.0" customWidth="true"/>
+    <col min="78" max="78" width="15.0" customWidth="true"/>
+    <col min="79" max="79" width="15.0" customWidth="true"/>
+    <col min="80" max="80" width="15.0" customWidth="true"/>
+    <col min="81" max="81" width="15.0" customWidth="true"/>
+    <col min="82" max="82" width="15.0" customWidth="true"/>
+    <col min="83" max="83" width="15.0" customWidth="true"/>
+    <col min="84" max="84" width="15.0" customWidth="true"/>
+    <col min="85" max="85" width="15.0" customWidth="true"/>
+    <col min="86" max="86" width="15.0" customWidth="true"/>
+    <col min="87" max="87" width="15.0" customWidth="true"/>
+    <col min="88" max="88" width="15.0" customWidth="true"/>
+    <col min="89" max="89" width="15.0" customWidth="true"/>
+    <col min="90" max="90" width="15.0" customWidth="true"/>
+    <col min="91" max="91" width="15.0" customWidth="true"/>
+    <col min="92" max="92" width="15.0" customWidth="true"/>
+    <col min="93" max="93" width="15.0" customWidth="true"/>
+    <col min="94" max="94" width="15.0" customWidth="true"/>
+    <col min="95" max="95" width="15.0" customWidth="true"/>
+    <col min="96" max="96" width="15.0" customWidth="true"/>
+    <col min="97" max="97" width="15.0" customWidth="true"/>
+    <col min="98" max="98" width="15.0" customWidth="true"/>
+    <col min="99" max="99" width="15.0" customWidth="true"/>
+    <col min="100" max="100" width="15.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.00575672736999408</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.0013880042832599049</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.593743587264419E-6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.00437531683032144</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0038235867669301608</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.003728562321016531</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.003426598676213292</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0027045360995347247</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.002306659925859349</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.002097344764802618</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.00863509105499112</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.01727018210998224</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.02590527316497336</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03454036421996448</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0431754552749556</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.05181054632994672</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.06044563738493784</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.06908072843992896</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.07771687257409256</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.08627755908993887</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.09449943480461269</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.10209636753022694</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.10878222507889451</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.11427087526272842</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.11827618589384149</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.1205120247843467</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.12069225974635704</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.11853075859198545</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.11374138913334465</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.10603801918254785</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-3.2784661170598954E-4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.0024047521208548665</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.004397336369795704</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.006305599358528504</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.008129541087053263</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.009869161555369984</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.011524460763478662</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.013095438711379307</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.014582095399071909</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.015984430826556477</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.017302444993833</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.018536137900901483</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.019685509547761926</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.020750559934414332</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.0217312890608587</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.022627696927095032</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0.02343978353312332</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.024167548878943568</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.024810992964555783</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.025370115789959954</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.025844917355156087</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9.89061538089663E-6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.978123076179326E-5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.9671846142689885E-5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.956246152358652E-5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.9453076904483143E-5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.934369228537977E-5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6.92343076662764E-5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>7.912492304717304E-5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>8.901553842806965E-5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>9.890615380896629E-5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.0879676918986292E-4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.1868738457075954E-4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.2857799995165617E-4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.384686153325528E-4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.4835923071344944E-4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.5824984609434607E-4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.6814046147524268E-4</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.780310768561393E-4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.8792169223703594E-4</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.9781230761793257E-4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-3.2784661170598954E-4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.00624022954951715</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.012892626970948328</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.019629345652587546</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0264503855944348</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0333557467964901</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.04034542925875344</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.04741943298122481</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.05457775796390422</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.061821457285964145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.06907402024991482</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.07607209367290106</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.08252954536703577</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.08816024314443183</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.09267805481720226</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.09579684819745991</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.09723049109731773</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.09669285132888872</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.0938977967042858</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.08855919503562174</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.0803909141350097</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.019906346018755978</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.011271254963764857</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.002636163908773737</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.005998927146217383</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.014634018201208503</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.023269109256199624</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.03190420031119075</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.04053929136618187</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.04917438242117299</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.05781052655533658</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.06637121307118289</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.07459308878585671</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.08219002151147096</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.08887587906013854</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.09436452924397244</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.09836983987508552</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.10060567876559072</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.10078591372760107</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.09862441257322947</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.09383504311458868</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.08613167316379187</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.03882326006387011</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.03018816900887899</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.02155307795388787</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.012917986898896748</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.004282895843905628</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0043521952110854925</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.012987286266076613</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.021622377321067733</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.030257468376058853</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.03889361251022245</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.04745429902606876</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.05567617474074258</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.06327310746635684</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.06995896501502441</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.07544761519885831</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.07945292582997138</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.08168876472047659</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.08186899968248693</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.07970749852811534</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.07491812906947454</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.06721475911867775</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.05351864341570376</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.04488355236071264</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.03624846130572152</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.0276133702507304</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.01897827919573928</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.01034318814074816</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-0.001708097085757039</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.006926993969234081</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.015562085024225202</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.024198229158388797</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.032758915674235105</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.04098079138890893</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.04857772411452318</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.05526358166319075</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.060752231847024656</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.06475754247813773</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.06699338136864294</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.06717361633065327</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.06501211517628169</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.06022274571764089</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.05251937576684409</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.056321391090888503</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.04768630003589738</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.03905120898090626</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.030416117925915143</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.021781026870924022</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.013145935815932902</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.004510844760941782</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0041242462940493385</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.012759337349040459</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.021395481483204054</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.029956167999050362</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.038178043713724186</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.045774976439338436</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.05246083398800601</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.05794948417183991</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.06195479480295299</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.06419063369345819</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.06437086865546854</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.06220936750109694</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.05741999804245615</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.049716628091659346</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.06004463012175826</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.05140953906676714</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.04277444801177602</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.0341393569567849</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.025504265901793777</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.016869174846802656</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.008234083791811536</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.0100726317958413E-4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.009036098318170704</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0176722424523343</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.026232928968180608</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.03445480468285443</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.04205173740846868</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.048737594957136254</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.05422624514097016</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.058231555772083235</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.060467394662588436</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.060647629624598784</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.05848612847022719</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.053696759011586395</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.04599338906078959</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.0720535561461099</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.06341846509111879</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.054783374036127666</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.046148282981136546</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.037513191926145426</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.028878100871154305</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.020243009816163185</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.011607918761172065</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-0.0029728277061809444</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.005663316427982651</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.014224002943828959</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.022445878658502783</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.030042811384117032</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.036728668932784606</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.04221731911661851</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.046222629747731586</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.04845846863823679</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.048638703600247135</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.04647720244587554</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.041687832987234746</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.03398446303643794</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.46673336668335</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.753376688344108</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9.304652326163026</v>
+      </c>
+      <c r="F26" t="n">
+        <v>9.784892446223072</v>
+      </c>
+      <c r="G26" t="n">
+        <v>10.445222611305635</v>
+      </c>
+      <c r="H26" t="n">
+        <v>12.53126563281646</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0056510927325217</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.001397595944776415</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6.59374358726442E-6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.00426009053133255</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0037534248196970624</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0036601440507460455</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.003363721370122366</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0026549084774426246</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0022643332410296536</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0020588589655550593</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.008476639098782551</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.016953278197565102</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.02542991729634765</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.033906556395130204</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.04238319549391275</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.0508598345926953</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.059336473691477855</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.06781311279026041</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0762907856444522</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.08469438551045477</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.09276539167640037</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.10022292241494898</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.10678609599876063</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.11217403070049543</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.11610584479281336</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.11830065654837452</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.11847758423983892</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.1163557461398666</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.11165426052111756</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.10409224565625196</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-3.301121621561892E-4</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.0024213699142237584</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.0044277237126461606</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.006349173557423396</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.008185719448555463</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-0.009937361386042363</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-0.011604099369884095</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-0.013185933400080663</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.014682863476632063</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.016094889599538295</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.01742201176879936</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.01866422998441526</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-0.019821544246385985</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-0.020893954554711547</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-0.021881460909391942</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-0.022784063310427174</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-0.02360176175781723</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-0.024334556251562126</v>
+      </c>
+      <c r="U40" t="n">
+        <v>-0.024982446791661856</v>
+      </c>
+      <c r="V40" t="n">
+        <v>-0.025545433378116416</v>
+      </c>
+      <c r="W40" t="n">
+        <v>-0.02602351601092581</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>9.89061538089663E-6</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.978123076179326E-5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.9671846142689888E-5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3.956246152358652E-5</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4.945307690448315E-5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5.9343692285379776E-5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>6.92343076662764E-5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>7.912492304717304E-5</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8.901553842806967E-5</v>
+      </c>
+      <c r="M41" t="n">
+        <v>9.89061538089663E-5</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.0879676918986293E-4</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.1868738457075955E-4</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.285779999516562E-4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.384686153325528E-4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.4835923071344944E-4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.5824984609434607E-4</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.681404614752427E-4</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.7803107685613934E-4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.8792169223703597E-4</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.978123076179326E-4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-3.301121621561892E-4</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.006065159799939688</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.012545335715680733</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.019110415585066945</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.025760399408098322</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.03249528718477487</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.039315078915096585</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.04621977459906347</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.05320937423667551</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.06028491158334197</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.06737127989546438</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.07420995846117497</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.08052006555313376</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.08602071944400073</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.09043103840643604</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.09347014071309963</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.09485714463665162</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.09431116844975204</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.09155133042506089</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.08629674883523818</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.07826654195294408</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-0.019541069098391203</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.011064429999608652</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0.0025877909008261007</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0058888481979564485</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.014365487296739001</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.022842126395521547</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.031318765494304096</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.039795404593086656</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.0482720436918692</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.056749716546060994</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.06515331641206357</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.07322432257800916</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.08068185331655778</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.08724502690036942</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.09263296160210423</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.09656477569442215</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.09875958744998331</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.09893651514144772</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.0968146770414754</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.09211319142272635</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.08455117655786075</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.038110862074741944</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.02963422297595939</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-0.021157583877176842</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.012680944778394293</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.00420430567961174</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.004272333419170805</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.012748972517953358</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.02122561161673591</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.029702250715518463</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.038179923569710256</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.04658352343571283</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.054654529601658425</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.06211206034020704</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.06867523392401868</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.07406316862575349</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.07799498271807141</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.08018979447363257</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.08036672216509698</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.07824488406512466</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.07354339844637561</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.06598138358151001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-0.052536588485553884</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.04405994938677133</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0.03558331028798878</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.027106671189206233</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.01863003209042368</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-0.010153392991641134</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-0.0016767538928585818</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.006799885205923971</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.015276524304706524</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.023754197158898316</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.03215779702490089</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.040228803190846485</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.0476863339293951</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.05424950751320674</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.05963744221494155</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.06356925630725947</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.06576406806282063</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.06594099575428504</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.06381915765431272</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.05911767203556367</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.05155565717069807</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-0.05528790637857839</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.046811267279795836</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.03833462818101328</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.029857989082230738</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.021381349983448185</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.01290471088466564</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.0044280717858830865</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.004048567312899466</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.012525206411682019</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.02100287926587381</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.029406479131876384</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.03747748529782198</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.044935016036370595</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.05149818962018224</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.056886124321917045</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.06081793841423497</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.06301275016979613</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.06318967786126053</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.06106783976128821</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.05636635414253917</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.04880433927767357</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-0.05894282482034069</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.050466185721558136</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.041989546622775584</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.03351290752399304</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.025036268425210485</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.01655962932642794</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.008082990227645387</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.936488711371658E-4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.008870287969919718</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.01734796082411151</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.025751560690114084</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.03382256685605968</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.041280097594608295</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.04784327117841994</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.053231205880154744</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.05716301997247267</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.05935783172803383</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.059534759419498234</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.05741292131952591</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.05271143570077687</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.045149420835911266</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-0.07073138978440884</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.06225475068562628</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.05377811158684373</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.045301472488061184</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.03682483338927863</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.028348194290496086</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.019871555191713533</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.01139491609293098</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.0029182769941484277</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.005559395860043365</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.013962995726045938</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.022034001891991534</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.02949153263054015</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.03605470621435179</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.0414426409160866</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.04537445500840452</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.04756926676396568</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.04774619445543009</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.045624356355457765</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.04092287073670872</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.03336085587184312</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3.46673336668335</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6.753376688344108</v>
+      </c>
+      <c r="E51" t="n">
+        <v>9.304652326163026</v>
+      </c>
+      <c r="F51" t="n">
+        <v>9.784892446223072</v>
+      </c>
+      <c r="G51" t="n">
+        <v>10.445222611305635</v>
+      </c>
+      <c r="H51" t="n">
+        <v>12.53126563281646</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.005566585022543797</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-0.0014052692739896233</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="n">
+        <v>6.59374358726442E-6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.004167909492141439</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.0036972952619105845</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.0036054094345296574</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.003313419525249626</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0026152063797689447</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.002230471893165898</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.0020280703261570127</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.008349877533815695</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.01669975506763139</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.02504963260144709</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03339951013526278</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.04174938766907848</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.05009926520289418</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.05844914273670987</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.06679902027052556</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.07514991610073993</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.08342784664686753</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.09137815717383052</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.09872416632272664</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.10518919273465359</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.11049655505070909</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.11436957191199089</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.11653156195959678</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.11670584383462441</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.11461573617817154</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.10998455763133595</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0.10253562683521524</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-3.3192460251634903E-4</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.002434664148918872</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.004452033586926526</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.00638403291653931</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.008230662137757224</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.00999192125058027</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.011667810255008442</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.01325832915104175</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.014763477938680186</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.016183256617923754</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.01751766518877245</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.018766703651226277</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.019930372005285232</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.02100867025094932</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-0.022001598388218538</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-0.02290915641709289</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-0.023731344337572364</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-0.024468162149656976</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-0.025119609853346717</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-0.025685687448641588</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-0.02616639493554159</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>9.89061538089663E-6</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.978123076179326E-5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2.9671846142689888E-5</v>
+      </c>
+      <c r="G66" t="n">
+        <v>3.956246152358652E-5</v>
+      </c>
+      <c r="H66" t="n">
+        <v>4.945307690448315E-5</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5.9343692285379776E-5</v>
+      </c>
+      <c r="J66" t="n">
+        <v>6.92343076662764E-5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>7.912492304717304E-5</v>
+      </c>
+      <c r="L66" t="n">
+        <v>8.901553842806967E-5</v>
+      </c>
+      <c r="M66" t="n">
+        <v>9.89061538089663E-5</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.0879676918986293E-4</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.1868738457075955E-4</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.285779999516562E-4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1.384686153325528E-4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1.4835923071344944E-4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.5824984609434607E-4</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.681404614752427E-4</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1.7803107685613934E-4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1.8792169223703597E-4</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.978123076179326E-4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-3.3192460251634903E-4</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.005925104000277719</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.012267502711466656</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.018695271531050467</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.02520841045902914</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.031806919495402694</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.03849079864017112</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.0452600478933344</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.05211466725489254</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.05905567502124424</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.06600908761190405</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.0727202502917941</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.07891248170201216</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.08430910048365592</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.0886334252778231</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.09160877472561145</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.09295846746811877</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.09240582214644269</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.08967415740168097</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.08448679187493141</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.07656704420729157</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>173</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-0.019248847562099387</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.010898970028283692</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.002549092494467997</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0058007850393477015</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.014150662573163393</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.02250054010697909</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.03085041764079479</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.03920029517461048</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.047550172708426174</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.05590106853864054</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.06417899908476815</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.07212930961173114</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.07947531876062724</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.0859403451725542</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.09124770748860969</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.0951207243498915</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.09728271439749739</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.09745699627252502</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.09536688861607215</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0.09073571006923656</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0.08328677927311584</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-0.03754094368343942</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.029191066149623728</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0.020841188615808033</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.012491311081992335</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-0.004141433548176643</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.004208443985639056</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.012558321519454754</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.020908199053270446</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.029258076587086138</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.037608972417300504</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.04588690296342811</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.0538372134903911</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.061183222639287216</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.06764824905121417</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.07295561136726966</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.07682862822855147</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.07899061827615736</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.07916490015118499</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.07707479249473212</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.07244361394789653</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.06499468315177581</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>175</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-0.05175094454143399</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.043401067007618296</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0.0350511894738026</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.0267013119399869</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-0.018351434406171208</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-0.010001556872355509</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-0.0016516793385398104</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.006698198195275881</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.015048075729091573</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.02339897155930594</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.031676902105433544</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.03962721263239653</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.04697322178129265</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.0534382481932196</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.0587456105092751</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.0626186273705569</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.0647806174181628</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.06495489929319043</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.06286479163673755</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.058233613089901964</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.05078468229378125</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>176</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-0.0544611186087303</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0.0461112410749146</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-0.03776136354109891</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.02941148600728321</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-0.021061608473467518</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-0.012711730939651819</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-0.0043618534058361205</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.003988024127979571</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.012337901661795263</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.02068879749200963</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.028966728038137234</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.03691703856510022</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.04426304771399634</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.05072807412592329</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.05603543644197879</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.05990845330326059</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.062070443350866485</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.06224472522589412</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.060154617569441245</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.055523439022605654</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.04807450822648494</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>177</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0.05806138057920665</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.04971150304539096</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.04136162551157526</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.03301174797775956</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-0.02466187044394387</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-0.01631199291012817</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-0.007962115376312473</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3.8776215750321863E-4</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.00873763969131891</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.017088535521533277</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.02536646606766088</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.03331677659462387</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.04066278574351999</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.04712781215544694</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.052435174471502435</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.05630819133278424</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.05847018138039013</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.058644463255417764</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.05655435559896489</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.0519231770521293</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.044474246256008584</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>178</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-0.06967365669504798</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.061323779161232286</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-0.05297390162741659</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.04462402409360089</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-0.0362741465597852</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-0.0279242690259695</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-0.0195743914921538</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-0.011224513958338109</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-0.002874636424522417</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.0054762594056919495</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.013754189951819554</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.021704500478782543</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.02905050962767866</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.03551553603960561</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.04082289835566111</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.04469591521694291</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.046857905264548805</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.04703218713957644</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.044942079483123565</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.040310900936287974</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.03286197014016726</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>179</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="n">
+        <v>3.46673336668335</v>
+      </c>
+      <c r="D76" t="n">
+        <v>6.753376688344108</v>
+      </c>
+      <c r="E76" t="n">
+        <v>9.304652326163026</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9.784892446223072</v>
+      </c>
+      <c r="G76" t="n">
+        <v>10.445222611305635</v>
+      </c>
+      <c r="H76" t="n">
+        <v>12.53126563281646</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>180</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
@@ -2105,151 +2105,151 @@
         <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>0.15254991024879985</v>
+        <v>0.1193087147791522</v>
       </c>
       <c r="D33" t="n">
-        <v>0.15253268395047426</v>
+        <v>0.11923303111203304</v>
       </c>
       <c r="E33" t="n">
-        <v>0.15248085148137774</v>
+        <v>0.11900498013134012</v>
       </c>
       <c r="F33" t="n">
-        <v>0.15239394847313648</v>
+        <v>0.11862152933936446</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1522711886764065</v>
+        <v>0.11807751374716427</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1521114449872507</v>
+        <v>0.11736546129096065</v>
       </c>
       <c r="I33" t="n">
-        <v>0.15191322184768852</v>
+        <v>0.11647533051006789</v>
       </c>
       <c r="J33" t="n">
-        <v>0.151674618018318</v>
+        <v>0.11539413942950932</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1513932785590015</v>
+        <v>0.11410545312941753</v>
       </c>
       <c r="L33" t="n">
-        <v>0.15106633496845873</v>
+        <v>0.11258867983122209</v>
       </c>
       <c r="M33" t="n">
-        <v>0.15069033322093964</v>
+        <v>0.11081809650296406</v>
       </c>
       <c r="N33" t="n">
-        <v>0.15026115173452914</v>
+        <v>0.10876147488782048</v>
       </c>
       <c r="O33" t="n">
-        <v>0.14977391672280013</v>
+        <v>0.10637808515679195</v>
       </c>
       <c r="P33" t="n">
-        <v>0.14922293342383272</v>
+        <v>0.10361566210481157</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.1486016697027387</v>
+        <v>0.10040547369752853</v>
       </c>
       <c r="R33" t="n">
-        <v>0.14790284129101217</v>
+        <v>0.09665342281255698</v>
       </c>
       <c r="S33" t="n">
-        <v>0.14711857365919861</v>
+        <v>0.09222100097847025</v>
       </c>
       <c r="T33" t="n">
-        <v>0.14645740052412864</v>
+        <v>0.08699762509211728</v>
       </c>
       <c r="U33" t="n">
-        <v>0.14526123955698209</v>
+        <v>0.0798818310432639</v>
       </c>
       <c r="V33" t="n">
-        <v>0.14417472893208838</v>
+        <v>0.07182324562959136</v>
       </c>
       <c r="W33" t="n">
-        <v>0.1430002189724177</v>
+        <v>0.06307607885664182</v>
       </c>
       <c r="X33" t="n">
-        <v>0.14173870633916794</v>
+        <v>0.05383745892355457</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.14039499918274836</v>
+        <v>0.044245631137389926</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.13897326897727896</v>
+        <v>0.03440695871173885</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.13747684351894218</v>
+        <v>0.024407867069064275</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.13590746558479183</v>
+        <v>0.014318375376921301</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.13426650836656612</v>
+        <v>0.004203018264491997</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.13255496770172842</v>
+        <v>-0.005879057457379848</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.1307721627617575</v>
+        <v>-0.015877047051616494</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.128916316128534</v>
+        <v>-0.025743652721820984</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.12698445274282222</v>
+        <v>-0.03543380979133981</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.12497224905606416</v>
+        <v>-0.04490352912093373</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.12287381896579971</v>
+        <v>-0.054108766541785244</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0.12068141806564231</v>
+        <v>-0.06300423784202774</v>
       </c>
       <c r="AK33" t="n">
-        <v>0.11838503981290721</v>
+        <v>-0.07154209300906972</v>
       </c>
       <c r="AL33" t="n">
-        <v>0.1159718651936312</v>
+        <v>-0.07967034607173784</v>
       </c>
       <c r="AM33" t="n">
-        <v>0.11342550908943465</v>
+        <v>-0.08733092382695679</v>
       </c>
       <c r="AN33" t="n">
-        <v>0.11072497785479185</v>
+        <v>-0.09445714072673955</v>
       </c>
       <c r="AO33" t="n">
-        <v>0.10784320653487127</v>
+        <v>-0.10097031441843243</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.10474496770944525</v>
+        <v>-0.10677508097023466</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.10138381220455536</v>
+        <v>-0.11175270080862088</v>
       </c>
       <c r="AR33" t="n">
-        <v>0.09769746438698686</v>
+        <v>-0.11575116522170234</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.09360064245376419</v>
+        <v>-0.11857000292037825</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.08897335239067561</v>
+        <v>-0.11993584515381037</v>
       </c>
       <c r="AU33" t="n">
-        <v>0.08364065572952713</v>
+        <v>-0.11946075080449745</v>
       </c>
       <c r="AV33" t="n">
-        <v>0.07733480352886006</v>
+        <v>-0.11656526823769978</v>
       </c>
       <c r="AW33" t="n">
-        <v>0.06961568324850151</v>
+        <v>-0.110319153833113</v>
       </c>
       <c r="AX33" t="n">
-        <v>0.05967000640236029</v>
+        <v>-0.09904577725232427</v>
       </c>
       <c r="AY33" t="n">
-        <v>0.04560153248664404</v>
+        <v>-0.0789487811881554</v>
       </c>
       <c r="AZ33" t="n">
         <v>0.0</v>
@@ -4016,151 +4016,151 @@
         <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6498678473934307</v>
+        <v>0.1193087147791522</v>
       </c>
       <c r="D48" t="n">
-        <v>0.64979446277201</v>
+        <v>0.11923303111203304</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6495736546767322</v>
+        <v>0.11900498013134012</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6492034448824053</v>
+        <v>0.11862152933936446</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6486804839398703</v>
+        <v>0.11807751374716427</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6479999703477155</v>
+        <v>0.11736546129096065</v>
       </c>
       <c r="I48" t="n">
-        <v>0.647155532977672</v>
+        <v>0.11647533051006789</v>
       </c>
       <c r="J48" t="n">
-        <v>0.64613907248471</v>
+        <v>0.11539413942950932</v>
       </c>
       <c r="K48" t="n">
-        <v>0.6449405567431098</v>
+        <v>0.11410545312941753</v>
       </c>
       <c r="L48" t="n">
-        <v>0.6435477658390798</v>
+        <v>0.11258867983122209</v>
       </c>
       <c r="M48" t="n">
-        <v>0.6419459855045136</v>
+        <v>0.11081809650296406</v>
       </c>
       <c r="N48" t="n">
-        <v>0.6401176576591554</v>
+        <v>0.10876147488782048</v>
       </c>
       <c r="O48" t="n">
-        <v>0.6380420198057432</v>
+        <v>0.10637808515679195</v>
       </c>
       <c r="P48" t="n">
-        <v>0.6356948120632692</v>
+        <v>0.10361566210481157</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.6330482073131748</v>
+        <v>0.10040547369752853</v>
       </c>
       <c r="R48" t="n">
-        <v>0.6300711743219034</v>
+        <v>0.09665342281255698</v>
       </c>
       <c r="S48" t="n">
-        <v>0.626730167324025</v>
+        <v>0.09222100097847025</v>
       </c>
       <c r="T48" t="n">
-        <v>0.6239135471022134</v>
+        <v>0.08699762509211728</v>
       </c>
       <c r="U48" t="n">
-        <v>0.618817860375241</v>
+        <v>0.0798818310432639</v>
       </c>
       <c r="V48" t="n">
-        <v>0.6141892878653121</v>
+        <v>0.07182324562959136</v>
       </c>
       <c r="W48" t="n">
-        <v>0.6091858351724299</v>
+        <v>0.06307607885664182</v>
       </c>
       <c r="X48" t="n">
-        <v>0.6038117481074646</v>
+        <v>0.05383745892355457</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.5980875095559945</v>
+        <v>0.044245631137389926</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.5920308901407765</v>
+        <v>0.03440695871173885</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.5856560663876322</v>
+        <v>0.024407867069064275</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.5789704625865575</v>
+        <v>0.014318375376921301</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.5719799285814322</v>
+        <v>0.004203018264491997</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.56468870667399</v>
+        <v>-0.005879057457379848</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.5570938965113899</v>
+        <v>-0.015877047051616494</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.5491879262315106</v>
+        <v>-0.025743652721820984</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.5409581219800157</v>
+        <v>-0.03543380979133981</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.5323860652918286</v>
+        <v>-0.04490352912093373</v>
       </c>
       <c r="AI48" t="n">
-        <v>0.5234466811686805</v>
+        <v>-0.054108766541785244</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0.5141069781738706</v>
+        <v>-0.06300423784202774</v>
       </c>
       <c r="AK48" t="n">
-        <v>0.504324328092516</v>
+        <v>-0.07154209300906972</v>
       </c>
       <c r="AL48" t="n">
-        <v>0.4940441214856708</v>
+        <v>-0.07967034607173784</v>
       </c>
       <c r="AM48" t="n">
-        <v>0.48319655718732113</v>
+        <v>-0.08733092382695679</v>
       </c>
       <c r="AN48" t="n">
-        <v>0.4716922015478209</v>
+        <v>-0.09445714072673955</v>
       </c>
       <c r="AO48" t="n">
-        <v>0.4594157569317438</v>
+        <v>-0.10097031441843243</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.44621715332124967</v>
+        <v>-0.10677508097023466</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.43189851564289966</v>
+        <v>-0.11175270080862088</v>
       </c>
       <c r="AR48" t="n">
-        <v>0.41619454756425855</v>
+        <v>-0.11575116522170234</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.39874194568100996</v>
+        <v>-0.11857000292037825</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.3790295313789633</v>
+        <v>-0.11993584515381037</v>
       </c>
       <c r="AU48" t="n">
-        <v>0.35631206078635147</v>
+        <v>-0.11946075080449745</v>
       </c>
       <c r="AV48" t="n">
-        <v>0.32944891423356043</v>
+        <v>-0.11656526823769978</v>
       </c>
       <c r="AW48" t="n">
-        <v>0.296565197211465</v>
+        <v>-0.110319153833113</v>
       </c>
       <c r="AX48" t="n">
-        <v>0.25419627288806745</v>
+        <v>-0.09904577725232427</v>
       </c>
       <c r="AY48" t="n">
-        <v>0.1942640917100777</v>
+        <v>-0.0789487811881554</v>
       </c>
       <c r="AZ48" t="n">
         <v>0.0</v>
@@ -5927,151 +5927,151 @@
         <v>5</v>
       </c>
       <c r="C63" t="n">
-        <v>2.6391395959719546</v>
+        <v>0.1193087147791522</v>
       </c>
       <c r="D63" t="n">
-        <v>2.638841578058154</v>
+        <v>0.11923303111203304</v>
       </c>
       <c r="E63" t="n">
-        <v>2.6379448674581507</v>
+        <v>0.11900498013134012</v>
       </c>
       <c r="F63" t="n">
-        <v>2.636441430519481</v>
+        <v>0.11862152933936446</v>
       </c>
       <c r="G63" t="n">
-        <v>2.6343176649937248</v>
+        <v>0.11807751374716427</v>
       </c>
       <c r="H63" t="n">
-        <v>2.6315540717895733</v>
+        <v>0.11736546129096065</v>
       </c>
       <c r="I63" t="n">
-        <v>2.628124777497604</v>
+        <v>0.11647533051006789</v>
       </c>
       <c r="J63" t="n">
-        <v>2.623996890350276</v>
+        <v>0.11539413942950932</v>
       </c>
       <c r="K63" t="n">
-        <v>2.619129669479542</v>
+        <v>0.11410545312941753</v>
       </c>
       <c r="L63" t="n">
-        <v>2.6134734893215636</v>
+        <v>0.11258867983122209</v>
       </c>
       <c r="M63" t="n">
-        <v>2.606968594638809</v>
+        <v>0.11081809650296406</v>
       </c>
       <c r="N63" t="n">
-        <v>2.5995436813576616</v>
+        <v>0.10876147488782048</v>
       </c>
       <c r="O63" t="n">
-        <v>2.5911144321375157</v>
+        <v>0.10637808515679195</v>
       </c>
       <c r="P63" t="n">
-        <v>2.581582326621016</v>
+        <v>0.10361566210481157</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.570834357754919</v>
+        <v>0.10040547369752853</v>
       </c>
       <c r="R63" t="n">
-        <v>2.558744506445469</v>
+        <v>0.09665342281255698</v>
       </c>
       <c r="S63" t="n">
-        <v>2.5451765419833308</v>
+        <v>0.09222100097847025</v>
       </c>
       <c r="T63" t="n">
-        <v>2.533738133414553</v>
+        <v>0.08699762509211728</v>
       </c>
       <c r="U63" t="n">
-        <v>2.5130443436482772</v>
+        <v>0.0798818310432639</v>
       </c>
       <c r="V63" t="n">
-        <v>2.4942475235982076</v>
+        <v>0.07182324562959136</v>
       </c>
       <c r="W63" t="n">
-        <v>2.473928299972478</v>
+        <v>0.06307607885664182</v>
       </c>
       <c r="X63" t="n">
-        <v>2.4521039151806527</v>
+        <v>0.05383745892355457</v>
       </c>
       <c r="Y63" t="n">
-        <v>2.4288575510489787</v>
+        <v>0.044245631137389926</v>
       </c>
       <c r="Z63" t="n">
-        <v>2.4042613747947663</v>
+        <v>0.03440695871173885</v>
       </c>
       <c r="AA63" t="n">
-        <v>2.3783729578623922</v>
+        <v>0.024407867069064275</v>
       </c>
       <c r="AB63" t="n">
-        <v>2.3512224505936183</v>
+        <v>0.014318375376921301</v>
       </c>
       <c r="AC63" t="n">
-        <v>2.3228336094408957</v>
+        <v>0.004203018264491997</v>
       </c>
       <c r="AD63" t="n">
-        <v>2.2932236625630353</v>
+        <v>-0.005879057457379848</v>
       </c>
       <c r="AE63" t="n">
-        <v>2.2623808315099185</v>
+        <v>-0.015877047051616494</v>
       </c>
       <c r="AF63" t="n">
-        <v>2.2302743666434157</v>
+        <v>-0.025743652721820984</v>
       </c>
       <c r="AG63" t="n">
-        <v>2.1968527989287896</v>
+        <v>-0.03543380979133981</v>
       </c>
       <c r="AH63" t="n">
-        <v>2.162041330234887</v>
+        <v>-0.04490352912093373</v>
       </c>
       <c r="AI63" t="n">
-        <v>2.1257381299802045</v>
+        <v>-0.054108766541785244</v>
       </c>
       <c r="AJ63" t="n">
-        <v>2.0878092186067834</v>
+        <v>-0.06300423784202774</v>
       </c>
       <c r="AK63" t="n">
-        <v>2.0480814812109513</v>
+        <v>-0.07154209300906972</v>
       </c>
       <c r="AL63" t="n">
-        <v>2.0063331466538292</v>
+        <v>-0.07967034607173784</v>
       </c>
       <c r="AM63" t="n">
-        <v>1.9622807495788674</v>
+        <v>-0.08733092382695679</v>
       </c>
       <c r="AN63" t="n">
-        <v>1.9155610963199368</v>
+        <v>-0.09445714072673955</v>
       </c>
       <c r="AO63" t="n">
-        <v>1.8657059585192342</v>
+        <v>-0.10097031441843243</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.8121058957684677</v>
+        <v>-0.10677508097023466</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.7539573293962771</v>
+        <v>-0.11175270080862088</v>
       </c>
       <c r="AR63" t="n">
-        <v>1.6901828802733456</v>
+        <v>-0.11575116522170234</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.6193071585899936</v>
+        <v>-0.11857000292037825</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.5392542473321147</v>
+        <v>-0.11993584515381037</v>
       </c>
       <c r="AU63" t="n">
-        <v>1.4469976810136491</v>
+        <v>-0.11946075080449745</v>
       </c>
       <c r="AV63" t="n">
-        <v>1.3379053570523622</v>
+        <v>-0.11656526823769978</v>
       </c>
       <c r="AW63" t="n">
-        <v>1.204363253063319</v>
+        <v>-0.110319153833113</v>
       </c>
       <c r="AX63" t="n">
-        <v>1.0323013388308961</v>
+        <v>-0.09904577725232427</v>
       </c>
       <c r="AY63" t="n">
-        <v>0.7889143286038123</v>
+        <v>-0.0789487811881554</v>
       </c>
       <c r="AZ63" t="n">
         <v>0.0</v>
@@ -23317,106 +23317,67 @@
         <v>16</v>
       </c>
       <c r="C19" t="n">
-        <v>-8.439047813138842</v>
+        <v>0.0</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.608723524131607</v>
+        <v>1.5</v>
       </c>
       <c r="E19" t="n">
-        <v>-6.778399235124372</v>
+        <v>3.0</v>
       </c>
       <c r="F19" t="n">
-        <v>-5.948074946117137</v>
+        <v>4.5</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.117750657109902</v>
+        <v>6.0</v>
       </c>
       <c r="H19" t="n">
-        <v>-4.2874263681026665</v>
+        <v>7.5</v>
       </c>
       <c r="I19" t="n">
-        <v>-3.4571020790954314</v>
+        <v>9.0</v>
       </c>
       <c r="J19" t="n">
-        <v>-2.6380916831063503</v>
+        <v>10.5</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.7964535010809604</v>
+        <v>12.0</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.966129212073725</v>
+        <v>13.5</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.14181559733971438</v>
+        <v>15.0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6762378555421651</v>
+        <v>16.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4881712875365443</v>
+        <v>18.0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.293865459735918</v>
+        <v>19.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.0933909539980986</v>
+        <v>21.0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.886761040393064</v>
+        <v>22.5</v>
       </c>
       <c r="S19" t="n">
-        <v>4.673976805171545</v>
+        <v>24.0</v>
       </c>
       <c r="T19" t="n">
-        <v>5.455182159261449</v>
+        <v>25.5</v>
       </c>
       <c r="U19" t="n">
-        <v>6.2303108569646035</v>
+        <v>27.0</v>
       </c>
       <c r="V19" t="n">
-        <v>6.999631531028102</v>
+        <v>28.5</v>
       </c>
       <c r="W19" t="n">
-        <v>7.763014802335448</v>
-      </c>
-      <c r="X19" t="n">
-        <v>8.520844601999997</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>9.273264665269686</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>10.023120328706224</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>10.783510210951654</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>11.558106730422896</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>12.363454845102588</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>13.195081421873962</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>14.06620590577765</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>14.968773041638737</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>15.908186334949963</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>16.874456480917438</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>17.951619358393607</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>19.116942500526946</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="20">
@@ -31798,106 +31759,67 @@
         <v>16</v>
       </c>
       <c r="C115" t="n">
-        <v>-8.439047813138842</v>
+        <v>0.0</v>
       </c>
       <c r="D115" t="n">
-        <v>-7.608723524131607</v>
+        <v>1.5</v>
       </c>
       <c r="E115" t="n">
-        <v>-6.778399235124372</v>
+        <v>3.0</v>
       </c>
       <c r="F115" t="n">
-        <v>-5.948074946117137</v>
+        <v>4.5</v>
       </c>
       <c r="G115" t="n">
-        <v>-5.117750657109902</v>
+        <v>6.0</v>
       </c>
       <c r="H115" t="n">
-        <v>-4.2874263681026665</v>
+        <v>7.5</v>
       </c>
       <c r="I115" t="n">
-        <v>-3.4571020790954314</v>
+        <v>9.0</v>
       </c>
       <c r="J115" t="n">
-        <v>-2.6380916831063503</v>
+        <v>10.5</v>
       </c>
       <c r="K115" t="n">
-        <v>-1.7964535010809604</v>
+        <v>12.0</v>
       </c>
       <c r="L115" t="n">
-        <v>-0.966129212073725</v>
+        <v>13.5</v>
       </c>
       <c r="M115" t="n">
-        <v>-0.14181559733971438</v>
+        <v>15.0</v>
       </c>
       <c r="N115" t="n">
-        <v>0.6762378555421651</v>
+        <v>16.5</v>
       </c>
       <c r="O115" t="n">
-        <v>1.4881712875365443</v>
+        <v>18.0</v>
       </c>
       <c r="P115" t="n">
-        <v>2.293865459735918</v>
+        <v>19.5</v>
       </c>
       <c r="Q115" t="n">
-        <v>3.0933909539980986</v>
+        <v>21.0</v>
       </c>
       <c r="R115" t="n">
-        <v>3.886761040393064</v>
+        <v>22.5</v>
       </c>
       <c r="S115" t="n">
-        <v>4.673976805171545</v>
+        <v>24.0</v>
       </c>
       <c r="T115" t="n">
-        <v>5.455182159261449</v>
+        <v>25.5</v>
       </c>
       <c r="U115" t="n">
-        <v>6.2303108569646035</v>
+        <v>27.0</v>
       </c>
       <c r="V115" t="n">
-        <v>6.999631531028102</v>
+        <v>28.5</v>
       </c>
       <c r="W115" t="n">
-        <v>7.763014802335448</v>
-      </c>
-      <c r="X115" t="n">
-        <v>8.520844601999997</v>
-      </c>
-      <c r="Y115" t="n">
-        <v>9.273264665269686</v>
-      </c>
-      <c r="Z115" t="n">
-        <v>10.023120328706224</v>
-      </c>
-      <c r="AA115" t="n">
-        <v>10.783510210951654</v>
-      </c>
-      <c r="AB115" t="n">
-        <v>11.558106730422896</v>
-      </c>
-      <c r="AC115" t="n">
-        <v>12.363454845102588</v>
-      </c>
-      <c r="AD115" t="n">
-        <v>13.195081421873962</v>
-      </c>
-      <c r="AE115" t="n">
-        <v>14.06620590577765</v>
-      </c>
-      <c r="AF115" t="n">
-        <v>14.968773041638737</v>
-      </c>
-      <c r="AG115" t="n">
-        <v>15.908186334949963</v>
-      </c>
-      <c r="AH115" t="n">
-        <v>16.874456480917438</v>
-      </c>
-      <c r="AI115" t="n">
-        <v>17.951619358393607</v>
-      </c>
-      <c r="AJ115" t="n">
-        <v>19.116942500526946</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="116">

--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
@@ -14,12 +14,13 @@
     <sheet name="DOWNWASH" r:id="rId8" sheetId="6"/>
     <sheet name="TOTAL AIRCRAFT CURVES" r:id="rId9" sheetId="7"/>
     <sheet name="LONGITUDINAL STABILITY AND CONT" r:id="rId10" sheetId="8"/>
+    <sheet name="DIRECTIONAL STABILITY AND CONTR" r:id="rId11" sheetId="9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="185">
   <si>
     <t>Description</t>
   </si>
@@ -518,6 +519,63 @@
   <si>
     <t>delta_e equilibrium</t>
   </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>CN_beta_vertical_tail</t>
+  </si>
+  <si>
+    <t>CN_beta_fuselage</t>
+  </si>
+  <si>
+    <t>CN_beta_wing</t>
+  </si>
+  <si>
+    <t>CN_beta_total</t>
+  </si>
+  <si>
+    <t>Delta_rudder</t>
+  </si>
+  <si>
+    <t>CN_delta_rudder</t>
+  </si>
+  <si>
+    <t>CN_vertical_tail</t>
+  </si>
+  <si>
+    <t>CN_fuselage</t>
+  </si>
+  <si>
+    <t>CN_wing</t>
+  </si>
+  <si>
+    <t>CN_total</t>
+  </si>
+  <si>
+    <t>CN at delta rudder = 5.0 deg</t>
+  </si>
+  <si>
+    <t>CN at delta rudder = 10.0 deg</t>
+  </si>
+  <si>
+    <t>CN at delta rudder = 15.0 deg</t>
+  </si>
+  <si>
+    <t>CN at delta rudder = 20.0 deg</t>
+  </si>
+  <si>
+    <t>CN at delta rudder = 25.0 deg</t>
+  </si>
+  <si>
+    <t>CN at delta rudder = 30.0 deg</t>
+  </si>
+  <si>
+    <t>Delta_rudder equilibrium</t>
+  </si>
+  <si>
+    <t>Beta equilibrium</t>
+  </si>
 </sst>
 </file>
 
@@ -9439,7 +9497,7 @@
         <v>5</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.09519029224881412</v>
+        <v>-0.079985559965831</v>
       </c>
     </row>
     <row r="113">
@@ -9570,106 +9628,106 @@
         <v>5</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.07513509223376534</v>
+        <v>-0.08240311545285446</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.07767725296604695</v>
+        <v>-0.08239638995951958</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.08021941369832863</v>
+        <v>-0.08238966446618469</v>
       </c>
       <c r="F116" t="n">
-        <v>-0.08276157443061034</v>
+        <v>-0.08238293897284989</v>
       </c>
       <c r="G116" t="n">
-        <v>-0.08308470382475594</v>
+        <v>-0.08237621347951495</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.08533331137762948</v>
+        <v>-0.08236948798618009</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.08758191893050296</v>
+        <v>-0.08236276249284523</v>
       </c>
       <c r="J116" t="n">
-        <v>-0.08983052648337647</v>
+        <v>-0.08235603699951034</v>
       </c>
       <c r="K116" t="n">
-        <v>-0.09207913403625002</v>
+        <v>-0.0823493115061755</v>
       </c>
       <c r="L116" t="n">
-        <v>-0.09432774158912358</v>
+        <v>-0.08013337469963744</v>
       </c>
       <c r="M116" t="n">
-        <v>-0.09657634914199713</v>
+        <v>-0.07974803231640583</v>
       </c>
       <c r="N116" t="n">
-        <v>-0.09882495669487061</v>
+        <v>-0.07936268993317436</v>
       </c>
       <c r="O116" t="n">
-        <v>-0.10107356424774412</v>
+        <v>-0.0789773475499428</v>
       </c>
       <c r="P116" t="n">
-        <v>-0.10332217180061767</v>
+        <v>-0.07859200516671137</v>
       </c>
       <c r="Q116" t="n">
-        <v>-0.10557077935349121</v>
+        <v>-0.07820666278347979</v>
       </c>
       <c r="R116" t="n">
-        <v>-0.10781938690636467</v>
+        <v>-0.07782132040024828</v>
       </c>
       <c r="S116" t="n">
-        <v>-0.11006799445923816</v>
+        <v>-0.07743597801701672</v>
       </c>
       <c r="T116" t="n">
-        <v>-0.11231660201211173</v>
+        <v>-0.07705068239966356</v>
       </c>
       <c r="U116" t="n">
-        <v>-0.11456520956498525</v>
+        <v>-0.07666534143880693</v>
       </c>
       <c r="V116" t="n">
-        <v>-0.1168138171178588</v>
+        <v>-0.07628000047795033</v>
       </c>
       <c r="W116" t="n">
-        <v>-0.11906242467073232</v>
+        <v>-0.0758946595170937</v>
       </c>
       <c r="X116" t="n">
-        <v>-0.12131110728442931</v>
+        <v>-0.0755093185562371</v>
       </c>
       <c r="Y116" t="n">
-        <v>-0.12354371435050657</v>
+        <v>-0.07512397759538048</v>
       </c>
       <c r="Z116" t="n">
-        <v>-0.1256309369950376</v>
+        <v>-0.07473863663452385</v>
       </c>
       <c r="AA116" t="n">
-        <v>-0.12710279810735187</v>
+        <v>-0.07435329567366725</v>
       </c>
       <c r="AB116" t="n">
-        <v>-0.12706675944726664</v>
+        <v>-0.0739679547128106</v>
       </c>
       <c r="AC116" t="n">
-        <v>-0.1252166998363934</v>
+        <v>-0.073582613751954</v>
       </c>
       <c r="AD116" t="n">
-        <v>-0.12221203396745718</v>
+        <v>-0.07319727279109738</v>
       </c>
       <c r="AE116" t="n">
-        <v>-0.11793221017918641</v>
+        <v>-0.07281193183024073</v>
       </c>
       <c r="AF116" t="n">
-        <v>-0.11492053365798634</v>
+        <v>-0.07242659086938413</v>
       </c>
       <c r="AG116" t="n">
-        <v>-0.11462176710204498</v>
+        <v>-0.0720412499085275</v>
       </c>
       <c r="AH116" t="n">
-        <v>-0.11432300054610367</v>
+        <v>-0.07165590894767088</v>
       </c>
       <c r="AI116" t="n">
-        <v>-0.11402423399016232</v>
+        <v>-0.07127056798681428</v>
       </c>
       <c r="AJ116" t="n">
-        <v>-0.11372546743422093</v>
+        <v>-0.07088522702595762</v>
       </c>
     </row>
     <row r="117">
@@ -11686,106 +11744,106 @@
         <v>5</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.23722174418779762</v>
+        <v>-0.24448976740688672</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.2397639049200792</v>
+        <v>-0.24448304191355186</v>
       </c>
       <c r="E175" t="n">
-        <v>-0.2423060656523609</v>
+        <v>-0.24447631642021694</v>
       </c>
       <c r="F175" t="n">
-        <v>-0.2448482263846426</v>
+        <v>-0.24446959092688214</v>
       </c>
       <c r="G175" t="n">
-        <v>-0.2451713557787882</v>
+        <v>-0.24446286543354723</v>
       </c>
       <c r="H175" t="n">
-        <v>-0.24741996333166175</v>
+        <v>-0.24445613994021237</v>
       </c>
       <c r="I175" t="n">
-        <v>-0.24966857088453523</v>
+        <v>-0.2444494144468775</v>
       </c>
       <c r="J175" t="n">
-        <v>-0.25191717843740874</v>
+        <v>-0.2444426889535426</v>
       </c>
       <c r="K175" t="n">
-        <v>-0.2541657859902823</v>
+        <v>-0.24443596346020777</v>
       </c>
       <c r="L175" t="n">
-        <v>-0.25641439354315587</v>
+        <v>-0.2422200266536697</v>
       </c>
       <c r="M175" t="n">
-        <v>-0.2586630010960294</v>
+        <v>-0.24183468427043808</v>
       </c>
       <c r="N175" t="n">
-        <v>-0.2609116086489029</v>
+        <v>-0.24144934188720663</v>
       </c>
       <c r="O175" t="n">
-        <v>-0.2631602162017764</v>
+        <v>-0.24106399950397506</v>
       </c>
       <c r="P175" t="n">
-        <v>-0.2654088237546499</v>
+        <v>-0.24067865712074366</v>
       </c>
       <c r="Q175" t="n">
-        <v>-0.2676574313075235</v>
+        <v>-0.24029331473751206</v>
       </c>
       <c r="R175" t="n">
-        <v>-0.26990603886039694</v>
+        <v>-0.23990797235428055</v>
       </c>
       <c r="S175" t="n">
-        <v>-0.2721546464132704</v>
+        <v>-0.239522629971049</v>
       </c>
       <c r="T175" t="n">
-        <v>-0.274403253966144</v>
+        <v>-0.23913733435369583</v>
       </c>
       <c r="U175" t="n">
-        <v>-0.27665186151901755</v>
+        <v>-0.2387519933928392</v>
       </c>
       <c r="V175" t="n">
-        <v>-0.2789004690718911</v>
+        <v>-0.2383666524319826</v>
       </c>
       <c r="W175" t="n">
-        <v>-0.28114907662476457</v>
+        <v>-0.23798131147112597</v>
       </c>
       <c r="X175" t="n">
-        <v>-0.28339775923846156</v>
+        <v>-0.23759597051026937</v>
       </c>
       <c r="Y175" t="n">
-        <v>-0.28563036630453886</v>
+        <v>-0.23721062954941274</v>
       </c>
       <c r="Z175" t="n">
-        <v>-0.28771758894906985</v>
+        <v>-0.23682528858855612</v>
       </c>
       <c r="AA175" t="n">
-        <v>-0.28918945006138413</v>
+        <v>-0.23643994762769951</v>
       </c>
       <c r="AB175" t="n">
-        <v>-0.2891534114012989</v>
+        <v>-0.23605460666684286</v>
       </c>
       <c r="AC175" t="n">
-        <v>-0.28730335179042565</v>
+        <v>-0.23566926570598629</v>
       </c>
       <c r="AD175" t="n">
-        <v>-0.28429868592148944</v>
+        <v>-0.23528392474512966</v>
       </c>
       <c r="AE175" t="n">
-        <v>-0.2800188621332187</v>
+        <v>-0.234898583784273</v>
       </c>
       <c r="AF175" t="n">
-        <v>-0.2770071856120186</v>
+        <v>-0.2345132428234164</v>
       </c>
       <c r="AG175" t="n">
-        <v>-0.27670841905607724</v>
+        <v>-0.23412790186255977</v>
       </c>
       <c r="AH175" t="n">
-        <v>-0.27640965250013594</v>
+        <v>-0.23374256090170314</v>
       </c>
       <c r="AI175" t="n">
-        <v>-0.2761108859441946</v>
+        <v>-0.23335721994084654</v>
       </c>
       <c r="AJ175" t="n">
-        <v>-0.27581211938825323</v>
+        <v>-0.2329718789799899</v>
       </c>
     </row>
     <row r="176">
@@ -11823,7 +11881,7 @@
         <v>5</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.2572769442028464</v>
+        <v>-0.24207221191986328</v>
       </c>
     </row>
   </sheetData>
@@ -31693,7 +31751,7 @@
         <v>5</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0</v>
+        <v>0.010876930545381112</v>
       </c>
     </row>
     <row r="113">
@@ -31785,7 +31843,7 @@
         <v>5</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0</v>
+        <v>0.010876930545381112</v>
       </c>
       <c r="D116" t="n">
         <v>0.002870416751411371</v>
@@ -33757,7 +33815,7 @@
         <v>5</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.0037872446117935402</v>
+        <v>0.007089685933587572</v>
       </c>
     </row>
   </sheetData>
@@ -36496,106 +36554,106 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3435423132329195</v>
+        <v>0.3035068607240369</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3198527987311892</v>
+        <v>0.2773942879344182</v>
       </c>
       <c r="E13" t="n">
-        <v>0.29424176095043203</v>
+        <v>0.25083697276419137</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2672266519679596</v>
+        <v>0.22394727140898363</v>
       </c>
       <c r="G13" t="n">
-        <v>0.24102681395943748</v>
+        <v>0.19671571084213912</v>
       </c>
       <c r="H13" t="n">
-        <v>0.21148777005180425</v>
+        <v>0.1691305088560488</v>
       </c>
       <c r="I13" t="n">
-        <v>0.18053250399597875</v>
+        <v>0.1411815992046272</v>
       </c>
       <c r="J13" t="n">
-        <v>0.14814610938900535</v>
+        <v>0.1128495652976445</v>
       </c>
       <c r="K13" t="n">
-        <v>0.11433352199999755</v>
+        <v>0.08413082548017259</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07910640778620548</v>
+        <v>0.05723589090221193</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0424658694183255</v>
+        <v>0.02811822916289644</v>
       </c>
       <c r="N13" t="n">
-        <v>0.004447377661640994</v>
+        <v>-0.001361290466506071</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.034968504609639545</v>
+        <v>-0.031229715175168024</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.07580636662959586</v>
+        <v>-0.06151703356213231</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.11806675189074348</v>
+        <v>-0.09223119184033954</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.16174605470287282</v>
+        <v>-0.12337860950675188</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.206847153494142</v>
+        <v>-0.15496763450344014</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.25337330126796287</v>
+        <v>-0.18700747046455002</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.30132296970652117</v>
+        <v>-0.21950531781768068</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.3506959949892474</v>
+        <v>-0.25246868108678466</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.40149284744672475</v>
+        <v>-0.2859048240719702</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.4537048420507285</v>
+        <v>-0.319833801081311</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.5071600735345261</v>
+        <v>-0.35443230251892704</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.5613225864958873</v>
+        <v>-0.389913761896984</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.6151378293422081</v>
+        <v>-0.4263831313935368</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.6670567004273024</v>
+        <v>-0.46386098118405217</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.7181249403932302</v>
+        <v>-0.502849822879873</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.7703557183005576</v>
+        <v>-0.5437981233508948</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.8202452104488471</v>
+        <v>-0.5857978316693766</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.8691930268751197</v>
+        <v>-0.6284779102826246</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.918234028634362</v>
+        <v>-0.6716776300867471</v>
       </c>
       <c r="AH13" t="n">
-        <v>-0.9648484735734209</v>
+        <v>-0.7155066274639994</v>
       </c>
       <c r="AI13" t="n">
-        <v>-1.0094726380590484</v>
+        <v>-0.7600005543407724</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-1.0526728054787067</v>
+        <v>-0.8050188217185659</v>
       </c>
     </row>
     <row r="14">
@@ -37181,106 +37239,106 @@
         <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5493999690293134</v>
+        <v>0.5092494617059731</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5257104545275834</v>
+        <v>0.48313688891635453</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5000994167468262</v>
+        <v>0.4565795737461278</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4730843077643535</v>
+        <v>0.4296898723909198</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4468844697558314</v>
+        <v>0.40245831182407543</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4173454258481984</v>
+        <v>0.3748731098379851</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3863901597923728</v>
+        <v>0.3469242001865634</v>
       </c>
       <c r="J24" t="n">
-        <v>0.35400376518539944</v>
+        <v>0.3185921662795808</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3201911777963915</v>
+        <v>0.2898734264621089</v>
       </c>
       <c r="L24" t="n">
-        <v>0.28496406358259946</v>
+        <v>0.26297849188414807</v>
       </c>
       <c r="M24" t="n">
-        <v>0.24832352521471965</v>
+        <v>0.23386083014483283</v>
       </c>
       <c r="N24" t="n">
-        <v>0.21030503345803506</v>
+        <v>0.20438131051543024</v>
       </c>
       <c r="O24" t="n">
-        <v>0.17088915118675446</v>
+        <v>0.17451288580676824</v>
       </c>
       <c r="P24" t="n">
-        <v>0.13005128916679812</v>
+        <v>0.14422556741980394</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.08779090390565061</v>
+        <v>0.1135114091415968</v>
       </c>
       <c r="R24" t="n">
-        <v>0.04411160109352125</v>
+        <v>0.08236399147518442</v>
       </c>
       <c r="S24" t="n">
-        <v>-9.894976977479625E-4</v>
+        <v>0.05077496647849615</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.04751564547156878</v>
+        <v>0.018735130517386303</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.09546531391012708</v>
+        <v>-0.013762716835744367</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.14483833919285333</v>
+        <v>-0.046726080104848425</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.1956351916503307</v>
+        <v>-0.08016222309003387</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.2478471862543344</v>
+        <v>-0.1140912000993747</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.301302417738132</v>
+        <v>-0.14868970153699068</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.3554649306994933</v>
+        <v>-0.1841711609150477</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.409280173545814</v>
+        <v>-0.2206405304116004</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.4611990446309083</v>
+        <v>-0.25811838020211586</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.5122672845968359</v>
+        <v>-0.2971072218979365</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.5644980625041636</v>
+        <v>-0.3380555223689584</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.6143875546524531</v>
+        <v>-0.3800552306874404</v>
       </c>
       <c r="AF24" t="n">
-        <v>-0.6633351017629535</v>
+        <v>-0.422735039984916</v>
       </c>
       <c r="AG24" t="n">
-        <v>-0.7122693024845177</v>
+        <v>-0.46582795875136057</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.7583566145754201</v>
+        <v>-0.5091298232804564</v>
       </c>
       <c r="AI24" t="n">
-        <v>-0.8018281326565062</v>
+        <v>-0.5524711037526882</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-0.8433739061875589</v>
+        <v>-0.5958349772418758</v>
       </c>
     </row>
     <row r="25">
@@ -37866,106 +37924,106 @@
         <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7201507963432539</v>
+        <v>0.6798078697612515</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6964612818415234</v>
+        <v>0.6536952969716328</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6708502440607664</v>
+        <v>0.6271379818014059</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6438351350782939</v>
+        <v>0.6002482804461982</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6176352970697716</v>
+        <v>0.5730167198793535</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5880962531621385</v>
+        <v>0.5454315178932632</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5571409871063131</v>
+        <v>0.5174826082418416</v>
       </c>
       <c r="J35" t="n">
-        <v>0.5247545924993398</v>
+        <v>0.48915057433485903</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4909420051103319</v>
+        <v>0.4604318345173871</v>
       </c>
       <c r="L35" t="n">
-        <v>0.4557148908965399</v>
+        <v>0.4335368999394264</v>
       </c>
       <c r="M35" t="n">
-        <v>0.41907435252865977</v>
+        <v>0.40441923820011094</v>
       </c>
       <c r="N35" t="n">
-        <v>0.3810558607719752</v>
+        <v>0.3749397185707083</v>
       </c>
       <c r="O35" t="n">
-        <v>0.34163997850069466</v>
+        <v>0.3450712938620464</v>
       </c>
       <c r="P35" t="n">
-        <v>0.3008021164807384</v>
+        <v>0.3147839754750821</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.25854173121959073</v>
+        <v>0.28406981719687485</v>
       </c>
       <c r="R35" t="n">
-        <v>0.21486242840746145</v>
+        <v>0.2529223995304625</v>
       </c>
       <c r="S35" t="n">
-        <v>0.16976132961619225</v>
+        <v>0.2213333745337743</v>
       </c>
       <c r="T35" t="n">
-        <v>0.12323518184237148</v>
+        <v>0.18929353857266445</v>
       </c>
       <c r="U35" t="n">
-        <v>0.07528551340381315</v>
+        <v>0.1567956912195338</v>
       </c>
       <c r="V35" t="n">
-        <v>0.025912488121086888</v>
+        <v>0.12383232795042971</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.02488436433639042</v>
+        <v>0.0903961849652443</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.07709635894039418</v>
+        <v>0.05646720795590344</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.1305515904241918</v>
+        <v>0.021868706518287456</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.18471410338555308</v>
+        <v>-0.013612752859769567</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.23852934623187372</v>
+        <v>-0.05008212235632223</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.29044821731696807</v>
+        <v>-0.08755997214683778</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.34151645728289587</v>
+        <v>-0.12654881384265854</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.3937472351902233</v>
+        <v>-0.16749711431368033</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.4436367273385128</v>
+        <v>-0.20949682263216213</v>
       </c>
       <c r="AF35" t="n">
-        <v>-0.49258427444901337</v>
+        <v>-0.252176631929638</v>
       </c>
       <c r="AG35" t="n">
-        <v>-0.5415184751705775</v>
+        <v>-0.29526955069608246</v>
       </c>
       <c r="AH35" t="n">
-        <v>-0.5876057872614797</v>
+        <v>-0.33857141522517803</v>
       </c>
       <c r="AI35" t="n">
-        <v>-0.631071361856788</v>
+        <v>-0.38190675221163195</v>
       </c>
       <c r="AJ35" t="n">
-        <v>-0.6724234591302716</v>
+        <v>-0.42507694944325064</v>
       </c>
     </row>
     <row r="36">
@@ -38551,106 +38609,106 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7503901872898353</v>
+        <v>0.7097774770049665</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7267006727881051</v>
+        <v>0.6836649042153478</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7010896350073481</v>
+        <v>0.6571075890451211</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6740745260248752</v>
+        <v>0.6302178876899132</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6478746880163532</v>
+        <v>0.6029863271230685</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6183356441087202</v>
+        <v>0.5754011251369784</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5873803780528947</v>
+        <v>0.5474522154855568</v>
       </c>
       <c r="J46" t="n">
-        <v>0.5549939834459214</v>
+        <v>0.5191201815785744</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5211813960569135</v>
+        <v>0.49040144176110223</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4859542818431212</v>
+        <v>0.4635065071831414</v>
       </c>
       <c r="M46" t="n">
-        <v>0.44931374347524144</v>
+        <v>0.43438884544382605</v>
       </c>
       <c r="N46" t="n">
-        <v>0.41129525171855685</v>
+        <v>0.4049093258144235</v>
       </c>
       <c r="O46" t="n">
-        <v>0.37187936944727645</v>
+        <v>0.3750409011057616</v>
       </c>
       <c r="P46" t="n">
-        <v>0.3310415074273201</v>
+        <v>0.3447535827187973</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.2887811221661724</v>
+        <v>0.31403942444059</v>
       </c>
       <c r="R46" t="n">
-        <v>0.24510181935404307</v>
+        <v>0.2828920067741777</v>
       </c>
       <c r="S46" t="n">
-        <v>0.20000072056277388</v>
+        <v>0.25130298177748944</v>
       </c>
       <c r="T46" t="n">
-        <v>0.15347457278895305</v>
+        <v>0.21926314581637957</v>
       </c>
       <c r="U46" t="n">
-        <v>0.10552490435039474</v>
+        <v>0.18676529846324894</v>
       </c>
       <c r="V46" t="n">
-        <v>0.056151879067668484</v>
+        <v>0.15380193519414487</v>
       </c>
       <c r="W46" t="n">
-        <v>0.005355026610191188</v>
+        <v>0.12036579220895947</v>
       </c>
       <c r="X46" t="n">
-        <v>-0.046856967993812566</v>
+        <v>0.08643681519961861</v>
       </c>
       <c r="Y46" t="n">
-        <v>-0.10031219947761016</v>
+        <v>0.05183831376200264</v>
       </c>
       <c r="Z46" t="n">
-        <v>-0.15447471243897143</v>
+        <v>0.016356854383945643</v>
       </c>
       <c r="AA46" t="n">
-        <v>-0.20828995528529212</v>
+        <v>-0.020112515112607088</v>
       </c>
       <c r="AB46" t="n">
-        <v>-0.2602088263703864</v>
+        <v>-0.0575903649031225</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.3112770663363142</v>
+        <v>-0.09657920659894331</v>
       </c>
       <c r="AD46" t="n">
-        <v>-0.3635078442436417</v>
+        <v>-0.13752750706996517</v>
       </c>
       <c r="AE46" t="n">
-        <v>-0.4133973363919311</v>
+        <v>-0.17952721538844696</v>
       </c>
       <c r="AF46" t="n">
-        <v>-0.46234488350243186</v>
+        <v>-0.2222070246859229</v>
       </c>
       <c r="AG46" t="n">
-        <v>-0.5112790842239958</v>
+        <v>-0.26529994345236724</v>
       </c>
       <c r="AH46" t="n">
-        <v>-0.5573663963148983</v>
+        <v>-0.308601807981463</v>
       </c>
       <c r="AI46" t="n">
-        <v>-0.6008319709102066</v>
+        <v>-0.35193714496791684</v>
       </c>
       <c r="AJ46" t="n">
-        <v>-0.6421931985365621</v>
+        <v>-0.3951164725524075</v>
       </c>
     </row>
     <row r="47">
@@ -39236,106 +39294,106 @@
         <v>5</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7932544678634197</v>
+        <v>0.75229460943148</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7695649533616895</v>
+        <v>0.7261820366418614</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7439539155809318</v>
+        <v>0.6996247214716341</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7169388065984595</v>
+        <v>0.6727350201164266</v>
       </c>
       <c r="G57" t="n">
-        <v>0.6907389685899377</v>
+        <v>0.6455034595495824</v>
       </c>
       <c r="H57" t="n">
-        <v>0.6611999246823044</v>
+        <v>0.6179182575634918</v>
       </c>
       <c r="I57" t="n">
-        <v>0.6302446586264788</v>
+        <v>0.5899693479120702</v>
       </c>
       <c r="J57" t="n">
-        <v>0.5978582640195054</v>
+        <v>0.5616373140050874</v>
       </c>
       <c r="K57" t="n">
-        <v>0.5640456766304975</v>
+        <v>0.5329185741876156</v>
       </c>
       <c r="L57" t="n">
-        <v>0.5288185624167054</v>
+        <v>0.5060236396096549</v>
       </c>
       <c r="M57" t="n">
-        <v>0.4921780240488255</v>
+        <v>0.4769059778703394</v>
       </c>
       <c r="N57" t="n">
-        <v>0.454159532292141</v>
+        <v>0.44742645824093696</v>
       </c>
       <c r="O57" t="n">
-        <v>0.4147436500208605</v>
+        <v>0.41755803353227494</v>
       </c>
       <c r="P57" t="n">
-        <v>0.37390578800090424</v>
+        <v>0.38727071514531064</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.3316454027397566</v>
+        <v>0.35655655686710347</v>
       </c>
       <c r="R57" t="n">
-        <v>0.28796609992762723</v>
+        <v>0.32540913920069114</v>
       </c>
       <c r="S57" t="n">
-        <v>0.24286500113635803</v>
+        <v>0.2938201142040028</v>
       </c>
       <c r="T57" t="n">
-        <v>0.19633885336253715</v>
+        <v>0.2617802782428929</v>
       </c>
       <c r="U57" t="n">
-        <v>0.1483891849239789</v>
+        <v>0.2292824308897623</v>
       </c>
       <c r="V57" t="n">
-        <v>0.09901615964125265</v>
+        <v>0.19631906762065826</v>
       </c>
       <c r="W57" t="n">
-        <v>0.04821930718377533</v>
+        <v>0.16288292463547283</v>
       </c>
       <c r="X57" t="n">
-        <v>-0.00399268742022843</v>
+        <v>0.12895394762613197</v>
       </c>
       <c r="Y57" t="n">
-        <v>-0.05744791890402603</v>
+        <v>0.09435544618851599</v>
       </c>
       <c r="Z57" t="n">
-        <v>-0.11161043186538734</v>
+        <v>0.05887398681045895</v>
       </c>
       <c r="AA57" t="n">
-        <v>-0.165425674711708</v>
+        <v>0.02240461731390625</v>
       </c>
       <c r="AB57" t="n">
-        <v>-0.21734454579680226</v>
+        <v>-0.01507323247660916</v>
       </c>
       <c r="AC57" t="n">
-        <v>-0.2684127857627301</v>
+        <v>-0.054062074172429975</v>
       </c>
       <c r="AD57" t="n">
-        <v>-0.32064356367005753</v>
+        <v>-0.09501037464345177</v>
       </c>
       <c r="AE57" t="n">
-        <v>-0.370533055818347</v>
+        <v>-0.13701008296193362</v>
       </c>
       <c r="AF57" t="n">
-        <v>-0.4194806029288477</v>
+        <v>-0.17968989225940957</v>
       </c>
       <c r="AG57" t="n">
-        <v>-0.46841480365041177</v>
+        <v>-0.2227828110258539</v>
       </c>
       <c r="AH57" t="n">
-        <v>-0.5145021157413141</v>
+        <v>-0.2660846755549497</v>
       </c>
       <c r="AI57" t="n">
-        <v>-0.5579697747146943</v>
+        <v>-0.30942209691947553</v>
       </c>
       <c r="AJ57" t="n">
-        <v>-0.599472287806027</v>
+        <v>-0.35274270996894314</v>
       </c>
     </row>
   </sheetData>
@@ -39591,106 +39649,106 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4067366238968544</v>
+        <v>-0.439203803766361</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.37736487403187013</v>
+        <v>-0.41189898208153153</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.3496322115957366</v>
+        <v>-0.3849735321446738</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3230971496814038</v>
+        <v>-0.35833153910350035</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2958665180817048</v>
+        <v>-0.33198105279882245</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.2714839913320159</v>
+        <v>-0.3059320010253895</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.24830861127701792</v>
+        <v>-0.2801924759217508</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.22634228732389147</v>
+        <v>-0.2547704890949959</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.20558684265242794</v>
+        <v>-0.22967387017470686</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.18604313610105944</v>
+        <v>-0.20302557512717403</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.16771230498802014</v>
+        <v>-0.17827899950930215</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1505980974672646</v>
+        <v>-0.15388054327191208</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.13470058067018176</v>
+        <v>-0.12983711211036242</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.12002264949788377</v>
+        <v>-0.10615623887649167</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.10656489688992672</v>
+        <v>-0.08284480414997068</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.09432499233621562</v>
+        <v>-0.059908873547425565</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.08330560677249829</v>
+        <v>-0.03735573859053945</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.07350853464319518</v>
+        <v>-0.015192474287511382</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.06493243900095924</v>
+        <v>0.006574803619022329</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.05757739922984939</v>
+        <v>0.027939520261252047</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.05144459719252684</v>
+        <v>0.04889486175336208</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.046526204349191636</v>
+        <v>0.06942405390012495</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.04267512639448252</v>
+        <v>0.08937673852533014</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.0394341652446666</v>
+        <v>0.10857086978555305</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.03590416124836069</v>
+        <v>0.12691661469754445</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.030764229274387336</v>
+        <v>0.1443960141596756</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.024905752116458416</v>
+        <v>0.16058093219454836</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.020045726759058937</v>
+        <v>0.17508903021374705</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.01319534490984523</v>
+        <v>0.18869488535400178</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.005548737918540475</v>
+        <v>0.20171485328752958</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0021017341697227845</v>
+        <v>0.2143764823924372</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.012206666180533902</v>
+        <v>0.2268804698102529</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.02460590841533244</v>
+        <v>0.23940174601977768</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.03883773741133335</v>
+        <v>0.2520874384486847</v>
       </c>
     </row>
     <row r="6">
@@ -39701,106 +39759,106 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0452675830054864</v>
+        <v>-0.05146039692433975</v>
       </c>
       <c r="D6" t="n">
-        <v>0.044048518030051456</v>
+        <v>0.037461456700281004</v>
       </c>
       <c r="E6" t="n">
-        <v>0.13305197831624177</v>
+        <v>0.1263109486769021</v>
       </c>
       <c r="F6" t="n">
-        <v>0.22182700739250116</v>
+        <v>0.21510637387544002</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3107347099453725</v>
+        <v>0.30384619686330055</v>
       </c>
       <c r="H6" t="n">
-        <v>0.39909916287113156</v>
+        <v>0.39252852400556504</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4872333637428771</v>
+        <v>0.48115181180173716</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5751369483588702</v>
+        <v>0.5697145321119508</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6628095689644481</v>
+        <v>0.6582151915068646</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7502510617441327</v>
+        <v>0.7470118187547601</v>
       </c>
       <c r="M6" t="n">
-        <v>0.837461209765002</v>
+        <v>0.8354457106310866</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9244392981013968</v>
+        <v>0.9238132019591201</v>
       </c>
       <c r="O6" t="n">
-        <v>1.011185313948626</v>
+        <v>1.0121129755414162</v>
       </c>
       <c r="P6" t="n">
-        <v>1.0976987051311087</v>
+        <v>1.10034359455624</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.1839793585511156</v>
+        <v>1.1885037465967325</v>
       </c>
       <c r="R6" t="n">
-        <v>1.270027718731867</v>
+        <v>1.2765922747026892</v>
       </c>
       <c r="S6" t="n">
-        <v>1.355843276217101</v>
+        <v>1.364607788083867</v>
       </c>
       <c r="T6" t="n">
-        <v>1.4414256887331611</v>
+        <v>1.4525489372479654</v>
       </c>
       <c r="U6" t="n">
-        <v>1.5267752112903739</v>
+        <v>1.5404145556737077</v>
       </c>
       <c r="V6" t="n">
-        <v>1.611891828746965</v>
+        <v>1.6282033892659415</v>
       </c>
       <c r="W6" t="n">
-        <v>1.6967753156735756</v>
+        <v>1.7159141383390428</v>
       </c>
       <c r="X6" t="n">
-        <v>1.7811836330955366</v>
+        <v>1.8033000711744538</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.8616147925425097</v>
+        <v>1.886802462995342</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.9328797657669812</v>
+        <v>1.9611103556943918</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.9908808251508803</v>
+        <v>2.0219373804664014</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.032672191960654</v>
+        <v>2.066082386437908</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.0559576264957173</v>
+        <v>2.0913374939489424</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.059354919448042</v>
+        <v>2.0965750674217882</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.0434509589454444</v>
+        <v>2.081959650894779</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.009106284766794</v>
+        <v>2.048639895559335</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.9583295795013433</v>
+        <v>1.9988190220922404</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.8948195980050224</v>
+        <v>1.9357666381999095</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.8228486284452112</v>
+        <v>1.8638189454907608</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.7477029452407509</v>
+        <v>1.788378351053122</v>
       </c>
     </row>
     <row r="7">
@@ -39829,61 +39887,61 @@
         <v>0.04705661002778107</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04605925507589243</v>
+        <v>0.04606197326280145</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04571624574975907</v>
+        <v>0.04573178885936573</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0460590143113827</v>
+        <v>0.04607218388545185</v>
       </c>
       <c r="L7" t="n">
-        <v>0.047092447458134</v>
+        <v>0.04710173260086996</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04883087381328313</v>
+        <v>0.048836651149902835</v>
       </c>
       <c r="N7" t="n">
-        <v>0.05128581872477486</v>
+        <v>0.05128947674596669</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0544842395142901</v>
+        <v>0.054478819570712544</v>
       </c>
       <c r="P7" t="n">
-        <v>0.058418847702082936</v>
+        <v>0.0584033947054681</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.06310159644144739</v>
+        <v>0.06307516231059535</v>
       </c>
       <c r="R7" t="n">
-        <v>0.06856886316521754</v>
+        <v>0.06851074413582588</v>
       </c>
       <c r="S7" t="n">
-        <v>0.074814695327055</v>
+        <v>0.07473236713416613</v>
       </c>
       <c r="T7" t="n">
-        <v>0.08184146591774281</v>
+        <v>0.08173698126837518</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08970611577739185</v>
+        <v>0.08953418041961701</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0983794626658073</v>
+        <v>0.09813440051776928</v>
       </c>
       <c r="W7" t="n">
-        <v>0.10857308892150483</v>
+        <v>0.10757319815054839</v>
       </c>
       <c r="X7" t="n">
-        <v>0.11913594930807048</v>
+        <v>0.11784128950038902</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.13015102906614584</v>
+        <v>0.12894314991298533</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.14200969290609125</v>
+        <v>0.14109891347328996</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.154735892181981</v>
+        <v>0.1547006488242174</v>
       </c>
       <c r="AB7" t="n">
         <v>0.1683024315348382</v>
@@ -39921,79 +39979,79 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>2.9937102368663195</v>
+        <v>2.081301464648913</v>
       </c>
       <c r="D8" t="n">
-        <v>2.4258069372854054</v>
+        <v>1.4555429178623984</v>
       </c>
       <c r="E8" t="n">
-        <v>1.811841190811188</v>
+        <v>0.8195870860511416</v>
       </c>
       <c r="F8" t="n">
-        <v>1.1647680621513028</v>
+        <v>0.17567409905948206</v>
       </c>
       <c r="G8" t="n">
-        <v>0.537379239597576</v>
+        <v>-0.4764220169148907</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.1699611121184783</v>
+        <v>-1.1369799532872298</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.911188286562792</v>
+        <v>-1.8063793009166669</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.6863773891478817</v>
+        <v>-2.485280798023358</v>
       </c>
       <c r="K8" t="n">
-        <v>-2.4964203656045907</v>
+        <v>-3.173325945217637</v>
       </c>
       <c r="L8" t="n">
-        <v>-3.3405162069805385</v>
+        <v>-3.8177651212179935</v>
       </c>
       <c r="M8" t="n">
-        <v>-4.218696874756143</v>
+        <v>-4.515647358700527</v>
       </c>
       <c r="N8" t="n">
-        <v>-5.1322783493619735</v>
+        <v>-5.225375316546234</v>
       </c>
       <c r="O8" t="n">
-        <v>-6.087584446441756</v>
+        <v>-5.949646396627157</v>
       </c>
       <c r="P8" t="n">
-        <v>-7.077480519912996</v>
+        <v>-6.684200371081458</v>
       </c>
       <c r="Q8" t="n">
-        <v>-8.101983386770602</v>
+        <v>-7.429232387411313</v>
       </c>
       <c r="R8" t="n">
-        <v>-9.217615347717949</v>
+        <v>-8.184914479077626</v>
       </c>
       <c r="S8" t="n">
-        <v>-10.38604755392798</v>
+        <v>-8.99371356401387</v>
       </c>
       <c r="T8" t="n">
-        <v>-11.59151726662931</v>
+        <v>-9.82447339460835</v>
       </c>
       <c r="U8" t="n">
-        <v>-13.095613404692838</v>
+        <v>-10.667232069621697</v>
       </c>
       <c r="V8" t="n">
-        <v>-14.661844720033162</v>
+        <v>-11.522188815129908</v>
       </c>
       <c r="W8" t="n">
-        <v>-22.256880733012835</v>
+        <v>-12.551569097628274</v>
       </c>
       <c r="X8" t="n">
-        <v>-25.0</v>
+        <v>-13.629137978573308</v>
       </c>
       <c r="Y8" t="n">
-        <v>-25.0</v>
+        <v>-14.728090972962512</v>
       </c>
       <c r="Z8" t="n">
-        <v>-25.0</v>
+        <v>-17.78965222403086</v>
       </c>
       <c r="AA8" t="n">
-        <v>-25.0</v>
+        <v>-24.74549448699615</v>
       </c>
       <c r="AB8" t="n">
         <v>-25.0</v>
@@ -40021,6 +40079,1095 @@
       </c>
       <c r="AJ8" t="n">
         <v>-25.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+    <col min="4" max="4" width="15.0" customWidth="true"/>
+    <col min="5" max="5" width="15.0" customWidth="true"/>
+    <col min="6" max="6" width="15.0" customWidth="true"/>
+    <col min="7" max="7" width="15.0" customWidth="true"/>
+    <col min="8" max="8" width="15.0" customWidth="true"/>
+    <col min="9" max="9" width="15.0" customWidth="true"/>
+    <col min="10" max="10" width="15.0" customWidth="true"/>
+    <col min="11" max="11" width="15.0" customWidth="true"/>
+    <col min="12" max="12" width="15.0" customWidth="true"/>
+    <col min="13" max="13" width="15.0" customWidth="true"/>
+    <col min="14" max="14" width="15.0" customWidth="true"/>
+    <col min="15" max="15" width="15.0" customWidth="true"/>
+    <col min="16" max="16" width="15.0" customWidth="true"/>
+    <col min="17" max="17" width="15.0" customWidth="true"/>
+    <col min="18" max="18" width="15.0" customWidth="true"/>
+    <col min="19" max="19" width="15.0" customWidth="true"/>
+    <col min="20" max="20" width="15.0" customWidth="true"/>
+    <col min="21" max="21" width="15.0" customWidth="true"/>
+    <col min="22" max="22" width="15.0" customWidth="true"/>
+    <col min="23" max="23" width="15.0" customWidth="true"/>
+    <col min="24" max="24" width="15.0" customWidth="true"/>
+    <col min="25" max="25" width="15.0" customWidth="true"/>
+    <col min="26" max="26" width="15.0" customWidth="true"/>
+    <col min="27" max="27" width="15.0" customWidth="true"/>
+    <col min="28" max="28" width="15.0" customWidth="true"/>
+    <col min="29" max="29" width="15.0" customWidth="true"/>
+    <col min="30" max="30" width="15.0" customWidth="true"/>
+    <col min="31" max="31" width="15.0" customWidth="true"/>
+    <col min="32" max="32" width="15.0" customWidth="true"/>
+    <col min="33" max="33" width="15.0" customWidth="true"/>
+    <col min="34" max="34" width="15.0" customWidth="true"/>
+    <col min="35" max="35" width="15.0" customWidth="true"/>
+    <col min="36" max="36" width="15.0" customWidth="true"/>
+    <col min="37" max="37" width="15.0" customWidth="true"/>
+    <col min="38" max="38" width="15.0" customWidth="true"/>
+    <col min="39" max="39" width="15.0" customWidth="true"/>
+    <col min="40" max="40" width="15.0" customWidth="true"/>
+    <col min="41" max="41" width="15.0" customWidth="true"/>
+    <col min="42" max="42" width="15.0" customWidth="true"/>
+    <col min="43" max="43" width="15.0" customWidth="true"/>
+    <col min="44" max="44" width="15.0" customWidth="true"/>
+    <col min="45" max="45" width="15.0" customWidth="true"/>
+    <col min="46" max="46" width="15.0" customWidth="true"/>
+    <col min="47" max="47" width="15.0" customWidth="true"/>
+    <col min="48" max="48" width="15.0" customWidth="true"/>
+    <col min="49" max="49" width="15.0" customWidth="true"/>
+    <col min="50" max="50" width="15.0" customWidth="true"/>
+    <col min="51" max="51" width="15.0" customWidth="true"/>
+    <col min="52" max="52" width="15.0" customWidth="true"/>
+    <col min="53" max="53" width="15.0" customWidth="true"/>
+    <col min="54" max="54" width="15.0" customWidth="true"/>
+    <col min="55" max="55" width="15.0" customWidth="true"/>
+    <col min="56" max="56" width="15.0" customWidth="true"/>
+    <col min="57" max="57" width="15.0" customWidth="true"/>
+    <col min="58" max="58" width="15.0" customWidth="true"/>
+    <col min="59" max="59" width="15.0" customWidth="true"/>
+    <col min="60" max="60" width="15.0" customWidth="true"/>
+    <col min="61" max="61" width="15.0" customWidth="true"/>
+    <col min="62" max="62" width="15.0" customWidth="true"/>
+    <col min="63" max="63" width="15.0" customWidth="true"/>
+    <col min="64" max="64" width="15.0" customWidth="true"/>
+    <col min="65" max="65" width="15.0" customWidth="true"/>
+    <col min="66" max="66" width="15.0" customWidth="true"/>
+    <col min="67" max="67" width="15.0" customWidth="true"/>
+    <col min="68" max="68" width="15.0" customWidth="true"/>
+    <col min="69" max="69" width="15.0" customWidth="true"/>
+    <col min="70" max="70" width="15.0" customWidth="true"/>
+    <col min="71" max="71" width="15.0" customWidth="true"/>
+    <col min="72" max="72" width="15.0" customWidth="true"/>
+    <col min="73" max="73" width="15.0" customWidth="true"/>
+    <col min="74" max="74" width="15.0" customWidth="true"/>
+    <col min="75" max="75" width="15.0" customWidth="true"/>
+    <col min="76" max="76" width="15.0" customWidth="true"/>
+    <col min="77" max="77" width="15.0" customWidth="true"/>
+    <col min="78" max="78" width="15.0" customWidth="true"/>
+    <col min="79" max="79" width="15.0" customWidth="true"/>
+    <col min="80" max="80" width="15.0" customWidth="true"/>
+    <col min="81" max="81" width="15.0" customWidth="true"/>
+    <col min="82" max="82" width="15.0" customWidth="true"/>
+    <col min="83" max="83" width="15.0" customWidth="true"/>
+    <col min="84" max="84" width="15.0" customWidth="true"/>
+    <col min="85" max="85" width="15.0" customWidth="true"/>
+    <col min="86" max="86" width="15.0" customWidth="true"/>
+    <col min="87" max="87" width="15.0" customWidth="true"/>
+    <col min="88" max="88" width="15.0" customWidth="true"/>
+    <col min="89" max="89" width="15.0" customWidth="true"/>
+    <col min="90" max="90" width="15.0" customWidth="true"/>
+    <col min="91" max="91" width="15.0" customWidth="true"/>
+    <col min="92" max="92" width="15.0" customWidth="true"/>
+    <col min="93" max="93" width="15.0" customWidth="true"/>
+    <col min="94" max="94" width="15.0" customWidth="true"/>
+    <col min="95" max="95" width="15.0" customWidth="true"/>
+    <col min="96" max="96" width="15.0" customWidth="true"/>
+    <col min="97" max="97" width="15.0" customWidth="true"/>
+    <col min="98" max="98" width="15.0" customWidth="true"/>
+    <col min="99" max="99" width="15.0" customWidth="true"/>
+    <col min="100" max="100" width="15.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.005566585022543797</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.0014052692739896233</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.596245876738501E-6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0041679119944309125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0036972952619105845</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0036054094345296574</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.003313419525249626</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0026152063797689447</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.002230471893165898</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0020280703261570127</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.008349877533815695</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.01669975506763139</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.02504963260144709</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03339951013526278</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.04174938766907848</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.05009926520289418</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.05844914273670987</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.06680178895109873</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.07503837906640923</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.08288862051077439</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0900764156225234</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.09632566673998534</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.10136027620148938</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.10490414634536467</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.10668117950994041</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.10641527803354568</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.1038303442545096</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.09865028051116144</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.09059898914183026</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.0794003724848452</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-3.3192460251634903E-4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.002434664148918872</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.004452033586926526</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.00638403291653931</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.008230662137757224</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.00999192125058027</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.011667810255008442</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.01325832915104175</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.014763477938680186</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.016183256617923754</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.01751766518877245</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.018766703651226277</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.019930372005285232</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.02100867025094932</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.022001598388218538</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.02290915641709289</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0.023731344337572364</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.024468162149656976</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.025119609853346717</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.025685687448641588</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.02616639493554159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9.894368815107752E-6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.9788737630215505E-5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.9683106445323256E-5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.957747526043101E-5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.947184407553876E-5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.936621289064651E-5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6.926058170575427E-5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>7.915495052086202E-5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>8.904931933596977E-5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>9.894368815107752E-5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.0883805696618527E-4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.1873242578129302E-4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.286267945964008E-4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.3852116341150854E-4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.484155322266163E-4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.5830990104172404E-4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.682042698568318E-4</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.7809863867193954E-4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.879930074870473E-4</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.9788737630215504E-4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-3.3192460251634903E-4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.005925107753711932</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.012267510218335081</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0186952827913531</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.025208425472765993</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.03180693826257375</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.03849082116077639</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.045260074167373876</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.05211746596293941</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.05894417176782144</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.06546989901015302</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0714185500282633</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0765140271604814</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.08048023274513645</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.08304106912055764</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.08392043862507415</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.08284224359701504</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.07953038637470947</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.07370876929648666</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.06510129470067572</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.05343186492560576</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.019248847562099387</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.010898970028283692</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.002549092494467997</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0058007850393477015</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.014150662573163393</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.02250054010697909</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.03085041764079479</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.03920029517461048</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.04755294138899934</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.05578953150430984</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.06363977294867501</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.070827568060424</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.07707681917788595</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.08211142863939</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.08565529878326528</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.08743233194784103</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.08716643047144629</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.08458149669241022</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.07940143294906205</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.07135014157973088</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.060151524922745815</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.03754094368343942</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.029191066149623728</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.020841188615808033</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.012491311081992335</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.004141433548176643</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.004208443985639056</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.012558321519454754</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.020908199053270446</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.029260845267659305</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.037497435382969804</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.04534767682733497</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.05253547193908398</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.05878472305654592</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.06381933251804996</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.06736320266192525</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.06914023582650099</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.06887433435010626</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.06628940057107018</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.061109336827722016</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.05305804545839084</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.04185942880140578</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.05175094454143399</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.043401067007618296</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.0350511894738026</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.0267013119399869</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.018351434406171208</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.010001556872355509</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-0.0016516793385398104</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.006698198195275881</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.01505084440966474</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.02328743452497524</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.031137675969340403</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.03832547108108941</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.04457472219855135</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.04960933166005539</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.05315320180393068</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.05493023496850642</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.054664333492111694</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.05207939971307561</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.04689933596972745</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.03884804460039627</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.027649427943411214</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.0544611186087303</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.0461112410749146</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.03776136354109891</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.02941148600728321</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.021061608473467518</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.012711730939651819</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.0043618534058361205</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.003988024127979571</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.01234067034236843</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.02057726045767893</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.028427501902044093</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0356152970137931</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.04186454813125504</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.04689915759275908</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.05044302773663437</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.05222006090121011</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.051954159424815384</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.0493692256457793</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.04418916190243114</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.03613787053309996</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.024939253876114904</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.05806138057920665</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.04971150304539096</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.04136162551157526</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.03301174797775956</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.02466187044394387</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.01631199291012817</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.007962115376312473</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.8776215750321863E-4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.008740408371892078</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.016976998487202577</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.02482723993156774</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.03201503504331675</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.03826428616077869</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.04329889562228273</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.04684276576615802</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.04861979893073376</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.04835389745433903</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.04576896367530295</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.04058889993195479</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.03253760856262361</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.021338991905638552</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.06967365669504798</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.061323779161232286</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.05297390162741659</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.04462402409360089</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.0362741465597852</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.0279242690259695</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.0195743914921538</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.011224513958338109</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-0.0028718677439492496</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.00536472237136125</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.013214963815726413</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.020402758927475423</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.026652010044937363</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.0316866195064414</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.03523048965031669</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.03700752281489243</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.036741621338497704</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.03415668755946162</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.02897662381611346</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.020925332446782283</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.009726715789797225</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.46673336668335</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.753376688344108</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9.304652326163026</v>
+      </c>
+      <c r="F26" t="n">
+        <v>9.784892446223072</v>
+      </c>
+      <c r="G26" t="n">
+        <v>10.445222611305635</v>
+      </c>
+      <c r="H26" t="n">
+        <v>12.53126563281646</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>30.0</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
@@ -33484,106 +33484,67 @@
         <v>5</v>
       </c>
       <c r="C164" t="n">
-        <v>0.019919744839700625</v>
+        <v>0.011404661117717005</v>
       </c>
       <c r="D164" t="n">
-        <v>0.019919460443513386</v>
+        <v>0.011454625341306125</v>
       </c>
       <c r="E164" t="n">
-        <v>0.01991917604732615</v>
+        <v>0.01158928704001466</v>
       </c>
       <c r="F164" t="n">
-        <v>0.019918662950087658</v>
+        <v>0.01182519845092137</v>
       </c>
       <c r="G164" t="n">
-        <v>0.019917825186480314</v>
+        <v>0.012151695771260415</v>
       </c>
       <c r="H164" t="n">
-        <v>0.019916280630723655</v>
+        <v>0.012572560135932827</v>
       </c>
       <c r="I164" t="n">
-        <v>0.019912487955327202</v>
+        <v>0.013084514164012025</v>
       </c>
       <c r="J164" t="n">
-        <v>0.019879794992583015</v>
+        <v>0.013690564651462834</v>
       </c>
       <c r="K164" t="n">
-        <v>0.019833082852848485</v>
+        <v>0.014387735331870119</v>
       </c>
       <c r="L164" t="n">
-        <v>0.019799013811471013</v>
+        <v>0.015178739405669227</v>
       </c>
       <c r="M164" t="n">
-        <v>0.019782712892783275</v>
+        <v>0.016061579380553796</v>
       </c>
       <c r="N164" t="n">
-        <v>0.019787213081944057</v>
+        <v>0.017036389724474712</v>
       </c>
       <c r="O164" t="n">
-        <v>0.019808412222602163</v>
+        <v>0.01810613547994314</v>
       </c>
       <c r="P164" t="n">
-        <v>0.019845929568997316</v>
+        <v>0.018812059480128734</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.019900084110609593</v>
+        <v>0.019097844734292456</v>
       </c>
       <c r="R164" t="n">
-        <v>0.019972713821569583</v>
+        <v>0.019185744662924893</v>
       </c>
       <c r="S164" t="n">
-        <v>0.02006435045043275</v>
+        <v>0.019244652487434625</v>
       </c>
       <c r="T164" t="n">
-        <v>0.020172575872794897</v>
+        <v>0.01929037951919156</v>
       </c>
       <c r="U164" t="n">
-        <v>0.020297308030737</v>
+        <v>0.019327454457738206</v>
       </c>
       <c r="V164" t="n">
-        <v>0.020439087381581022</v>
+        <v>0.019353800880208678</v>
       </c>
       <c r="W164" t="n">
-        <v>0.020599839377474404</v>
-      </c>
-      <c r="X164" t="n">
-        <v>0.02077852791127883</v>
-      </c>
-      <c r="Y164" t="n">
-        <v>0.020974026807766843</v>
-      </c>
-      <c r="Z164" t="n">
-        <v>0.021186286008846717</v>
-      </c>
-      <c r="AA164" t="n">
-        <v>0.021416263138339935</v>
-      </c>
-      <c r="AB164" t="n">
-        <v>0.0216652437093352</v>
-      </c>
-      <c r="AC164" t="n">
-        <v>0.021931626389205428</v>
-      </c>
-      <c r="AD164" t="n">
-        <v>0.022214756008258823</v>
-      </c>
-      <c r="AE164" t="n">
-        <v>0.022514643695147687</v>
-      </c>
-      <c r="AF164" t="n">
-        <v>0.022832456740128935</v>
-      </c>
-      <c r="AG164" t="n">
-        <v>0.023168816268103486</v>
-      </c>
-      <c r="AH164" t="n">
-        <v>0.02344099355667523</v>
-      </c>
-      <c r="AI164" t="n">
-        <v>0.02357029098804046</v>
-      </c>
-      <c r="AJ164" t="n">
-        <v>0.02362618814774622</v>
+        <v>0.019379903824640967</v>
       </c>
     </row>
     <row r="165">
@@ -33680,106 +33641,67 @@
         <v>5</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.0038674728356997735</v>
+        <v>0.007089685933587572</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.0038597239784828995</v>
+        <v>-9.168278603821694E-4</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.003851975121266025</v>
+        <v>0.0019535888910292014</v>
       </c>
       <c r="F169" t="n">
-        <v>-0.0038442262640491502</v>
+        <v>0.004824005642440612</v>
       </c>
       <c r="G169" t="n">
-        <v>-0.0038364774068322754</v>
+        <v>0.0076944223938519435</v>
       </c>
       <c r="H169" t="n">
-        <v>-0.003828728549615401</v>
+        <v>0.010564839145263337</v>
       </c>
       <c r="I169" t="n">
-        <v>-0.0038209796923985265</v>
+        <v>0.013435255896674764</v>
       </c>
       <c r="J169" t="n">
-        <v>-0.0038132308351816516</v>
+        <v>0.01630567264808597</v>
       </c>
       <c r="K169" t="n">
-        <v>-0.003805481977964777</v>
+        <v>0.019176089399497425</v>
       </c>
       <c r="L169" t="n">
-        <v>-0.0037977331207479023</v>
+        <v>0.022046506150908692</v>
       </c>
       <c r="M169" t="n">
-        <v>-0.003789984263531028</v>
+        <v>0.024916922902320213</v>
       </c>
       <c r="N169" t="n">
-        <v>-0.003500238279110859</v>
+        <v>0.027787339653731424</v>
       </c>
       <c r="O169" t="n">
-        <v>-0.0030562614645344567</v>
+        <v>0.030657756405143066</v>
       </c>
       <c r="P169" t="n">
-        <v>-0.002612284649958053</v>
+        <v>0.03352817315655411</v>
       </c>
       <c r="Q169" t="n">
-        <v>-0.0021683078353816453</v>
+        <v>0.03639858990796548</v>
       </c>
       <c r="R169" t="n">
-        <v>-0.0017243310208052425</v>
+        <v>0.03926900665937699</v>
       </c>
       <c r="S169" t="n">
-        <v>-0.0012803542062288457</v>
+        <v>0.04213942341078839</v>
       </c>
       <c r="T169" t="n">
-        <v>-8.363773916524255E-4</v>
+        <v>0.04500984016219975</v>
       </c>
       <c r="U169" t="n">
-        <v>-3.9240057707604775E-4</v>
+        <v>0.047880256913610926</v>
       </c>
       <c r="V169" t="n">
-        <v>5.1576237500357714E-5</v>
+        <v>0.05075067366502259</v>
       </c>
       <c r="W169" t="n">
-        <v>4.955530520767862E-4</v>
-      </c>
-      <c r="X169" t="n">
-        <v>9.395298666531912E-4</v>
-      </c>
-      <c r="Y169" t="n">
-        <v>0.0013835066812295676</v>
-      </c>
-      <c r="Z169" t="n">
-        <v>0.001827483495805984</v>
-      </c>
-      <c r="AA169" t="n">
-        <v>0.002271460310382389</v>
-      </c>
-      <c r="AB169" t="n">
-        <v>0.002715437124958788</v>
-      </c>
-      <c r="AC169" t="n">
-        <v>0.0031594139395352007</v>
-      </c>
-      <c r="AD169" t="n">
-        <v>0.00360339075411163</v>
-      </c>
-      <c r="AE169" t="n">
-        <v>0.00404736756868802</v>
-      </c>
-      <c r="AF169" t="n">
-        <v>0.0044913443832643955</v>
-      </c>
-      <c r="AG169" t="n">
-        <v>0.004935321197840818</v>
-      </c>
-      <c r="AH169" t="n">
-        <v>0.005379298012417204</v>
-      </c>
-      <c r="AI169" t="n">
-        <v>0.005823274826993654</v>
-      </c>
-      <c r="AJ169" t="n">
-        <v>0.00626725164156999</v>
+        <v>0.05362109041643397</v>
       </c>
     </row>
     <row r="170">

--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="184">
   <si>
     <t>Description</t>
   </si>
@@ -568,9 +568,6 @@
     <t>CN at delta rudder = 25.0 deg</t>
   </si>
   <si>
-    <t>CN at delta rudder = 30.0 deg</t>
-  </si>
-  <si>
     <t>Delta_rudder equilibrium</t>
   </si>
   <si>
@@ -40285,9 +40282,6 @@
       <c r="G11" t="n">
         <v>25.0</v>
       </c>
-      <c r="H11" t="n">
-        <v>30.0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -40311,9 +40305,6 @@
       <c r="G12" t="n">
         <v>0.002230471893165898</v>
       </c>
-      <c r="H12" t="n">
-        <v>0.0020280703261570127</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -40966,78 +40957,30 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>182</v>
-      </c>
-      <c r="B24" t="s">
         <v>5</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-0.06967365669504798</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-0.061323779161232286</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-0.05297390162741659</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.04462402409360089</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0.0362741465597852</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-0.0279242690259695</v>
-      </c>
-      <c r="I24" t="n">
-        <v>-0.0195743914921538</v>
-      </c>
-      <c r="J24" t="n">
-        <v>-0.011224513958338109</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-0.0028718677439492496</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.00536472237136125</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.013214963815726413</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.020402758927475423</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.026652010044937363</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.0316866195064414</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.03523048965031669</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.03700752281489243</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.036741621338497704</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.03415668755946162</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0.02897662381611346</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0.020925332446782283</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0.009726715789797225</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>182</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.46673336668335</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6.753376688344108</v>
+      </c>
+      <c r="E25" t="n">
+        <v>9.304652326163026</v>
+      </c>
+      <c r="F25" t="n">
+        <v>9.784892446223072</v>
+      </c>
+      <c r="G25" t="n">
+        <v>10.445222611305635</v>
       </c>
     </row>
     <row r="26">
@@ -41048,48 +40991,19 @@
         <v>16</v>
       </c>
       <c r="C26" t="n">
-        <v>3.46673336668335</v>
+        <v>5.0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.753376688344108</v>
+        <v>10.0</v>
       </c>
       <c r="E26" t="n">
-        <v>9.304652326163026</v>
+        <v>15.0</v>
       </c>
       <c r="F26" t="n">
-        <v>9.784892446223072</v>
+        <v>20.0</v>
       </c>
       <c r="G26" t="n">
-        <v>10.445222611305635</v>
-      </c>
-      <c r="H26" t="n">
-        <v>12.53126563281646</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G27" t="n">
         <v>25.0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>30.0</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="187">
   <si>
     <t>Description</t>
   </si>
@@ -523,6 +523,12 @@
     <t>delta_e equilibrium</t>
   </si>
   <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Maximum efficiency</t>
+  </si>
+  <si>
     <t>Beta</t>
   </si>
   <si>
@@ -41074,30 +41080,14 @@
       <c r="AB5" t="n">
         <v>0.1443960141596756</v>
       </c>
-      <c r="AC5" t="n">
-        <v>0.16058093219454836</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.17508903021374705</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.18869488535400178</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.20171485328752958</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.2143764823924372</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0.2268804698102529</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.23940174601977768</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.2520874384486847</v>
-      </c>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -41184,30 +41174,14 @@
       <c r="AB6" t="n">
         <v>2.066082386437908</v>
       </c>
-      <c r="AC6" t="n">
-        <v>2.0913374939489424</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>2.0965750674217882</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>2.081959650894779</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>2.048639895559335</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1.9988190220922404</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1.9357666381999095</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1.8638189454907608</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1.788378351053122</v>
-      </c>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -41294,30 +41268,14 @@
       <c r="AB7" t="n">
         <v>0.030965243709335198</v>
       </c>
-      <c r="AC7" t="n">
-        <v>0.031231626389205427</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.03151475600825882</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.031814643695147686</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.032132456740128934</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0.03246881626810348</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0.03274099355667523</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0.03287029098804046</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0.03292618814774622</v>
-      </c>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -41404,30 +41362,14 @@
       <c r="AB8" t="n">
         <v>0.1683024315348382</v>
       </c>
-      <c r="AC8" t="n">
-        <v>0.17972185997902318</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.18599657828235983</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.19105474973685002</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0.19579854806260738</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0.20050193756688933</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0.20526913315464498</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0.21014613134820564</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0.2152228289612827</v>
-      </c>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -41514,29 +41456,118 @@
       <c r="AB9" t="n">
         <v>-25.0</v>
       </c>
-      <c r="AC9" t="n">
-        <v>-25.0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>-25.0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>-25.0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>-25.0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>-25.0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>-25.0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>-25.0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>-25.0</v>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.8480727006577848</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6530108422487438</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.3448798415823697</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.2202231385435915</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.239295994738201</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8.341623499309147</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10.445749014193968</v>
+      </c>
+      <c r="J10" t="n">
+        <v>12.45773555598132</v>
+      </c>
+      <c r="K10" t="n">
+        <v>14.286607145503867</v>
+      </c>
+      <c r="L10" t="n">
+        <v>15.85954013804076</v>
+      </c>
+      <c r="M10" t="n">
+        <v>17.10694101581019</v>
+      </c>
+      <c r="N10" t="n">
+        <v>18.01174939909612</v>
+      </c>
+      <c r="O10" t="n">
+        <v>18.578100324433635</v>
+      </c>
+      <c r="P10" t="n">
+        <v>18.84040474197331</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>18.84265855304962</v>
+      </c>
+      <c r="R10" t="n">
+        <v>18.633460938211137</v>
+      </c>
+      <c r="S10" t="n">
+        <v>18.259929939513395</v>
+      </c>
+      <c r="T10" t="n">
+        <v>17.771012762003856</v>
+      </c>
+      <c r="U10" t="n">
+        <v>17.204765246683394</v>
+      </c>
+      <c r="V10" t="n">
+        <v>16.59156606322898</v>
+      </c>
+      <c r="W10" t="n">
+        <v>15.95113065187135</v>
+      </c>
+      <c r="X10" t="n">
+        <v>15.302786305376442</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>14.632824343663174</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>13.89883385647495</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>13.069999355748532</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>12.276010320208796</v>
+      </c>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18.84265855304962</v>
       </c>
     </row>
   </sheetData>
@@ -41666,7 +41697,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -41752,7 +41783,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -41763,7 +41794,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -41774,7 +41805,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -41785,7 +41816,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -41801,7 +41832,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -41824,7 +41855,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -41852,7 +41883,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -41923,7 +41954,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -41994,7 +42025,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -42065,7 +42096,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -42141,7 +42172,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -42212,7 +42243,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -42283,7 +42314,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -42354,7 +42385,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -42425,7 +42456,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -42501,7 +42532,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
@@ -42524,7 +42555,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>

--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="189">
   <si>
     <t>Description</t>
   </si>
@@ -523,6 +523,12 @@
     <t>delta_e equilibrium</t>
   </si>
   <si>
+    <t>Neutral_point</t>
+  </si>
+  <si>
+    <t>Static_Stability_Margin</t>
+  </si>
+  <si>
     <t>Efficiency</t>
   </si>
   <si>
@@ -37458,106 +37464,106 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.09954819471935711</v>
+        <v>-0.9597073342263087</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.006377550012937674</v>
+        <v>-0.8644267856597669</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08679309469348169</v>
+        <v>-0.7691462370932249</v>
       </c>
       <c r="F7" t="n">
-        <v>0.17996373939990107</v>
+        <v>-0.6738656885266829</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2731343841063205</v>
+        <v>-0.5785851399601409</v>
       </c>
       <c r="H7" t="n">
-        <v>0.36630502881273996</v>
+        <v>-0.48330459139359894</v>
       </c>
       <c r="I7" t="n">
-        <v>0.45947567351915947</v>
+        <v>-0.3880240428270569</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5526463182255789</v>
+        <v>-0.29274349426051494</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6458169629319983</v>
+        <v>-0.1974629456939729</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7389876076384178</v>
+        <v>-0.1021823971274309</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8321582523448372</v>
+        <v>-0.0069018485608889</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9253288970512568</v>
+        <v>0.08837870000565311</v>
       </c>
       <c r="O7" t="n">
-        <v>1.018499541757676</v>
+        <v>0.1836592485721951</v>
       </c>
       <c r="P7" t="n">
-        <v>1.1116701864640954</v>
+        <v>0.2789397971387371</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.204840831170515</v>
+        <v>0.3742203457052792</v>
       </c>
       <c r="R7" t="n">
-        <v>1.2980114758769346</v>
+        <v>0.4695008942718212</v>
       </c>
       <c r="S7" t="n">
-        <v>1.3911821205833539</v>
+        <v>0.5647814428383632</v>
       </c>
       <c r="T7" t="n">
-        <v>1.4843527652897734</v>
+        <v>0.6600619914049051</v>
       </c>
       <c r="U7" t="n">
-        <v>1.5775234099961928</v>
+        <v>0.7553425399714472</v>
       </c>
       <c r="V7" t="n">
-        <v>1.6706940547026121</v>
+        <v>0.8506230885379892</v>
       </c>
       <c r="W7" t="n">
-        <v>1.7638646994090317</v>
+        <v>0.9459036371045311</v>
       </c>
       <c r="X7" t="n">
-        <v>1.8567918119193059</v>
+        <v>1.0411841856710728</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.9459453468864207</v>
+        <v>1.136464734237615</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.026049069761976</v>
+        <v>1.2317452828041566</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.0928337465504856</v>
+        <v>1.3270258313706988</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.143101651910823</v>
+        <v>1.4223063799372408</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.174726569156231</v>
+        <v>1.5175869285037824</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.1866537902543377</v>
+        <v>1.6128674770703246</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.178900115827113</v>
+        <v>1.7081480256368666</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.152553898969833</v>
+        <v>1.8034286180223338</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.1097922469995365</v>
+        <v>1.8987185088767469</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.053897543231103</v>
+        <v>1.9787833833610742</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.989206973958325</v>
+        <v>1.9714543289310305</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.9211043237210534</v>
+        <v>1.7702725808872668</v>
       </c>
     </row>
     <row r="8">
@@ -37678,106 +37684,106 @@
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06074408004096251</v>
+        <v>0.06282806719236486</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05743213318388189</v>
+        <v>0.05936733163529733</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0539315559944373</v>
+        <v>0.055733677010335714</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05103523109791805</v>
+        <v>0.05272062964560073</v>
       </c>
       <c r="G9" t="n">
-        <v>0.048763646895120846</v>
+        <v>0.05034930223157912</v>
       </c>
       <c r="H9" t="n">
-        <v>0.047121461879431656</v>
+        <v>0.048624959873278376</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04612410692754301</v>
+        <v>0.04756362405607781</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04578071411835457</v>
+        <v>0.04717500307538133</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04610772284389627</v>
+        <v>0.047476099690128865</v>
       </c>
       <c r="L9" t="n">
-        <v>0.047124733637162436</v>
+        <v>0.04848706642191373</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04884607449959487</v>
+        <v>0.050222773279922785</v>
       </c>
       <c r="N9" t="n">
-        <v>0.051280621165500695</v>
+        <v>0.05269262934705865</v>
       </c>
       <c r="O9" t="n">
-        <v>0.05444150550185865</v>
+        <v>0.05591029242433996</v>
       </c>
       <c r="P9" t="n">
-        <v>0.05833721810664828</v>
+        <v>0.05988477279589609</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0629797114723803</v>
+        <v>0.06462853748092579</v>
       </c>
       <c r="R9" t="n">
-        <v>0.06838560058914561</v>
+        <v>0.07015871184710569</v>
       </c>
       <c r="S9" t="n">
-        <v>0.07456234378759695</v>
+        <v>0.07648326138647604</v>
       </c>
       <c r="T9" t="n">
-        <v>0.08151783540086421</v>
+        <v>0.08361058523382826</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08926520254394</v>
+        <v>0.091554313727531</v>
       </c>
       <c r="V9" t="n">
-        <v>0.09781486936653791</v>
+        <v>0.10032537337053897</v>
       </c>
       <c r="W9" t="n">
-        <v>0.10717524628241108</v>
+        <v>0.1099326766966209</v>
       </c>
       <c r="X9" t="n">
-        <v>0.11735824560988382</v>
+        <v>0.12038863847888055</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1283733253679592</v>
+        <v>0.13170322002749357</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.1402319892079046</v>
+        <v>0.1438884295593268</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.15295818848379433</v>
+        <v>0.1569687246458566</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.16652472783665154</v>
+        <v>0.17091741811710645</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.1779441562808365</v>
+        <v>0.18274756941343936</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.18421887458417316</v>
+        <v>0.18946209217996718</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.18927704603866338</v>
+        <v>0.19498966520374955</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.19402084436442074</v>
+        <v>0.20023298043976567</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.1987242338687027</v>
+        <v>0.20546652325089101</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.20349142945645834</v>
+        <v>0.21079503246163123</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.208368427650019</v>
+        <v>0.2162650313865321</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.21344512526309603</v>
+        <v>0.22196694648166368</v>
       </c>
     </row>
     <row r="10">
@@ -37908,106 +37914,106 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3035068607240369</v>
+        <v>-0.12180248281776468</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2773942879344182</v>
+        <v>-0.1123233536901661</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25083697276419137</v>
+        <v>-0.10433080814135906</v>
       </c>
       <c r="F13" t="n">
-        <v>0.22394727140898363</v>
+        <v>-0.09767834326083005</v>
       </c>
       <c r="G13" t="n">
-        <v>0.19671571084213912</v>
+        <v>-0.09233976062616889</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1691305088560488</v>
+        <v>-0.08828974062922351</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1411815992046272</v>
+        <v>-0.08549990694019155</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1128495652976445</v>
+        <v>-0.08395158393512184</v>
       </c>
       <c r="K13" t="n">
-        <v>0.08413082548017259</v>
+        <v>-0.08360466276538103</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05723589090221193</v>
+        <v>-0.08220425684801669</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02811822916289644</v>
+        <v>-0.08375358925575713</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.001361290466506071</v>
+        <v>-0.0863476042651185</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.031229715175168024</v>
+        <v>-0.08996802657644704</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.06151703356213231</v>
+        <v>-0.09459814997535583</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.09223119184033954</v>
+        <v>-0.1001980524386125</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.12337860950675188</v>
+        <v>-0.10672526003761552</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.15496763450344014</v>
+        <v>-0.11413810033419476</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.18700747046455002</v>
+        <v>-0.12239433911895375</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.21950531781768068</v>
+        <v>-0.13144875652263832</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.25246868108678466</v>
+        <v>-0.1412554340241148</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.2859048240719702</v>
+        <v>-0.15176741571022695</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.319833801081311</v>
+        <v>-0.16293655605172386</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.35443230251892704</v>
+        <v>-0.17471397360143193</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.389913761896984</v>
+        <v>-0.187049103569568</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.4263831313935368</v>
+        <v>-0.19988787232298078</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.46386098118405217</v>
+        <v>-0.21318479858919703</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.502849822879873</v>
+        <v>-0.22745277009946452</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.5437981233508948</v>
+        <v>-0.2432120826742355</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.5857978316693766</v>
+        <v>-0.2596719157258544</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.6284779102826246</v>
+        <v>-0.27660790350688286</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.6716776300867471</v>
+        <v>-0.2940240877948593</v>
       </c>
       <c r="AH13" t="n">
-        <v>-0.7155066274639994</v>
+        <v>-0.312496767584381</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.7600005543407724</v>
+        <v>-0.3333586559173415</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.8050188217185659</v>
+        <v>-0.3574248880641183</v>
       </c>
     </row>
     <row r="14">
@@ -38143,106 +38149,106 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.13273614216447324</v>
+        <v>-0.9928952816714249</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.03956549745805382</v>
+        <v>-0.897614733104883</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05360514724836554</v>
+        <v>-0.8023341845383412</v>
       </c>
       <c r="F18" t="n">
-        <v>0.14677579195478493</v>
+        <v>-0.7070536359717992</v>
       </c>
       <c r="G18" t="n">
-        <v>0.23994643666120438</v>
+        <v>-0.6117730874052572</v>
       </c>
       <c r="H18" t="n">
-        <v>0.33311708136762386</v>
+        <v>-0.516492538838715</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4262877260740433</v>
+        <v>-0.42121199027217304</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5194583707804628</v>
+        <v>-0.3259314417056311</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6126290154868821</v>
+        <v>-0.23065089313908904</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7057996601933016</v>
+        <v>-0.13537034457254704</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7989703048997211</v>
+        <v>-0.040089796006005055</v>
       </c>
       <c r="N18" t="n">
-        <v>0.8921409496061405</v>
+        <v>0.05519075256053697</v>
       </c>
       <c r="O18" t="n">
-        <v>0.98531159431256</v>
+        <v>0.15047130112707896</v>
       </c>
       <c r="P18" t="n">
-        <v>1.0784822390189794</v>
+        <v>0.24575184969362096</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.1716528837253988</v>
+        <v>0.341032398260163</v>
       </c>
       <c r="R18" t="n">
-        <v>1.2648235284318183</v>
+        <v>0.4363129468267051</v>
       </c>
       <c r="S18" t="n">
-        <v>1.357994173138238</v>
+        <v>0.531593495393247</v>
       </c>
       <c r="T18" t="n">
-        <v>1.4511648178446572</v>
+        <v>0.626874043959789</v>
       </c>
       <c r="U18" t="n">
-        <v>1.5443354625510766</v>
+        <v>0.7221545925263311</v>
       </c>
       <c r="V18" t="n">
-        <v>1.6375061072574961</v>
+        <v>0.817435141092873</v>
       </c>
       <c r="W18" t="n">
-        <v>1.7306767519639155</v>
+        <v>0.912715689659415</v>
       </c>
       <c r="X18" t="n">
-        <v>1.8236038644741897</v>
+        <v>1.0079962382259569</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.9127573994413047</v>
+        <v>1.103276786792499</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.9928611223168602</v>
+        <v>1.1985573353590406</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.0596457991053696</v>
+        <v>1.2938378839255826</v>
       </c>
       <c r="AB18" t="n">
-        <v>2.1099137044657064</v>
+        <v>1.3891184324921246</v>
       </c>
       <c r="AC18" t="n">
-        <v>2.141538621711115</v>
+        <v>1.4843989810586664</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.1534658428092213</v>
+        <v>1.5796795296252084</v>
       </c>
       <c r="AE18" t="n">
-        <v>2.1457121683819964</v>
+        <v>1.6749600781917504</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.1193659077057916</v>
+        <v>1.7702406267582924</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.076586878711331</v>
+        <v>1.865513140588542</v>
       </c>
       <c r="AH18" t="n">
-        <v>2.0206064079837085</v>
+        <v>1.94549224811368</v>
       </c>
       <c r="AI18" t="n">
-        <v>1.9557282977950428</v>
+        <v>1.9379756527677483</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.8873564699991674</v>
+        <v>1.7365247271653808</v>
       </c>
     </row>
     <row r="19">
@@ -38363,106 +38369,106 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0609653392995351</v>
+        <v>0.06304932645093744</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05765339244245448</v>
+        <v>0.05958859089386992</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05415281525300989</v>
+        <v>0.0559549362689083</v>
       </c>
       <c r="F20" t="n">
-        <v>0.051256490356490644</v>
+        <v>0.052941888904173326</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04898490615369344</v>
+        <v>0.05057056149015172</v>
       </c>
       <c r="H20" t="n">
-        <v>0.047342721138004244</v>
+        <v>0.048846219131850964</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0463453661861156</v>
+        <v>0.047784883314650396</v>
       </c>
       <c r="J20" t="n">
-        <v>0.04600197337692716</v>
+        <v>0.04739626233395393</v>
       </c>
       <c r="K20" t="n">
-        <v>0.04632898210246886</v>
+        <v>0.04769735894870145</v>
       </c>
       <c r="L20" t="n">
-        <v>0.047345992895735024</v>
+        <v>0.04870832568048632</v>
       </c>
       <c r="M20" t="n">
-        <v>0.049067333758167464</v>
+        <v>0.05044403253849538</v>
       </c>
       <c r="N20" t="n">
-        <v>0.05150188042407328</v>
+        <v>0.05291388860563124</v>
       </c>
       <c r="O20" t="n">
-        <v>0.05466276476043125</v>
+        <v>0.056131551682912555</v>
       </c>
       <c r="P20" t="n">
-        <v>0.058558477365220865</v>
+        <v>0.060106032054468676</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.06320097073095288</v>
+        <v>0.06484979673949837</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0686068598477182</v>
+        <v>0.07037997110567827</v>
       </c>
       <c r="S20" t="n">
-        <v>0.07478360304616954</v>
+        <v>0.07670452064504864</v>
       </c>
       <c r="T20" t="n">
-        <v>0.08173909465943681</v>
+        <v>0.08383184449240086</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0894864618025126</v>
+        <v>0.0917755729861036</v>
       </c>
       <c r="V20" t="n">
-        <v>0.09803612862511052</v>
+        <v>0.10054663262911158</v>
       </c>
       <c r="W20" t="n">
-        <v>0.10739650554098366</v>
+        <v>0.11015393595519349</v>
       </c>
       <c r="X20" t="n">
-        <v>0.11757950486845642</v>
+        <v>0.12060989773745315</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.12859458462653178</v>
+        <v>0.13192447928606615</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.1404532484664772</v>
+        <v>0.14410968881789937</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.15317944774236691</v>
+        <v>0.15718998390442918</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.16674598709522412</v>
+        <v>0.17113867737567903</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.17816541553940912</v>
+        <v>0.18296882867201197</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.18444013384274574</v>
+        <v>0.18968335143853976</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.18949830529723596</v>
+        <v>0.19521092446232213</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.19424210362299332</v>
+        <v>0.20045423969833825</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.19894549312727527</v>
+        <v>0.2056877825094636</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.20371268871503093</v>
+        <v>0.2110162917202038</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.2085896869085916</v>
+        <v>0.2164862906451047</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.2136663845216686</v>
+        <v>0.22218820574023626</v>
       </c>
     </row>
     <row r="21">
@@ -38593,106 +38599,106 @@
         <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5092494617059731</v>
+        <v>0.06970662964765323</v>
       </c>
       <c r="D24" t="n">
-        <v>0.48313688891635453</v>
+        <v>0.08072629873550197</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4565795737461278</v>
+        <v>0.09021111975821575</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4296898723909198</v>
+        <v>0.09830721995393785</v>
       </c>
       <c r="G24" t="n">
-        <v>0.40245831182407543</v>
+        <v>0.10504043431760801</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3748731098379851</v>
+        <v>0.11043573136629864</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3469242001865634</v>
+        <v>0.11452114876350866</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3185921662795808</v>
+        <v>0.11731503597691897</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2898734264621089</v>
+        <v>0.11885718829103481</v>
       </c>
       <c r="L24" t="n">
-        <v>0.26297849188414807</v>
+        <v>0.12140219139575936</v>
       </c>
       <c r="M24" t="n">
-        <v>0.23386083014483283</v>
+        <v>0.1209465340721437</v>
       </c>
       <c r="N24" t="n">
-        <v>0.20438131051543024</v>
+        <v>0.1193949967168178</v>
       </c>
       <c r="O24" t="n">
-        <v>0.17451288580676824</v>
+        <v>0.116765592191261</v>
       </c>
       <c r="P24" t="n">
-        <v>0.14422556741980394</v>
+        <v>0.11307477722643236</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1135114091415968</v>
+        <v>0.1083622373796893</v>
       </c>
       <c r="R24" t="n">
-        <v>0.08236399147518442</v>
+        <v>0.10267022319083981</v>
       </c>
       <c r="S24" t="n">
-        <v>0.05077496647849615</v>
+        <v>0.09604019684257946</v>
       </c>
       <c r="T24" t="n">
-        <v>0.018735130517386303</v>
+        <v>0.08851419547507962</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.013762716835744367</v>
+        <v>0.08013725512422967</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.046726080104848425</v>
+        <v>0.07095512375993832</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.08016222309003387</v>
+        <v>0.06101460006921175</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.1140912000993747</v>
+        <v>0.05036368571980632</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.14868970153699068</v>
+        <v>0.03905113169827365</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.1841711609150477</v>
+        <v>0.02712738576748952</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.2206405304116004</v>
+        <v>0.014646417996873828</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.25811838020211586</v>
+        <v>0.0016536195844160106</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.2971072218979365</v>
+        <v>-0.012363973763692804</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.3380555223689584</v>
+        <v>-0.027926720899267787</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.3800552306874404</v>
+        <v>-0.04424385071895193</v>
       </c>
       <c r="AF24" t="n">
-        <v>-0.422735039984916</v>
+        <v>-0.06109075064990199</v>
       </c>
       <c r="AG24" t="n">
-        <v>-0.46582795875136057</v>
+        <v>-0.07835989147666128</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.5091298232804564</v>
+        <v>-0.09629802791170544</v>
       </c>
       <c r="AI24" t="n">
-        <v>-0.5524711037526882</v>
+        <v>-0.11602283610578312</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-0.5958349772418758</v>
+        <v>-0.1384806930930752</v>
       </c>
     </row>
     <row r="25">
@@ -38828,106 +38834,106 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.16008931569826887</v>
+        <v>-1.0202484552052205</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.06691867099184945</v>
+        <v>-0.9249679066386787</v>
       </c>
       <c r="E29" t="n">
-        <v>0.026251973714569943</v>
+        <v>-0.8296873580721367</v>
       </c>
       <c r="F29" t="n">
-        <v>0.11942261842098931</v>
+        <v>-0.7344068095055948</v>
       </c>
       <c r="G29" t="n">
-        <v>0.21259326312740875</v>
+        <v>-0.6391262609390528</v>
       </c>
       <c r="H29" t="n">
-        <v>0.30576390783382823</v>
+        <v>-0.5438457123725107</v>
       </c>
       <c r="I29" t="n">
-        <v>0.3989345525402477</v>
+        <v>-0.44856516380596867</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4921051972466671</v>
+        <v>-0.35328461523942667</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5852758419530865</v>
+        <v>-0.25800406667288467</v>
       </c>
       <c r="L29" t="n">
-        <v>0.678446486659506</v>
+        <v>-0.16272351810634267</v>
       </c>
       <c r="M29" t="n">
-        <v>0.7716171313659255</v>
+        <v>-0.06744296953980067</v>
       </c>
       <c r="N29" t="n">
-        <v>0.8647877760723449</v>
+        <v>0.027837579026741346</v>
       </c>
       <c r="O29" t="n">
-        <v>0.9579584207787644</v>
+        <v>0.12311812759328333</v>
       </c>
       <c r="P29" t="n">
-        <v>1.0511290654851837</v>
+        <v>0.21839867615982533</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.1442997101916033</v>
+        <v>0.31367922472636744</v>
       </c>
       <c r="R29" t="n">
-        <v>1.2374703548980228</v>
+        <v>0.40895977329290945</v>
       </c>
       <c r="S29" t="n">
-        <v>1.3306409996044422</v>
+        <v>0.5042403218594513</v>
       </c>
       <c r="T29" t="n">
-        <v>1.4238116443108617</v>
+        <v>0.5995208704259933</v>
       </c>
       <c r="U29" t="n">
-        <v>1.516982289017281</v>
+        <v>0.6948014189925354</v>
       </c>
       <c r="V29" t="n">
-        <v>1.6101529337237004</v>
+        <v>0.7900819675590774</v>
       </c>
       <c r="W29" t="n">
-        <v>1.70332357843012</v>
+        <v>0.8853625161256193</v>
       </c>
       <c r="X29" t="n">
-        <v>1.7962506909403941</v>
+        <v>0.9806430646921611</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.885404225907509</v>
+        <v>1.0759236132587033</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.9655079487830645</v>
+        <v>1.171204161825245</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.0322926255715736</v>
+        <v>1.2664847103917871</v>
       </c>
       <c r="AB29" t="n">
-        <v>2.082560530931911</v>
+        <v>1.3617652589583291</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.1141854481773197</v>
+        <v>1.4570458075248707</v>
       </c>
       <c r="AD29" t="n">
-        <v>2.1261126692754257</v>
+        <v>1.5523263560914127</v>
       </c>
       <c r="AE29" t="n">
-        <v>2.118358994848201</v>
+        <v>1.647606904657955</v>
       </c>
       <c r="AF29" t="n">
-        <v>2.0920127341719956</v>
+        <v>1.742887453224497</v>
       </c>
       <c r="AG29" t="n">
-        <v>2.0492337051775356</v>
+        <v>1.8381599670547464</v>
       </c>
       <c r="AH29" t="n">
-        <v>1.993253234449913</v>
+        <v>1.9181390745798845</v>
       </c>
       <c r="AI29" t="n">
-        <v>1.9283741572285458</v>
+        <v>1.9106215122012513</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1.859970817407311</v>
+        <v>1.7091390745735244</v>
       </c>
     </row>
     <row r="30">
@@ -39048,106 +39054,106 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>0.061335376335423734</v>
+        <v>0.06341936348682609</v>
       </c>
       <c r="D31" t="n">
-        <v>0.058023429478343116</v>
+        <v>0.059958627929758555</v>
       </c>
       <c r="E31" t="n">
-        <v>0.05452285228889853</v>
+        <v>0.05632497330479694</v>
       </c>
       <c r="F31" t="n">
-        <v>0.05162652739237928</v>
+        <v>0.05331192594006196</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04935494318958207</v>
+        <v>0.05094059852604035</v>
       </c>
       <c r="H31" t="n">
-        <v>0.04771275817389288</v>
+        <v>0.0492162561677396</v>
       </c>
       <c r="I31" t="n">
-        <v>0.046715403222004244</v>
+        <v>0.04815492035053904</v>
       </c>
       <c r="J31" t="n">
-        <v>0.046372010412815794</v>
+        <v>0.04776629936984256</v>
       </c>
       <c r="K31" t="n">
-        <v>0.04669901913835749</v>
+        <v>0.04806739598459009</v>
       </c>
       <c r="L31" t="n">
-        <v>0.04771602993162366</v>
+        <v>0.04907836271637495</v>
       </c>
       <c r="M31" t="n">
-        <v>0.04943737079405611</v>
+        <v>0.05081406957438402</v>
       </c>
       <c r="N31" t="n">
-        <v>0.05187191745996192</v>
+        <v>0.053283925641519875</v>
       </c>
       <c r="O31" t="n">
-        <v>0.05503280179631988</v>
+        <v>0.056501588718801184</v>
       </c>
       <c r="P31" t="n">
-        <v>0.05892851440110951</v>
+        <v>0.06047606909035732</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.06357100776684152</v>
+        <v>0.06521983377538701</v>
       </c>
       <c r="R31" t="n">
-        <v>0.06897689688360684</v>
+        <v>0.07075000814156691</v>
       </c>
       <c r="S31" t="n">
-        <v>0.07515364008205817</v>
+        <v>0.07707455768093727</v>
       </c>
       <c r="T31" t="n">
-        <v>0.08210913169532545</v>
+        <v>0.0842018815282895</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08985649883840123</v>
+        <v>0.09214561002199223</v>
       </c>
       <c r="V31" t="n">
-        <v>0.09840616566099913</v>
+        <v>0.1009166696650002</v>
       </c>
       <c r="W31" t="n">
-        <v>0.1077665425768723</v>
+        <v>0.11052397299108213</v>
       </c>
       <c r="X31" t="n">
-        <v>0.11794954190434505</v>
+        <v>0.12097993477334178</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.12896462166242043</v>
+        <v>0.1322945163219548</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.14082328550236584</v>
+        <v>0.14447972585378802</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.15354948477825556</v>
+        <v>0.15756002094031782</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.16711602413111276</v>
+        <v>0.17150871441156768</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.17853545257529774</v>
+        <v>0.1833388657079006</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.18481017087863438</v>
+        <v>0.1900533884744284</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.1898683423331246</v>
+        <v>0.19558096149821078</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.19461214065888197</v>
+        <v>0.20082427673422687</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.1993155301631639</v>
+        <v>0.2060578195453522</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.20408272575091957</v>
+        <v>0.21138632875609245</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.20895972394448023</v>
+        <v>0.21685632768099333</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.21403642155755725</v>
+        <v>0.2225582427761249</v>
       </c>
     </row>
     <row r="32">
@@ -39278,106 +39284,106 @@
         <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6798078697612515</v>
+        <v>0.22872861738458222</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6536952969716328</v>
+        <v>0.24100090946803265</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6271379818014059</v>
+        <v>0.2516984365037306</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6002482804461982</v>
+        <v>0.2609670204375659</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5730167198793535</v>
+        <v>0.2688322010979677</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5454315178932632</v>
+        <v>0.2753186620355457</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5174826082418416</v>
+        <v>0.2804541662191263</v>
       </c>
       <c r="J35" t="n">
-        <v>0.48915057433485903</v>
+        <v>0.2842567987626563</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4604318345173871</v>
+        <v>0.2867661010043993</v>
       </c>
       <c r="L35" t="n">
-        <v>0.4335368999394264</v>
+        <v>0.29023641515943627</v>
       </c>
       <c r="M35" t="n">
-        <v>0.40441923820011094</v>
+        <v>0.2906639970667096</v>
       </c>
       <c r="N35" t="n">
-        <v>0.3749397185707083</v>
+        <v>0.28995340477209586</v>
       </c>
       <c r="O35" t="n">
-        <v>0.3450712938620464</v>
+        <v>0.2881224394336532</v>
       </c>
       <c r="P35" t="n">
-        <v>0.3147839754750821</v>
+        <v>0.2851873567795448</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.28406981719687485</v>
+        <v>0.28118765211556024</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2529223995304625</v>
+        <v>0.2761653965290625</v>
       </c>
       <c r="S35" t="n">
-        <v>0.2213333745337743</v>
+        <v>0.27016188359460064</v>
       </c>
       <c r="T35" t="n">
-        <v>0.18929353857266445</v>
+        <v>0.26321899273094457</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1567956912195338</v>
+        <v>0.25538161317903263</v>
       </c>
       <c r="V35" t="n">
-        <v>0.12383232795042971</v>
+        <v>0.24669535707722787</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0903961849652443</v>
+        <v>0.23720689827859093</v>
       </c>
       <c r="X35" t="n">
-        <v>0.05646720795590344</v>
+        <v>0.22696412464595905</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.021868706518287456</v>
+        <v>0.21601568441864116</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.013612752859769567</v>
+        <v>0.20441193369581248</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.05008212235632223</v>
+        <v>0.1922067619898106</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.08755997214683778</v>
+        <v>0.17944549106844032</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.12654881384265854</v>
+        <v>0.16561509835208546</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.16749711431368033</v>
+        <v>0.15019517786217282</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.20949682263216213</v>
+        <v>0.13397646474621477</v>
       </c>
       <c r="AF35" t="n">
-        <v>-0.252176631929638</v>
+        <v>0.11718354680117615</v>
       </c>
       <c r="AG35" t="n">
-        <v>-0.29526955069608246</v>
+        <v>0.09992393965283713</v>
       </c>
       <c r="AH35" t="n">
-        <v>-0.33857141522517803</v>
+        <v>0.08195088618866969</v>
       </c>
       <c r="AI35" t="n">
-        <v>-0.38190675221163195</v>
+        <v>0.06215295933163589</v>
       </c>
       <c r="AJ35" t="n">
-        <v>-0.42507694944325064</v>
+        <v>0.03977456725957246</v>
       </c>
     </row>
     <row r="36">
@@ -39513,106 +39519,106 @@
         <v>5</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1644735165319359</v>
+        <v>-1.0246326560388876</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.07130287182551648</v>
+        <v>-0.9293521074723456</v>
       </c>
       <c r="E40" t="n">
-        <v>0.021867772880902886</v>
+        <v>-0.8340715589058038</v>
       </c>
       <c r="F40" t="n">
-        <v>0.11503841758732228</v>
+        <v>-0.7387910103392618</v>
       </c>
       <c r="G40" t="n">
-        <v>0.20820906229374173</v>
+        <v>-0.6435104617727198</v>
       </c>
       <c r="H40" t="n">
-        <v>0.30137970700016115</v>
+        <v>-0.5482299132061778</v>
       </c>
       <c r="I40" t="n">
-        <v>0.39455035170658065</v>
+        <v>-0.4529493646396357</v>
       </c>
       <c r="J40" t="n">
-        <v>0.48772099641300004</v>
+        <v>-0.35766881607309375</v>
       </c>
       <c r="K40" t="n">
-        <v>0.5808916411194195</v>
+        <v>-0.2623882675065517</v>
       </c>
       <c r="L40" t="n">
-        <v>0.6740622858258389</v>
+        <v>-0.1671077189400097</v>
       </c>
       <c r="M40" t="n">
-        <v>0.7672329305322584</v>
+        <v>-0.07182717037346771</v>
       </c>
       <c r="N40" t="n">
-        <v>0.8604035752386779</v>
+        <v>0.023453378193074303</v>
       </c>
       <c r="O40" t="n">
-        <v>0.9535742199450973</v>
+        <v>0.11873392675961629</v>
       </c>
       <c r="P40" t="n">
-        <v>1.0467448646515167</v>
+        <v>0.2140144753261583</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.139915509357936</v>
+        <v>0.30929502389270036</v>
       </c>
       <c r="R40" t="n">
-        <v>1.2330861540643558</v>
+        <v>0.4045755724592424</v>
       </c>
       <c r="S40" t="n">
-        <v>1.3262567987707752</v>
+        <v>0.49985612102578436</v>
       </c>
       <c r="T40" t="n">
-        <v>1.4194274434771945</v>
+        <v>0.5951366695923264</v>
       </c>
       <c r="U40" t="n">
-        <v>1.512598088183614</v>
+        <v>0.6904172181588684</v>
       </c>
       <c r="V40" t="n">
-        <v>1.6057687328900334</v>
+        <v>0.7856977667254104</v>
       </c>
       <c r="W40" t="n">
-        <v>1.6989393775964527</v>
+        <v>0.8809783152919523</v>
       </c>
       <c r="X40" t="n">
-        <v>1.791866490106727</v>
+        <v>0.9762588638584941</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.881020025073842</v>
+        <v>1.0715394124250364</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.9611237479493975</v>
+        <v>1.166819960991578</v>
       </c>
       <c r="AA40" t="n">
-        <v>2.0279084247379067</v>
+        <v>1.26210050955812</v>
       </c>
       <c r="AB40" t="n">
-        <v>2.078176330098244</v>
+        <v>1.3573810581246621</v>
       </c>
       <c r="AC40" t="n">
-        <v>2.1098012473436527</v>
+        <v>1.4526616066912037</v>
       </c>
       <c r="AD40" t="n">
-        <v>2.1217284684417588</v>
+        <v>1.5479421552577457</v>
       </c>
       <c r="AE40" t="n">
-        <v>2.113974794014534</v>
+        <v>1.643222703824288</v>
       </c>
       <c r="AF40" t="n">
-        <v>2.0876285333383287</v>
+        <v>1.73850325239083</v>
       </c>
       <c r="AG40" t="n">
-        <v>2.0448495043438686</v>
+        <v>1.8337757662210792</v>
       </c>
       <c r="AH40" t="n">
-        <v>1.9888690336162458</v>
+        <v>1.9137548737462173</v>
       </c>
       <c r="AI40" t="n">
-        <v>1.9239899563948788</v>
+        <v>1.9062373113675843</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1.855588102124402</v>
+        <v>1.7047563592906154</v>
       </c>
     </row>
     <row r="41">
@@ -39733,106 +39739,106 @@
         <v>5</v>
       </c>
       <c r="C42" t="n">
-        <v>0.061854191148628425</v>
+        <v>0.06393817830003078</v>
       </c>
       <c r="D42" t="n">
-        <v>0.05854224429154781</v>
+        <v>0.060477442742963246</v>
       </c>
       <c r="E42" t="n">
-        <v>0.05504166710210322</v>
+        <v>0.05684378811800163</v>
       </c>
       <c r="F42" t="n">
-        <v>0.05214534220558397</v>
+        <v>0.05383074075326665</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04987375800278676</v>
+        <v>0.05145941333924504</v>
       </c>
       <c r="H42" t="n">
-        <v>0.04823157298709757</v>
+        <v>0.04973507098094429</v>
       </c>
       <c r="I42" t="n">
-        <v>0.047234218035208934</v>
+        <v>0.04867373516374373</v>
       </c>
       <c r="J42" t="n">
-        <v>0.046890825226020484</v>
+        <v>0.04828511418304725</v>
       </c>
       <c r="K42" t="n">
-        <v>0.047217833951562184</v>
+        <v>0.04858621079779478</v>
       </c>
       <c r="L42" t="n">
-        <v>0.04823484474482835</v>
+        <v>0.04959717752957964</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0499561856072608</v>
+        <v>0.05133288438758871</v>
       </c>
       <c r="N42" t="n">
-        <v>0.05239073227316661</v>
+        <v>0.053802740454724565</v>
       </c>
       <c r="O42" t="n">
-        <v>0.05555161660952457</v>
+        <v>0.057020403532005874</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0594473292143142</v>
+        <v>0.06099488390356201</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.06408982258004621</v>
+        <v>0.0657386485885917</v>
       </c>
       <c r="R42" t="n">
-        <v>0.06949571169681153</v>
+        <v>0.0712688229547716</v>
       </c>
       <c r="S42" t="n">
-        <v>0.07567245489526286</v>
+        <v>0.07759337249414196</v>
       </c>
       <c r="T42" t="n">
-        <v>0.08262794650853013</v>
+        <v>0.08472069634149418</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09037531365160592</v>
+        <v>0.09266442483519692</v>
       </c>
       <c r="V42" t="n">
-        <v>0.09892498047420384</v>
+        <v>0.1014354844782049</v>
       </c>
       <c r="W42" t="n">
-        <v>0.108285357390077</v>
+        <v>0.11104278780428682</v>
       </c>
       <c r="X42" t="n">
-        <v>0.11846835671754974</v>
+        <v>0.12149874958654647</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1294834364756251</v>
+        <v>0.13281333113515947</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.1413421003155705</v>
+        <v>0.1449985406669927</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.15406829959146026</v>
+        <v>0.15807883575352252</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.16763483894431747</v>
+        <v>0.17202752922477238</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.17905426738850244</v>
+        <v>0.1838576805211053</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.18532898569183906</v>
+        <v>0.19057220328763308</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.19038715714632928</v>
+        <v>0.19609977631141545</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.19513095547208664</v>
+        <v>0.20134309154743157</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.1998343449763686</v>
+        <v>0.20657663435855692</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.20460154056412425</v>
+        <v>0.21190514356929713</v>
       </c>
       <c r="AI42" t="n">
-        <v>0.2094785387576849</v>
+        <v>0.217375142494198</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0.21455523637076193</v>
+        <v>0.22307705758932958</v>
       </c>
     </row>
     <row r="43">
@@ -39963,106 +39969,106 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7097774770049665</v>
+        <v>0.2573257982570288</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6836649042153478</v>
+        <v>0.2697570572903111</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6571075890451211</v>
+        <v>0.28060681575750446</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6302178876899132</v>
+        <v>0.29002085728104987</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6029863271230685</v>
+        <v>0.29802468507120494</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5754011251369784</v>
+        <v>0.304642947774908</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5474522154855568</v>
+        <v>0.309903375180594</v>
       </c>
       <c r="J46" t="n">
-        <v>0.5191201815785744</v>
+        <v>0.3138240209534582</v>
       </c>
       <c r="K46" t="n">
-        <v>0.49040144176110223</v>
+        <v>0.31644439672256325</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4635065071831414</v>
+        <v>0.32001881674082416</v>
       </c>
       <c r="M46" t="n">
-        <v>0.43438884544382605</v>
+        <v>0.3205435106390894</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4049093258144235</v>
+        <v>0.3199230120158111</v>
       </c>
       <c r="O46" t="n">
-        <v>0.3750409011057616</v>
+        <v>0.31817509934844684</v>
       </c>
       <c r="P46" t="n">
-        <v>0.3447535827187973</v>
+        <v>0.31531600745709437</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.31403942444059</v>
+        <v>0.3113852125172752</v>
       </c>
       <c r="R46" t="n">
-        <v>0.2828920067741777</v>
+        <v>0.3064247682686975</v>
       </c>
       <c r="S46" t="n">
-        <v>0.25130298177748944</v>
+        <v>0.3004759527252369</v>
       </c>
       <c r="T46" t="n">
-        <v>0.21926314581637957</v>
+        <v>0.29358063153588737</v>
       </c>
       <c r="U46" t="n">
-        <v>0.18676529846324894</v>
+        <v>0.2857836819661764</v>
       </c>
       <c r="V46" t="n">
-        <v>0.15380193519414487</v>
+        <v>0.27713070597643485</v>
       </c>
       <c r="W46" t="n">
-        <v>0.12036579220895947</v>
+        <v>0.2676683690416334</v>
       </c>
       <c r="X46" t="n">
-        <v>0.08643681519961861</v>
+        <v>0.2574445524485697</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.05183831376200264</v>
+        <v>0.24650789966421932</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.016356854383945643</v>
+        <v>0.23490876382033174</v>
       </c>
       <c r="AA46" t="n">
-        <v>-0.020112515112607088</v>
+        <v>0.22270103326747354</v>
       </c>
       <c r="AB46" t="n">
-        <v>-0.0575903649031225</v>
+        <v>0.20993003041762553</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.09657920659894331</v>
+        <v>0.19608273514113242</v>
       </c>
       <c r="AD46" t="n">
-        <v>-0.13752750706996517</v>
+        <v>0.18063874571454994</v>
       </c>
       <c r="AE46" t="n">
-        <v>-0.17952721538844696</v>
+        <v>0.164388803344617</v>
       </c>
       <c r="AF46" t="n">
-        <v>-0.2222070246859229</v>
+        <v>0.14755750369009557</v>
       </c>
       <c r="AG46" t="n">
-        <v>-0.26529994345236724</v>
+        <v>0.13025237203915635</v>
       </c>
       <c r="AH46" t="n">
-        <v>-0.308601807981463</v>
+        <v>0.11222666273982124</v>
       </c>
       <c r="AI46" t="n">
-        <v>-0.35193714496791684</v>
+        <v>0.09236896197087752</v>
       </c>
       <c r="AJ46" t="n">
-        <v>-0.3951164725524075</v>
+        <v>0.06991411133117414</v>
       </c>
     </row>
     <row r="47">
@@ -40198,106 +40204,106 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.1708338932155455</v>
+        <v>-1.0309930327224972</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.07766324850912609</v>
+        <v>-0.9357124841559553</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0155073961972933</v>
+        <v>-0.8404319355894134</v>
       </c>
       <c r="F51" t="n">
-        <v>0.10867804090371266</v>
+        <v>-0.7451513870228714</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2018486856101321</v>
+        <v>-0.6498708384563294</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2950193303165516</v>
+        <v>-0.5545902898897873</v>
       </c>
       <c r="I51" t="n">
-        <v>0.38818997502297103</v>
+        <v>-0.4593097413232453</v>
       </c>
       <c r="J51" t="n">
-        <v>0.4813606197293905</v>
+        <v>-0.3640291927567033</v>
       </c>
       <c r="K51" t="n">
-        <v>0.5745312644358098</v>
+        <v>-0.2687486441901613</v>
       </c>
       <c r="L51" t="n">
-        <v>0.6677019091422294</v>
+        <v>-0.1734680956236193</v>
       </c>
       <c r="M51" t="n">
-        <v>0.7608725538486488</v>
+        <v>-0.07818754705707733</v>
       </c>
       <c r="N51" t="n">
-        <v>0.8540431985550683</v>
+        <v>0.01709300150946469</v>
       </c>
       <c r="O51" t="n">
-        <v>0.9472138432614877</v>
+        <v>0.11237355007600668</v>
       </c>
       <c r="P51" t="n">
-        <v>1.0403844879679072</v>
+        <v>0.2076540986425487</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.1335551326743265</v>
+        <v>0.30293464720909075</v>
       </c>
       <c r="R51" t="n">
-        <v>1.226725777380746</v>
+        <v>0.3982151957756328</v>
       </c>
       <c r="S51" t="n">
-        <v>1.3198964220871656</v>
+        <v>0.49349574434217475</v>
       </c>
       <c r="T51" t="n">
-        <v>1.413067066793585</v>
+        <v>0.5887762929087167</v>
       </c>
       <c r="U51" t="n">
-        <v>1.5062377115000043</v>
+        <v>0.6840568414752588</v>
       </c>
       <c r="V51" t="n">
-        <v>1.5994083562064239</v>
+        <v>0.7793373900418008</v>
       </c>
       <c r="W51" t="n">
-        <v>1.6925790009128432</v>
+        <v>0.8746179386083427</v>
       </c>
       <c r="X51" t="n">
-        <v>1.7855061134231174</v>
+        <v>0.9698984871748845</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.8746596483902325</v>
+        <v>1.0651790357414268</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.954763371265788</v>
+        <v>1.1604595843079684</v>
       </c>
       <c r="AA51" t="n">
-        <v>2.021548048054297</v>
+        <v>1.2557401328745104</v>
       </c>
       <c r="AB51" t="n">
-        <v>2.0718159534146343</v>
+        <v>1.3510206814410524</v>
       </c>
       <c r="AC51" t="n">
-        <v>2.1034408706600427</v>
+        <v>1.4463012300075941</v>
       </c>
       <c r="AD51" t="n">
-        <v>2.115368091758149</v>
+        <v>1.5415817785741361</v>
       </c>
       <c r="AE51" t="n">
-        <v>2.1076144173309244</v>
+        <v>1.6368623271406781</v>
       </c>
       <c r="AF51" t="n">
-        <v>2.081268156654719</v>
+        <v>1.7321428757072201</v>
       </c>
       <c r="AG51" t="n">
-        <v>2.038489127660259</v>
+        <v>1.8274153895374696</v>
       </c>
       <c r="AH51" t="n">
-        <v>1.9825086569326362</v>
+        <v>1.9073944970626078</v>
       </c>
       <c r="AI51" t="n">
-        <v>1.9176299188492487</v>
+        <v>1.8998772738219543</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1.8492510523791927</v>
+        <v>1.698419309545406</v>
       </c>
     </row>
     <row r="52">
@@ -40418,106 +40424,106 @@
         <v>5</v>
       </c>
       <c r="C53" t="n">
-        <v>0.06252178373914917</v>
+        <v>0.06460577089055153</v>
       </c>
       <c r="D53" t="n">
-        <v>0.059209836882068545</v>
+        <v>0.061145035333483984</v>
       </c>
       <c r="E53" t="n">
-        <v>0.055709259692623955</v>
+        <v>0.05751138070852237</v>
       </c>
       <c r="F53" t="n">
-        <v>0.05281293479610471</v>
+        <v>0.05449833334378739</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05054135059330751</v>
+        <v>0.05212700592976579</v>
       </c>
       <c r="H53" t="n">
-        <v>0.048899165577618316</v>
+        <v>0.050402663571465035</v>
       </c>
       <c r="I53" t="n">
-        <v>0.04790181062572967</v>
+        <v>0.04934132775426447</v>
       </c>
       <c r="J53" t="n">
-        <v>0.04755841781654122</v>
+        <v>0.048952706773567986</v>
       </c>
       <c r="K53" t="n">
-        <v>0.04788542654208292</v>
+        <v>0.04925380338831552</v>
       </c>
       <c r="L53" t="n">
-        <v>0.048902437335349096</v>
+        <v>0.05026477012010039</v>
       </c>
       <c r="M53" t="n">
-        <v>0.050623778197781535</v>
+        <v>0.05200047697810945</v>
       </c>
       <c r="N53" t="n">
-        <v>0.05305832486368735</v>
+        <v>0.0544703330452453</v>
       </c>
       <c r="O53" t="n">
-        <v>0.056219209200045306</v>
+        <v>0.05768799612252661</v>
       </c>
       <c r="P53" t="n">
-        <v>0.060114921804834937</v>
+        <v>0.06166247649408275</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.06475741517056695</v>
+        <v>0.06640624117911244</v>
       </c>
       <c r="R53" t="n">
-        <v>0.07016330428733226</v>
+        <v>0.07193641554529234</v>
       </c>
       <c r="S53" t="n">
-        <v>0.0763400474857836</v>
+        <v>0.0782609650846627</v>
       </c>
       <c r="T53" t="n">
-        <v>0.08329553909905088</v>
+        <v>0.08538828893201493</v>
       </c>
       <c r="U53" t="n">
-        <v>0.09104290624212666</v>
+        <v>0.09333201742571766</v>
       </c>
       <c r="V53" t="n">
-        <v>0.09959257306472458</v>
+        <v>0.10210307706872564</v>
       </c>
       <c r="W53" t="n">
-        <v>0.10895294998059774</v>
+        <v>0.11171038039480756</v>
       </c>
       <c r="X53" t="n">
-        <v>0.11913594930807048</v>
+        <v>0.1221663421770672</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.13015102906614584</v>
+        <v>0.1334809237256802</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.14200969290609125</v>
+        <v>0.14566613325751343</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.154735892181981</v>
+        <v>0.15874642834404326</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.1683024315348382</v>
+        <v>0.17269512181529312</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.17972185997902318</v>
+        <v>0.18452527311162603</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.18599657828235983</v>
+        <v>0.19123979587815385</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.19105474973685002</v>
+        <v>0.1967673689019362</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.19579854806260738</v>
+        <v>0.2020106841379523</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.20050193756688933</v>
+        <v>0.20724422694907765</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.20526913315464498</v>
+        <v>0.21257273615981787</v>
       </c>
       <c r="AI53" t="n">
-        <v>0.21014613134820564</v>
+        <v>0.21804273508471875</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0.2152228289612827</v>
+        <v>0.22374465017985035</v>
       </c>
     </row>
     <row r="54">
@@ -40648,106 +40654,106 @@
         <v>5</v>
       </c>
       <c r="C57" t="n">
-        <v>0.75229460943148</v>
+        <v>0.2977636326697349</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7261820366418614</v>
+        <v>0.31043325314296444</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6996247214716341</v>
+        <v>0.32151166400317377</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6727350201164266</v>
+        <v>0.3311445913107878</v>
       </c>
       <c r="G57" t="n">
-        <v>0.6455034595495824</v>
+        <v>0.33935748317273784</v>
       </c>
       <c r="H57" t="n">
-        <v>0.6179182575634918</v>
+        <v>0.3461749356051999</v>
       </c>
       <c r="I57" t="n">
-        <v>0.5899693479120702</v>
+        <v>0.35162462825166013</v>
       </c>
       <c r="J57" t="n">
-        <v>0.5616373140050874</v>
+        <v>0.35572456713080125</v>
       </c>
       <c r="K57" t="n">
-        <v>0.5329185741876156</v>
+        <v>0.3585142187356061</v>
       </c>
       <c r="L57" t="n">
-        <v>0.5060236396096549</v>
+        <v>0.3622478547047027</v>
       </c>
       <c r="M57" t="n">
-        <v>0.4769059778703394</v>
+        <v>0.3629216645871753</v>
       </c>
       <c r="N57" t="n">
-        <v>0.44742645824093696</v>
+        <v>0.36244014444232453</v>
       </c>
       <c r="O57" t="n">
-        <v>0.41755803353227494</v>
+        <v>0.3608210377605194</v>
       </c>
       <c r="P57" t="n">
-        <v>0.38727071514531064</v>
+        <v>0.35808054693563934</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.35655655686710347</v>
+        <v>0.3542581182860218</v>
       </c>
       <c r="R57" t="n">
-        <v>0.32540913920069114</v>
+        <v>0.3493957782707409</v>
       </c>
       <c r="S57" t="n">
-        <v>0.2938201142040028</v>
+        <v>0.3435347802064562</v>
       </c>
       <c r="T57" t="n">
-        <v>0.2617802782428929</v>
+        <v>0.33671696763458087</v>
       </c>
       <c r="U57" t="n">
-        <v>0.2292824308897623</v>
+        <v>0.32898719830826234</v>
       </c>
       <c r="V57" t="n">
-        <v>0.19631906762065826</v>
+        <v>0.3203910572755647</v>
       </c>
       <c r="W57" t="n">
-        <v>0.16288292463547283</v>
+        <v>0.31097519570356197</v>
       </c>
       <c r="X57" t="n">
-        <v>0.12895394762613197</v>
+        <v>0.3007874831791278</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.09435544618851599</v>
+        <v>0.28987655408023155</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.05887398681045895</v>
+        <v>0.2782927550628224</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.02240461731390625</v>
+        <v>0.26608997061650297</v>
       </c>
       <c r="AB57" t="n">
-        <v>-0.01507323247660916</v>
+        <v>0.25331352190809814</v>
       </c>
       <c r="AC57" t="n">
-        <v>-0.054062074172429975</v>
+        <v>0.23945039017891837</v>
       </c>
       <c r="AD57" t="n">
-        <v>-0.09501037464345177</v>
+        <v>0.22398017769226167</v>
       </c>
       <c r="AE57" t="n">
-        <v>-0.13701008296193362</v>
+        <v>0.20769363225638224</v>
       </c>
       <c r="AF57" t="n">
-        <v>-0.17968989225940957</v>
+        <v>0.19081535874466798</v>
       </c>
       <c r="AG57" t="n">
-        <v>-0.2227828110258539</v>
+        <v>0.17345289427070726</v>
       </c>
       <c r="AH57" t="n">
-        <v>-0.2660846755549497</v>
+        <v>0.15535950761575296</v>
       </c>
       <c r="AI57" t="n">
-        <v>-0.30942209691947553</v>
+        <v>0.13542161353107873</v>
       </c>
       <c r="AJ57" t="n">
-        <v>-0.35274270996894314</v>
+        <v>0.11273018265292073</v>
       </c>
     </row>
   </sheetData>
@@ -41003,83 +41009,79 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.439203803766361</v>
+        <v>-0.5172352876434758</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.41189898208153153</v>
+        <v>-0.48812798307441974</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.3849735321446738</v>
+        <v>-0.45939944461616955</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.35833153910350035</v>
+        <v>-0.43095344904836924</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.33198105279882245</v>
+        <v>-0.40279987803062123</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.3059320010253895</v>
+        <v>-0.3749502243871868</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2801924759217508</v>
+        <v>-0.3474137957243226</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.2547704890949959</v>
+        <v>-0.3201995023683577</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.22967387017470686</v>
+        <v>-0.2933157486534532</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.20302557512717403</v>
+        <v>-0.2648857326642198</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.17827899950930215</v>
+        <v>-0.23836276000603424</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.15388054327191208</v>
+        <v>-0.21219281197807635</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.12983711211036242</v>
+        <v>-0.18638201590164247</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.10615623887649167</v>
+        <v>-0.16093678647373047</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.08284480414997068</v>
+        <v>-0.13586252037746227</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.059908873547425565</v>
+        <v>-0.11116342660635405</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.03735573859053945</v>
+        <v>-0.08684458733877778</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.015192474287511382</v>
+        <v>-0.06291048708150787</v>
       </c>
       <c r="U5" t="n">
-        <v>0.006574803619022329</v>
+        <v>-0.039364256647026495</v>
       </c>
       <c r="V5" t="n">
-        <v>0.027939520261252047</v>
+        <v>-0.016209098328419925</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04889486175336208</v>
+        <v>0.006551944000232298</v>
       </c>
       <c r="X5" t="n">
-        <v>0.06942405390012495</v>
+        <v>0.02891695049761056</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.08937673852533014</v>
+        <v>0.050884096798802556</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.10857086978555305</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.12691661469754445</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.1443960141596756</v>
-      </c>
+        <v>0.07245233502741733</v>
+      </c>
+      <c r="AA5"/>
+      <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5"/>
@@ -41097,83 +41099,79 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.05146039692433975</v>
+        <v>-0.9265033194209201</v>
       </c>
       <c r="D6" t="n">
-        <v>0.037461456700281004</v>
+        <v>-0.835127755016734</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1263109486769021</v>
+        <v>-0.7438244367408662</v>
       </c>
       <c r="F6" t="n">
-        <v>0.21510637387544002</v>
+        <v>-0.6525750109050465</v>
       </c>
       <c r="G6" t="n">
-        <v>0.30384619686330055</v>
+        <v>-0.5613813623443416</v>
       </c>
       <c r="H6" t="n">
-        <v>0.39252852400556504</v>
+        <v>-0.4702456832085571</v>
       </c>
       <c r="I6" t="n">
-        <v>0.48115181180173716</v>
+        <v>-0.3791697488373998</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5697145321119508</v>
+        <v>-0.28815525879310855</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6582151915068646</v>
+        <v>-0.1972038161246016</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7470118187547601</v>
+        <v>-0.10595743824542503</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8354457106310866</v>
+        <v>-0.015074811222708373</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9238132019591201</v>
+        <v>0.07574047962074795</v>
       </c>
       <c r="O6" t="n">
-        <v>1.0121129755414162</v>
+        <v>0.16648726555514468</v>
       </c>
       <c r="P6" t="n">
-        <v>1.10034359455624</v>
+        <v>0.25716432303642867</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.1885037465967325</v>
+        <v>0.3477706226972669</v>
       </c>
       <c r="R6" t="n">
-        <v>1.2765922747026892</v>
+        <v>0.4383053617111207</v>
       </c>
       <c r="S6" t="n">
-        <v>1.364607788083867</v>
+        <v>0.5287675706995258</v>
       </c>
       <c r="T6" t="n">
-        <v>1.4525489372479654</v>
+        <v>0.6191563942843411</v>
       </c>
       <c r="U6" t="n">
-        <v>1.5404145556737077</v>
+        <v>0.7094712352920765</v>
       </c>
       <c r="V6" t="n">
-        <v>1.6282033892659415</v>
+        <v>0.7997114829149781</v>
       </c>
       <c r="W6" t="n">
-        <v>1.7159141383390428</v>
+        <v>0.8898765565622514</v>
       </c>
       <c r="X6" t="n">
-        <v>1.8033000711744538</v>
+        <v>0.9799660900419419</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.886802462995342</v>
+        <v>1.0699797353733365</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.9611103556943918</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>2.0219373804664014</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>2.066082386437908</v>
-      </c>
+        <v>1.1599172926837158</v>
+      </c>
+      <c r="AA6"/>
+      <c r="AB6"/>
       <c r="AC6"/>
       <c r="AD6"/>
       <c r="AE6"/>
@@ -41200,74 +41198,70 @@
         <v>0.019559176047326148</v>
       </c>
       <c r="F7" t="n">
-        <v>0.019558662950087655</v>
+        <v>0.019578706347020993</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01955782518648031</v>
+        <v>0.019639286574244148</v>
       </c>
       <c r="H7" t="n">
-        <v>0.019556280630723653</v>
+        <v>0.01970003117465189</v>
       </c>
       <c r="I7" t="n">
-        <v>0.019566738644020698</v>
+        <v>0.01975942550058385</v>
       </c>
       <c r="J7" t="n">
-        <v>0.019603293633981396</v>
+        <v>0.019790842925377344</v>
       </c>
       <c r="K7" t="n">
-        <v>0.019626762099260682</v>
+        <v>0.019809188650031475</v>
       </c>
       <c r="L7" t="n">
-        <v>0.019658425853835246</v>
+        <v>0.019894647242508372</v>
       </c>
       <c r="M7" t="n">
-        <v>0.019713308923370726</v>
+        <v>0.02001305922936267</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01981364039715258</v>
+        <v>0.020154334901186493</v>
       </c>
       <c r="O7" t="n">
-        <v>0.019984039380307357</v>
+        <v>0.020314407901036495</v>
       </c>
       <c r="P7" t="n">
-        <v>0.020172874845440097</v>
+        <v>0.020492934961577794</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.020380505982416322</v>
+        <v>0.020765332038984424</v>
       </c>
       <c r="R7" t="n">
-        <v>0.020608806204259575</v>
+        <v>0.021071677344788445</v>
       </c>
       <c r="S7" t="n">
-        <v>0.020935734988610382</v>
+        <v>0.021400601434971436</v>
       </c>
       <c r="T7" t="n">
-        <v>0.021301495958456818</v>
+        <v>0.021749728309704355</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02168748330565306</v>
+        <v>0.02219625927886495</v>
       </c>
       <c r="V7" t="n">
-        <v>0.022094299247604626</v>
+        <v>0.022743827019760736</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02266618898389251</v>
+        <v>0.02331641956943284</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02329099103440818</v>
+        <v>0.024080980359394776</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.023941456470573323</v>
+        <v>0.027995690723157607</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.025711325860894703</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.03053149213589914</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.030965243709335198</v>
-      </c>
+        <v>0.030486286008846716</v>
+      </c>
+      <c r="AA7"/>
+      <c r="AB7"/>
       <c r="AC7"/>
       <c r="AD7"/>
       <c r="AE7"/>
@@ -41285,83 +41279,79 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06067922818931192</v>
+        <v>0.06276321534071427</v>
       </c>
       <c r="D8" t="n">
-        <v>0.057367281332231304</v>
+        <v>0.05930247978364674</v>
       </c>
       <c r="E8" t="n">
-        <v>0.053866704142786714</v>
+        <v>0.055668825158685126</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05097037924626747</v>
+        <v>0.052659600886316306</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04869879504347026</v>
+        <v>0.05029998838532416</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04705661002778107</v>
+        <v>0.04858752710677345</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04606197326280145</v>
+        <v>0.047538243624974046</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04573178885936573</v>
+        <v>0.047161851107047736</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04607218388545185</v>
+        <v>0.047475356907001255</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04710173260086996</v>
+        <v>0.04850912242813574</v>
       </c>
       <c r="M8" t="n">
-        <v>0.048836651149902835</v>
+        <v>0.05027052452545549</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05128947674596669</v>
+        <v>0.052766469249388694</v>
       </c>
       <c r="O8" t="n">
-        <v>0.054478819570712544</v>
+        <v>0.05601062122935959</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0584033947054681</v>
+        <v>0.06001199789816012</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.06307516231059535</v>
+        <v>0.06479739032599917</v>
       </c>
       <c r="R8" t="n">
-        <v>0.06851074413582588</v>
+        <v>0.07037214377772394</v>
       </c>
       <c r="S8" t="n">
-        <v>0.07473236713416613</v>
+        <v>0.07674195370309447</v>
       </c>
       <c r="T8" t="n">
-        <v>0.08173698126837518</v>
+        <v>0.0839152272717748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08953418041961701</v>
+        <v>0.09192033590890836</v>
       </c>
       <c r="V8" t="n">
-        <v>0.09813440051776928</v>
+        <v>0.1007687959297786</v>
       </c>
       <c r="W8" t="n">
-        <v>0.10757319815054839</v>
+        <v>0.11045465402791155</v>
       </c>
       <c r="X8" t="n">
-        <v>0.11784128950038902</v>
+        <v>0.12102236551794332</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.12894314991298533</v>
+        <v>0.13304635221459418</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.14109891347328996</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.1547006488242174</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0.1683024315348382</v>
-      </c>
+        <v>0.14566613325751343</v>
+      </c>
+      <c r="AA8"/>
+      <c r="AB8"/>
       <c r="AC8"/>
       <c r="AD8"/>
       <c r="AE8"/>
@@ -41379,83 +41369,79 @@
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>2.081301464648913</v>
+        <v>-0.10963784476381377</v>
       </c>
       <c r="D9" t="n">
-        <v>1.4555429178623984</v>
+        <v>-0.6843450135374283</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8195870860511416</v>
+        <v>-1.269684842043942</v>
       </c>
       <c r="F9" t="n">
-        <v>0.17567409905948206</v>
+        <v>-1.8631705581699896</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4764220169148907</v>
+        <v>-2.4653077231748535</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.1369799532872298</v>
+        <v>-3.0759857247866407</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.8063793009166669</v>
+        <v>-3.6954661299671594</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.485280798023358</v>
+        <v>-4.3239993411208815</v>
       </c>
       <c r="K9" t="n">
-        <v>-3.173325945217637</v>
+        <v>-4.9618215410097335</v>
       </c>
       <c r="L9" t="n">
-        <v>-3.8177651212179935</v>
+        <v>-5.56132733513282</v>
       </c>
       <c r="M9" t="n">
-        <v>-4.515647358700527</v>
+        <v>-6.215273478540764</v>
       </c>
       <c r="N9" t="n">
-        <v>-5.225375316546234</v>
+        <v>-6.879232132244846</v>
       </c>
       <c r="O9" t="n">
-        <v>-5.949646396627157</v>
+        <v>-7.553377079778317</v>
       </c>
       <c r="P9" t="n">
-        <v>-6.684200371081458</v>
+        <v>-8.23789025524503</v>
       </c>
       <c r="Q9" t="n">
-        <v>-7.429232387411313</v>
+        <v>-8.973918048520968</v>
       </c>
       <c r="R9" t="n">
-        <v>-8.184914479077626</v>
+        <v>-9.72783932221138</v>
       </c>
       <c r="S9" t="n">
-        <v>-8.99371356401387</v>
+        <v>-10.493282745823723</v>
       </c>
       <c r="T9" t="n">
-        <v>-9.82447339460835</v>
+        <v>-11.27038420508427</v>
       </c>
       <c r="U9" t="n">
-        <v>-10.667232069621697</v>
+        <v>-12.147225237024035</v>
       </c>
       <c r="V9" t="n">
-        <v>-11.522188815129908</v>
+        <v>-13.127390430385788</v>
       </c>
       <c r="W9" t="n">
-        <v>-12.551569097628274</v>
+        <v>-14.122174376711193</v>
       </c>
       <c r="X9" t="n">
-        <v>-13.629137978573308</v>
+        <v>-15.42944488053271</v>
       </c>
       <c r="Y9" t="n">
-        <v>-14.728090972962512</v>
+        <v>-21.861796026709044</v>
       </c>
       <c r="Z9" t="n">
-        <v>-17.78965222403086</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>-24.74549448699615</v>
-      </c>
-      <c r="AB9" t="n">
         <v>-25.0</v>
       </c>
+      <c r="AA9"/>
+      <c r="AB9"/>
       <c r="AC9"/>
       <c r="AD9"/>
       <c r="AE9"/>
@@ -41473,83 +41459,79 @@
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.8480727006577848</v>
+        <v>-0.004088268908743526</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6530108422487438</v>
+        <v>-0.004088268908743526</v>
       </c>
       <c r="E10" t="n">
-        <v>2.3448798415823697</v>
+        <v>-0.004088268908743526</v>
       </c>
       <c r="F10" t="n">
-        <v>4.2202231385435915</v>
+        <v>-0.004088268908743526</v>
       </c>
       <c r="G10" t="n">
-        <v>6.239295994738201</v>
+        <v>-0.004088268908743526</v>
       </c>
       <c r="H10" t="n">
-        <v>8.341623499309147</v>
+        <v>-0.004088268908743526</v>
       </c>
       <c r="I10" t="n">
-        <v>10.445749014193968</v>
+        <v>-0.004088268908743526</v>
       </c>
       <c r="J10" t="n">
-        <v>12.45773555598132</v>
+        <v>-0.004088268908743526</v>
       </c>
       <c r="K10" t="n">
-        <v>14.286607145503867</v>
+        <v>-0.004088268908743526</v>
       </c>
       <c r="L10" t="n">
-        <v>15.85954013804076</v>
+        <v>-0.004088268908743526</v>
       </c>
       <c r="M10" t="n">
-        <v>17.10694101581019</v>
+        <v>-0.004088268908743526</v>
       </c>
       <c r="N10" t="n">
-        <v>18.01174939909612</v>
+        <v>-0.004088268908743526</v>
       </c>
       <c r="O10" t="n">
-        <v>18.578100324433635</v>
+        <v>-0.004088268908743526</v>
       </c>
       <c r="P10" t="n">
-        <v>18.84040474197331</v>
+        <v>-0.004088268908743526</v>
       </c>
       <c r="Q10" t="n">
-        <v>18.84265855304962</v>
+        <v>-0.004088268908743526</v>
       </c>
       <c r="R10" t="n">
-        <v>18.633460938211137</v>
+        <v>-0.004088268908743526</v>
       </c>
       <c r="S10" t="n">
-        <v>18.259929939513395</v>
+        <v>-0.004088268908743526</v>
       </c>
       <c r="T10" t="n">
-        <v>17.771012762003856</v>
+        <v>-0.004088268908743526</v>
       </c>
       <c r="U10" t="n">
-        <v>17.204765246683394</v>
+        <v>-0.004088268908743526</v>
       </c>
       <c r="V10" t="n">
-        <v>16.59156606322898</v>
+        <v>-0.004088268908743526</v>
       </c>
       <c r="W10" t="n">
-        <v>15.95113065187135</v>
+        <v>-0.004088268908743526</v>
       </c>
       <c r="X10" t="n">
-        <v>15.302786305376442</v>
+        <v>-0.004088268908743526</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.632824343663174</v>
+        <v>-0.004088268908743526</v>
       </c>
       <c r="Z10" t="n">
-        <v>13.89883385647495</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>13.069999355748532</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>12.276010320208796</v>
-      </c>
+        <v>-0.004088268908743526</v>
+      </c>
+      <c r="AA10"/>
+      <c r="AB10"/>
       <c r="AC10"/>
       <c r="AD10"/>
       <c r="AE10"/>
@@ -41567,7 +41549,187 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>18.84265855304962</v>
+        <v>-0.33408826890874355</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.33408826890874355</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.33408826890874355</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.33408826890874355</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.33408826890874355</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.33408826890874355</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.33408826890874355</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.33408826890874355</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.33408826890874355</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.33408826890874355</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.33408826890874355</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.33408826890874355</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.33408826890874355</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.33408826890874355</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.33408826890874355</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.33408826890874355</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.33408826890874355</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.33408826890874355</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.33408826890874355</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.33408826890874355</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.33408826890874355</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.33408826890874355</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.33408826890874355</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.33408826890874355</v>
+      </c>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-14.761884240495574</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-14.082509838771175</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-13.361597530046295</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-12.39232732344197</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-11.160665844370925</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-9.678320985037361</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-7.976099239775117</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-6.109922575749946</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-4.153814293821974</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-2.184278604553125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.2998737603200249</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.4353903283310057</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.9724231208468646</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.285215157689541</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5.367046742895264</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6.228392914894612</v>
+      </c>
+      <c r="S12" t="n">
+        <v>6.890202101776884</v>
+      </c>
+      <c r="T12" t="n">
+        <v>7.3783556860197725</v>
+      </c>
+      <c r="U12" t="n">
+        <v>7.718327269769244</v>
+      </c>
+      <c r="V12" t="n">
+        <v>7.936102396939051</v>
+      </c>
+      <c r="W12" t="n">
+        <v>8.056487654539051</v>
+      </c>
+      <c r="X12" t="n">
+        <v>8.097396591513887</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.042157620733082</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>7.96284810164608</v>
+      </c>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8.746947093226312</v>
       </c>
     </row>
   </sheetData>
@@ -41697,7 +41859,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -41783,7 +41945,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -41794,7 +41956,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -41805,7 +41967,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -41816,7 +41978,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -41832,7 +41994,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -41855,7 +42017,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -41883,7 +42045,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -41954,7 +42116,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -42025,7 +42187,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -42096,7 +42258,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -42172,7 +42334,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -42243,7 +42405,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -42314,7 +42476,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -42385,7 +42547,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -42456,7 +42618,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -42532,7 +42694,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
@@ -42555,7 +42717,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>

--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
@@ -37464,106 +37464,106 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.9597073342263087</v>
+        <v>-0.09873376757102464</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8644267856597669</v>
+        <v>-0.0034532190044827688</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.7691462370932249</v>
+        <v>0.09182732956205915</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6738656885266829</v>
+        <v>0.18710787812860113</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.5785851399601409</v>
+        <v>0.28238842669514314</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.48330459139359894</v>
+        <v>0.3776689752616852</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3880240428270569</v>
+        <v>0.47294952382822725</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.29274349426051494</v>
+        <v>0.5682300723947692</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1974629456939729</v>
+        <v>0.6635106209613113</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.1021823971274309</v>
+        <v>0.7587911695278532</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0069018485608889</v>
+        <v>0.8540717180943952</v>
       </c>
       <c r="N7" t="n">
-        <v>0.08837870000565311</v>
+        <v>0.9493522666609373</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1836592485721951</v>
+        <v>1.0446328152274793</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2789397971387371</v>
+        <v>1.139913363794021</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3742203457052792</v>
+        <v>1.2351939123605633</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4695008942718212</v>
+        <v>1.3304744609271053</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5647814428383632</v>
+        <v>1.425755009493647</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6600619914049051</v>
+        <v>1.5210355580601893</v>
       </c>
       <c r="U7" t="n">
-        <v>0.7553425399714472</v>
+        <v>1.6163161066267313</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8506230885379892</v>
+        <v>1.7115966551932733</v>
       </c>
       <c r="W7" t="n">
-        <v>0.9459036371045311</v>
+        <v>1.8068755717387204</v>
       </c>
       <c r="X7" t="n">
-        <v>1.0411841856710728</v>
+        <v>1.9009702697444735</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.136464734237615</v>
+        <v>1.9898008630973372</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.2317452828041566</v>
+        <v>2.06963673489126</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.3270258313706988</v>
+        <v>2.1377169660765225</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.4223063799372408</v>
+        <v>2.1922503354597502</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.5175869285037824</v>
+        <v>2.232415319703901</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.6128674770703246</v>
+        <v>2.258360093328268</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.7081480256368666</v>
+        <v>2.2712025287084785</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.8034286180223338</v>
+        <v>2.2730302398954274</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.8987185088767469</v>
+        <v>2.266917784363734</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.9787833833610742</v>
+        <v>2.2569431847878274</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.9714543289310305</v>
+        <v>2.2481374560230494</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.7702725808872668</v>
+        <v>2.2464764003726923</v>
       </c>
     </row>
     <row r="8">
@@ -37914,106 +37914,106 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.12180248281776468</v>
+        <v>-0.027818430695910112</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1123233536901661</v>
+        <v>-0.02051453241511475</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.10433080814135906</v>
+        <v>-0.014720330092896333</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.09767834326083005</v>
+        <v>-0.010288767397590243</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.09233976062616889</v>
+        <v>-0.007193086806537963</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.08828974062922351</v>
+        <v>-0.00540740407299245</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.08549990694019155</v>
+        <v>-0.004902772832354296</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.08395158393512184</v>
+        <v>-0.005659942173176752</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.08360466276538103</v>
+        <v>-0.007638222851457543</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.08220425684801669</v>
+        <v>-0.008582142927113595</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.08375358925575713</v>
+        <v>-0.012494335301341343</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0863476042651185</v>
+        <v>-0.01746914941329636</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.08996802657644704</v>
+        <v>-0.023487710609882726</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.09459814997535583</v>
+        <v>-0.030532708958073848</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.1001980524386125</v>
+        <v>-0.03856361450278299</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.10672526003761552</v>
+        <v>-0.04753734132338318</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.11413810033419476</v>
+        <v>-0.05741160108357375</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.12239433911895375</v>
+        <v>-0.06814353992477129</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.13144875652263832</v>
+        <v>-0.07968731473347179</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.1412554340241148</v>
+        <v>-0.09199638030612742</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.15176741571022695</v>
+        <v>-0.1050232393730024</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.16293655605172386</v>
+        <v>-0.1187798339948839</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.17471397360143193</v>
+        <v>-0.1334036839543038</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.187049103569568</v>
+        <v>-0.14896636163077442</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.19988787232298078</v>
+        <v>-0.16545004166277483</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.21318479858919703</v>
+        <v>-0.182773699909891</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.22745277009946452</v>
+        <v>-0.20135718870432684</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.2432120826742355</v>
+        <v>-0.22158475013959206</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.2596719157258544</v>
+        <v>-0.24250111591874962</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.27660790350688286</v>
+        <v>-0.2637038274645917</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.2940240877948593</v>
+        <v>-0.2850198397179326</v>
       </c>
       <c r="AH13" t="n">
-        <v>-0.312496767584381</v>
+        <v>-0.3065372725194681</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.3333586559173415</v>
+        <v>-0.328270669628551</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.3574248880641183</v>
+        <v>-0.35011559321070307</v>
       </c>
     </row>
     <row r="14">
@@ -38149,106 +38149,106 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.9928952816714249</v>
+        <v>-0.13192171501614078</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.897614733104883</v>
+        <v>-0.036641166449598916</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.8023341845383412</v>
+        <v>0.058639382116943</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7070536359717992</v>
+        <v>0.153919930683485</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6117730874052572</v>
+        <v>0.249200479250027</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.516492538838715</v>
+        <v>0.3444810278165691</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.42121199027217304</v>
+        <v>0.4397615763831111</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.3259314417056311</v>
+        <v>0.5350421249496531</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.23065089313908904</v>
+        <v>0.6303226735161951</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.13537034457254704</v>
+        <v>0.7256032220827371</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.040089796006005055</v>
+        <v>0.8208837706492791</v>
       </c>
       <c r="N18" t="n">
-        <v>0.05519075256053697</v>
+        <v>0.9161643192158211</v>
       </c>
       <c r="O18" t="n">
-        <v>0.15047130112707896</v>
+        <v>1.011444867782363</v>
       </c>
       <c r="P18" t="n">
-        <v>0.24575184969362096</v>
+        <v>1.106725416348905</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.341032398260163</v>
+        <v>1.202005964915447</v>
       </c>
       <c r="R18" t="n">
-        <v>0.4363129468267051</v>
+        <v>1.297286513481989</v>
       </c>
       <c r="S18" t="n">
-        <v>0.531593495393247</v>
+        <v>1.392567062048531</v>
       </c>
       <c r="T18" t="n">
-        <v>0.626874043959789</v>
+        <v>1.487847610615073</v>
       </c>
       <c r="U18" t="n">
-        <v>0.7221545925263311</v>
+        <v>1.583128159181615</v>
       </c>
       <c r="V18" t="n">
-        <v>0.817435141092873</v>
+        <v>1.6784087077481573</v>
       </c>
       <c r="W18" t="n">
-        <v>0.912715689659415</v>
+        <v>1.7736876242936042</v>
       </c>
       <c r="X18" t="n">
-        <v>1.0079962382259569</v>
+        <v>1.8677823222993573</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.103276786792499</v>
+        <v>1.9566129156522212</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.1985573353590406</v>
+        <v>2.036448787446144</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.2938378839255826</v>
+        <v>2.1045290186314065</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.3891184324921246</v>
+        <v>2.159062388014634</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.4843989810586664</v>
+        <v>2.199227372258785</v>
       </c>
       <c r="AD18" t="n">
-        <v>1.5796795296252084</v>
+        <v>2.2251721458831515</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.6749600781917504</v>
+        <v>2.238014581263362</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.7702406267582924</v>
+        <v>2.239842248631386</v>
       </c>
       <c r="AG18" t="n">
-        <v>1.865513140588542</v>
+        <v>2.2337124160755284</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.94549224811368</v>
+        <v>2.223652049540433</v>
       </c>
       <c r="AI18" t="n">
-        <v>1.9379756527677483</v>
+        <v>2.2146587798597674</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.7365247271653808</v>
+        <v>2.212728546650806</v>
       </c>
     </row>
     <row r="19">
@@ -38599,106 +38599,106 @@
         <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06970662964765323</v>
+        <v>0.1636906817695078</v>
       </c>
       <c r="D24" t="n">
-        <v>0.08072629873550197</v>
+        <v>0.17253512001055332</v>
       </c>
       <c r="E24" t="n">
-        <v>0.09021111975821575</v>
+        <v>0.17982159780667847</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09830721995393785</v>
+        <v>0.18569679581717766</v>
       </c>
       <c r="G24" t="n">
-        <v>0.10504043431760801</v>
+        <v>0.19018710813723894</v>
       </c>
       <c r="H24" t="n">
-        <v>0.11043573136629864</v>
+        <v>0.1933180679225297</v>
       </c>
       <c r="I24" t="n">
-        <v>0.11452114876350866</v>
+        <v>0.19511828287134592</v>
       </c>
       <c r="J24" t="n">
-        <v>0.11731503597691897</v>
+        <v>0.19560667773886406</v>
       </c>
       <c r="K24" t="n">
-        <v>0.11885718829103481</v>
+        <v>0.1948236282049583</v>
       </c>
       <c r="L24" t="n">
-        <v>0.12140219139575936</v>
+        <v>0.19502430531666243</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1209465340721437</v>
+        <v>0.1922057880265595</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1193949967168178</v>
+        <v>0.18827345156863995</v>
       </c>
       <c r="O24" t="n">
-        <v>0.116765592191261</v>
+        <v>0.1832459081578253</v>
       </c>
       <c r="P24" t="n">
-        <v>0.11307477722643236</v>
+        <v>0.17714021824371434</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1083622373796893</v>
+        <v>0.16999667531551882</v>
       </c>
       <c r="R24" t="n">
-        <v>0.10267022319083981</v>
+        <v>0.16185814190507214</v>
       </c>
       <c r="S24" t="n">
-        <v>0.09604019684257946</v>
+        <v>0.15276669609320048</v>
       </c>
       <c r="T24" t="n">
-        <v>0.08851419547507962</v>
+        <v>0.14276499466926207</v>
       </c>
       <c r="U24" t="n">
-        <v>0.08013725512422967</v>
+        <v>0.1318986969133962</v>
       </c>
       <c r="V24" t="n">
-        <v>0.07095512375993832</v>
+        <v>0.12021417747792573</v>
       </c>
       <c r="W24" t="n">
-        <v>0.06101460006921175</v>
+        <v>0.1077587764064363</v>
       </c>
       <c r="X24" t="n">
-        <v>0.05036368571980632</v>
+        <v>0.0945204077766463</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.03905113169827365</v>
+        <v>0.08036142134540178</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.02712738576748952</v>
+        <v>0.0652101277062831</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.014646417996873828</v>
+        <v>0.049084248657079804</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.0016536195844160106</v>
+        <v>0.032064718263722036</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.012363973763692804</v>
+        <v>0.013731607631444875</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.027926720899267787</v>
+        <v>-0.006299388364624348</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.04424385071895193</v>
+        <v>-0.027073050911847196</v>
       </c>
       <c r="AF24" t="n">
-        <v>-0.06109075064990199</v>
+        <v>-0.04818667460761089</v>
       </c>
       <c r="AG24" t="n">
-        <v>-0.07835989147666128</v>
+        <v>-0.0693556433997346</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.09629802791170544</v>
+        <v>-0.09033853284679266</v>
       </c>
       <c r="AI24" t="n">
-        <v>-0.11602283610578312</v>
+        <v>-0.11093484981699264</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-0.1384806930930752</v>
+        <v>-0.13117139823965995</v>
       </c>
     </row>
     <row r="25">
@@ -38834,106 +38834,106 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.0202484552052205</v>
+        <v>-0.1592748885499364</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.9249679066386787</v>
+        <v>-0.06399433998339454</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.8296873580721367</v>
+        <v>0.0312862085831474</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.7344068095055948</v>
+        <v>0.12656675714968937</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.6391262609390528</v>
+        <v>0.22184730571623137</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.5438457123725107</v>
+        <v>0.31712785428277346</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.44856516380596867</v>
+        <v>0.41240840284931546</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.35328461523942667</v>
+        <v>0.5076889514158575</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.25800406667288467</v>
+        <v>0.6029694999823995</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.16272351810634267</v>
+        <v>0.6982500485489415</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.06744296953980067</v>
+        <v>0.7935305971154835</v>
       </c>
       <c r="N29" t="n">
-        <v>0.027837579026741346</v>
+        <v>0.8888111456820255</v>
       </c>
       <c r="O29" t="n">
-        <v>0.12311812759328333</v>
+        <v>0.9840916942485676</v>
       </c>
       <c r="P29" t="n">
-        <v>0.21839867615982533</v>
+        <v>1.0793722428151094</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.31367922472636744</v>
+        <v>1.1746527913816516</v>
       </c>
       <c r="R29" t="n">
-        <v>0.40895977329290945</v>
+        <v>1.2699333399481936</v>
       </c>
       <c r="S29" t="n">
-        <v>0.5042403218594513</v>
+        <v>1.3652138885147354</v>
       </c>
       <c r="T29" t="n">
-        <v>0.5995208704259933</v>
+        <v>1.4604944370812776</v>
       </c>
       <c r="U29" t="n">
-        <v>0.6948014189925354</v>
+        <v>1.5557749856478196</v>
       </c>
       <c r="V29" t="n">
-        <v>0.7900819675590774</v>
+        <v>1.6510555342143616</v>
       </c>
       <c r="W29" t="n">
-        <v>0.8853625161256193</v>
+        <v>1.7463344507598086</v>
       </c>
       <c r="X29" t="n">
-        <v>0.9806430646921611</v>
+        <v>1.8404291487655617</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.0759236132587033</v>
+        <v>1.9292597421184254</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.171204161825245</v>
+        <v>2.0090956139123484</v>
       </c>
       <c r="AA29" t="n">
-        <v>1.2664847103917871</v>
+        <v>2.0771758450976106</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.3617652589583291</v>
+        <v>2.1317092144808383</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.4570458075248707</v>
+        <v>2.1718741987249897</v>
       </c>
       <c r="AD29" t="n">
-        <v>1.5523263560914127</v>
+        <v>2.197818972349356</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.647606904657955</v>
+        <v>2.2106614077295665</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.742887453224497</v>
+        <v>2.21248907509759</v>
       </c>
       <c r="AG29" t="n">
-        <v>1.8381599670547464</v>
+        <v>2.206359242541733</v>
       </c>
       <c r="AH29" t="n">
-        <v>1.9181390745798845</v>
+        <v>2.1962988760066375</v>
       </c>
       <c r="AI29" t="n">
-        <v>1.9106215122012513</v>
+        <v>2.1873046392932705</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1.7091390745735244</v>
+        <v>2.1853428940589494</v>
       </c>
     </row>
     <row r="30">
@@ -39284,106 +39284,106 @@
         <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>0.22872861738458222</v>
+        <v>0.3227126695064368</v>
       </c>
       <c r="D35" t="n">
-        <v>0.24100090946803265</v>
+        <v>0.33280973074308395</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2516984365037306</v>
+        <v>0.34130891455219325</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2609670204375659</v>
+        <v>0.34835659630080573</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2688322010979677</v>
+        <v>0.3539788749175986</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2753186620355457</v>
+        <v>0.35820099859177684</v>
       </c>
       <c r="I35" t="n">
-        <v>0.2804541662191263</v>
+        <v>0.36105130032696353</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2842567987626563</v>
+        <v>0.36254844052460145</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2867661010043993</v>
+        <v>0.3627325409183228</v>
       </c>
       <c r="L35" t="n">
-        <v>0.29023641515943627</v>
+        <v>0.3638585290803394</v>
       </c>
       <c r="M35" t="n">
-        <v>0.2906639970667096</v>
+        <v>0.3619232510211254</v>
       </c>
       <c r="N35" t="n">
-        <v>0.28995340477209586</v>
+        <v>0.358831859623918</v>
       </c>
       <c r="O35" t="n">
-        <v>0.2881224394336532</v>
+        <v>0.3546027554002175</v>
       </c>
       <c r="P35" t="n">
-        <v>0.2851873567795448</v>
+        <v>0.3492527977968268</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.28118765211556024</v>
+        <v>0.3428220900513897</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2761653965290625</v>
+        <v>0.33535331524329487</v>
       </c>
       <c r="S35" t="n">
-        <v>0.27016188359460064</v>
+        <v>0.32688838284522165</v>
       </c>
       <c r="T35" t="n">
-        <v>0.26321899273094457</v>
+        <v>0.31746979192512703</v>
       </c>
       <c r="U35" t="n">
-        <v>0.25538161317903263</v>
+        <v>0.30714305496819916</v>
       </c>
       <c r="V35" t="n">
-        <v>0.24669535707722787</v>
+        <v>0.2959544107952153</v>
       </c>
       <c r="W35" t="n">
-        <v>0.23720689827859093</v>
+        <v>0.2839510746158155</v>
       </c>
       <c r="X35" t="n">
-        <v>0.22696412464595905</v>
+        <v>0.271120846702799</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.21601568441864116</v>
+        <v>0.2573259740657693</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.20441193369581248</v>
+        <v>0.24249467563460606</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.1922067619898106</v>
+        <v>0.22664459265001657</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.17944549106844032</v>
+        <v>0.20985658974774637</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.16561509835208546</v>
+        <v>0.19171067974722314</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.15019517786217282</v>
+        <v>0.17182251039681623</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.13397646474621477</v>
+        <v>0.1511472645533195</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.11718354680117615</v>
+        <v>0.13008762284346725</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.09992393965283713</v>
+        <v>0.10892818772976387</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.08195088618866969</v>
+        <v>0.08791038125358253</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.06215295933163589</v>
+        <v>0.06724094562042637</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.03977456725957246</v>
+        <v>0.04708386211298771</v>
       </c>
     </row>
     <row r="36">
@@ -39519,106 +39519,106 @@
         <v>5</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.0246326560388876</v>
+        <v>-0.16365908938360343</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.9293521074723456</v>
+        <v>-0.06837854081706157</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.8340715589058038</v>
+        <v>0.026902007749480344</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.7387910103392618</v>
+        <v>0.12218255631602234</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.6435104617727198</v>
+        <v>0.21746310488256435</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.5482299132061778</v>
+        <v>0.3127436534491064</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.4529493646396357</v>
+        <v>0.40802420201564843</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.35766881607309375</v>
+        <v>0.5033047505821904</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.2623882675065517</v>
+        <v>0.5985852991487325</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.1671077189400097</v>
+        <v>0.6938658477152744</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.07182717037346771</v>
+        <v>0.7891463962818164</v>
       </c>
       <c r="N40" t="n">
-        <v>0.023453378193074303</v>
+        <v>0.8844269448483585</v>
       </c>
       <c r="O40" t="n">
-        <v>0.11873392675961629</v>
+        <v>0.9797074934149005</v>
       </c>
       <c r="P40" t="n">
-        <v>0.2140144753261583</v>
+        <v>1.0749880419814424</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.30929502389270036</v>
+        <v>1.1702685905479844</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4045755724592424</v>
+        <v>1.2655491391145266</v>
       </c>
       <c r="S40" t="n">
-        <v>0.49985612102578436</v>
+        <v>1.3608296876810684</v>
       </c>
       <c r="T40" t="n">
-        <v>0.5951366695923264</v>
+        <v>1.4561102362476104</v>
       </c>
       <c r="U40" t="n">
-        <v>0.6904172181588684</v>
+        <v>1.5513907848141526</v>
       </c>
       <c r="V40" t="n">
-        <v>0.7856977667254104</v>
+        <v>1.6466713333806946</v>
       </c>
       <c r="W40" t="n">
-        <v>0.8809783152919523</v>
+        <v>1.7419502499261414</v>
       </c>
       <c r="X40" t="n">
-        <v>0.9762588638584941</v>
+        <v>1.8360449479318945</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.0715394124250364</v>
+        <v>1.9248755412847585</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.166819960991578</v>
+        <v>2.004711413078681</v>
       </c>
       <c r="AA40" t="n">
-        <v>1.26210050955812</v>
+        <v>2.0727916442639436</v>
       </c>
       <c r="AB40" t="n">
-        <v>1.3573810581246621</v>
+        <v>2.1273250136471713</v>
       </c>
       <c r="AC40" t="n">
-        <v>1.4526616066912037</v>
+        <v>2.1674899978913227</v>
       </c>
       <c r="AD40" t="n">
-        <v>1.5479421552577457</v>
+        <v>2.193434771515689</v>
       </c>
       <c r="AE40" t="n">
-        <v>1.643222703824288</v>
+        <v>2.2062772068958996</v>
       </c>
       <c r="AF40" t="n">
-        <v>1.73850325239083</v>
+        <v>2.208104874263923</v>
       </c>
       <c r="AG40" t="n">
-        <v>1.8337757662210792</v>
+        <v>2.201975041708066</v>
       </c>
       <c r="AH40" t="n">
-        <v>1.9137548737462173</v>
+        <v>2.1919146751729706</v>
       </c>
       <c r="AI40" t="n">
-        <v>1.9062373113675843</v>
+        <v>2.182920438459603</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1.7047563592906154</v>
+        <v>2.1809601787760404</v>
       </c>
     </row>
     <row r="41">
@@ -39969,106 +39969,106 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2573257982570288</v>
+        <v>0.35130985037888335</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2697570572903111</v>
+        <v>0.3615658785653624</v>
       </c>
       <c r="E46" t="n">
-        <v>0.28060681575750446</v>
+        <v>0.37021729380596713</v>
       </c>
       <c r="F46" t="n">
-        <v>0.29002085728104987</v>
+        <v>0.3774104331442897</v>
       </c>
       <c r="G46" t="n">
-        <v>0.29802468507120494</v>
+        <v>0.38317135889083587</v>
       </c>
       <c r="H46" t="n">
-        <v>0.304642947774908</v>
+        <v>0.38752528433113914</v>
       </c>
       <c r="I46" t="n">
-        <v>0.309903375180594</v>
+        <v>0.39050050928843133</v>
       </c>
       <c r="J46" t="n">
-        <v>0.3138240209534582</v>
+        <v>0.3921156627154032</v>
       </c>
       <c r="K46" t="n">
-        <v>0.31644439672256325</v>
+        <v>0.39241083663648674</v>
       </c>
       <c r="L46" t="n">
-        <v>0.32001881674082416</v>
+        <v>0.3936409306617273</v>
       </c>
       <c r="M46" t="n">
-        <v>0.3205435106390894</v>
+        <v>0.3918027645935052</v>
       </c>
       <c r="N46" t="n">
-        <v>0.3199230120158111</v>
+        <v>0.3888014668676332</v>
       </c>
       <c r="O46" t="n">
-        <v>0.31817509934844684</v>
+        <v>0.3846554153150112</v>
       </c>
       <c r="P46" t="n">
-        <v>0.31531600745709437</v>
+        <v>0.3793814484743764</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.3113852125172752</v>
+        <v>0.37301965045310476</v>
       </c>
       <c r="R46" t="n">
-        <v>0.3064247682686975</v>
+        <v>0.36561268698292987</v>
       </c>
       <c r="S46" t="n">
-        <v>0.3004759527252369</v>
+        <v>0.3572024519758579</v>
       </c>
       <c r="T46" t="n">
-        <v>0.29358063153588737</v>
+        <v>0.34783143073006983</v>
       </c>
       <c r="U46" t="n">
-        <v>0.2857836819661764</v>
+        <v>0.3375451237553429</v>
       </c>
       <c r="V46" t="n">
-        <v>0.27713070597643485</v>
+        <v>0.32638975969442224</v>
       </c>
       <c r="W46" t="n">
-        <v>0.2676683690416334</v>
+        <v>0.31441254537885793</v>
       </c>
       <c r="X46" t="n">
-        <v>0.2574445524485697</v>
+        <v>0.30160127450540963</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.24650789966421932</v>
+        <v>0.28781818931134745</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.23490876382033174</v>
+        <v>0.27299150575912534</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.22270103326747354</v>
+        <v>0.2571388639276795</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.20993003041762553</v>
+        <v>0.2403411290969316</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.19608273514113242</v>
+        <v>0.2221783165362701</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.18063874571454994</v>
+        <v>0.20226607824919335</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.164388803344617</v>
+        <v>0.1815596031517217</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.14755750369009557</v>
+        <v>0.1604615797323867</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.13025237203915635</v>
+        <v>0.13925662011608309</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.11222666273982124</v>
+        <v>0.11818615780473407</v>
       </c>
       <c r="AI46" t="n">
-        <v>0.09236896197087752</v>
+        <v>0.097456948259668</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0.06991411133117414</v>
+        <v>0.0772234061845894</v>
       </c>
     </row>
     <row r="47">
@@ -40204,106 +40204,106 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.0309930327224972</v>
+        <v>-0.17001946606721305</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.9357124841559553</v>
+        <v>-0.07473891750067119</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.8404319355894134</v>
+        <v>0.020541631065870758</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.7451513870228714</v>
+        <v>0.11582217963241273</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.6498708384563294</v>
+        <v>0.21110272819895473</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.5545902898897873</v>
+        <v>0.3063832767654968</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.4593097413232453</v>
+        <v>0.4016638253320388</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.3640291927567033</v>
+        <v>0.4969443738985808</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.2687486441901613</v>
+        <v>0.5922249224651228</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.1734680956236193</v>
+        <v>0.6875054710316648</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.07818754705707733</v>
+        <v>0.7827860195982068</v>
       </c>
       <c r="N51" t="n">
-        <v>0.01709300150946469</v>
+        <v>0.8780665681647488</v>
       </c>
       <c r="O51" t="n">
-        <v>0.11237355007600668</v>
+        <v>0.9733471167312909</v>
       </c>
       <c r="P51" t="n">
-        <v>0.2076540986425487</v>
+        <v>1.0686276652978328</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.30293464720909075</v>
+        <v>1.1639082138643748</v>
       </c>
       <c r="R51" t="n">
-        <v>0.3982151957756328</v>
+        <v>1.2591887624309168</v>
       </c>
       <c r="S51" t="n">
-        <v>0.49349574434217475</v>
+        <v>1.3544693109974588</v>
       </c>
       <c r="T51" t="n">
-        <v>0.5887762929087167</v>
+        <v>1.4497498595640008</v>
       </c>
       <c r="U51" t="n">
-        <v>0.6840568414752588</v>
+        <v>1.5450304081305428</v>
       </c>
       <c r="V51" t="n">
-        <v>0.7793373900418008</v>
+        <v>1.640310956697085</v>
       </c>
       <c r="W51" t="n">
-        <v>0.8746179386083427</v>
+        <v>1.7355898732425319</v>
       </c>
       <c r="X51" t="n">
-        <v>0.9698984871748845</v>
+        <v>1.829684571248285</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.0651790357414268</v>
+        <v>1.918515164601149</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.1604595843079684</v>
+        <v>1.9983510363950716</v>
       </c>
       <c r="AA51" t="n">
-        <v>1.2557401328745104</v>
+        <v>2.066431267580334</v>
       </c>
       <c r="AB51" t="n">
-        <v>1.3510206814410524</v>
+        <v>2.1209646369635617</v>
       </c>
       <c r="AC51" t="n">
-        <v>1.4463012300075941</v>
+        <v>2.1611296212077127</v>
       </c>
       <c r="AD51" t="n">
-        <v>1.5415817785741361</v>
+        <v>2.1870743948320794</v>
       </c>
       <c r="AE51" t="n">
-        <v>1.6368623271406781</v>
+        <v>2.19991683021229</v>
       </c>
       <c r="AF51" t="n">
-        <v>1.7321428757072201</v>
+        <v>2.2017444975803135</v>
       </c>
       <c r="AG51" t="n">
-        <v>1.8274153895374696</v>
+        <v>2.1956146650244563</v>
       </c>
       <c r="AH51" t="n">
-        <v>1.9073944970626078</v>
+        <v>2.185554298489361</v>
       </c>
       <c r="AI51" t="n">
-        <v>1.8998772738219543</v>
+        <v>2.176560400913973</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1.698419309545406</v>
+        <v>2.1746231290308313</v>
       </c>
     </row>
     <row r="52">
@@ -40654,106 +40654,106 @@
         <v>5</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2977636326697349</v>
+        <v>0.39174768479158945</v>
       </c>
       <c r="D57" t="n">
-        <v>0.31043325314296444</v>
+        <v>0.40224207441801574</v>
       </c>
       <c r="E57" t="n">
-        <v>0.32151166400317377</v>
+        <v>0.41112214205163644</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3311445913107878</v>
+        <v>0.4185341671740276</v>
       </c>
       <c r="G57" t="n">
-        <v>0.33935748317273784</v>
+        <v>0.42450415699236876</v>
       </c>
       <c r="H57" t="n">
-        <v>0.3461749356051999</v>
+        <v>0.4290572721614309</v>
       </c>
       <c r="I57" t="n">
-        <v>0.35162462825166013</v>
+        <v>0.43222176235949733</v>
       </c>
       <c r="J57" t="n">
-        <v>0.35572456713080125</v>
+        <v>0.4340162088927464</v>
       </c>
       <c r="K57" t="n">
-        <v>0.3585142187356061</v>
+        <v>0.43448065864952956</v>
       </c>
       <c r="L57" t="n">
-        <v>0.3622478547047027</v>
+        <v>0.43586996862560584</v>
       </c>
       <c r="M57" t="n">
-        <v>0.3629216645871753</v>
+        <v>0.4341809185415911</v>
       </c>
       <c r="N57" t="n">
-        <v>0.36244014444232453</v>
+        <v>0.4313185992941467</v>
       </c>
       <c r="O57" t="n">
-        <v>0.3608210377605194</v>
+        <v>0.4273013537270837</v>
       </c>
       <c r="P57" t="n">
-        <v>0.35808054693563934</v>
+        <v>0.4221459879529213</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.3542581182860218</v>
+        <v>0.41589255622185123</v>
       </c>
       <c r="R57" t="n">
-        <v>0.3493957782707409</v>
+        <v>0.40858369698497327</v>
       </c>
       <c r="S57" t="n">
-        <v>0.3435347802064562</v>
+        <v>0.40026127945707723</v>
       </c>
       <c r="T57" t="n">
-        <v>0.33671696763458087</v>
+        <v>0.39096776682876333</v>
       </c>
       <c r="U57" t="n">
-        <v>0.32898719830826234</v>
+        <v>0.38074864009742887</v>
       </c>
       <c r="V57" t="n">
-        <v>0.3203910572755647</v>
+        <v>0.36965011099355216</v>
       </c>
       <c r="W57" t="n">
-        <v>0.31097519570356197</v>
+        <v>0.3577193720407865</v>
       </c>
       <c r="X57" t="n">
-        <v>0.3007874831791278</v>
+        <v>0.3449442052359678</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.28987655408023155</v>
+        <v>0.3311868437273596</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.2782927550628224</v>
+        <v>0.316375497001616</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.26608997061650297</v>
+        <v>0.3005278012767089</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.25331352190809814</v>
+        <v>0.2837246205874042</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.23945039017891837</v>
+        <v>0.265545971574056</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.22398017769226167</v>
+        <v>0.24560751022690508</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.20769363225638224</v>
+        <v>0.22486443206348694</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.19081535874466798</v>
+        <v>0.2037194347869591</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.17345289427070726</v>
+        <v>0.182457142347634</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.15535950761575296</v>
+        <v>0.1613190026806658</v>
       </c>
       <c r="AI57" t="n">
-        <v>0.13542161353107873</v>
+        <v>0.1405095998198692</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0.11273018265292073</v>
+        <v>0.12003947750633598</v>
       </c>
     </row>
   </sheetData>
@@ -41009,78 +41009,80 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5172352876434758</v>
+        <v>-0.4411736088790268</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.48812798307441974</v>
+        <v>-0.41396455786616887</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.45939944461616955</v>
+        <v>-0.38715294320980564</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.43095344904836924</v>
+        <v>-0.3606420591142652</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.40279987803062123</v>
+        <v>-0.334441300085185</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.3749502243871868</v>
+        <v>-0.30856166733685164</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3474137957243226</v>
+        <v>-0.28301197253329663</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.3201995023683577</v>
+        <v>-0.25780062585122426</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.2933157486534532</v>
+        <v>-0.23293552739368198</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.2648857326642198</v>
+        <v>-0.20653936705961465</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.23836276000603424</v>
+        <v>-0.18206493844211416</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.21219281197807635</v>
+        <v>-0.15795770713035354</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.18638201590164247</v>
+        <v>-0.1342232811677265</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.16093678647373047</v>
+        <v>-0.11086755253615868</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.13586252037746227</v>
+        <v>-0.08789539189812076</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.11116342660635405</v>
+        <v>-0.0653104790533213</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.08684458733877778</v>
+        <v>-0.043117363946390104</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.06291048708150787</v>
+        <v>-0.02131999594441204</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.039364256647026495</v>
+        <v>7.903205104927007E-5</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.016209098328419925</v>
+        <v>0.02107705829363888</v>
       </c>
       <c r="W5" t="n">
-        <v>0.006551944000232298</v>
+        <v>0.041671515384603744</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02891695049761056</v>
+        <v>0.061815790791938045</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.050884096798802556</v>
+        <v>0.08137185325471669</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.07245233502741733</v>
-      </c>
-      <c r="AA5"/>
+        <v>0.10025564100641328</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.11845362408734504</v>
+      </c>
       <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
@@ -41099,78 +41101,80 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9265033194209201</v>
+        <v>-0.051021691861146024</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.835127755016734</v>
+        <v>0.03999179825474078</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.7438244367408662</v>
+        <v>0.13092948106582786</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6525750109050465</v>
+        <v>0.22180980230715824</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5613813623443416</v>
+        <v>0.31263097006377333</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.4702456832085571</v>
+        <v>0.40339088595591766</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3791697488373998</v>
+        <v>0.4940878692402717</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.28815525879310855</v>
+        <v>0.5847203157535061</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1972038161246016</v>
+        <v>0.6752867186241186</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.10595743824542503</v>
+        <v>0.766145157370273</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.015074811222708373</v>
+        <v>0.856637043586442</v>
       </c>
       <c r="N6" t="n">
-        <v>0.07574047962074795</v>
+        <v>0.9470588903167336</v>
       </c>
       <c r="O6" t="n">
-        <v>0.16648726555514468</v>
+        <v>1.0374096278788</v>
       </c>
       <c r="P6" t="n">
-        <v>0.25716432303642867</v>
+        <v>1.1276881324316477</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3477706226972669</v>
+        <v>1.2178934749415122</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4383053617111207</v>
+        <v>1.3080249535206736</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5287675706995258</v>
+        <v>1.398081700309325</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6191563942843411</v>
+        <v>1.4880629620022663</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7094712352920765</v>
+        <v>1.5779682440275336</v>
       </c>
       <c r="V6" t="n">
-        <v>0.7997114829149781</v>
+        <v>1.6677970386816572</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8898765565622514</v>
+        <v>1.7575472242360035</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9799660900419419</v>
+        <v>1.846027323263119</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.0699797353733365</v>
+        <v>1.9291311214649356</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.1599172926837158</v>
-      </c>
-      <c r="AA6"/>
+        <v>2.0031119679318357</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2.065206362899577</v>
+      </c>
       <c r="AB6"/>
       <c r="AC6"/>
       <c r="AD6"/>
@@ -41198,69 +41202,71 @@
         <v>0.019559176047326148</v>
       </c>
       <c r="F7" t="n">
-        <v>0.019578706347020993</v>
+        <v>0.019558662950087655</v>
       </c>
       <c r="G7" t="n">
-        <v>0.019639286574244148</v>
+        <v>0.01955782518648031</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01970003117465189</v>
+        <v>0.019556280630723653</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01975942550058385</v>
+        <v>0.019574820602851095</v>
       </c>
       <c r="J7" t="n">
-        <v>0.019790842925377344</v>
+        <v>0.01961197938320841</v>
       </c>
       <c r="K7" t="n">
-        <v>0.019809188650031475</v>
+        <v>0.019636111491366588</v>
       </c>
       <c r="L7" t="n">
-        <v>0.019894647242508372</v>
+        <v>0.01966849797863237</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02001305922936267</v>
+        <v>0.0197241611451695</v>
       </c>
       <c r="N7" t="n">
-        <v>0.020154334901186493</v>
+        <v>0.019837461581775257</v>
       </c>
       <c r="O7" t="n">
-        <v>0.020314407901036495</v>
+        <v>0.02000966595469323</v>
       </c>
       <c r="P7" t="n">
-        <v>0.020492934961577794</v>
+        <v>0.020200401105457805</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.020765332038984424</v>
+        <v>0.020410014480818372</v>
       </c>
       <c r="R7" t="n">
-        <v>0.021071677344788445</v>
+        <v>0.0206409642180274</v>
       </c>
       <c r="S7" t="n">
-        <v>0.021400601434971436</v>
+        <v>0.020989855995103453</v>
       </c>
       <c r="T7" t="n">
-        <v>0.021749728309704355</v>
+        <v>0.021359053959697356</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02219625927886495</v>
+        <v>0.02174850040994131</v>
       </c>
       <c r="V7" t="n">
-        <v>0.022743827019760736</v>
+        <v>0.022171249579673542</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02331641956943284</v>
+        <v>0.022777112864157494</v>
       </c>
       <c r="X7" t="n">
-        <v>0.024080980359394776</v>
+        <v>0.02340782581194109</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.027995690723157607</v>
+        <v>0.024096291284343395</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.030486286008846716</v>
-      </c>
-      <c r="AA7"/>
+        <v>0.028226823232949387</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.030716263138339934</v>
+      </c>
       <c r="AB7"/>
       <c r="AC7"/>
       <c r="AD7"/>
@@ -41288,69 +41294,71 @@
         <v>0.055668825158685126</v>
       </c>
       <c r="F8" t="n">
-        <v>0.052659600886316306</v>
+        <v>0.05265577779395015</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05029998838532416</v>
+        <v>0.050284450379928534</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04858752710677345</v>
+        <v>0.04856010802162779</v>
       </c>
       <c r="I8" t="n">
-        <v>0.047538243624974046</v>
+        <v>0.047503031950145415</v>
       </c>
       <c r="J8" t="n">
-        <v>0.047161851107047736</v>
+        <v>0.04712773454262881</v>
       </c>
       <c r="K8" t="n">
-        <v>0.047475356907001255</v>
+        <v>0.04744234404165467</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04850912242813574</v>
+        <v>0.04846598655015993</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05027052452545549</v>
+        <v>0.050215419891048906</v>
       </c>
       <c r="N8" t="n">
-        <v>0.052766469249388694</v>
+        <v>0.05270602859791079</v>
       </c>
       <c r="O8" t="n">
-        <v>0.05601062122935959</v>
+        <v>0.055952494524959685</v>
       </c>
       <c r="P8" t="n">
-        <v>0.06001199789816012</v>
+        <v>0.05995619977392522</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.06479739032599917</v>
+        <v>0.06472961679196672</v>
       </c>
       <c r="R8" t="n">
-        <v>0.07037214377772394</v>
+        <v>0.07028998923713374</v>
       </c>
       <c r="S8" t="n">
-        <v>0.07674195370309447</v>
+        <v>0.07666360781388132</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0839152272717748</v>
+        <v>0.08384070975709733</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09192033590890836</v>
+        <v>0.09183493005084169</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1007687959297786</v>
+        <v>0.10065958208506386</v>
       </c>
       <c r="W8" t="n">
-        <v>0.11045465402791155</v>
+        <v>0.11035178626778012</v>
       </c>
       <c r="X8" t="n">
-        <v>0.12102236551794332</v>
+        <v>0.12089396752132749</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.13304635221459418</v>
+        <v>0.132302577879499</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.14566613325751343</v>
-      </c>
-      <c r="AA8"/>
+        <v>0.14523516165530015</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.15874642834404326</v>
+      </c>
       <c r="AB8"/>
       <c r="AC8"/>
       <c r="AD8"/>
@@ -41369,78 +41377,80 @@
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.10963784476381377</v>
+        <v>2.0259450255747886</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6843450135374283</v>
+        <v>1.3975584154372709</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.269684842043942</v>
+        <v>0.7584070184247795</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.8631705581699896</v>
+        <v>0.11081356275578824</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.4653077231748535</v>
+        <v>-0.5454856725810275</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.0759857247866407</v>
+        <v>-1.2107995118569606</v>
       </c>
       <c r="I9" t="n">
-        <v>-3.6954661299671594</v>
+        <v>-1.8856141914107383</v>
       </c>
       <c r="J9" t="n">
-        <v>-4.3239993411208815</v>
+        <v>-2.5704352022097785</v>
       </c>
       <c r="K9" t="n">
-        <v>-4.9618215410097335</v>
+        <v>-3.264986652138295</v>
       </c>
       <c r="L9" t="n">
-        <v>-5.56132733513282</v>
+        <v>-3.9165114427584324</v>
       </c>
       <c r="M9" t="n">
-        <v>-6.215273478540764</v>
+        <v>-4.622041690061021</v>
       </c>
       <c r="N9" t="n">
-        <v>-6.879232132244846</v>
+        <v>-5.34101213510292</v>
       </c>
       <c r="O9" t="n">
-        <v>-7.553377079778317</v>
+        <v>-6.074047243160523</v>
       </c>
       <c r="P9" t="n">
-        <v>-8.23789025524503</v>
+        <v>-6.8178229925266525</v>
       </c>
       <c r="Q9" t="n">
-        <v>-8.973918048520968</v>
+        <v>-7.572477525285342</v>
       </c>
       <c r="R9" t="n">
-        <v>-9.72783932221138</v>
+        <v>-8.33844213911124</v>
       </c>
       <c r="S9" t="n">
-        <v>-10.493282745823723</v>
+        <v>-9.168297455927004</v>
       </c>
       <c r="T9" t="n">
-        <v>-11.27038420508427</v>
+        <v>-10.010144366352016</v>
       </c>
       <c r="U9" t="n">
-        <v>-12.147225237024035</v>
+        <v>-10.86406143829348</v>
       </c>
       <c r="V9" t="n">
-        <v>-13.127390430385788</v>
+        <v>-11.744353135489181</v>
       </c>
       <c r="W9" t="n">
-        <v>-14.122174376711193</v>
+        <v>-12.819501175563023</v>
       </c>
       <c r="X9" t="n">
-        <v>-15.42944488053271</v>
+        <v>-13.911347586140725</v>
       </c>
       <c r="Y9" t="n">
-        <v>-21.861796026709044</v>
+        <v>-15.081591653622691</v>
       </c>
       <c r="Z9" t="n">
+        <v>-21.88779231970065</v>
+      </c>
+      <c r="AA9" t="n">
         <v>-25.0</v>
       </c>
-      <c r="AA9"/>
       <c r="AB9"/>
       <c r="AC9"/>
       <c r="AD9"/>
@@ -41459,78 +41469,80 @@
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.004088268908743526</v>
+        <v>0.690372202030039</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.004088268908743526</v>
+        <v>0.690372202030039</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.004088268908743526</v>
+        <v>0.690372202030039</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.004088268908743526</v>
+        <v>0.690372202030039</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.004088268908743526</v>
+        <v>0.690372202030039</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.004088268908743526</v>
+        <v>0.690372202030039</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.004088268908743526</v>
+        <v>0.690372202030039</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.004088268908743526</v>
+        <v>0.690372202030039</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.004088268908743526</v>
+        <v>0.690372202030039</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.004088268908743526</v>
+        <v>0.690372202030039</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.004088268908743526</v>
+        <v>0.690372202030039</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.004088268908743526</v>
+        <v>0.690372202030039</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.004088268908743526</v>
+        <v>0.690372202030039</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.004088268908743526</v>
+        <v>0.690372202030039</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.004088268908743526</v>
+        <v>0.690372202030039</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.004088268908743526</v>
+        <v>0.690372202030039</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.004088268908743526</v>
+        <v>0.690372202030039</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.004088268908743526</v>
+        <v>0.690372202030039</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.004088268908743526</v>
+        <v>0.690372202030039</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.004088268908743526</v>
+        <v>0.690372202030039</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.004088268908743526</v>
+        <v>0.690372202030039</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.004088268908743526</v>
+        <v>0.690372202030039</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.004088268908743526</v>
+        <v>0.690372202030039</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.004088268908743526</v>
-      </c>
-      <c r="AA10"/>
+        <v>0.690372202030039</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.690372202030039</v>
+      </c>
       <c r="AB10"/>
       <c r="AC10"/>
       <c r="AD10"/>
@@ -41549,78 +41561,80 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.33408826890874355</v>
+        <v>0.360372202030039</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.33408826890874355</v>
+        <v>0.360372202030039</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.33408826890874355</v>
+        <v>0.360372202030039</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.33408826890874355</v>
+        <v>0.360372202030039</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.33408826890874355</v>
+        <v>0.360372202030039</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.33408826890874355</v>
+        <v>0.360372202030039</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.33408826890874355</v>
+        <v>0.360372202030039</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.33408826890874355</v>
+        <v>0.360372202030039</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.33408826890874355</v>
+        <v>0.360372202030039</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.33408826890874355</v>
+        <v>0.360372202030039</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.33408826890874355</v>
+        <v>0.360372202030039</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.33408826890874355</v>
+        <v>0.360372202030039</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.33408826890874355</v>
+        <v>0.360372202030039</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.33408826890874355</v>
+        <v>0.360372202030039</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.33408826890874355</v>
+        <v>0.360372202030039</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.33408826890874355</v>
+        <v>0.360372202030039</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.33408826890874355</v>
+        <v>0.360372202030039</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.33408826890874355</v>
+        <v>0.360372202030039</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.33408826890874355</v>
+        <v>0.360372202030039</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.33408826890874355</v>
+        <v>0.360372202030039</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.33408826890874355</v>
+        <v>0.360372202030039</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.33408826890874355</v>
+        <v>0.360372202030039</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.33408826890874355</v>
+        <v>0.360372202030039</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.33408826890874355</v>
-      </c>
-      <c r="AA11"/>
+        <v>0.360372202030039</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.360372202030039</v>
+      </c>
       <c r="AB11"/>
       <c r="AC11"/>
       <c r="AD11"/>
@@ -41639,78 +41653,80 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.761884240495574</v>
+        <v>-0.8129234868572521</v>
       </c>
       <c r="D12" t="n">
-        <v>-14.082509838771175</v>
+        <v>0.6743697464362851</v>
       </c>
       <c r="E12" t="n">
-        <v>-13.361597530046295</v>
+        <v>2.3519354089584374</v>
       </c>
       <c r="F12" t="n">
-        <v>-12.39232732344197</v>
+        <v>4.212449451893633</v>
       </c>
       <c r="G12" t="n">
-        <v>-11.160665844370925</v>
+        <v>6.217249422071095</v>
       </c>
       <c r="H12" t="n">
-        <v>-9.678320985037361</v>
+        <v>8.30704259916915</v>
       </c>
       <c r="I12" t="n">
-        <v>-7.976099239775117</v>
+        <v>10.401185965536232</v>
       </c>
       <c r="J12" t="n">
-        <v>-6.109922575749946</v>
+        <v>12.407138204884529</v>
       </c>
       <c r="K12" t="n">
-        <v>-4.153814293821974</v>
+        <v>14.233839669288109</v>
       </c>
       <c r="L12" t="n">
-        <v>-2.184278604553125</v>
+        <v>15.80789357454532</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.2998737603200249</v>
+        <v>17.059242866933406</v>
       </c>
       <c r="N12" t="n">
-        <v>1.4353903283310057</v>
+        <v>17.96870140874689</v>
       </c>
       <c r="O12" t="n">
-        <v>2.9724231208468646</v>
+        <v>18.540900395710242</v>
       </c>
       <c r="P12" t="n">
-        <v>4.285215157689541</v>
+        <v>18.808532506793</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.367046742895264</v>
+        <v>18.815088599329684</v>
       </c>
       <c r="R12" t="n">
-        <v>6.228392914894612</v>
+        <v>18.60897928306486</v>
       </c>
       <c r="S12" t="n">
-        <v>6.890202101776884</v>
+        <v>18.236575869263714</v>
       </c>
       <c r="T12" t="n">
-        <v>7.3783556860197725</v>
+        <v>17.74869232755151</v>
       </c>
       <c r="U12" t="n">
-        <v>7.718327269769244</v>
+        <v>17.18265852823036</v>
       </c>
       <c r="V12" t="n">
-        <v>7.936102396939051</v>
+        <v>16.568686300249695</v>
       </c>
       <c r="W12" t="n">
-        <v>8.056487654539051</v>
+        <v>15.92676732908638</v>
       </c>
       <c r="X12" t="n">
-        <v>8.097396591513887</v>
+        <v>15.269805111966836</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.042157620733082</v>
+        <v>14.581205841824076</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.96284810164608</v>
-      </c>
-      <c r="AA12"/>
+        <v>13.79219704857701</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>13.009466634573709</v>
+      </c>
       <c r="AB12"/>
       <c r="AC12"/>
       <c r="AD12"/>
@@ -41729,7 +41745,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>8.746947093226312</v>
+        <v>18.815088599329684</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
@@ -295,16 +295,16 @@
     <t>CM (High Lift) at Alpha = 3.999999999999999 deg</t>
   </si>
   <si>
-    <t>CL at Alpha = -3.8466924630403678 deg</t>
+    <t>CL at Alpha = -3.8467185559297903 deg</t>
   </si>
   <si>
-    <t>CD_induced at Alpha = -3.846692463040368 deg</t>
+    <t>CD_induced at Alpha = -3.8467185559297903 deg</t>
   </si>
   <si>
-    <t>CD at alpha = -3.846692463040368 deg</t>
+    <t>CD at alpha = -3.8467185559297903 deg</t>
   </si>
   <si>
-    <t>CM at alpha = -3.846692463040368 deg</t>
+    <t>CM at alpha = -3.8467185559297903 deg</t>
   </si>
   <si>
     <t>ELEVATOR EFFECTS AT de = 5.0</t>
@@ -361,13 +361,13 @@
     <t>PITCHING MOMENT CURVE WITH ELEVATOR</t>
   </si>
   <si>
-    <t>CL (with Elevator) at Alpha = -3.846692463040368 deg</t>
+    <t>CL (with Elevator) at Alpha = -3.8467185559297903 deg</t>
   </si>
   <si>
-    <t>CD (with Elevator) at Alpha = -3.846692463040368 deg</t>
+    <t>CD (with Elevator) at Alpha = -3.8467185559297903 deg</t>
   </si>
   <si>
-    <t>CM (with Elevator) at Alpha = -3.846692463040368 deg</t>
+    <t>CM (with Elevator) at Alpha = -3.8467185559297903 deg</t>
   </si>
   <si>
     <t>CL at Alpha = 0.0 rad</t>
@@ -12511,7 +12511,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8010745964960854</v>
+        <v>0.8010748624431866</v>
       </c>
     </row>
     <row r="4">
@@ -12657,106 +12657,106 @@
         <v>16</v>
       </c>
       <c r="C19" t="n">
-        <v>-7.157835076672077</v>
+        <v>-7.157835746383409</v>
       </c>
       <c r="D19" t="n">
-        <v>-6.474829076016832</v>
+        <v>-6.474829670620396</v>
       </c>
       <c r="E19" t="n">
-        <v>-5.79182307536159</v>
+        <v>-5.791823594857387</v>
       </c>
       <c r="F19" t="n">
-        <v>-5.108817074706344</v>
+        <v>-5.108817519094375</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.425811074051101</v>
+        <v>-4.425811443331362</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.742805073395856</v>
+        <v>-3.7428053675683497</v>
       </c>
       <c r="I19" t="n">
-        <v>-3.0597990727406126</v>
+        <v>-3.059799291805339</v>
       </c>
       <c r="J19" t="n">
-        <v>-2.376793072085368</v>
+        <v>-2.3767932160423264</v>
       </c>
       <c r="K19" t="n">
         <v>-1.7003487899120326</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.010781070774879</v>
+        <v>-1.0107810645163022</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.3277750701196349</v>
+        <v>-0.3277749887532906</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3487262573786096</v>
+        <v>0.34872655371485095</v>
       </c>
       <c r="O19" t="n">
-        <v>1.0186720107844178</v>
+        <v>1.0186727602870467</v>
       </c>
       <c r="P19" t="n">
-        <v>1.6820701790411077</v>
+        <v>1.6820717275339314</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.3392131664892855</v>
+        <v>2.339215874261103</v>
       </c>
       <c r="R19" t="n">
-        <v>2.99020305065521</v>
+        <v>2.9902074699760828</v>
       </c>
       <c r="S19" t="n">
-        <v>3.635039321849961</v>
+        <v>3.635046071792348</v>
       </c>
       <c r="T19" t="n">
-        <v>4.273776795799982</v>
+        <v>4.273786592873771</v>
       </c>
       <c r="U19" t="n">
-        <v>4.906731239759036</v>
+        <v>4.9067448542474015</v>
       </c>
       <c r="V19" t="n">
-        <v>5.534037325999659</v>
+        <v>5.534055588070334</v>
       </c>
       <c r="W19" t="n">
-        <v>6.155734521383923</v>
+        <v>6.155758322662129</v>
       </c>
       <c r="X19" t="n">
-        <v>6.771912171693874</v>
+        <v>6.771942489159612</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.382891966490915</v>
+        <v>7.382929789850106</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.988948480499987</v>
+        <v>7.988994597273074</v>
       </c>
       <c r="AA19" t="n">
-        <v>8.593765054677807</v>
+        <v>8.593819119934114</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.209609222287582</v>
+        <v>9.20966818105222</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.850927631834193</v>
+        <v>9.850986323507637</v>
       </c>
       <c r="AD19" t="n">
-        <v>10.530282584099414</v>
+        <v>10.53033511114339</v>
       </c>
       <c r="AE19" t="n">
-        <v>11.301734993614446</v>
+        <v>11.301716272637062</v>
       </c>
       <c r="AF19" t="n">
-        <v>12.234415848366815</v>
+        <v>12.234429797605582</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.244955433601465</v>
+        <v>13.244992277985993</v>
       </c>
       <c r="AH19" t="n">
-        <v>14.333522559007317</v>
+        <v>14.333583285266023</v>
       </c>
       <c r="AI19" t="n">
-        <v>15.399948130137115</v>
+        <v>15.39997370037688</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16.396431504763427</v>
+        <v>16.396458140873357</v>
       </c>
     </row>
     <row r="20">
@@ -12767,106 +12767,106 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.49010278171617333</v>
+        <v>-0.4901028275718522</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.4433368060734923</v>
+        <v>-0.44333684678648133</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.39657083043081154</v>
+        <v>-0.39657086600111074</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.3498048547881305</v>
+        <v>-0.3498048852157399</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.3030388791454496</v>
+        <v>-0.303038904430369</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.2562729035027686</v>
+        <v>-0.25627292364499815</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.20950692786008768</v>
+        <v>-0.20950694285962743</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.1627409522174067</v>
+        <v>-0.1627409620742566</v>
       </c>
       <c r="K20" t="n">
         <v>-0.11642426276899738</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.06920900093204477</v>
+        <v>-0.06920900050351493</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.02244302528936382</v>
+        <v>-0.022443019718144133</v>
       </c>
       <c r="N20" t="n">
-        <v>0.02387757009877762</v>
+        <v>0.023877590389160763</v>
       </c>
       <c r="O20" t="n">
-        <v>0.06974930000398545</v>
+        <v>0.06974935132303924</v>
       </c>
       <c r="P20" t="n">
-        <v>0.11517271143569775</v>
+        <v>0.11517281746225917</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1601678255566239</v>
+        <v>0.16016801095995967</v>
       </c>
       <c r="R20" t="n">
-        <v>0.20474163169790024</v>
+        <v>0.20474193429239004</v>
       </c>
       <c r="S20" t="n">
-        <v>0.2488940949607124</v>
+        <v>0.24889455713475037</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2926289686223746</v>
+        <v>0.29262963943597464</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3359678735232367</v>
+        <v>0.33596880571831356</v>
       </c>
       <c r="V20" t="n">
-        <v>0.37892003078318803</v>
+        <v>0.3789212812020007</v>
       </c>
       <c r="W20" t="n">
-        <v>0.4214881427303321</v>
+        <v>0.4214897724231836</v>
       </c>
       <c r="X20" t="n">
-        <v>0.4636783269429373</v>
+        <v>0.463680402804442</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.5055126097665683</v>
+        <v>0.5055151995626945</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.5470097915556678</v>
+        <v>0.5470129492085797</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.5884220736573689</v>
+        <v>0.5884257755493832</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.6305894240386188</v>
+        <v>0.6305934609931233</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.6745010164569677</v>
+        <v>0.6745050351235213</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.7210170018507867</v>
+        <v>0.7210205984201533</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.773843584771534</v>
+        <v>0.7738423020831949</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.83798130565076</v>
+        <v>0.8379822697704647</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.9083562659678289</v>
+        <v>0.9083588525351326</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.9854210727544789</v>
+        <v>0.9854254044341765</v>
       </c>
       <c r="AI20" t="n">
-        <v>1.0618311467785295</v>
+        <v>1.0618329832209725</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.1332005796713647</v>
+        <v>1.1332024764428312</v>
       </c>
     </row>
     <row r="21">
@@ -18978,7 +18978,7 @@
         <v>5</v>
       </c>
       <c r="C76" t="n">
-        <v>0.005317821982748247</v>
+        <v>0.005317894126707194</v>
       </c>
     </row>
     <row r="77">
@@ -19000,7 +19000,7 @@
         <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>0.011076551076234616</v>
+        <v>0.01107662664248825</v>
       </c>
     </row>
     <row r="79">
@@ -19021,106 +19021,106 @@
         <v>5</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.49010278171617333</v>
+        <v>-0.4901028275718522</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.4433368060734923</v>
+        <v>-0.44333684678648133</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.39657083043081154</v>
+        <v>-0.39657086600111074</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3498048547881305</v>
+        <v>-0.3498048852157399</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3030388791454496</v>
+        <v>-0.303038904430369</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.2562729035027686</v>
+        <v>-0.25627292364499815</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.20950692786008768</v>
+        <v>-0.20950694285962743</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.1627409522174067</v>
+        <v>-0.1627409620742566</v>
       </c>
       <c r="K81" t="n">
         <v>-0.11642426276899738</v>
       </c>
       <c r="L81" t="n">
-        <v>-0.06920900093204477</v>
+        <v>-0.06920900050351493</v>
       </c>
       <c r="M81" t="n">
-        <v>-0.02244302528936382</v>
+        <v>-0.022443019718144133</v>
       </c>
       <c r="N81" t="n">
-        <v>0.02387757009877762</v>
+        <v>0.023877590389160763</v>
       </c>
       <c r="O81" t="n">
-        <v>0.06974930000398545</v>
+        <v>0.06974935132303924</v>
       </c>
       <c r="P81" t="n">
-        <v>0.11517271143569775</v>
+        <v>0.11517281746225917</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.1601678255566239</v>
+        <v>0.16016801095995967</v>
       </c>
       <c r="R81" t="n">
-        <v>0.20474163169790024</v>
+        <v>0.20474193429239004</v>
       </c>
       <c r="S81" t="n">
-        <v>0.2488940949607124</v>
+        <v>0.24889455713475037</v>
       </c>
       <c r="T81" t="n">
-        <v>0.2926289686223746</v>
+        <v>0.29262963943597464</v>
       </c>
       <c r="U81" t="n">
-        <v>0.3359678735232367</v>
+        <v>0.33596880571831356</v>
       </c>
       <c r="V81" t="n">
-        <v>0.37892003078318803</v>
+        <v>0.3789212812020007</v>
       </c>
       <c r="W81" t="n">
-        <v>0.4214881427303321</v>
+        <v>0.4214897724231836</v>
       </c>
       <c r="X81" t="n">
-        <v>0.4636783269429373</v>
+        <v>0.463680402804442</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.5055126097665683</v>
+        <v>0.5055151995626945</v>
       </c>
       <c r="Z81" t="n">
-        <v>0.5470097915556678</v>
+        <v>0.5470129492085797</v>
       </c>
       <c r="AA81" t="n">
-        <v>0.5884220736573689</v>
+        <v>0.5884257755493832</v>
       </c>
       <c r="AB81" t="n">
-        <v>0.6305894240386188</v>
+        <v>0.6305934609931233</v>
       </c>
       <c r="AC81" t="n">
-        <v>0.6745010164569677</v>
+        <v>0.6745050351235213</v>
       </c>
       <c r="AD81" t="n">
-        <v>0.7210170018507867</v>
+        <v>0.7210205984201533</v>
       </c>
       <c r="AE81" t="n">
-        <v>0.773843584771534</v>
+        <v>0.7738423020831949</v>
       </c>
       <c r="AF81" t="n">
-        <v>0.83798130565076</v>
+        <v>0.8379822697704647</v>
       </c>
       <c r="AG81" t="n">
-        <v>0.9083562659678289</v>
+        <v>0.9083588525351326</v>
       </c>
       <c r="AH81" t="n">
-        <v>0.9854210727544789</v>
+        <v>0.9854254044341765</v>
       </c>
       <c r="AI81" t="n">
-        <v>1.0618311467785295</v>
+        <v>1.0618329832209725</v>
       </c>
       <c r="AJ81" t="n">
-        <v>1.1332005796713647</v>
+        <v>1.1332024764428312</v>
       </c>
     </row>
     <row r="82">
@@ -19131,106 +19131,106 @@
         <v>5</v>
       </c>
       <c r="C82" t="n">
-        <v>0.011610779266079733</v>
+        <v>0.011610851556617879</v>
       </c>
       <c r="D82" t="n">
-        <v>0.011529577163568724</v>
+        <v>0.011529649441521905</v>
       </c>
       <c r="E82" t="n">
-        <v>0.011388451452632627</v>
+        <v>0.011388523698970098</v>
       </c>
       <c r="F82" t="n">
-        <v>0.011266316480377079</v>
+        <v>0.011266388699426807</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01115259021789323</v>
+        <v>0.011152662411899448</v>
       </c>
       <c r="H82" t="n">
-        <v>0.011062910506258915</v>
+        <v>0.011062982684151124</v>
       </c>
       <c r="I82" t="n">
-        <v>0.010985185732318967</v>
+        <v>0.01098525790092894</v>
       </c>
       <c r="J82" t="n">
-        <v>0.010921397126880564</v>
+        <v>0.010921469281013138</v>
       </c>
       <c r="K82" t="n">
-        <v>0.010878681710102221</v>
+        <v>0.010878753854061694</v>
       </c>
       <c r="L82" t="n">
-        <v>0.010839943272941705</v>
+        <v>0.01084001541658801</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01083108480141583</v>
+        <v>0.010831156945315761</v>
       </c>
       <c r="N82" t="n">
-        <v>0.010831107448659033</v>
+        <v>0.010831179593645652</v>
       </c>
       <c r="O82" t="n">
-        <v>0.010840388409063994</v>
+        <v>0.010840460595988012</v>
       </c>
       <c r="P82" t="n">
-        <v>0.010877630913905631</v>
+        <v>0.010877703148191014</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.010918681116945387</v>
+        <v>0.01091875345586242</v>
       </c>
       <c r="R82" t="n">
-        <v>0.01097734957845796</v>
+        <v>0.010977422219328447</v>
       </c>
       <c r="S82" t="n">
-        <v>0.011050477694065936</v>
+        <v>0.011050550616138506</v>
       </c>
       <c r="T82" t="n">
-        <v>0.011131855365437947</v>
+        <v>0.011131928855817682</v>
       </c>
       <c r="U82" t="n">
-        <v>0.011232157077222457</v>
+        <v>0.01123223152144693</v>
       </c>
       <c r="V82" t="n">
-        <v>0.011339322111613235</v>
+        <v>0.01133939739981073</v>
       </c>
       <c r="W82" t="n">
-        <v>0.01146010036803407</v>
+        <v>0.011460177333141499</v>
       </c>
       <c r="X82" t="n">
-        <v>0.011596487618177036</v>
+        <v>0.011596566607656567</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.011736585419782711</v>
+        <v>0.011736666218372018</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.011894328194305154</v>
+        <v>0.011894412566115405</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.012064095622358774</v>
+        <v>0.012064183253322477</v>
       </c>
       <c r="AB82" t="n">
-        <v>0.01224318954002282</v>
+        <v>0.01224328057362457</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.012450474290091326</v>
+        <v>0.012450566294832367</v>
       </c>
       <c r="AD82" t="n">
-        <v>0.012682722764401995</v>
+        <v>0.012682813875681008</v>
       </c>
       <c r="AE82" t="n">
-        <v>0.012965516251875288</v>
+        <v>0.012965581543920798</v>
       </c>
       <c r="AF82" t="n">
-        <v>0.01333046718747764</v>
+        <v>0.013330544765703809</v>
       </c>
       <c r="AG82" t="n">
-        <v>0.013763675055051397</v>
+        <v>0.013763763232268578</v>
       </c>
       <c r="AH82" t="n">
-        <v>0.014254211727148892</v>
+        <v>0.014254308295319883</v>
       </c>
       <c r="AI82" t="n">
-        <v>0.014477553665198418</v>
+        <v>0.014477638687318186</v>
       </c>
       <c r="AJ82" t="n">
-        <v>0.014543769941233124</v>
+        <v>0.014543855302699967</v>
       </c>
     </row>
     <row r="83">
@@ -20234,22 +20234,22 @@
         <v>5</v>
       </c>
       <c r="C98" t="n">
-        <v>0.005575494290581938</v>
+        <v>0.005575494290581939</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0055759998084946695</v>
+        <v>0.00557599980849467</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0055769789479055065</v>
+        <v>0.005576978947905507</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0055779324811777355</v>
+        <v>0.005577932481177736</v>
       </c>
       <c r="G98" t="n">
-        <v>0.005578856803980448</v>
+        <v>0.005578856803980449</v>
       </c>
       <c r="H98" t="n">
-        <v>0.005579749479899149</v>
+        <v>0.00557974947989915</v>
       </c>
       <c r="I98" t="n">
         <v>0.005580608673350741</v>
@@ -20267,7 +20267,7 @@
         <v>0.005583683725834816</v>
       </c>
       <c r="N98" t="n">
-        <v>0.005584356350595231</v>
+        <v>0.005584356350595232</v>
       </c>
       <c r="O98" t="n">
         <v>0.0055849882782579244</v>
@@ -20282,7 +20282,7 @@
         <v>0.005586626895326139</v>
       </c>
       <c r="S98" t="n">
-        <v>0.00558708229419542</v>
+        <v>0.005587082294195421</v>
       </c>
       <c r="T98" t="n">
         <v>0.005587489252507959</v>
@@ -20306,10 +20306,10 @@
         <v>0.005588767751779924</v>
       </c>
       <c r="AA98" t="n">
-        <v>0.005588754366314462</v>
+        <v>0.005588754366314463</v>
       </c>
       <c r="AB98" t="n">
-        <v>0.005588663071652089</v>
+        <v>0.0055886630716520894</v>
       </c>
       <c r="AC98" t="n">
         <v>0.005588487513173983</v>
@@ -20342,7 +20342,7 @@
         <v>0.005581534262435254</v>
       </c>
       <c r="AM98" t="n">
-        <v>0.005579880209669484</v>
+        <v>0.005579880209669485</v>
       </c>
       <c r="AN98" t="n">
         <v>0.0055779586215999105</v>
@@ -20351,19 +20351,19 @@
         <v>0.005575728785084427</v>
       </c>
       <c r="AP98" t="n">
-        <v>0.00557314071903899</v>
+        <v>0.0055731407190389905</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.005570132169036123</v>
+        <v>0.005570132169036124</v>
       </c>
       <c r="AR98" t="n">
-        <v>0.0055666241944166694</v>
+        <v>0.00556662419441667</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.005562514407573243</v>
+        <v>0.0055625144075732436</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.0055576660467720135</v>
+        <v>0.005557666046772014</v>
       </c>
       <c r="AU98" t="n">
         <v>0.005551889055528536</v>
@@ -20375,10 +20375,10 @@
         <v>0.005536265733833647</v>
       </c>
       <c r="AX98" t="n">
-        <v>0.005525160154845235</v>
+        <v>0.005525160154845236</v>
       </c>
       <c r="AY98" t="n">
-        <v>0.005518428237850354</v>
+        <v>0.005518428262985514</v>
       </c>
       <c r="AZ98" t="n">
         <v>0.005513119533527696</v>
@@ -20428,7 +20428,7 @@
         <v>1.3479030049889537E-5</v>
       </c>
       <c r="O99" t="n">
-        <v>1.3550573368273894E-5</v>
+        <v>1.3550573368273932E-5</v>
       </c>
       <c r="P99" t="n">
         <v>1.3617114227902794E-5</v>
@@ -20437,7 +20437,7 @@
         <v>1.3678577653056592E-5</v>
       </c>
       <c r="R99" t="n">
-        <v>1.3734863262129721E-5</v>
+        <v>1.3734863262129758E-5</v>
       </c>
       <c r="S99" t="n">
         <v>1.3785843892460812E-5</v>
@@ -20461,7 +20461,7 @@
         <v>1.3969452784796345E-5</v>
       </c>
       <c r="Z99" t="n">
-        <v>1.3977299808310858E-5</v>
+        <v>1.3977299808310895E-5</v>
       </c>
       <c r="AA99" t="n">
         <v>1.3978526514916024E-5</v>
@@ -20473,13 +20473,13 @@
         <v>1.395064417837653E-5</v>
       </c>
       <c r="AD99" t="n">
-        <v>1.392266676789888E-5</v>
+        <v>1.3922666767898918E-5</v>
       </c>
       <c r="AE99" t="n">
         <v>1.3884471119593515E-5</v>
       </c>
       <c r="AF99" t="n">
-        <v>1.3834998623939668E-5</v>
+        <v>1.3834998623939705E-5</v>
       </c>
       <c r="AG99" t="n">
         <v>1.3773123840618279E-5</v>
@@ -20509,13 +20509,13 @@
         <v>1.2627684655718222E-5</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.2363619431051023E-5</v>
+        <v>1.236361943105106E-5</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.2058990579832355E-5</v>
       </c>
       <c r="AR99" t="n">
-        <v>1.1707484809569421E-5</v>
+        <v>1.1707484809569458E-5</v>
       </c>
       <c r="AS99" t="n">
         <v>1.1301783580290521E-5</v>
@@ -20550,22 +20550,22 @@
         <v>5</v>
       </c>
       <c r="C100" t="n">
-        <v>0.005587887985475408</v>
+        <v>0.0055878879854754085</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0055884781267635485</v>
+        <v>0.005588478126763549</v>
       </c>
       <c r="E100" t="n">
-        <v>0.00558958607074107</v>
+        <v>0.005589586070741071</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0055906588831710615</v>
+        <v>0.005590658883171062</v>
       </c>
       <c r="G100" t="n">
-        <v>0.005591695756057243</v>
+        <v>0.0055916957560572435</v>
       </c>
       <c r="H100" t="n">
-        <v>0.005592695212615261</v>
+        <v>0.005592695212615262</v>
       </c>
       <c r="I100" t="n">
         <v>0.005593655842061878</v>
@@ -20583,7 +20583,7 @@
         <v>0.005597086260669732</v>
       </c>
       <c r="N100" t="n">
-        <v>0.005597835380645121</v>
+        <v>0.005597835380645122</v>
       </c>
       <c r="O100" t="n">
         <v>0.0055985388516261985</v>
@@ -20598,7 +20598,7 @@
         <v>0.0056003617585882685</v>
       </c>
       <c r="S100" t="n">
-        <v>0.005600868138087881</v>
+        <v>0.005600868138087882</v>
       </c>
       <c r="T100" t="n">
         <v>0.005601320616486969</v>
@@ -20622,10 +20622,10 @@
         <v>0.005602745051588235</v>
       </c>
       <c r="AA100" t="n">
-        <v>0.005602732892829378</v>
+        <v>0.005602732892829379</v>
       </c>
       <c r="AB100" t="n">
-        <v>0.0056026330187010686</v>
+        <v>0.005602633018701069</v>
       </c>
       <c r="AC100" t="n">
         <v>0.00560243815735236</v>
@@ -20658,7 +20658,7 @@
         <v>0.005594760024295214</v>
       </c>
       <c r="AM100" t="n">
-        <v>0.00559293483413693</v>
+        <v>0.0055929348341369305</v>
       </c>
       <c r="AN100" t="n">
         <v>0.005590815145351282</v>
@@ -20667,19 +20667,19 @@
         <v>0.005588356469740144</v>
       </c>
       <c r="AP100" t="n">
-        <v>0.005585504338470041</v>
+        <v>0.005585504338470042</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.005582191159615955</v>
+        <v>0.005582191159615956</v>
       </c>
       <c r="AR100" t="n">
-        <v>0.005578331679226239</v>
+        <v>0.00557833167922624</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.005573816191153534</v>
+        <v>0.0055738161911535345</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.005568499954184293</v>
+        <v>0.005568499954184294</v>
       </c>
       <c r="AU100" t="n">
         <v>0.005562185932491126</v>
@@ -20691,10 +20691,10 @@
         <v>0.005545319890805121</v>
       </c>
       <c r="AX100" t="n">
-        <v>0.005533789298488083</v>
+        <v>0.005533789298488084</v>
       </c>
       <c r="AY100" t="n">
-        <v>0.005529777331911372</v>
+        <v>0.005529777357046533</v>
       </c>
       <c r="AZ100" t="n">
         <v>0.005513119533527696</v>
@@ -20711,10 +20711,10 @@
         <v>74.39797193045709</v>
       </c>
       <c r="D101" t="n">
-        <v>73.75296919425386</v>
+        <v>73.7529691942539</v>
       </c>
       <c r="E101" t="n">
-        <v>73.11460169452653</v>
+        <v>73.11460169452656</v>
       </c>
       <c r="F101" t="n">
         <v>72.47551989505192</v>
@@ -20756,7 +20756,7 @@
         <v>64.75032599174335</v>
       </c>
       <c r="S101" t="n">
-        <v>64.10187325881697</v>
+        <v>64.101873258817</v>
       </c>
       <c r="T101" t="n">
         <v>63.452691612224086</v>
@@ -20780,7 +20780,7 @@
         <v>59.54166787270387</v>
       </c>
       <c r="AA101" t="n">
-        <v>58.8870134162981</v>
+        <v>58.88701341629812</v>
       </c>
       <c r="AB101" t="n">
         <v>58.231450123457975</v>
@@ -20816,7 +20816,7 @@
         <v>51.61368315561023</v>
       </c>
       <c r="AM101" t="n">
-        <v>50.94346450799375</v>
+        <v>50.94346450799377</v>
       </c>
       <c r="AN101" t="n">
         <v>50.27102425877935</v>
@@ -20828,13 +20828,13 @@
         <v>48.918245869952315</v>
       </c>
       <c r="AQ101" t="n">
-        <v>48.23710330703578</v>
+        <v>48.237103307035795</v>
       </c>
       <c r="AR101" t="n">
-        <v>47.55207794452443</v>
+        <v>47.55207794452444</v>
       </c>
       <c r="AS101" t="n">
-        <v>46.86243887751057</v>
+        <v>46.862438877510584</v>
       </c>
       <c r="AT101" t="n">
         <v>46.167215997594525</v>
@@ -20852,7 +20852,7 @@
         <v>43.2935532193428</v>
       </c>
       <c r="AY101" t="n">
-        <v>42.61616324144437</v>
+        <v>42.61616343515273</v>
       </c>
       <c r="AZ101" t="n">
         <v>41.84373071780439</v>
@@ -20881,10 +20881,10 @@
         <v>5</v>
       </c>
       <c r="C105" t="n">
-        <v>0.007073281576099511</v>
+        <v>0.007073284584372868</v>
       </c>
       <c r="D105" t="n">
-        <v>0.007085978905365763</v>
+        <v>0.007085982144981899</v>
       </c>
       <c r="E105" t="n">
         <v>0.007114033160197298</v>
@@ -20902,73 +20902,73 @@
         <v>0.007222924923554319</v>
       </c>
       <c r="J105" t="n">
-        <v>0.00724765186671241</v>
+        <v>0.007247651866712409</v>
       </c>
       <c r="K105" t="n">
-        <v>0.007271292033875248</v>
+        <v>0.007271292033875247</v>
       </c>
       <c r="L105" t="n">
         <v>0.007293811152321137</v>
       </c>
       <c r="M105" t="n">
-        <v>0.00731517649807656</v>
+        <v>0.007315176498076559</v>
       </c>
       <c r="N105" t="n">
-        <v>0.00733535524088903</v>
+        <v>0.007335355240889029</v>
       </c>
       <c r="O105" t="n">
         <v>0.00735431307076981</v>
       </c>
       <c r="P105" t="n">
-        <v>0.00737201300895507</v>
+        <v>0.0073720130089550695</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.007388414335663147</v>
+        <v>0.007388414335663146</v>
       </c>
       <c r="R105" t="n">
-        <v>0.00740347158281625</v>
+        <v>0.007403471582816249</v>
       </c>
       <c r="S105" t="n">
-        <v>0.007417133548894693</v>
+        <v>0.007417133548894692</v>
       </c>
       <c r="T105" t="n">
-        <v>0.007429342298270862</v>
+        <v>0.007429342298270861</v>
       </c>
       <c r="U105" t="n">
-        <v>0.007440032110035222</v>
+        <v>0.0074400321100352215</v>
       </c>
       <c r="V105" t="n">
-        <v>0.007449128342045782</v>
+        <v>0.007449128342045781</v>
       </c>
       <c r="W105" t="n">
         <v>0.0074565461749188195</v>
       </c>
       <c r="X105" t="n">
-        <v>0.007462189197944779</v>
+        <v>0.007462189197944778</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.007465947794326774</v>
+        <v>0.007465947794326773</v>
       </c>
       <c r="Z105" t="n">
-        <v>0.007467697276429786</v>
+        <v>0.007467697276429785</v>
       </c>
       <c r="AA105" t="n">
-        <v>0.00746729571246595</v>
+        <v>0.007467295712465949</v>
       </c>
       <c r="AB105" t="n">
-        <v>0.007464556872594752</v>
+        <v>0.0074645568725947515</v>
       </c>
       <c r="AC105" t="n">
         <v>0.007459290118251572</v>
       </c>
       <c r="AD105" t="n">
-        <v>0.007451305508483342</v>
+        <v>0.0074513055084833415</v>
       </c>
       <c r="AE105" t="n">
-        <v>0.007440359277989777</v>
+        <v>0.007440359277989776</v>
       </c>
       <c r="AF105" t="n">
-        <v>0.007426171251665434</v>
+        <v>0.007426171251665433</v>
       </c>
       <c r="AG105" t="n">
         <v>0.0074084183829505506</v>
@@ -20980,28 +20980,28 @@
         <v>0.007360662084880808</v>
       </c>
       <c r="AJ105" t="n">
-        <v>0.0073297167739730185</v>
+        <v>0.007329716773973018</v>
       </c>
       <c r="AK105" t="n">
         <v>0.007293295023438547</v>
       </c>
       <c r="AL105" t="n">
-        <v>0.007250692596089699</v>
+        <v>0.007250692596089698</v>
       </c>
       <c r="AM105" t="n">
-        <v>0.0072010710131166075</v>
+        <v>0.007201071013116607</v>
       </c>
       <c r="AN105" t="n">
         <v>0.0071434233710293985</v>
       </c>
       <c r="AO105" t="n">
-        <v>0.007079171483923206</v>
+        <v>0.0070791745995094964</v>
       </c>
       <c r="AP105" t="n">
-        <v>0.007014165821583454</v>
+        <v>0.007014167752779682</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.0069385986675057935</v>
+        <v>0.0069385992218837095</v>
       </c>
       <c r="AR105" t="n">
         <v>0.006850736055752041</v>
@@ -21010,7 +21010,7 @@
         <v>0.00674799138466637</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.00662864554161362</v>
+        <v>0.006628644357275743</v>
       </c>
       <c r="AU105" t="n">
         <v>0.006498422509987641</v>
@@ -21019,7 +21019,7 @@
         <v>0.0063587252017735865</v>
       </c>
       <c r="AW105" t="n">
-        <v>0.006189199178327469</v>
+        <v>0.006189198696535337</v>
       </c>
       <c r="AX105" t="n">
         <v>0.006008597657955516</v>
@@ -21039,7 +21039,7 @@
         <v>5</v>
       </c>
       <c r="C106" t="n">
-        <v>3.0963385641009456E-4</v>
+        <v>3.096338564100947E-4</v>
       </c>
       <c r="D106" t="n">
         <v>3.1174700286533565E-4</v>
@@ -21081,7 +21081,7 @@
         <v>3.4019414283167264E-4</v>
       </c>
       <c r="Q106" t="n">
-        <v>3.4172960922241886E-4</v>
+        <v>3.41729609222419E-4</v>
       </c>
       <c r="R106" t="n">
         <v>3.4313572916199657E-4</v>
@@ -21090,10 +21090,10 @@
         <v>3.444093237574222E-4</v>
       </c>
       <c r="T106" t="n">
-        <v>3.4554650467485314E-4</v>
+        <v>3.4554650467485336E-4</v>
       </c>
       <c r="U106" t="n">
-        <v>3.465426306674609E-4</v>
+        <v>3.4654263066746105E-4</v>
       </c>
       <c r="V106" t="n">
         <v>3.4739226733934903E-4</v>
@@ -21102,13 +21102,13 @@
         <v>3.4808916583909224E-4</v>
       </c>
       <c r="X106" t="n">
-        <v>3.486263070494785E-4</v>
+        <v>3.4862630704947866E-4</v>
       </c>
       <c r="Y106" t="n">
         <v>3.489961796864276E-4</v>
       </c>
       <c r="Z106" t="n">
-        <v>3.4919216935487026E-4</v>
+        <v>3.491921693548704E-4</v>
       </c>
       <c r="AA106" t="n">
         <v>3.492227236329896E-4</v>
@@ -21138,7 +21138,7 @@
         <v>3.399378460643167E-4</v>
       </c>
       <c r="AJ106" t="n">
-        <v>3.372520933575286E-4</v>
+        <v>3.372520933575288E-4</v>
       </c>
       <c r="AK106" t="n">
         <v>3.340970569491859E-4</v>
@@ -21153,7 +21153,7 @@
         <v>3.2119001969524403E-4</v>
       </c>
       <c r="AO106" t="n">
-        <v>3.154724739725319E-4</v>
+        <v>3.1547247397253214E-4</v>
       </c>
       <c r="AP106" t="n">
         <v>3.08874743334296E-4</v>
@@ -21165,7 +21165,7 @@
         <v>2.924807190586375E-4</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.823436295958522E-4</v>
+        <v>2.8234362959585234E-4</v>
       </c>
       <c r="AT106" t="n">
         <v>2.7065253478315366E-4</v>
@@ -21174,7 +21174,7 @@
         <v>2.5723249874328764E-4</v>
       </c>
       <c r="AV106" t="n">
-        <v>2.4209761737327344E-4</v>
+        <v>2.4209761737327363E-4</v>
       </c>
       <c r="AW106" t="n">
         <v>2.2616646631634662E-4</v>
@@ -21197,10 +21197,10 @@
         <v>5</v>
       </c>
       <c r="C107" t="n">
-        <v>0.007382915432509606</v>
+        <v>0.007382918440782963</v>
       </c>
       <c r="D107" t="n">
-        <v>0.007397725908231099</v>
+        <v>0.007397729147847235</v>
       </c>
       <c r="E107" t="n">
         <v>0.0074289973246929085</v>
@@ -21221,40 +21221,40 @@
         <v>0.007576013916158652</v>
       </c>
       <c r="K107" t="n">
-        <v>0.007601934692195123</v>
+        <v>0.007601934692195122</v>
       </c>
       <c r="L107" t="n">
         <v>0.007626610782476623</v>
       </c>
       <c r="M107" t="n">
-        <v>0.007650010115960939</v>
+        <v>0.007650010115960938</v>
       </c>
       <c r="N107" t="n">
-        <v>0.0076720998172459705</v>
+        <v>0.00767209981724597</v>
       </c>
       <c r="O107" t="n">
         <v>0.007692844910784438</v>
       </c>
       <c r="P107" t="n">
-        <v>0.007712207151786743</v>
+        <v>0.0077122071517867425</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.007730143944885566</v>
+        <v>0.007730143944885565</v>
       </c>
       <c r="R107" t="n">
-        <v>0.007746607311978247</v>
+        <v>0.007746607311978246</v>
       </c>
       <c r="S107" t="n">
-        <v>0.007761542872652115</v>
+        <v>0.007761542872652114</v>
       </c>
       <c r="T107" t="n">
-        <v>0.007774888802945716</v>
+        <v>0.007774888802945715</v>
       </c>
       <c r="U107" t="n">
-        <v>0.007786574740702683</v>
+        <v>0.0077865747407026824</v>
       </c>
       <c r="V107" t="n">
-        <v>0.00779652060938513</v>
+        <v>0.0077965206093851295</v>
       </c>
       <c r="W107" t="n">
         <v>0.007804635340757912</v>
@@ -21269,22 +21269,22 @@
         <v>0.007816889445784656</v>
       </c>
       <c r="AA107" t="n">
-        <v>0.00781651843609894</v>
+        <v>0.007816518436098938</v>
       </c>
       <c r="AB107" t="n">
-        <v>0.007813565209676175</v>
+        <v>0.007813565209676174</v>
       </c>
       <c r="AC107" t="n">
         <v>0.007807816220658277</v>
       </c>
       <c r="AD107" t="n">
-        <v>0.0077991326203303</v>
+        <v>0.007799132620330299</v>
       </c>
       <c r="AE107" t="n">
-        <v>0.007787232100061444</v>
+        <v>0.007787232100061443</v>
       </c>
       <c r="AF107" t="n">
-        <v>0.007771808039059028</v>
+        <v>0.0077718080390590276</v>
       </c>
       <c r="AG107" t="n">
         <v>0.007752509272384978</v>
@@ -21296,28 +21296,28 @@
         <v>0.007700599930945125</v>
       </c>
       <c r="AJ107" t="n">
-        <v>0.007666968867330547</v>
+        <v>0.0076669688673305465</v>
       </c>
       <c r="AK107" t="n">
         <v>0.007627392080387733</v>
       </c>
       <c r="AL107" t="n">
-        <v>0.007581107943271124</v>
+        <v>0.007581107943271123</v>
       </c>
       <c r="AM107" t="n">
-        <v>0.0075272105453686655</v>
+        <v>0.007527210545368665</v>
       </c>
       <c r="AN107" t="n">
         <v>0.007464613390724643</v>
       </c>
       <c r="AO107" t="n">
-        <v>0.007394643957895738</v>
+        <v>0.0073946470734820285</v>
       </c>
       <c r="AP107" t="n">
-        <v>0.00732304056491775</v>
+        <v>0.007323042496113978</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.007239862095910222</v>
+        <v>0.007239862650288138</v>
       </c>
       <c r="AR107" t="n">
         <v>0.007143216774810678</v>
@@ -21326,7 +21326,7 @@
         <v>0.007030335014262222</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.006899298076396774</v>
+        <v>0.0068992968920588964</v>
       </c>
       <c r="AU107" t="n">
         <v>0.0067556550087309285</v>
@@ -21335,7 +21335,7 @@
         <v>0.00660082281914686</v>
       </c>
       <c r="AW107" t="n">
-        <v>0.006415365644643816</v>
+        <v>0.006415365162851684</v>
       </c>
       <c r="AX107" t="n">
         <v>0.006224103388956884</v>
@@ -21355,10 +21355,10 @@
         <v>37</v>
       </c>
       <c r="C108" t="n">
-        <v>98.29723440063856</v>
+        <v>98.29727445323755</v>
       </c>
       <c r="D108" t="n">
-        <v>97.63020247039555</v>
+        <v>97.63024522466668</v>
       </c>
       <c r="E108" t="n">
         <v>97.17502754414366</v>
@@ -21394,7 +21394,7 @@
         <v>91.63931343103266</v>
       </c>
       <c r="P108" t="n">
-        <v>90.9690025530613</v>
+        <v>90.96900255306127</v>
       </c>
       <c r="Q108" t="n">
         <v>90.27752050034266</v>
@@ -21403,13 +21403,13 @@
         <v>89.56481213225337</v>
       </c>
       <c r="S108" t="n">
-        <v>88.83077145349029</v>
+        <v>88.83077145349026</v>
       </c>
       <c r="T108" t="n">
         <v>88.07523355841386</v>
       </c>
       <c r="U108" t="n">
-        <v>87.29796670646371</v>
+        <v>87.29796670646368</v>
       </c>
       <c r="V108" t="n">
         <v>86.49866426019727</v>
@@ -21442,7 +21442,7 @@
         <v>78.2080976587927</v>
       </c>
       <c r="AF108" t="n">
-        <v>77.14526996503076</v>
+        <v>77.14526996503074</v>
       </c>
       <c r="AG108" t="n">
         <v>76.04803720181303</v>
@@ -21454,7 +21454,7 @@
         <v>73.7396272595121</v>
       </c>
       <c r="AJ108" t="n">
-        <v>72.52190750718975</v>
+        <v>72.52190750718972</v>
       </c>
       <c r="AK108" t="n">
         <v>71.25649944376158</v>
@@ -21463,19 +21463,19 @@
         <v>69.93846056905136</v>
       </c>
       <c r="AM108" t="n">
-        <v>68.56189006918024</v>
+        <v>68.56189006918021</v>
       </c>
       <c r="AN108" t="n">
         <v>67.11968668102864</v>
       </c>
       <c r="AO108" t="n">
-        <v>65.62668061785146</v>
+        <v>65.62670826834923</v>
       </c>
       <c r="AP108" t="n">
-        <v>64.13571222261479</v>
+        <v>64.13572913616926</v>
       </c>
       <c r="AQ108" t="n">
-        <v>62.56145048840291</v>
+        <v>62.56145527892048</v>
       </c>
       <c r="AR108" t="n">
         <v>60.891825797197384</v>
@@ -21484,7 +21484,7 @@
         <v>59.10827224930475</v>
       </c>
       <c r="AT108" t="n">
-        <v>57.20057235260536</v>
+        <v>57.20056253351888</v>
       </c>
       <c r="AU108" t="n">
         <v>55.2204465930088</v>
@@ -21493,7 +21493,7 @@
         <v>53.18373003500548</v>
       </c>
       <c r="AW108" t="n">
-        <v>50.94001724816607</v>
+        <v>50.940013422585295</v>
       </c>
       <c r="AX108" t="n">
         <v>48.69421959851603</v>
@@ -21550,7 +21550,7 @@
         <v>5</v>
       </c>
       <c r="C114" t="n">
-        <v>-4.116458649465535E-5</v>
+        <v>-4.116486572233298E-5</v>
       </c>
     </row>
     <row r="115">
@@ -21571,106 +21571,106 @@
         <v>16</v>
       </c>
       <c r="C117" t="n">
-        <v>-7.157835076672077</v>
+        <v>-7.157835746383409</v>
       </c>
       <c r="D117" t="n">
-        <v>-6.474829076016832</v>
+        <v>-6.474829670620396</v>
       </c>
       <c r="E117" t="n">
-        <v>-5.79182307536159</v>
+        <v>-5.791823594857387</v>
       </c>
       <c r="F117" t="n">
-        <v>-5.108817074706344</v>
+        <v>-5.108817519094375</v>
       </c>
       <c r="G117" t="n">
-        <v>-4.425811074051101</v>
+        <v>-4.425811443331362</v>
       </c>
       <c r="H117" t="n">
-        <v>-3.742805073395856</v>
+        <v>-3.7428053675683497</v>
       </c>
       <c r="I117" t="n">
-        <v>-3.0597990727406126</v>
+        <v>-3.059799291805339</v>
       </c>
       <c r="J117" t="n">
-        <v>-2.376793072085368</v>
+        <v>-2.3767932160423264</v>
       </c>
       <c r="K117" t="n">
         <v>-1.7003487899120326</v>
       </c>
       <c r="L117" t="n">
-        <v>-1.010781070774879</v>
+        <v>-1.0107810645163022</v>
       </c>
       <c r="M117" t="n">
-        <v>-0.3277750701196349</v>
+        <v>-0.3277749887532906</v>
       </c>
       <c r="N117" t="n">
-        <v>0.3487262573786096</v>
+        <v>0.34872655371485095</v>
       </c>
       <c r="O117" t="n">
-        <v>1.0186720107844178</v>
+        <v>1.0186727602870467</v>
       </c>
       <c r="P117" t="n">
-        <v>1.6820701790411077</v>
+        <v>1.6820717275339314</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.3392131664892855</v>
+        <v>2.339215874261103</v>
       </c>
       <c r="R117" t="n">
-        <v>2.99020305065521</v>
+        <v>2.9902074699760828</v>
       </c>
       <c r="S117" t="n">
-        <v>3.635039321849961</v>
+        <v>3.635046071792348</v>
       </c>
       <c r="T117" t="n">
-        <v>4.273776795799982</v>
+        <v>4.273786592873771</v>
       </c>
       <c r="U117" t="n">
-        <v>4.906731239759036</v>
+        <v>4.9067448542474015</v>
       </c>
       <c r="V117" t="n">
-        <v>5.534037325999659</v>
+        <v>5.534055588070334</v>
       </c>
       <c r="W117" t="n">
-        <v>6.155734521383923</v>
+        <v>6.155758322662129</v>
       </c>
       <c r="X117" t="n">
-        <v>6.771912171693874</v>
+        <v>6.771942489159612</v>
       </c>
       <c r="Y117" t="n">
-        <v>7.382891966490915</v>
+        <v>7.382929789850106</v>
       </c>
       <c r="Z117" t="n">
-        <v>7.988948480499987</v>
+        <v>7.988994597273074</v>
       </c>
       <c r="AA117" t="n">
-        <v>8.593765054677807</v>
+        <v>8.593819119934114</v>
       </c>
       <c r="AB117" t="n">
-        <v>9.209609222287582</v>
+        <v>9.20966818105222</v>
       </c>
       <c r="AC117" t="n">
-        <v>9.850927631834193</v>
+        <v>9.850986323507637</v>
       </c>
       <c r="AD117" t="n">
-        <v>10.530282584099414</v>
+        <v>10.53033511114339</v>
       </c>
       <c r="AE117" t="n">
-        <v>11.301734993614446</v>
+        <v>11.301716272637062</v>
       </c>
       <c r="AF117" t="n">
-        <v>12.234415848366815</v>
+        <v>12.234429797605582</v>
       </c>
       <c r="AG117" t="n">
-        <v>13.244955433601465</v>
+        <v>13.244992277985993</v>
       </c>
       <c r="AH117" t="n">
-        <v>14.333522559007317</v>
+        <v>14.333583285266023</v>
       </c>
       <c r="AI117" t="n">
-        <v>15.399948130137115</v>
+        <v>15.39997370037688</v>
       </c>
       <c r="AJ117" t="n">
-        <v>16.396431504763427</v>
+        <v>16.396458140873357</v>
       </c>
     </row>
     <row r="118">
@@ -21681,106 +21681,106 @@
         <v>5</v>
       </c>
       <c r="C118" t="n">
-        <v>-7.65980966659497E-5</v>
+        <v>-7.659810383272748E-5</v>
       </c>
       <c r="D118" t="n">
-        <v>-6.928904873438746E-5</v>
+        <v>-6.928905509741472E-5</v>
       </c>
       <c r="E118" t="n">
-        <v>-6.198000080282486E-5</v>
+        <v>-6.198000636210217E-5</v>
       </c>
       <c r="F118" t="n">
-        <v>-5.4670952871262576E-5</v>
+        <v>-5.467095762678943E-5</v>
       </c>
       <c r="G118" t="n">
-        <v>-4.736190493970044E-5</v>
+        <v>-4.73619088914769E-5</v>
       </c>
       <c r="H118" t="n">
-        <v>-4.005285700813815E-5</v>
+        <v>-4.0052860156164315E-5</v>
       </c>
       <c r="I118" t="n">
-        <v>-3.2743809076575805E-5</v>
+        <v>-3.274381142085179E-5</v>
       </c>
       <c r="J118" t="n">
-        <v>-2.5434761145013463E-5</v>
+        <v>-2.543476268553939E-5</v>
       </c>
       <c r="K118" t="n">
-        <v>-1.819593209125281E-5</v>
+        <v>-1.8195932091252825E-5</v>
       </c>
       <c r="L118" t="n">
-        <v>-1.081666528188909E-5</v>
+        <v>-1.0816665214914165E-5</v>
       </c>
       <c r="M118" t="n">
-        <v>-3.5076173503266647E-6</v>
+        <v>-3.5076164796015122E-6</v>
       </c>
       <c r="N118" t="n">
-        <v>2.1381765978859893E-4</v>
+        <v>2.1381784148389818E-4</v>
       </c>
       <c r="O118" t="n">
-        <v>6.245875119222662E-4</v>
+        <v>6.245879714715434E-4</v>
       </c>
       <c r="P118" t="n">
-        <v>0.0010313427844129423</v>
+        <v>0.0010313437338542392</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.0014342627617581242</v>
+        <v>0.0014342644219985559</v>
       </c>
       <c r="R118" t="n">
-        <v>0.0018334100316675739</v>
+        <v>0.0018334127413254249</v>
       </c>
       <c r="S118" t="n">
-        <v>0.0022287842816311135</v>
+        <v>0.0022287884202838626</v>
       </c>
       <c r="T118" t="n">
-        <v>0.002620419121307113</v>
+        <v>0.0026204251282748846</v>
       </c>
       <c r="U118" t="n">
-        <v>0.0030085081599056217</v>
+        <v>0.003008516507479035</v>
       </c>
       <c r="V118" t="n">
-        <v>0.003393133970245706</v>
+        <v>0.00339314516743298</v>
       </c>
       <c r="W118" t="n">
-        <v>0.003774320750998726</v>
+        <v>0.0037743353444900114</v>
       </c>
       <c r="X118" t="n">
-        <v>0.004152123283545797</v>
+        <v>0.004152141872365665</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.00452673880829475</v>
+        <v>0.0045267619992704145</v>
       </c>
       <c r="Z118" t="n">
-        <v>0.004898335677710773</v>
+        <v>0.004898363953701726</v>
       </c>
       <c r="AA118" t="n">
-        <v>0.0052691722916903844</v>
+        <v>0.005269205441206155</v>
       </c>
       <c r="AB118" t="n">
-        <v>0.005646770352996688</v>
+        <v>0.0056468065029131815</v>
       </c>
       <c r="AC118" t="n">
-        <v>0.006039987664877318</v>
+        <v>0.00604002365102978</v>
       </c>
       <c r="AD118" t="n">
-        <v>0.006456526663549381</v>
+        <v>0.0064565588699272616</v>
       </c>
       <c r="AE118" t="n">
-        <v>0.006929534202702621</v>
+        <v>0.006929522724141773</v>
       </c>
       <c r="AF118" t="n">
-        <v>0.007501397185409654</v>
+        <v>0.007501405738231597</v>
       </c>
       <c r="AG118" t="n">
-        <v>0.008120998390271104</v>
+        <v>0.008121020980999257</v>
       </c>
       <c r="AH118" t="n">
-        <v>0.0087884413210866</v>
+        <v>0.008788478554722541</v>
       </c>
       <c r="AI118" t="n">
-        <v>0.009442308402021994</v>
+        <v>0.009442324080132587</v>
       </c>
       <c r="AJ118" t="n">
-        <v>0.010053291196327384</v>
+        <v>0.010053307527964484</v>
       </c>
     </row>
     <row r="119">
@@ -23291,106 +23291,106 @@
         <v>16</v>
       </c>
       <c r="C161" t="n">
-        <v>-7.157835076672077</v>
+        <v>-7.157835746383409</v>
       </c>
       <c r="D161" t="n">
-        <v>-6.474829076016832</v>
+        <v>-6.474829670620396</v>
       </c>
       <c r="E161" t="n">
-        <v>-5.79182307536159</v>
+        <v>-5.791823594857387</v>
       </c>
       <c r="F161" t="n">
-        <v>-5.108817074706344</v>
+        <v>-5.108817519094375</v>
       </c>
       <c r="G161" t="n">
-        <v>-4.425811074051101</v>
+        <v>-4.425811443331362</v>
       </c>
       <c r="H161" t="n">
-        <v>-3.742805073395856</v>
+        <v>-3.7428053675683497</v>
       </c>
       <c r="I161" t="n">
-        <v>-3.0597990727406126</v>
+        <v>-3.059799291805339</v>
       </c>
       <c r="J161" t="n">
-        <v>-2.376793072085368</v>
+        <v>-2.3767932160423264</v>
       </c>
       <c r="K161" t="n">
         <v>-1.7003487899120326</v>
       </c>
       <c r="L161" t="n">
-        <v>-1.010781070774879</v>
+        <v>-1.0107810645163022</v>
       </c>
       <c r="M161" t="n">
-        <v>-0.3277750701196349</v>
+        <v>-0.3277749887532906</v>
       </c>
       <c r="N161" t="n">
-        <v>0.3487262573786096</v>
+        <v>0.34872655371485095</v>
       </c>
       <c r="O161" t="n">
-        <v>1.0186720107844178</v>
+        <v>1.0186727602870467</v>
       </c>
       <c r="P161" t="n">
-        <v>1.6820701790411077</v>
+        <v>1.6820717275339314</v>
       </c>
       <c r="Q161" t="n">
-        <v>2.3392131664892855</v>
+        <v>2.339215874261103</v>
       </c>
       <c r="R161" t="n">
-        <v>2.99020305065521</v>
+        <v>2.9902074699760828</v>
       </c>
       <c r="S161" t="n">
-        <v>3.635039321849961</v>
+        <v>3.635046071792348</v>
       </c>
       <c r="T161" t="n">
-        <v>4.273776795799982</v>
+        <v>4.273786592873771</v>
       </c>
       <c r="U161" t="n">
-        <v>4.906731239759036</v>
+        <v>4.9067448542474015</v>
       </c>
       <c r="V161" t="n">
-        <v>5.534037325999659</v>
+        <v>5.534055588070334</v>
       </c>
       <c r="W161" t="n">
-        <v>6.155734521383923</v>
+        <v>6.155758322662129</v>
       </c>
       <c r="X161" t="n">
-        <v>6.771912171693874</v>
+        <v>6.771942489159612</v>
       </c>
       <c r="Y161" t="n">
-        <v>7.382891966490915</v>
+        <v>7.382929789850106</v>
       </c>
       <c r="Z161" t="n">
-        <v>7.988948480499987</v>
+        <v>7.988994597273074</v>
       </c>
       <c r="AA161" t="n">
-        <v>8.593765054677807</v>
+        <v>8.593819119934114</v>
       </c>
       <c r="AB161" t="n">
-        <v>9.209609222287582</v>
+        <v>9.20966818105222</v>
       </c>
       <c r="AC161" t="n">
-        <v>9.850927631834193</v>
+        <v>9.850986323507637</v>
       </c>
       <c r="AD161" t="n">
-        <v>10.530282584099414</v>
+        <v>10.53033511114339</v>
       </c>
       <c r="AE161" t="n">
-        <v>11.301734993614446</v>
+        <v>11.301716272637062</v>
       </c>
       <c r="AF161" t="n">
-        <v>12.234415848366815</v>
+        <v>12.234429797605582</v>
       </c>
       <c r="AG161" t="n">
-        <v>13.244955433601465</v>
+        <v>13.244992277985993</v>
       </c>
       <c r="AH161" t="n">
-        <v>14.333522559007317</v>
+        <v>14.333583285266023</v>
       </c>
       <c r="AI161" t="n">
-        <v>15.399948130137115</v>
+        <v>15.39997370037688</v>
       </c>
       <c r="AJ161" t="n">
-        <v>16.396431504763427</v>
+        <v>16.396458140873357</v>
       </c>
     </row>
     <row r="162">
@@ -23401,106 +23401,106 @@
         <v>5</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.3121178629299708</v>
+        <v>-0.3121179087856497</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.26535188728728976</v>
+        <v>-0.26535192800027885</v>
       </c>
       <c r="E162" t="n">
-        <v>-0.21858591164460903</v>
+        <v>-0.21858594721490823</v>
       </c>
       <c r="F162" t="n">
-        <v>-0.171819936001928</v>
+        <v>-0.17181996642953737</v>
       </c>
       <c r="G162" t="n">
-        <v>-0.12505396035924707</v>
+        <v>-0.1250539856441665</v>
       </c>
       <c r="H162" t="n">
-        <v>-0.07828798471656609</v>
+        <v>-0.07828800485879564</v>
       </c>
       <c r="I162" t="n">
-        <v>-0.031522009073885165</v>
+        <v>-0.031522024073424915</v>
       </c>
       <c r="J162" t="n">
-        <v>0.015243966568795814</v>
+        <v>0.015243956711945922</v>
       </c>
       <c r="K162" t="n">
         <v>0.06156065601720513</v>
       </c>
       <c r="L162" t="n">
-        <v>0.10877591785415774</v>
+        <v>0.10877591828268758</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1555418934968387</v>
+        <v>0.15554189906805838</v>
       </c>
       <c r="N162" t="n">
-        <v>0.20186248888498012</v>
+        <v>0.20186250917536327</v>
       </c>
       <c r="O162" t="n">
-        <v>0.24773421879018798</v>
+        <v>0.24773427010924176</v>
       </c>
       <c r="P162" t="n">
-        <v>0.2931576302219003</v>
+        <v>0.2931577362484617</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.3381527443428264</v>
+        <v>0.3381529297461622</v>
       </c>
       <c r="R162" t="n">
-        <v>0.38272655048410276</v>
+        <v>0.38272685307859255</v>
       </c>
       <c r="S162" t="n">
-        <v>0.42687901374691495</v>
+        <v>0.4268794759209529</v>
       </c>
       <c r="T162" t="n">
-        <v>0.4706138874085771</v>
+        <v>0.4706145582221771</v>
       </c>
       <c r="U162" t="n">
-        <v>0.5139527923094392</v>
+        <v>0.513953724504516</v>
       </c>
       <c r="V162" t="n">
-        <v>0.5569049495693905</v>
+        <v>0.5569061999882032</v>
       </c>
       <c r="W162" t="n">
-        <v>0.5994730615165346</v>
+        <v>0.5994746912093861</v>
       </c>
       <c r="X162" t="n">
-        <v>0.6416632457291398</v>
+        <v>0.6416653215906445</v>
       </c>
       <c r="Y162" t="n">
-        <v>0.6834975285527708</v>
+        <v>0.683500118348897</v>
       </c>
       <c r="Z162" t="n">
-        <v>0.7249947103418702</v>
+        <v>0.7249978679947822</v>
       </c>
       <c r="AA162" t="n">
-        <v>0.7664069924435714</v>
+        <v>0.7664106943355857</v>
       </c>
       <c r="AB162" t="n">
-        <v>0.8086095484764056</v>
+        <v>0.8086135955327517</v>
       </c>
       <c r="AC162" t="n">
-        <v>0.8527722239000299</v>
+        <v>0.8527762809025695</v>
       </c>
       <c r="AD162" t="n">
-        <v>0.8999657089196291</v>
+        <v>0.8999693771254353</v>
       </c>
       <c r="AE162" t="n">
-        <v>0.9541779144570102</v>
+        <v>0.9541765907733235</v>
       </c>
       <c r="AF162" t="n">
-        <v>1.0205489806527168</v>
+        <v>1.0205499787324488</v>
       </c>
       <c r="AG162" t="n">
-        <v>1.0930521677865168</v>
+        <v>1.0930548127194344</v>
       </c>
       <c r="AH162" t="n">
-        <v>1.17075840837005</v>
+        <v>1.1707627017849624</v>
       </c>
       <c r="AI162" t="n">
-        <v>1.244758670351851</v>
+        <v>1.2447604018338976</v>
       </c>
       <c r="AJ162" t="n">
-        <v>1.3099319424091949</v>
+        <v>1.3099336122564957</v>
       </c>
     </row>
     <row r="163">
@@ -23526,106 +23526,106 @@
         <v>5</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.3121178629299708</v>
+        <v>-0.3121179087856497</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.26535188728728976</v>
+        <v>-0.26535192800027885</v>
       </c>
       <c r="E166" t="n">
-        <v>-0.21858591164460903</v>
+        <v>-0.21858594721490823</v>
       </c>
       <c r="F166" t="n">
-        <v>-0.171819936001928</v>
+        <v>-0.17181996642953737</v>
       </c>
       <c r="G166" t="n">
-        <v>-0.12505396035924707</v>
+        <v>-0.1250539856441665</v>
       </c>
       <c r="H166" t="n">
-        <v>-0.07828798471656609</v>
+        <v>-0.07828800485879564</v>
       </c>
       <c r="I166" t="n">
-        <v>-0.031522009073885165</v>
+        <v>-0.031522024073424915</v>
       </c>
       <c r="J166" t="n">
-        <v>0.015243966568795814</v>
+        <v>0.015243956711945922</v>
       </c>
       <c r="K166" t="n">
         <v>0.06156065601720513</v>
       </c>
       <c r="L166" t="n">
-        <v>0.10877591785415774</v>
+        <v>0.10877591828268758</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1555418934968387</v>
+        <v>0.15554189906805838</v>
       </c>
       <c r="N166" t="n">
-        <v>0.20186248888498012</v>
+        <v>0.20186250917536327</v>
       </c>
       <c r="O166" t="n">
-        <v>0.24773421879018798</v>
+        <v>0.24773427010924176</v>
       </c>
       <c r="P166" t="n">
-        <v>0.2931576302219003</v>
+        <v>0.2931577362484617</v>
       </c>
       <c r="Q166" t="n">
-        <v>0.3381527443428264</v>
+        <v>0.3381529297461622</v>
       </c>
       <c r="R166" t="n">
-        <v>0.38272655048410276</v>
+        <v>0.38272685307859255</v>
       </c>
       <c r="S166" t="n">
-        <v>0.42687901374691495</v>
+        <v>0.4268794759209529</v>
       </c>
       <c r="T166" t="n">
-        <v>0.4706138874085771</v>
+        <v>0.4706145582221771</v>
       </c>
       <c r="U166" t="n">
-        <v>0.5139527923094392</v>
+        <v>0.513953724504516</v>
       </c>
       <c r="V166" t="n">
-        <v>0.5569049495693905</v>
+        <v>0.5569061999882032</v>
       </c>
       <c r="W166" t="n">
-        <v>0.5994730615165346</v>
+        <v>0.5994746912093861</v>
       </c>
       <c r="X166" t="n">
-        <v>0.6416632457291398</v>
+        <v>0.6416653215906445</v>
       </c>
       <c r="Y166" t="n">
-        <v>0.6834975285527708</v>
+        <v>0.683500118348897</v>
       </c>
       <c r="Z166" t="n">
-        <v>0.7249947103418702</v>
+        <v>0.7249978679947822</v>
       </c>
       <c r="AA166" t="n">
-        <v>0.7664069924435714</v>
+        <v>0.7664106943355857</v>
       </c>
       <c r="AB166" t="n">
-        <v>0.8086095484764056</v>
+        <v>0.8086135955327517</v>
       </c>
       <c r="AC166" t="n">
-        <v>0.8527722239000299</v>
+        <v>0.8527762809025695</v>
       </c>
       <c r="AD166" t="n">
-        <v>0.8999657089196291</v>
+        <v>0.8999693771254353</v>
       </c>
       <c r="AE166" t="n">
-        <v>0.9541779144570102</v>
+        <v>0.9541765907733235</v>
       </c>
       <c r="AF166" t="n">
-        <v>1.0205489806527168</v>
+        <v>1.0205499787324488</v>
       </c>
       <c r="AG166" t="n">
-        <v>1.0930521677865168</v>
+        <v>1.0930548127194344</v>
       </c>
       <c r="AH166" t="n">
-        <v>1.17075840837005</v>
+        <v>1.1707627017849624</v>
       </c>
       <c r="AI166" t="n">
-        <v>1.244758670351851</v>
+        <v>1.2447604018338976</v>
       </c>
       <c r="AJ166" t="n">
-        <v>1.3099319424091949</v>
+        <v>1.3099336122564957</v>
       </c>
     </row>
     <row r="167">
@@ -23636,106 +23636,106 @@
         <v>5</v>
       </c>
       <c r="C167" t="n">
-        <v>0.012010779266079732</v>
+        <v>0.012010851556617878</v>
       </c>
       <c r="D167" t="n">
-        <v>0.011929577163568723</v>
+        <v>0.011929649441521905</v>
       </c>
       <c r="E167" t="n">
-        <v>0.011788451452632626</v>
+        <v>0.011788523698970097</v>
       </c>
       <c r="F167" t="n">
-        <v>0.011666316480377078</v>
+        <v>0.011666388699426806</v>
       </c>
       <c r="G167" t="n">
-        <v>0.01155259021789323</v>
+        <v>0.011552662411899447</v>
       </c>
       <c r="H167" t="n">
-        <v>0.011462910506258915</v>
+        <v>0.011462982684151123</v>
       </c>
       <c r="I167" t="n">
-        <v>0.011385185732318967</v>
+        <v>0.01138525790092894</v>
       </c>
       <c r="J167" t="n">
-        <v>0.011321397126880564</v>
+        <v>0.011321469281013137</v>
       </c>
       <c r="K167" t="n">
-        <v>0.01127868171010222</v>
+        <v>0.011278753854061694</v>
       </c>
       <c r="L167" t="n">
-        <v>0.011239943272941704</v>
+        <v>0.01124001541658801</v>
       </c>
       <c r="M167" t="n">
-        <v>0.01123108480141583</v>
+        <v>0.01123115694531576</v>
       </c>
       <c r="N167" t="n">
-        <v>0.011231107448659032</v>
+        <v>0.01123117959364565</v>
       </c>
       <c r="O167" t="n">
-        <v>0.011240388409063993</v>
+        <v>0.011240460595988011</v>
       </c>
       <c r="P167" t="n">
-        <v>0.01127763091390563</v>
+        <v>0.011277703148191013</v>
       </c>
       <c r="Q167" t="n">
-        <v>0.011318681116945386</v>
+        <v>0.01131875345586242</v>
       </c>
       <c r="R167" t="n">
-        <v>0.011377349578457959</v>
+        <v>0.011377422219328446</v>
       </c>
       <c r="S167" t="n">
-        <v>0.011450477694065936</v>
+        <v>0.011450550616138505</v>
       </c>
       <c r="T167" t="n">
-        <v>0.011531855365437946</v>
+        <v>0.011531928855817681</v>
       </c>
       <c r="U167" t="n">
-        <v>0.011632157077222456</v>
+        <v>0.011632231521446929</v>
       </c>
       <c r="V167" t="n">
-        <v>0.011739322111613234</v>
+        <v>0.01173939739981073</v>
       </c>
       <c r="W167" t="n">
-        <v>0.011860100368034069</v>
+        <v>0.011860177333141498</v>
       </c>
       <c r="X167" t="n">
-        <v>0.011996487618177036</v>
+        <v>0.011996566607656566</v>
       </c>
       <c r="Y167" t="n">
-        <v>0.01213658541978271</v>
+        <v>0.012136666218372017</v>
       </c>
       <c r="Z167" t="n">
-        <v>0.012294328194305154</v>
+        <v>0.012294412566115404</v>
       </c>
       <c r="AA167" t="n">
-        <v>0.012464095622358774</v>
+        <v>0.012464183253322476</v>
       </c>
       <c r="AB167" t="n">
-        <v>0.012643189540022819</v>
+        <v>0.01264328057362457</v>
       </c>
       <c r="AC167" t="n">
-        <v>0.012850474290091325</v>
+        <v>0.012850566294832366</v>
       </c>
       <c r="AD167" t="n">
-        <v>0.013082722764401995</v>
+        <v>0.013082813875681007</v>
       </c>
       <c r="AE167" t="n">
-        <v>0.013365516251875287</v>
+        <v>0.013365581543920797</v>
       </c>
       <c r="AF167" t="n">
-        <v>0.013730467187477639</v>
+        <v>0.013730544765703808</v>
       </c>
       <c r="AG167" t="n">
-        <v>0.014163675055051396</v>
+        <v>0.014163763232268577</v>
       </c>
       <c r="AH167" t="n">
-        <v>0.014654211727148892</v>
+        <v>0.014654308295319883</v>
       </c>
       <c r="AI167" t="n">
-        <v>0.014877553665198417</v>
+        <v>0.014877638687318185</v>
       </c>
       <c r="AJ167" t="n">
-        <v>0.014943769941233124</v>
+        <v>0.014943855302699966</v>
       </c>
     </row>
     <row r="168">
@@ -23761,106 +23761,106 @@
         <v>16</v>
       </c>
       <c r="C171" t="n">
-        <v>-7.157835076672077</v>
+        <v>-7.157835746383409</v>
       </c>
       <c r="D171" t="n">
-        <v>-6.474829076016832</v>
+        <v>-6.474829670620396</v>
       </c>
       <c r="E171" t="n">
-        <v>-5.79182307536159</v>
+        <v>-5.791823594857387</v>
       </c>
       <c r="F171" t="n">
-        <v>-5.108817074706344</v>
+        <v>-5.108817519094375</v>
       </c>
       <c r="G171" t="n">
-        <v>-4.425811074051101</v>
+        <v>-4.425811443331362</v>
       </c>
       <c r="H171" t="n">
-        <v>-3.742805073395856</v>
+        <v>-3.7428053675683497</v>
       </c>
       <c r="I171" t="n">
-        <v>-3.0597990727406126</v>
+        <v>-3.059799291805339</v>
       </c>
       <c r="J171" t="n">
-        <v>-2.376793072085368</v>
+        <v>-2.3767932160423264</v>
       </c>
       <c r="K171" t="n">
         <v>-1.7003487899120326</v>
       </c>
       <c r="L171" t="n">
-        <v>-1.010781070774879</v>
+        <v>-1.0107810645163022</v>
       </c>
       <c r="M171" t="n">
-        <v>-0.3277750701196349</v>
+        <v>-0.3277749887532906</v>
       </c>
       <c r="N171" t="n">
-        <v>0.3487262573786096</v>
+        <v>0.34872655371485095</v>
       </c>
       <c r="O171" t="n">
-        <v>1.0186720107844178</v>
+        <v>1.0186727602870467</v>
       </c>
       <c r="P171" t="n">
-        <v>1.6820701790411077</v>
+        <v>1.6820717275339314</v>
       </c>
       <c r="Q171" t="n">
-        <v>2.3392131664892855</v>
+        <v>2.339215874261103</v>
       </c>
       <c r="R171" t="n">
-        <v>2.99020305065521</v>
+        <v>2.9902074699760828</v>
       </c>
       <c r="S171" t="n">
-        <v>3.635039321849961</v>
+        <v>3.635046071792348</v>
       </c>
       <c r="T171" t="n">
-        <v>4.273776795799982</v>
+        <v>4.273786592873771</v>
       </c>
       <c r="U171" t="n">
-        <v>4.906731239759036</v>
+        <v>4.9067448542474015</v>
       </c>
       <c r="V171" t="n">
-        <v>5.534037325999659</v>
+        <v>5.534055588070334</v>
       </c>
       <c r="W171" t="n">
-        <v>6.155734521383923</v>
+        <v>6.155758322662129</v>
       </c>
       <c r="X171" t="n">
-        <v>6.771912171693874</v>
+        <v>6.771942489159612</v>
       </c>
       <c r="Y171" t="n">
-        <v>7.382891966490915</v>
+        <v>7.382929789850106</v>
       </c>
       <c r="Z171" t="n">
-        <v>7.988948480499987</v>
+        <v>7.988994597273074</v>
       </c>
       <c r="AA171" t="n">
-        <v>8.593765054677807</v>
+        <v>8.593819119934114</v>
       </c>
       <c r="AB171" t="n">
-        <v>9.209609222287582</v>
+        <v>9.20966818105222</v>
       </c>
       <c r="AC171" t="n">
-        <v>9.850927631834193</v>
+        <v>9.850986323507637</v>
       </c>
       <c r="AD171" t="n">
-        <v>10.530282584099414</v>
+        <v>10.53033511114339</v>
       </c>
       <c r="AE171" t="n">
-        <v>11.301734993614446</v>
+        <v>11.301716272637062</v>
       </c>
       <c r="AF171" t="n">
-        <v>12.234415848366815</v>
+        <v>12.234429797605582</v>
       </c>
       <c r="AG171" t="n">
-        <v>13.244955433601465</v>
+        <v>13.244992277985993</v>
       </c>
       <c r="AH171" t="n">
-        <v>14.333522559007317</v>
+        <v>14.333583285266023</v>
       </c>
       <c r="AI171" t="n">
-        <v>15.399948130137115</v>
+        <v>15.39997370037688</v>
       </c>
       <c r="AJ171" t="n">
-        <v>16.396431504763427</v>
+        <v>16.396458140873357</v>
       </c>
     </row>
     <row r="172">
@@ -23871,106 +23871,106 @@
         <v>5</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.0036018818664776708</v>
+        <v>-0.0036018818736444484</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.0035945728185461084</v>
+        <v>-0.0035945728249091357</v>
       </c>
       <c r="E172" t="n">
-        <v>-0.003587263770614546</v>
+        <v>-0.0035872637761738234</v>
       </c>
       <c r="F172" t="n">
-        <v>-0.0035799547226829835</v>
+        <v>-0.0035799547274385102</v>
       </c>
       <c r="G172" t="n">
-        <v>-0.0035726456747514216</v>
+        <v>-0.003572645678703198</v>
       </c>
       <c r="H172" t="n">
-        <v>-0.003565336626819859</v>
+        <v>-0.0035653366299678853</v>
       </c>
       <c r="I172" t="n">
-        <v>-0.0035580275788882967</v>
+        <v>-0.003558027581232573</v>
       </c>
       <c r="J172" t="n">
-        <v>-0.0035507185309567343</v>
+        <v>-0.0035507185324972603</v>
       </c>
       <c r="K172" t="n">
         <v>-0.0035434797019029737</v>
       </c>
       <c r="L172" t="n">
-        <v>-0.00353610043509361</v>
+        <v>-0.0035361004350266353</v>
       </c>
       <c r="M172" t="n">
-        <v>-0.0035287913871620475</v>
+        <v>-0.0035287913862913226</v>
       </c>
       <c r="N172" t="n">
-        <v>-0.003311466110023122</v>
+        <v>-0.003311465928327823</v>
       </c>
       <c r="O172" t="n">
-        <v>-0.002900696257889455</v>
+        <v>-0.002900695798340178</v>
       </c>
       <c r="P172" t="n">
-        <v>-0.0024939409853987787</v>
+        <v>-0.002493940035957482</v>
       </c>
       <c r="Q172" t="n">
-        <v>-0.002091021008053597</v>
+        <v>-0.002091019347813165</v>
       </c>
       <c r="R172" t="n">
-        <v>-0.0016918737381441471</v>
+        <v>-0.0016918710284862962</v>
       </c>
       <c r="S172" t="n">
-        <v>-0.0012964994881806075</v>
+        <v>-0.0012964953495278584</v>
       </c>
       <c r="T172" t="n">
-        <v>-9.048646485046081E-4</v>
+        <v>-9.048586415368364E-4</v>
       </c>
       <c r="U172" t="n">
-        <v>-5.167756099060993E-4</v>
+        <v>-5.16767262332686E-4</v>
       </c>
       <c r="V172" t="n">
-        <v>-1.321497995660152E-4</v>
+        <v>-1.3213860237874103E-4</v>
       </c>
       <c r="W172" t="n">
-        <v>2.4903698118700513E-4</v>
+        <v>2.4905157467829033E-4</v>
       </c>
       <c r="X172" t="n">
-        <v>6.268395137340758E-4</v>
+        <v>6.268581025539437E-4</v>
       </c>
       <c r="Y172" t="n">
-        <v>0.0010014550384830293</v>
+        <v>0.0010014782294586935</v>
       </c>
       <c r="Z172" t="n">
-        <v>0.001373051907899052</v>
+        <v>0.0013730801838900053</v>
       </c>
       <c r="AA172" t="n">
-        <v>0.0017438885218786634</v>
+        <v>0.0017439216713944338</v>
       </c>
       <c r="AB172" t="n">
-        <v>0.002121486583184967</v>
+        <v>0.0021215227331014604</v>
       </c>
       <c r="AC172" t="n">
-        <v>0.0025147038950655972</v>
+        <v>0.002514739881218059</v>
       </c>
       <c r="AD172" t="n">
-        <v>0.00293124289373766</v>
+        <v>0.0029312751001155405</v>
       </c>
       <c r="AE172" t="n">
-        <v>0.0034042504328909004</v>
+        <v>0.003404238954330052</v>
       </c>
       <c r="AF172" t="n">
-        <v>0.003976113415597933</v>
+        <v>0.003976121968419876</v>
       </c>
       <c r="AG172" t="n">
-        <v>0.004595714620459383</v>
+        <v>0.004595737211187536</v>
       </c>
       <c r="AH172" t="n">
-        <v>0.005263157551274878</v>
+        <v>0.00526319478491082</v>
       </c>
       <c r="AI172" t="n">
-        <v>0.005917024632210273</v>
+        <v>0.0059170403103208655</v>
       </c>
       <c r="AJ172" t="n">
-        <v>0.006528007426515663</v>
+        <v>0.006528023758152763</v>
       </c>
     </row>
     <row r="173">
@@ -23986,7 +23986,7 @@
         <v>5</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.0854012386689999</v>
+        <v>-0.08540302527033283</v>
       </c>
     </row>
     <row r="175">
@@ -23997,7 +23997,7 @@
         <v>5</v>
       </c>
       <c r="C175" t="n">
-        <v>0.011476551076234616</v>
+        <v>0.011476626642488249</v>
       </c>
     </row>
     <row r="176">
@@ -24008,7 +24008,7 @@
         <v>5</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.003566448356306376</v>
+        <v>-0.003566448635534054</v>
       </c>
     </row>
   </sheetData>
@@ -37117,106 +37117,106 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>0.24869339927923084</v>
+        <v>0.24869331666068603</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24869339927923156</v>
+        <v>0.248693316660687</v>
       </c>
       <c r="E12" t="n">
-        <v>0.24869339927923156</v>
+        <v>0.24869331666068725</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2486933992792312</v>
+        <v>0.24869331666068678</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2486933992792312</v>
+        <v>0.24869331666068678</v>
       </c>
       <c r="H12" t="n">
-        <v>0.248693399279231</v>
+        <v>0.24869331666068673</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2486933992792312</v>
+        <v>0.24869331666068684</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2523023444442811</v>
+        <v>0.25230222395868174</v>
       </c>
       <c r="K12" t="n">
-        <v>0.24869339927923106</v>
+        <v>0.24869331666068667</v>
       </c>
       <c r="L12" t="n">
-        <v>0.24508445411418123</v>
+        <v>0.24508440936269177</v>
       </c>
       <c r="M12" t="n">
-        <v>0.25227096951558114</v>
+        <v>0.25227080997286566</v>
       </c>
       <c r="N12" t="n">
-        <v>0.25945410550277076</v>
+        <v>0.25945373802781435</v>
       </c>
       <c r="O12" t="n">
-        <v>0.26666084308562604</v>
+        <v>0.26666015439950574</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2737023643623228</v>
+        <v>0.27370128731426885</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2805269206122436</v>
+        <v>0.28052534165681664</v>
       </c>
       <c r="R12" t="n">
-        <v>0.287295614551628</v>
+        <v>0.28729339135781484</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2940344401703754</v>
+        <v>0.29403148240627114</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3005694451500083</v>
+        <v>0.3005656696497204</v>
       </c>
       <c r="U12" t="n">
-        <v>0.3068567083901773</v>
+        <v>0.3068520526418902</v>
       </c>
       <c r="V12" t="n">
-        <v>0.3130481951063122</v>
+        <v>0.3130425923719006</v>
       </c>
       <c r="W12" t="n">
-        <v>0.3191688348681806</v>
+        <v>0.31916220440089615</v>
       </c>
       <c r="X12" t="n">
-        <v>0.3250634051911546</v>
+        <v>0.3250556930466113</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.33063003015663756</v>
+        <v>0.33062134053759584</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.3340198014972089</v>
+        <v>0.33401086845379546</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.32863659201682194</v>
+        <v>0.32862952892146935</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.30856058256398716</v>
+        <v>0.3085580380345606</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.27362965100349207</v>
+        <v>0.27363318844985507</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.2020559510208602</v>
+        <v>0.20209852797881578</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.06272670465292723</v>
+        <v>0.06274792244579365</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.06877124199286036</v>
+        <v>-0.0688018029419108</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.15450869085227498</v>
+        <v>-0.15453441821324257</v>
       </c>
       <c r="AH12" t="n">
-        <v>-0.1852459830946056</v>
+        <v>-0.18523978231498514</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.13459992016585393</v>
+        <v>-0.13458117058402766</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.09613171208893748</v>
+        <v>-0.09613288454612144</v>
       </c>
     </row>
     <row r="13">
@@ -37227,106 +37227,106 @@
         <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.8421649233279225</v>
+        <v>-1.8421642536165903</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.6160800148922578</v>
+        <v>-1.6160794202886937</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.3899951064565927</v>
+        <v>-1.3899945869607961</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.163910198020928</v>
+        <v>-1.163909753632899</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.9378252895852632</v>
+        <v>-0.937824920305002</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.7117403811495986</v>
+        <v>-0.7117400869771049</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.48565547271393406</v>
+        <v>-0.4856552536492079</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.2595705642782693</v>
+        <v>-0.25957042032131084</v>
       </c>
       <c r="K13" t="n">
         <v>-0.026923937360695586</v>
       </c>
       <c r="L13" t="n">
-        <v>0.19259925259305993</v>
+        <v>0.1925992463344831</v>
       </c>
       <c r="M13" t="n">
-        <v>0.41868416102872485</v>
+        <v>0.4186840796623804</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6512737426213893</v>
+        <v>0.6512734462851479</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8904188983064898</v>
+        <v>0.8904181488038609</v>
       </c>
       <c r="P13" t="n">
-        <v>1.1361116391407093</v>
+        <v>1.1361100906478856</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.3880595607834403</v>
+        <v>1.3880568530116224</v>
       </c>
       <c r="R13" t="n">
-        <v>1.646160585708425</v>
+        <v>1.6461561663875521</v>
       </c>
       <c r="S13" t="n">
-        <v>1.910415223604582</v>
+        <v>1.9104084736621947</v>
       </c>
       <c r="T13" t="n">
-        <v>2.180768658745471</v>
+        <v>2.1807588616716815</v>
       </c>
       <c r="U13" t="n">
-        <v>2.4569051238773243</v>
+        <v>2.456891509388959</v>
       </c>
       <c r="V13" t="n">
-        <v>2.738689946727612</v>
+        <v>2.7386716846569366</v>
       </c>
       <c r="W13" t="n">
-        <v>3.0260836604342556</v>
+        <v>3.0260598591560512</v>
       </c>
       <c r="X13" t="n">
-        <v>3.318996919215212</v>
+        <v>3.318966601749474</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.6171080335090817</v>
+        <v>3.6170702101498895</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.920142428590916</v>
+        <v>3.9200963118178294</v>
       </c>
       <c r="AA13" t="n">
-        <v>4.224416763504006</v>
+        <v>4.224362698247699</v>
       </c>
       <c r="AB13" t="n">
-        <v>4.517663504985137</v>
+        <v>4.5176045462205</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.785436004529437</v>
+        <v>4.78537731285599</v>
       </c>
       <c r="AD13" t="n">
-        <v>5.015171961355122</v>
+        <v>5.015119434311146</v>
       </c>
       <c r="AE13" t="n">
-        <v>5.152810460931001</v>
+        <v>5.152829181908382</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.129220515269536</v>
+        <v>5.129206566030771</v>
       </c>
       <c r="AG13" t="n">
-        <v>5.0277718391257995</v>
+        <v>5.027734994741271</v>
       </c>
       <c r="AH13" t="n">
-        <v>4.848295622810854</v>
+        <v>4.848234896552148</v>
       </c>
       <c r="AI13" t="n">
-        <v>4.690960960771971</v>
+        <v>4.690935390532207</v>
       </c>
       <c r="AJ13" t="n">
-        <v>4.603568495236573</v>
+        <v>4.603541859126642</v>
       </c>
     </row>
     <row r="14">
@@ -37342,7 +37342,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>0.275067275612307</v>
+        <v>0.27506609818277844</v>
       </c>
     </row>
     <row r="16">
@@ -37353,7 +37353,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1.1865012234692558</v>
+        <v>1.1864994431206333</v>
       </c>
     </row>
   </sheetData>
@@ -37614,106 +37614,106 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6680877005023759</v>
+        <v>-0.6680877463580547</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6213217248596948</v>
+        <v>-0.6213217655726838</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.574555749217014</v>
+        <v>-0.5745557847873133</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.527789773574333</v>
+        <v>-0.5277898040019424</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.48102379793165206</v>
+        <v>-0.48102382321657156</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.43425782228897114</v>
+        <v>-0.4342578424312007</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3874918466462902</v>
+        <v>-0.38749186164582994</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.3407258710036092</v>
+        <v>-0.3407258808604591</v>
       </c>
       <c r="K6" t="n">
         <v>-0.2944091815551999</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.24719391971824728</v>
+        <v>-0.24719391928971746</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.20042794407556633</v>
+        <v>-0.20042793850434665</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1541073486874249</v>
+        <v>-0.15410732839704175</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.10823561878221706</v>
+        <v>-0.10823556746316328</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06281220735050476</v>
+        <v>-0.06281210132394334</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.017817093229578612</v>
+        <v>-0.017816907826242845</v>
       </c>
       <c r="R6" t="n">
-        <v>0.026756712911697733</v>
+        <v>0.02675701550618753</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0709091761745099</v>
+        <v>0.07090963834854785</v>
       </c>
       <c r="T6" t="n">
-        <v>0.11464404983617207</v>
+        <v>0.11464472064977213</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1579829547370342</v>
+        <v>0.15798388693211105</v>
       </c>
       <c r="V6" t="n">
-        <v>0.20093511199698552</v>
+        <v>0.20093636241579818</v>
       </c>
       <c r="W6" t="n">
-        <v>0.24350322394412957</v>
+        <v>0.24350485363698107</v>
       </c>
       <c r="X6" t="n">
-        <v>0.28569340815673483</v>
+        <v>0.2856954840182395</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.3275276909803658</v>
+        <v>0.32753028077649204</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3690248727694653</v>
+        <v>0.3690280304223772</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.4104371548711664</v>
+        <v>0.41044085676318076</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.45260450525241636</v>
+        <v>0.4526085422069208</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.4965160976707652</v>
+        <v>0.49652011633731885</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.5430320830645842</v>
+        <v>0.5430356796339508</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.5958540561632922</v>
+        <v>0.5958527743227645</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.6597154718666672</v>
+        <v>0.659716426982376</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.7289079380876237</v>
+        <v>0.7289104608525595</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.8035725926520034</v>
+        <v>0.8035767746922358</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.8775474903477387</v>
+        <v>0.877549278527542</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.9477927428011159</v>
+        <v>0.947794634757797</v>
       </c>
     </row>
     <row r="7">
@@ -37724,106 +37724,106 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.09430345364757234</v>
+        <v>-0.09430346239411846</v>
       </c>
       <c r="D7" t="n">
-        <v>4.4033874724087874E-4</v>
+        <v>4.4033098161522233E-4</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09518413114205417</v>
+        <v>0.09518412435734895</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1899279235368675</v>
+        <v>0.18992791773308276</v>
       </c>
       <c r="G7" t="n">
-        <v>0.28467171593168084</v>
+        <v>0.2846717111088166</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3794155083264943</v>
+        <v>0.3794155044845505</v>
       </c>
       <c r="I7" t="n">
-        <v>0.47415930072130763</v>
+        <v>0.4741592978602843</v>
       </c>
       <c r="J7" t="n">
-        <v>0.568903093116121</v>
+        <v>0.5689030912360181</v>
       </c>
       <c r="K7" t="n">
         <v>0.6635611883297003</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7583906779057477</v>
+        <v>0.7583906779874858</v>
       </c>
       <c r="M7" t="n">
-        <v>0.853134470300561</v>
+        <v>0.8531344713632196</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9477933105359759</v>
+        <v>0.9477933144061786</v>
       </c>
       <c r="O7" t="n">
-        <v>1.0423665338369488</v>
+        <v>1.0423665436255831</v>
       </c>
       <c r="P7" t="n">
-        <v>1.1368542445404646</v>
+        <v>1.1368542647640494</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.2312602614979176</v>
+        <v>1.231260296861887</v>
       </c>
       <c r="R7" t="n">
-        <v>1.3255859178595015</v>
+        <v>1.3255859755765984</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4198312069685906</v>
+        <v>1.4198312951240086</v>
       </c>
       <c r="T7" t="n">
-        <v>1.5139968447280778</v>
+        <v>1.5139969726795606</v>
       </c>
       <c r="U7" t="n">
-        <v>1.6080869551130546</v>
+        <v>1.6080871329206334</v>
       </c>
       <c r="V7" t="n">
-        <v>1.702103296966753</v>
+        <v>1.7021035354725629</v>
       </c>
       <c r="W7" t="n">
-        <v>1.7960379301306024</v>
+        <v>1.7960382409794233</v>
       </c>
       <c r="X7" t="n">
-        <v>1.8884666796299854</v>
+        <v>1.8884670755813453</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.9753527981055128</v>
+        <v>1.9753532920851427</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.0531551124561864</v>
+        <v>2.05315571474924</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.119300727673382</v>
+        <v>2.1193014337750045</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.172252618802855</v>
+        <v>2.1722533888145454</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.211425979527561</v>
+        <v>2.211426746050994</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.2371351526367125</v>
+        <v>2.2371358386490154</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.251160219025583</v>
+        <v>2.251159974526372</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.256401836376358</v>
+        <v>2.256402018555835</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.2546927357626996</v>
+        <v>2.2546932169567504</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.249905150937662</v>
+        <v>2.249905948623111</v>
       </c>
       <c r="AI7" t="n">
-        <v>2.2456328199446967</v>
+        <v>2.2456331610234357</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2.246988743273687</v>
+        <v>2.246989104146905</v>
       </c>
     </row>
     <row r="8">
@@ -37834,106 +37834,106 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.011990779266079733</v>
+        <v>0.011990851556617879</v>
       </c>
       <c r="D8" t="n">
-        <v>0.011909577163568724</v>
+        <v>0.011909649441521905</v>
       </c>
       <c r="E8" t="n">
-        <v>0.011768451452632627</v>
+        <v>0.011768523698970098</v>
       </c>
       <c r="F8" t="n">
-        <v>0.011646316480377079</v>
+        <v>0.011646388699426807</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01153259021789323</v>
+        <v>0.011532662411899448</v>
       </c>
       <c r="H8" t="n">
-        <v>0.011442910506258916</v>
+        <v>0.011442982684151124</v>
       </c>
       <c r="I8" t="n">
-        <v>0.011365185732318967</v>
+        <v>0.011365257900928941</v>
       </c>
       <c r="J8" t="n">
-        <v>0.011301397126880565</v>
+        <v>0.011301469281013138</v>
       </c>
       <c r="K8" t="n">
-        <v>0.011258681710102221</v>
+        <v>0.011258753854061694</v>
       </c>
       <c r="L8" t="n">
-        <v>0.011219943272941705</v>
+        <v>0.01122001541658801</v>
       </c>
       <c r="M8" t="n">
-        <v>0.011211084801415831</v>
+        <v>0.011211156945315761</v>
       </c>
       <c r="N8" t="n">
-        <v>0.011211107448659033</v>
+        <v>0.011211179593645652</v>
       </c>
       <c r="O8" t="n">
-        <v>0.011220388409063994</v>
+        <v>0.011220460595988012</v>
       </c>
       <c r="P8" t="n">
-        <v>0.011257630913905631</v>
+        <v>0.011257703148191014</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.011298681116945387</v>
+        <v>0.01129875345586242</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01135734957845796</v>
+        <v>0.011357422219328447</v>
       </c>
       <c r="S8" t="n">
-        <v>0.011430477694065936</v>
+        <v>0.011430550616138506</v>
       </c>
       <c r="T8" t="n">
-        <v>0.011511855365437947</v>
+        <v>0.011511928855817682</v>
       </c>
       <c r="U8" t="n">
-        <v>0.011612157077222457</v>
+        <v>0.01161223152144693</v>
       </c>
       <c r="V8" t="n">
-        <v>0.011719322111613235</v>
+        <v>0.01171939739981073</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01184010036803407</v>
+        <v>0.011840177333141499</v>
       </c>
       <c r="X8" t="n">
-        <v>0.011976487618177037</v>
+        <v>0.011976566607656567</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.012116585419782711</v>
+        <v>0.012116666218372018</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.012274328194305155</v>
+        <v>0.012274412566115405</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.012444095622358774</v>
+        <v>0.012444183253322477</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.01262318954002282</v>
+        <v>0.01262328057362457</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.012830474290091326</v>
+        <v>0.012830566294832367</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.013062722764401995</v>
+        <v>0.013062813875681008</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.013345516251875288</v>
+        <v>0.013345581543920798</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.01371046718747764</v>
+        <v>0.01371054476570381</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.014143675055051397</v>
+        <v>0.014143763232268578</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.014634211727148893</v>
+        <v>0.014634308295319884</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.014857553665198418</v>
+        <v>0.014857638687318186</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.014923769941233124</v>
+        <v>0.014923855302699967</v>
       </c>
     </row>
     <row r="9">
@@ -37944,106 +37944,106 @@
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>0.061346914597375235</v>
+        <v>0.06134692838612599</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0579480789547082</v>
+        <v>0.057948092741058485</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05431084646928968</v>
+        <v>0.054310860249609565</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05126777404050252</v>
+        <v>0.05126778781561752</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04890881880788244</v>
+        <v>0.048908832578220617</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04716620522192075</v>
+        <v>0.047166218989185334</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04610677903097541</v>
+        <v>0.046106792796469495</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04571772987091166</v>
+        <v>0.04571774363364432</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04602781673861007</v>
+        <v>0.046027830499402296</v>
       </c>
       <c r="L9" t="n">
-        <v>0.047049766718681864</v>
+        <v>0.04704978047941436</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04877833643343651</v>
+        <v>0.04877835019421737</v>
       </c>
       <c r="N9" t="n">
-        <v>0.05126672183561719</v>
+        <v>0.05126673559660533</v>
       </c>
       <c r="O9" t="n">
-        <v>0.05445717920931923</v>
+        <v>0.054457192978306555</v>
       </c>
       <c r="P9" t="n">
-        <v>0.05845923576028238</v>
+        <v>0.058459249538303434</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.06316086730256827</v>
+        <v>0.06316088110054684</v>
       </c>
       <c r="R9" t="n">
-        <v>0.06871653617740706</v>
+        <v>0.06871655003298045</v>
       </c>
       <c r="S9" t="n">
-        <v>0.07498132050683332</v>
+        <v>0.07498133441604342</v>
       </c>
       <c r="T9" t="n">
-        <v>0.08213242054400215</v>
+        <v>0.08213243456161157</v>
       </c>
       <c r="U9" t="n">
-        <v>0.09000708921525263</v>
+        <v>0.09000710341479912</v>
       </c>
       <c r="V9" t="n">
-        <v>0.09881887900558091</v>
+        <v>0.09881889336610743</v>
       </c>
       <c r="W9" t="n">
-        <v>0.10838047908861513</v>
+        <v>0.10838049376899668</v>
       </c>
       <c r="X9" t="n">
-        <v>0.11886651392288544</v>
+        <v>0.11886652898939723</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.13014776141851384</v>
+        <v>0.13014777683009657</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.14231556647548432</v>
+        <v>0.14231558256862584</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.15537194751937056</v>
+        <v>0.15537196423416544</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.16932466803118032</v>
+        <v>0.1693246853949969</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.18114021655134924</v>
+        <v>0.18114023410040161</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.18785269046568925</v>
+        <v>0.18785270784432206</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.1933793394699964</v>
+        <v>0.19337935192384947</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.1986254460615589</v>
+        <v>0.19862546085888722</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.2038826697756049</v>
+        <v>0.20388268659459255</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.2092543051720371</v>
+        <v>0.20925432359152152</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.2147361882480436</v>
+        <v>0.21473620446522568</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.22044288673690846</v>
+        <v>0.22044290301881783</v>
       </c>
     </row>
     <row r="10">
@@ -38054,106 +38054,106 @@
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0034486856731457713</v>
+        <v>0.0034486856659789937</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0034559947210773337</v>
+        <v>0.0034559947147143064</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003463303769008896</v>
+        <v>0.0034633037634496187</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0034706128169404585</v>
+        <v>0.003470612812184932</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0034779218648720205</v>
+        <v>0.003477921860920244</v>
       </c>
       <c r="H10" t="n">
-        <v>0.003485230912803583</v>
+        <v>0.003485230909655557</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0034925399607351453</v>
+        <v>0.003492539958390869</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0034998490086667077</v>
+        <v>0.0034998490071261818</v>
       </c>
       <c r="K10" t="n">
         <v>0.0035070878377204684</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003514467104529832</v>
+        <v>0.0035144671045968068</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0035217761524613945</v>
+        <v>0.0035217761533321195</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00373910142960032</v>
+        <v>0.003739101611295619</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004149871281733987</v>
+        <v>0.004149871741283264</v>
       </c>
       <c r="P10" t="n">
-        <v>0.004556626554224664</v>
+        <v>0.00455662750366596</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.004959546531569845</v>
+        <v>0.004959548191810277</v>
       </c>
       <c r="R10" t="n">
-        <v>0.005358693801479295</v>
+        <v>0.005358696511137146</v>
       </c>
       <c r="S10" t="n">
-        <v>0.005754068051442835</v>
+        <v>0.005754072190095584</v>
       </c>
       <c r="T10" t="n">
-        <v>0.006145702891118834</v>
+        <v>0.006145708898086606</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006533791929717343</v>
+        <v>0.006533800277290756</v>
       </c>
       <c r="V10" t="n">
-        <v>0.006918417740057426</v>
+        <v>0.006918428937244701</v>
       </c>
       <c r="W10" t="n">
-        <v>0.007299604520810447</v>
+        <v>0.007299619114301732</v>
       </c>
       <c r="X10" t="n">
-        <v>0.007677407053357518</v>
+        <v>0.007677425642177386</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.008052022578106471</v>
+        <v>0.008052045769082136</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.008423619447522495</v>
+        <v>0.008423647723513446</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.008794456061502105</v>
+        <v>0.008794489211017876</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.009172054122808408</v>
+        <v>0.009172090272724902</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.009565271434689038</v>
+        <v>0.0095653074208415</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.009981810433361101</v>
+        <v>0.009981842639738982</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.010454817972514342</v>
+        <v>0.010454806493953493</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.011026680955221375</v>
+        <v>0.011026689508043318</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.011646282160082826</v>
+        <v>0.011646304750810979</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.012313725090898321</v>
+        <v>0.012313762324534263</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.012967592171833714</v>
+        <v>0.012967607849944308</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.013578574966139106</v>
+        <v>0.013578591297776204</v>
       </c>
     </row>
     <row r="11">
@@ -38174,106 +38174,106 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.050384470460653585</v>
+        <v>-0.05038437902288789</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.04264294281434161</v>
+        <v>-0.04264285787413563</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.03639261604740915</v>
+        <v>-0.03639253772680204</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03144065800983245</v>
+        <v>-0.03144058641315342</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.025538351935331827</v>
+        <v>-0.02553828716361195</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.022811831920316994</v>
+        <v>-0.022811774066835155</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.021306603351617937</v>
+        <v>-0.021306552506449472</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.020998380710931047</v>
+        <v>-0.020998336965223213</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.021334320663983664</v>
+        <v>-0.021334289535497042</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.02384464288526711</v>
+        <v>-0.023844613577686635</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.026935989516023363</v>
+        <v>-0.026935967539652057</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.03054289257975193</v>
+        <v>-0.030542889206319118</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.03463233675652498</v>
+        <v>-0.03463237134953097</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.039165154655380036</v>
+        <v>-0.03916525555651332</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.04415062332709167</v>
+        <v>-0.044150820381155656</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.04952308649349714</v>
+        <v>-0.04952342549813764</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.055266829991294605</v>
+        <v>-0.05526736274569023</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.0613127822141577</v>
+        <v>-0.06131356889482015</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.06767045798620769</v>
+        <v>-0.06767156364710258</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.07427097992551637</v>
+        <v>-0.07427247510985441</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.08110681077269061</v>
+        <v>-0.08110877126883737</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.08817756574411995</v>
+        <v>-0.08818007486076973</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.09563737635588643</v>
+        <v>-0.09564051878992119</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.10339052719664493</v>
+        <v>-0.1033943705306552</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.11104955895129714</v>
+        <v>-0.11105407616184049</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.11973564695312366</v>
+        <v>-0.11974058295110768</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.12835893980586177</v>
+        <v>-0.12836386138880618</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.14229045429680626</v>
+        <v>-0.14229486447039225</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.16383158268248993</v>
+        <v>-0.16383000411539322</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.1980764814669264</v>
+        <v>-0.19807765347573197</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.24326284082619481</v>
+        <v>-0.243265942604388</v>
       </c>
       <c r="AH13" t="n">
-        <v>-0.29498116410715264</v>
+        <v>-0.2949863085418865</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.34542911810022214</v>
+        <v>-0.34543131933247373</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.39067676003443896</v>
+        <v>-0.3906790894547352</v>
       </c>
     </row>
     <row r="14">
@@ -38299,106 +38299,106 @@
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.8420827653177303</v>
+        <v>-0.8420828111734091</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7953167896750493</v>
+        <v>-0.7953168303880382</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.7485508140323685</v>
+        <v>-0.7485508496026677</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7017848383896874</v>
+        <v>-0.7017848688172968</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.6550188627470066</v>
+        <v>-0.655018888031926</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.6082528871043256</v>
+        <v>-0.6082529072465551</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5614869114616446</v>
+        <v>-0.5614869264611844</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.5147209358189637</v>
+        <v>-0.5147209456758135</v>
       </c>
       <c r="K17" t="n">
         <v>-0.46840424637055433</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.42118898453360176</v>
+        <v>-0.4211889841050719</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.3744230088909208</v>
+        <v>-0.3744230033197011</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.32810241350277936</v>
+        <v>-0.3281023932123962</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.28223068359757153</v>
+        <v>-0.28223063227851775</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.23680727216585923</v>
+        <v>-0.2368071661392978</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.19181215804493307</v>
+        <v>-0.1918119726415973</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.14723835190365672</v>
+        <v>-0.14723804930916692</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.10308588864084456</v>
+        <v>-0.1030854264668066</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.05935101497918238</v>
+        <v>-0.059350344165582325</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.016012110078320263</v>
+        <v>-0.01601117788324341</v>
       </c>
       <c r="V17" t="n">
-        <v>0.026940047181631066</v>
+        <v>0.026941297600443725</v>
       </c>
       <c r="W17" t="n">
-        <v>0.06950815912877512</v>
+        <v>0.06950978882162662</v>
       </c>
       <c r="X17" t="n">
-        <v>0.11169834334138035</v>
+        <v>0.11170041920288504</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.15353262616501134</v>
+        <v>0.15353521596113756</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.1950298079541108</v>
+        <v>0.1950329656070227</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.2364420900558119</v>
+        <v>0.23644579194782628</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.2786094404370619</v>
+        <v>0.27861347739156633</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.3225210328554107</v>
+        <v>0.32252505152196437</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.3690370182492297</v>
+        <v>0.36904061481859635</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.42185899134793775</v>
+        <v>0.42185770950741003</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.48572040705131275</v>
+        <v>0.4857213621670215</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.5549128732722692</v>
+        <v>0.5549153960372051</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.6294479485473248</v>
+        <v>0.6294521065235839</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.7024669825478718</v>
+        <v>0.7024687333813446</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.7708663536447613</v>
+        <v>0.7708681899501739</v>
       </c>
     </row>
     <row r="18">
@@ -38409,106 +38409,106 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1274914010926885</v>
+        <v>-0.1274914098392346</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.03274760869787527</v>
+        <v>-0.03274761646350091</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06199618369693802</v>
+        <v>0.0619961769122328</v>
       </c>
       <c r="F18" t="n">
-        <v>0.15673997609175133</v>
+        <v>0.1567399702879666</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2514837684865647</v>
+        <v>0.25148376366370045</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3462275608813781</v>
+        <v>0.34622755703943436</v>
       </c>
       <c r="I18" t="n">
-        <v>0.44097135327619147</v>
+        <v>0.44097135041516816</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5357151456710048</v>
+        <v>0.535715143790902</v>
       </c>
       <c r="K18" t="n">
         <v>0.6303732408845842</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7252027304606316</v>
+        <v>0.7252027305423696</v>
       </c>
       <c r="M18" t="n">
-        <v>0.8199465228554449</v>
+        <v>0.8199465239181034</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9146053630908597</v>
+        <v>0.9146053669610624</v>
       </c>
       <c r="O18" t="n">
-        <v>1.0091785863918328</v>
+        <v>1.009178596180467</v>
       </c>
       <c r="P18" t="n">
-        <v>1.1036662970953484</v>
+        <v>1.1036663173189332</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.1980723140528013</v>
+        <v>1.1980723494167709</v>
       </c>
       <c r="R18" t="n">
-        <v>1.2923979704143853</v>
+        <v>1.2923980281314822</v>
       </c>
       <c r="S18" t="n">
-        <v>1.3866432595234743</v>
+        <v>1.3866433476788924</v>
       </c>
       <c r="T18" t="n">
-        <v>1.4808088972829618</v>
+        <v>1.4808090252344444</v>
       </c>
       <c r="U18" t="n">
-        <v>1.5748990076679383</v>
+        <v>1.5748991854755174</v>
       </c>
       <c r="V18" t="n">
-        <v>1.668915349521637</v>
+        <v>1.6689155880274469</v>
       </c>
       <c r="W18" t="n">
-        <v>1.7628499826854864</v>
+        <v>1.7628502935343071</v>
       </c>
       <c r="X18" t="n">
-        <v>1.8552787321848692</v>
+        <v>1.855279128136229</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.9421648506603966</v>
+        <v>1.9421653446400267</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.0199671650110704</v>
+        <v>2.019967767304124</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.0861127802282655</v>
+        <v>2.0861134863298885</v>
       </c>
       <c r="AB18" t="n">
-        <v>2.139064671357739</v>
+        <v>2.139065441369429</v>
       </c>
       <c r="AC18" t="n">
-        <v>2.178238032082445</v>
+        <v>2.1782387986058778</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.203947205191596</v>
+        <v>2.203947891203899</v>
       </c>
       <c r="AE18" t="n">
-        <v>2.217972271580467</v>
+        <v>2.217972027081256</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.223213888931242</v>
+        <v>2.223214071110719</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.221504788317583</v>
+        <v>2.2215052695116344</v>
       </c>
       <c r="AH18" t="n">
-        <v>2.2166924874429923</v>
+        <v>2.2166932805384616</v>
       </c>
       <c r="AI18" t="n">
-        <v>2.2122378343013254</v>
+        <v>2.2122381682565977</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2.2132416728541524</v>
+        <v>2.213242023112406</v>
       </c>
     </row>
     <row r="19">
@@ -38519,106 +38519,106 @@
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>0.013150779266079732</v>
+        <v>0.013150851556617878</v>
       </c>
       <c r="D19" t="n">
-        <v>0.013069577163568723</v>
+        <v>0.013069649441521905</v>
       </c>
       <c r="E19" t="n">
-        <v>0.012928451452632626</v>
+        <v>0.012928523698970098</v>
       </c>
       <c r="F19" t="n">
-        <v>0.012806316480377078</v>
+        <v>0.012806388699426807</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01269259021789323</v>
+        <v>0.012692662411899447</v>
       </c>
       <c r="H19" t="n">
-        <v>0.012602910506258915</v>
+        <v>0.012602982684151123</v>
       </c>
       <c r="I19" t="n">
-        <v>0.012525185732318967</v>
+        <v>0.01252525790092894</v>
       </c>
       <c r="J19" t="n">
-        <v>0.012461397126880564</v>
+        <v>0.012461469281013137</v>
       </c>
       <c r="K19" t="n">
-        <v>0.012418681710102221</v>
+        <v>0.012418753854061694</v>
       </c>
       <c r="L19" t="n">
-        <v>0.012379943272941705</v>
+        <v>0.01238001541658801</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01237108480141583</v>
+        <v>0.012371156945315761</v>
       </c>
       <c r="N19" t="n">
-        <v>0.012371107448659033</v>
+        <v>0.012371179593645651</v>
       </c>
       <c r="O19" t="n">
-        <v>0.012380388409063994</v>
+        <v>0.012380460595988012</v>
       </c>
       <c r="P19" t="n">
-        <v>0.01241763091390563</v>
+        <v>0.012417703148191014</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.012458681116945387</v>
+        <v>0.01245875345586242</v>
       </c>
       <c r="R19" t="n">
-        <v>0.01251734957845796</v>
+        <v>0.012517422219328446</v>
       </c>
       <c r="S19" t="n">
-        <v>0.012590477694065936</v>
+        <v>0.012590550616138505</v>
       </c>
       <c r="T19" t="n">
-        <v>0.012671855365437946</v>
+        <v>0.012671928855817681</v>
       </c>
       <c r="U19" t="n">
-        <v>0.012772157077222457</v>
+        <v>0.01277223152144693</v>
       </c>
       <c r="V19" t="n">
-        <v>0.012879322111613235</v>
+        <v>0.01287939739981073</v>
       </c>
       <c r="W19" t="n">
-        <v>0.013000100368034069</v>
+        <v>0.013000177333141499</v>
       </c>
       <c r="X19" t="n">
-        <v>0.013136487618177036</v>
+        <v>0.013136566607656566</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.01327658541978271</v>
+        <v>0.013276666218372018</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.013434328194305154</v>
+        <v>0.013434412566115404</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.013604095622358774</v>
+        <v>0.013604183253322476</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01378318954002282</v>
+        <v>0.01378328057362457</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.013990474290091325</v>
+        <v>0.013990566294832366</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.014222722764401995</v>
+        <v>0.014222813875681008</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.014505516251875288</v>
+        <v>0.014505581543920797</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.01487046718747764</v>
+        <v>0.014870544765703809</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.015303675055051397</v>
+        <v>0.015303763232268577</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.015794211727148892</v>
+        <v>0.015794308295319883</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.016017553665198418</v>
+        <v>0.016017638687318186</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.016083769941233124</v>
+        <v>0.016083855302699967</v>
       </c>
     </row>
     <row r="20">
@@ -38629,106 +38629,106 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06156817385594782</v>
+        <v>0.061568187644698576</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05816933821328079</v>
+        <v>0.05816935199963107</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05453210572786227</v>
+        <v>0.054532119508182146</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05148903329907511</v>
+        <v>0.0514890470741901</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04913007806645502</v>
+        <v>0.04913009183679321</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04738746448049334</v>
+        <v>0.04738747824775792</v>
       </c>
       <c r="I20" t="n">
-        <v>0.046328038289548</v>
+        <v>0.046328052055042084</v>
       </c>
       <c r="J20" t="n">
-        <v>0.045938989129484256</v>
+        <v>0.045939002892216904</v>
       </c>
       <c r="K20" t="n">
-        <v>0.046249075997182656</v>
+        <v>0.046249089757974884</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04727102597725445</v>
+        <v>0.04727103973798695</v>
       </c>
       <c r="M20" t="n">
-        <v>0.04899959569200909</v>
+        <v>0.048999609452789965</v>
       </c>
       <c r="N20" t="n">
-        <v>0.051487981094189776</v>
+        <v>0.05148799485517792</v>
       </c>
       <c r="O20" t="n">
-        <v>0.054678438467891825</v>
+        <v>0.05467845223687914</v>
       </c>
       <c r="P20" t="n">
-        <v>0.058680495018854965</v>
+        <v>0.05868050879687602</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.06338212656114085</v>
+        <v>0.06338214035911943</v>
       </c>
       <c r="R20" t="n">
-        <v>0.06893779543597964</v>
+        <v>0.06893780929155303</v>
       </c>
       <c r="S20" t="n">
-        <v>0.07520257976540591</v>
+        <v>0.075202593674616</v>
       </c>
       <c r="T20" t="n">
-        <v>0.08235367980257473</v>
+        <v>0.08235369382018415</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09022834847382523</v>
+        <v>0.0902283626733717</v>
       </c>
       <c r="V20" t="n">
-        <v>0.09904013826415349</v>
+        <v>0.09904015262468001</v>
       </c>
       <c r="W20" t="n">
-        <v>0.10860173834718771</v>
+        <v>0.10860175302756928</v>
       </c>
       <c r="X20" t="n">
-        <v>0.11908777318145804</v>
+        <v>0.11908778824796983</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.13036902067708642</v>
+        <v>0.13036903608866915</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.1425368257340569</v>
+        <v>0.14253684182719845</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.15559320677794314</v>
+        <v>0.15559322349273802</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.1695459272897529</v>
+        <v>0.16954594465356948</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.18136147580992182</v>
+        <v>0.18136149335897422</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.18807394972426186</v>
+        <v>0.18807396710289465</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.19360059872856897</v>
+        <v>0.19360061118242206</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.19884670532013154</v>
+        <v>0.1988467201174598</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.20410392903417748</v>
+        <v>0.20410394585316513</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.2094755644306097</v>
+        <v>0.2094755828500941</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.21495744750661622</v>
+        <v>0.21495746372379826</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.22066414599548104</v>
+        <v>0.2206641622773904</v>
       </c>
     </row>
     <row r="21">
@@ -38739,106 +38739,106 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0.013207285105174686</v>
+        <v>0.013207285098007908</v>
       </c>
       <c r="D21" t="n">
-        <v>0.013214594153106248</v>
+        <v>0.013214594146743221</v>
       </c>
       <c r="E21" t="n">
-        <v>0.013221903201037812</v>
+        <v>0.013221903195478535</v>
       </c>
       <c r="F21" t="n">
-        <v>0.013229212248969374</v>
+        <v>0.013229212244213846</v>
       </c>
       <c r="G21" t="n">
-        <v>0.013236521296900935</v>
+        <v>0.013236521292949159</v>
       </c>
       <c r="H21" t="n">
-        <v>0.013243830344832497</v>
+        <v>0.013243830341684472</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01325113939276406</v>
+        <v>0.013251139390419784</v>
       </c>
       <c r="J21" t="n">
-        <v>0.013258448440695623</v>
+        <v>0.013258448439155097</v>
       </c>
       <c r="K21" t="n">
         <v>0.013265687269749383</v>
       </c>
       <c r="L21" t="n">
-        <v>0.013273066536558747</v>
+        <v>0.013273066536625721</v>
       </c>
       <c r="M21" t="n">
-        <v>0.013280375584490309</v>
+        <v>0.013280375585361034</v>
       </c>
       <c r="N21" t="n">
-        <v>0.013497700861629235</v>
+        <v>0.013497701043324534</v>
       </c>
       <c r="O21" t="n">
-        <v>0.013908470713762902</v>
+        <v>0.01390847117331218</v>
       </c>
       <c r="P21" t="n">
-        <v>0.014315225986253578</v>
+        <v>0.014315226935694876</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01471814596359876</v>
+        <v>0.014718147623839191</v>
       </c>
       <c r="R21" t="n">
-        <v>0.01511729323350821</v>
+        <v>0.01511729594316606</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01551266748347175</v>
+        <v>0.015512671622124498</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01590430232314775</v>
+        <v>0.01590430833011552</v>
       </c>
       <c r="U21" t="n">
-        <v>0.016292391361746258</v>
+        <v>0.01629239970931967</v>
       </c>
       <c r="V21" t="n">
-        <v>0.01667701717208634</v>
+        <v>0.016677028369273615</v>
       </c>
       <c r="W21" t="n">
-        <v>0.017058203952839364</v>
+        <v>0.017058218546330647</v>
       </c>
       <c r="X21" t="n">
-        <v>0.017436006485386433</v>
+        <v>0.0174360250742063</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.017810622010135387</v>
+        <v>0.01781064520111105</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.01818221887955141</v>
+        <v>0.018182247155542362</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.01855305549353102</v>
+        <v>0.01855308864304679</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.018930653554837324</v>
+        <v>0.01893068970475382</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.019323870866717954</v>
+        <v>0.019323906852870415</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.019740409865390017</v>
+        <v>0.019740442071767898</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.020213417404543257</v>
+        <v>0.02021340592598241</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.02078528038725029</v>
+        <v>0.020785288940072234</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.021404881592111742</v>
+        <v>0.02140490418283989</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.022072324522927234</v>
+        <v>0.02207236175656318</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.02272619160386263</v>
+        <v>0.02272620728197322</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.02333717439816802</v>
+        <v>0.02333719072980512</v>
       </c>
     </row>
     <row r="22">
@@ -38859,106 +38859,106 @@
         <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>0.14112464200476443</v>
+        <v>0.14112473344253035</v>
       </c>
       <c r="D24" t="n">
-        <v>0.15040670961132657</v>
+        <v>0.15040679455153255</v>
       </c>
       <c r="E24" t="n">
-        <v>0.15814931185216577</v>
+        <v>0.15814939017277266</v>
       </c>
       <c r="F24" t="n">
-        <v>0.16454490520493556</v>
+        <v>0.16454497680161437</v>
       </c>
       <c r="G24" t="n">
-        <v>0.17184184300844496</v>
+        <v>0.17184190778016495</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1759136400752051</v>
+        <v>0.17591369792868677</v>
       </c>
       <c r="I24" t="n">
-        <v>0.17871445235208233</v>
+        <v>0.17871450319725074</v>
       </c>
       <c r="J24" t="n">
-        <v>0.18026823920110988</v>
+        <v>0.1802682829468176</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1811275303924319</v>
+        <v>0.1811275615209187</v>
       </c>
       <c r="L24" t="n">
-        <v>0.17976180535850894</v>
+        <v>0.17976183466608942</v>
       </c>
       <c r="M24" t="n">
-        <v>0.17776413381187747</v>
+        <v>0.17776415578824875</v>
       </c>
       <c r="N24" t="n">
-        <v>0.17519970840218435</v>
+        <v>0.17519971177561722</v>
       </c>
       <c r="O24" t="n">
-        <v>0.17210128201118322</v>
+        <v>0.1721012474181772</v>
       </c>
       <c r="P24" t="n">
-        <v>0.1685077725464082</v>
+        <v>0.16850767164527497</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.16440966649121008</v>
+        <v>0.16440946943714613</v>
       </c>
       <c r="R24" t="n">
-        <v>0.15987239673495818</v>
+        <v>0.15987205773031765</v>
       </c>
       <c r="S24" t="n">
-        <v>0.15491146718547963</v>
+        <v>0.154910934431084</v>
       </c>
       <c r="T24" t="n">
-        <v>0.14959575237987563</v>
+        <v>0.14959496569921316</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1439155536606603</v>
+        <v>0.14391444799976538</v>
       </c>
       <c r="V24" t="n">
-        <v>0.13793957785853672</v>
+        <v>0.13793808267419871</v>
       </c>
       <c r="W24" t="n">
-        <v>0.131675205006748</v>
+        <v>0.1316732445106013</v>
       </c>
       <c r="X24" t="n">
-        <v>0.1251226760274102</v>
+        <v>0.1251201669107604</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.11812772894381904</v>
+        <v>0.11812458650978422</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.11078596214041248</v>
+        <v>0.11078211880640224</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.10348473136855751</v>
+        <v>0.10348021415801412</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.09510277122048924</v>
+        <v>0.09509783522250528</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.08672985652991014</v>
+        <v>0.08672493494696568</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.07299490747816134</v>
+        <v>0.07299049730457546</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.05159648232441233</v>
+        <v>0.051598060891509034</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.017440388639874127</v>
+        <v>0.017439216631068788</v>
       </c>
       <c r="AG24" t="n">
-        <v>-0.02771108610774181</v>
+        <v>-0.02771418788593477</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.07928892336101007</v>
+        <v>-0.079294038169542</v>
       </c>
       <c r="AI24" t="n">
-        <v>-0.12863335507551676</v>
+        <v>-0.12863551033987897</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-0.1717376172709515</v>
+        <v>-0.17173987822598358</v>
       </c>
     </row>
     <row r="25">
@@ -38984,106 +38984,106 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.9854877532215175</v>
+        <v>-0.9854877990771964</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.9387217775788365</v>
+        <v>-0.9387218182918255</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.8919558019361558</v>
+        <v>-0.8919558375064549</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.8451898262934747</v>
+        <v>-0.845189856721084</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7984238506507937</v>
+        <v>-0.7984238759357132</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.7516578750081128</v>
+        <v>-0.7516578951503423</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.7048918993654318</v>
+        <v>-0.7048919143649716</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.6581259237227508</v>
+        <v>-0.6581259335796008</v>
       </c>
       <c r="K28" t="n">
         <v>-0.6118092342743415</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.564593972437389</v>
+        <v>-0.5645939720088591</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.517827996794708</v>
+        <v>-0.5178279912234883</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.47150740140656655</v>
+        <v>-0.4715073811161834</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.4256356715013587</v>
+        <v>-0.42563562018230494</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.3802122600696464</v>
+        <v>-0.380212154043085</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.33521714594872026</v>
+        <v>-0.3352169605453845</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.29064333980744395</v>
+        <v>-0.29064303721295415</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.24649087654463175</v>
+        <v>-0.2464904143705938</v>
       </c>
       <c r="T28" t="n">
-        <v>-0.20275600288296958</v>
+        <v>-0.20275533206936952</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.15941709798210746</v>
+        <v>-0.1594161657870306</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.11646494072215613</v>
+        <v>-0.11646369030334347</v>
       </c>
       <c r="W28" t="n">
-        <v>-0.07389682877501208</v>
+        <v>-0.07389519908216058</v>
       </c>
       <c r="X28" t="n">
-        <v>-0.03170664456240685</v>
+        <v>-0.03170456870090216</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.010127638261224148</v>
+        <v>0.010130228057350366</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.051624820050323594</v>
+        <v>0.05162797770323552</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.09303710215202471</v>
+        <v>0.09304080404403908</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.13520445253327468</v>
+        <v>0.13520848948777914</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.17911604495162353</v>
+        <v>0.17912006361817717</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.2256320303454425</v>
+        <v>0.22563562691480915</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.27845400344415056</v>
+        <v>0.27845272160362283</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.34231541914752556</v>
+        <v>0.3423163742632343</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.411507885368482</v>
+        <v>0.4115104081334178</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.48604296064353764</v>
+        <v>0.4860471186197967</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.5590619857126335</v>
+        <v>0.5590637365277198</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.6272920117759526</v>
+        <v>0.627293835572035</v>
       </c>
     </row>
     <row r="29">
@@ -39094,106 +39094,106 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.1548445746264841</v>
+        <v>-0.15484458337303025</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.060100782231670896</v>
+        <v>-0.060100789997296566</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03464301016314236</v>
+        <v>0.034643003378437176</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1293868025579557</v>
+        <v>0.12938679675417097</v>
       </c>
       <c r="G29" t="n">
-        <v>0.22413059495276907</v>
+        <v>0.22413059012990483</v>
       </c>
       <c r="H29" t="n">
-        <v>0.3188743873475825</v>
+        <v>0.31887438350563874</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4136181797423959</v>
+        <v>0.4136181768813726</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5083619721372092</v>
+        <v>0.5083619702571063</v>
       </c>
       <c r="K29" t="n">
         <v>0.6030200673507886</v>
       </c>
       <c r="L29" t="n">
-        <v>0.6978495569268359</v>
+        <v>0.697849557008574</v>
       </c>
       <c r="M29" t="n">
-        <v>0.7925933493216493</v>
+        <v>0.7925933503843078</v>
       </c>
       <c r="N29" t="n">
-        <v>0.8872521895570642</v>
+        <v>0.8872521934272668</v>
       </c>
       <c r="O29" t="n">
-        <v>0.981825412858037</v>
+        <v>0.9818254226466714</v>
       </c>
       <c r="P29" t="n">
-        <v>1.0763131235615528</v>
+        <v>1.0763131437851376</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.1707191405190058</v>
+        <v>1.1707191758829751</v>
       </c>
       <c r="R29" t="n">
-        <v>1.2650447968805896</v>
+        <v>1.2650448545976867</v>
       </c>
       <c r="S29" t="n">
-        <v>1.3592900859896786</v>
+        <v>1.3592901741450967</v>
       </c>
       <c r="T29" t="n">
-        <v>1.453455723749166</v>
+        <v>1.4534558517006486</v>
       </c>
       <c r="U29" t="n">
-        <v>1.5475458341341428</v>
+        <v>1.5475460119417217</v>
       </c>
       <c r="V29" t="n">
-        <v>1.6415621759878414</v>
+        <v>1.6415624144936511</v>
       </c>
       <c r="W29" t="n">
-        <v>1.7354968091516907</v>
+        <v>1.7354971200005114</v>
       </c>
       <c r="X29" t="n">
-        <v>1.8279255586510736</v>
+        <v>1.8279259546024336</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.914811677126601</v>
+        <v>1.914812171106231</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.992613991477275</v>
+        <v>1.9926145937703283</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.05875960669447</v>
+        <v>2.058760312796093</v>
       </c>
       <c r="AB29" t="n">
-        <v>2.1117114978239435</v>
+        <v>2.1117122678356335</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.1508848585486495</v>
+        <v>2.1508856250720823</v>
       </c>
       <c r="AD29" t="n">
-        <v>2.1765940316578005</v>
+        <v>2.1765947176701035</v>
       </c>
       <c r="AE29" t="n">
-        <v>2.1906190980466715</v>
+        <v>2.1906188535474604</v>
       </c>
       <c r="AF29" t="n">
-        <v>2.1958607153974463</v>
+        <v>2.1958608975769236</v>
       </c>
       <c r="AG29" t="n">
-        <v>2.1941516147837876</v>
+        <v>2.194152095977839</v>
       </c>
       <c r="AH29" t="n">
-        <v>2.189339313909197</v>
+        <v>2.1893401070046656</v>
       </c>
       <c r="AI29" t="n">
-        <v>2.184884659063938</v>
+        <v>2.1848849930157033</v>
       </c>
       <c r="AJ29" t="n">
-        <v>2.1858561966197216</v>
+        <v>2.1858565444919362</v>
       </c>
     </row>
     <row r="30">
@@ -39204,106 +39204,106 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>0.015090779266079733</v>
+        <v>0.01509085155661788</v>
       </c>
       <c r="D30" t="n">
-        <v>0.015009577163568724</v>
+        <v>0.015009649441521906</v>
       </c>
       <c r="E30" t="n">
-        <v>0.014868451452632627</v>
+        <v>0.014868523698970099</v>
       </c>
       <c r="F30" t="n">
-        <v>0.014746316480377079</v>
+        <v>0.014746388699426807</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01463259021789323</v>
+        <v>0.014632662411899448</v>
       </c>
       <c r="H30" t="n">
-        <v>0.014542910506258916</v>
+        <v>0.014542982684151124</v>
       </c>
       <c r="I30" t="n">
-        <v>0.014465185732318968</v>
+        <v>0.014465257900928941</v>
       </c>
       <c r="J30" t="n">
-        <v>0.014401397126880565</v>
+        <v>0.014401469281013138</v>
       </c>
       <c r="K30" t="n">
-        <v>0.014358681710102222</v>
+        <v>0.014358753854061695</v>
       </c>
       <c r="L30" t="n">
-        <v>0.014319943272941706</v>
+        <v>0.01432001541658801</v>
       </c>
       <c r="M30" t="n">
-        <v>0.014311084801415831</v>
+        <v>0.014311156945315762</v>
       </c>
       <c r="N30" t="n">
-        <v>0.014311107448659034</v>
+        <v>0.014311179593645652</v>
       </c>
       <c r="O30" t="n">
-        <v>0.014320388409063994</v>
+        <v>0.014320460595988013</v>
       </c>
       <c r="P30" t="n">
-        <v>0.014357630913905631</v>
+        <v>0.014357703148191014</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.014398681116945387</v>
+        <v>0.014398753455862421</v>
       </c>
       <c r="R30" t="n">
-        <v>0.01445734957845796</v>
+        <v>0.014457422219328447</v>
       </c>
       <c r="S30" t="n">
-        <v>0.014530477694065937</v>
+        <v>0.014530550616138506</v>
       </c>
       <c r="T30" t="n">
-        <v>0.014611855365437947</v>
+        <v>0.014611928855817682</v>
       </c>
       <c r="U30" t="n">
-        <v>0.014712157077222458</v>
+        <v>0.01471223152144693</v>
       </c>
       <c r="V30" t="n">
-        <v>0.014819322111613235</v>
+        <v>0.014819397399810731</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01494010036803407</v>
+        <v>0.0149401773331415</v>
       </c>
       <c r="X30" t="n">
-        <v>0.015076487618177037</v>
+        <v>0.015076566607656567</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.015216585419782712</v>
+        <v>0.015216666218372019</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.015374328194305155</v>
+        <v>0.015374412566115405</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.015544095622358775</v>
+        <v>0.015544183253322477</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.01572318954002282</v>
+        <v>0.01572328057362457</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.015930474290091326</v>
+        <v>0.015930566294832367</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.016162722764401994</v>
+        <v>0.01616281387568101</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.01644551625187529</v>
+        <v>0.016445581543920798</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.01681046718747764</v>
+        <v>0.01681054476570381</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.017243675055051397</v>
+        <v>0.017243763232268578</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.017734211727148893</v>
+        <v>0.017734308295319884</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.01795755366519842</v>
+        <v>0.017957638687318186</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.018023769941233125</v>
+        <v>0.018023855302699968</v>
       </c>
     </row>
     <row r="31">
@@ -39314,106 +39314,106 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06193821089183646</v>
+        <v>0.06193822468058721</v>
       </c>
       <c r="D31" t="n">
-        <v>0.058539375249169426</v>
+        <v>0.058539389035519716</v>
       </c>
       <c r="E31" t="n">
-        <v>0.054902142763750904</v>
+        <v>0.05490215654407079</v>
       </c>
       <c r="F31" t="n">
-        <v>0.051859070334963744</v>
+        <v>0.051859084110078744</v>
       </c>
       <c r="G31" t="n">
-        <v>0.049500115102343666</v>
+        <v>0.04950012887268184</v>
       </c>
       <c r="H31" t="n">
-        <v>0.04775750151638198</v>
+        <v>0.04775751528364656</v>
       </c>
       <c r="I31" t="n">
-        <v>0.04669807532543664</v>
+        <v>0.04669808909093072</v>
       </c>
       <c r="J31" t="n">
-        <v>0.046309026165372885</v>
+        <v>0.04630903992810555</v>
       </c>
       <c r="K31" t="n">
-        <v>0.04661911303307129</v>
+        <v>0.04661912679386352</v>
       </c>
       <c r="L31" t="n">
-        <v>0.047641063013143095</v>
+        <v>0.047641076773875586</v>
       </c>
       <c r="M31" t="n">
-        <v>0.04936963272789773</v>
+        <v>0.049369646488678594</v>
       </c>
       <c r="N31" t="n">
-        <v>0.05185801813007841</v>
+        <v>0.05185803189106656</v>
       </c>
       <c r="O31" t="n">
-        <v>0.05504847550378047</v>
+        <v>0.05504848927276778</v>
       </c>
       <c r="P31" t="n">
-        <v>0.05905053205474361</v>
+        <v>0.059050545832764666</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0637521635970295</v>
+        <v>0.06375217739500808</v>
       </c>
       <c r="R31" t="n">
-        <v>0.06930783247186828</v>
+        <v>0.06930784632744168</v>
       </c>
       <c r="S31" t="n">
-        <v>0.07557261680129455</v>
+        <v>0.07557263071050464</v>
       </c>
       <c r="T31" t="n">
-        <v>0.08272371683846337</v>
+        <v>0.08272373085607279</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09059838550971386</v>
+        <v>0.09059839970926034</v>
       </c>
       <c r="V31" t="n">
-        <v>0.09941017530004213</v>
+        <v>0.09941018966056865</v>
       </c>
       <c r="W31" t="n">
-        <v>0.10897177538307636</v>
+        <v>0.1089717900634579</v>
       </c>
       <c r="X31" t="n">
-        <v>0.11945781021734667</v>
+        <v>0.11945782528385845</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.13073905771297506</v>
+        <v>0.1307390731245578</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.14290686276994555</v>
+        <v>0.14290687886308706</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.15596324381383178</v>
+        <v>0.15596326052862666</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.16991596432564154</v>
+        <v>0.16991598168945812</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.18173151284581046</v>
+        <v>0.18173153039486287</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.1884439867601505</v>
+        <v>0.1884440041387833</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.1939706357644576</v>
+        <v>0.1939706482183107</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.19921674235602016</v>
+        <v>0.19921675715334847</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.2044739660700661</v>
+        <v>0.2044739828890538</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.20984560146649833</v>
+        <v>0.20984561988598274</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.21532748454250486</v>
+        <v>0.2153275007596869</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.22103418303136968</v>
+        <v>0.22103419931327906</v>
       </c>
     </row>
     <row r="32">
@@ -39424,106 +39424,106 @@
         <v>5</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02578101540727444</v>
+        <v>0.025781015400107663</v>
       </c>
       <c r="D32" t="n">
-        <v>0.025788324455206003</v>
+        <v>0.025788324448842975</v>
       </c>
       <c r="E32" t="n">
-        <v>0.025795633503137565</v>
+        <v>0.02579563349757829</v>
       </c>
       <c r="F32" t="n">
-        <v>0.025802942551069127</v>
+        <v>0.0258029425463136</v>
       </c>
       <c r="G32" t="n">
-        <v>0.025810251599000692</v>
+        <v>0.025810251595048916</v>
       </c>
       <c r="H32" t="n">
-        <v>0.025817560646932254</v>
+        <v>0.025817560643784227</v>
       </c>
       <c r="I32" t="n">
-        <v>0.025824869694863816</v>
+        <v>0.02582486969251954</v>
       </c>
       <c r="J32" t="n">
-        <v>0.025832178742795378</v>
+        <v>0.02583217874125485</v>
       </c>
       <c r="K32" t="n">
         <v>0.025839417571849137</v>
       </c>
       <c r="L32" t="n">
-        <v>0.025846796838658502</v>
+        <v>0.025846796838725476</v>
       </c>
       <c r="M32" t="n">
-        <v>0.025854105886590064</v>
+        <v>0.02585410588746079</v>
       </c>
       <c r="N32" t="n">
-        <v>0.02607143116372899</v>
+        <v>0.02607143134542429</v>
       </c>
       <c r="O32" t="n">
-        <v>0.02648220101586266</v>
+        <v>0.026482201475411936</v>
       </c>
       <c r="P32" t="n">
-        <v>0.026888956288353333</v>
+        <v>0.02688895723779463</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.027291876265698515</v>
+        <v>0.027291877925938946</v>
       </c>
       <c r="R32" t="n">
-        <v>0.027691023535607966</v>
+        <v>0.027691026245265815</v>
       </c>
       <c r="S32" t="n">
-        <v>0.028086397785571503</v>
+        <v>0.028086401924224253</v>
       </c>
       <c r="T32" t="n">
-        <v>0.028478032625247503</v>
+        <v>0.028478038632215277</v>
       </c>
       <c r="U32" t="n">
-        <v>0.028866121663846014</v>
+        <v>0.028866130011419425</v>
       </c>
       <c r="V32" t="n">
-        <v>0.029250747474186097</v>
+        <v>0.029250758671373372</v>
       </c>
       <c r="W32" t="n">
-        <v>0.029631934254939117</v>
+        <v>0.0296319488484304</v>
       </c>
       <c r="X32" t="n">
-        <v>0.03000973678748619</v>
+        <v>0.030009755376306055</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.03038435231223514</v>
+        <v>0.030384375503210805</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.030755949181651164</v>
+        <v>0.030755977457642115</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.031126785795630774</v>
+        <v>0.031126818945146545</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.03150438385693708</v>
+        <v>0.03150442000685357</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.03189760116881771</v>
+        <v>0.03189763715497017</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.03231414016748977</v>
+        <v>0.032314172373867654</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.03278714770664301</v>
+        <v>0.032787136228082166</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.033359010689350044</v>
+        <v>0.03335901924217199</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.033978611894211495</v>
+        <v>0.03397863448493965</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.03464605482502699</v>
+        <v>0.03464609205866293</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.035299921905962386</v>
+        <v>0.035299937584072974</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.035910904700267775</v>
+        <v>0.03591092103190487</v>
       </c>
     </row>
     <row r="33">
@@ -39544,106 +39544,106 @@
         <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3001466297416932</v>
+        <v>0.300146721179459</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3106813203438572</v>
+        <v>0.31068140528406296</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3196366285976807</v>
+        <v>0.3196367069182876</v>
       </c>
       <c r="F35" t="n">
-        <v>0.32720470568856386</v>
+        <v>0.32720477728524267</v>
       </c>
       <c r="G35" t="n">
-        <v>0.33563360978880474</v>
+        <v>0.3356336745605244</v>
       </c>
       <c r="H35" t="n">
-        <v>0.34079657074445263</v>
+        <v>0.3407966285979342</v>
       </c>
       <c r="I35" t="n">
-        <v>0.34464746980769984</v>
+        <v>0.34464752065286836</v>
       </c>
       <c r="J35" t="n">
-        <v>0.34721000198684715</v>
+        <v>0.3472100457325551</v>
       </c>
       <c r="K35" t="n">
-        <v>0.3490364431057965</v>
+        <v>0.3490364742342832</v>
       </c>
       <c r="L35" t="n">
-        <v>0.34859602912218585</v>
+        <v>0.3485960584297662</v>
       </c>
       <c r="M35" t="n">
-        <v>0.3474815968064433</v>
+        <v>0.34748161878281436</v>
       </c>
       <c r="N35" t="n">
-        <v>0.34575811645746246</v>
+        <v>0.3457581198308953</v>
       </c>
       <c r="O35" t="n">
-        <v>0.3434581292535754</v>
+        <v>0.3434580946605695</v>
       </c>
       <c r="P35" t="n">
-        <v>0.3406203520995206</v>
+        <v>0.34062025119838735</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.33723508122708107</v>
+        <v>0.337234884173017</v>
       </c>
       <c r="R35" t="n">
-        <v>0.33336757007318085</v>
+        <v>0.3333672310685403</v>
       </c>
       <c r="S35" t="n">
-        <v>0.3290331539375009</v>
+        <v>0.3290326211831052</v>
       </c>
       <c r="T35" t="n">
-        <v>0.3243005496357407</v>
+        <v>0.3242997629550781</v>
       </c>
       <c r="U35" t="n">
-        <v>0.31915991171546326</v>
+        <v>0.31915880605456837</v>
       </c>
       <c r="V35" t="n">
-        <v>0.31367981117582633</v>
+        <v>0.3136783159914883</v>
       </c>
       <c r="W35" t="n">
-        <v>0.3078675032161272</v>
+        <v>0.30786554271998046</v>
       </c>
       <c r="X35" t="n">
-        <v>0.30172311495356297</v>
+        <v>0.3017206058369132</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.29509228166418655</v>
+        <v>0.29508913923015173</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.2880705100687354</v>
+        <v>0.28806666673472525</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.28104507536149426</v>
+        <v>0.28104055815095086</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.27289464270451375</v>
+        <v>0.27288970670652973</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.2647089286456885</v>
+        <v>0.2647040070627439</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.251116806239602</v>
+        <v>0.2511123960660159</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.22981679778957914</v>
+        <v>0.2298183763566759</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.1957146860909522</v>
+        <v>0.19571351408214685</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.15057274502175672</v>
+        <v>0.15056964324356342</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.09895999073936473</v>
+        <v>0.09895487593083302</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.049536211071680936</v>
+        <v>0.049534055829950185</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.0065165055971532215</v>
+        <v>0.006514260031789787</v>
       </c>
     </row>
     <row r="36">
@@ -39669,106 +39669,106 @@
         <v>5</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.0084728838771249</v>
+        <v>-1.008472929732804</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.9617069082344438</v>
+        <v>-0.9617069489474329</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.9149409325917631</v>
+        <v>-0.9149409681620624</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.8681749569490821</v>
+        <v>-0.8681749873766915</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.8214089813064012</v>
+        <v>-0.8214090065913207</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.7746430056637201</v>
+        <v>-0.7746430258059498</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.7278770300210393</v>
+        <v>-0.727877045020579</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.6811110543783583</v>
+        <v>-0.6811110642352082</v>
       </c>
       <c r="K39" t="n">
         <v>-0.634794364929949</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.5875791030929963</v>
+        <v>-0.5875791026644666</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.5408131274503154</v>
+        <v>-0.5408131218790957</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.494492532062174</v>
+        <v>-0.4944925117717908</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.44862080215696615</v>
+        <v>-0.44862075083791236</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.40319739072525385</v>
+        <v>-0.4031972846986924</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.3582022766043277</v>
+        <v>-0.3582020912009919</v>
       </c>
       <c r="R39" t="n">
-        <v>-0.3136284704630513</v>
+        <v>-0.3136281678685615</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.2694760072002392</v>
+        <v>-0.2694755450262012</v>
       </c>
       <c r="T39" t="n">
-        <v>-0.225741133538577</v>
+        <v>-0.22574046272497694</v>
       </c>
       <c r="U39" t="n">
-        <v>-0.18240222863771488</v>
+        <v>-0.18240129644263803</v>
       </c>
       <c r="V39" t="n">
-        <v>-0.13945007137776355</v>
+        <v>-0.1394488209589509</v>
       </c>
       <c r="W39" t="n">
-        <v>-0.0968819594306195</v>
+        <v>-0.096880329737768</v>
       </c>
       <c r="X39" t="n">
-        <v>-0.05469177521801427</v>
+        <v>-0.05468969935650958</v>
       </c>
       <c r="Y39" t="n">
-        <v>-0.012857492394383274</v>
+        <v>-0.012854902598257056</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.028639689394716172</v>
+        <v>0.028642847047628095</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.07005197149641729</v>
+        <v>0.07005567338843166</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.11221932187766726</v>
+        <v>0.11222335883217172</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.1561309142960161</v>
+        <v>0.15613493296256975</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.20264689968983507</v>
+        <v>0.20265049625920173</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.25546887278854313</v>
+        <v>0.2554675909480154</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.31933028849191814</v>
+        <v>0.3193312436076269</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.38852275471287456</v>
+        <v>0.3885252774778104</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.4630578299879302</v>
+        <v>0.4630619879641893</v>
       </c>
       <c r="AI39" t="n">
-        <v>0.5360768550570262</v>
+        <v>0.5360786058721124</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0.6043145444403848</v>
+        <v>0.604316369921726</v>
       </c>
     </row>
     <row r="40">
@@ -39779,106 +39779,106 @@
         <v>5</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.15922877546015113</v>
+        <v>-0.1592287842066973</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.06448498306533793</v>
+        <v>-0.0644849908309636</v>
       </c>
       <c r="E40" t="n">
-        <v>0.030258809329475334</v>
+        <v>0.030258802544770147</v>
       </c>
       <c r="F40" t="n">
-        <v>0.12500260172428868</v>
+        <v>0.12500259592050392</v>
       </c>
       <c r="G40" t="n">
-        <v>0.21974639411910205</v>
+        <v>0.21974638929623777</v>
       </c>
       <c r="H40" t="n">
-        <v>0.31449018651391547</v>
+        <v>0.3144901826719717</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4092339789087288</v>
+        <v>0.4092339760477055</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5039777713035422</v>
+        <v>0.5039777694234393</v>
       </c>
       <c r="K40" t="n">
         <v>0.5986358665171215</v>
       </c>
       <c r="L40" t="n">
-        <v>0.693465356093169</v>
+        <v>0.693465356174907</v>
       </c>
       <c r="M40" t="n">
-        <v>0.7882091484879822</v>
+        <v>0.7882091495506408</v>
       </c>
       <c r="N40" t="n">
-        <v>0.8828679887233971</v>
+        <v>0.8828679925935998</v>
       </c>
       <c r="O40" t="n">
-        <v>0.9774412120243701</v>
+        <v>0.9774412218130043</v>
       </c>
       <c r="P40" t="n">
-        <v>1.0719289227278859</v>
+        <v>1.0719289429514707</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.1663349396853386</v>
+        <v>1.1663349750493082</v>
       </c>
       <c r="R40" t="n">
-        <v>1.2606605960469226</v>
+        <v>1.2606606537640195</v>
       </c>
       <c r="S40" t="n">
-        <v>1.3549058851560116</v>
+        <v>1.3549059733114297</v>
       </c>
       <c r="T40" t="n">
-        <v>1.4490715229154991</v>
+        <v>1.4490716508669816</v>
       </c>
       <c r="U40" t="n">
-        <v>1.5431616333004758</v>
+        <v>1.5431618111080547</v>
       </c>
       <c r="V40" t="n">
-        <v>1.6371779751541744</v>
+        <v>1.6371782136599842</v>
       </c>
       <c r="W40" t="n">
-        <v>1.7311126083180237</v>
+        <v>1.7311129191668444</v>
       </c>
       <c r="X40" t="n">
-        <v>1.8235413578174067</v>
+        <v>1.8235417537687664</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.910427476292934</v>
+        <v>1.910427970272564</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.9882297906436077</v>
+        <v>1.9882303929366614</v>
       </c>
       <c r="AA40" t="n">
-        <v>2.054375405860803</v>
+        <v>2.054376111962426</v>
       </c>
       <c r="AB40" t="n">
-        <v>2.107327296990276</v>
+        <v>2.1073280670019665</v>
       </c>
       <c r="AC40" t="n">
-        <v>2.1465006577149826</v>
+        <v>2.1465014242384153</v>
       </c>
       <c r="AD40" t="n">
-        <v>2.1722098308241335</v>
+        <v>2.1722105168364365</v>
       </c>
       <c r="AE40" t="n">
-        <v>2.186234897213004</v>
+        <v>2.1862346527137935</v>
       </c>
       <c r="AF40" t="n">
-        <v>2.191476514563779</v>
+        <v>2.191476696743256</v>
       </c>
       <c r="AG40" t="n">
-        <v>2.1897674139501206</v>
+        <v>2.189767895144172</v>
       </c>
       <c r="AH40" t="n">
-        <v>2.1849551130755294</v>
+        <v>2.1849559061709987</v>
       </c>
       <c r="AI40" t="n">
-        <v>2.180500458230271</v>
+        <v>2.1805007921820363</v>
       </c>
       <c r="AJ40" t="n">
-        <v>2.1814734574933907</v>
+        <v>2.181473805687053</v>
       </c>
     </row>
     <row r="41">
@@ -39889,106 +39889,106 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.017810779266079733</v>
+        <v>0.01781085155661788</v>
       </c>
       <c r="D41" t="n">
-        <v>0.017729577163568724</v>
+        <v>0.017729649441521906</v>
       </c>
       <c r="E41" t="n">
-        <v>0.017588451452632627</v>
+        <v>0.0175885236989701</v>
       </c>
       <c r="F41" t="n">
-        <v>0.017466316480377077</v>
+        <v>0.017466388699426807</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01735259021789323</v>
+        <v>0.017352662411899446</v>
       </c>
       <c r="H41" t="n">
-        <v>0.017262910506258916</v>
+        <v>0.017262982684151124</v>
       </c>
       <c r="I41" t="n">
-        <v>0.017185185732318968</v>
+        <v>0.01718525790092894</v>
       </c>
       <c r="J41" t="n">
-        <v>0.017121397126880565</v>
+        <v>0.017121469281013137</v>
       </c>
       <c r="K41" t="n">
-        <v>0.017078681710102222</v>
+        <v>0.017078753854061695</v>
       </c>
       <c r="L41" t="n">
-        <v>0.017039943272941706</v>
+        <v>0.01704001541658801</v>
       </c>
       <c r="M41" t="n">
-        <v>0.01703108480141583</v>
+        <v>0.017031156945315762</v>
       </c>
       <c r="N41" t="n">
-        <v>0.017031107448659034</v>
+        <v>0.01703117959364565</v>
       </c>
       <c r="O41" t="n">
-        <v>0.017040388409063995</v>
+        <v>0.017040460595988013</v>
       </c>
       <c r="P41" t="n">
-        <v>0.01707763091390563</v>
+        <v>0.017077703148191015</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.017118681116945388</v>
+        <v>0.01711875345586242</v>
       </c>
       <c r="R41" t="n">
-        <v>0.01717734957845796</v>
+        <v>0.017177422219328446</v>
       </c>
       <c r="S41" t="n">
-        <v>0.017250477694065937</v>
+        <v>0.017250550616138505</v>
       </c>
       <c r="T41" t="n">
-        <v>0.017331855365437947</v>
+        <v>0.01733192885581768</v>
       </c>
       <c r="U41" t="n">
-        <v>0.017432157077222458</v>
+        <v>0.01743223152144693</v>
       </c>
       <c r="V41" t="n">
-        <v>0.017539322111613236</v>
+        <v>0.01753939739981073</v>
       </c>
       <c r="W41" t="n">
-        <v>0.01766010036803407</v>
+        <v>0.0176601773331415</v>
       </c>
       <c r="X41" t="n">
-        <v>0.017796487618177037</v>
+        <v>0.017796566607656567</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.01793658541978271</v>
+        <v>0.01793666621837202</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.018094328194305155</v>
+        <v>0.018094412566115405</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.018264095622358773</v>
+        <v>0.018264183253322477</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.01844318954002282</v>
+        <v>0.01844328057362457</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.018650474290091326</v>
+        <v>0.018650566294832367</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.018882722764401994</v>
+        <v>0.01888281387568101</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.01916551625187529</v>
+        <v>0.0191655815439208</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.01953046718747764</v>
+        <v>0.01953054476570381</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.019963675055051398</v>
+        <v>0.01996376323226858</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.020454211727148893</v>
+        <v>0.020454308295319884</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.02067755366519842</v>
+        <v>0.020677638687318187</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0.020743769941233125</v>
+        <v>0.020743855302699968</v>
       </c>
     </row>
     <row r="42">
@@ -39999,106 +39999,106 @@
         <v>5</v>
       </c>
       <c r="C42" t="n">
-        <v>0.06245702570504115</v>
+        <v>0.0624570394937919</v>
       </c>
       <c r="D42" t="n">
-        <v>0.059058190062374116</v>
+        <v>0.0590582038487244</v>
       </c>
       <c r="E42" t="n">
-        <v>0.055420957576955594</v>
+        <v>0.05542097135727548</v>
       </c>
       <c r="F42" t="n">
-        <v>0.052377885148168435</v>
+        <v>0.052377898923283435</v>
       </c>
       <c r="G42" t="n">
-        <v>0.050018929915548356</v>
+        <v>0.05001894368588653</v>
       </c>
       <c r="H42" t="n">
-        <v>0.04827631632958667</v>
+        <v>0.04827633009685125</v>
       </c>
       <c r="I42" t="n">
-        <v>0.04721689013864133</v>
+        <v>0.04721690390413541</v>
       </c>
       <c r="J42" t="n">
-        <v>0.046827840978577576</v>
+        <v>0.04682785474131024</v>
       </c>
       <c r="K42" t="n">
-        <v>0.04713792784627598</v>
+        <v>0.04713794160706821</v>
       </c>
       <c r="L42" t="n">
-        <v>0.04815987782634778</v>
+        <v>0.04815989158708028</v>
       </c>
       <c r="M42" t="n">
-        <v>0.04988844754110242</v>
+        <v>0.049888461301883284</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0523768329432831</v>
+        <v>0.05237684670427125</v>
       </c>
       <c r="O42" t="n">
-        <v>0.05556729031698516</v>
+        <v>0.05556730408597247</v>
       </c>
       <c r="P42" t="n">
-        <v>0.05956934686794829</v>
+        <v>0.059569360645969356</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.06427097841023419</v>
+        <v>0.06427099220821275</v>
       </c>
       <c r="R42" t="n">
-        <v>0.06982664728507297</v>
+        <v>0.06982666114064637</v>
       </c>
       <c r="S42" t="n">
-        <v>0.07609143161449923</v>
+        <v>0.07609144552370933</v>
       </c>
       <c r="T42" t="n">
-        <v>0.08324253165166806</v>
+        <v>0.08324254566927748</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09111720032291855</v>
+        <v>0.09111721452246503</v>
       </c>
       <c r="V42" t="n">
-        <v>0.09992899011324684</v>
+        <v>0.09992900447377336</v>
       </c>
       <c r="W42" t="n">
-        <v>0.10949059019628105</v>
+        <v>0.1094906048766626</v>
       </c>
       <c r="X42" t="n">
-        <v>0.11997662503055136</v>
+        <v>0.11997664009706314</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.13125787252617976</v>
+        <v>0.13125788793776247</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.14342567758315022</v>
+        <v>0.14342569367629177</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.15648205862703649</v>
+        <v>0.15648207534183134</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.17043477913884622</v>
+        <v>0.1704347965026628</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.18225032765901514</v>
+        <v>0.18225034520806754</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.18896280157335518</v>
+        <v>0.18896281895198797</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.1944894505776623</v>
+        <v>0.19448946303151537</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.19973555716922486</v>
+        <v>0.19973557196655312</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.2049927808832708</v>
+        <v>0.20499279770225845</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.210364416279703</v>
+        <v>0.21036443469918742</v>
       </c>
       <c r="AI42" t="n">
-        <v>0.21584629935570954</v>
+        <v>0.21584631557289158</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0.22155299784457438</v>
+        <v>0.22155301412648373</v>
       </c>
     </row>
     <row r="43">
@@ -40109,106 +40109,106 @@
         <v>5</v>
       </c>
       <c r="C43" t="n">
-        <v>0.04046530327208122</v>
+        <v>0.040465303264914446</v>
       </c>
       <c r="D43" t="n">
-        <v>0.040472612320012785</v>
+        <v>0.04047261231364976</v>
       </c>
       <c r="E43" t="n">
-        <v>0.040479921367944344</v>
+        <v>0.04047992136238507</v>
       </c>
       <c r="F43" t="n">
-        <v>0.04048723041587591</v>
+        <v>0.04048723041112038</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04049453946380747</v>
+        <v>0.04049453945985569</v>
       </c>
       <c r="H43" t="n">
-        <v>0.04050184851173903</v>
+        <v>0.040501848508591</v>
       </c>
       <c r="I43" t="n">
-        <v>0.04050915755967059</v>
+        <v>0.04050915755732632</v>
       </c>
       <c r="J43" t="n">
-        <v>0.04051646660760216</v>
+        <v>0.04051646660606163</v>
       </c>
       <c r="K43" t="n">
         <v>0.04052370543665592</v>
       </c>
       <c r="L43" t="n">
-        <v>0.04053108470346528</v>
+        <v>0.040531084703532255</v>
       </c>
       <c r="M43" t="n">
-        <v>0.040538393751396846</v>
+        <v>0.04053839375226757</v>
       </c>
       <c r="N43" t="n">
-        <v>0.04075571902853577</v>
+        <v>0.04075571921023107</v>
       </c>
       <c r="O43" t="n">
-        <v>0.041166488880669434</v>
+        <v>0.041166489340218715</v>
       </c>
       <c r="P43" t="n">
-        <v>0.04157324415316011</v>
+        <v>0.04157324510260141</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.0419761641305053</v>
+        <v>0.04197616579074573</v>
       </c>
       <c r="R43" t="n">
-        <v>0.04237531140041474</v>
+        <v>0.042375314110072594</v>
       </c>
       <c r="S43" t="n">
-        <v>0.04277068565037828</v>
+        <v>0.042770689789031036</v>
       </c>
       <c r="T43" t="n">
-        <v>0.043162320490054286</v>
+        <v>0.043162326497022056</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04355040952865279</v>
+        <v>0.043550417876226204</v>
       </c>
       <c r="V43" t="n">
-        <v>0.04393503533899287</v>
+        <v>0.04393504653618015</v>
       </c>
       <c r="W43" t="n">
-        <v>0.044316222119745896</v>
+        <v>0.04431623671323718</v>
       </c>
       <c r="X43" t="n">
-        <v>0.04469402465229297</v>
+        <v>0.044694043241112834</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.04506864017704192</v>
+        <v>0.045068663368017584</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.04544023704645794</v>
+        <v>0.045440265322448894</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.04581107366043755</v>
+        <v>0.045811106809953324</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.04618867172174386</v>
+        <v>0.04618870787166035</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.046581889033624486</v>
+        <v>0.04658192501977695</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.04699842803229655</v>
+        <v>0.04699846023867443</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.04747143557144979</v>
+        <v>0.047471424092888945</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.04804329855415682</v>
+        <v>0.048043307106978766</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.048662899759018274</v>
+        <v>0.048662922349746424</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.04933034268983377</v>
+        <v>0.04933037992346971</v>
       </c>
       <c r="AI43" t="n">
-        <v>0.049984209770769165</v>
+        <v>0.04998422544887976</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0.050595192565074554</v>
+        <v>0.05059520889671165</v>
       </c>
     </row>
     <row r="44">
@@ -40229,106 +40229,106 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>0.32874381061414</v>
+        <v>0.328743902051906</v>
       </c>
       <c r="D46" t="n">
-        <v>0.33943746816613585</v>
+        <v>0.3394375531063418</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3485450078514548</v>
+        <v>0.3485450861720617</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3562585425320475</v>
+        <v>0.3562586141287263</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3648260937620421</v>
+        <v>0.3648261585337622</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3701208564838147</v>
+        <v>0.3701209143372964</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3740966787691678</v>
+        <v>0.37409672961433654</v>
       </c>
       <c r="J46" t="n">
-        <v>0.3767772241776489</v>
+        <v>0.37677726792335675</v>
       </c>
       <c r="K46" t="n">
-        <v>0.37871473882396056</v>
+        <v>0.37871476995244735</v>
       </c>
       <c r="L46" t="n">
-        <v>0.37837843070357396</v>
+        <v>0.37837846001115455</v>
       </c>
       <c r="M46" t="n">
-        <v>0.37736111037882314</v>
+        <v>0.3773611323551943</v>
       </c>
       <c r="N46" t="n">
-        <v>0.3757277237011777</v>
+        <v>0.37572772707461055</v>
       </c>
       <c r="O46" t="n">
-        <v>0.37351078916836894</v>
+        <v>0.3735107545753629</v>
       </c>
       <c r="P46" t="n">
-        <v>0.3707490027770702</v>
+        <v>0.37074890187593695</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.3674326416287959</v>
+        <v>0.36743244457473206</v>
       </c>
       <c r="R46" t="n">
-        <v>0.36362694181281585</v>
+        <v>0.3636266028081753</v>
       </c>
       <c r="S46" t="n">
-        <v>0.35934722306813704</v>
+        <v>0.35934669031374145</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3546621884406835</v>
+        <v>0.35466140176002103</v>
       </c>
       <c r="U46" t="n">
-        <v>0.349561980502607</v>
+        <v>0.34956087484171205</v>
       </c>
       <c r="V46" t="n">
-        <v>0.3441151600750333</v>
+        <v>0.3441136648906952</v>
       </c>
       <c r="W46" t="n">
-        <v>0.3383289739791696</v>
+        <v>0.33832701348302296</v>
       </c>
       <c r="X46" t="n">
-        <v>0.3322035427561736</v>
+        <v>0.3322010336395238</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.3255844969097647</v>
+        <v>0.3255813544757299</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.3185673401932547</v>
+        <v>0.3185634968592445</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.31153934663915717</v>
+        <v>0.3115348294286138</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.30337918205369885</v>
+        <v>0.30337424605571484</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.29517656543473536</v>
+        <v>0.29517164385179073</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.281560374091979</v>
+        <v>0.281555963918393</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.2602291363879812</v>
+        <v>0.26023071495507805</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.22608864297987172</v>
+        <v>0.22608747097106638</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.18090117740807615</v>
+        <v>0.18089807562988286</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.12923576729051672</v>
+        <v>0.1292306524819849</v>
       </c>
       <c r="AI46" t="n">
-        <v>0.07975221371092245</v>
+        <v>0.07975005846919148</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0.03665620345600584</v>
+        <v>0.036653955817343764</v>
       </c>
     </row>
     <row r="47">
@@ -40354,106 +40354,106 @@
         <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.0418185481471092</v>
+        <v>-1.041818594002788</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.9950525725044281</v>
+        <v>-0.9950526132174171</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.9482865968617473</v>
+        <v>-0.9482866324320465</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9015206212190663</v>
+        <v>-0.9015206516466756</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.8547546455763854</v>
+        <v>-0.8547546708613047</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.8079886699337044</v>
+        <v>-0.8079886900759339</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.7612226942910234</v>
+        <v>-0.7612227092905632</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.7144567186483425</v>
+        <v>-0.7144567285051924</v>
       </c>
       <c r="K50" t="n">
         <v>-0.6681400291999332</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.6209247673629805</v>
+        <v>-0.6209247669344508</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.5741587917202996</v>
+        <v>-0.5741587861490799</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.5278381963321581</v>
+        <v>-0.527838176041775</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.48196646642695035</v>
+        <v>-0.48196641510789656</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.43654305499523804</v>
+        <v>-0.4365429489686766</v>
       </c>
       <c r="Q50" t="n">
-        <v>-0.3915479408743119</v>
+        <v>-0.3915477554709761</v>
       </c>
       <c r="R50" t="n">
-        <v>-0.3469741347330355</v>
+        <v>-0.3469738321385457</v>
       </c>
       <c r="S50" t="n">
-        <v>-0.3028216714702234</v>
+        <v>-0.3028212092961854</v>
       </c>
       <c r="T50" t="n">
-        <v>-0.2590867978085612</v>
+        <v>-0.25908612699496114</v>
       </c>
       <c r="U50" t="n">
-        <v>-0.21574789290769908</v>
+        <v>-0.21574696071262223</v>
       </c>
       <c r="V50" t="n">
-        <v>-0.17279573564774775</v>
+        <v>-0.1727944852289351</v>
       </c>
       <c r="W50" t="n">
-        <v>-0.1302276237006037</v>
+        <v>-0.1302259940077522</v>
       </c>
       <c r="X50" t="n">
-        <v>-0.08803743948799847</v>
+        <v>-0.08803536362649378</v>
       </c>
       <c r="Y50" t="n">
-        <v>-0.04620315666436747</v>
+        <v>-0.046200566868241255</v>
       </c>
       <c r="Z50" t="n">
-        <v>-0.004705974875268026</v>
+        <v>-0.004702817222356104</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.03670630722643309</v>
+        <v>0.03671000911844746</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.07887365760768306</v>
+        <v>0.07887769456218752</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.12278525002603191</v>
+        <v>0.12278926869258555</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.16930123541985087</v>
+        <v>0.16930483198921753</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.22212320851855893</v>
+        <v>0.2221219266780312</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.28598462422193394</v>
+        <v>0.2859855793376427</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.35517709044289036</v>
+        <v>0.3551796132078262</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.429712165717946</v>
+        <v>0.4297163236942051</v>
       </c>
       <c r="AI50" t="n">
-        <v>0.502731190787042</v>
+        <v>0.5027329416021282</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0.5710905225246501</v>
+        <v>0.5710923568612731</v>
       </c>
     </row>
     <row r="51">
@@ -40464,106 +40464,106 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.16558915214376077</v>
+        <v>-0.1655891608903069</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.07084535974894754</v>
+        <v>-0.07084536751457321</v>
       </c>
       <c r="E51" t="n">
-        <v>0.023898432645865747</v>
+        <v>0.02389842586116056</v>
       </c>
       <c r="F51" t="n">
-        <v>0.11864222504067906</v>
+        <v>0.11864221923689433</v>
       </c>
       <c r="G51" t="n">
-        <v>0.21338601743549243</v>
+        <v>0.21338601261262818</v>
       </c>
       <c r="H51" t="n">
-        <v>0.30812980983030586</v>
+        <v>0.3081298059883621</v>
       </c>
       <c r="I51" t="n">
-        <v>0.40287360222511925</v>
+        <v>0.4028735993640959</v>
       </c>
       <c r="J51" t="n">
-        <v>0.49761739461993254</v>
+        <v>0.4976173927398297</v>
       </c>
       <c r="K51" t="n">
         <v>0.592275489833512</v>
       </c>
       <c r="L51" t="n">
-        <v>0.6871049794095593</v>
+        <v>0.6871049794912973</v>
       </c>
       <c r="M51" t="n">
-        <v>0.7818487718043726</v>
+        <v>0.7818487728670311</v>
       </c>
       <c r="N51" t="n">
-        <v>0.8765076120397876</v>
+        <v>0.8765076159099903</v>
       </c>
       <c r="O51" t="n">
-        <v>0.9710808353407604</v>
+        <v>0.9710808451293947</v>
       </c>
       <c r="P51" t="n">
-        <v>1.065568546044276</v>
+        <v>1.065568566267861</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.159974563001729</v>
+        <v>1.1599745983656986</v>
       </c>
       <c r="R51" t="n">
-        <v>1.254300219363313</v>
+        <v>1.25430027708041</v>
       </c>
       <c r="S51" t="n">
-        <v>1.348545508472402</v>
+        <v>1.3485455966278201</v>
       </c>
       <c r="T51" t="n">
-        <v>1.4427111462318896</v>
+        <v>1.442711274183372</v>
       </c>
       <c r="U51" t="n">
-        <v>1.536801256616866</v>
+        <v>1.5368014344244452</v>
       </c>
       <c r="V51" t="n">
-        <v>1.6308175984705646</v>
+        <v>1.6308178369763746</v>
       </c>
       <c r="W51" t="n">
-        <v>1.7247522316344142</v>
+        <v>1.7247525424832348</v>
       </c>
       <c r="X51" t="n">
-        <v>1.817180981133797</v>
+        <v>1.8171813770851568</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.9040670996093243</v>
+        <v>1.9040675935889544</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.9818694139599982</v>
+        <v>1.9818700162530518</v>
       </c>
       <c r="AA51" t="n">
-        <v>2.0480150291771935</v>
+        <v>2.0480157352788164</v>
       </c>
       <c r="AB51" t="n">
-        <v>2.1009669203066665</v>
+        <v>2.100967690318357</v>
       </c>
       <c r="AC51" t="n">
-        <v>2.1401402810313725</v>
+        <v>2.1401410475548057</v>
       </c>
       <c r="AD51" t="n">
-        <v>2.165849454140524</v>
+        <v>2.165850140152827</v>
       </c>
       <c r="AE51" t="n">
-        <v>2.1798745205293946</v>
+        <v>2.1798742760301835</v>
       </c>
       <c r="AF51" t="n">
-        <v>2.1851161378801693</v>
+        <v>2.1851163200596466</v>
       </c>
       <c r="AG51" t="n">
-        <v>2.183407037266511</v>
+        <v>2.183407518460562</v>
       </c>
       <c r="AH51" t="n">
-        <v>2.17859473639192</v>
+        <v>2.178595529487389</v>
       </c>
       <c r="AI51" t="n">
-        <v>2.1741400815466614</v>
+        <v>2.1741404154984267</v>
       </c>
       <c r="AJ51" t="n">
-        <v>2.1751362829624643</v>
+        <v>2.1751366328451893</v>
       </c>
     </row>
     <row r="52">
@@ -40574,106 +40574,106 @@
         <v>5</v>
       </c>
       <c r="C52" t="n">
-        <v>0.021310779266079733</v>
+        <v>0.02131085155661788</v>
       </c>
       <c r="D52" t="n">
-        <v>0.021229577163568724</v>
+        <v>0.021229649441521906</v>
       </c>
       <c r="E52" t="n">
-        <v>0.021088451452632627</v>
+        <v>0.0210885236989701</v>
       </c>
       <c r="F52" t="n">
-        <v>0.020966316480377077</v>
+        <v>0.020966388699426807</v>
       </c>
       <c r="G52" t="n">
-        <v>0.02085259021789323</v>
+        <v>0.020852662411899446</v>
       </c>
       <c r="H52" t="n">
-        <v>0.020762910506258916</v>
+        <v>0.020762982684151124</v>
       </c>
       <c r="I52" t="n">
-        <v>0.020685185732318968</v>
+        <v>0.02068525790092894</v>
       </c>
       <c r="J52" t="n">
-        <v>0.020621397126880565</v>
+        <v>0.02062146928101314</v>
       </c>
       <c r="K52" t="n">
-        <v>0.02057868171010222</v>
+        <v>0.020578753854061695</v>
       </c>
       <c r="L52" t="n">
-        <v>0.020539943272941705</v>
+        <v>0.02054001541658801</v>
       </c>
       <c r="M52" t="n">
-        <v>0.02053108480141583</v>
+        <v>0.02053115694531576</v>
       </c>
       <c r="N52" t="n">
-        <v>0.020531107448659033</v>
+        <v>0.02053117959364565</v>
       </c>
       <c r="O52" t="n">
-        <v>0.020540388409063994</v>
+        <v>0.020540460595988012</v>
       </c>
       <c r="P52" t="n">
-        <v>0.02057763091390563</v>
+        <v>0.020577703148191014</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.020618681116945387</v>
+        <v>0.02061875345586242</v>
       </c>
       <c r="R52" t="n">
-        <v>0.02067734957845796</v>
+        <v>0.020677422219328445</v>
       </c>
       <c r="S52" t="n">
-        <v>0.020750477694065936</v>
+        <v>0.020750550616138508</v>
       </c>
       <c r="T52" t="n">
-        <v>0.020831855365437947</v>
+        <v>0.02083192885581768</v>
       </c>
       <c r="U52" t="n">
-        <v>0.020932157077222457</v>
+        <v>0.02093223152144693</v>
       </c>
       <c r="V52" t="n">
-        <v>0.021039322111613235</v>
+        <v>0.02103939739981073</v>
       </c>
       <c r="W52" t="n">
-        <v>0.02116010036803407</v>
+        <v>0.0211601773331415</v>
       </c>
       <c r="X52" t="n">
-        <v>0.021296487618177037</v>
+        <v>0.021296566607656567</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.02143658541978271</v>
+        <v>0.02143666621837202</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.021594328194305155</v>
+        <v>0.021594412566115405</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.021764095622358773</v>
+        <v>0.021764183253322477</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.02194318954002282</v>
+        <v>0.02194328057362457</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.022150474290091326</v>
+        <v>0.022150566294832367</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.022382722764401994</v>
+        <v>0.02238281387568101</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.022665516251875288</v>
+        <v>0.022665581543920798</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.02303046718747764</v>
+        <v>0.02303054476570381</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.023463675055051397</v>
+        <v>0.023463763232268578</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.023954211727148893</v>
+        <v>0.023954308295319884</v>
       </c>
       <c r="AI52" t="n">
-        <v>0.024177553665198418</v>
+        <v>0.024177638687318186</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0.024243769941233125</v>
+        <v>0.024243855302699967</v>
       </c>
     </row>
     <row r="53">
@@ -40684,106 +40684,106 @@
         <v>5</v>
       </c>
       <c r="C53" t="n">
-        <v>0.06312461829556189</v>
+        <v>0.06312463208431264</v>
       </c>
       <c r="D53" t="n">
-        <v>0.059725782652894854</v>
+        <v>0.059725796439245145</v>
       </c>
       <c r="E53" t="n">
-        <v>0.05608855016747633</v>
+        <v>0.05608856394779622</v>
       </c>
       <c r="F53" t="n">
-        <v>0.05304547773868917</v>
+        <v>0.05304549151380417</v>
       </c>
       <c r="G53" t="n">
-        <v>0.050686522506069094</v>
+        <v>0.05068653627640727</v>
       </c>
       <c r="H53" t="n">
-        <v>0.04894390892010741</v>
+        <v>0.048943922687371993</v>
       </c>
       <c r="I53" t="n">
-        <v>0.04788448272916207</v>
+        <v>0.04788449649465615</v>
       </c>
       <c r="J53" t="n">
-        <v>0.04749543356909833</v>
+        <v>0.047495447331830976</v>
       </c>
       <c r="K53" t="n">
-        <v>0.04780552043679672</v>
+        <v>0.04780553419758895</v>
       </c>
       <c r="L53" t="n">
-        <v>0.048827470416868524</v>
+        <v>0.048827484177601015</v>
       </c>
       <c r="M53" t="n">
-        <v>0.05055604013162316</v>
+        <v>0.05055605389240402</v>
       </c>
       <c r="N53" t="n">
-        <v>0.05304442553380384</v>
+        <v>0.05304443929479199</v>
       </c>
       <c r="O53" t="n">
-        <v>0.0562348829075059</v>
+        <v>0.05623489667649321</v>
       </c>
       <c r="P53" t="n">
-        <v>0.06023693945846904</v>
+        <v>0.060236953236490094</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.06493857100075492</v>
+        <v>0.0649385847987335</v>
       </c>
       <c r="R53" t="n">
-        <v>0.07049423987559371</v>
+        <v>0.0704942537311671</v>
       </c>
       <c r="S53" t="n">
-        <v>0.07675902420501997</v>
+        <v>0.07675903811423007</v>
       </c>
       <c r="T53" t="n">
-        <v>0.0839101242421888</v>
+        <v>0.08391013825979822</v>
       </c>
       <c r="U53" t="n">
-        <v>0.09178479291343929</v>
+        <v>0.09178480711298577</v>
       </c>
       <c r="V53" t="n">
-        <v>0.10059658270376758</v>
+        <v>0.1005965970642941</v>
       </c>
       <c r="W53" t="n">
-        <v>0.11015818278680178</v>
+        <v>0.11015819746718335</v>
       </c>
       <c r="X53" t="n">
-        <v>0.1206442176210721</v>
+        <v>0.1206442326875839</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.1319254651167005</v>
+        <v>0.1319254805282832</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.14409327017367096</v>
+        <v>0.1440932862668125</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.15714965121755722</v>
+        <v>0.15714966793235208</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.17110237172936696</v>
+        <v>0.17110238909318354</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.18291792024953588</v>
+        <v>0.18291793779858828</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.18963039416387592</v>
+        <v>0.18963041154250873</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.19515704316818303</v>
+        <v>0.1951570556220361</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.2004031497597456</v>
+        <v>0.20040316455707385</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.20566037347379154</v>
+        <v>0.2056603902927792</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.21103200887022375</v>
+        <v>0.21103202728970816</v>
       </c>
       <c r="AI53" t="n">
-        <v>0.21651389194623027</v>
+        <v>0.21651390816341232</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0.22222059043509512</v>
+        <v>0.22222060671700447</v>
       </c>
     </row>
     <row r="54">
@@ -40794,106 +40794,106 @@
         <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>0.05594489230104918</v>
+        <v>0.05594489229388241</v>
       </c>
       <c r="D54" t="n">
-        <v>0.05595220134898075</v>
+        <v>0.05595220134261772</v>
       </c>
       <c r="E54" t="n">
-        <v>0.055959510396912306</v>
+        <v>0.05595951039135303</v>
       </c>
       <c r="F54" t="n">
-        <v>0.05596681944484387</v>
+        <v>0.05596681944008834</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05597412849277543</v>
+        <v>0.05597412848882365</v>
       </c>
       <c r="H54" t="n">
-        <v>0.055981437540706995</v>
+        <v>0.055981437537558965</v>
       </c>
       <c r="I54" t="n">
-        <v>0.055988746588638554</v>
+        <v>0.05598874658629428</v>
       </c>
       <c r="J54" t="n">
-        <v>0.05599605563657012</v>
+        <v>0.055996055635029594</v>
       </c>
       <c r="K54" t="n">
         <v>0.05600329446562388</v>
       </c>
       <c r="L54" t="n">
-        <v>0.05601067373243324</v>
+        <v>0.05601067373250022</v>
       </c>
       <c r="M54" t="n">
-        <v>0.05601798278036481</v>
+        <v>0.05601798278123553</v>
       </c>
       <c r="N54" t="n">
-        <v>0.05623530805750373</v>
+        <v>0.05623530823919903</v>
       </c>
       <c r="O54" t="n">
-        <v>0.056646077909637396</v>
+        <v>0.05664607836918668</v>
       </c>
       <c r="P54" t="n">
-        <v>0.057052833182128074</v>
+        <v>0.05705283413156937</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.05745575315947326</v>
+        <v>0.05745575481971369</v>
       </c>
       <c r="R54" t="n">
-        <v>0.057854900429382704</v>
+        <v>0.057854903139040556</v>
       </c>
       <c r="S54" t="n">
-        <v>0.058250274679346244</v>
+        <v>0.058250278817999</v>
       </c>
       <c r="T54" t="n">
-        <v>0.05864190951902225</v>
+        <v>0.05864191552599002</v>
       </c>
       <c r="U54" t="n">
-        <v>0.059029998557620755</v>
+        <v>0.059030006905194166</v>
       </c>
       <c r="V54" t="n">
-        <v>0.059414624367960835</v>
+        <v>0.05941463556514811</v>
       </c>
       <c r="W54" t="n">
-        <v>0.05979581114871386</v>
+        <v>0.05979582574220514</v>
       </c>
       <c r="X54" t="n">
-        <v>0.06017361368126093</v>
+        <v>0.060173632270080796</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.060548229206009885</v>
+        <v>0.060548252396985545</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.060919826075425905</v>
+        <v>0.060919854351416856</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.061290662689405515</v>
+        <v>0.061290695838921286</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.06166826075071182</v>
+        <v>0.06166829690062831</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.06206147806259245</v>
+        <v>0.06206151404874491</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.06247801706126451</v>
+        <v>0.062478049267642395</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.06295102460041775</v>
+        <v>0.0629510131218569</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.06352288758312478</v>
+        <v>0.06352289613594674</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.06414248878798623</v>
+        <v>0.06414251137871439</v>
       </c>
       <c r="AH54" t="n">
-        <v>0.06480993171880173</v>
+        <v>0.06480996895243768</v>
       </c>
       <c r="AI54" t="n">
-        <v>0.06546379879973713</v>
+        <v>0.06546381447784771</v>
       </c>
       <c r="AJ54" t="n">
-        <v>0.06607478159404251</v>
+        <v>0.06607479792567962</v>
       </c>
     </row>
     <row r="55">
@@ -40914,106 +40914,106 @@
         <v>5</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3691816450268463</v>
+        <v>0.3691817364646119</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3801136640187892</v>
+        <v>0.3801137489589952</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3894498560971241</v>
+        <v>0.389449934417731</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3973822765617855</v>
+        <v>0.3973823481584643</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4061588918635747</v>
+        <v>0.40615895663529467</v>
       </c>
       <c r="H57" t="n">
-        <v>0.4116528443141065</v>
+        <v>0.41165290216758826</v>
       </c>
       <c r="I57" t="n">
-        <v>0.4158179318402338</v>
+        <v>0.4158179826854023</v>
       </c>
       <c r="J57" t="n">
-        <v>0.4186777703549922</v>
+        <v>0.41867781410069993</v>
       </c>
       <c r="K57" t="n">
-        <v>0.42078456083700344</v>
+        <v>0.42078459196549</v>
       </c>
       <c r="L57" t="n">
-        <v>0.4206074686674523</v>
+        <v>0.4206074979750329</v>
       </c>
       <c r="M57" t="n">
-        <v>0.419739264326909</v>
+        <v>0.41973928630328017</v>
       </c>
       <c r="N57" t="n">
-        <v>0.4182448561276909</v>
+        <v>0.41824485950112367</v>
       </c>
       <c r="O57" t="n">
-        <v>0.4161567275804415</v>
+        <v>0.41615669298743535</v>
       </c>
       <c r="P57" t="n">
-        <v>0.413513542255615</v>
+        <v>0.41351344135448187</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.4103055473975425</v>
+        <v>0.41030535034347854</v>
       </c>
       <c r="R57" t="n">
-        <v>0.40659795181485936</v>
+        <v>0.4065976128102188</v>
       </c>
       <c r="S57" t="n">
-        <v>0.4024060505493564</v>
+        <v>0.4024055177949607</v>
       </c>
       <c r="T57" t="n">
-        <v>0.3977985245393768</v>
+        <v>0.3977977378587145</v>
       </c>
       <c r="U57" t="n">
-        <v>0.3927654968446929</v>
+        <v>0.3927643911837981</v>
       </c>
       <c r="V57" t="n">
-        <v>0.38737551137416315</v>
+        <v>0.38737401618982514</v>
       </c>
       <c r="W57" t="n">
-        <v>0.38163580064109826</v>
+        <v>0.38163384014495155</v>
       </c>
       <c r="X57" t="n">
-        <v>0.3755464734867317</v>
+        <v>0.3755439643700819</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.36895315132577694</v>
+        <v>0.3689500088917421</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.3619513314357454</v>
+        <v>0.3619474881017352</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.3549282839881866</v>
+        <v>0.35492376677764326</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.3467626735441715</v>
+        <v>0.3467577375461875</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.3385442204725213</v>
+        <v>0.3385392988895768</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.3249018060696909</v>
+        <v>0.32489739589610495</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.3035339652997466</v>
+        <v>0.30353554386684334</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.2693464980344442</v>
+        <v>0.26934532602563876</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.2241016996396268</v>
+        <v>0.22409859786143346</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.17236861216644822</v>
+        <v>0.1723634973579164</v>
       </c>
       <c r="AI57" t="n">
-        <v>0.12280705373605005</v>
+        <v>0.12280489849431908</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0.07947307963087547</v>
+        <v>0.07947082109795689</v>
       </c>
     </row>
   </sheetData>
@@ -41461,85 +41461,85 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.011650779266079733</v>
+        <v>0.011650851556617879</v>
       </c>
       <c r="D7" t="n">
-        <v>0.011569577163568724</v>
+        <v>0.011569649441521905</v>
       </c>
       <c r="E7" t="n">
-        <v>0.011428451452632627</v>
+        <v>0.011428523698970098</v>
       </c>
       <c r="F7" t="n">
-        <v>0.011306316480377079</v>
+        <v>0.011306388699426807</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01119259021789323</v>
+        <v>0.011192662411899448</v>
       </c>
       <c r="H7" t="n">
-        <v>0.011102910506258916</v>
+        <v>0.011102982684151124</v>
       </c>
       <c r="I7" t="n">
-        <v>0.011078391610482725</v>
+        <v>0.0110784637360972</v>
       </c>
       <c r="J7" t="n">
-        <v>0.011081900073305048</v>
+        <v>0.01108197219918341</v>
       </c>
       <c r="K7" t="n">
-        <v>0.011106185194307843</v>
+        <v>0.011106257338267317</v>
       </c>
       <c r="L7" t="n">
-        <v>0.011138034501019363</v>
+        <v>0.01113810664589403</v>
       </c>
       <c r="M7" t="n">
-        <v>0.011199517194694657</v>
+        <v>0.011199589354564237</v>
       </c>
       <c r="N7" t="n">
-        <v>0.011330422015530434</v>
+        <v>0.01133049427906538</v>
       </c>
       <c r="O7" t="n">
-        <v>0.011482190273777736</v>
+        <v>0.01148226276053779</v>
       </c>
       <c r="P7" t="n">
-        <v>0.011661466512922132</v>
+        <v>0.011661539366676925</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.011844349511900434</v>
+        <v>0.011844422934052589</v>
       </c>
       <c r="R7" t="n">
-        <v>0.012044939896873144</v>
+        <v>0.01204501538012184</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0123455259186158</v>
+        <v>0.012345603182054313</v>
       </c>
       <c r="T7" t="n">
-        <v>0.012654031456271184</v>
+        <v>0.01265411124784285</v>
       </c>
       <c r="U7" t="n">
-        <v>0.012981621389593953</v>
+        <v>0.01298170459026</v>
       </c>
       <c r="V7" t="n">
-        <v>0.013316043358227813</v>
+        <v>0.013316130392056187</v>
       </c>
       <c r="W7" t="n">
-        <v>0.013730595967350857</v>
+        <v>0.013730697958512074</v>
       </c>
       <c r="X7" t="n">
-        <v>0.014240031122847576</v>
+        <v>0.014240141989880977</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.014756457021762296</v>
+        <v>0.01475657759004016</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.015292891333152208</v>
+        <v>0.015293024194830676</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01674712572517465</v>
+        <v>0.01674744537964847</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.020870040340017413</v>
+        <v>0.020870496808983525</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.022150474290091326</v>
+        <v>0.022150566294832367</v>
       </c>
       <c r="AD7"/>
       <c r="AE7"/>
@@ -41557,85 +41557,85 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06128206274572465</v>
+        <v>0.0612820765344754</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05788322710305761</v>
+        <v>0.0578832408894079</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05424599461763909</v>
+        <v>0.05424600839795898</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05120292218885193</v>
+        <v>0.05120293596396693</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04884396695623185</v>
+        <v>0.04884398072657003</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04710135337027017</v>
+        <v>0.047101367137534746</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04605207570790605</v>
+        <v>0.046052089465199134</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04567586284045219</v>
+        <v>0.04567587659779562</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04599872944031734</v>
+        <v>0.04599874320110957</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04703414337890072</v>
+        <v>0.04703415713986751</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04877613001956876</v>
+        <v>0.04877614378339568</v>
       </c>
       <c r="N8" t="n">
-        <v>0.051289479984412766</v>
+        <v>0.05128949376801291</v>
       </c>
       <c r="O8" t="n">
-        <v>0.05450711549076707</v>
+        <v>0.054507129316945326</v>
       </c>
       <c r="P8" t="n">
-        <v>0.05853626366133721</v>
+        <v>0.05853627755751632</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.06326494849609779</v>
+        <v>0.06326496250069344</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0688476876636607</v>
+        <v>0.06884770206139143</v>
       </c>
       <c r="S8" t="n">
-        <v>0.07515585748245579</v>
+        <v>0.07515587221974124</v>
       </c>
       <c r="T8" t="n">
-        <v>0.08235028005694792</v>
+        <v>0.08235029527645135</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09026830185180172</v>
+        <v>0.09026831772155834</v>
       </c>
       <c r="V8" t="n">
-        <v>0.09912343879797146</v>
+        <v>0.09912345539886831</v>
       </c>
       <c r="W8" t="n">
-        <v>0.10874107361847683</v>
+        <v>0.1087410930723464</v>
       </c>
       <c r="X8" t="n">
-        <v>0.11929826388632528</v>
+        <v>0.11929828503318528</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.13065129248177318</v>
+        <v>0.13065131547905573</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.14289132944277383</v>
+        <v>0.14289135478490872</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.15619271066606416</v>
+        <v>0.15619277163719508</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.17089767845666787</v>
+        <v>0.17089776552389632</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.18291792024953588</v>
+        <v>0.18291793779858828</v>
       </c>
       <c r="AD8"/>
       <c r="AE8"/>
@@ -41653,82 +41653,82 @@
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>1.5476554256390478</v>
+        <v>1.5476567128920964</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9379258586781476</v>
+        <v>0.9379270015664556</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3168314385367961</v>
+        <v>0.3168324370603621</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3128237199440156</v>
+        <v>-0.31282286578518903</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.897884867595407</v>
+        <v>-0.8978841578013228</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.538209046491808</v>
+        <v>-1.538208481062465</v>
       </c>
       <c r="I9" t="n">
-        <v>-2.188292923174097</v>
+        <v>-2.1882925016495998</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.848068102200826</v>
+        <v>-2.848067825198747</v>
       </c>
       <c r="K9" t="n">
         <v>-3.504936119662955</v>
       </c>
       <c r="L9" t="n">
-        <v>-4.196972824290768</v>
+        <v>-4.196972836333524</v>
       </c>
       <c r="M9" t="n">
-        <v>-4.88659209096889</v>
+        <v>-4.886592247534065</v>
       </c>
       <c r="N9" t="n">
-        <v>-5.579196926560195</v>
+        <v>-5.57919750203752</v>
       </c>
       <c r="O9" t="n">
-        <v>-6.270882838416222</v>
+        <v>-6.2708842939309655</v>
       </c>
       <c r="P9" t="n">
-        <v>-6.960366985516991</v>
+        <v>-6.960369992650055</v>
       </c>
       <c r="Q9" t="n">
-        <v>-7.64887570366527</v>
+        <v>-7.648880962088194</v>
       </c>
       <c r="R9" t="n">
-        <v>-8.336312855102747</v>
+        <v>-8.336322024064703</v>
       </c>
       <c r="S9" t="n">
-        <v>-9.07004803618235</v>
+        <v>-9.070062040588624</v>
       </c>
       <c r="T9" t="n">
-        <v>-9.802718572580332</v>
+        <v>-9.802738899005917</v>
       </c>
       <c r="U9" t="n">
-        <v>-10.535906383994067</v>
+        <v>-10.535934630579796</v>
       </c>
       <c r="V9" t="n">
-        <v>-11.268993268649176</v>
+        <v>-11.269031157781036</v>
       </c>
       <c r="W9" t="n">
-        <v>-12.078491785789343</v>
+        <v>-12.078552235194621</v>
       </c>
       <c r="X9" t="n">
-        <v>-12.97957368277908</v>
+        <v>-12.979650681701472</v>
       </c>
       <c r="Y9" t="n">
-        <v>-13.888578748742958</v>
+        <v>-13.888674810792612</v>
       </c>
       <c r="Z9" t="n">
-        <v>-14.803292605910755</v>
+        <v>-14.803409731196307</v>
       </c>
       <c r="AA9" t="n">
-        <v>-17.322451935937984</v>
+        <v>-17.322899857772185</v>
       </c>
       <c r="AB9" t="n">
-        <v>-23.521833057843793</v>
+        <v>-23.52233641234016</v>
       </c>
       <c r="AC9" t="n">
         <v>-25.0</v>
@@ -41749,85 +41749,85 @@
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6281561669741547</v>
+        <v>0.6281562395789742</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6281561669741541</v>
+        <v>0.6281562395789733</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6281561669741541</v>
+        <v>0.628156239578973</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6281561669741543</v>
+        <v>0.6281562395789735</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6281561669741543</v>
+        <v>0.6281562395789735</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6281561669741544</v>
+        <v>0.6281562395789735</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6281561669741543</v>
+        <v>0.6281562395789735</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6249846415874858</v>
+        <v>0.6249847474697089</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6281561669741544</v>
+        <v>0.6281562395789736</v>
       </c>
       <c r="L10" t="n">
-        <v>0.631327692360823</v>
+        <v>0.6313277316882381</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6250122137389943</v>
+        <v>0.625012353944442</v>
       </c>
       <c r="N10" t="n">
-        <v>0.618699704931743</v>
+        <v>0.6187000278671438</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6123664551444002</v>
+        <v>0.6123670603587812</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6061783967316308</v>
+        <v>0.6061793432367978</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6001810062450752</v>
+        <v>0.6001823938242685</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5942327073151715</v>
+        <v>0.5942346610482695</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5883106565361333</v>
+        <v>0.588313255806423</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5825677224523386</v>
+        <v>0.5825710403456461</v>
       </c>
       <c r="U10" t="n">
-        <v>0.5770425027366247</v>
+        <v>0.577046594188063</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5716014510155821</v>
+        <v>0.5716063746743268</v>
       </c>
       <c r="W10" t="n">
-        <v>0.566222659291228</v>
+        <v>0.5662284861171719</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5610425364110408</v>
+        <v>0.561049313810277</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.5561506104912276</v>
+        <v>0.5561582468908212</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.5531716941126312</v>
+        <v>0.5531795444325087</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.5579024352982115</v>
+        <v>0.5579086423158287</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.5755451454893438</v>
+        <v>0.5755473816107877</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.6062422969165698</v>
+        <v>0.6062391882240209</v>
       </c>
       <c r="AD10"/>
       <c r="AE10"/>
@@ -41845,85 +41845,85 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.29815616697415465</v>
+        <v>0.29815623957897414</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2981561669741541</v>
+        <v>0.29815623957897325</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2981561669741541</v>
+        <v>0.298156239578973</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2981561669741543</v>
+        <v>0.29815623957897347</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2981561669741543</v>
+        <v>0.29815623957897347</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2981561669741544</v>
+        <v>0.29815623957897347</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2981561669741543</v>
+        <v>0.29815623957897347</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2949846415874858</v>
+        <v>0.2949847474697089</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2981561669741544</v>
+        <v>0.2981562395789736</v>
       </c>
       <c r="L11" t="n">
-        <v>0.30132769236082296</v>
+        <v>0.30132773168823807</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2950122137389943</v>
+        <v>0.295012353944442</v>
       </c>
       <c r="N11" t="n">
-        <v>0.28869970493174296</v>
+        <v>0.2887000278671438</v>
       </c>
       <c r="O11" t="n">
-        <v>0.28236645514440023</v>
+        <v>0.2823670603587812</v>
       </c>
       <c r="P11" t="n">
-        <v>0.27617839673163075</v>
+        <v>0.27617934323679777</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2701810062450752</v>
+        <v>0.2701823938242685</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2642327073151715</v>
+        <v>0.2642346610482695</v>
       </c>
       <c r="S11" t="n">
-        <v>0.25831065653613333</v>
+        <v>0.258313255806423</v>
       </c>
       <c r="T11" t="n">
-        <v>0.25256772245233855</v>
+        <v>0.2525710403456461</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2470425027366247</v>
+        <v>0.24704659418806302</v>
       </c>
       <c r="V11" t="n">
-        <v>0.2416014510155821</v>
+        <v>0.24160637467432683</v>
       </c>
       <c r="W11" t="n">
-        <v>0.23622265929122793</v>
+        <v>0.2362284861171719</v>
       </c>
       <c r="X11" t="n">
-        <v>0.23104253641104083</v>
+        <v>0.231049313810277</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.2261506104912276</v>
+        <v>0.22615824689082115</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.2231716941126312</v>
+        <v>0.2231795444325087</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.22790243529821147</v>
+        <v>0.2279086423158287</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.24554514548934375</v>
+        <v>0.24554738161078765</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.2762422969165698</v>
+        <v>0.2762391882240209</v>
       </c>
       <c r="AD11"/>
       <c r="AE11"/>
@@ -41941,85 +41941,85 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.8132651614649937</v>
+        <v>-0.8132649784765696</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7042156359955034</v>
+        <v>0.7042154682688302</v>
       </c>
       <c r="E12" t="n">
-        <v>2.4201951418634384</v>
+        <v>2.4201945270520593</v>
       </c>
       <c r="F12" t="n">
-        <v>4.330833754088732</v>
+        <v>4.330832588965445</v>
       </c>
       <c r="G12" t="n">
-        <v>6.398329596586747</v>
+        <v>6.398327792737819</v>
       </c>
       <c r="H12" t="n">
-        <v>8.554165187528884</v>
+        <v>8.554162687230855</v>
       </c>
       <c r="I12" t="n">
-        <v>10.71055451776523</v>
+        <v>10.710551318165834</v>
       </c>
       <c r="J12" t="n">
-        <v>12.774995714465991</v>
+        <v>12.774991866701777</v>
       </c>
       <c r="K12" t="n">
-        <v>14.646245220687584</v>
+        <v>14.64624083917793</v>
       </c>
       <c r="L12" t="n">
-        <v>16.240140217728488</v>
+        <v>16.240135466287324</v>
       </c>
       <c r="M12" t="n">
-        <v>17.506600178733613</v>
+        <v>17.506595238658484</v>
       </c>
       <c r="N12" t="n">
-        <v>18.40334690560772</v>
+        <v>18.403341959870172</v>
       </c>
       <c r="O12" t="n">
-        <v>18.966690450409</v>
+        <v>18.966685639353155</v>
       </c>
       <c r="P12" t="n">
-        <v>19.19614108233087</v>
+        <v>19.196136525276238</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.180384392172254</v>
+        <v>19.18038014632246</v>
       </c>
       <c r="R12" t="n">
-        <v>18.928011356161782</v>
+        <v>18.92800739785377</v>
       </c>
       <c r="S12" t="n">
-        <v>18.53184047476966</v>
+        <v>18.53183684086834</v>
       </c>
       <c r="T12" t="n">
-        <v>18.00030259354068</v>
+        <v>18.000299266829266</v>
       </c>
       <c r="U12" t="n">
-        <v>17.412588272811647</v>
+        <v>17.412585211565517</v>
       </c>
       <c r="V12" t="n">
-        <v>16.758967159588455</v>
+        <v>16.758964352847265</v>
       </c>
       <c r="W12" t="n">
-        <v>16.098057661651108</v>
+        <v>16.098054781695563</v>
       </c>
       <c r="X12" t="n">
-        <v>15.40940439366561</v>
+        <v>15.409401662188648</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.699639776053967</v>
+        <v>14.6996371886191</v>
       </c>
       <c r="Z12" t="n">
-        <v>13.952039827584809</v>
+        <v>13.952037353156067</v>
       </c>
       <c r="AA12" t="n">
-        <v>13.157454639964579</v>
+        <v>13.157449503844122</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.30694401645331</v>
+        <v>12.306937746438583</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.686164656641152</v>
+        <v>11.686163535476556</v>
       </c>
       <c r="AD12"/>
       <c r="AE12"/>
@@ -42037,7 +42037,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>19.19614108233087</v>
+        <v>19.196136525276238</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF.xlsx
@@ -493,7 +493,7 @@
     <t>CM horizontal Tail</t>
   </si>
   <si>
-    <t>Xcg = 33.0 %</t>
+    <t>Xcg = 25.0 %</t>
   </si>
   <si>
     <t>CM total</t>
@@ -876,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>1.5688906056863177</v>
+        <v>1.5690095380038644</v>
       </c>
     </row>
     <row r="13">
@@ -909,7 +909,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="n">
-        <v>18.645925244801184</v>
+        <v>18.647227328133937</v>
       </c>
     </row>
     <row r="16">
@@ -944,103 +944,103 @@
         <v>-2.613986336660032</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.9091405311612073</v>
+        <v>-1.9091010740905179</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.2042947256623826</v>
+        <v>-1.2042158115210038</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4994489201635578</v>
+        <v>-0.49933054895148954</v>
       </c>
       <c r="G19" t="n">
-        <v>0.205396885335267</v>
+        <v>0.2055547136180247</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9102426908340917</v>
+        <v>0.9104399761875388</v>
       </c>
       <c r="I19" t="n">
-        <v>1.6150884963329166</v>
+        <v>1.6153252387570531</v>
       </c>
       <c r="J19" t="n">
-        <v>2.319934301831741</v>
+        <v>2.3202105013265673</v>
       </c>
       <c r="K19" t="n">
-        <v>3.0247801073305656</v>
+        <v>3.025095763896081</v>
       </c>
       <c r="L19" t="n">
-        <v>3.7296259128293903</v>
+        <v>3.7299810264655955</v>
       </c>
       <c r="M19" t="n">
-        <v>4.434471718328215</v>
+        <v>4.43486628903511</v>
       </c>
       <c r="N19" t="n">
-        <v>5.1393175238270405</v>
+        <v>5.139751551604624</v>
       </c>
       <c r="O19" t="n">
-        <v>5.844163329325864</v>
+        <v>5.844636814174139</v>
       </c>
       <c r="P19" t="n">
-        <v>6.54900913482469</v>
+        <v>6.549522076743653</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.253854940323514</v>
+        <v>7.254407339313168</v>
       </c>
       <c r="R19" t="n">
-        <v>7.958700745822339</v>
+        <v>7.959292601882682</v>
       </c>
       <c r="S19" t="n">
-        <v>8.663546551321165</v>
+        <v>8.664177864452196</v>
       </c>
       <c r="T19" t="n">
-        <v>9.368392356819989</v>
+        <v>9.369063127021711</v>
       </c>
       <c r="U19" t="n">
-        <v>10.073238162318816</v>
+        <v>10.073948389591223</v>
       </c>
       <c r="V19" t="n">
-        <v>10.77808396781764</v>
+        <v>10.778833652160738</v>
       </c>
       <c r="W19" t="n">
-        <v>11.482929773316467</v>
+        <v>11.48371891473025</v>
       </c>
       <c r="X19" t="n">
-        <v>12.187775578815291</v>
+        <v>12.188604177299766</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.892621384314118</v>
+        <v>12.893489439869278</v>
       </c>
       <c r="Z19" t="n">
-        <v>13.597467189812942</v>
+        <v>13.598374702438793</v>
       </c>
       <c r="AA19" t="n">
-        <v>14.30231299531177</v>
+        <v>14.303259965008305</v>
       </c>
       <c r="AB19" t="n">
-        <v>15.007158800810593</v>
+        <v>15.00814522757782</v>
       </c>
       <c r="AC19" t="n">
-        <v>15.71200460630942</v>
+        <v>15.713030490147332</v>
       </c>
       <c r="AD19" t="n">
-        <v>16.41685041180824</v>
+        <v>16.417915752716844</v>
       </c>
       <c r="AE19" t="n">
-        <v>17.12169621730707</v>
+        <v>17.122801015286363</v>
       </c>
       <c r="AF19" t="n">
-        <v>17.82654202280589</v>
+        <v>17.827686277855875</v>
       </c>
       <c r="AG19" t="n">
-        <v>18.531387828304716</v>
+        <v>18.532571540425394</v>
       </c>
       <c r="AH19" t="n">
-        <v>19.236233633803536</v>
+        <v>19.237456802994906</v>
       </c>
       <c r="AI19" t="n">
-        <v>19.941079439302364</v>
+        <v>19.942342065564425</v>
       </c>
       <c r="AJ19" t="n">
-        <v>20.645925244801184</v>
+        <v>20.647227328133937</v>
       </c>
     </row>
     <row r="20">
@@ -1054,103 +1054,103 @@
         <v>-0.18268003983347944</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.11829940992098631</v>
+        <v>-0.11829580591136368</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.053918780008493226</v>
+        <v>-0.05391157198924796</v>
       </c>
       <c r="F20" t="n">
-        <v>0.010461849903999898</v>
+        <v>0.010472661932867784</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07484247981649302</v>
+        <v>0.07485689585498354</v>
       </c>
       <c r="H20" t="n">
-        <v>0.13922310972898613</v>
+        <v>0.13924112977709927</v>
       </c>
       <c r="I20" t="n">
-        <v>0.20360373964147926</v>
+        <v>0.20362536369921502</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2679843695539723</v>
+        <v>0.26800959762133075</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3323649994664654</v>
+        <v>0.3323938315434465</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3967456293789585</v>
+        <v>0.3967780654655622</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4611262592914517</v>
+        <v>0.461162299387678</v>
       </c>
       <c r="N20" t="n">
-        <v>0.5255068892039448</v>
+        <v>0.5255465333097937</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5898875191164378</v>
+        <v>0.5899307672319095</v>
       </c>
       <c r="P20" t="n">
-        <v>0.654268149028931</v>
+        <v>0.6543150011540252</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.718648778941424</v>
+        <v>0.7186992350761411</v>
       </c>
       <c r="R20" t="n">
-        <v>0.7830294088539173</v>
+        <v>0.7830834689982568</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8474100387664104</v>
+        <v>0.8474677029203724</v>
       </c>
       <c r="T20" t="n">
-        <v>0.9117906686789035</v>
+        <v>0.9118519368424883</v>
       </c>
       <c r="U20" t="n">
-        <v>0.9761712985913968</v>
+        <v>0.9762361707646039</v>
       </c>
       <c r="V20" t="n">
-        <v>1.0405519285038898</v>
+        <v>1.0406204046867198</v>
       </c>
       <c r="W20" t="n">
-        <v>1.1049325584163834</v>
+        <v>1.1050046386088352</v>
       </c>
       <c r="X20" t="n">
-        <v>1.1693131883288763</v>
+        <v>1.1693888725309511</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.2336938182287067</v>
+        <v>1.2337731064183957</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.2976481269786913</v>
+        <v>1.2977298706642313</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.3591419595094845</v>
+        <v>1.3592254362527947</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.4159466340170415</v>
+        <v>1.4160328420509711</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.4660776100473605</v>
+        <v>1.4661684604877263</v>
       </c>
       <c r="AD20" t="n">
-        <v>1.5077944884964634</v>
+        <v>1.5078919975541294</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.5396010116104257</v>
+        <v>1.5397064928033637</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.5602450629853273</v>
+        <v>1.5603583193506858</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.5687186675672997</v>
+        <v>1.5688371838734594</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.5642579916525072</v>
+        <v>1.5643761266111729</v>
       </c>
       <c r="AI20" t="n">
-        <v>1.5463433428871554</v>
+        <v>1.5464515213653667</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.514699170267459</v>
+        <v>1.5147830754997114</v>
       </c>
     </row>
     <row r="21">
@@ -7284,7 +7284,7 @@
         <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>0.016468951046296317</v>
+        <v>0.01646890580359575</v>
       </c>
     </row>
     <row r="79">
@@ -7308,103 +7308,103 @@
         <v>-0.18268003983347944</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.11829940992098631</v>
+        <v>-0.11829580591136368</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.053918780008493226</v>
+        <v>-0.05391157198924796</v>
       </c>
       <c r="F81" t="n">
-        <v>0.010461849903999898</v>
+        <v>0.010472661932867784</v>
       </c>
       <c r="G81" t="n">
-        <v>0.07484247981649302</v>
+        <v>0.07485689585498354</v>
       </c>
       <c r="H81" t="n">
-        <v>0.13922310972898613</v>
+        <v>0.13924112977709927</v>
       </c>
       <c r="I81" t="n">
-        <v>0.20360373964147926</v>
+        <v>0.20362536369921502</v>
       </c>
       <c r="J81" t="n">
-        <v>0.2679843695539723</v>
+        <v>0.26800959762133075</v>
       </c>
       <c r="K81" t="n">
-        <v>0.3323649994664654</v>
+        <v>0.3323938315434465</v>
       </c>
       <c r="L81" t="n">
-        <v>0.3967456293789585</v>
+        <v>0.3967780654655622</v>
       </c>
       <c r="M81" t="n">
-        <v>0.4611262592914517</v>
+        <v>0.461162299387678</v>
       </c>
       <c r="N81" t="n">
-        <v>0.5255068892039448</v>
+        <v>0.5255465333097937</v>
       </c>
       <c r="O81" t="n">
-        <v>0.5898875191164378</v>
+        <v>0.5899307672319095</v>
       </c>
       <c r="P81" t="n">
-        <v>0.654268149028931</v>
+        <v>0.6543150011540252</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.718648778941424</v>
+        <v>0.7186992350761411</v>
       </c>
       <c r="R81" t="n">
-        <v>0.7830294088539173</v>
+        <v>0.7830834689982568</v>
       </c>
       <c r="S81" t="n">
-        <v>0.8474100387664104</v>
+        <v>0.8474677029203724</v>
       </c>
       <c r="T81" t="n">
-        <v>0.9117906686789035</v>
+        <v>0.9118519368424883</v>
       </c>
       <c r="U81" t="n">
-        <v>0.9761712985913968</v>
+        <v>0.9762361707646039</v>
       </c>
       <c r="V81" t="n">
-        <v>1.0405519285038898</v>
+        <v>1.0406204046867198</v>
       </c>
       <c r="W81" t="n">
-        <v>1.1049325584163834</v>
+        <v>1.1050046386088352</v>
       </c>
       <c r="X81" t="n">
-        <v>1.1693131883288763</v>
+        <v>1.1693888725309511</v>
       </c>
       <c r="Y81" t="n">
-        <v>1.2336938182287067</v>
+        <v>1.2337731064183957</v>
       </c>
       <c r="Z81" t="n">
-        <v>1.2976481269786913</v>
+        <v>1.2977298706642313</v>
       </c>
       <c r="AA81" t="n">
-        <v>1.3591419595094845</v>
+        <v>1.3592254362527947</v>
       </c>
       <c r="AB81" t="n">
-        <v>1.4159466340170415</v>
+        <v>1.4160328420509711</v>
       </c>
       <c r="AC81" t="n">
-        <v>1.4660776100473605</v>
+        <v>1.4661684604877263</v>
       </c>
       <c r="AD81" t="n">
-        <v>1.5077944884964634</v>
+        <v>1.5078919975541294</v>
       </c>
       <c r="AE81" t="n">
-        <v>1.5396010116104257</v>
+        <v>1.5397064928033637</v>
       </c>
       <c r="AF81" t="n">
-        <v>1.5602450629853273</v>
+        <v>1.5603583193506858</v>
       </c>
       <c r="AG81" t="n">
-        <v>1.5687186675672997</v>
+        <v>1.5688371838734594</v>
       </c>
       <c r="AH81" t="n">
-        <v>1.5642579916525072</v>
+        <v>1.5643761266111729</v>
       </c>
       <c r="AI81" t="n">
-        <v>1.5463433428871554</v>
+        <v>1.5464515213653667</v>
       </c>
       <c r="AJ81" t="n">
-        <v>1.514699170267459</v>
+        <v>1.5147830754997114</v>
       </c>
     </row>
     <row r="82">
@@ -7418,103 +7418,103 @@
         <v>0.027304896788316095</v>
       </c>
       <c r="D82" t="n">
-        <v>0.023526649299168097</v>
+        <v>0.023526468645268327</v>
       </c>
       <c r="E82" t="n">
-        <v>0.020445799545479933</v>
+        <v>0.02044546954929373</v>
       </c>
       <c r="F82" t="n">
-        <v>0.017946033699870655</v>
+        <v>0.017945652260130944</v>
       </c>
       <c r="G82" t="n">
-        <v>0.015951318747963718</v>
+        <v>0.015950955002610172</v>
       </c>
       <c r="H82" t="n">
-        <v>0.014541856384216756</v>
+        <v>0.014541594703077743</v>
       </c>
       <c r="I82" t="n">
-        <v>0.013941560853515373</v>
+        <v>0.013941434698670877</v>
       </c>
       <c r="J82" t="n">
-        <v>0.013986878879348475</v>
+        <v>0.013987014575882598</v>
       </c>
       <c r="K82" t="n">
-        <v>0.014596677870367027</v>
+        <v>0.014597109951227366</v>
       </c>
       <c r="L82" t="n">
-        <v>0.015777277451422524</v>
+        <v>0.01577803984501349</v>
       </c>
       <c r="M82" t="n">
-        <v>0.017580420782290086</v>
+        <v>0.017581547303179387</v>
       </c>
       <c r="N82" t="n">
-        <v>0.020059495755245856</v>
+        <v>0.02006128146341489</v>
       </c>
       <c r="O82" t="n">
-        <v>0.023221467531586937</v>
+        <v>0.023223817613206924</v>
       </c>
       <c r="P82" t="n">
-        <v>0.02698955929116144</v>
+        <v>0.026992529864437412</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.031352690916435604</v>
+        <v>0.03135628502830781</v>
       </c>
       <c r="R82" t="n">
-        <v>0.036290556588568855</v>
+        <v>0.03629500320169181</v>
       </c>
       <c r="S82" t="n">
-        <v>0.04187687623770385</v>
+        <v>0.041882195846550174</v>
       </c>
       <c r="T82" t="n">
-        <v>0.04817810773547755</v>
+        <v>0.04818444091880027</v>
       </c>
       <c r="U82" t="n">
-        <v>0.055110258670535796</v>
+        <v>0.055117512247502415</v>
       </c>
       <c r="V82" t="n">
-        <v>0.06260267846564503</v>
+        <v>0.06261100601572259</v>
       </c>
       <c r="W82" t="n">
-        <v>0.07069733262538541</v>
+        <v>0.07070677059173588</v>
       </c>
       <c r="X82" t="n">
-        <v>0.07941967142218598</v>
+        <v>0.0794303780388228</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.0888424193071583</v>
+        <v>0.08885447191632387</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.09891679031073718</v>
+        <v>0.09893004874626342</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.10958321118263432</v>
+        <v>0.10959795147667319</v>
       </c>
       <c r="AB82" t="n">
-        <v>0.120806009293632</v>
+        <v>0.12082220495168502</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.13266733367914102</v>
+        <v>0.13268514686473987</v>
       </c>
       <c r="AD82" t="n">
-        <v>0.14522619784201626</v>
+        <v>0.1452455610269663</v>
       </c>
       <c r="AE82" t="n">
-        <v>0.15845325063274154</v>
+        <v>0.15847448012143836</v>
       </c>
       <c r="AF82" t="n">
-        <v>0.17224493951786632</v>
+        <v>0.1722679039857381</v>
       </c>
       <c r="AG82" t="n">
-        <v>0.1866246558799097</v>
+        <v>0.18664926567314505</v>
       </c>
       <c r="AH82" t="n">
-        <v>0.20164250719303334</v>
+        <v>0.20166903125881877</v>
       </c>
       <c r="AI82" t="n">
-        <v>0.21597709217212455</v>
+        <v>0.21599804842501863</v>
       </c>
       <c r="AJ82" t="n">
-        <v>0.2248441935465343</v>
+        <v>0.2248524524972096</v>
       </c>
     </row>
     <row r="83">
@@ -8029,16 +8029,16 @@
         <v>5</v>
       </c>
       <c r="C92" t="n">
-        <v>4.1139956105803684E-4</v>
+        <v>4.1139956105803695E-4</v>
       </c>
       <c r="D92" t="n">
-        <v>4.1281864691771E-4</v>
+        <v>4.1281864691771007E-4</v>
       </c>
       <c r="E92" t="n">
         <v>4.133656280903979E-4</v>
       </c>
       <c r="F92" t="n">
-        <v>4.1370439739958365E-4</v>
+        <v>4.1370439739958376E-4</v>
       </c>
       <c r="G92" t="n">
         <v>4.139470750254817E-4</v>
@@ -8047,10 +8047,10 @@
         <v>4.141347515944247E-4</v>
       </c>
       <c r="I92" t="n">
-        <v>4.14287262563004E-4</v>
+        <v>4.142872625630041E-4</v>
       </c>
       <c r="J92" t="n">
-        <v>4.144157619506838E-4</v>
+        <v>4.1441576195068387E-4</v>
       </c>
       <c r="K92" t="n">
         <v>4.1452719668993575E-4</v>
@@ -8065,7 +8065,7 @@
         <v>4.147996555789567E-4</v>
       </c>
       <c r="O92" t="n">
-        <v>4.148784145639874E-4</v>
+        <v>4.148784145639875E-4</v>
       </c>
       <c r="P92" t="n">
         <v>4.1495379384053543E-4</v>
@@ -8077,13 +8077,13 @@
         <v>4.15094472558353E-4</v>
       </c>
       <c r="S92" t="n">
-        <v>4.1515448096171505E-4</v>
+        <v>4.1515448096171516E-4</v>
       </c>
       <c r="T92" t="n">
-        <v>4.152154229889101E-4</v>
+        <v>4.152154229889102E-4</v>
       </c>
       <c r="U92" t="n">
-        <v>3.9454361010384295E-4</v>
+        <v>3.94543610103843E-4</v>
       </c>
       <c r="V92" t="n">
         <v>3.6988947810377763E-4</v>
@@ -8113,25 +8113,25 @@
         <v>1.7848721584747814E-4</v>
       </c>
       <c r="AE92" t="n">
-        <v>1.5545231839830573E-4</v>
+        <v>1.5545231839830576E-4</v>
       </c>
       <c r="AF92" t="n">
-        <v>1.326229786203414E-4</v>
+        <v>1.3262297862034144E-4</v>
       </c>
       <c r="AG92" t="n">
-        <v>1.0999798246108903E-4</v>
+        <v>1.0999798246108904E-4</v>
       </c>
       <c r="AH92" t="n">
-        <v>8.75764501178001E-5</v>
+        <v>8.757645011780012E-5</v>
       </c>
       <c r="AI92" t="n">
         <v>6.535740467225437E-5</v>
       </c>
       <c r="AJ92" t="n">
-        <v>4.3339532474779004E-5</v>
+        <v>4.333953247477901E-5</v>
       </c>
       <c r="AK92" t="n">
-        <v>2.1520976951696367E-5</v>
+        <v>2.152097695169637E-5</v>
       </c>
       <c r="AL92" t="n">
         <v>-1.0090258385541546E-7</v>
@@ -8143,13 +8143,13 @@
         <v>-4.277127603292589E-5</v>
       </c>
       <c r="AO92" t="n">
-        <v>-6.383291820567424E-5</v>
+        <v>-6.383291820567422E-5</v>
       </c>
       <c r="AP92" t="n">
         <v>-8.472629459171615E-5</v>
       </c>
       <c r="AQ92" t="n">
-        <v>-1.0546897803716672E-4</v>
+        <v>-1.0546897803716669E-4</v>
       </c>
       <c r="AR92" t="n">
         <v>-1.260890284378179E-4</v>
@@ -8161,19 +8161,19 @@
         <v>-1.6719140214198244E-4</v>
       </c>
       <c r="AU92" t="n">
-        <v>-1.879402527752614E-4</v>
+        <v>-1.8794025277526138E-4</v>
       </c>
       <c r="AV92" t="n">
-        <v>-2.0930661766162078E-4</v>
+        <v>-2.0930661766162075E-4</v>
       </c>
       <c r="AW92" t="n">
-        <v>-2.3255267593779496E-4</v>
+        <v>-2.325526759377949E-4</v>
       </c>
       <c r="AX92" t="n">
-        <v>-2.630981014344243E-4</v>
+        <v>-2.6309810143442425E-4</v>
       </c>
       <c r="AY92" t="n">
-        <v>-3.6005368898723244E-4</v>
+        <v>-3.600536889872324E-4</v>
       </c>
       <c r="AZ92" t="n">
         <v>2.852908815326277E-4</v>
@@ -8190,13 +8190,13 @@
         <v>0.010251102524993734</v>
       </c>
       <c r="D93" t="n">
-        <v>0.010253483678487172</v>
+        <v>0.010253483678487173</v>
       </c>
       <c r="E93" t="n">
         <v>0.010256928806330112</v>
       </c>
       <c r="F93" t="n">
-        <v>0.010262138007501795</v>
+        <v>0.010262138007501797</v>
       </c>
       <c r="G93" t="n">
         <v>0.010269285020557097</v>
@@ -8325,7 +8325,7 @@
         <v>0.008450129212531726</v>
       </c>
       <c r="AW93" t="n">
-        <v>0.00823320845283094</v>
+        <v>0.008233208452830942</v>
       </c>
       <c r="AX93" t="n">
         <v>0.007968889866022</v>
@@ -8348,7 +8348,7 @@
         <v>172.00144282714393</v>
       </c>
       <c r="D94" t="n">
-        <v>172.04139578200568</v>
+        <v>172.04139578200574</v>
       </c>
       <c r="E94" t="n">
         <v>172.0992009749852</v>
@@ -8685,7 +8685,7 @@
         <v>0.0011318563683744268</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0011323972461999348</v>
+        <v>0.001132397246199935</v>
       </c>
       <c r="G99" t="n">
         <v>0.0011327702964393606</v>
@@ -8697,40 +8697,40 @@
         <v>0.0011332455565131432</v>
       </c>
       <c r="J99" t="n">
-        <v>0.001133397291500348</v>
+        <v>0.0011333972915003481</v>
       </c>
       <c r="K99" t="n">
         <v>0.0011335081953388725</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0011335849555268384</v>
+        <v>0.0011335849555268386</v>
       </c>
       <c r="M99" t="n">
         <v>0.0011336318881843407</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0011336516805175152</v>
+        <v>0.0011336516805175154</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0011336456528950897</v>
+        <v>0.00113364565289509</v>
       </c>
       <c r="P99" t="n">
         <v>0.0011336135259722314</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.001133552412968251</v>
+        <v>0.0011335524129682513</v>
       </c>
       <c r="R99" t="n">
-        <v>0.0011334545468110555</v>
+        <v>0.0011334545468110557</v>
       </c>
       <c r="S99" t="n">
-        <v>0.0011333034845897232</v>
+        <v>0.0011333034845897234</v>
       </c>
       <c r="T99" t="n">
         <v>0.0011331636004806285</v>
       </c>
       <c r="U99" t="n">
-        <v>0.0011096878282048975</v>
+        <v>0.0011096878282048977</v>
       </c>
       <c r="V99" t="n">
         <v>0.0010818919492274954</v>
@@ -8760,7 +8760,7 @@
         <v>8.630870887775652E-4</v>
       </c>
       <c r="AE99" t="n">
-        <v>8.364819319495307E-4</v>
+        <v>8.364819319495309E-4</v>
       </c>
       <c r="AF99" t="n">
         <v>8.100734121524628E-4</v>
@@ -8775,10 +8775,10 @@
         <v>7.320542135355398E-4</v>
       </c>
       <c r="AJ99" t="n">
-        <v>7.064638066642777E-4</v>
+        <v>7.064638066642779E-4</v>
       </c>
       <c r="AK99" t="n">
-        <v>6.810906407138747E-4</v>
+        <v>6.810906407138748E-4</v>
       </c>
       <c r="AL99" t="n">
         <v>6.559423191362448E-4</v>
@@ -8790,16 +8790,16 @@
         <v>6.063634069387995E-4</v>
       </c>
       <c r="AO99" t="n">
-        <v>5.819653744350294E-4</v>
+        <v>5.819653744350292E-4</v>
       </c>
       <c r="AP99" t="n">
-        <v>5.578630141955015E-4</v>
+        <v>5.578630141955014E-4</v>
       </c>
       <c r="AQ99" t="n">
         <v>5.341006176579326E-4</v>
       </c>
       <c r="AR99" t="n">
-        <v>5.107514391166667E-4</v>
+        <v>5.107514391166666E-4</v>
       </c>
       <c r="AS99" t="n">
         <v>4.8794511053813945E-4</v>
@@ -8817,7 +8817,7 @@
         <v>4.1578227294994505E-4</v>
       </c>
       <c r="AX99" t="n">
-        <v>4.284765757222487E-4</v>
+        <v>4.284765757222486E-4</v>
       </c>
       <c r="AY99" t="n">
         <v>6.570649800738812E-4</v>
@@ -8843,7 +8843,7 @@
         <v>0.008247494795313885</v>
       </c>
       <c r="F100" t="n">
-        <v>0.008247053177631698</v>
+        <v>0.0082470531776317</v>
       </c>
       <c r="G100" t="n">
         <v>0.008246035283141237</v>
@@ -8975,7 +8975,7 @@
         <v>0.00724338243635308</v>
       </c>
       <c r="AX100" t="n">
-        <v>0.007131671591643872</v>
+        <v>0.007131671591643871</v>
       </c>
       <c r="AY100" t="n">
         <v>0.0074342331055919815</v>
@@ -9326,7 +9326,7 @@
         <v>0.00435228066702965</v>
       </c>
       <c r="D106" t="n">
-        <v>0.004358671662365515</v>
+        <v>0.0043586716623655155</v>
       </c>
       <c r="E106" t="n">
         <v>0.004360995812200238</v>
@@ -9338,49 +9338,49 @@
         <v>0.004362941818408144</v>
       </c>
       <c r="H106" t="n">
-        <v>0.004363245214521649</v>
+        <v>0.0043632452145216495</v>
       </c>
       <c r="I106" t="n">
-        <v>0.004363244966223871</v>
+        <v>0.004363244966223872</v>
       </c>
       <c r="J106" t="n">
-        <v>0.00436298336522775</v>
+        <v>0.004362983365227751</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0043624821301483565</v>
+        <v>0.004362482130148358</v>
       </c>
       <c r="L106" t="n">
         <v>0.004361750833192164</v>
       </c>
       <c r="M106" t="n">
-        <v>0.004360790795170125</v>
+        <v>0.004360790795170126</v>
       </c>
       <c r="N106" t="n">
         <v>0.004359596792663741</v>
       </c>
       <c r="O106" t="n">
-        <v>0.004358157291433613</v>
+        <v>0.004358157291433615</v>
       </c>
       <c r="P106" t="n">
-        <v>0.004356452999963034</v>
+        <v>0.0043564529999630345</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.004354452645332638</v>
+        <v>0.004354452645332639</v>
       </c>
       <c r="R106" t="n">
         <v>0.004352104168815184</v>
       </c>
       <c r="S106" t="n">
-        <v>0.004349320485013199</v>
+        <v>0.0043493204850132</v>
       </c>
       <c r="T106" t="n">
-        <v>0.004346883544613352</v>
+        <v>0.004346883544613354</v>
       </c>
       <c r="U106" t="n">
         <v>0.004313566097872469</v>
       </c>
       <c r="V106" t="n">
-        <v>0.004274888439797702</v>
+        <v>0.004274888439797703</v>
       </c>
       <c r="W106" t="n">
         <v>0.004235639168164383</v>
@@ -9398,7 +9398,7 @@
         <v>0.004075609088564858</v>
       </c>
       <c r="AB106" t="n">
-        <v>0.0040350053420267155</v>
+        <v>0.004035005342026716</v>
       </c>
       <c r="AC106" t="n">
         <v>0.00399412568821831</v>
@@ -9410,13 +9410,13 @@
         <v>0.0039124820276525175</v>
       </c>
       <c r="AF106" t="n">
-        <v>0.0038716153476855975</v>
+        <v>0.0038716153476855983</v>
       </c>
       <c r="AG106" t="n">
         <v>0.003830715217764186</v>
       </c>
       <c r="AH106" t="n">
-        <v>0.0037897820391541775</v>
+        <v>0.0037897820391541784</v>
       </c>
       <c r="AI106" t="n">
         <v>0.0037488154829136886</v>
@@ -9425,7 +9425,7 @@
         <v>0.003707814334763212</v>
       </c>
       <c r="AK106" t="n">
-        <v>0.0036667770563700943</v>
+        <v>0.003666777056370095</v>
       </c>
       <c r="AL106" t="n">
         <v>0.0036257030892749655</v>
@@ -9443,7 +9443,7 @@
         <v>0.0034612795171076573</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.003420414301655204</v>
+        <v>0.0034204143016552035</v>
       </c>
       <c r="AR106" t="n">
         <v>0.0033800089876874204</v>
@@ -9458,16 +9458,16 @@
         <v>0.0032715226827617935</v>
       </c>
       <c r="AV106" t="n">
-        <v>0.003252490128602714</v>
+        <v>0.0032524901286027134</v>
       </c>
       <c r="AW106" t="n">
-        <v>0.003271265497524404</v>
+        <v>0.003271265497524403</v>
       </c>
       <c r="AX106" t="n">
-        <v>0.003439812281078256</v>
+        <v>0.0034398122810782557</v>
       </c>
       <c r="AY106" t="n">
-        <v>0.005002360449652197</v>
+        <v>0.0050023604496521965</v>
       </c>
       <c r="AZ106" t="n">
         <v>-0.007956717957225141</v>
@@ -9496,7 +9496,7 @@
         <v>0.05581651823343635</v>
       </c>
       <c r="H107" t="n">
-        <v>0.05566556302264089</v>
+        <v>0.0556655630226409</v>
       </c>
       <c r="I107" t="n">
         <v>0.05547758301789059</v>
@@ -9654,7 +9654,7 @@
         <v>936.5355235040447</v>
       </c>
       <c r="H108" t="n">
-        <v>934.0026726232941</v>
+        <v>934.0026726232943</v>
       </c>
       <c r="I108" t="n">
         <v>930.8485892492499</v>
@@ -9834,7 +9834,7 @@
         <v>5</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.08010642009710181</v>
+        <v>-0.08010662906271897</v>
       </c>
     </row>
     <row r="115">
@@ -9858,103 +9858,103 @@
         <v>-2.613986336660032</v>
       </c>
       <c r="D117" t="n">
-        <v>-1.9091405311612073</v>
+        <v>-1.9091010740905179</v>
       </c>
       <c r="E117" t="n">
-        <v>-1.2042947256623826</v>
+        <v>-1.2042158115210038</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.4994489201635578</v>
+        <v>-0.49933054895148954</v>
       </c>
       <c r="G117" t="n">
-        <v>0.205396885335267</v>
+        <v>0.2055547136180247</v>
       </c>
       <c r="H117" t="n">
-        <v>0.9102426908340917</v>
+        <v>0.9104399761875388</v>
       </c>
       <c r="I117" t="n">
-        <v>1.6150884963329166</v>
+        <v>1.6153252387570531</v>
       </c>
       <c r="J117" t="n">
-        <v>2.319934301831741</v>
+        <v>2.3202105013265673</v>
       </c>
       <c r="K117" t="n">
-        <v>3.0247801073305656</v>
+        <v>3.025095763896081</v>
       </c>
       <c r="L117" t="n">
-        <v>3.7296259128293903</v>
+        <v>3.7299810264655955</v>
       </c>
       <c r="M117" t="n">
-        <v>4.434471718328215</v>
+        <v>4.43486628903511</v>
       </c>
       <c r="N117" t="n">
-        <v>5.1393175238270405</v>
+        <v>5.139751551604624</v>
       </c>
       <c r="O117" t="n">
-        <v>5.844163329325864</v>
+        <v>5.844636814174139</v>
       </c>
       <c r="P117" t="n">
-        <v>6.54900913482469</v>
+        <v>6.549522076743653</v>
       </c>
       <c r="Q117" t="n">
-        <v>7.253854940323514</v>
+        <v>7.254407339313168</v>
       </c>
       <c r="R117" t="n">
-        <v>7.958700745822339</v>
+        <v>7.959292601882682</v>
       </c>
       <c r="S117" t="n">
-        <v>8.663546551321165</v>
+        <v>8.664177864452196</v>
       </c>
       <c r="T117" t="n">
-        <v>9.368392356819989</v>
+        <v>9.369063127021711</v>
       </c>
       <c r="U117" t="n">
-        <v>10.073238162318816</v>
+        <v>10.073948389591223</v>
       </c>
       <c r="V117" t="n">
-        <v>10.77808396781764</v>
+        <v>10.778833652160738</v>
       </c>
       <c r="W117" t="n">
-        <v>11.482929773316467</v>
+        <v>11.48371891473025</v>
       </c>
       <c r="X117" t="n">
-        <v>12.187775578815291</v>
+        <v>12.188604177299766</v>
       </c>
       <c r="Y117" t="n">
-        <v>12.892621384314118</v>
+        <v>12.893489439869278</v>
       </c>
       <c r="Z117" t="n">
-        <v>13.597467189812942</v>
+        <v>13.598374702438793</v>
       </c>
       <c r="AA117" t="n">
-        <v>14.30231299531177</v>
+        <v>14.303259965008305</v>
       </c>
       <c r="AB117" t="n">
-        <v>15.007158800810593</v>
+        <v>15.00814522757782</v>
       </c>
       <c r="AC117" t="n">
-        <v>15.71200460630942</v>
+        <v>15.713030490147332</v>
       </c>
       <c r="AD117" t="n">
-        <v>16.41685041180824</v>
+        <v>16.417915752716844</v>
       </c>
       <c r="AE117" t="n">
-        <v>17.12169621730707</v>
+        <v>17.122801015286363</v>
       </c>
       <c r="AF117" t="n">
-        <v>17.82654202280589</v>
+        <v>17.827686277855875</v>
       </c>
       <c r="AG117" t="n">
-        <v>18.531387828304716</v>
+        <v>18.532571540425394</v>
       </c>
       <c r="AH117" t="n">
-        <v>19.236233633803536</v>
+        <v>19.237456802994906</v>
       </c>
       <c r="AI117" t="n">
-        <v>19.941079439302364</v>
+        <v>19.942342065564425</v>
       </c>
       <c r="AJ117" t="n">
-        <v>20.645925244801184</v>
+        <v>20.647227328133937</v>
       </c>
     </row>
     <row r="118">
@@ -11594,7 +11594,7 @@
         <v>5</v>
       </c>
       <c r="C160" t="n">
-        <v>16.199293049300472</v>
+        <v>16.20058459725243</v>
       </c>
     </row>
     <row r="161">
@@ -11605,7 +11605,7 @@
         <v>5</v>
       </c>
       <c r="C161" t="n">
-        <v>10.443816974792298</v>
+        <v>10.443806439411503</v>
       </c>
     </row>
     <row r="162">
@@ -11616,7 +11616,7 @@
         <v>5</v>
       </c>
       <c r="C162" t="n">
-        <v>2.0641705928517604</v>
+        <v>2.064289525169307</v>
       </c>
     </row>
     <row r="163">
@@ -11627,7 +11627,7 @@
         <v>5</v>
       </c>
       <c r="C163" t="n">
-        <v>1.7307056348338308</v>
+        <v>1.7307046646822755</v>
       </c>
     </row>
     <row r="164">
@@ -11832,43 +11832,43 @@
         <v>1.7065794507492544</v>
       </c>
       <c r="X168" t="n">
-        <v>1.7899386982372074</v>
+        <v>1.7899390705674185</v>
       </c>
       <c r="Y168" t="n">
-        <v>1.8692626850417278</v>
+        <v>1.8692674656290023</v>
       </c>
       <c r="Z168" t="n">
-        <v>1.939598776619253</v>
+        <v>1.9396157773450162</v>
       </c>
       <c r="AA168" t="n">
-        <v>1.9968601588548336</v>
+        <v>1.9968984042169624</v>
       </c>
       <c r="AB168" t="n">
-        <v>2.0378502540772767</v>
+        <v>2.0379173864611</v>
       </c>
       <c r="AC168" t="n">
-        <v>2.060262721059176</v>
+        <v>2.0603624060084553</v>
       </c>
       <c r="AD168" t="n">
-        <v>2.0626814550168855</v>
+        <v>2.062810786504825</v>
       </c>
       <c r="AE168" t="n">
-        <v>2.0445805876105445</v>
+        <v>2.04472749331074</v>
       </c>
       <c r="AF168" t="n">
-        <v>2.0063244869440555</v>
+        <v>2.006465133501529</v>
       </c>
       <c r="AG168" t="n">
-        <v>1.9491677575651116</v>
+        <v>1.949263955867265</v>
       </c>
       <c r="AH168" t="n">
-        <v>1.8752552404651701</v>
+        <v>1.8752518509127918</v>
       </c>
       <c r="AI168" t="n">
-        <v>1.7876220130794471</v>
+        <v>1.7874443508577014</v>
       </c>
       <c r="AJ168" t="n">
-        <v>1.6901933892869798</v>
+        <v>1.6897446296363605</v>
       </c>
     </row>
     <row r="169">
@@ -11957,43 +11957,43 @@
         <v>1.7065794507492544</v>
       </c>
       <c r="X172" t="n">
-        <v>1.7899386982372074</v>
+        <v>1.7899390705674185</v>
       </c>
       <c r="Y172" t="n">
-        <v>1.8692626850417278</v>
+        <v>1.8692674656290023</v>
       </c>
       <c r="Z172" t="n">
-        <v>1.939598776619253</v>
+        <v>1.9396157773450162</v>
       </c>
       <c r="AA172" t="n">
-        <v>1.9968601588548336</v>
+        <v>1.9968984042169624</v>
       </c>
       <c r="AB172" t="n">
-        <v>2.0378502540772767</v>
+        <v>2.0379173864611</v>
       </c>
       <c r="AC172" t="n">
-        <v>2.060262721059176</v>
+        <v>2.0603624060084553</v>
       </c>
       <c r="AD172" t="n">
-        <v>2.0626814550168855</v>
+        <v>2.062810786504825</v>
       </c>
       <c r="AE172" t="n">
-        <v>2.0445805876105445</v>
+        <v>2.04472749331074</v>
       </c>
       <c r="AF172" t="n">
-        <v>2.0063244869440555</v>
+        <v>2.006465133501529</v>
       </c>
       <c r="AG172" t="n">
-        <v>1.9491677575651116</v>
+        <v>1.949263955867265</v>
       </c>
       <c r="AH172" t="n">
-        <v>1.8752552404651701</v>
+        <v>1.8752518509127918</v>
       </c>
       <c r="AI172" t="n">
-        <v>1.7876220130794471</v>
+        <v>1.7874443508577014</v>
       </c>
       <c r="AJ172" t="n">
-        <v>1.6901933892869798</v>
+        <v>1.6897446296363605</v>
       </c>
     </row>
     <row r="173">
@@ -12007,103 +12007,103 @@
         <v>0.04418939404859758</v>
       </c>
       <c r="D173" t="n">
-        <v>0.04041114655944958</v>
+        <v>0.04041096590554981</v>
       </c>
       <c r="E173" t="n">
-        <v>0.037330296805761415</v>
+        <v>0.03732996680957521</v>
       </c>
       <c r="F173" t="n">
-        <v>0.03483053096015214</v>
+        <v>0.034830149520412426</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0328358160082452</v>
+        <v>0.032835452262891654</v>
       </c>
       <c r="H173" t="n">
-        <v>0.03142635364449824</v>
+        <v>0.03142609196335923</v>
       </c>
       <c r="I173" t="n">
-        <v>0.030826058113796857</v>
+        <v>0.03082593195895236</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03087137613962996</v>
+        <v>0.03087151183616408</v>
       </c>
       <c r="K173" t="n">
-        <v>0.031481175130648506</v>
+        <v>0.03148160721150885</v>
       </c>
       <c r="L173" t="n">
-        <v>0.032661774711704006</v>
+        <v>0.03266253710529497</v>
       </c>
       <c r="M173" t="n">
-        <v>0.03446491804257157</v>
+        <v>0.03446604456346087</v>
       </c>
       <c r="N173" t="n">
-        <v>0.03694399301552734</v>
+        <v>0.03694577872369637</v>
       </c>
       <c r="O173" t="n">
-        <v>0.04010596479186842</v>
+        <v>0.040108314873488406</v>
       </c>
       <c r="P173" t="n">
-        <v>0.04387405655144292</v>
+        <v>0.043877027124718894</v>
       </c>
       <c r="Q173" t="n">
-        <v>0.048237188176717086</v>
+        <v>0.048240782288589294</v>
       </c>
       <c r="R173" t="n">
-        <v>0.05317505384885034</v>
+        <v>0.05317950046197329</v>
       </c>
       <c r="S173" t="n">
-        <v>0.05876137349798533</v>
+        <v>0.058766693106831656</v>
       </c>
       <c r="T173" t="n">
-        <v>0.06506260499575903</v>
+        <v>0.06506893817908174</v>
       </c>
       <c r="U173" t="n">
-        <v>0.07199475593081728</v>
+        <v>0.0720020095077839</v>
       </c>
       <c r="V173" t="n">
-        <v>0.0794871757259265</v>
+        <v>0.07949550327600408</v>
       </c>
       <c r="W173" t="n">
-        <v>0.0875818298856669</v>
+        <v>0.08759126785201737</v>
       </c>
       <c r="X173" t="n">
-        <v>0.09630416868246747</v>
+        <v>0.09631487529910429</v>
       </c>
       <c r="Y173" t="n">
-        <v>0.1057269165674398</v>
+        <v>0.10573896917660536</v>
       </c>
       <c r="Z173" t="n">
-        <v>0.11580128757101865</v>
+        <v>0.1158145460065449</v>
       </c>
       <c r="AA173" t="n">
-        <v>0.1264677084429158</v>
+        <v>0.12648244873695466</v>
       </c>
       <c r="AB173" t="n">
-        <v>0.1376905065539135</v>
+        <v>0.13770670221196651</v>
       </c>
       <c r="AC173" t="n">
-        <v>0.1495518309394225</v>
+        <v>0.14956964412502136</v>
       </c>
       <c r="AD173" t="n">
-        <v>0.16211069510229775</v>
+        <v>0.1621300582872478</v>
       </c>
       <c r="AE173" t="n">
-        <v>0.17533774789302303</v>
+        <v>0.17535897738171985</v>
       </c>
       <c r="AF173" t="n">
-        <v>0.1891294367781478</v>
+        <v>0.1891524012460196</v>
       </c>
       <c r="AG173" t="n">
-        <v>0.2035091531401912</v>
+        <v>0.20353376293342654</v>
       </c>
       <c r="AH173" t="n">
-        <v>0.21852700445331483</v>
+        <v>0.21855352851910026</v>
       </c>
       <c r="AI173" t="n">
-        <v>0.23286158943240604</v>
+        <v>0.23288254568530012</v>
       </c>
       <c r="AJ173" t="n">
-        <v>0.24172869080681578</v>
+        <v>0.24173694975749108</v>
       </c>
     </row>
     <row r="174">
@@ -12365,7 +12365,7 @@
         <v>5</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0333534483065778</v>
+        <v>0.033353403063877234</v>
       </c>
     </row>
     <row r="182">
@@ -12376,7 +12376,7 @@
         <v>5</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.24211175230125767</v>
+        <v>-0.24211196126687484</v>
       </c>
     </row>
   </sheetData>
@@ -12598,7 +12598,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>1.7037463831650292</v>
+        <v>1.703924692571915</v>
       </c>
     </row>
     <row r="13">
@@ -12631,7 +12631,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="n">
-        <v>26.77707756204597</v>
+        <v>26.779681728712053</v>
       </c>
     </row>
     <row r="16">
@@ -12732,37 +12732,37 @@
         <v>7.382907000785908</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.988969977389509</v>
+        <v>7.988968975664372</v>
       </c>
       <c r="AA19" t="n">
-        <v>8.593792680508834</v>
+        <v>8.593786601224053</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.20963999242474</v>
+        <v>9.209619259387612</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.850956537264707</v>
+        <v>9.850880179479688</v>
       </c>
       <c r="AD19" t="n">
-        <v>10.53030394761375</v>
+        <v>10.530155882427596</v>
       </c>
       <c r="AE19" t="n">
-        <v>11.30167841211668</v>
+        <v>11.301401841422905</v>
       </c>
       <c r="AF19" t="n">
-        <v>12.234392218246597</v>
+        <v>12.233996857534603</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.244955315411492</v>
+        <v>13.244467816132602</v>
       </c>
       <c r="AH19" t="n">
-        <v>14.33354765734325</v>
+        <v>14.333018082412746</v>
       </c>
       <c r="AI19" t="n">
-        <v>15.399939192005654</v>
+        <v>15.399654507239429</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16.39642424275359</v>
+        <v>16.396144592367797</v>
       </c>
     </row>
     <row r="20">
@@ -12842,37 +12842,37 @@
         <v>0.5055136391769582</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.5470112634651544</v>
+        <v>0.5470111948762205</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.5884239652204586</v>
+        <v>0.5884235489668918</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.6305915308949034</v>
+        <v>0.6305901112870106</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.6745029956352738</v>
+        <v>0.6744977673557112</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.7210184646279659</v>
+        <v>0.7210083264844027</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.7738389336764524</v>
+        <v>0.7738199855506429</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.8379417791700947</v>
+        <v>0.8379144460591204</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.9082270825318008</v>
+        <v>0.9081927223006951</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.9853482733219818</v>
+        <v>0.9853099778757355</v>
       </c>
       <c r="AI20" t="n">
-        <v>1.0624436556197312</v>
+        <v>1.0624223998131583</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.1356840248084108</v>
+        <v>1.1356631591378532</v>
       </c>
     </row>
     <row r="21">
@@ -19096,37 +19096,37 @@
         <v>0.5055136391769582</v>
       </c>
       <c r="Z81" t="n">
-        <v>0.5470112634651544</v>
+        <v>0.5470111948762205</v>
       </c>
       <c r="AA81" t="n">
-        <v>0.5884239652204586</v>
+        <v>0.5884235489668918</v>
       </c>
       <c r="AB81" t="n">
-        <v>0.6305915308949034</v>
+        <v>0.6305901112870106</v>
       </c>
       <c r="AC81" t="n">
-        <v>0.6745029956352738</v>
+        <v>0.6744977673557112</v>
       </c>
       <c r="AD81" t="n">
-        <v>0.7210184646279659</v>
+        <v>0.7210083264844027</v>
       </c>
       <c r="AE81" t="n">
-        <v>0.7738389336764524</v>
+        <v>0.7738199855506429</v>
       </c>
       <c r="AF81" t="n">
-        <v>0.8379417791700947</v>
+        <v>0.8379144460591204</v>
       </c>
       <c r="AG81" t="n">
-        <v>0.9082270825318008</v>
+        <v>0.9081927223006951</v>
       </c>
       <c r="AH81" t="n">
-        <v>0.9853482733219818</v>
+        <v>0.9853099778757355</v>
       </c>
       <c r="AI81" t="n">
-        <v>1.0624436556197312</v>
+        <v>1.0624223998131583</v>
       </c>
       <c r="AJ81" t="n">
-        <v>1.1356840248084108</v>
+        <v>1.1356631591378532</v>
       </c>
     </row>
     <row r="82">
@@ -19206,37 +19206,37 @@
         <v>0.006432216468441842</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.006591058947121775</v>
+        <v>0.006591058672425782</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.006760429810600266</v>
+        <v>0.006760428039104679</v>
       </c>
       <c r="AB82" t="n">
-        <v>0.0069470542063487985</v>
+        <v>0.006947047751882594</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.0071510672377108776</v>
+        <v>0.007151041989018896</v>
       </c>
       <c r="AD82" t="n">
-        <v>0.007383160256374517</v>
+        <v>0.0073831085023771175</v>
       </c>
       <c r="AE82" t="n">
-        <v>0.007661799892775305</v>
+        <v>0.007661695179659193</v>
       </c>
       <c r="AF82" t="n">
-        <v>0.008025338503511982</v>
+        <v>0.008025176802661535</v>
       </c>
       <c r="AG82" t="n">
-        <v>0.008459107957291961</v>
+        <v>0.008458892351786861</v>
       </c>
       <c r="AH82" t="n">
-        <v>0.008964665736338804</v>
+        <v>0.008964412743952935</v>
       </c>
       <c r="AI82" t="n">
-        <v>0.009494681056948777</v>
+        <v>0.009494534961688655</v>
       </c>
       <c r="AJ82" t="n">
-        <v>0.010021668751862733</v>
+        <v>0.01002151529870714</v>
       </c>
     </row>
     <row r="83">
@@ -21646,37 +21646,37 @@
         <v>7.382907000785908</v>
       </c>
       <c r="Z117" t="n">
-        <v>7.988969977389509</v>
+        <v>7.988968975664372</v>
       </c>
       <c r="AA117" t="n">
-        <v>8.593792680508834</v>
+        <v>8.593786601224053</v>
       </c>
       <c r="AB117" t="n">
-        <v>9.20963999242474</v>
+        <v>9.209619259387612</v>
       </c>
       <c r="AC117" t="n">
-        <v>9.850956537264707</v>
+        <v>9.850880179479688</v>
       </c>
       <c r="AD117" t="n">
-        <v>10.53030394761375</v>
+        <v>10.530155882427596</v>
       </c>
       <c r="AE117" t="n">
-        <v>11.30167841211668</v>
+        <v>11.301401841422905</v>
       </c>
       <c r="AF117" t="n">
-        <v>12.234392218246597</v>
+        <v>12.233996857534603</v>
       </c>
       <c r="AG117" t="n">
-        <v>13.244955315411492</v>
+        <v>13.244467816132602</v>
       </c>
       <c r="AH117" t="n">
-        <v>14.33354765734325</v>
+        <v>14.333018082412746</v>
       </c>
       <c r="AI117" t="n">
-        <v>15.399939192005654</v>
+        <v>15.399654507239429</v>
       </c>
       <c r="AJ117" t="n">
-        <v>16.39642424275359</v>
+        <v>16.396144592367797</v>
       </c>
     </row>
     <row r="118">
@@ -21690,7 +21690,7 @@
         <v>-7.653202835300491E-5</v>
       </c>
       <c r="D118" t="n">
-        <v>-6.922928816649461E-5</v>
+        <v>-6.922928816649453E-5</v>
       </c>
       <c r="E118" t="n">
         <v>-6.192654797998458E-5</v>
@@ -21735,7 +21735,7 @@
         <v>0.0018318277701294132</v>
       </c>
       <c r="S118" t="n">
-        <v>0.0022268620526289737</v>
+        <v>0.0022268620526289746</v>
       </c>
       <c r="T118" t="n">
         <v>0.002618160567149062</v>
@@ -21750,43 +21750,43 @@
         <v>0.003771074221094089</v>
       </c>
       <c r="X118" t="n">
-        <v>0.004148554397492105</v>
+        <v>0.0041485543974921065</v>
       </c>
       <c r="Y118" t="n">
         <v>0.00452285086137753</v>
       </c>
       <c r="Z118" t="n">
-        <v>0.004894131774910474</v>
+        <v>0.004894131161242513</v>
       </c>
       <c r="AA118" t="n">
-        <v>0.005264652883126085</v>
+        <v>0.005264649158888669</v>
       </c>
       <c r="AB118" t="n">
-        <v>0.0056419277891867105</v>
+        <v>0.005641915087897787</v>
       </c>
       <c r="AC118" t="n">
-        <v>0.006034805430329443</v>
+        <v>0.00603475865270195</v>
       </c>
       <c r="AD118" t="n">
-        <v>0.006450981202250318</v>
+        <v>0.006450890495872084</v>
       </c>
       <c r="AE118" t="n">
-        <v>0.0069235337700735596</v>
+        <v>0.006923364339793519</v>
       </c>
       <c r="AF118" t="n">
-        <v>0.007494924611245532</v>
+        <v>0.007494682408880453</v>
       </c>
       <c r="AG118" t="n">
-        <v>0.008114006793101796</v>
+        <v>0.008113708145626869</v>
       </c>
       <c r="AH118" t="n">
-        <v>0.008780890557298086</v>
+        <v>0.008780566133811438</v>
       </c>
       <c r="AI118" t="n">
-        <v>0.0094341738602843</v>
+        <v>0.009433999459233329</v>
       </c>
       <c r="AJ118" t="n">
-        <v>0.010044631674482066</v>
+        <v>0.010044460357548472</v>
       </c>
     </row>
     <row r="119">
@@ -23232,7 +23232,7 @@
         <v>5</v>
       </c>
       <c r="C154" t="n">
-        <v>24.385313392219757</v>
+        <v>24.387917558885853</v>
       </c>
     </row>
     <row r="155">
@@ -23243,7 +23243,7 @@
         <v>5</v>
       </c>
       <c r="C155" t="n">
-        <v>8.608235830173783</v>
+        <v>8.608235830173797</v>
       </c>
     </row>
     <row r="156">
@@ -23254,7 +23254,7 @@
         <v>5</v>
       </c>
       <c r="C156" t="n">
-        <v>1.7179652665110996</v>
+        <v>1.7181435759179853</v>
       </c>
     </row>
     <row r="157">
@@ -23265,7 +23265,7 @@
         <v>5</v>
       </c>
       <c r="C157" t="n">
-        <v>0.7673978181957994</v>
+        <v>0.7673978181958004</v>
       </c>
     </row>
     <row r="158">
@@ -23366,37 +23366,37 @@
         <v>7.382907000785908</v>
       </c>
       <c r="Z161" t="n">
-        <v>7.988969977389509</v>
+        <v>7.988968975664372</v>
       </c>
       <c r="AA161" t="n">
-        <v>8.593792680508834</v>
+        <v>8.593786601224053</v>
       </c>
       <c r="AB161" t="n">
-        <v>9.20963999242474</v>
+        <v>9.209619259387612</v>
       </c>
       <c r="AC161" t="n">
-        <v>9.850956537264707</v>
+        <v>9.850880179479688</v>
       </c>
       <c r="AD161" t="n">
-        <v>10.53030394761375</v>
+        <v>10.530155882427596</v>
       </c>
       <c r="AE161" t="n">
-        <v>11.30167841211668</v>
+        <v>11.301401841422905</v>
       </c>
       <c r="AF161" t="n">
-        <v>12.234392218246597</v>
+        <v>12.233996857534603</v>
       </c>
       <c r="AG161" t="n">
-        <v>13.244955315411492</v>
+        <v>13.244467816132602</v>
       </c>
       <c r="AH161" t="n">
-        <v>14.33354765734325</v>
+        <v>14.333018082412746</v>
       </c>
       <c r="AI161" t="n">
-        <v>15.399939192005654</v>
+        <v>15.399654507239429</v>
       </c>
       <c r="AJ161" t="n">
-        <v>16.39642424275359</v>
+        <v>16.396144592367797</v>
       </c>
     </row>
     <row r="162">
@@ -23476,37 +23476,37 @@
         <v>0.6834985579631607</v>
       </c>
       <c r="Z162" t="n">
-        <v>0.7249961822513569</v>
+        <v>0.724996113662423</v>
       </c>
       <c r="AA162" t="n">
-        <v>0.7664088840066611</v>
+        <v>0.7664084677530942</v>
       </c>
       <c r="AB162" t="n">
-        <v>0.8086060889247945</v>
+        <v>0.8086046613663752</v>
       </c>
       <c r="AC162" t="n">
-        <v>0.8527356945901684</v>
+        <v>0.8527303842506995</v>
       </c>
       <c r="AD162" t="n">
-        <v>0.899866325022229</v>
+        <v>0.8998558801499237</v>
       </c>
       <c r="AE162" t="n">
-        <v>0.9540265252037085</v>
+        <v>0.9540067088396177</v>
       </c>
       <c r="AF162" t="n">
-        <v>1.0205718024800208</v>
+        <v>1.0205429084121247</v>
       </c>
       <c r="AG162" t="n">
-        <v>1.0939736162095586</v>
+        <v>1.0939374523998187</v>
       </c>
       <c r="AH162" t="n">
-        <v>1.174259723066375</v>
+        <v>1.1742205066739115</v>
       </c>
       <c r="AI162" t="n">
-        <v>1.2534857978595615</v>
+        <v>1.253466242736361</v>
       </c>
       <c r="AJ162" t="n">
-        <v>1.3271584312968232</v>
+        <v>1.3271424121975768</v>
       </c>
     </row>
     <row r="163">
@@ -23601,37 +23601,37 @@
         <v>0.6834985579631607</v>
       </c>
       <c r="Z166" t="n">
-        <v>0.7249961822513569</v>
+        <v>0.724996113662423</v>
       </c>
       <c r="AA166" t="n">
-        <v>0.7664088840066611</v>
+        <v>0.7664084677530942</v>
       </c>
       <c r="AB166" t="n">
-        <v>0.8086060889247945</v>
+        <v>0.8086046613663752</v>
       </c>
       <c r="AC166" t="n">
-        <v>0.8527356945901684</v>
+        <v>0.8527303842506995</v>
       </c>
       <c r="AD166" t="n">
-        <v>0.899866325022229</v>
+        <v>0.8998558801499237</v>
       </c>
       <c r="AE166" t="n">
-        <v>0.9540265252037085</v>
+        <v>0.9540067088396177</v>
       </c>
       <c r="AF166" t="n">
-        <v>1.0205718024800208</v>
+        <v>1.0205429084121247</v>
       </c>
       <c r="AG166" t="n">
-        <v>1.0939736162095586</v>
+        <v>1.0939374523998187</v>
       </c>
       <c r="AH166" t="n">
-        <v>1.174259723066375</v>
+        <v>1.1742205066739115</v>
       </c>
       <c r="AI166" t="n">
-        <v>1.2534857978595615</v>
+        <v>1.253466242736361</v>
       </c>
       <c r="AJ166" t="n">
-        <v>1.3271584312968232</v>
+        <v>1.3271424121975768</v>
       </c>
     </row>
     <row r="167">
@@ -23711,37 +23711,37 @@
         <v>0.006832216468441842</v>
       </c>
       <c r="Z167" t="n">
-        <v>0.006991058947121775</v>
+        <v>0.006991058672425782</v>
       </c>
       <c r="AA167" t="n">
-        <v>0.007160429810600266</v>
+        <v>0.0071604280391046795</v>
       </c>
       <c r="AB167" t="n">
-        <v>0.007347054206348799</v>
+        <v>0.007347047751882594</v>
       </c>
       <c r="AC167" t="n">
-        <v>0.007551067237710878</v>
+        <v>0.007551041989018896</v>
       </c>
       <c r="AD167" t="n">
-        <v>0.007783160256374517</v>
+        <v>0.007783108502377118</v>
       </c>
       <c r="AE167" t="n">
-        <v>0.008061799892775305</v>
+        <v>0.008061695179659193</v>
       </c>
       <c r="AF167" t="n">
-        <v>0.008425338503511981</v>
+        <v>0.008425176802661534</v>
       </c>
       <c r="AG167" t="n">
-        <v>0.00885910795729196</v>
+        <v>0.00885889235178686</v>
       </c>
       <c r="AH167" t="n">
-        <v>0.009364665736338804</v>
+        <v>0.009364412743952935</v>
       </c>
       <c r="AI167" t="n">
-        <v>0.009894681056948776</v>
+        <v>0.009894534961688654</v>
       </c>
       <c r="AJ167" t="n">
-        <v>0.010421668751862732</v>
+        <v>0.01042151529870714</v>
       </c>
     </row>
     <row r="168">
@@ -23836,37 +23836,37 @@
         <v>7.382907000785908</v>
       </c>
       <c r="Z171" t="n">
-        <v>7.988969977389509</v>
+        <v>7.988968975664372</v>
       </c>
       <c r="AA171" t="n">
-        <v>8.593792680508834</v>
+        <v>8.593786601224053</v>
       </c>
       <c r="AB171" t="n">
-        <v>9.20963999242474</v>
+        <v>9.209619259387612</v>
       </c>
       <c r="AC171" t="n">
-        <v>9.850956537264707</v>
+        <v>9.850880179479688</v>
       </c>
       <c r="AD171" t="n">
-        <v>10.53030394761375</v>
+        <v>10.530155882427596</v>
       </c>
       <c r="AE171" t="n">
-        <v>11.30167841211668</v>
+        <v>11.301401841422905</v>
       </c>
       <c r="AF171" t="n">
-        <v>12.234392218246597</v>
+        <v>12.233996857534603</v>
       </c>
       <c r="AG171" t="n">
-        <v>13.244955315411492</v>
+        <v>13.244467816132602</v>
       </c>
       <c r="AH171" t="n">
-        <v>14.33354765734325</v>
+        <v>14.333018082412746</v>
       </c>
       <c r="AI171" t="n">
-        <v>15.399939192005654</v>
+        <v>15.399654507239429</v>
       </c>
       <c r="AJ171" t="n">
-        <v>16.39642424275359</v>
+        <v>16.396144592367797</v>
       </c>
     </row>
     <row r="172">
@@ -23925,7 +23925,7 @@
         <v>-0.0016934559996823078</v>
       </c>
       <c r="S172" t="n">
-        <v>-0.0012984217171827473</v>
+        <v>-0.0012984217171827465</v>
       </c>
       <c r="T172" t="n">
         <v>-9.071232026626589E-4</v>
@@ -23940,43 +23940,43 @@
         <v>2.457904512823679E-4</v>
       </c>
       <c r="X172" t="n">
-        <v>6.232706276803838E-4</v>
+        <v>6.232706276803855E-4</v>
       </c>
       <c r="Y172" t="n">
         <v>9.975670915658092E-4</v>
       </c>
       <c r="Z172" t="n">
-        <v>0.0013688480050987528</v>
+        <v>0.0013688473914307917</v>
       </c>
       <c r="AA172" t="n">
-        <v>0.0017393691133143641</v>
+        <v>0.0017393653890769483</v>
       </c>
       <c r="AB172" t="n">
-        <v>0.0021166440193749895</v>
+        <v>0.002116631318086066</v>
       </c>
       <c r="AC172" t="n">
-        <v>0.002509521660517722</v>
+        <v>0.002509474882890229</v>
       </c>
       <c r="AD172" t="n">
-        <v>0.0029256974324385968</v>
+        <v>0.0029256067260603627</v>
       </c>
       <c r="AE172" t="n">
-        <v>0.0033982500002618385</v>
+        <v>0.0033980805699817982</v>
       </c>
       <c r="AF172" t="n">
-        <v>0.003969640841433811</v>
+        <v>0.003969398639068732</v>
       </c>
       <c r="AG172" t="n">
-        <v>0.004588723023290075</v>
+        <v>0.004588424375815148</v>
       </c>
       <c r="AH172" t="n">
-        <v>0.005255606787486365</v>
+        <v>0.005255282363999717</v>
       </c>
       <c r="AI172" t="n">
-        <v>0.005908890090472578</v>
+        <v>0.005908715689421608</v>
       </c>
       <c r="AJ172" t="n">
-        <v>0.006519347904670345</v>
+        <v>0.0065191765877367506</v>
       </c>
     </row>
     <row r="173">
@@ -37126,31 +37126,31 @@
         <v>0.24869496759649773</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24869496759649823</v>
+        <v>0.24869496759649798</v>
       </c>
       <c r="E12" t="n">
-        <v>0.24869496759649823</v>
+        <v>0.24869496759649798</v>
       </c>
       <c r="F12" t="n">
         <v>0.24869496759649798</v>
       </c>
       <c r="G12" t="n">
+        <v>0.24869496759649798</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.24869496759649773</v>
       </c>
-      <c r="H12" t="n">
-        <v>0.24869496759649767</v>
-      </c>
       <c r="I12" t="n">
-        <v>0.248694967596498</v>
+        <v>0.24869496759649784</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2523038942238593</v>
+        <v>0.25230389422385924</v>
       </c>
       <c r="K12" t="n">
-        <v>0.24869496759649784</v>
+        <v>0.24869496759649773</v>
       </c>
       <c r="L12" t="n">
-        <v>0.24508604096913655</v>
+        <v>0.24508604096913653</v>
       </c>
       <c r="M12" t="n">
         <v>0.2522724772811478</v>
@@ -37168,13 +37168,13 @@
         <v>0.28052710472456666</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2872951967355782</v>
+        <v>0.28729519673557796</v>
       </c>
       <c r="S12" t="n">
-        <v>0.29403331007410866</v>
+        <v>0.2940333100741087</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3005675216071686</v>
+        <v>0.3005675216071688</v>
       </c>
       <c r="U12" t="n">
         <v>0.30685392327850625</v>
@@ -37183,46 +37183,46 @@
         <v>0.3130444792574554</v>
       </c>
       <c r="W12" t="n">
-        <v>0.31916413067366095</v>
+        <v>0.31916413067366045</v>
       </c>
       <c r="X12" t="n">
-        <v>0.32505770035782344</v>
+        <v>0.3250577003578229</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.33062337573269884</v>
+        <v>0.330623926681524</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.33401287615239006</v>
+        <v>0.3340162197590188</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.3286314917306219</v>
+        <v>0.32864234395221714</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.30855987878426794</v>
+        <v>0.30859853195940035</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.27363482464604366</v>
+        <v>0.27370485732800875</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.20210296883141582</v>
+        <v>0.2022130859312311</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.0627514511519325</v>
+        <v>0.06288746369114456</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.06880229681214545</v>
+        <v>-0.0686862860903329</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.1545354915031566</v>
+        <v>-0.15446167368297675</v>
       </c>
       <c r="AH12" t="n">
-        <v>-0.185241132126789</v>
+        <v>-0.18535268010875383</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.13458212197568034</v>
+        <v>-0.13471958047527344</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.09613355582271967</v>
+        <v>-0.09613909364119935</v>
       </c>
     </row>
     <row r="13">
@@ -37233,10 +37233,10 @@
         <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.8421764765813582</v>
+        <v>-1.8421764765813577</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.6160901424027236</v>
+        <v>-1.6160901424027232</v>
       </c>
       <c r="E13" t="n">
         <v>-1.390003808224089</v>
@@ -37248,16 +37248,16 @@
         <v>-0.93783113986682</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.7117448056881859</v>
+        <v>-0.7117448056881854</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.48565847150955144</v>
+        <v>-0.4856584715095513</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.259572137330917</v>
+        <v>-0.2595721373309168</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.02692411837526173</v>
+        <v>-0.02692411837526172</v>
       </c>
       <c r="L13" t="n">
         <v>0.19260053102635188</v>
@@ -37281,7 +37281,7 @@
         <v>1.6461668594123506</v>
       </c>
       <c r="S13" t="n">
-        <v>1.9104208151732758</v>
+        <v>1.9104208151732753</v>
       </c>
       <c r="T13" t="n">
         <v>2.180772877728912</v>
@@ -37296,43 +37296,43 @@
         <v>3.0260789985635013</v>
       </c>
       <c r="X13" t="n">
-        <v>3.3189875212783058</v>
+        <v>3.318987521278305</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.6170929992140888</v>
+        <v>3.617092999214088</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.920120931701394</v>
+        <v>3.92012193342653</v>
       </c>
       <c r="AA13" t="n">
-        <v>4.224389137672979</v>
+        <v>4.224395216957758</v>
       </c>
       <c r="AB13" t="n">
-        <v>4.517632734847979</v>
+        <v>4.517653467885106</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.78540709909892</v>
+        <v>4.78548345688394</v>
       </c>
       <c r="AD13" t="n">
-        <v>5.015150597840785</v>
+        <v>5.01529866302694</v>
       </c>
       <c r="AE13" t="n">
-        <v>5.152867042428767</v>
+        <v>5.153143613122541</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.1292441453897535</v>
+        <v>5.129639506101748</v>
       </c>
       <c r="AG13" t="n">
-        <v>5.027771957315775</v>
+        <v>5.028259456594663</v>
       </c>
       <c r="AH13" t="n">
-        <v>4.848270524474923</v>
+        <v>4.848800099405427</v>
       </c>
       <c r="AI13" t="n">
-        <v>4.690969898903431</v>
+        <v>4.6912545836696555</v>
       </c>
       <c r="AJ13" t="n">
-        <v>4.603575757246412</v>
+        <v>4.603855407632201</v>
       </c>
     </row>
     <row r="14">
@@ -37689,37 +37689,37 @@
         <v>0.6834985579631607</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.7249961822513569</v>
+        <v>0.724996113662423</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.7664088840066611</v>
+        <v>0.7664084677530942</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.8086060889247945</v>
+        <v>0.8086046613663752</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.8527356945901684</v>
+        <v>0.8527303842506995</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.899866325022229</v>
+        <v>0.8998558801499237</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.9540265252037085</v>
+        <v>0.9540067088396177</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.0205718024800208</v>
+        <v>1.0205429084121247</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.0939736162095586</v>
+        <v>1.0939374523998187</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.174259723066375</v>
+        <v>1.1742205066739115</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.2534857978595615</v>
+        <v>1.253466242736361</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.3271584312968232</v>
+        <v>1.3271424121975768</v>
       </c>
     </row>
     <row r="7">
@@ -37790,46 +37790,46 @@
         <v>1.769992587462269</v>
       </c>
       <c r="W7" t="n">
-        <v>1.8639267186564341</v>
+        <v>1.863926721852319</v>
       </c>
       <c r="X7" t="n">
-        <v>1.9563394977494042</v>
+        <v>1.956340186751127</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.0431907043847275</v>
+        <v>2.0431946612668974</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.120943444685994</v>
+        <v>2.1209546908538845</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.1870291257571552</v>
+        <v>2.187052411934528</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.2399206957630304</v>
+        <v>2.2399607858419586</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.2790680148860325</v>
+        <v>2.279128655208287</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.3048296186935517</v>
+        <v>2.304913585175828</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.3190524163517208</v>
+        <v>2.3191599531911296</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.3247602188933127</v>
+        <v>2.324889789219556</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.3238246020656868</v>
+        <v>2.323971629611213</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.320100749962096</v>
+        <v>2.320257106833048</v>
       </c>
       <c r="AI7" t="n">
-        <v>2.316847041963757</v>
+        <v>2.3170034342343393</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2.3189038837880624</v>
+        <v>2.3190382322829977</v>
       </c>
     </row>
     <row r="8">
@@ -37909,37 +37909,37 @@
         <v>0.006832216468441842</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.006991058947121775</v>
+        <v>0.006991058672425782</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.007160429810600266</v>
+        <v>0.0071604280391046795</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.007347054206348799</v>
+        <v>0.007347047751882594</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.007551067237710878</v>
+        <v>0.007551041989018896</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.007783160256374517</v>
+        <v>0.007783108502377118</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.008061799892775305</v>
+        <v>0.008061695179659193</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.008425338503511981</v>
+        <v>0.008425176802661534</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.00885910795729196</v>
+        <v>0.00885889235178686</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.009364665736338804</v>
+        <v>0.009364412743952935</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.009894681056948776</v>
+        <v>0.009894534961688654</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.010421668751862732</v>
+        <v>0.01042151529870714</v>
       </c>
     </row>
     <row r="9">
@@ -37953,103 +37953,103 @@
         <v>0.0611922051536501</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05695586005436373</v>
+        <v>0.05695567940046396</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05339780679486542</v>
+        <v>0.05339747679867922</v>
       </c>
       <c r="F9" t="n">
-        <v>0.050415936832950314</v>
+        <v>0.050415555393210604</v>
       </c>
       <c r="G9" t="n">
-        <v>0.047950736644095354</v>
+        <v>0.04795037289874181</v>
       </c>
       <c r="H9" t="n">
-        <v>0.046094903808712076</v>
+        <v>0.04609464212757307</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04508883319573346</v>
+        <v>0.045088707040888965</v>
       </c>
       <c r="J9" t="n">
-        <v>0.044780866706569736</v>
+        <v>0.044781002403103856</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04510642368955448</v>
+        <v>0.045106855770414823</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04608134952270057</v>
+        <v>0.04608211191629154</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04777119790999536</v>
+        <v>0.04777232443088466</v>
       </c>
       <c r="N9" t="n">
-        <v>0.05024132854007652</v>
+        <v>0.050243114248245554</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0535107137026355</v>
+        <v>0.05351306378425549</v>
       </c>
       <c r="P9" t="n">
-        <v>0.05751507173352242</v>
+        <v>0.05751804230679839</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.062254233534173115</v>
+        <v>0.06225782764604532</v>
       </c>
       <c r="R9" t="n">
-        <v>0.06772220009708424</v>
+        <v>0.06772664671020719</v>
       </c>
       <c r="S9" t="n">
-        <v>0.07400187327575933</v>
+        <v>0.07400719288460565</v>
       </c>
       <c r="T9" t="n">
-        <v>0.08117223521023788</v>
+        <v>0.0811785683935606</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0891586932968011</v>
+        <v>0.08916594687376772</v>
       </c>
       <c r="V9" t="n">
-        <v>0.09790378287047402</v>
+        <v>0.09791211042055159</v>
       </c>
       <c r="W9" t="n">
-        <v>0.10745891103766436</v>
+        <v>0.10746834900401483</v>
       </c>
       <c r="X9" t="n">
-        <v>0.11786268337204833</v>
+        <v>0.11787338998868516</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1291974992676212</v>
+        <v>0.1292095518767868</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.1414280455783062</v>
+        <v>0.14144130396143673</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.15450451254148148</v>
+        <v>0.15451925249762397</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.16840384926997476</v>
+        <v>0.16842004369689811</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.18321960574547852</v>
+        <v>0.18323741411512318</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.19902425344259758</v>
+        <v>0.19904360675595187</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.21580343185968706</v>
+        <v>0.2158246413753266</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.2334724266812644</v>
+        <v>0.23349536030619628</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.25206341274892574</v>
+        <v>0.25208798141740746</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.27163843713909913</v>
+        <v>0.27166491294892964</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.29087877636057347</v>
+        <v>0.2908997047471495</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.3050067405413586</v>
+        <v>0.3050149702222654</v>
       </c>
     </row>
     <row r="10">
@@ -38108,7 +38108,7 @@
         <v>-0.0016934559996823078</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.0012984217171827473</v>
+        <v>-0.0012984217171827465</v>
       </c>
       <c r="T10" t="n">
         <v>-9.071232026626589E-4</v>
@@ -38123,43 +38123,43 @@
         <v>2.457904512823679E-4</v>
       </c>
       <c r="X10" t="n">
-        <v>6.232706276803838E-4</v>
+        <v>6.232706276803855E-4</v>
       </c>
       <c r="Y10" t="n">
         <v>9.975670915658092E-4</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0013688480050987528</v>
+        <v>0.0013688473914307917</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0017393691133143641</v>
+        <v>0.0017393653890769483</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0021166440193749895</v>
+        <v>0.002116631318086066</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.002509521660517722</v>
+        <v>0.002509474882890229</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0029256974324385968</v>
+        <v>0.0029256067260603627</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0033982500002618385</v>
+        <v>0.0033980805699817982</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.003969640841433811</v>
+        <v>0.003969398639068732</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.004588723023290075</v>
+        <v>0.004588424375815148</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.005255606787486365</v>
+        <v>0.005255282363999717</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.005908890090472578</v>
+        <v>0.005908715689421608</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.006519347904670345</v>
+        <v>0.0065191765877367506</v>
       </c>
     </row>
     <row r="11">
@@ -38180,106 +38180,106 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.43718660736360454</v>
+        <v>-0.43416999250378746</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4279076303281131</v>
+        <v>-0.43250932619521487</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.42031568042825046</v>
+        <v>-0.432554461395484</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4144296441752874</v>
+        <v>-0.4343217821413119</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.4102443581587938</v>
+        <v>-0.43780284023206906</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.40770652046089795</v>
+        <v>-0.4429396452710829</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.40669506352212714</v>
+        <v>-0.44960606641391065</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.40724089399926444</v>
+        <v>-0.4578311669889946</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.40881270283447135</v>
+        <v>-0.4670739827381158</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.41072886263177755</v>
+        <v>-0.4766701209014461</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.4153966923026882</v>
+        <v>-0.48900312618274805</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.4209088419542913</v>
+        <v>-0.5021627653352709</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.42721159003654013</v>
+        <v>-0.5160929081030279</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.43431030953818905</v>
+        <v>-0.5307963299619473</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.4421844520099807</v>
+        <v>-0.5462502429490845</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.45079474193781344</v>
+        <v>-0.5624128628468077</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.4600668309408395</v>
+        <v>-0.579207985759444</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.469926707694087</v>
+        <v>-0.5965601314714952</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.48038390949671755</v>
+        <v>-0.6144768697416193</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.4914220681638412</v>
+        <v>-0.6329393510886796</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.5029792371186346</v>
+        <v>-0.6518834787568528</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.5150262471883466</v>
+        <v>-0.6711650359310684</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.5275395137398321</v>
+        <v>-0.6904427031306939</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.5404313455966043</v>
+        <v>-0.7093531485678417</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.5538223688611188</v>
+        <v>-0.7278205762200949</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.5685268235201704</v>
+        <v>-0.7465482004483954</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.5856355488888054</v>
+        <v>-0.7665945255217295</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.6061524340244954</v>
+        <v>-0.789008628801927</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.6348174341134871</v>
+        <v>-0.8186839960704049</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.6781154109984344</v>
+        <v>-0.862356324616552</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.7290422752308454</v>
+        <v>-0.9131795242363883</v>
       </c>
       <c r="AH13" t="n">
-        <v>-0.7875667735171372</v>
+        <v>-0.9714309627336717</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.8443854534393191</v>
+        <v>-1.0280523260747099</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.8959522367350037</v>
+        <v>-1.0796801253446926</v>
       </c>
     </row>
     <row r="14">
@@ -38374,37 +38374,37 @@
         <v>0.5055136391769582</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.5470112634651544</v>
+        <v>0.5470111948762205</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.5884239652204586</v>
+        <v>0.5884235489668918</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.6305915308949034</v>
+        <v>0.6305901112870106</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.6745029956352738</v>
+        <v>0.6744977673557112</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.7210184646279659</v>
+        <v>0.7210083264844027</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.7738389336572209</v>
+        <v>0.7738199855314489</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.8379417788803645</v>
+        <v>0.8379144457696039</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.9082270816890914</v>
+        <v>0.9081927214583878</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.9853482717384081</v>
+        <v>0.9853099762926241</v>
       </c>
       <c r="AI17" t="n">
-        <v>1.0624436533295005</v>
+        <v>1.0624223975230715</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1.1356840220219602</v>
+        <v>1.1356631563512005</v>
       </c>
     </row>
     <row r="18">
@@ -38475,46 +38475,46 @@
         <v>1.736043612317668</v>
       </c>
       <c r="W18" t="n">
-        <v>1.829977743511833</v>
+        <v>1.8299777467077178</v>
       </c>
       <c r="X18" t="n">
-        <v>1.922390522604803</v>
+        <v>1.9223912116065258</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.0092417292401263</v>
+        <v>2.0092456861222963</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.0869944695413927</v>
+        <v>2.0870057157092834</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.153080150612554</v>
+        <v>2.1531034367899267</v>
       </c>
       <c r="AB18" t="n">
-        <v>2.20596606720715</v>
+        <v>2.206006158802568</v>
       </c>
       <c r="AC18" t="n">
-        <v>2.245071777968661</v>
+        <v>2.2451324339430823</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.270716045427924</v>
+        <v>2.270800070415867</v>
       </c>
       <c r="AE18" t="n">
-        <v>2.284683301774517</v>
+        <v>2.284791004222346</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.2899252330185247</v>
+        <v>2.2900551010828876</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.2883951705911816</v>
+        <v>2.288542542152708</v>
       </c>
       <c r="AH18" t="n">
-        <v>2.284067639913219</v>
+        <v>2.2842241724462222</v>
       </c>
       <c r="AI18" t="n">
-        <v>2.2804075219164828</v>
+        <v>2.2805635897974867</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2.282381913243424</v>
+        <v>2.282515337299722</v>
       </c>
     </row>
     <row r="19">
@@ -38594,37 +38594,37 @@
         <v>0.006432216468441842</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.006591058947121775</v>
+        <v>0.006591058672425782</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.006760429810600266</v>
+        <v>0.006760428039104679</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.0069470542063487985</v>
+        <v>0.006947047751882594</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.0071510672377108776</v>
+        <v>0.007151041989018896</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.007383160256374517</v>
+        <v>0.0073831085023771175</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.007661799892775305</v>
+        <v>0.007661695179659193</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.008025338503511982</v>
+        <v>0.008025176802661535</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.008459107957291961</v>
+        <v>0.008458892351786861</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.008964665736338804</v>
+        <v>0.008964412743952935</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.009494681056948777</v>
+        <v>0.009494534961688655</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.010021668751862733</v>
+        <v>0.01002151529870714</v>
       </c>
     </row>
     <row r="20">
@@ -38638,103 +38638,103 @@
         <v>0.061115908857590585</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05687956375830422</v>
+        <v>0.05687938310440445</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05332151049880591</v>
+        <v>0.053321180502619706</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0503396405368908</v>
+        <v>0.05033925909715109</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04787444034803584</v>
+        <v>0.047874076602682294</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04601860751265256</v>
+        <v>0.046018345831513555</v>
       </c>
       <c r="I20" t="n">
-        <v>0.045012536899673945</v>
+        <v>0.04501241074482945</v>
       </c>
       <c r="J20" t="n">
-        <v>0.04470457041051022</v>
+        <v>0.04470470610704434</v>
       </c>
       <c r="K20" t="n">
-        <v>0.04503012739349497</v>
+        <v>0.04503055947435531</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04600505322664106</v>
+        <v>0.046005815620232024</v>
       </c>
       <c r="M20" t="n">
-        <v>0.047694901613935844</v>
+        <v>0.047696028134825146</v>
       </c>
       <c r="N20" t="n">
-        <v>0.050165032244017006</v>
+        <v>0.05016681795218604</v>
       </c>
       <c r="O20" t="n">
-        <v>0.053434417406575986</v>
+        <v>0.05343676748819597</v>
       </c>
       <c r="P20" t="n">
-        <v>0.057438775437462904</v>
+        <v>0.05744174601073888</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0621779372381136</v>
+        <v>0.06218153134998581</v>
       </c>
       <c r="R20" t="n">
-        <v>0.06764590380102473</v>
+        <v>0.06765035041414767</v>
       </c>
       <c r="S20" t="n">
-        <v>0.07392557697969981</v>
+        <v>0.07393089658854614</v>
       </c>
       <c r="T20" t="n">
-        <v>0.08109593891417836</v>
+        <v>0.08110227209750108</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08908239700074158</v>
+        <v>0.08908965057770821</v>
       </c>
       <c r="V20" t="n">
-        <v>0.09782748657441451</v>
+        <v>0.09783581412449208</v>
       </c>
       <c r="W20" t="n">
-        <v>0.10738261474160485</v>
+        <v>0.10739205270795532</v>
       </c>
       <c r="X20" t="n">
-        <v>0.11778638707598882</v>
+        <v>0.11779709369262564</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.1291212029715617</v>
+        <v>0.12913325558072725</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.14135174928224667</v>
+        <v>0.1413650076653772</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.15442821624542197</v>
+        <v>0.15444295620156445</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.16832755297391525</v>
+        <v>0.1683437474008386</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.183143309449419</v>
+        <v>0.18316111781906366</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.19894795714653807</v>
+        <v>0.19896731045989235</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.21572713556362755</v>
+        <v>0.21574834507926707</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.2333961303852049</v>
+        <v>0.2334190640101368</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.2519871164528662</v>
+        <v>0.252011685121348</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.2715621408430396</v>
+        <v>0.2715886166528701</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.2908024800645139</v>
+        <v>0.29082340845108995</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.3049304442452991</v>
+        <v>0.30493867392620594</v>
       </c>
     </row>
     <row r="21">
@@ -38748,7 +38748,7 @@
         <v>-7.654061649150891E-5</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.92378763049986E-5</v>
+        <v>-6.923787630499852E-5</v>
       </c>
       <c r="E21" t="n">
         <v>-6.193513611848857E-5</v>
@@ -38793,7 +38793,7 @@
         <v>0.0018318191819909093</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0022268534644904695</v>
+        <v>0.0022268534644904704</v>
       </c>
       <c r="T21" t="n">
         <v>0.002618151979010558</v>
@@ -38808,43 +38808,43 @@
         <v>0.0037710656329555847</v>
       </c>
       <c r="X21" t="n">
-        <v>0.004148545809353601</v>
+        <v>0.004148545809353602</v>
       </c>
       <c r="Y21" t="n">
         <v>0.004522842273239026</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.00489412318677197</v>
+        <v>0.004894122573104009</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.005264644294987581</v>
+        <v>0.005264640570750165</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.005641919201048206</v>
+        <v>0.005641906499759283</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.006034796842190939</v>
+        <v>0.006034750064563446</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.006450972614111814</v>
+        <v>0.00645088190773358</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.006923525181935055</v>
+        <v>0.006923355751655015</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.0074949160231070275</v>
+        <v>0.007494673820741949</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.008113998204963292</v>
+        <v>0.008113699557488365</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.008780881969159582</v>
+        <v>0.008780557545672934</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.009434165272145795</v>
+        <v>0.009433990871094824</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.010044623086343562</v>
+        <v>0.010044451769409967</v>
       </c>
     </row>
     <row r="22">
@@ -38865,106 +38865,106 @@
         <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.2439451191029373</v>
+        <v>-0.23825490702580432</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.23295333995444545</v>
+        <v>-0.23487419715217112</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.22369754551306636</v>
+        <v>-0.23324892124566188</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.2161970411540363</v>
+        <v>-0.23339588386005727</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.21044706990063666</v>
+        <v>-0.23530704471122157</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.20639472373613713</v>
+        <v>-0.23892480861571724</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.2039193163704718</v>
+        <v>-0.24412342713958343</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.20305212300211511</v>
+        <v>-0.25093233312272245</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.20326219029442516</v>
+        <v>-0.25881091882633034</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.20386823366258275</v>
+        <v>-0.2670951349281974</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.20727790183289788</v>
+        <v>-0.27816885640144917</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.21158416164788804</v>
+        <v>-0.29012216701729965</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.21673359513382415</v>
+        <v>-0.30289924020651954</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.22273186562024236</v>
+        <v>-0.31650314172413757</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.2295587016900401</v>
+        <v>-0.33091136040557473</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.23717509148290167</v>
+        <v>-0.34608237528114866</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.24550693682702318</v>
+        <v>-0.3619402320864484</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.25448046309874567</v>
+        <v>-0.37840968655770535</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.26410543073122456</v>
+        <v>-0.3954985306663775</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.27436568105007125</v>
+        <v>-0.4131881233492555</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.2851994633127296</v>
+        <v>-0.4314145624211044</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.2965777904551796</v>
+        <v>-0.45003381174111956</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.30847724618162675</v>
+        <v>-0.46870471856112894</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.32081029383917714</v>
+        <v>-0.48706410384192583</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.33369770020122064</v>
+        <v>-0.5050363102875404</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.3479171711308362</v>
+        <v>-0.5232875848135456</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.3643626251251071</v>
+        <v>-0.5426772307447414</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.3837782758343039</v>
+        <v>-0.5639917077194665</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.41049556844089113</v>
+        <v>-0.5917114833135984</v>
       </c>
       <c r="AF24" t="n">
-        <v>-0.450527071435844</v>
+        <v>-0.6320943156999017</v>
       </c>
       <c r="AG24" t="n">
-        <v>-0.4974004519300727</v>
+        <v>-0.6788316281501372</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.5518646692754376</v>
+        <v>-0.7329893926731759</v>
       </c>
       <c r="AI24" t="n">
-        <v>-0.6059675878039208</v>
+        <v>-0.7868754913131029</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-0.6569932762489221</v>
+        <v>-0.8379674174795048</v>
       </c>
     </row>
     <row r="25">
@@ -39059,37 +39059,37 @@
         <v>0.32752872039075576</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.3690263446789519</v>
+        <v>0.36902627609001803</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.4104390464342561</v>
+        <v>0.41043863018068927</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.4526066121087009</v>
+        <v>0.4526051925008081</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.49651807684907134</v>
+        <v>0.4965128485695087</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.5430335458417634</v>
+        <v>0.5430234076982002</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.5958501819821814</v>
+        <v>0.5958312449621316</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.6597138538931422</v>
+        <v>0.6596867832240566</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.7289079299950603</v>
+        <v>0.728874550523459</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.8035553808190166</v>
+        <v>0.8035189211153079</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.8774378394041378</v>
+        <v>0.8774178246965664</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.9476605421679909</v>
+        <v>0.9476403269199881</v>
       </c>
     </row>
     <row r="29">
@@ -39160,46 +39160,46 @@
         <v>1.7020946371730665</v>
       </c>
       <c r="W29" t="n">
-        <v>1.7960287683672316</v>
+        <v>1.7960287715631165</v>
       </c>
       <c r="X29" t="n">
-        <v>1.8884415474602017</v>
+        <v>1.8884422364619244</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.975292754095525</v>
+        <v>1.9752967109776949</v>
       </c>
       <c r="Z29" t="n">
-        <v>2.0530454943967915</v>
+        <v>2.053056740564682</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.119131175467953</v>
+        <v>2.1191544616453255</v>
       </c>
       <c r="AB29" t="n">
-        <v>2.172017092062549</v>
+        <v>2.1720571836579667</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.2111228028240597</v>
+        <v>2.2111834587984807</v>
       </c>
       <c r="AD29" t="n">
-        <v>2.2367670702833227</v>
+        <v>2.2368510952712657</v>
       </c>
       <c r="AE29" t="n">
-        <v>2.2507335955418624</v>
+        <v>2.2508413001080045</v>
       </c>
       <c r="AF29" t="n">
-        <v>2.25592990669128</v>
+        <v>2.256059824813962</v>
       </c>
       <c r="AG29" t="n">
-        <v>2.25419170287421</v>
+        <v>2.2543392615064537</v>
       </c>
       <c r="AH29" t="n">
-        <v>2.2493923293454676</v>
+        <v>2.249549212029273</v>
       </c>
       <c r="AI29" t="n">
-        <v>2.245119376036531</v>
+        <v>2.24527568064565</v>
       </c>
       <c r="AJ29" t="n">
-        <v>2.246518175530728</v>
+        <v>2.246651723649144</v>
       </c>
     </row>
     <row r="30">
@@ -39279,37 +39279,37 @@
         <v>0.006812216468441842</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.006971058947121775</v>
+        <v>0.006971058672425782</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.007140429810600266</v>
+        <v>0.0071404280391046794</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.007327054206348799</v>
+        <v>0.007327047751882594</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.007531067237710878</v>
+        <v>0.007531041989018896</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.007763160256374517</v>
+        <v>0.007763108502377118</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.008041799892775304</v>
+        <v>0.008041695179659194</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.008405338503511982</v>
+        <v>0.008405176802661535</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.008839107957291962</v>
+        <v>0.008838892351786861</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.009344665736338804</v>
+        <v>0.009344412743952936</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.009874681056948777</v>
+        <v>0.009874534961688655</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.010401668751862733</v>
+        <v>0.01040151529870714</v>
       </c>
     </row>
     <row r="31">
@@ -39323,103 +39323,103 @@
         <v>0.061188390338847126</v>
       </c>
       <c r="D31" t="n">
-        <v>0.05695204523956075</v>
+        <v>0.05695186458566098</v>
       </c>
       <c r="E31" t="n">
-        <v>0.05339399198006245</v>
+        <v>0.053393661983876246</v>
       </c>
       <c r="F31" t="n">
-        <v>0.05041212201814734</v>
+        <v>0.05041174057840763</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04794692182929238</v>
+        <v>0.047946558083938835</v>
       </c>
       <c r="H31" t="n">
-        <v>0.046091088993909096</v>
+        <v>0.04609082731277009</v>
       </c>
       <c r="I31" t="n">
-        <v>0.045085018380930486</v>
+        <v>0.045084892226085985</v>
       </c>
       <c r="J31" t="n">
-        <v>0.044777051891766756</v>
+        <v>0.044777187588300876</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0451026088747515</v>
+        <v>0.045103040955611844</v>
       </c>
       <c r="L31" t="n">
-        <v>0.04607753470789759</v>
+        <v>0.04607829710148856</v>
       </c>
       <c r="M31" t="n">
-        <v>0.047767383095192385</v>
+        <v>0.047768509616081686</v>
       </c>
       <c r="N31" t="n">
-        <v>0.05023751372527355</v>
+        <v>0.05023929943344258</v>
       </c>
       <c r="O31" t="n">
-        <v>0.05350689888783253</v>
+        <v>0.053509248969452514</v>
       </c>
       <c r="P31" t="n">
-        <v>0.05751125691871944</v>
+        <v>0.05751422749199541</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.062250418719370135</v>
+        <v>0.06225401283124234</v>
       </c>
       <c r="R31" t="n">
-        <v>0.06771838528228126</v>
+        <v>0.0677228318954042</v>
       </c>
       <c r="S31" t="n">
-        <v>0.07399805846095635</v>
+        <v>0.07400337806980267</v>
       </c>
       <c r="T31" t="n">
-        <v>0.0811684203954349</v>
+        <v>0.08117475357875761</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08915487848199813</v>
+        <v>0.08916213205896475</v>
       </c>
       <c r="V31" t="n">
-        <v>0.09789996805567104</v>
+        <v>0.09790829560574861</v>
       </c>
       <c r="W31" t="n">
-        <v>0.10745509622286138</v>
+        <v>0.10746453418921185</v>
       </c>
       <c r="X31" t="n">
-        <v>0.11785886855724535</v>
+        <v>0.11786957517388218</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.12919368445281823</v>
+        <v>0.1292057370619838</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.14142423076350322</v>
+        <v>0.14143748914663376</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.15450069772667852</v>
+        <v>0.154515437682821</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.16840003445517177</v>
+        <v>0.16841622888209515</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.18321579093067553</v>
+        <v>0.18323359930032018</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.19902043862779462</v>
+        <v>0.1990397919411489</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.21579961704488407</v>
+        <v>0.21582082656052362</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.23346861186646145</v>
+        <v>0.23349154549139334</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.25205959793412275</v>
+        <v>0.25208416660260446</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.27163462232429614</v>
+        <v>0.27166109813412664</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.29087496154577047</v>
+        <v>0.2908958899323465</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.30500292572655563</v>
+        <v>0.3050111554074625</v>
       </c>
     </row>
     <row r="32">
@@ -39478,7 +39478,7 @@
         <v>0.005357111539941135</v>
       </c>
       <c r="S32" t="n">
-        <v>0.005752145822440695</v>
+        <v>0.005752145822440696</v>
       </c>
       <c r="T32" t="n">
         <v>0.006143444336960784</v>
@@ -39493,43 +39493,43 @@
         <v>0.00729635799090581</v>
       </c>
       <c r="X32" t="n">
-        <v>0.007673838167303826</v>
+        <v>0.007673838167303828</v>
       </c>
       <c r="Y32" t="n">
         <v>0.008048134631189252</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.008419415544722194</v>
+        <v>0.008419414931054234</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.008789936652937806</v>
+        <v>0.008789932928700391</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.009167211558998432</v>
+        <v>0.009167198857709509</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.009560089200141165</v>
+        <v>0.009560042422513671</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.009976264972062039</v>
+        <v>0.009976174265683806</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.010448817539885281</v>
+        <v>0.01044864810960524</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.011020208381057252</v>
+        <v>0.011019966178692175</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.011639290562913518</v>
+        <v>0.01163899191543859</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.012306174327109808</v>
+        <v>0.01230584990362316</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.012959457630096021</v>
+        <v>0.012959283229045049</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.013569915444293788</v>
+        <v>0.013569744127360193</v>
       </c>
     </row>
     <row r="33">
@@ -39550,106 +39550,106 @@
         <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.05022572846265522</v>
+        <v>-0.041859852369013906</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.03753462719554951</v>
+        <v>-0.036772765156178444</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.026628585122301873</v>
+        <v>-0.0334908617574341</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.01752732305916513</v>
+        <v>-0.032031363773673216</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.010226487011612162</v>
+        <v>-0.032386635338624875</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.004673559384830744</v>
+        <v>-0.03449947295565875</v>
       </c>
       <c r="I35" t="n">
-        <v>-7.482316521135179E-4</v>
+        <v>-0.038244507047958565</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0015178559783663587</v>
+        <v>-0.04365153638753452</v>
       </c>
       <c r="K35" t="n">
-        <v>0.002655304679101536</v>
+        <v>-0.050180306150530096</v>
       </c>
       <c r="L35" t="n">
-        <v>0.003345059804965994</v>
+        <v>-0.05716710682368081</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0011791464193083925</v>
+        <v>-0.06699613999750767</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.0019357154290043435</v>
+        <v>-0.07775780278684777</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.005946407694310084</v>
+        <v>-0.08939656861343985</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.01085888037815752</v>
+        <v>-0.10191578979510357</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.016653135407234287</v>
+        <v>-0.11529322822973383</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.02329042086797964</v>
+        <v>-0.12948762244106324</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.03069688507286948</v>
+        <v>-0.14442326402371009</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.03879898635799772</v>
+        <v>-0.16002514087665673</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.0476067045331002</v>
+        <v>-0.17630126337938645</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.05710408666196881</v>
+        <v>-0.1932331950670082</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.06722957405003435</v>
+        <v>-0.21075722449139095</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.07795435794272365</v>
+        <v>-0.22872949233960224</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.08925518657026088</v>
+        <v>-0.24680900873759604</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.10104467398092232</v>
+        <v>-0.26463274352554117</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.11344372378648354</v>
+        <v>-0.2821251742546156</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.12723016479117477</v>
+        <v>-0.29995266862136255</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.14329802450504753</v>
+        <v>-0.3189746366349708</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.16239161163571303</v>
+        <v>-0.3399776304947292</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.18883769023885738</v>
+        <v>-0.3674373915756169</v>
       </c>
       <c r="AF35" t="n">
-        <v>-0.22836095941929108</v>
+        <v>-0.4073207054121802</v>
       </c>
       <c r="AG35" t="n">
-        <v>-0.27372093853380314</v>
+        <v>-0.4525421939545385</v>
       </c>
       <c r="AH35" t="n">
-        <v>-0.32500479077005334</v>
+        <v>-0.5034981150893907</v>
       </c>
       <c r="AI35" t="n">
-        <v>-0.3750614994520068</v>
+        <v>-0.5533050769967438</v>
       </c>
       <c r="AJ35" t="n">
-        <v>-0.42234133735645807</v>
+        <v>-0.6006222100226574</v>
       </c>
     </row>
     <row r="36">
@@ -39744,37 +39744,37 @@
         <v>0.15353365557540127</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.19503127986359742</v>
+        <v>0.19503121127466355</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.23644398161890162</v>
+        <v>0.23644356536533478</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.2786115472933464</v>
+        <v>0.2786101276854536</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.32252301203371686</v>
+        <v>0.32251778375415424</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.36903848102640896</v>
+        <v>0.36902834288284575</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.42185511716682694</v>
+        <v>0.4218361801467771</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.4857187890777877</v>
+        <v>0.4856917184087021</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.5549128651797057</v>
+        <v>0.5548794857081045</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.6294496670507725</v>
+        <v>0.6294134066251289</v>
       </c>
       <c r="AI39" t="n">
-        <v>0.7024663689678312</v>
+        <v>0.7024468762021319</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0.77084168472246</v>
+        <v>0.7708223995732664</v>
       </c>
     </row>
     <row r="40">
@@ -39845,46 +39845,46 @@
         <v>1.6689066897279505</v>
       </c>
       <c r="W40" t="n">
-        <v>1.7628408209221154</v>
+        <v>1.7628408241180002</v>
       </c>
       <c r="X40" t="n">
-        <v>1.8552536000150857</v>
+        <v>1.8552542890168084</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.942104806650409</v>
+        <v>1.9421087635325789</v>
       </c>
       <c r="Z40" t="n">
-        <v>2.019857546951675</v>
+        <v>2.019868793119566</v>
       </c>
       <c r="AA40" t="n">
-        <v>2.0859432280228365</v>
+        <v>2.085966514200209</v>
       </c>
       <c r="AB40" t="n">
-        <v>2.138829144617433</v>
+        <v>2.1388692362128503</v>
       </c>
       <c r="AC40" t="n">
-        <v>2.1779348553789433</v>
+        <v>2.1779955113533647</v>
       </c>
       <c r="AD40" t="n">
-        <v>2.2035791228382067</v>
+        <v>2.2036631478261497</v>
       </c>
       <c r="AE40" t="n">
-        <v>2.2175456480967464</v>
+        <v>2.217653352662888</v>
       </c>
       <c r="AF40" t="n">
-        <v>2.222741959246164</v>
+        <v>2.222871877368846</v>
       </c>
       <c r="AG40" t="n">
-        <v>2.221003755429094</v>
+        <v>2.2211513140613377</v>
       </c>
       <c r="AH40" t="n">
-        <v>2.2161832766371803</v>
+        <v>2.2163401973314314</v>
       </c>
       <c r="AI40" t="n">
-        <v>2.211745188260589</v>
+        <v>2.2119015924252867</v>
       </c>
       <c r="AJ40" t="n">
-        <v>2.2127916157893055</v>
+        <v>2.2129253413154566</v>
       </c>
     </row>
     <row r="41">
@@ -39964,37 +39964,37 @@
         <v>0.007972216468441842</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.008131058947121775</v>
+        <v>0.008131058672425782</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.008300429810600266</v>
+        <v>0.00830042803910468</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.008487054206348798</v>
+        <v>0.008487047751882594</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.008691067237710877</v>
+        <v>0.008691041989018896</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.008923160256374517</v>
+        <v>0.008923108502377118</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.009201799892775305</v>
+        <v>0.009201695179659193</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.009565338503511982</v>
+        <v>0.009565176802661534</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.009999107957291961</v>
+        <v>0.00999889235178686</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.010504665736338804</v>
+        <v>0.010504412743952935</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.011034681056948777</v>
+        <v>0.011034534961688654</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0.011561668751862732</v>
+        <v>0.01156151529870714</v>
       </c>
     </row>
     <row r="42">
@@ -40008,103 +40008,103 @@
         <v>0.061409649597419715</v>
       </c>
       <c r="D42" t="n">
-        <v>0.05717330449813334</v>
+        <v>0.05717312384423357</v>
       </c>
       <c r="E42" t="n">
-        <v>0.05361525123863504</v>
+        <v>0.053614921242448835</v>
       </c>
       <c r="F42" t="n">
-        <v>0.05063338127671993</v>
+        <v>0.05063299983698022</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04816818108786497</v>
+        <v>0.048167817342511424</v>
       </c>
       <c r="H42" t="n">
-        <v>0.04631234825248169</v>
+        <v>0.046312086571342684</v>
       </c>
       <c r="I42" t="n">
-        <v>0.045306277639503074</v>
+        <v>0.04530615148465857</v>
       </c>
       <c r="J42" t="n">
-        <v>0.04499831115033935</v>
+        <v>0.04499844684687347</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0453238681333241</v>
+        <v>0.04532430021418444</v>
       </c>
       <c r="L42" t="n">
-        <v>0.04629879396647018</v>
+        <v>0.046299556360061146</v>
       </c>
       <c r="M42" t="n">
-        <v>0.047988642353764974</v>
+        <v>0.047989768874654275</v>
       </c>
       <c r="N42" t="n">
-        <v>0.05045877298384613</v>
+        <v>0.05046055869201516</v>
       </c>
       <c r="O42" t="n">
-        <v>0.053728158146405115</v>
+        <v>0.0537305082280251</v>
       </c>
       <c r="P42" t="n">
-        <v>0.057732516177292026</v>
+        <v>0.057735486750568</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.06247167797794272</v>
+        <v>0.06247527208981493</v>
       </c>
       <c r="R42" t="n">
-        <v>0.06793964454085384</v>
+        <v>0.0679440911539768</v>
       </c>
       <c r="S42" t="n">
-        <v>0.07421931771952894</v>
+        <v>0.07422463732837525</v>
       </c>
       <c r="T42" t="n">
-        <v>0.0813896796540075</v>
+        <v>0.08139601283733021</v>
       </c>
       <c r="U42" t="n">
-        <v>0.08937613774057071</v>
+        <v>0.08938339131753734</v>
       </c>
       <c r="V42" t="n">
-        <v>0.09812122731424362</v>
+        <v>0.09812955486432119</v>
       </c>
       <c r="W42" t="n">
-        <v>0.10767635548143396</v>
+        <v>0.10768579344778444</v>
       </c>
       <c r="X42" t="n">
-        <v>0.11808012781581793</v>
+        <v>0.11809083443245476</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.12941494371139084</v>
+        <v>0.12942699632055638</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.1416454900220758</v>
+        <v>0.14165874840520634</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.1547219569852511</v>
+        <v>0.15473669694139358</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.16862129371374435</v>
+        <v>0.16863748814066773</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.18343705018924814</v>
+        <v>0.1834548585588928</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.1992416978863672</v>
+        <v>0.19926105119972148</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.21602087630345665</v>
+        <v>0.2160420858190962</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.23368987112503403</v>
+        <v>0.23371280474996592</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.25228085719269533</v>
+        <v>0.2523054258611771</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.2718558815828687</v>
+        <v>0.2718823573926992</v>
       </c>
       <c r="AI42" t="n">
-        <v>0.29109622080434305</v>
+        <v>0.2911171491909191</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0.3052241849851282</v>
+        <v>0.30523241466603507</v>
       </c>
     </row>
     <row r="43">
@@ -40163,7 +40163,7 @@
         <v>0.015115710971970049</v>
       </c>
       <c r="S43" t="n">
-        <v>0.01551074525446961</v>
+        <v>0.015510745254469611</v>
       </c>
       <c r="T43" t="n">
         <v>0.0159020437689897</v>
@@ -40184,37 +40184,37 @@
         <v>0.017806734063218164</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.01817801497675111</v>
+        <v>0.01817801436308315</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.018548536084966722</v>
+        <v>0.018548532360729307</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.018925810991027345</v>
+        <v>0.01892579828973842</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.01931868863217008</v>
+        <v>0.019318641854542587</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.019734864404090953</v>
+        <v>0.019734773697712718</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.020207416971914194</v>
+        <v>0.020207247541634155</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.020778807813086168</v>
+        <v>0.02077856561072109</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.02139788999494243</v>
+        <v>0.021397591347467507</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.02206477375913872</v>
+        <v>0.022064449335652075</v>
       </c>
       <c r="AI43" t="n">
-        <v>0.022718057062124937</v>
+        <v>0.022717882661073965</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0.023328514876322703</v>
+        <v>0.023328343559389106</v>
       </c>
     </row>
     <row r="44">
@@ -40235,106 +40235,106 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>0.14049576599810826</v>
+        <v>0.15147941562915423</v>
       </c>
       <c r="D46" t="n">
-        <v>0.15483446879453405</v>
+        <v>0.15822081317105574</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1673400198116694</v>
+        <v>0.16310827361404057</v>
       </c>
       <c r="F46" t="n">
-        <v>0.17799229556543886</v>
+        <v>0.16612417116681677</v>
       </c>
       <c r="G46" t="n">
-        <v>0.18679525959096704</v>
+        <v>0.1672757498803867</v>
       </c>
       <c r="H46" t="n">
-        <v>0.19380105133038086</v>
+        <v>0.1666198339098816</v>
       </c>
       <c r="I46" t="n">
-        <v>0.199129613559617</v>
+        <v>0.16428142605988405</v>
       </c>
       <c r="J46" t="n">
-        <v>0.20274895281372185</v>
+        <v>0.16023037344775012</v>
       </c>
       <c r="K46" t="n">
-        <v>0.20518932959132874</v>
+        <v>0.15500658953744623</v>
       </c>
       <c r="L46" t="n">
-        <v>0.20713136124213574</v>
+        <v>0.14927345531902753</v>
       </c>
       <c r="M46" t="n">
-        <v>0.2061667575755738</v>
+        <v>0.14064645359814704</v>
       </c>
       <c r="N46" t="n">
-        <v>0.20420193621721167</v>
+        <v>0.13103488465497745</v>
       </c>
       <c r="O46" t="n">
-        <v>0.2012897256961687</v>
+        <v>0.12049398553780515</v>
       </c>
       <c r="P46" t="n">
-        <v>0.19742389947399142</v>
+        <v>0.1090201275467371</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.1926241921363427</v>
+        <v>0.09663528561928571</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1869291052247204</v>
+        <v>0.08338047135085569</v>
       </c>
       <c r="S46" t="n">
-        <v>0.1804122532332027</v>
+        <v>0.06933115661260288</v>
       </c>
       <c r="T46" t="n">
-        <v>0.1731469538705782</v>
+        <v>0.05456213037750164</v>
       </c>
       <c r="U46" t="n">
-        <v>0.16512301666670226</v>
+        <v>0.03906517260037948</v>
       </c>
       <c r="V46" t="n">
-        <v>0.15635619724511493</v>
+        <v>0.02285852359557472</v>
       </c>
       <c r="W46" t="n">
-        <v>0.14690787038513065</v>
+        <v>0.006005712225181453</v>
       </c>
       <c r="X46" t="n">
-        <v>0.13680667436978083</v>
+        <v>-0.01134957117342339</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.1260757039839283</v>
+        <v>-0.028866492048729375</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.11480220172053149</v>
+        <v>-0.04618216187131974</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.10286513407131359</v>
+        <v>-0.06322118609501043</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.08948655593050706</v>
+        <v>-0.08065004655900748</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.07377233711076558</v>
+        <v>-0.09932825362645326</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.0549780798772741</v>
+        <v>-0.12004244603661601</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.028776944819645323</v>
+        <v>-0.14726843786869587</v>
       </c>
       <c r="AF46" t="n">
-        <v>-0.010555828830158431</v>
+        <v>-0.18697307350739717</v>
       </c>
       <c r="AG46" t="n">
-        <v>-0.05577980838515789</v>
+        <v>-0.23207101988411966</v>
       </c>
       <c r="AH46" t="n">
-        <v>-0.10684441143900442</v>
+        <v>-0.2828194330650106</v>
       </c>
       <c r="AI46" t="n">
-        <v>-0.1557958835148346</v>
+        <v>-0.3315228172197802</v>
       </c>
       <c r="AJ46" t="n">
-        <v>-0.20080254541448528</v>
+        <v>-0.376555235880364</v>
       </c>
     </row>
     <row r="47">
@@ -40429,37 +40429,37 @@
         <v>0.010128667671614078</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.05162629195981022</v>
+        <v>0.051626223370876356</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.09303899371511443</v>
+        <v>0.09303857746154759</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.13520655938955922</v>
+        <v>0.13520513978166643</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.17911802412992966</v>
+        <v>0.17911279585036705</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.22563349312262176</v>
+        <v>0.22562335497905855</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.27845012926303975</v>
+        <v>0.2784311922429899</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.3423138011740005</v>
+        <v>0.3422867305049149</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.4115078772759186</v>
+        <v>0.4114744978043173</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.4860446791469853</v>
+        <v>0.48600841872134165</v>
       </c>
       <c r="AI50" t="n">
-        <v>0.5590613737115124</v>
+        <v>0.5590418811143312</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0.6272915145402405</v>
+        <v>0.6272723666511766</v>
       </c>
     </row>
     <row r="51">
@@ -40530,46 +40530,46 @@
         <v>1.6415535161941548</v>
       </c>
       <c r="W51" t="n">
-        <v>1.7354876473883198</v>
+        <v>1.7354876505842047</v>
       </c>
       <c r="X51" t="n">
-        <v>1.82790042648129</v>
+        <v>1.8279011154830127</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.9147516331166132</v>
+        <v>1.9147555899987831</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.9925043734178796</v>
+        <v>1.99251561958577</v>
       </c>
       <c r="AA51" t="n">
-        <v>2.058590054489041</v>
+        <v>2.0586133406664135</v>
       </c>
       <c r="AB51" t="n">
-        <v>2.1114759710836375</v>
+        <v>2.111516062679055</v>
       </c>
       <c r="AC51" t="n">
-        <v>2.1505816818451478</v>
+        <v>2.150642337819569</v>
       </c>
       <c r="AD51" t="n">
-        <v>2.1762259493044107</v>
+        <v>2.1763099742923537</v>
       </c>
       <c r="AE51" t="n">
-        <v>2.1901924745629504</v>
+        <v>2.1903001791290926</v>
       </c>
       <c r="AF51" t="n">
-        <v>2.1953887857123684</v>
+        <v>2.1955187038350505</v>
       </c>
       <c r="AG51" t="n">
-        <v>2.1936505818952985</v>
+        <v>2.193798140527542</v>
       </c>
       <c r="AH51" t="n">
-        <v>2.1888301031033848</v>
+        <v>2.188987023797636</v>
       </c>
       <c r="AI51" t="n">
-        <v>2.184392013324366</v>
+        <v>2.1845484175212073</v>
       </c>
       <c r="AJ51" t="n">
-        <v>2.185410750080265</v>
+        <v>2.1855445017875152</v>
       </c>
     </row>
     <row r="52">
@@ -40649,37 +40649,37 @@
         <v>0.009912216468441842</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.010071058947121774</v>
+        <v>0.010071058672425783</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.010240429810600266</v>
+        <v>0.010240428039104679</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.010427054206348799</v>
+        <v>0.010427047751882594</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.010631067237710878</v>
+        <v>0.010631041989018895</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.010863160256374517</v>
+        <v>0.010863108502377117</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.011141799892775304</v>
+        <v>0.011141695179659194</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.011505338503511982</v>
+        <v>0.011505176802661535</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.011939107957291962</v>
+        <v>0.011938892351786861</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.012444665736338805</v>
+        <v>0.012444412743952936</v>
       </c>
       <c r="AI52" t="n">
-        <v>0.012974681056948777</v>
+        <v>0.012974534961688655</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0.013501668751862733</v>
+        <v>0.013501515298707141</v>
       </c>
     </row>
     <row r="53">
@@ -40693,103 +40693,103 @@
         <v>0.06177968663330835</v>
       </c>
       <c r="D53" t="n">
-        <v>0.057543341534021984</v>
+        <v>0.057543160880122214</v>
       </c>
       <c r="E53" t="n">
-        <v>0.053985288274523674</v>
+        <v>0.05398495827833747</v>
       </c>
       <c r="F53" t="n">
-        <v>0.051003418312608566</v>
+        <v>0.051003036872868855</v>
       </c>
       <c r="G53" t="n">
-        <v>0.048538218123753606</v>
+        <v>0.04853785437840006</v>
       </c>
       <c r="H53" t="n">
-        <v>0.046682385288370334</v>
+        <v>0.04668212360723133</v>
       </c>
       <c r="I53" t="n">
-        <v>0.04567631467539171</v>
+        <v>0.045676188520547216</v>
       </c>
       <c r="J53" t="n">
-        <v>0.04536834818622798</v>
+        <v>0.0453684838827621</v>
       </c>
       <c r="K53" t="n">
-        <v>0.04569390516921274</v>
+        <v>0.04569433725007308</v>
       </c>
       <c r="L53" t="n">
-        <v>0.04666883100235882</v>
+        <v>0.04666959339594979</v>
       </c>
       <c r="M53" t="n">
-        <v>0.04835867938965361</v>
+        <v>0.04835980591054291</v>
       </c>
       <c r="N53" t="n">
-        <v>0.05082881001973477</v>
+        <v>0.050830595727903806</v>
       </c>
       <c r="O53" t="n">
-        <v>0.05409819518229375</v>
+        <v>0.05410054526391374</v>
       </c>
       <c r="P53" t="n">
-        <v>0.05810255321318067</v>
+        <v>0.05810552378645664</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.06284171501383136</v>
+        <v>0.06284530912570357</v>
       </c>
       <c r="R53" t="n">
-        <v>0.06830968157674248</v>
+        <v>0.06831412818986544</v>
       </c>
       <c r="S53" t="n">
-        <v>0.07458935475541759</v>
+        <v>0.0745946743642639</v>
       </c>
       <c r="T53" t="n">
-        <v>0.08175971668989612</v>
+        <v>0.08176604987321884</v>
       </c>
       <c r="U53" t="n">
-        <v>0.08974617477645935</v>
+        <v>0.08975342835342598</v>
       </c>
       <c r="V53" t="n">
-        <v>0.09849126435013227</v>
+        <v>0.09849959190020983</v>
       </c>
       <c r="W53" t="n">
-        <v>0.1080463925173226</v>
+        <v>0.10805583048367308</v>
       </c>
       <c r="X53" t="n">
-        <v>0.11845016485170658</v>
+        <v>0.1184608714683434</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.12978498074727945</v>
+        <v>0.12979703335644502</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.14201552705796447</v>
+        <v>0.14202878544109496</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.15509199402113974</v>
+        <v>0.15510673397728222</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.168991330749633</v>
+        <v>0.16900752517655637</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.18380708722513678</v>
+        <v>0.1838248955947814</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.19961173492225584</v>
+        <v>0.19963108823561013</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.2163909133393453</v>
+        <v>0.21641212285498485</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.23405990816092265</v>
+        <v>0.23408284178585453</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.252650894228584</v>
+        <v>0.2526754628970657</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.2722259186187574</v>
+        <v>0.27225239442858784</v>
       </c>
       <c r="AI53" t="n">
-        <v>0.29146625784023167</v>
+        <v>0.29148718622680775</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0.3055942220210169</v>
+        <v>0.3056024517019237</v>
       </c>
     </row>
     <row r="54">
@@ -40863,43 +40863,43 @@
         <v>0.02962868772503448</v>
       </c>
       <c r="X54" t="n">
-        <v>0.030006167901432495</v>
+        <v>0.0300061679014325</v>
       </c>
       <c r="Y54" t="n">
         <v>0.03038046436531792</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.030751745278850863</v>
+        <v>0.030751744665182903</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.031122266387066475</v>
+        <v>0.03112226266282906</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.0314995412931271</v>
+        <v>0.031499528591838175</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.031892418934269834</v>
+        <v>0.03189237215664234</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.032308594706190706</v>
+        <v>0.03230850399981247</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.03278114727401395</v>
+        <v>0.03278097784373391</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.033352538115185924</v>
+        <v>0.033352295912820844</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.03397162029704219</v>
+        <v>0.03397132164956726</v>
       </c>
       <c r="AH54" t="n">
-        <v>0.03463850406123847</v>
+        <v>0.03463817963775183</v>
       </c>
       <c r="AI54" t="n">
-        <v>0.03529178736422469</v>
+        <v>0.03529161296317372</v>
       </c>
       <c r="AJ54" t="n">
-        <v>0.03590224517842246</v>
+        <v>0.03590207386148886</v>
       </c>
     </row>
     <row r="55">
@@ -40920,106 +40920,106 @@
         <v>5</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2989077585874465</v>
+        <v>0.3120515581082941</v>
       </c>
       <c r="D57" t="n">
-        <v>0.31458739355701193</v>
+        <v>0.320139182225071</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3283940918365113</v>
+        <v>0.3263325391931354</v>
       </c>
       <c r="F57" t="n">
-        <v>0.34030740238500357</v>
+        <v>0.330613674468728</v>
       </c>
       <c r="G57" t="n">
-        <v>0.35033097127884844</v>
+        <v>0.332989513586022</v>
       </c>
       <c r="H57" t="n">
-        <v>0.35851663067942385</v>
+        <v>0.3335165724991382</v>
       </c>
       <c r="I57" t="n">
-        <v>0.36498402633729243</v>
+        <v>0.3323195562050585</v>
       </c>
       <c r="J57" t="n">
-        <v>0.3697008780922757</v>
+        <v>0.32936802448191893</v>
       </c>
       <c r="K57" t="n">
-        <v>0.37319717015010323</v>
+        <v>0.3252016139951814</v>
       </c>
       <c r="L57" t="n">
-        <v>0.376153254039449</v>
+        <v>0.32048343954679687</v>
       </c>
       <c r="M57" t="n">
-        <v>0.3761605842875154</v>
+        <v>0.3128287284317244</v>
       </c>
       <c r="N57" t="n">
-        <v>0.37512533384070595</v>
+        <v>0.30414653616117543</v>
       </c>
       <c r="O57" t="n">
-        <v>0.37310009721363374</v>
+        <v>0.2944918658178291</v>
       </c>
       <c r="P57" t="n">
-        <v>0.3700784245769112</v>
+        <v>0.2838608655984384</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.3660798380050503</v>
+        <v>0.2722752982555789</v>
       </c>
       <c r="R57" t="n">
-        <v>0.36114263736168023</v>
+        <v>0.25977597417155296</v>
       </c>
       <c r="S57" t="n">
-        <v>0.3553402463470642</v>
+        <v>0.24643817502690252</v>
       </c>
       <c r="T57" t="n">
-        <v>0.3487458028082606</v>
+        <v>0.23233651067435648</v>
       </c>
       <c r="U57" t="n">
-        <v>0.3413489473907587</v>
+        <v>0.21746259306395715</v>
       </c>
       <c r="V57" t="n">
-        <v>0.3331652778536124</v>
+        <v>0.20183450566301284</v>
       </c>
       <c r="W57" t="n">
-        <v>0.32425602217127114</v>
+        <v>0.18551563168382781</v>
       </c>
       <c r="X57" t="n">
-        <v>0.3146496829184803</v>
+        <v>0.16864952704789615</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.3043692303025589</v>
+        <v>0.15157690315859068</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.2935017934010263</v>
+        <v>0.13466053669593825</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.28192623648082216</v>
+        <v>0.11797572168363704</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.2688645234277864</v>
+        <v>0.10085588711220653</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.2534224442854812</v>
+        <v>0.08244144482288829</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.23485553280938315</v>
+        <v>0.06194568967504188</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.20883689235602626</v>
+        <v>0.03489275259905461</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.1696417162153321</v>
+        <v>-0.004684254355387607</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.12451040243484285</v>
+        <v>-0.0497000302495228</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.07349351009279426</v>
+        <v>-0.10041175183547818</v>
       </c>
       <c r="AI57" t="n">
-        <v>0.024544790812595196</v>
+        <v>-0.14912392346870723</v>
       </c>
       <c r="AJ57" t="n">
-        <v>-0.020323286066613933</v>
+        <v>-0.19402790646527812</v>
       </c>
     </row>
     <row r="58">
@@ -41114,37 +41114,37 @@
         <v>-0.012856462983993344</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.0286411613042028</v>
+        <v>0.028641092715268934</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.070053863059507</v>
+        <v>0.07005344680594017</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.1122214287339518</v>
+        <v>0.112220009126059</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.15613289347432224</v>
+        <v>0.15612766519475962</v>
       </c>
       <c r="AD61" t="n">
-        <v>0.20264836246701434</v>
+        <v>0.20263822432345113</v>
       </c>
       <c r="AE61" t="n">
-        <v>0.2554649986074323</v>
+        <v>0.2554460615873825</v>
       </c>
       <c r="AF61" t="n">
-        <v>0.3193286705183931</v>
+        <v>0.3193015998493075</v>
       </c>
       <c r="AG61" t="n">
-        <v>0.38852274662031117</v>
+        <v>0.38848936714870985</v>
       </c>
       <c r="AH61" t="n">
-        <v>0.46305954849137787</v>
+        <v>0.46302328806573423</v>
       </c>
       <c r="AI61" t="n">
-        <v>0.5360762430559051</v>
+        <v>0.5360567504587238</v>
       </c>
       <c r="AJ61" t="n">
-        <v>0.604312772640978</v>
+        <v>0.6042936088537894</v>
       </c>
     </row>
     <row r="62">
@@ -41215,46 +41215,46 @@
         <v>1.6371693153604878</v>
       </c>
       <c r="W62" t="n">
-        <v>1.7311034465546529</v>
+        <v>1.7311034497505378</v>
       </c>
       <c r="X62" t="n">
-        <v>1.823516225647623</v>
+        <v>1.8235169146493457</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.9103674322829463</v>
+        <v>1.9103713891651162</v>
       </c>
       <c r="Z62" t="n">
-        <v>1.9881201725842126</v>
+        <v>1.988131418752103</v>
       </c>
       <c r="AA62" t="n">
-        <v>2.054205853655374</v>
+        <v>2.0542291398327466</v>
       </c>
       <c r="AB62" t="n">
-        <v>2.1070917702499705</v>
+        <v>2.107131861845388</v>
       </c>
       <c r="AC62" t="n">
-        <v>2.146197481011481</v>
+        <v>2.146258136985902</v>
       </c>
       <c r="AD62" t="n">
-        <v>2.1718417484707437</v>
+        <v>2.1719257734586868</v>
       </c>
       <c r="AE62" t="n">
-        <v>2.1858082737292834</v>
+        <v>2.1859159782954256</v>
       </c>
       <c r="AF62" t="n">
-        <v>2.191004584878701</v>
+        <v>2.1911345030013836</v>
       </c>
       <c r="AG62" t="n">
-        <v>2.189266381061631</v>
+        <v>2.189413939693875</v>
       </c>
       <c r="AH62" t="n">
-        <v>2.184445902269718</v>
+        <v>2.184602822963969</v>
       </c>
       <c r="AI62" t="n">
-        <v>2.180007812490699</v>
+        <v>2.1801642166875403</v>
       </c>
       <c r="AJ62" t="n">
-        <v>2.181027767842712</v>
+        <v>2.181161516517542</v>
       </c>
     </row>
     <row r="63">
@@ -41334,37 +41334,37 @@
         <v>0.012632216468441843</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.012791058947121774</v>
+        <v>0.012791058672425783</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.012960429810600266</v>
+        <v>0.012960428039104679</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.013147054206348797</v>
+        <v>0.013147047751882593</v>
       </c>
       <c r="AC63" t="n">
-        <v>0.013351067237710876</v>
+        <v>0.013351041989018896</v>
       </c>
       <c r="AD63" t="n">
-        <v>0.013583160256374516</v>
+        <v>0.013583108502377117</v>
       </c>
       <c r="AE63" t="n">
-        <v>0.013861799892775304</v>
+        <v>0.013861695179659194</v>
       </c>
       <c r="AF63" t="n">
-        <v>0.014225338503511983</v>
+        <v>0.014225176802661534</v>
       </c>
       <c r="AG63" t="n">
-        <v>0.014659107957291962</v>
+        <v>0.01465889235178686</v>
       </c>
       <c r="AH63" t="n">
-        <v>0.015164665736338803</v>
+        <v>0.015164412743952936</v>
       </c>
       <c r="AI63" t="n">
-        <v>0.015694681056948778</v>
+        <v>0.015694534961688655</v>
       </c>
       <c r="AJ63" t="n">
-        <v>0.016221668751862733</v>
+        <v>0.01622151529870714</v>
       </c>
     </row>
     <row r="64">
@@ -41378,103 +41378,103 @@
         <v>0.06229850144651304</v>
       </c>
       <c r="D64" t="n">
-        <v>0.05806215634722667</v>
+        <v>0.0580619756933269</v>
       </c>
       <c r="E64" t="n">
-        <v>0.054504103087728364</v>
+        <v>0.05450377309154216</v>
       </c>
       <c r="F64" t="n">
-        <v>0.051522233125813256</v>
+        <v>0.051521851686073546</v>
       </c>
       <c r="G64" t="n">
-        <v>0.049057032936958296</v>
+        <v>0.04905666919160475</v>
       </c>
       <c r="H64" t="n">
-        <v>0.047201200101575025</v>
+        <v>0.04720093842043602</v>
       </c>
       <c r="I64" t="n">
-        <v>0.0461951294885964</v>
+        <v>0.046195003333751906</v>
       </c>
       <c r="J64" t="n">
-        <v>0.04588716299943267</v>
+        <v>0.04588729869596679</v>
       </c>
       <c r="K64" t="n">
-        <v>0.04621271998241742</v>
+        <v>0.04621315206327776</v>
       </c>
       <c r="L64" t="n">
-        <v>0.047187645815563506</v>
+        <v>0.04718840820915447</v>
       </c>
       <c r="M64" t="n">
-        <v>0.0488774942028583</v>
+        <v>0.0488786207237476</v>
       </c>
       <c r="N64" t="n">
-        <v>0.05134762483293946</v>
+        <v>0.051349410541108496</v>
       </c>
       <c r="O64" t="n">
-        <v>0.05461700999549844</v>
+        <v>0.05461936007711843</v>
       </c>
       <c r="P64" t="n">
-        <v>0.05862136802638535</v>
+        <v>0.058624338599661326</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.06336052982703605</v>
+        <v>0.06336412393890825</v>
       </c>
       <c r="R64" t="n">
-        <v>0.06882849638994717</v>
+        <v>0.06883294300307014</v>
       </c>
       <c r="S64" t="n">
-        <v>0.07510816956862226</v>
+        <v>0.0751134891774686</v>
       </c>
       <c r="T64" t="n">
-        <v>0.08227853150310081</v>
+        <v>0.08228486468642353</v>
       </c>
       <c r="U64" t="n">
-        <v>0.09026498958966404</v>
+        <v>0.09027224316663067</v>
       </c>
       <c r="V64" t="n">
-        <v>0.09901007916333696</v>
+        <v>0.09901840671341453</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1085652073305273</v>
+        <v>0.10857464529687777</v>
       </c>
       <c r="X64" t="n">
-        <v>0.11896897966491127</v>
+        <v>0.11897968628154809</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.13030379556048416</v>
+        <v>0.1303158481696497</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.14253434187116915</v>
+        <v>0.14254760025429966</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.15561080883434442</v>
+        <v>0.1556255487904869</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.1695101455628377</v>
+        <v>0.16952633998976105</v>
       </c>
       <c r="AC64" t="n">
-        <v>0.18432590203834145</v>
+        <v>0.1843437104079861</v>
       </c>
       <c r="AD64" t="n">
-        <v>0.20013054973546052</v>
+        <v>0.2001499030488148</v>
       </c>
       <c r="AE64" t="n">
-        <v>0.21690972815255</v>
+        <v>0.21693093766818955</v>
       </c>
       <c r="AF64" t="n">
-        <v>0.23457872297412735</v>
+        <v>0.23460165659905924</v>
       </c>
       <c r="AG64" t="n">
-        <v>0.2531697090417887</v>
+        <v>0.2531942777102704</v>
       </c>
       <c r="AH64" t="n">
-        <v>0.27274473343196204</v>
+        <v>0.27277120924179254</v>
       </c>
       <c r="AI64" t="n">
-        <v>0.2919850726534364</v>
+        <v>0.2920060010400124</v>
       </c>
       <c r="AJ64" t="n">
-        <v>0.3061130368342216</v>
+        <v>0.3061212665151284</v>
       </c>
     </row>
     <row r="65">
@@ -41554,37 +41554,37 @@
         <v>0.0450647522301247</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.04543603314365764</v>
+        <v>0.045436032529989685</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.04580655425187326</v>
+        <v>0.04580655052763584</v>
       </c>
       <c r="AB65" t="n">
-        <v>0.046183829157933884</v>
+        <v>0.04618381645664496</v>
       </c>
       <c r="AC65" t="n">
-        <v>0.04657670679907661</v>
+        <v>0.04657666002144912</v>
       </c>
       <c r="AD65" t="n">
-        <v>0.046992882570997485</v>
+        <v>0.04699279186461926</v>
       </c>
       <c r="AE65" t="n">
-        <v>0.04746543513882073</v>
+        <v>0.04746526570854069</v>
       </c>
       <c r="AF65" t="n">
-        <v>0.0480368259799927</v>
+        <v>0.04803658377762762</v>
       </c>
       <c r="AG65" t="n">
-        <v>0.04865590816184896</v>
+        <v>0.04865560951437404</v>
       </c>
       <c r="AH65" t="n">
-        <v>0.04932279192604526</v>
+        <v>0.04932246750255861</v>
       </c>
       <c r="AI65" t="n">
-        <v>0.04997607522903147</v>
+        <v>0.0499759008279805</v>
       </c>
       <c r="AJ65" t="n">
-        <v>0.050586533043229236</v>
+        <v>0.050586361726295645</v>
       </c>
     </row>
     <row r="66">
@@ -41605,106 +41605,106 @@
         <v>5</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3275033953046443</v>
+        <v>0.34099980972298116</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3433563231745812</v>
+        <v>0.34926100015173356</v>
       </c>
       <c r="E68" t="n">
-        <v>0.357329576482799</v>
+        <v>0.3556210967223759</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3694026622590195</v>
+        <v>0.3600621029153461</v>
       </c>
       <c r="G68" t="n">
-        <v>0.37957918635704274</v>
+        <v>0.3625909040181685</v>
       </c>
       <c r="H68" t="n">
-        <v>0.3879109424325927</v>
+        <v>0.36326397747760236</v>
       </c>
       <c r="I68" t="n">
-        <v>0.39451753945717527</v>
+        <v>0.3622059915322481</v>
       </c>
       <c r="J68" t="n">
-        <v>0.39936666222741135</v>
+        <v>0.359386470960095</v>
       </c>
       <c r="K68" t="n">
-        <v>0.40298826165051105</v>
+        <v>0.3553450191935042</v>
       </c>
       <c r="L68" t="n">
-        <v>0.4060626577096885</v>
+        <v>0.35074471957673664</v>
       </c>
       <c r="M68" t="n">
-        <v>0.40618127514769</v>
+        <v>0.3432007697303927</v>
       </c>
       <c r="N68" t="n">
-        <v>0.4052502588949645</v>
+        <v>0.3346221972821272</v>
       </c>
       <c r="O68" t="n">
-        <v>0.403322177225724</v>
+        <v>0.325063979228883</v>
       </c>
       <c r="P68" t="n">
-        <v>0.40039055585233985</v>
+        <v>0.3145222394860649</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.3964748941794001</v>
+        <v>0.3030187183354005</v>
       </c>
       <c r="R68" t="n">
-        <v>0.3916134711946342</v>
+        <v>0.29059420550450266</v>
       </c>
       <c r="S68" t="n">
-        <v>0.3858796915216846</v>
+        <v>0.27732396384057983</v>
       </c>
       <c r="T68" t="n">
-        <v>0.3793466757350718</v>
+        <v>0.2632825861891266</v>
       </c>
       <c r="U68" t="n">
-        <v>0.37200404901617684</v>
+        <v>0.2484616693233308</v>
       </c>
       <c r="V68" t="n">
-        <v>0.36386739547226865</v>
+        <v>0.23287928336784655</v>
       </c>
       <c r="W68" t="n">
-        <v>0.3549979312417718</v>
+        <v>0.21659880002988374</v>
       </c>
       <c r="X68" t="n">
-        <v>0.34542414888214656</v>
+        <v>0.19976376556629782</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.3351690104046882</v>
+        <v>0.18271488355871185</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.324319638514217</v>
+        <v>0.1658149247102609</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.3127548929299029</v>
+        <v>0.1491391789141141</v>
       </c>
       <c r="AB68" t="n">
-        <v>0.29969673481588943</v>
+        <v>0.13202107287766413</v>
       </c>
       <c r="AC68" t="n">
-        <v>0.2842509533208023</v>
+        <v>0.11360101800700326</v>
       </c>
       <c r="AD68" t="n">
-        <v>0.2656730831321654</v>
+        <v>0.09309231057442824</v>
       </c>
       <c r="AE68" t="n">
-        <v>0.23963623036531007</v>
+        <v>0.0660190847709951</v>
       </c>
       <c r="AF68" t="n">
-        <v>0.20041559289501035</v>
+        <v>0.026414457753968057</v>
       </c>
       <c r="AG68" t="n">
-        <v>0.15525157517856214</v>
+        <v>-0.018636262584687868</v>
       </c>
       <c r="AH68" t="n">
-        <v>0.10419474452724187</v>
+        <v>-0.06939024420002265</v>
       </c>
       <c r="AI68" t="n">
-        <v>0.05519886261871454</v>
+        <v>-0.1181519808087535</v>
       </c>
       <c r="AJ68" t="n">
-        <v>0.010268453742907635</v>
+        <v>-0.16312084975144836</v>
       </c>
     </row>
     <row r="69">
@@ -41799,37 +41799,37 @@
         <v>-0.04620212725397754</v>
       </c>
       <c r="Z72" t="n">
-        <v>-0.004704502965781399</v>
+        <v>-0.0047045715547152644</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.036708198789522806</v>
+        <v>0.03670778253595597</v>
       </c>
       <c r="AB72" t="n">
-        <v>0.0788757644639676</v>
+        <v>0.07887434485607481</v>
       </c>
       <c r="AC72" t="n">
-        <v>0.12278722920433804</v>
+        <v>0.12278200092477543</v>
       </c>
       <c r="AD72" t="n">
-        <v>0.16930269819703014</v>
+        <v>0.16929256005346693</v>
       </c>
       <c r="AE72" t="n">
-        <v>0.22211933433744813</v>
+        <v>0.22210039731739828</v>
       </c>
       <c r="AF72" t="n">
-        <v>0.2859830062484089</v>
+        <v>0.2859559355793233</v>
       </c>
       <c r="AG72" t="n">
-        <v>0.35517708235032697</v>
+        <v>0.35514370287872565</v>
       </c>
       <c r="AH72" t="n">
-        <v>0.42971388422139367</v>
+        <v>0.42967762379575003</v>
       </c>
       <c r="AI72" t="n">
-        <v>0.5027305787859209</v>
+        <v>0.5027110861887396</v>
       </c>
       <c r="AJ72" t="n">
-        <v>0.5710711205341434</v>
+        <v>0.5710518592226663</v>
       </c>
     </row>
     <row r="73">
@@ -41900,46 +41900,46 @@
         <v>1.6308089386768783</v>
       </c>
       <c r="W73" t="n">
-        <v>1.724743069871043</v>
+        <v>1.724743073066928</v>
       </c>
       <c r="X73" t="n">
-        <v>1.8171558489640134</v>
+        <v>1.8171565379657362</v>
       </c>
       <c r="Y73" t="n">
-        <v>1.9040070555993367</v>
+        <v>1.9040110124815066</v>
       </c>
       <c r="Z73" t="n">
-        <v>1.981759795900603</v>
+        <v>1.9817710420684935</v>
       </c>
       <c r="AA73" t="n">
-        <v>2.0478454769717644</v>
+        <v>2.047868763149137</v>
       </c>
       <c r="AB73" t="n">
-        <v>2.1007313935663605</v>
+        <v>2.1007714851617783</v>
       </c>
       <c r="AC73" t="n">
-        <v>2.139837104327871</v>
+        <v>2.1398977603022926</v>
       </c>
       <c r="AD73" t="n">
-        <v>2.165481371787134</v>
+        <v>2.165565396775077</v>
       </c>
       <c r="AE73" t="n">
-        <v>2.179447897045674</v>
+        <v>2.179555601611816</v>
       </c>
       <c r="AF73" t="n">
-        <v>2.1846442081950914</v>
+        <v>2.1847741263177736</v>
       </c>
       <c r="AG73" t="n">
-        <v>2.1829060043780215</v>
+        <v>2.1830535630102657</v>
       </c>
       <c r="AH73" t="n">
-        <v>2.1780855255861082</v>
+        <v>2.1782424462803593</v>
       </c>
       <c r="AI73" t="n">
-        <v>2.1736474358070894</v>
+        <v>2.1738038400039303</v>
       </c>
       <c r="AJ73" t="n">
-        <v>2.1746872305160863</v>
+        <v>2.1748209605890607</v>
       </c>
     </row>
     <row r="74">
@@ -42019,37 +42019,37 @@
         <v>0.016132216468441842</v>
       </c>
       <c r="Z74" t="n">
-        <v>0.016291058947121774</v>
+        <v>0.016291058672425782</v>
       </c>
       <c r="AA74" t="n">
-        <v>0.016460429810600266</v>
+        <v>0.01646042803910468</v>
       </c>
       <c r="AB74" t="n">
-        <v>0.0166470542063488</v>
+        <v>0.016647047751882596</v>
       </c>
       <c r="AC74" t="n">
-        <v>0.016851067237710876</v>
+        <v>0.016851041989018895</v>
       </c>
       <c r="AD74" t="n">
-        <v>0.01708316025637452</v>
+        <v>0.01708310850237712</v>
       </c>
       <c r="AE74" t="n">
-        <v>0.017361799892775306</v>
+        <v>0.017361695179659194</v>
       </c>
       <c r="AF74" t="n">
-        <v>0.017725338503511982</v>
+        <v>0.017725176802661537</v>
       </c>
       <c r="AG74" t="n">
-        <v>0.01815910795729196</v>
+        <v>0.01815889235178686</v>
       </c>
       <c r="AH74" t="n">
-        <v>0.018664665736338806</v>
+        <v>0.018664412743952936</v>
       </c>
       <c r="AI74" t="n">
-        <v>0.019194681056948777</v>
+        <v>0.019194534961688655</v>
       </c>
       <c r="AJ74" t="n">
-        <v>0.019721668751862733</v>
+        <v>0.01972151529870714</v>
       </c>
     </row>
     <row r="75">
@@ -42063,103 +42063,103 @@
         <v>0.06296609403703378</v>
       </c>
       <c r="D75" t="n">
-        <v>0.05872974893774741</v>
+        <v>0.05872956828384764</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0551716956782491</v>
+        <v>0.0551713656820629</v>
       </c>
       <c r="F75" t="n">
-        <v>0.052189825716333994</v>
+        <v>0.052189444276594284</v>
       </c>
       <c r="G75" t="n">
-        <v>0.049724625527479034</v>
+        <v>0.04972426178212549</v>
       </c>
       <c r="H75" t="n">
-        <v>0.04786879269209576</v>
+        <v>0.047868531010956755</v>
       </c>
       <c r="I75" t="n">
-        <v>0.04686272207911714</v>
+        <v>0.046862595924272644</v>
       </c>
       <c r="J75" t="n">
-        <v>0.04655475558995341</v>
+        <v>0.04655489128648753</v>
       </c>
       <c r="K75" t="n">
-        <v>0.04688031257293817</v>
+        <v>0.04688074465379851</v>
       </c>
       <c r="L75" t="n">
-        <v>0.04785523840608425</v>
+        <v>0.04785600079967522</v>
       </c>
       <c r="M75" t="n">
-        <v>0.04954508679337904</v>
+        <v>0.04954621331426834</v>
       </c>
       <c r="N75" t="n">
-        <v>0.0520152174234602</v>
+        <v>0.052017003131629234</v>
       </c>
       <c r="O75" t="n">
-        <v>0.05528460258601918</v>
+        <v>0.055286952667639166</v>
       </c>
       <c r="P75" t="n">
-        <v>0.0592889606169061</v>
+        <v>0.05929193119018207</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.06402812241755679</v>
+        <v>0.064031716529429</v>
       </c>
       <c r="R75" t="n">
-        <v>0.06949608898046791</v>
+        <v>0.06950053559359087</v>
       </c>
       <c r="S75" t="n">
-        <v>0.075775762159143</v>
+        <v>0.07578108176798934</v>
       </c>
       <c r="T75" t="n">
-        <v>0.08294612409362155</v>
+        <v>0.08295245727694427</v>
       </c>
       <c r="U75" t="n">
-        <v>0.09093258218018478</v>
+        <v>0.09093983575715141</v>
       </c>
       <c r="V75" t="n">
-        <v>0.0996776717538577</v>
+        <v>0.09968599930393526</v>
       </c>
       <c r="W75" t="n">
-        <v>0.10923279992104803</v>
+        <v>0.10924223788739851</v>
       </c>
       <c r="X75" t="n">
-        <v>0.119636572255432</v>
+        <v>0.11964727887206883</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.1309713881510049</v>
+        <v>0.13098344076017043</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.14320193446168988</v>
+        <v>0.1432151928448204</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.15627840142486515</v>
+        <v>0.15629314138100764</v>
       </c>
       <c r="AB75" t="n">
-        <v>0.17017773815335843</v>
+        <v>0.1701939325802818</v>
       </c>
       <c r="AC75" t="n">
-        <v>0.1849934946288622</v>
+        <v>0.18501130299850685</v>
       </c>
       <c r="AD75" t="n">
-        <v>0.20079814232598125</v>
+        <v>0.20081749563933554</v>
       </c>
       <c r="AE75" t="n">
-        <v>0.21757732074307073</v>
+        <v>0.2175985302587103</v>
       </c>
       <c r="AF75" t="n">
-        <v>0.2352463155646481</v>
+        <v>0.23526924918957998</v>
       </c>
       <c r="AG75" t="n">
-        <v>0.25383730163230944</v>
+        <v>0.25386187030079116</v>
       </c>
       <c r="AH75" t="n">
-        <v>0.2734123260224828</v>
+        <v>0.2734388018323133</v>
       </c>
       <c r="AI75" t="n">
-        <v>0.2926526652439571</v>
+        <v>0.29267359363053314</v>
       </c>
       <c r="AJ75" t="n">
-        <v>0.3067806294247423</v>
+        <v>0.3067888591056491</v>
       </c>
     </row>
     <row r="76">
@@ -42239,37 +42239,37 @@
         <v>0.060544341259092666</v>
       </c>
       <c r="Z76" t="n">
-        <v>0.060915622172625604</v>
+        <v>0.06091562155895765</v>
       </c>
       <c r="AA76" t="n">
-        <v>0.06128614328084122</v>
+        <v>0.0612861395566038</v>
       </c>
       <c r="AB76" t="n">
-        <v>0.06166341818690184</v>
+        <v>0.061663405485612915</v>
       </c>
       <c r="AC76" t="n">
-        <v>0.062056295828044575</v>
+        <v>0.06205624905041708</v>
       </c>
       <c r="AD76" t="n">
-        <v>0.06247247159996545</v>
+        <v>0.06247238089358721</v>
       </c>
       <c r="AE76" t="n">
-        <v>0.06294502416778869</v>
+        <v>0.06294485473750865</v>
       </c>
       <c r="AF76" t="n">
-        <v>0.06351641500896066</v>
+        <v>0.06351617280659558</v>
       </c>
       <c r="AG76" t="n">
-        <v>0.06413549719081693</v>
+        <v>0.064135198543342</v>
       </c>
       <c r="AH76" t="n">
-        <v>0.06480238095501321</v>
+        <v>0.06480205653152657</v>
       </c>
       <c r="AI76" t="n">
-        <v>0.06545566425799942</v>
+        <v>0.06545548985694846</v>
       </c>
       <c r="AJ76" t="n">
-        <v>0.0660661220721972</v>
+        <v>0.0660659507552636</v>
       </c>
     </row>
     <row r="77">
@@ -42290,106 +42290,106 @@
         <v>5</v>
       </c>
       <c r="C79" t="n">
-        <v>0.36792035981187593</v>
+        <v>0.38192714819076223</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3840324007055126</v>
+        <v>0.3904479547902866</v>
       </c>
       <c r="E79" t="n">
-        <v>0.39825505893153673</v>
+        <v>0.3970578308152278</v>
       </c>
       <c r="F79" t="n">
-        <v>0.41056777873331596</v>
+        <v>0.4017387168653822</v>
       </c>
       <c r="G79" t="n">
-        <v>0.4209741056380652</v>
+        <v>0.40449743783980163</v>
       </c>
       <c r="H79" t="n">
-        <v>0.4295257754498808</v>
+        <v>0.40539041330414755</v>
       </c>
       <c r="I79" t="n">
-        <v>0.4363423417781619</v>
+        <v>0.40454225613786715</v>
       </c>
       <c r="J79" t="n">
-        <v>0.4413914365608804</v>
+        <v>0.40192243829567664</v>
       </c>
       <c r="K79" t="n">
-        <v>0.4452029603633606</v>
+        <v>0.39807051293584234</v>
       </c>
       <c r="L79" t="n">
-        <v>0.448457185356371</v>
+        <v>0.3936495156903664</v>
       </c>
       <c r="M79" t="n">
-        <v>0.4487454910116848</v>
+        <v>0.3862745990414356</v>
       </c>
       <c r="N79" t="n">
-        <v>0.4479739795416497</v>
+        <v>0.3778547480635012</v>
       </c>
       <c r="O79" t="n">
-        <v>0.44619517906600187</v>
+        <v>0.36844489979622536</v>
       </c>
       <c r="P79" t="n">
-        <v>0.44340257771637026</v>
+        <v>0.3580411408037119</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.4396156398997956</v>
+        <v>0.3466651766317731</v>
       </c>
       <c r="R79" t="n">
-        <v>0.43487261219846474</v>
+        <v>0.334357764896234</v>
       </c>
       <c r="S79" t="n">
-        <v>0.4292468694306408</v>
+        <v>0.3211941389647289</v>
       </c>
       <c r="T79" t="n">
-        <v>0.42281150497313097</v>
+        <v>0.3072488648428121</v>
       </c>
       <c r="U79" t="n">
-        <v>0.4155561194241167</v>
+        <v>0.29251351511012125</v>
       </c>
       <c r="V79" t="n">
-        <v>0.4074962749283686</v>
+        <v>0.2770061383502427</v>
       </c>
       <c r="W79" t="n">
-        <v>0.39869316828804446</v>
+        <v>0.2607900873872223</v>
       </c>
       <c r="X79" t="n">
-        <v>0.3891752753554358</v>
+        <v>0.2440088922574097</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.3789655440719737</v>
+        <v>0.22700324298866364</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.36815108571146016</v>
+        <v>0.21013589940050842</v>
       </c>
       <c r="AA79" t="n">
-        <v>0.3566107512037705</v>
+        <v>0.19348214317539575</v>
       </c>
       <c r="AB79" t="n">
-        <v>0.3435664955676906</v>
+        <v>0.17637539548496145</v>
       </c>
       <c r="AC79" t="n">
-        <v>0.3281241044519713</v>
+        <v>0.15795606487589484</v>
       </c>
       <c r="AD79" t="n">
-        <v>0.3095391116906268</v>
+        <v>0.13743744743816383</v>
       </c>
       <c r="AE79" t="n">
-        <v>0.2834846251920581</v>
+        <v>0.110343679857615</v>
       </c>
       <c r="AF79" t="n">
-        <v>0.24423584727023687</v>
+        <v>0.07070788446279525</v>
       </c>
       <c r="AG79" t="n">
-        <v>0.19903318946666687</v>
+        <v>0.025615376992142114</v>
       </c>
       <c r="AH79" t="n">
-        <v>0.14792722882006049</v>
+        <v>-0.025190999989707363</v>
       </c>
       <c r="AI79" t="n">
-        <v>0.09887173937629556</v>
+        <v>-0.07401572700921749</v>
       </c>
       <c r="AJ79" t="n">
-        <v>0.05374171774080738</v>
+        <v>-0.11918907681089397</v>
       </c>
     </row>
   </sheetData>
@@ -42645,83 +42645,79 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.42877324969057723</v>
+        <v>-0.4249180040520025</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4006639745341063</v>
+        <v>-0.40299762471398476</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.3731975315137205</v>
+        <v>-0.38171884393784256</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.34641594751010374</v>
+        <v>-0.3611214934842569</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.32034877882568225</v>
+        <v>-0.34123249487692847</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.2949761519785336</v>
+        <v>-0.32202907083821414</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2702316335528435</v>
+        <v>-0.30344247982271305</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.24617041944768567</v>
+        <v>-0.2855257666045906</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.22282174553818915</v>
+        <v>-0.26830570116034025</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.19830791763953884</v>
+        <v>-0.2499262878468923</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1760395804107306</v>
+        <v>-0.2337521763224142</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.15445554327722016</v>
+        <v>-0.21824015598629654</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.13355489220399389</v>
+        <v>-0.2033876083499972</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.11336340164833153</v>
+        <v>-0.18921779829447558</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.09388530107100836</v>
+        <v>-0.17573287602627347</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.07512739650014555</v>
+        <v>-0.16293739099059756</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.05706543527854636</v>
+        <v>-0.15080605473651726</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.03967698188075018</v>
+        <v>-0.1393155684602759</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.022988129107350267</v>
+        <v>-0.1284895081260843</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.0070204370128223795</v>
+        <v>-0.11834666173152808</v>
       </c>
       <c r="W5" t="n">
-        <v>0.00824169956164487</v>
+        <v>-0.10886973492813215</v>
       </c>
       <c r="X5" t="n">
-        <v>0.022801615141491628</v>
+        <v>-0.09995907598157652</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.03670832541922504</v>
+        <v>-0.09130083406713715</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.05005293089590466</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.06298737436409109</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.07571169399178117</v>
-      </c>
+        <v>-0.08257508503130365</v>
+      </c>
+      <c r="AA5"/>
+      <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5"/>
@@ -42739,83 +42735,79 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.04866534650339249</v>
+        <v>-0.04792999409683538</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04251986553217371</v>
+        <v>0.04207474336961535</v>
       </c>
       <c r="E6" t="n">
-        <v>0.13358246329031173</v>
+        <v>0.13195710185149567</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2245144305326937</v>
+        <v>0.22170948380929179</v>
       </c>
       <c r="G6" t="n">
-        <v>0.31531012966831873</v>
+        <v>0.311326754211647</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4059733513798381</v>
+        <v>0.4008132576133577</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4965167672261548</v>
+        <v>0.4901821058276724</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5869298491006261</v>
+        <v>0.5794231810551057</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6772070205307914</v>
+        <v>0.6685313771705279</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7677064342952352</v>
+        <v>0.7578607081566107</v>
       </c>
       <c r="M6" t="n">
-        <v>0.857777541507316</v>
+        <v>0.8467693982472139</v>
       </c>
       <c r="N6" t="n">
-        <v>0.947718124812736</v>
+        <v>0.9355518005745033</v>
       </c>
       <c r="O6" t="n">
-        <v>1.0375283585552098</v>
+        <v>1.0242084145909214</v>
       </c>
       <c r="P6" t="n">
-        <v>1.1272033264956793</v>
+        <v>1.1127348027358546</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.2167422219036659</v>
+        <v>1.2011305548773157</v>
       </c>
       <c r="R6" t="n">
-        <v>1.3061437465923278</v>
+        <v>1.2893948032507585</v>
       </c>
       <c r="S6" t="n">
-        <v>1.3954125265314494</v>
+        <v>1.3775323713940306</v>
       </c>
       <c r="T6" t="n">
-        <v>1.484552841089763</v>
+        <v>1.4655477033382056</v>
       </c>
       <c r="U6" t="n">
-        <v>1.5735597133071708</v>
+        <v>1.5534363021864201</v>
       </c>
       <c r="V6" t="n">
-        <v>1.662429030802924</v>
+        <v>1.6411945843021083</v>
       </c>
       <c r="W6" t="n">
-        <v>1.751154750193145</v>
+        <v>1.7288168316945642</v>
       </c>
       <c r="X6" t="n">
-        <v>1.8382972495427479</v>
+        <v>1.8148824734584805</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.9198214567082938</v>
+        <v>1.8954088517642116</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.992204269364029</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>2.0528579863713574</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>2.100127876422613</v>
-      </c>
+        <v>1.9669179626922033</v>
+      </c>
+      <c r="AA6"/>
+      <c r="AB6"/>
       <c r="AC6"/>
       <c r="AD6"/>
       <c r="AE6"/>
@@ -42833,83 +42825,79 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006419826863990189</v>
+        <v>0.006401308345471671</v>
       </c>
       <c r="D7" t="n">
-        <v>0.006266139433931472</v>
+        <v>0.0062476209154129535</v>
       </c>
       <c r="E7" t="n">
-        <v>0.006129983712205612</v>
+        <v>0.006128129433855288</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006004450735310586</v>
+        <v>0.006020228498972008</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005897502622891428</v>
+        <v>0.0059313897075968305</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0057985280519341955</v>
+        <v>0.005850986389657583</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005723995772374226</v>
+        <v>0.005791561458126892</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005721882251231637</v>
+        <v>0.005825324510712109</v>
       </c>
       <c r="K7" t="n">
-        <v>0.005748713933933693</v>
+        <v>0.0059053852900503466</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005784825849029448</v>
+        <v>0.0059944233235908135</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0058419819750508695</v>
+        <v>0.006106542605169985</v>
       </c>
       <c r="N7" t="n">
-        <v>0.00591432402980648</v>
+        <v>0.0062518090836503615</v>
       </c>
       <c r="O7" t="n">
-        <v>0.006073034427492955</v>
+        <v>0.0065066790617898575</v>
       </c>
       <c r="P7" t="n">
-        <v>0.00624822780393237</v>
+        <v>0.006778337336031243</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.006435174331052437</v>
+        <v>0.007062085416167952</v>
       </c>
       <c r="R7" t="n">
-        <v>0.006647637127951942</v>
+        <v>0.007371695875324978</v>
       </c>
       <c r="S7" t="n">
-        <v>0.006910002815507596</v>
+        <v>0.007857786196850925</v>
       </c>
       <c r="T7" t="n">
-        <v>0.007246987652045576</v>
+        <v>0.008375977282326226</v>
       </c>
       <c r="U7" t="n">
-        <v>0.007592961465684782</v>
+        <v>0.0089038745455797</v>
       </c>
       <c r="V7" t="n">
-        <v>0.007957822233577189</v>
+        <v>0.009961052087905773</v>
       </c>
       <c r="W7" t="n">
-        <v>0.008377699855875163</v>
+        <v>0.013916150023678473</v>
       </c>
       <c r="X7" t="n">
-        <v>0.008934982362522888</v>
+        <v>0.016877158630770932</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.009504051246539694</v>
+        <v>0.019676663623434072</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.010169672508865886</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.014081572161680359</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.0166470542063488</v>
-      </c>
+        <v>0.020571058672425785</v>
+      </c>
+      <c r="AA7"/>
+      <c r="AB7"/>
       <c r="AC7"/>
       <c r="AD7"/>
       <c r="AE7"/>
@@ -42927,83 +42915,79 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06112353848719654</v>
+        <v>0.06112000625126786</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05688719338791017</v>
+        <v>0.056883480498081715</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05332914012841186</v>
+        <v>0.05332845644580068</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05034727016649675</v>
+        <v>0.05034989818907572</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04788206997764179</v>
+        <v>0.04788816987990644</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04602623714225852</v>
+        <v>0.04603598140328384</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04502090651174436</v>
+        <v>0.04503366788580899</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04472535378982016</v>
+        <v>0.044745220139490255</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04506346847534156</v>
+        <v>0.0450937841666277</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04605080625510165</v>
+        <v>0.046091547426123765</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04775404866445562</v>
+        <v>0.047805637675748074</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05023790145333603</v>
+        <v>0.050304059310464395</v>
       </c>
       <c r="O8" t="n">
-        <v>0.053535114785003036</v>
+        <v>0.053620178565130364</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0575675916957432</v>
+        <v>0.05767167575353164</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.06233519011914014</v>
+        <v>0.06245836171539476</v>
       </c>
       <c r="R8" t="n">
-        <v>0.06783192642877968</v>
+        <v>0.06797448054328777</v>
       </c>
       <c r="S8" t="n">
-        <v>0.07414775051074565</v>
+        <v>0.07433385102325013</v>
       </c>
       <c r="T8" t="n">
-        <v>0.08136531738818935</v>
+        <v>0.0815869948892121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0893995245259757</v>
+        <v>0.08965682263407221</v>
       </c>
       <c r="V8" t="n">
-        <v>0.09819296241725717</v>
+        <v>0.0985833875124375</v>
       </c>
       <c r="W8" t="n">
-        <v>0.10780580377259093</v>
+        <v>0.10887164982322536</v>
       </c>
       <c r="X8" t="n">
-        <v>0.11829050810848389</v>
+        <v>0.11981611130491844</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.12970712701075085</v>
+        <v>0.13165951123393194</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.14203433668172025</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.15582465635620157</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0.17017773815335843</v>
-      </c>
+        <v>0.1440315632126572</v>
+      </c>
+      <c r="AA8"/>
+      <c r="AB8"/>
       <c r="AC8"/>
       <c r="AD8"/>
       <c r="AE8"/>
@@ -43021,83 +43005,79 @@
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>1.7216703019706179</v>
+        <v>1.8304481111071964</v>
       </c>
       <c r="D9" t="n">
-        <v>1.1978852161114473</v>
+        <v>1.1323235853870828</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6561146628768344</v>
+        <v>0.41676777076967797</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09511886038528905</v>
+        <v>-0.3179006463864198</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.48593189100549905</v>
+        <v>-1.0724556898855782</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.0864797061918816</v>
+        <v>-1.8462578989683038</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.7047011738102746</v>
+        <v>-2.6373773888819008</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.342758886560045</v>
+        <v>-3.449260698154715</v>
       </c>
       <c r="K9" t="n">
-        <v>-2.9882147585220613</v>
+        <v>-4.268519383312789</v>
       </c>
       <c r="L9" t="n">
-        <v>-3.6261788925751395</v>
+        <v>-5.080435393299904</v>
       </c>
       <c r="M9" t="n">
-        <v>-4.314620919455731</v>
+        <v>-5.941794858663917</v>
       </c>
       <c r="N9" t="n">
-        <v>-5.009867713940546</v>
+        <v>-6.8148584276002975</v>
       </c>
       <c r="O9" t="n">
-        <v>-5.718097111856087</v>
+        <v>-7.722564064188878</v>
       </c>
       <c r="P9" t="n">
-        <v>-6.433725124292543</v>
+        <v>-8.637130070553432</v>
       </c>
       <c r="Q9" t="n">
-        <v>-7.157439721833748</v>
+        <v>-9.559205420966414</v>
       </c>
       <c r="R9" t="n">
-        <v>-7.8896323545776585</v>
+        <v>-10.489127963226792</v>
       </c>
       <c r="S9" t="n">
-        <v>-8.64987077368492</v>
+        <v>-11.574987559375018</v>
       </c>
       <c r="T9" t="n">
-        <v>-9.448200535046801</v>
+        <v>-12.67985476287889</v>
       </c>
       <c r="U9" t="n">
-        <v>-10.255732252569924</v>
+        <v>-13.793922500111975</v>
       </c>
       <c r="V9" t="n">
-        <v>-11.073398760231665</v>
+        <v>-15.805813968150872</v>
       </c>
       <c r="W9" t="n">
-        <v>-11.953287309265495</v>
+        <v>-22.35234436927005</v>
       </c>
       <c r="X9" t="n">
-        <v>-12.97817547001036</v>
+        <v>-26.1127567704187</v>
       </c>
       <c r="Y9" t="n">
-        <v>-14.014093666903022</v>
+        <v>-29.157763917930033</v>
       </c>
       <c r="Z9" t="n">
-        <v>-15.190373671320678</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>-21.723336571735665</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>-25.0</v>
-      </c>
+        <v>-30.0</v>
+      </c>
+      <c r="AA9"/>
+      <c r="AB9"/>
       <c r="AC9"/>
       <c r="AD9"/>
       <c r="AE9"/>
@@ -43115,83 +43095,79 @@
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>0.20945655986187112</v>
+        <v>0.21243853413945724</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2189072256822832</v>
+        <v>0.22217813856598068</v>
       </c>
       <c r="E10" t="n">
-        <v>0.23793654999938263</v>
+        <v>0.24177758299554408</v>
       </c>
       <c r="F10" t="n">
-        <v>0.25709326712557573</v>
+        <v>0.26148161633104905</v>
       </c>
       <c r="G10" t="n">
-        <v>0.27598731650290126</v>
+        <v>0.28087692463905295</v>
       </c>
       <c r="H10" t="n">
-        <v>0.293981927657285</v>
+        <v>0.2992992023274926</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3115345445291922</v>
+        <v>0.3172341288758201</v>
       </c>
       <c r="J10" t="n">
-        <v>0.32636772793053787</v>
+        <v>0.33235692074555906</v>
       </c>
       <c r="K10" t="n">
-        <v>0.33451178502429196</v>
+        <v>0.34057693299748265</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3522759741796596</v>
+        <v>0.35864476911587295</v>
       </c>
       <c r="M10" t="n">
-        <v>0.37286711671841766</v>
+        <v>0.3795938279448531</v>
       </c>
       <c r="N10" t="n">
-        <v>0.382607881686874</v>
+        <v>0.3893773518188087</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3921129202320241</v>
+        <v>0.3988946249814308</v>
       </c>
       <c r="P10" t="n">
-        <v>0.4015666903183995</v>
+        <v>0.40833365637118</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.41071871352245815</v>
+        <v>0.41743924871812427</v>
       </c>
       <c r="R10" t="n">
-        <v>0.41926371692287273</v>
+        <v>0.4259017086153583</v>
       </c>
       <c r="S10" t="n">
-        <v>0.42700089945910646</v>
+        <v>0.43352097085909935</v>
       </c>
       <c r="T10" t="n">
-        <v>0.43440239132013025</v>
+        <v>0.4407789217582547</v>
       </c>
       <c r="U10" t="n">
-        <v>0.44179529508973314</v>
+        <v>0.4480046639879033</v>
       </c>
       <c r="V10" t="n">
-        <v>0.44877871411098347</v>
+        <v>0.4547916600072</v>
       </c>
       <c r="W10" t="n">
-        <v>0.45633784758220064</v>
+        <v>0.46217465937234703</v>
       </c>
       <c r="X10" t="n">
-        <v>0.4682668706400251</v>
+        <v>0.4740992639656474</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.4881743244221884</v>
+        <v>0.49430132909569313</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.5214307700748988</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.5866448420197926</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0.7283370696789577</v>
-      </c>
+        <v>0.5282986690985535</v>
+      </c>
+      <c r="AA10"/>
+      <c r="AB10"/>
       <c r="AC10"/>
       <c r="AD10"/>
       <c r="AE10"/>
@@ -43209,83 +43185,79 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.12054344013812889</v>
+        <v>0.037561465860542764</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1110927743177168</v>
+        <v>0.027821861434019327</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09206345000061739</v>
+        <v>0.008222417004455916</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07290673287442428</v>
+        <v>-0.011481616331049065</v>
       </c>
       <c r="G11" t="n">
-        <v>0.054012683497098736</v>
+        <v>-0.03087692463905297</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03601807234271502</v>
+        <v>-0.04929920232749258</v>
       </c>
       <c r="I11" t="n">
-        <v>0.018465455470807784</v>
+        <v>-0.06723412887582009</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0036322720694621623</v>
+        <v>-0.08235692074555905</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.004511785024291974</v>
+        <v>-0.09057693299748265</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.022275974179659624</v>
+        <v>-0.10864476911587292</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.04286711671841763</v>
+        <v>-0.12959382794485305</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.052607881686873956</v>
+        <v>-0.13937735181880875</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.06211292023202406</v>
+        <v>-0.14889462498143077</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.07156669031839948</v>
+        <v>-0.15833365637118005</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0807187135224581</v>
+        <v>-0.16743924871812427</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.08926371692287273</v>
+        <v>-0.1759017086153583</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.09700089945910642</v>
+        <v>-0.18352097085909935</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.10440239132013023</v>
+        <v>-0.19077892175825473</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.11179529508973313</v>
+        <v>-0.19800466398790328</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.11877871411098345</v>
+        <v>-0.2047916600072</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.12633784758220065</v>
+        <v>-0.21217465937234706</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.13826687064002507</v>
+        <v>-0.2240992639656474</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.15817432442218837</v>
+        <v>-0.24430132909569313</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.19143077007489878</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>-0.2566448420197926</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>-0.39833706967895777</v>
-      </c>
+        <v>-0.2782986690985535</v>
+      </c>
+      <c r="AA11"/>
+      <c r="AB11"/>
       <c r="AC11"/>
       <c r="AD11"/>
       <c r="AE11"/>
@@ -43303,83 +43275,79 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.7961801248398988</v>
+        <v>-0.7841948493884705</v>
       </c>
       <c r="D12" t="n">
-        <v>0.747441787859588</v>
+        <v>0.7396654178190493</v>
       </c>
       <c r="E12" t="n">
-        <v>2.504868125918718</v>
+        <v>2.474421924917472</v>
       </c>
       <c r="F12" t="n">
-        <v>4.459316856509438</v>
+        <v>4.403375017298357</v>
       </c>
       <c r="G12" t="n">
-        <v>6.5851399034241975</v>
+        <v>6.501120318282985</v>
       </c>
       <c r="H12" t="n">
-        <v>8.820476679965171</v>
+        <v>8.706521407725802</v>
       </c>
       <c r="I12" t="n">
-        <v>11.028582178740251</v>
+        <v>10.884791953225259</v>
       </c>
       <c r="J12" t="n">
-        <v>13.122978341519925</v>
+        <v>12.9493872026731</v>
       </c>
       <c r="K12" t="n">
-        <v>15.027849463060189</v>
+        <v>14.82535541262656</v>
       </c>
       <c r="L12" t="n">
-        <v>16.67085761848494</v>
+        <v>16.442509537596266</v>
       </c>
       <c r="M12" t="n">
-        <v>17.96240456038607</v>
+        <v>17.71275187229188</v>
       </c>
       <c r="N12" t="n">
-        <v>18.864604161322966</v>
+        <v>18.5979384844572</v>
       </c>
       <c r="O12" t="n">
-        <v>19.380333127554177</v>
+        <v>19.10117500535465</v>
       </c>
       <c r="P12" t="n">
-        <v>19.58051906102283</v>
+        <v>19.29430328141131</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.519347251177514</v>
+        <v>19.230900745532374</v>
       </c>
       <c r="R12" t="n">
-        <v>19.25558974008673</v>
+        <v>18.968807013238465</v>
       </c>
       <c r="S12" t="n">
-        <v>18.819350781642704</v>
+        <v>18.531696561276856</v>
       </c>
       <c r="T12" t="n">
-        <v>18.245523876064357</v>
+        <v>17.963006301779952</v>
       </c>
       <c r="U12" t="n">
-        <v>17.601432688268506</v>
+        <v>17.326470608117102</v>
       </c>
       <c r="V12" t="n">
-        <v>16.930225852018456</v>
+        <v>16.6477803787687</v>
       </c>
       <c r="W12" t="n">
-        <v>16.243603673574828</v>
+        <v>15.879403265236082</v>
       </c>
       <c r="X12" t="n">
-        <v>15.540530503570503</v>
+        <v>15.147232318697192</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.801202531832876</v>
+        <v>14.39629263393253</v>
       </c>
       <c r="Z12" t="n">
-        <v>14.026215884883452</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>13.174153785256571</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>12.340790864960542</v>
-      </c>
+        <v>13.656159239125405</v>
+      </c>
+      <c r="AA12"/>
+      <c r="AB12"/>
       <c r="AC12"/>
       <c r="AD12"/>
       <c r="AE12"/>
@@ -43397,7 +43365,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>19.58051906102283</v>
+        <v>19.29430328141131</v>
       </c>
     </row>
   </sheetData>
@@ -43619,7 +43587,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005566610210409073</v>
+        <v>0.005650974932042564</v>
       </c>
     </row>
     <row r="7">
@@ -43630,7 +43598,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0014052748673059013</v>
+        <v>-0.0013976145787715595</v>
       </c>
     </row>
     <row r="8">
@@ -43641,7 +43609,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>6.59635021101665E-6</v>
+        <v>6.5963502110162164E-6</v>
       </c>
     </row>
     <row r="9">
@@ -43652,7 +43620,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004167931693314188</v>
+        <v>0.004259956703482021</v>
       </c>
     </row>
     <row r="10">
@@ -43691,19 +43659,19 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0036973119915526477</v>
+        <v>0.0037533465772644765</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003605425748403735</v>
+        <v>0.003660067752808055</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0033134345179182487</v>
+        <v>0.003363651251296179</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002615218213139978</v>
+        <v>0.0026548531342540575</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0022304819856777914</v>
+        <v>0.002264286039620414</v>
       </c>
     </row>
     <row r="13">
@@ -43722,64 +43690,64 @@
         <v>0.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00834991531561361</v>
+        <v>0.008476462398063846</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01669983063122722</v>
+        <v>0.016952924796127693</v>
       </c>
       <c r="F14" t="n">
-        <v>0.025049745946840826</v>
+        <v>0.02542938719419154</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03339966126245444</v>
+        <v>0.033905849592255385</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04174957657806804</v>
+        <v>0.042382311990319235</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05009949189368165</v>
+        <v>0.05085877438838308</v>
       </c>
       <c r="J14" t="n">
-        <v>0.058449407209295264</v>
+        <v>0.05933523678644692</v>
       </c>
       <c r="K14" t="n">
-        <v>0.06674608951526625</v>
+        <v>0.06775765940236739</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07469065014368659</v>
+        <v>0.07582262376314602</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0820029123026184</v>
+        <v>0.08324570685945835</v>
       </c>
       <c r="N14" t="n">
-        <v>0.08841097219707171</v>
+        <v>0.08975088406027441</v>
       </c>
       <c r="O14" t="n">
-        <v>0.09364292603205651</v>
+        <v>0.09506213073456424</v>
       </c>
       <c r="P14" t="n">
-        <v>0.09742687001258275</v>
+        <v>0.09890342225129785</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.09949090034366047</v>
+        <v>0.10099873397944532</v>
       </c>
       <c r="R14" t="n">
-        <v>0.09956311323029961</v>
+        <v>0.10107204128797671</v>
       </c>
       <c r="S14" t="n">
-        <v>0.09737160487751023</v>
+        <v>0.09884731954586203</v>
       </c>
       <c r="T14" t="n">
-        <v>0.09264447149030226</v>
+        <v>0.09404854412207127</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08510980927368576</v>
+        <v>0.08639969038557456</v>
       </c>
       <c r="V14" t="n">
-        <v>0.07449571443267072</v>
+        <v>0.0756247337053419</v>
       </c>
       <c r="W14" t="n">
-        <v>0.06053028317226701</v>
+        <v>0.06144764945034337</v>
       </c>
     </row>
     <row r="15">
@@ -43790,67 +43758,67 @@
         <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.319259236576539E-4</v>
+        <v>-3.3011656350584234E-4</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0024346738394791564</v>
+        <v>-0.002421402198086196</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.004452051307111826</v>
+        <v>-0.004427782747006177</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0063840583265556625</v>
+        <v>-0.006349258210265787</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.008230694897810665</v>
+        <v>-0.008185828587865025</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.009991961020876834</v>
+        <v>-0.00993749387980389</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.011667856695754167</v>
+        <v>-0.01160425408608238</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.01325838192244267</v>
+        <v>-0.013186109206700502</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.01476353670094234</v>
+        <v>-0.01468305924165825</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.016183321031253178</v>
+        <v>-0.01609510419095563</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.017517734913375178</v>
+        <v>-0.017422244054592632</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.018766778347308347</v>
+        <v>-0.018664478832569265</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.019930451333052678</v>
+        <v>-0.01982180852488552</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.021008753870608177</v>
+        <v>-0.020894233131541408</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.022001685959974843</v>
+        <v>-0.02188175265253692</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.022909247601152684</v>
+        <v>-0.022784367087872067</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.023731438794141677</v>
+        <v>-0.02360207643754683</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.024468259538941845</v>
+        <v>-0.024334880701561232</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.025119709835553183</v>
+        <v>-0.024982779879915262</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.025685789683975682</v>
+        <v>-0.025545773972608914</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.02616649908420935</v>
+        <v>-0.0260238629796422</v>
       </c>
     </row>
     <row r="16">
@@ -43864,64 +43832,64 @@
         <v>0.0</v>
       </c>
       <c r="D16" t="n">
-        <v>9.894525316524976E-6</v>
+        <v>9.894525316524325E-6</v>
       </c>
       <c r="E16" t="n">
-        <v>1.978905063304995E-5</v>
+        <v>1.978905063304865E-5</v>
       </c>
       <c r="F16" t="n">
-        <v>2.9683575949574925E-5</v>
+        <v>2.9683575949572973E-5</v>
       </c>
       <c r="G16" t="n">
-        <v>3.95781012660999E-5</v>
+        <v>3.95781012660973E-5</v>
       </c>
       <c r="H16" t="n">
-        <v>4.947262658262487E-5</v>
+        <v>4.947262658262162E-5</v>
       </c>
       <c r="I16" t="n">
-        <v>5.936715189914985E-5</v>
+        <v>5.936715189914595E-5</v>
       </c>
       <c r="J16" t="n">
-        <v>6.926167721567483E-5</v>
+        <v>6.926167721567027E-5</v>
       </c>
       <c r="K16" t="n">
-        <v>7.91562025321998E-5</v>
+        <v>7.91562025321946E-5</v>
       </c>
       <c r="L16" t="n">
-        <v>8.905072784872478E-5</v>
+        <v>8.905072784871893E-5</v>
       </c>
       <c r="M16" t="n">
-        <v>9.894525316524975E-5</v>
+        <v>9.894525316524324E-5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.0883977848177472E-4</v>
+        <v>1.0883977848176757E-4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.187343037982997E-4</v>
+        <v>1.187343037982919E-4</v>
       </c>
       <c r="P16" t="n">
-        <v>1.2862882911482466E-4</v>
+        <v>1.286288291148162E-4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.3852335443134965E-4</v>
+        <v>1.3852335443134055E-4</v>
       </c>
       <c r="R16" t="n">
-        <v>1.4841787974787462E-4</v>
+        <v>1.4841787974786486E-4</v>
       </c>
       <c r="S16" t="n">
-        <v>1.583124050643996E-4</v>
+        <v>1.583124050643892E-4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.6820693038092457E-4</v>
+        <v>1.6820693038091351E-4</v>
       </c>
       <c r="U16" t="n">
-        <v>1.7810145569744956E-4</v>
+        <v>1.7810145569743785E-4</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8799598101397453E-4</v>
+        <v>1.8799598101396217E-4</v>
       </c>
       <c r="W16" t="n">
-        <v>1.978905063304995E-4</v>
+        <v>1.9789050633048648E-4</v>
       </c>
     </row>
     <row r="17">
@@ -43932,67 +43900,67 @@
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>-3.319259236576539E-4</v>
+        <v>-3.3011656350584234E-4</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0059251360014509775</v>
+        <v>0.0060649547252941746</v>
       </c>
       <c r="E17" t="n">
-        <v>0.012267568374748442</v>
+        <v>0.012544931099754564</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01869537119623474</v>
+        <v>0.019109812559875324</v>
       </c>
       <c r="G17" t="n">
-        <v>0.025208544465909873</v>
+        <v>0.025759599105656457</v>
       </c>
       <c r="H17" t="n">
-        <v>0.031807088183773834</v>
+        <v>0.03249429073709797</v>
       </c>
       <c r="I17" t="n">
-        <v>0.038491002349826636</v>
+        <v>0.03931388745419984</v>
       </c>
       <c r="J17" t="n">
-        <v>0.045260286964068266</v>
+        <v>0.04621838925696209</v>
       </c>
       <c r="K17" t="n">
-        <v>0.05206170901685611</v>
+        <v>0.053153756363241336</v>
       </c>
       <c r="L17" t="n">
-        <v>0.058596379840282126</v>
+        <v>0.05981657030003912</v>
       </c>
       <c r="M17" t="n">
-        <v>0.06458412264240848</v>
+        <v>0.06592240805803096</v>
       </c>
       <c r="N17" t="n">
-        <v>0.06975303362824514</v>
+        <v>0.07119524500618692</v>
       </c>
       <c r="O17" t="n">
-        <v>0.07383120900280213</v>
+        <v>0.075359056513477</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0765467449710894</v>
+        <v>0.07813781794887126</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.07762773773811697</v>
+        <v>0.07925550468133975</v>
       </c>
       <c r="R17" t="n">
-        <v>0.07680228350889479</v>
+        <v>0.07843609207985251</v>
       </c>
       <c r="S17" t="n">
-        <v>0.07379847848843296</v>
+        <v>0.07540355551337959</v>
       </c>
       <c r="T17" t="n">
-        <v>0.06834441888174135</v>
+        <v>0.06988187035089095</v>
       </c>
       <c r="U17" t="n">
-        <v>0.06016820089383003</v>
+        <v>0.061595011961356735</v>
       </c>
       <c r="V17" t="n">
-        <v>0.048997920729709016</v>
+        <v>0.05026695571374694</v>
       </c>
       <c r="W17" t="n">
-        <v>0.03456167459438816</v>
+        <v>0.035621676977031655</v>
       </c>
     </row>
     <row r="18">
@@ -44008,67 +43976,67 @@
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.019248934659911985</v>
+        <v>-0.019540661752872102</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.010899019344298376</v>
+        <v>-0.011064199354808256</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0025491040286847663</v>
+        <v>-0.0025877369567444096</v>
       </c>
       <c r="F19" t="n">
-        <v>0.005800811286928841</v>
+        <v>0.005888725441319437</v>
       </c>
       <c r="G19" t="n">
-        <v>0.014150726602542452</v>
+        <v>0.014365187839383283</v>
       </c>
       <c r="H19" t="n">
-        <v>0.022500641918156056</v>
+        <v>0.022841650237447133</v>
       </c>
       <c r="I19" t="n">
-        <v>0.030850557233769667</v>
+        <v>0.03131811263551097</v>
       </c>
       <c r="J19" t="n">
-        <v>0.039200472549383275</v>
+        <v>0.03979457503357482</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04749715485535427</v>
+        <v>0.04821699764949529</v>
       </c>
       <c r="L19" t="n">
-        <v>0.055441715483774606</v>
+        <v>0.056281962010273925</v>
       </c>
       <c r="M19" t="n">
-        <v>0.06275397764270642</v>
+        <v>0.06370504510658626</v>
       </c>
       <c r="N19" t="n">
-        <v>0.06916203753715973</v>
+        <v>0.07021022230740231</v>
       </c>
       <c r="O19" t="n">
-        <v>0.07439399137214453</v>
+        <v>0.07552146898169214</v>
       </c>
       <c r="P19" t="n">
-        <v>0.07817793535267077</v>
+        <v>0.07936276049842575</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.08024196568374849</v>
+        <v>0.08145807222657322</v>
       </c>
       <c r="R19" t="n">
-        <v>0.08031417857038763</v>
+        <v>0.08153137953510461</v>
       </c>
       <c r="S19" t="n">
-        <v>0.07812267021759825</v>
+        <v>0.07930665779298993</v>
       </c>
       <c r="T19" t="n">
-        <v>0.07339553683039028</v>
+        <v>0.07450788236919917</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06586087461377378</v>
+        <v>0.06685902863270246</v>
       </c>
       <c r="V19" t="n">
-        <v>0.05524677977275874</v>
+        <v>0.0560840719524698</v>
       </c>
       <c r="W19" t="n">
-        <v>0.04128134851235503</v>
+        <v>0.04190698769747127</v>
       </c>
     </row>
     <row r="20">
@@ -44079,67 +44047,67 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.037541113549924524</v>
+        <v>-0.03811006763054767</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.029191198234310912</v>
+        <v>-0.02963360523248382</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.020841282918697305</v>
+        <v>-0.021157142834419974</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.012491367603083697</v>
+        <v>-0.012680680436356128</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.004141452287470086</v>
+        <v>-0.004204218038292282</v>
       </c>
       <c r="H20" t="n">
-        <v>0.004208463028143518</v>
+        <v>0.004272244359771568</v>
       </c>
       <c r="I20" t="n">
-        <v>0.012558378343757129</v>
+        <v>0.012748706757835411</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02090829365937074</v>
+        <v>0.021225169155899254</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02920497596534173</v>
+        <v>0.02964759177181972</v>
       </c>
       <c r="L20" t="n">
-        <v>0.037149536593762064</v>
+        <v>0.03771255613259836</v>
       </c>
       <c r="M20" t="n">
-        <v>0.044461798752693876</v>
+        <v>0.04513563922891069</v>
       </c>
       <c r="N20" t="n">
-        <v>0.05086985864714719</v>
+        <v>0.051640816429726746</v>
       </c>
       <c r="O20" t="n">
-        <v>0.05610181248213199</v>
+        <v>0.05695206310401657</v>
       </c>
       <c r="P20" t="n">
-        <v>0.05988575646265823</v>
+        <v>0.06079335462075018</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.061949786793735945</v>
+        <v>0.06288866634889766</v>
       </c>
       <c r="R20" t="n">
-        <v>0.062021999680375084</v>
+        <v>0.06296197365742905</v>
       </c>
       <c r="S20" t="n">
-        <v>0.05983049132758571</v>
+        <v>0.06073725191531436</v>
       </c>
       <c r="T20" t="n">
-        <v>0.05510335794037774</v>
+        <v>0.0559384764915236</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04756869572376124</v>
+        <v>0.04828962275502689</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0369546008827462</v>
+        <v>0.03751466607479423</v>
       </c>
       <c r="W20" t="n">
-        <v>0.022989169622342487</v>
+        <v>0.0233375818197957</v>
       </c>
     </row>
     <row r="21">
@@ -44150,67 +44118,67 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.051751178705793946</v>
+        <v>-0.052535493328282765</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.043401263390180335</v>
+        <v>-0.044059030930218915</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.035051348074566724</v>
+        <v>-0.03558256853215507</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.02670143275895312</v>
+        <v>-0.027106106134091226</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01835151744333951</v>
+        <v>-0.01862964373602738</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.010001602127725905</v>
+        <v>-0.01015318133796353</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.0016516868121122935</v>
+        <v>-0.0016767189398996865</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0066982285035013175</v>
+        <v>0.006799743458164156</v>
       </c>
       <c r="K21" t="n">
-        <v>0.014994910809472309</v>
+        <v>0.015222166074084623</v>
       </c>
       <c r="L21" t="n">
-        <v>0.022939471437892642</v>
+        <v>0.02328713043486326</v>
       </c>
       <c r="M21" t="n">
-        <v>0.030251733596824454</v>
+        <v>0.03071021353117559</v>
       </c>
       <c r="N21" t="n">
-        <v>0.036659793491277765</v>
+        <v>0.03721539073199165</v>
       </c>
       <c r="O21" t="n">
-        <v>0.041891747326262566</v>
+        <v>0.04252663740628147</v>
       </c>
       <c r="P21" t="n">
-        <v>0.04567569130678881</v>
+        <v>0.046367928923015084</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.04773972163786652</v>
+        <v>0.04846324065116256</v>
       </c>
       <c r="R21" t="n">
-        <v>0.04781193452450566</v>
+        <v>0.04853654795969395</v>
       </c>
       <c r="S21" t="n">
-        <v>0.045620426171716286</v>
+        <v>0.04631182621757926</v>
       </c>
       <c r="T21" t="n">
-        <v>0.04089329278450832</v>
+        <v>0.0415130507937885</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03335863056789182</v>
+        <v>0.033864197057291795</v>
       </c>
       <c r="V21" t="n">
-        <v>0.022744535726876777</v>
+        <v>0.02308924037705913</v>
       </c>
       <c r="W21" t="n">
-        <v>0.008779104466473064</v>
+        <v>0.008912156122060602</v>
       </c>
     </row>
     <row r="22">
@@ -44221,67 +44189,67 @@
         <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.05446136503617418</v>
+        <v>-0.05528675386840556</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.04611144972056057</v>
+        <v>-0.046810291470341714</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.037761534404946964</v>
+        <v>-0.038333829072277864</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.029411619089333353</v>
+        <v>-0.029857366674214018</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.021061703773719742</v>
+        <v>-0.02138090427615017</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.012711788458106138</v>
+        <v>-0.012904441878086322</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.004361873142492527</v>
+        <v>-0.004427979480022479</v>
       </c>
       <c r="J22" t="n">
-        <v>0.003988042173121084</v>
+        <v>0.004048482918041364</v>
       </c>
       <c r="K22" t="n">
-        <v>0.012284724479092075</v>
+        <v>0.01247090553396183</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02022928510751241</v>
+        <v>0.020535869894740467</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02754154726644422</v>
+        <v>0.027958952991052798</v>
       </c>
       <c r="N22" t="n">
-        <v>0.03394960716089753</v>
+        <v>0.03446413019186886</v>
       </c>
       <c r="O22" t="n">
-        <v>0.03918156099588233</v>
+        <v>0.03977537686615868</v>
       </c>
       <c r="P22" t="n">
-        <v>0.042965504976408574</v>
+        <v>0.04361666838289229</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.04502953530748629</v>
+        <v>0.04571198011103977</v>
       </c>
       <c r="R22" t="n">
-        <v>0.04510174819412543</v>
+        <v>0.045785287419571156</v>
       </c>
       <c r="S22" t="n">
-        <v>0.04291023984133605</v>
+        <v>0.04356056567745647</v>
       </c>
       <c r="T22" t="n">
-        <v>0.038183106454128084</v>
+        <v>0.03876179025366571</v>
       </c>
       <c r="U22" t="n">
-        <v>0.030648444237511584</v>
+        <v>0.031112936517169003</v>
       </c>
       <c r="V22" t="n">
-        <v>0.020034349396496544</v>
+        <v>0.02033797983693634</v>
       </c>
       <c r="W22" t="n">
-        <v>0.006068918136092831</v>
+        <v>0.00616089558193781</v>
       </c>
     </row>
     <row r="23">
@@ -44292,67 +44260,67 @@
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.05806164329723319</v>
+        <v>-0.05894159612116088</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.04971172798161958</v>
+        <v>-0.050465133723097036</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.04136181266600597</v>
+        <v>-0.041988671325033186</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.033011897350392366</v>
+        <v>-0.033512208926969336</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.024661982034778755</v>
+        <v>-0.025035746528905493</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.01631206671916515</v>
+        <v>-0.016559284130841644</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.00796215140355154</v>
+        <v>-0.0080828217327778</v>
       </c>
       <c r="J23" t="n">
-        <v>3.87763912062071E-4</v>
+        <v>3.936406652860422E-4</v>
       </c>
       <c r="K23" t="n">
-        <v>0.008684446218033062</v>
+        <v>0.008816063281206508</v>
       </c>
       <c r="L23" t="n">
-        <v>0.016629006846453395</v>
+        <v>0.016881027641985145</v>
       </c>
       <c r="M23" t="n">
-        <v>0.023941269005385207</v>
+        <v>0.024304110738297476</v>
       </c>
       <c r="N23" t="n">
-        <v>0.030349328899838518</v>
+        <v>0.030809287939113535</v>
       </c>
       <c r="O23" t="n">
-        <v>0.03558128273482332</v>
+        <v>0.03612053461340336</v>
       </c>
       <c r="P23" t="n">
-        <v>0.03936522671534956</v>
+        <v>0.03996182613013697</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.041429257046427276</v>
+        <v>0.042057137858284445</v>
       </c>
       <c r="R23" t="n">
-        <v>0.041501469933066415</v>
+        <v>0.042130445166815834</v>
       </c>
       <c r="S23" t="n">
-        <v>0.03930996158027704</v>
+        <v>0.039905723424701146</v>
       </c>
       <c r="T23" t="n">
-        <v>0.03458282819306907</v>
+        <v>0.03510694800091039</v>
       </c>
       <c r="U23" t="n">
-        <v>0.02704816597645257</v>
+        <v>0.02745809426441368</v>
       </c>
       <c r="V23" t="n">
-        <v>0.01643407113543753</v>
+        <v>0.016683137584181017</v>
       </c>
       <c r="W23" t="n">
-        <v>0.002468639875033818</v>
+        <v>0.002506053329182488</v>
       </c>
     </row>
     <row r="24">
